--- a/Rawdata/riptransekter helags 2018.xlsx
+++ b/Rawdata/riptransekter helags 2018.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="793">
   <si>
     <t>vinkel</t>
   </si>
@@ -2391,6 +2391,18 @@
   </si>
   <si>
     <t>mörk tjock, stora fibrer</t>
+  </si>
+  <si>
+    <t>halvklart, vind 1-5 m/s, varmt, antagligen blåsigt under natten</t>
+  </si>
+  <si>
+    <t>nära D1</t>
+  </si>
+  <si>
+    <t>mörka, stora fibrer</t>
+  </si>
+  <si>
+    <t>vindstilla</t>
   </si>
 </sst>
 </file>
@@ -2744,11 +2756,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9831C9-A413-654D-876F-A809696709AE}">
-  <dimension ref="A1:O373"/>
+  <dimension ref="A1:O375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5206,7 +5218,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>290</v>
       </c>
@@ -5222,8 +5234,32 @@
       <c r="E81" s="2">
         <v>43210.262499999997</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81">
+        <v>3.25</v>
+      </c>
+      <c r="H81">
+        <v>270</v>
+      </c>
+      <c r="J81" t="s">
+        <v>10</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>12</v>
+      </c>
+      <c r="N81" t="s">
+        <v>789</v>
+      </c>
+      <c r="O81" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>290</v>
       </c>
@@ -5239,8 +5275,14 @@
       <c r="E82" s="2">
         <v>43210.263194444444</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>24</v>
+      </c>
+      <c r="O82" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>290</v>
       </c>
@@ -5256,831 +5298,1100 @@
       <c r="E83" s="2">
         <v>43210.270833333336</v>
       </c>
-      <c r="F83" s="2"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F83" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="G83">
+        <v>39</v>
+      </c>
+      <c r="H83">
+        <v>24</v>
+      </c>
+      <c r="I83" t="s">
+        <v>772</v>
+      </c>
+      <c r="J83" t="s">
+        <v>15</v>
+      </c>
+      <c r="L83">
+        <v>2</v>
+      </c>
+      <c r="O83" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>290</v>
       </c>
       <c r="B84" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="C84" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D84" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E84" s="2">
-        <v>43210.274305555555</v>
-      </c>
-      <c r="F84" s="2"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <v>43210.270833333336</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84">
+        <v>98</v>
+      </c>
+      <c r="H84">
+        <v>137</v>
+      </c>
+      <c r="I84" t="s">
+        <v>774</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="O84" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>290</v>
       </c>
       <c r="B85" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="C85" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D85" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E85" s="2">
-        <v>43210.283333333333</v>
-      </c>
-      <c r="F85" s="2"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <v>43210.274305555555</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85" t="s">
+        <v>790</v>
+      </c>
+      <c r="O85" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>290</v>
       </c>
       <c r="B86" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C86" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D86" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E86" s="2">
-        <v>43210.294444444444</v>
-      </c>
-      <c r="F86" s="2"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <v>43210.283333333333</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J86" t="s">
+        <v>16</v>
+      </c>
+      <c r="K86">
+        <v>2</v>
+      </c>
+      <c r="L86">
+        <v>25</v>
+      </c>
+      <c r="O86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>290</v>
       </c>
       <c r="B87" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C87" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D87" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E87" s="2">
-        <v>43210.299305555556</v>
-      </c>
-      <c r="F87" s="2"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+        <v>43210.294444444444</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J87" t="s">
+        <v>10</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>24</v>
+      </c>
+      <c r="O87" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>290</v>
       </c>
       <c r="B88" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C88" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D88" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E88" s="2">
-        <v>43210.304166666669</v>
-      </c>
-      <c r="F88" s="2"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <v>43210.299305555556</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88">
+        <v>80</v>
+      </c>
+      <c r="H88">
+        <v>276</v>
+      </c>
+      <c r="I88" t="s">
+        <v>771</v>
+      </c>
+      <c r="J88" t="s">
+        <v>10</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="O88" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>290</v>
       </c>
       <c r="B89" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C89" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D89" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E89" s="2">
-        <v>43210.3125</v>
-      </c>
-      <c r="F89" s="2"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <v>43210.304166666669</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J89" t="s">
+        <v>16</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>33</v>
+      </c>
+      <c r="M89" t="s">
+        <v>791</v>
+      </c>
+      <c r="O89" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>290</v>
       </c>
       <c r="B90" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="C90" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D90" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E90" s="2">
-        <v>43210.327777777777</v>
-      </c>
-      <c r="F90" s="2"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <v>43210.3125</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J90" t="s">
+        <v>10</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90" t="s">
+        <v>23</v>
+      </c>
+      <c r="O90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>290</v>
       </c>
       <c r="B91" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D91" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E91" s="2">
-        <v>43210.338888888888</v>
-      </c>
-      <c r="F91" s="2"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <v>43210.327777777777</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="G91">
+        <v>4</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91" t="s">
+        <v>771</v>
+      </c>
+      <c r="J91" t="s">
+        <v>15</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s">
+        <v>792</v>
+      </c>
+      <c r="O91" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>290</v>
       </c>
       <c r="B92" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D92" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E92" s="2">
-        <v>43210.34375</v>
-      </c>
-      <c r="F92" s="2"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <v>43210.327777777777</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92">
+        <v>86</v>
+      </c>
+      <c r="H92">
+        <v>283</v>
+      </c>
+      <c r="I92" t="s">
+        <v>774</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>792</v>
+      </c>
+      <c r="O92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>290</v>
       </c>
       <c r="B93" t="s">
-        <v>224</v>
+        <v>72</v>
       </c>
       <c r="C93" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D93" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E93" s="2">
-        <v>43210.351388888892</v>
+        <v>43210.338888888888</v>
       </c>
       <c r="F93" s="2"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O93" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>290</v>
       </c>
       <c r="B94" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="C94" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D94" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E94" s="2">
-        <v>43210.355555555558</v>
+        <v>43210.34375</v>
       </c>
       <c r="F94" s="2"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O94" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>290</v>
       </c>
       <c r="B95" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C95" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D95" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E95" s="2">
-        <v>43210.359027777777</v>
+        <v>43210.351388888892</v>
       </c>
       <c r="F95" s="2"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O95" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>290</v>
       </c>
       <c r="B96" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C96" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D96" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E96" s="2">
-        <v>43210.365972222222</v>
+        <v>43210.355555555558</v>
       </c>
       <c r="F96" s="2"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O96" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>290</v>
       </c>
       <c r="B97" t="s">
-        <v>151</v>
+        <v>229</v>
       </c>
       <c r="C97" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D97" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E97" s="2">
-        <v>43210.367361111108</v>
+        <v>43210.359027777777</v>
       </c>
       <c r="F97" s="2"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O97" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>290</v>
       </c>
       <c r="B98" t="s">
-        <v>236</v>
+        <v>81</v>
       </c>
       <c r="C98" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D98" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="E98" s="2">
-        <v>43210.386805555558</v>
+        <v>43210.365972222222</v>
       </c>
       <c r="F98" s="2"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O98" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>290</v>
       </c>
       <c r="B99" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="C99" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D99" t="s">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="E99" s="2">
-        <v>43210.40625</v>
+        <v>43210.367361111108</v>
       </c>
       <c r="F99" s="2"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O99" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>290</v>
       </c>
       <c r="B100" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="C100" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D100" t="s">
-        <v>111</v>
+        <v>221</v>
       </c>
       <c r="E100" s="2">
-        <v>43210.422222222223</v>
+        <v>43210.386805555558</v>
       </c>
       <c r="F100" s="2"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O100" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>290</v>
       </c>
       <c r="B101" t="s">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="C101" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D101" t="s">
-        <v>242</v>
+        <v>71</v>
       </c>
       <c r="E101" s="2">
-        <v>43210.436111111114</v>
+        <v>43210.40625</v>
       </c>
       <c r="F101" s="2"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O101" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>290</v>
       </c>
       <c r="B102" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C102" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D102" t="s">
-        <v>244</v>
+        <v>111</v>
       </c>
       <c r="E102" s="2">
-        <v>43210.443749999999</v>
+        <v>43210.422222222223</v>
       </c>
       <c r="F102" s="2"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O102" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>290</v>
       </c>
       <c r="B103" t="s">
-        <v>164</v>
+        <v>240</v>
       </c>
       <c r="C103" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D103" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E103" s="2">
-        <v>43210.450694444444</v>
+        <v>43210.436111111114</v>
       </c>
       <c r="F103" s="2"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O103" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>290</v>
       </c>
       <c r="B104" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C104" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D104" t="s">
-        <v>110</v>
+        <v>244</v>
       </c>
       <c r="E104" s="2">
-        <v>43210.454861111109</v>
+        <v>43210.443749999999</v>
       </c>
       <c r="F104" s="2"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O104" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>290</v>
       </c>
       <c r="B105" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="C105" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D105" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E105" s="2">
-        <v>43210.456944444442</v>
+        <v>43210.450694444444</v>
       </c>
       <c r="F105" s="2"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O105" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>290</v>
       </c>
       <c r="B106" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C106" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D106" t="s">
-        <v>252</v>
+        <v>110</v>
       </c>
       <c r="E106" s="2">
-        <v>43210.474999999999</v>
+        <v>43210.454861111109</v>
       </c>
       <c r="F106" s="2"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O106" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>290</v>
       </c>
       <c r="B107" t="s">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D107" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E107" s="2">
-        <v>43210.478472222225</v>
+        <v>43210.456944444442</v>
       </c>
       <c r="F107" s="2"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O107" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>290</v>
       </c>
       <c r="B108" t="s">
-        <v>195</v>
+        <v>112</v>
       </c>
       <c r="C108" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D108" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E108" s="2">
-        <v>43210.479861111111</v>
+        <v>43210.474999999999</v>
       </c>
       <c r="F108" s="2"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O108" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>290</v>
       </c>
       <c r="B109" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="C109" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D109" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E109" s="2">
-        <v>43210.481249999997</v>
+        <v>43210.478472222225</v>
       </c>
       <c r="F109" s="2"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O109" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>290</v>
       </c>
       <c r="B110" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C110" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D110" t="s">
-        <v>65</v>
+        <v>255</v>
       </c>
       <c r="E110" s="2">
-        <v>43210.48541666667</v>
+        <v>43210.479861111111</v>
       </c>
       <c r="F110" s="2"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O110" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>290</v>
       </c>
       <c r="B111" t="s">
-        <v>258</v>
+        <v>128</v>
       </c>
       <c r="C111" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D111" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E111" s="2">
-        <v>43210.51666666667</v>
+        <v>43210.481249999997</v>
       </c>
       <c r="F111" s="2"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O111" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>290</v>
       </c>
       <c r="B112" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="C112" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D112" t="s">
-        <v>262</v>
+        <v>65</v>
       </c>
       <c r="E112" s="2">
-        <v>43210.525000000001</v>
+        <v>43210.48541666667</v>
       </c>
       <c r="F112" s="2"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O112" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>290</v>
       </c>
       <c r="B113" t="s">
-        <v>99</v>
+        <v>258</v>
       </c>
       <c r="C113" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D113" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E113" s="2">
-        <v>43210.536805555559</v>
+        <v>43210.51666666667</v>
       </c>
       <c r="F113" s="2"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O113" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>290</v>
       </c>
       <c r="B114" t="s">
-        <v>265</v>
+        <v>128</v>
       </c>
       <c r="C114" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D114" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E114" s="2">
-        <v>43210.537499999999</v>
+        <v>43210.525000000001</v>
       </c>
       <c r="F114" s="2"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O114" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>290</v>
       </c>
       <c r="B115" t="s">
-        <v>267</v>
+        <v>99</v>
       </c>
       <c r="C115" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D115" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E115" s="2">
-        <v>43210.541666666664</v>
+        <v>43210.536805555559</v>
       </c>
       <c r="F115" s="2"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O115" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>290</v>
       </c>
       <c r="B116" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C116" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D116" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E116" s="2">
-        <v>43210.543055555558</v>
+        <v>43210.537499999999</v>
       </c>
       <c r="F116" s="2"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O116" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>290</v>
       </c>
       <c r="B117" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C117" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D117" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E117" s="2">
-        <v>43210.548611111109</v>
+        <v>43210.541666666664</v>
       </c>
       <c r="F117" s="2"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O117" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>290</v>
       </c>
       <c r="B118" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C118" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D118" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E118" s="2">
-        <v>43210.556250000001</v>
+        <v>43210.543055555558</v>
       </c>
       <c r="F118" s="2"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O118" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>290</v>
       </c>
       <c r="B119" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C119" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D119" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E119" s="2">
-        <v>43210.645138888889</v>
+        <v>43210.548611111109</v>
       </c>
       <c r="F119" s="2"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O119" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>290</v>
       </c>
       <c r="B120" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C120" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D120" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E120" s="2">
-        <v>43210.647916666669</v>
+        <v>43210.556250000001</v>
       </c>
       <c r="F120" s="2"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O120" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>290</v>
       </c>
       <c r="B121" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C121" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D121" t="s">
-        <v>158</v>
+        <v>280</v>
       </c>
       <c r="E121" s="2">
-        <v>43210.658333333333</v>
+        <v>43210.645138888889</v>
       </c>
       <c r="F121" s="2"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O121" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>290</v>
       </c>
       <c r="B122" t="s">
+        <v>281</v>
+      </c>
+      <c r="C122" t="s">
+        <v>282</v>
+      </c>
+      <c r="D122" t="s">
+        <v>283</v>
+      </c>
+      <c r="E122" s="2">
+        <v>43210.647916666669</v>
+      </c>
+      <c r="F122" s="2"/>
+      <c r="O122" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>290</v>
+      </c>
+      <c r="B123" t="s">
+        <v>284</v>
+      </c>
+      <c r="C123" t="s">
+        <v>285</v>
+      </c>
+      <c r="D123" t="s">
+        <v>158</v>
+      </c>
+      <c r="E123" s="2">
+        <v>43210.658333333333</v>
+      </c>
+      <c r="F123" s="2"/>
+      <c r="O123" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>290</v>
+      </c>
+      <c r="B124" t="s">
         <v>286</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C124" t="s">
         <v>287</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D124" t="s">
         <v>288</v>
       </c>
-      <c r="E122" s="2">
+      <c r="E124" s="2">
         <v>43210.668749999997</v>
       </c>
-      <c r="F122" s="2"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>4</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C123" t="s">
-        <v>292</v>
-      </c>
-      <c r="D123" t="s">
-        <v>293</v>
-      </c>
-      <c r="E123" s="2">
-        <v>43212.502083333333</v>
-      </c>
-      <c r="F123" s="2"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>4</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C124" t="s">
-        <v>295</v>
-      </c>
-      <c r="D124" t="s">
-        <v>160</v>
-      </c>
-      <c r="E124" s="2">
-        <v>43212.527777777781</v>
-      </c>
       <c r="F124" s="2"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O124" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>4</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="C125" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D125" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E125" s="2">
-        <v>43212.532638888886</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+        <v>43212.502083333333</v>
+      </c>
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>4</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="C126" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D126" t="s">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="E126" s="2">
-        <v>43212.552083333336</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+        <v>43212.527777777781</v>
+      </c>
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>4</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="C127" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D127" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="E127" s="2">
-        <v>43212.578472222223</v>
-      </c>
-      <c r="F127" s="2"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+        <v>43212.532638888886</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>4</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="C128" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D128" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E128" s="2">
-        <v>43212.597916666666</v>
-      </c>
-      <c r="F128" s="2"/>
+        <v>43212.552083333336</v>
+      </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>4</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="C129" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D129" t="s">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="E129" s="2">
-        <v>43212.602083333331</v>
+        <v>43212.578472222223</v>
       </c>
       <c r="F129" s="2"/>
     </row>
@@ -6089,16 +6400,16 @@
         <v>4</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C130" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D130" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E130" s="2">
-        <v>43212.603472222225</v>
+        <v>43212.597916666666</v>
       </c>
       <c r="F130" s="2"/>
     </row>
@@ -6107,16 +6418,16 @@
         <v>4</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="C131" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D131" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E131" s="2">
-        <v>43212.605555555558</v>
+        <v>43212.602083333331</v>
       </c>
       <c r="F131" s="2"/>
     </row>
@@ -6125,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="C132" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D132" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E132" s="2">
-        <v>43212.60833333333</v>
+        <v>43212.603472222225</v>
       </c>
       <c r="F132" s="2"/>
     </row>
@@ -6143,16 +6454,16 @@
         <v>4</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="C133" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D133" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E133" s="2">
-        <v>43212.612500000003</v>
+        <v>43212.605555555558</v>
       </c>
       <c r="F133" s="2"/>
     </row>
@@ -6161,16 +6472,16 @@
         <v>4</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C134" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D134" t="s">
-        <v>92</v>
+        <v>313</v>
       </c>
       <c r="E134" s="2">
-        <v>43212.630555555559</v>
+        <v>43212.60833333333</v>
       </c>
       <c r="F134" s="2"/>
     </row>
@@ -6179,16 +6490,16 @@
         <v>4</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="C135" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D135" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E135" s="2">
-        <v>43212.633333333331</v>
+        <v>43212.612500000003</v>
       </c>
       <c r="F135" s="2"/>
     </row>
@@ -6197,16 +6508,16 @@
         <v>4</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C136" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D136" t="s">
-        <v>320</v>
+        <v>92</v>
       </c>
       <c r="E136" s="2">
-        <v>43212.638194444444</v>
+        <v>43212.630555555559</v>
       </c>
       <c r="F136" s="2"/>
     </row>
@@ -6215,16 +6526,16 @@
         <v>4</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C137" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D137" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E137" s="2">
-        <v>43212.65625</v>
+        <v>43212.633333333331</v>
       </c>
       <c r="F137" s="2"/>
     </row>
@@ -6233,16 +6544,16 @@
         <v>4</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C138" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D138" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E138" s="2">
-        <v>43212.658333333333</v>
+        <v>43212.638194444444</v>
       </c>
       <c r="F138" s="2"/>
     </row>
@@ -6251,16 +6562,16 @@
         <v>4</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>178</v>
+        <v>72</v>
       </c>
       <c r="C139" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D139" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E139" s="2">
-        <v>43212.684027777781</v>
+        <v>43212.65625</v>
       </c>
       <c r="F139" s="2"/>
     </row>
@@ -6269,16 +6580,16 @@
         <v>4</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C140" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D140" t="s">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="E140" s="2">
-        <v>43212.69027777778</v>
+        <v>43212.658333333333</v>
       </c>
       <c r="F140" s="2"/>
     </row>
@@ -6287,16 +6598,16 @@
         <v>4</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C141" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D141" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E141" s="2">
-        <v>43212.693055555559</v>
+        <v>43212.684027777781</v>
       </c>
       <c r="F141" s="2"/>
     </row>
@@ -6305,52 +6616,52 @@
         <v>4</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C142" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D142" t="s">
-        <v>331</v>
+        <v>77</v>
       </c>
       <c r="E142" s="2">
-        <v>43212.711111111108</v>
+        <v>43212.69027777778</v>
       </c>
       <c r="F142" s="2"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>434</v>
+        <v>4</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>332</v>
+        <v>184</v>
       </c>
       <c r="C143" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D143" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E143" s="2">
-        <v>43214.329861111109</v>
+        <v>43212.693055555559</v>
       </c>
       <c r="F143" s="2"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>434</v>
+        <v>4</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="C144" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D144" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E144" s="2">
-        <v>43214.337500000001</v>
+        <v>43212.711111111108</v>
       </c>
       <c r="F144" s="2"/>
     </row>
@@ -6359,16 +6670,16 @@
         <v>434</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>146</v>
+        <v>332</v>
       </c>
       <c r="C145" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D145" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E145" s="2">
-        <v>43214.368750000001</v>
+        <v>43214.329861111109</v>
       </c>
       <c r="F145" s="2"/>
     </row>
@@ -6377,16 +6688,16 @@
         <v>434</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="C146" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D146" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E146" s="2">
-        <v>43214.370138888888</v>
+        <v>43214.337500000001</v>
       </c>
       <c r="F146" s="2"/>
     </row>
@@ -6395,86 +6706,86 @@
         <v>434</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D147" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E147" s="2">
-        <v>43214.384722222225</v>
-      </c>
+        <v>43214.368750000001</v>
+      </c>
+      <c r="F147" s="2"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>434</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="C148" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D148" t="s">
-        <v>272</v>
+        <v>342</v>
       </c>
       <c r="E148" s="2">
-        <v>43214.393055555556</v>
-      </c>
+        <v>43214.370138888888</v>
+      </c>
+      <c r="F148" s="2"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>434</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C149" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D149" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E149" s="2">
-        <v>43214.396527777775</v>
-      </c>
-      <c r="F149" s="2"/>
+        <v>43214.384722222225</v>
+      </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>434</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C150" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D150" t="s">
-        <v>342</v>
+        <v>272</v>
       </c>
       <c r="E150" s="2">
-        <v>43214.397916666669</v>
-      </c>
-      <c r="F150" s="2"/>
+        <v>43214.393055555556</v>
+      </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>434</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C151" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D151" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E151" s="2">
-        <v>43214.402083333334</v>
+        <v>43214.396527777775</v>
       </c>
       <c r="F151" s="2"/>
     </row>
@@ -6483,16 +6794,16 @@
         <v>434</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C152" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D152" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="E152" s="2">
-        <v>43214.40347222222</v>
+        <v>43214.397916666669</v>
       </c>
       <c r="F152" s="2"/>
     </row>
@@ -6501,16 +6812,16 @@
         <v>434</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C153" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D153" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E153" s="2">
-        <v>43214.40625</v>
+        <v>43214.402083333334</v>
       </c>
       <c r="F153" s="2"/>
     </row>
@@ -6519,16 +6830,16 @@
         <v>434</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C154" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D154" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E154" s="2">
-        <v>43214.407638888886</v>
+        <v>43214.40347222222</v>
       </c>
       <c r="F154" s="2"/>
     </row>
@@ -6537,16 +6848,16 @@
         <v>434</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C155" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D155" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
       <c r="E155" s="2">
-        <v>43214.409722222219</v>
+        <v>43214.40625</v>
       </c>
       <c r="F155" s="2"/>
     </row>
@@ -6555,16 +6866,16 @@
         <v>434</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="C156" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D156" t="s">
-        <v>288</v>
+        <v>356</v>
       </c>
       <c r="E156" s="2">
-        <v>43214.411805555559</v>
+        <v>43214.407638888886</v>
       </c>
       <c r="F156" s="2"/>
     </row>
@@ -6573,16 +6884,16 @@
         <v>434</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C157" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D157" t="s">
-        <v>360</v>
+        <v>217</v>
       </c>
       <c r="E157" s="2">
-        <v>43214.413888888892</v>
+        <v>43214.409722222219</v>
       </c>
       <c r="F157" s="2"/>
     </row>
@@ -6591,16 +6902,16 @@
         <v>434</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="C158" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D158" t="s">
-        <v>362</v>
+        <v>288</v>
       </c>
       <c r="E158" s="2">
-        <v>43214.417361111111</v>
+        <v>43214.411805555559</v>
       </c>
       <c r="F158" s="2"/>
     </row>
@@ -6609,16 +6920,16 @@
         <v>434</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="C159" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D159" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E159" s="2">
-        <v>43214.420138888891</v>
+        <v>43214.413888888892</v>
       </c>
       <c r="F159" s="2"/>
     </row>
@@ -6627,16 +6938,16 @@
         <v>434</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="C160" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D160" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E160" s="2">
-        <v>43214.425694444442</v>
+        <v>43214.417361111111</v>
       </c>
       <c r="F160" s="2"/>
     </row>
@@ -6645,16 +6956,16 @@
         <v>434</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="C161" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D161" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E161" s="2">
-        <v>43214.429166666669</v>
+        <v>43214.420138888891</v>
       </c>
       <c r="F161" s="2"/>
     </row>
@@ -6663,16 +6974,16 @@
         <v>434</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="C162" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D162" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E162" s="2">
-        <v>43214.433333333334</v>
+        <v>43214.425694444442</v>
       </c>
       <c r="F162" s="2"/>
     </row>
@@ -6681,16 +6992,16 @@
         <v>434</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C163" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D163" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E163" s="2">
-        <v>43214.436111111114</v>
+        <v>43214.429166666669</v>
       </c>
       <c r="F163" s="2"/>
     </row>
@@ -6699,16 +7010,16 @@
         <v>434</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>195</v>
+        <v>112</v>
       </c>
       <c r="C164" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D164" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E164" s="2">
-        <v>43214.440972222219</v>
+        <v>43214.433333333334</v>
       </c>
       <c r="F164" s="2"/>
     </row>
@@ -6717,16 +7028,16 @@
         <v>434</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="C165" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D165" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E165" s="2">
-        <v>43214.443055555559</v>
+        <v>43214.436111111114</v>
       </c>
       <c r="F165" s="2"/>
     </row>
@@ -6735,16 +7046,16 @@
         <v>434</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>265</v>
+        <v>195</v>
       </c>
       <c r="C166" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D166" t="s">
-        <v>304</v>
+        <v>375</v>
       </c>
       <c r="E166" s="2">
-        <v>43214.445138888892</v>
+        <v>43214.440972222219</v>
       </c>
       <c r="F166" s="2"/>
     </row>
@@ -6753,16 +7064,16 @@
         <v>434</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>267</v>
+        <v>128</v>
       </c>
       <c r="C167" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D167" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E167" s="2">
-        <v>43214.447916666664</v>
+        <v>43214.443055555559</v>
       </c>
       <c r="F167" s="2"/>
     </row>
@@ -6771,16 +7082,16 @@
         <v>434</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="C168" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D168" t="s">
-        <v>382</v>
+        <v>304</v>
       </c>
       <c r="E168" s="2">
-        <v>43214.451388888891</v>
+        <v>43214.445138888892</v>
       </c>
       <c r="F168" s="2"/>
     </row>
@@ -6789,16 +7100,16 @@
         <v>434</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C169" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D169" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E169" s="2">
-        <v>43214.453472222223</v>
+        <v>43214.447916666664</v>
       </c>
       <c r="F169" s="2"/>
     </row>
@@ -6807,16 +7118,16 @@
         <v>434</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
       <c r="C170" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D170" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E170" s="2">
-        <v>43214.454861111109</v>
+        <v>43214.451388888891</v>
       </c>
       <c r="F170" s="2"/>
     </row>
@@ -6825,16 +7136,16 @@
         <v>434</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>178</v>
+        <v>270</v>
       </c>
       <c r="C171" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D171" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E171" s="2">
-        <v>43214.459722222222</v>
+        <v>43214.453472222223</v>
       </c>
       <c r="F171" s="2"/>
     </row>
@@ -6843,16 +7154,16 @@
         <v>434</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>181</v>
+        <v>275</v>
       </c>
       <c r="C172" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D172" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E172" s="2">
-        <v>43214.461805555555</v>
+        <v>43214.454861111109</v>
       </c>
       <c r="F172" s="2"/>
     </row>
@@ -6861,16 +7172,16 @@
         <v>434</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>391</v>
+        <v>178</v>
       </c>
       <c r="C173" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D173" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E173" s="2">
-        <v>43214.463194444441</v>
+        <v>43214.459722222222</v>
       </c>
       <c r="F173" s="2"/>
     </row>
@@ -6879,16 +7190,16 @@
         <v>434</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="C174" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D174" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E174" s="2">
-        <v>43214.570833333331</v>
+        <v>43214.461805555555</v>
       </c>
       <c r="F174" s="2"/>
     </row>
@@ -6897,16 +7208,16 @@
         <v>434</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C175" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D175" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E175" s="2">
-        <v>43214.572222222225</v>
+        <v>43214.463194444441</v>
       </c>
       <c r="F175" s="2"/>
     </row>
@@ -6915,16 +7226,16 @@
         <v>434</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>207</v>
+        <v>131</v>
       </c>
       <c r="C176" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D176" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E176" s="2">
-        <v>43214.574999999997</v>
+        <v>43214.570833333331</v>
       </c>
       <c r="F176" s="2"/>
     </row>
@@ -6933,16 +7244,16 @@
         <v>434</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>311</v>
+        <v>396</v>
       </c>
       <c r="C177" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D177" t="s">
-        <v>188</v>
+        <v>398</v>
       </c>
       <c r="E177" s="2">
-        <v>43214.576388888891</v>
+        <v>43214.572222222225</v>
       </c>
       <c r="F177" s="2"/>
     </row>
@@ -6951,16 +7262,16 @@
         <v>434</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>402</v>
+        <v>207</v>
       </c>
       <c r="C178" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D178" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E178" s="2">
-        <v>43214.586805555555</v>
+        <v>43214.574999999997</v>
       </c>
       <c r="F178" s="2"/>
     </row>
@@ -6969,16 +7280,16 @@
         <v>434</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>405</v>
+        <v>311</v>
       </c>
       <c r="C179" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D179" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="E179" s="2">
-        <v>43214.598611111112</v>
+        <v>43214.576388888891</v>
       </c>
       <c r="F179" s="2"/>
     </row>
@@ -6987,16 +7298,16 @@
         <v>434</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>184</v>
+        <v>402</v>
       </c>
       <c r="C180" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D180" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E180" s="2">
-        <v>43214.61041666667</v>
+        <v>43214.586805555555</v>
       </c>
       <c r="F180" s="2"/>
     </row>
@@ -7005,16 +7316,16 @@
         <v>434</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C181" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D181" t="s">
-        <v>411</v>
+        <v>233</v>
       </c>
       <c r="E181" s="2">
-        <v>43214.611111111109</v>
+        <v>43214.598611111112</v>
       </c>
       <c r="F181" s="2"/>
     </row>
@@ -7023,16 +7334,16 @@
         <v>434</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>412</v>
+        <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D182" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E182" s="2">
-        <v>43214.615277777775</v>
+        <v>43214.61041666667</v>
       </c>
       <c r="F182" s="2"/>
     </row>
@@ -7041,16 +7352,16 @@
         <v>434</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>136</v>
+        <v>409</v>
       </c>
       <c r="C183" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D183" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E183" s="2">
-        <v>43214.620833333334</v>
+        <v>43214.611111111109</v>
       </c>
       <c r="F183" s="2"/>
     </row>
@@ -7059,16 +7370,16 @@
         <v>434</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C184" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D184" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E184" s="2">
-        <v>43214.624305555553</v>
+        <v>43214.615277777775</v>
       </c>
       <c r="F184" s="2"/>
     </row>
@@ -7077,16 +7388,16 @@
         <v>434</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>420</v>
+        <v>136</v>
       </c>
       <c r="C185" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D185" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="E185" s="2">
-        <v>43214.631249999999</v>
+        <v>43214.620833333334</v>
       </c>
       <c r="F185" s="2"/>
     </row>
@@ -7095,16 +7406,16 @@
         <v>434</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>224</v>
+        <v>417</v>
       </c>
       <c r="C186" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D186" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="E186" s="2">
-        <v>43214.65</v>
+        <v>43214.624305555553</v>
       </c>
       <c r="F186" s="2"/>
     </row>
@@ -7113,16 +7424,16 @@
         <v>434</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C187" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D187" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E187" s="2">
-        <v>43214.65625</v>
+        <v>43214.631249999999</v>
       </c>
       <c r="F187" s="2"/>
     </row>
@@ -7131,16 +7442,16 @@
         <v>434</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>428</v>
+        <v>224</v>
       </c>
       <c r="C188" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D188" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="E188" s="2">
-        <v>43214.661111111112</v>
+        <v>43214.65</v>
       </c>
       <c r="F188" s="2"/>
     </row>
@@ -7149,52 +7460,52 @@
         <v>434</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C189" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D189" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="E189" s="2">
-        <v>43214.67083333333</v>
+        <v>43214.65625</v>
       </c>
       <c r="F189" s="2"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>482</v>
+        <v>434</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C190" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D190" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="E190" s="2">
-        <v>43216.280555555553</v>
+        <v>43214.661111111112</v>
       </c>
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>482</v>
+        <v>434</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C191" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D191" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E191" s="2">
-        <v>43216.380555555559</v>
+        <v>43214.67083333333</v>
       </c>
       <c r="F191" s="2"/>
     </row>
@@ -7203,16 +7514,16 @@
         <v>482</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>33</v>
+        <v>431</v>
       </c>
       <c r="C192" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D192" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E192" s="2">
-        <v>43216.390972222223</v>
+        <v>43216.280555555553</v>
       </c>
       <c r="F192" s="2"/>
     </row>
@@ -7221,16 +7532,16 @@
         <v>482</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>35</v>
+        <v>437</v>
       </c>
       <c r="C193" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D193" t="s">
-        <v>318</v>
+        <v>439</v>
       </c>
       <c r="E193" s="2">
-        <v>43216.40625</v>
+        <v>43216.380555555559</v>
       </c>
       <c r="F193" s="2"/>
     </row>
@@ -7239,16 +7550,16 @@
         <v>482</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C194" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D194" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E194" s="2">
-        <v>43216.413888888892</v>
+        <v>43216.390972222223</v>
       </c>
       <c r="F194" s="2"/>
     </row>
@@ -7257,16 +7568,16 @@
         <v>482</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C195" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D195" t="s">
-        <v>446</v>
+        <v>318</v>
       </c>
       <c r="E195" s="2">
-        <v>43216.42291666667</v>
+        <v>43216.40625</v>
       </c>
       <c r="F195" s="2"/>
     </row>
@@ -7275,86 +7586,86 @@
         <v>482</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="C196" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D196" t="s">
-        <v>260</v>
+        <v>444</v>
       </c>
       <c r="E196" s="2">
-        <v>43216.426388888889</v>
-      </c>
+        <v>43216.413888888892</v>
+      </c>
+      <c r="F196" s="2"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>482</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C197" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D197" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E197" s="2">
-        <v>43216.430555555555</v>
-      </c>
+        <v>43216.42291666667</v>
+      </c>
+      <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>482</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C198" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D198" t="s">
-        <v>452</v>
+        <v>260</v>
       </c>
       <c r="E198" s="2">
-        <v>43216.431944444441</v>
-      </c>
-      <c r="F198" s="2"/>
+        <v>43216.426388888889</v>
+      </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>482</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="C199" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D199" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E199" s="2">
-        <v>43216.442361111112</v>
-      </c>
-      <c r="F199" s="2"/>
+        <v>43216.430555555555</v>
+      </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>482</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>224</v>
+        <v>151</v>
       </c>
       <c r="C200" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D200" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E200" s="2">
-        <v>43216.448611111111</v>
+        <v>43216.431944444441</v>
       </c>
       <c r="F200" s="2"/>
     </row>
@@ -7363,13 +7674,16 @@
         <v>482</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="C201" t="s">
-        <v>457</v>
+        <v>453</v>
+      </c>
+      <c r="D201" t="s">
+        <v>454</v>
       </c>
       <c r="E201" s="2">
-        <v>43216.490277777775</v>
+        <v>43216.442361111112</v>
       </c>
       <c r="F201" s="2"/>
     </row>
@@ -7378,16 +7692,16 @@
         <v>482</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="C202" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D202" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E202" s="2">
-        <v>43216.490277777775</v>
+        <v>43216.448611111111</v>
       </c>
       <c r="F202" s="2"/>
     </row>
@@ -7396,16 +7710,13 @@
         <v>482</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>184</v>
+        <v>50</v>
       </c>
       <c r="C203" t="s">
-        <v>460</v>
-      </c>
-      <c r="D203" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E203" s="2">
-        <v>43216.509027777778</v>
+        <v>43216.490277777775</v>
       </c>
       <c r="F203" s="2"/>
     </row>
@@ -7414,16 +7725,16 @@
         <v>482</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>69</v>
+        <v>258</v>
       </c>
       <c r="C204" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D204" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E204" s="2">
-        <v>43216.606249999997</v>
+        <v>43216.490277777775</v>
       </c>
       <c r="F204" s="2"/>
     </row>
@@ -7432,16 +7743,16 @@
         <v>482</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>281</v>
+        <v>184</v>
       </c>
       <c r="C205" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D205" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E205" s="2">
-        <v>43216.615277777775</v>
+        <v>43216.509027777778</v>
       </c>
       <c r="F205" s="2"/>
     </row>
@@ -7450,16 +7761,16 @@
         <v>482</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C206" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D206" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E206" s="2">
-        <v>43216.620138888888</v>
+        <v>43216.606249999997</v>
       </c>
       <c r="F206" s="2"/>
     </row>
@@ -7468,16 +7779,16 @@
         <v>482</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>72</v>
+        <v>281</v>
       </c>
       <c r="C207" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D207" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="E207" s="2">
-        <v>43216.622916666667</v>
+        <v>43216.615277777775</v>
       </c>
       <c r="F207" s="2"/>
     </row>
@@ -7486,16 +7797,16 @@
         <v>482</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>236</v>
+        <v>99</v>
       </c>
       <c r="C208" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D208" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E208" s="2">
-        <v>43216.62777777778</v>
+        <v>43216.620138888888</v>
       </c>
       <c r="F208" s="2"/>
     </row>
@@ -7504,16 +7815,16 @@
         <v>482</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>284</v>
+        <v>72</v>
       </c>
       <c r="C209" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D209" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="E209" s="2">
-        <v>43216.634722222225</v>
+        <v>43216.622916666667</v>
       </c>
       <c r="F209" s="2"/>
     </row>
@@ -7522,16 +7833,16 @@
         <v>482</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="C210" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D210" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E210" s="2">
-        <v>43216.640972222223</v>
+        <v>43216.62777777778</v>
       </c>
       <c r="F210" s="2"/>
     </row>
@@ -7540,16 +7851,16 @@
         <v>482</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>99</v>
+        <v>284</v>
       </c>
       <c r="C211" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D211" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E211" s="2">
-        <v>43216.645138888889</v>
+        <v>43216.634722222225</v>
       </c>
       <c r="F211" s="2"/>
     </row>
@@ -7558,16 +7869,16 @@
         <v>482</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>477</v>
+        <v>286</v>
       </c>
       <c r="C212" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D212" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E212" s="2">
-        <v>43216.650694444441</v>
+        <v>43216.640972222223</v>
       </c>
       <c r="F212" s="2"/>
     </row>
@@ -7576,52 +7887,52 @@
         <v>482</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C213" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D213" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E213" s="2">
-        <v>43216.677083333336</v>
+        <v>43216.645138888889</v>
       </c>
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>526</v>
+        <v>482</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>431</v>
+        <v>477</v>
       </c>
       <c r="C214" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D214" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E214" s="2">
-        <v>43217.268750000003</v>
+        <v>43216.650694444441</v>
       </c>
       <c r="F214" s="2"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>526</v>
+        <v>482</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>485</v>
+        <v>78</v>
       </c>
       <c r="C215" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D215" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="E215" s="2">
-        <v>43217.288194444445</v>
+        <v>43216.677083333336</v>
       </c>
       <c r="F215" s="2"/>
     </row>
@@ -7630,16 +7941,16 @@
         <v>526</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>146</v>
+        <v>431</v>
       </c>
       <c r="C216" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D216" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="E216" s="2">
-        <v>43217.292361111111</v>
+        <v>43217.268750000003</v>
       </c>
       <c r="F216" s="2"/>
     </row>
@@ -7648,16 +7959,16 @@
         <v>526</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="C217" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D217" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="E217" s="2">
-        <v>43217.294444444444</v>
+        <v>43217.288194444445</v>
       </c>
       <c r="F217" s="2"/>
     </row>
@@ -7666,16 +7977,16 @@
         <v>526</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="C218" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D218" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E218" s="2">
-        <v>43217.296527777777</v>
+        <v>43217.292361111111</v>
       </c>
       <c r="F218" s="2"/>
     </row>
@@ -7684,16 +7995,16 @@
         <v>526</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>33</v>
+        <v>431</v>
       </c>
       <c r="C219" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D219" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E219" s="2">
-        <v>43217.298611111109</v>
+        <v>43217.294444444444</v>
       </c>
       <c r="F219" s="2"/>
     </row>
@@ -7705,13 +8016,13 @@
         <v>99</v>
       </c>
       <c r="C220" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D220" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E220" s="2">
-        <v>43217.3</v>
+        <v>43217.296527777777</v>
       </c>
       <c r="F220" s="2"/>
     </row>
@@ -7720,16 +8031,16 @@
         <v>526</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="C221" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D221" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E221" s="2">
-        <v>43217.305555555555</v>
+        <v>43217.298611111109</v>
       </c>
       <c r="F221" s="2"/>
     </row>
@@ -7738,86 +8049,86 @@
         <v>526</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>431</v>
+        <v>99</v>
       </c>
       <c r="C222" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D222" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E222" s="2">
-        <v>43217.30972222222</v>
-      </c>
+        <v>43217.3</v>
+      </c>
+      <c r="F222" s="2"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>526</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>224</v>
+        <v>99</v>
       </c>
       <c r="C223" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D223" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E223" s="2">
-        <v>43217.379861111112</v>
-      </c>
+        <v>43217.305555555555</v>
+      </c>
+      <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>526</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>50</v>
+        <v>431</v>
       </c>
       <c r="C224" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D224" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E224" s="2">
-        <v>43217.384027777778</v>
-      </c>
-      <c r="F224" s="2"/>
+        <v>43217.30972222222</v>
+      </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>526</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C225" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D225" t="s">
-        <v>228</v>
+        <v>504</v>
       </c>
       <c r="E225" s="2">
-        <v>43217.388888888891</v>
-      </c>
-      <c r="F225" s="2"/>
+        <v>43217.379861111112</v>
+      </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>526</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>258</v>
+        <v>50</v>
       </c>
       <c r="C226" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D226" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E226" s="2">
-        <v>43217.392361111109</v>
+        <v>43217.384027777778</v>
       </c>
       <c r="F226" s="2"/>
     </row>
@@ -7826,16 +8137,16 @@
         <v>526</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>99</v>
+        <v>236</v>
       </c>
       <c r="C227" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D227" t="s">
-        <v>511</v>
+        <v>228</v>
       </c>
       <c r="E227" s="2">
-        <v>43217.4</v>
+        <v>43217.388888888891</v>
       </c>
       <c r="F227" s="2"/>
     </row>
@@ -7844,16 +8155,16 @@
         <v>526</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>151</v>
+        <v>258</v>
       </c>
       <c r="C228" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D228" t="s">
-        <v>144</v>
+        <v>509</v>
       </c>
       <c r="E228" s="2">
-        <v>43217.407638888886</v>
+        <v>43217.392361111109</v>
       </c>
       <c r="F228" s="2"/>
     </row>
@@ -7862,16 +8173,16 @@
         <v>526</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>281</v>
+        <v>99</v>
       </c>
       <c r="C229" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D229" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E229" s="2">
-        <v>43217.45208333333</v>
+        <v>43217.4</v>
       </c>
       <c r="F229" s="2"/>
     </row>
@@ -7880,16 +8191,16 @@
         <v>526</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>284</v>
+        <v>151</v>
       </c>
       <c r="C230" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D230" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="E230" s="2">
-        <v>43217.461805555555</v>
+        <v>43217.407638888886</v>
       </c>
       <c r="F230" s="2"/>
     </row>
@@ -7898,16 +8209,16 @@
         <v>526</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C231" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D231" t="s">
-        <v>32</v>
+        <v>514</v>
       </c>
       <c r="E231" s="2">
-        <v>43217.465277777781</v>
+        <v>43217.45208333333</v>
       </c>
       <c r="F231" s="2"/>
     </row>
@@ -7916,16 +8227,16 @@
         <v>526</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>477</v>
+        <v>284</v>
       </c>
       <c r="C232" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D232" t="s">
-        <v>518</v>
+        <v>110</v>
       </c>
       <c r="E232" s="2">
-        <v>43217.475694444445</v>
+        <v>43217.461805555555</v>
       </c>
       <c r="F232" s="2"/>
     </row>
@@ -7934,16 +8245,16 @@
         <v>526</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>184</v>
+        <v>286</v>
       </c>
       <c r="C233" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D233" t="s">
-        <v>520</v>
+        <v>32</v>
       </c>
       <c r="E233" s="2">
-        <v>43217.490972222222</v>
+        <v>43217.465277777781</v>
       </c>
       <c r="F233" s="2"/>
     </row>
@@ -7952,16 +8263,16 @@
         <v>526</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>521</v>
+        <v>477</v>
       </c>
       <c r="C234" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D234" t="s">
-        <v>342</v>
+        <v>518</v>
       </c>
       <c r="E234" s="2">
-        <v>43217.513194444444</v>
+        <v>43217.475694444445</v>
       </c>
       <c r="F234" s="2"/>
     </row>
@@ -7970,16 +8281,16 @@
         <v>526</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>35</v>
+        <v>184</v>
       </c>
       <c r="C235" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D235" t="s">
-        <v>384</v>
+        <v>520</v>
       </c>
       <c r="E235" s="2">
-        <v>43217.520138888889</v>
+        <v>43217.490972222222</v>
       </c>
       <c r="F235" s="2"/>
     </row>
@@ -7988,49 +8299,52 @@
         <v>526</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>38</v>
+        <v>521</v>
       </c>
       <c r="C236" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D236" t="s">
-        <v>525</v>
+        <v>342</v>
       </c>
       <c r="E236" s="2">
-        <v>43217.554166666669</v>
+        <v>43217.513194444444</v>
       </c>
       <c r="F236" s="2"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>636</v>
+        <v>526</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>527</v>
+        <v>35</v>
       </c>
       <c r="C237" t="s">
-        <v>528</v>
+        <v>523</v>
+      </c>
+      <c r="D237" t="s">
+        <v>384</v>
       </c>
       <c r="E237" s="2">
-        <v>43220.375</v>
+        <v>43217.520138888889</v>
       </c>
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>636</v>
+        <v>526</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="C238" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D238" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E238" s="2">
-        <v>43220.384027777778</v>
+        <v>43217.554166666669</v>
       </c>
       <c r="F238" s="2"/>
     </row>
@@ -8039,16 +8353,13 @@
         <v>636</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>431</v>
+        <v>527</v>
       </c>
       <c r="C239" t="s">
-        <v>531</v>
-      </c>
-      <c r="D239" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E239" s="2">
-        <v>43220.38958333333</v>
+        <v>43220.375</v>
       </c>
       <c r="F239" s="2"/>
     </row>
@@ -8057,16 +8368,16 @@
         <v>636</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C240" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D240" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E240" s="2">
-        <v>43220.393055555556</v>
+        <v>43220.384027777778</v>
       </c>
       <c r="F240" s="2"/>
     </row>
@@ -8075,16 +8386,16 @@
         <v>636</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>169</v>
+        <v>431</v>
       </c>
       <c r="C241" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D241" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E241" s="2">
-        <v>43220.415277777778</v>
+        <v>43220.38958333333</v>
       </c>
       <c r="F241" s="2"/>
     </row>
@@ -8093,16 +8404,16 @@
         <v>636</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C242" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D242" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E242" s="2">
-        <v>43220.418055555558</v>
+        <v>43220.393055555556</v>
       </c>
       <c r="F242" s="2"/>
     </row>
@@ -8111,16 +8422,16 @@
         <v>636</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C243" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D243" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E243" s="2">
-        <v>43220.422222222223</v>
+        <v>43220.415277777778</v>
       </c>
       <c r="F243" s="2"/>
     </row>
@@ -8129,16 +8440,16 @@
         <v>636</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C244" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D244" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E244" s="2">
-        <v>43220.424305555556</v>
+        <v>43220.418055555558</v>
       </c>
       <c r="F244" s="2"/>
     </row>
@@ -8147,16 +8458,16 @@
         <v>636</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C245" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D245" t="s">
-        <v>177</v>
+        <v>540</v>
       </c>
       <c r="E245" s="2">
-        <v>43220.425694444442</v>
+        <v>43220.422222222223</v>
       </c>
       <c r="F245" s="2"/>
     </row>
@@ -8165,16 +8476,16 @@
         <v>636</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>391</v>
+        <v>178</v>
       </c>
       <c r="C246" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D246" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E246" s="2">
-        <v>43220.427777777775</v>
+        <v>43220.424305555556</v>
       </c>
       <c r="F246" s="2"/>
     </row>
@@ -8183,86 +8494,86 @@
         <v>636</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="C247" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D247" t="s">
-        <v>388</v>
+        <v>177</v>
       </c>
       <c r="E247" s="2">
-        <v>43220.432638888888</v>
-      </c>
+        <v>43220.425694444442</v>
+      </c>
+      <c r="F247" s="2"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>636</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C248" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D248" t="s">
-        <v>153</v>
+        <v>545</v>
       </c>
       <c r="E248" s="2">
-        <v>43220.43472222222</v>
-      </c>
+        <v>43220.427777777775</v>
+      </c>
+      <c r="F248" s="2"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>636</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>548</v>
+        <v>35</v>
       </c>
       <c r="C249" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D249" t="s">
-        <v>550</v>
+        <v>388</v>
       </c>
       <c r="E249" s="2">
-        <v>43220.4375</v>
-      </c>
-      <c r="F249" s="2"/>
+        <v>43220.432638888888</v>
+      </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>636</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>64</v>
+        <v>396</v>
       </c>
       <c r="C250" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D250" t="s">
-        <v>552</v>
+        <v>153</v>
       </c>
       <c r="E250" s="2">
-        <v>43220.441666666666</v>
-      </c>
-      <c r="F250" s="2"/>
+        <v>43220.43472222222</v>
+      </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>636</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>204</v>
+        <v>548</v>
       </c>
       <c r="C251" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D251" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E251" s="2">
-        <v>43220.443055555559</v>
+        <v>43220.4375</v>
       </c>
       <c r="F251" s="2"/>
     </row>
@@ -8271,16 +8582,16 @@
         <v>636</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>294</v>
+        <v>64</v>
       </c>
       <c r="C252" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D252" t="s">
-        <v>369</v>
+        <v>552</v>
       </c>
       <c r="E252" s="2">
-        <v>43220.445138888892</v>
+        <v>43220.441666666666</v>
       </c>
       <c r="F252" s="2"/>
     </row>
@@ -8289,16 +8600,16 @@
         <v>636</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>337</v>
+        <v>204</v>
       </c>
       <c r="C253" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D253" t="s">
-        <v>506</v>
+        <v>554</v>
       </c>
       <c r="E253" s="2">
-        <v>43220.448611111111</v>
+        <v>43220.443055555559</v>
       </c>
       <c r="F253" s="2"/>
     </row>
@@ -8307,16 +8618,16 @@
         <v>636</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>447</v>
+        <v>294</v>
       </c>
       <c r="C254" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D254" t="s">
-        <v>552</v>
+        <v>369</v>
       </c>
       <c r="E254" s="2">
-        <v>43220.45208333333</v>
+        <v>43220.445138888892</v>
       </c>
       <c r="F254" s="2"/>
     </row>
@@ -8325,16 +8636,16 @@
         <v>636</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>488</v>
+        <v>337</v>
       </c>
       <c r="C255" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D255" t="s">
-        <v>559</v>
+        <v>506</v>
       </c>
       <c r="E255" s="2">
-        <v>43220.45416666667</v>
+        <v>43220.448611111111</v>
       </c>
       <c r="F255" s="2"/>
     </row>
@@ -8343,16 +8654,16 @@
         <v>636</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>151</v>
+        <v>447</v>
       </c>
       <c r="C256" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D256" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="E256" s="2">
-        <v>43220.455555555556</v>
+        <v>43220.45208333333</v>
       </c>
       <c r="F256" s="2"/>
     </row>
@@ -8361,16 +8672,16 @@
         <v>636</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>562</v>
+        <v>488</v>
       </c>
       <c r="C257" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D257" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="E257" s="2">
-        <v>43220.482638888891</v>
+        <v>43220.45416666667</v>
       </c>
       <c r="F257" s="2"/>
     </row>
@@ -8379,16 +8690,16 @@
         <v>636</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>565</v>
+        <v>151</v>
       </c>
       <c r="C258" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D258" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="E258" s="2">
-        <v>43220.486805555556</v>
+        <v>43220.455555555556</v>
       </c>
       <c r="F258" s="2"/>
     </row>
@@ -8397,16 +8708,16 @@
         <v>636</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="C259" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="D259" t="s">
-        <v>492</v>
+        <v>564</v>
       </c>
       <c r="E259" s="2">
-        <v>43220.488888888889</v>
+        <v>43220.482638888891</v>
       </c>
       <c r="F259" s="2"/>
     </row>
@@ -8415,16 +8726,16 @@
         <v>636</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C260" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D260" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E260" s="2">
-        <v>43220.490277777775</v>
+        <v>43220.486805555556</v>
       </c>
       <c r="F260" s="2"/>
     </row>
@@ -8433,16 +8744,16 @@
         <v>636</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C261" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D261" t="s">
-        <v>575</v>
+        <v>492</v>
       </c>
       <c r="E261" s="2">
-        <v>43220.493055555555</v>
+        <v>43220.488888888889</v>
       </c>
       <c r="F261" s="2"/>
     </row>
@@ -8451,16 +8762,16 @@
         <v>636</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>245</v>
+        <v>570</v>
       </c>
       <c r="C262" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D262" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="E262" s="2">
-        <v>43220.49722222222</v>
+        <v>43220.490277777775</v>
       </c>
       <c r="F262" s="2"/>
     </row>
@@ -8469,16 +8780,16 @@
         <v>636</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>296</v>
+        <v>573</v>
       </c>
       <c r="C263" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D263" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E263" s="2">
-        <v>43220.503472222219</v>
+        <v>43220.493055555555</v>
       </c>
       <c r="F263" s="2"/>
     </row>
@@ -8487,16 +8798,16 @@
         <v>636</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>99</v>
+        <v>245</v>
       </c>
       <c r="C264" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D264" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E264" s="2">
-        <v>43220.506249999999</v>
+        <v>43220.49722222222</v>
       </c>
       <c r="F264" s="2"/>
     </row>
@@ -8505,16 +8816,16 @@
         <v>636</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>99</v>
+        <v>296</v>
       </c>
       <c r="C265" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D265" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E265" s="2">
-        <v>43220.508333333331</v>
+        <v>43220.503472222219</v>
       </c>
       <c r="F265" s="2"/>
     </row>
@@ -8526,13 +8837,13 @@
         <v>99</v>
       </c>
       <c r="C266" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D266" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E266" s="2">
-        <v>43220.509722222225</v>
+        <v>43220.506249999999</v>
       </c>
       <c r="F266" s="2"/>
     </row>
@@ -8541,16 +8852,16 @@
         <v>636</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>340</v>
+        <v>99</v>
       </c>
       <c r="C267" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D267" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E267" s="2">
-        <v>43220.513194444444</v>
+        <v>43220.508333333331</v>
       </c>
       <c r="F267" s="2"/>
     </row>
@@ -8559,16 +8870,16 @@
         <v>636</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>588</v>
+        <v>99</v>
       </c>
       <c r="C268" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D268" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E268" s="2">
-        <v>43220.515277777777</v>
+        <v>43220.509722222225</v>
       </c>
       <c r="F268" s="2"/>
     </row>
@@ -8577,16 +8888,16 @@
         <v>636</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>591</v>
+        <v>340</v>
       </c>
       <c r="C269" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D269" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="E269" s="2">
-        <v>43220.525694444441</v>
+        <v>43220.513194444444</v>
       </c>
       <c r="F269" s="2"/>
     </row>
@@ -8595,16 +8906,16 @@
         <v>636</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>93</v>
+        <v>588</v>
       </c>
       <c r="C270" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D270" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E270" s="2">
-        <v>43220.52847222222</v>
+        <v>43220.515277777777</v>
       </c>
       <c r="F270" s="2"/>
     </row>
@@ -8613,16 +8924,16 @@
         <v>636</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C271" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D271" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="E271" s="2">
-        <v>43220.53125</v>
+        <v>43220.525694444441</v>
       </c>
       <c r="F271" s="2"/>
     </row>
@@ -8631,16 +8942,16 @@
         <v>636</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>598</v>
+        <v>93</v>
       </c>
       <c r="C272" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D272" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="E272" s="2">
-        <v>43220.536111111112</v>
+        <v>43220.52847222222</v>
       </c>
       <c r="F272" s="2"/>
     </row>
@@ -8649,16 +8960,16 @@
         <v>636</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C273" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="D273" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="E273" s="2">
-        <v>43220.539583333331</v>
+        <v>43220.53125</v>
       </c>
       <c r="F273" s="2"/>
     </row>
@@ -8667,16 +8978,16 @@
         <v>636</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>38</v>
+        <v>598</v>
       </c>
       <c r="C274" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D274" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="E274" s="2">
-        <v>43220.542361111111</v>
+        <v>43220.536111111112</v>
       </c>
       <c r="F274" s="2"/>
     </row>
@@ -8685,16 +8996,16 @@
         <v>636</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>44</v>
+        <v>601</v>
       </c>
       <c r="C275" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D275" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E275" s="2">
-        <v>43220.544444444444</v>
+        <v>43220.539583333331</v>
       </c>
       <c r="F275" s="2"/>
     </row>
@@ -8703,16 +9014,16 @@
         <v>636</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>608</v>
+        <v>38</v>
       </c>
       <c r="C276" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D276" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="E276" s="2">
-        <v>43220.55</v>
+        <v>43220.542361111111</v>
       </c>
       <c r="F276" s="2"/>
     </row>
@@ -8721,16 +9032,16 @@
         <v>636</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="C277" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D277" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="E277" s="2">
-        <v>43220.552777777775</v>
+        <v>43220.544444444444</v>
       </c>
       <c r="F277" s="2"/>
     </row>
@@ -8739,16 +9050,16 @@
         <v>636</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C278" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D278" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E278" s="2">
-        <v>43220.55972222222</v>
+        <v>43220.55</v>
       </c>
       <c r="F278" s="2"/>
     </row>
@@ -8757,16 +9068,16 @@
         <v>636</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>236</v>
+        <v>184</v>
       </c>
       <c r="C279" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D279" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E279" s="2">
-        <v>43220.577777777777</v>
+        <v>43220.552777777775</v>
       </c>
       <c r="F279" s="2"/>
     </row>
@@ -8775,16 +9086,16 @@
         <v>636</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>302</v>
+        <v>613</v>
       </c>
       <c r="C280" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D280" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E280" s="2">
-        <v>43220.580555555556</v>
+        <v>43220.55972222222</v>
       </c>
       <c r="F280" s="2"/>
     </row>
@@ -8793,16 +9104,16 @@
         <v>636</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>365</v>
+        <v>236</v>
       </c>
       <c r="C281" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D281" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E281" s="2">
-        <v>43220.63958333333</v>
+        <v>43220.577777777777</v>
       </c>
       <c r="F281" s="2"/>
     </row>
@@ -8811,16 +9122,16 @@
         <v>636</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>622</v>
+        <v>302</v>
       </c>
       <c r="C282" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="D282" t="s">
-        <v>487</v>
+        <v>619</v>
       </c>
       <c r="E282" s="2">
-        <v>43220.64166666667</v>
+        <v>43220.580555555556</v>
       </c>
       <c r="F282" s="2"/>
     </row>
@@ -8829,16 +9140,16 @@
         <v>636</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>624</v>
+        <v>365</v>
       </c>
       <c r="C283" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D283" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="E283" s="2">
-        <v>43220.643750000003</v>
+        <v>43220.63958333333</v>
       </c>
       <c r="F283" s="2"/>
     </row>
@@ -8847,16 +9158,16 @@
         <v>636</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C284" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D284" t="s">
-        <v>629</v>
+        <v>487</v>
       </c>
       <c r="E284" s="2">
-        <v>43220.648611111108</v>
+        <v>43220.64166666667</v>
       </c>
       <c r="F284" s="2"/>
     </row>
@@ -8865,16 +9176,16 @@
         <v>636</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C285" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="D285" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E285" s="2">
-        <v>43220.650694444441</v>
+        <v>43220.643750000003</v>
       </c>
       <c r="F285" s="2"/>
     </row>
@@ -8883,52 +9194,52 @@
         <v>636</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="C286" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="D286" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="E286" s="2">
-        <v>43220.654861111114</v>
+        <v>43220.648611111108</v>
       </c>
       <c r="F286" s="2"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>695</v>
+        <v>636</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="C287" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="D287" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E287" s="2">
-        <v>43221.29583333333</v>
+        <v>43220.650694444441</v>
       </c>
       <c r="F287" s="2"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>695</v>
+        <v>636</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>35</v>
+        <v>633</v>
       </c>
       <c r="C288" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="D288" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="E288" s="2">
-        <v>43221.315972222219</v>
+        <v>43220.654861111114</v>
       </c>
       <c r="F288" s="2"/>
     </row>
@@ -8937,16 +9248,16 @@
         <v>695</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>38</v>
+        <v>637</v>
       </c>
       <c r="C289" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D289" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E289" s="2">
-        <v>43221.322222222225</v>
+        <v>43221.29583333333</v>
       </c>
       <c r="F289" s="2"/>
     </row>
@@ -8955,16 +9266,16 @@
         <v>695</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>146</v>
+        <v>35</v>
       </c>
       <c r="C290" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D290" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E290" s="2">
-        <v>43221.325694444444</v>
+        <v>43221.315972222219</v>
       </c>
       <c r="F290" s="2"/>
     </row>
@@ -8973,16 +9284,16 @@
         <v>695</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C291" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D291" t="s">
-        <v>534</v>
+        <v>643</v>
       </c>
       <c r="E291" s="2">
-        <v>43221.329861111109</v>
+        <v>43221.322222222225</v>
       </c>
       <c r="F291" s="2"/>
     </row>
@@ -8991,16 +9302,16 @@
         <v>695</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C292" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D292" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E292" s="2">
-        <v>43221.34375</v>
+        <v>43221.325694444444</v>
       </c>
       <c r="F292" s="2"/>
     </row>
@@ -9009,16 +9320,16 @@
         <v>695</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C293" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D293" t="s">
-        <v>650</v>
+        <v>534</v>
       </c>
       <c r="E293" s="2">
-        <v>43221.348611111112</v>
+        <v>43221.329861111109</v>
       </c>
       <c r="F293" s="2"/>
     </row>
@@ -9027,16 +9338,16 @@
         <v>695</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="C294" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D294" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E294" s="2">
-        <v>43221.351388888892</v>
+        <v>43221.34375</v>
       </c>
       <c r="F294" s="2"/>
     </row>
@@ -9045,16 +9356,16 @@
         <v>695</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>240</v>
+        <v>53</v>
       </c>
       <c r="C295" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D295" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E295" s="2">
-        <v>43221.354166666664</v>
+        <v>43221.348611111112</v>
       </c>
       <c r="F295" s="2"/>
     </row>
@@ -9063,16 +9374,16 @@
         <v>695</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>151</v>
+        <v>236</v>
       </c>
       <c r="C296" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D296" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E296" s="2">
-        <v>43221.375694444447</v>
+        <v>43221.351388888892</v>
       </c>
       <c r="F296" s="2"/>
     </row>
@@ -9081,16 +9392,16 @@
         <v>695</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="C297" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D297" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E297" s="2">
-        <v>43221.38958333333</v>
+        <v>43221.354166666664</v>
       </c>
       <c r="F297" s="2"/>
     </row>
@@ -9099,16 +9410,16 @@
         <v>695</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C298" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D298" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E298" s="2">
-        <v>43221.397916666669</v>
+        <v>43221.375694444447</v>
       </c>
       <c r="F298" s="2"/>
     </row>
@@ -9117,86 +9428,86 @@
         <v>695</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C299" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D299" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E299" s="2">
-        <v>43221.4</v>
-      </c>
+        <v>43221.38958333333</v>
+      </c>
+      <c r="F299" s="2"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>695</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="C300" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D300" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E300" s="2">
-        <v>43221.404166666667</v>
-      </c>
+        <v>43221.397916666669</v>
+      </c>
+      <c r="F300" s="2"/>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>695</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C301" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D301" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E301" s="2">
-        <v>43221.426388888889</v>
-      </c>
-      <c r="F301" s="2"/>
+        <v>43221.4</v>
+      </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>695</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C302" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D302" t="s">
-        <v>581</v>
+        <v>664</v>
       </c>
       <c r="E302" s="2">
-        <v>43221.431944444441</v>
-      </c>
-      <c r="F302" s="2"/>
+        <v>43221.404166666667</v>
+      </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>695</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C303" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D303" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E303" s="2">
-        <v>43221.433333333334</v>
+        <v>43221.426388888889</v>
       </c>
       <c r="F303" s="2"/>
     </row>
@@ -9205,16 +9516,16 @@
         <v>695</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="C304" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D304" t="s">
-        <v>671</v>
+        <v>581</v>
       </c>
       <c r="E304" s="2">
-        <v>43221.438888888886</v>
+        <v>43221.431944444441</v>
       </c>
       <c r="F304" s="2"/>
     </row>
@@ -9223,16 +9534,16 @@
         <v>695</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>672</v>
+        <v>81</v>
       </c>
       <c r="C305" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="D305" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="E305" s="2">
-        <v>43221.440972222219</v>
+        <v>43221.433333333334</v>
       </c>
       <c r="F305" s="2"/>
     </row>
@@ -9241,16 +9552,16 @@
         <v>695</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C306" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D306" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E306" s="2">
-        <v>43221.445833333331</v>
+        <v>43221.438888888886</v>
       </c>
       <c r="F306" s="2"/>
     </row>
@@ -9259,16 +9570,16 @@
         <v>695</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>178</v>
+        <v>672</v>
       </c>
       <c r="C307" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D307" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E307" s="2">
-        <v>43221.448611111111</v>
+        <v>43221.440972222219</v>
       </c>
       <c r="F307" s="2"/>
     </row>
@@ -9277,16 +9588,16 @@
         <v>695</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C308" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D308" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="E308" s="2">
-        <v>43221.45208333333</v>
+        <v>43221.445833333331</v>
       </c>
       <c r="F308" s="2"/>
     </row>
@@ -9295,16 +9606,16 @@
         <v>695</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="C309" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D309" t="s">
-        <v>235</v>
+        <v>677</v>
       </c>
       <c r="E309" s="2">
-        <v>43221.455555555556</v>
+        <v>43221.448611111111</v>
       </c>
       <c r="F309" s="2"/>
     </row>
@@ -9313,16 +9624,16 @@
         <v>695</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c r="C310" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D310" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E310" s="2">
-        <v>43221.461111111108</v>
+        <v>43221.45208333333</v>
       </c>
       <c r="F310" s="2"/>
     </row>
@@ -9331,16 +9642,16 @@
         <v>695</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="C311" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D311" t="s">
-        <v>684</v>
+        <v>235</v>
       </c>
       <c r="E311" s="2">
-        <v>43221.468055555553</v>
+        <v>43221.455555555556</v>
       </c>
       <c r="F311" s="2"/>
     </row>
@@ -9349,16 +9660,16 @@
         <v>695</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="C312" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D312" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E312" s="2">
-        <v>43221.475694444445</v>
+        <v>43221.461111111108</v>
       </c>
       <c r="F312" s="2"/>
     </row>
@@ -9367,16 +9678,16 @@
         <v>695</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>278</v>
+        <v>184</v>
       </c>
       <c r="C313" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D313" t="s">
-        <v>454</v>
+        <v>684</v>
       </c>
       <c r="E313" s="2">
-        <v>43221.529166666667</v>
+        <v>43221.468055555553</v>
       </c>
       <c r="F313" s="2"/>
     </row>
@@ -9385,16 +9696,16 @@
         <v>695</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C314" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D314" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E314" s="2">
-        <v>43221.532638888886</v>
+        <v>43221.475694444445</v>
       </c>
       <c r="F314" s="2"/>
     </row>
@@ -9403,16 +9714,16 @@
         <v>695</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>108</v>
+        <v>278</v>
       </c>
       <c r="C315" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D315" t="s">
-        <v>691</v>
+        <v>454</v>
       </c>
       <c r="E315" s="2">
-        <v>43221.535416666666</v>
+        <v>43221.529166666667</v>
       </c>
       <c r="F315" s="2"/>
     </row>
@@ -9421,52 +9732,52 @@
         <v>695</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>692</v>
+        <v>96</v>
       </c>
       <c r="C316" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="D316" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="E316" s="2">
-        <v>43221.547222222223</v>
+        <v>43221.532638888886</v>
       </c>
       <c r="F316" s="2"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>770</v>
+        <v>695</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>696</v>
+        <v>108</v>
       </c>
       <c r="C317" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="D317" t="s">
-        <v>111</v>
+        <v>691</v>
       </c>
       <c r="E317" s="2">
-        <v>43222.325694444444</v>
+        <v>43221.535416666666</v>
       </c>
       <c r="F317" s="2"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>770</v>
+        <v>695</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>35</v>
+        <v>692</v>
       </c>
       <c r="C318" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="D318" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="E318" s="2">
-        <v>43222.329861111109</v>
+        <v>43221.547222222223</v>
       </c>
       <c r="F318" s="2"/>
     </row>
@@ -9475,16 +9786,16 @@
         <v>770</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>38</v>
+        <v>696</v>
       </c>
       <c r="C319" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D319" t="s">
-        <v>250</v>
+        <v>111</v>
       </c>
       <c r="E319" s="2">
-        <v>43222.334027777775</v>
+        <v>43222.325694444444</v>
       </c>
       <c r="F319" s="2"/>
     </row>
@@ -9493,16 +9804,16 @@
         <v>770</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C320" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D320" t="s">
-        <v>168</v>
+        <v>699</v>
       </c>
       <c r="E320" s="2">
-        <v>43222.335416666669</v>
+        <v>43222.329861111109</v>
       </c>
       <c r="F320" s="2"/>
     </row>
@@ -9511,16 +9822,16 @@
         <v>770</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C321" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D321" t="s">
-        <v>703</v>
+        <v>250</v>
       </c>
       <c r="E321" s="2">
-        <v>43222.336805555555</v>
+        <v>43222.334027777775</v>
       </c>
       <c r="F321" s="2"/>
     </row>
@@ -9529,16 +9840,16 @@
         <v>770</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C322" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D322" t="s">
-        <v>705</v>
+        <v>168</v>
       </c>
       <c r="E322" s="2">
-        <v>43222.348611111112</v>
+        <v>43222.335416666669</v>
       </c>
       <c r="F322" s="2"/>
     </row>
@@ -9547,16 +9858,16 @@
         <v>770</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C323" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D323" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E323" s="2">
-        <v>43222.351388888892</v>
+        <v>43222.336805555555</v>
       </c>
       <c r="F323" s="2"/>
     </row>
@@ -9565,16 +9876,16 @@
         <v>770</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C324" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="D324" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E324" s="2">
-        <v>43222.363888888889</v>
+        <v>43222.348611111112</v>
       </c>
       <c r="F324" s="2"/>
     </row>
@@ -9583,16 +9894,16 @@
         <v>770</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C325" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="D325" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E325" s="2">
-        <v>43222.366666666669</v>
+        <v>43222.351388888892</v>
       </c>
       <c r="F325" s="2"/>
     </row>
@@ -9601,16 +9912,16 @@
         <v>770</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="C326" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D326" t="s">
-        <v>446</v>
+        <v>709</v>
       </c>
       <c r="E326" s="2">
-        <v>43222.37222222222</v>
+        <v>43222.363888888889</v>
       </c>
       <c r="F326" s="2"/>
     </row>
@@ -9619,16 +9930,16 @@
         <v>770</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C327" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D327" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E327" s="2">
-        <v>43222.379166666666</v>
+        <v>43222.366666666669</v>
       </c>
       <c r="F327" s="2"/>
     </row>
@@ -9637,16 +9948,16 @@
         <v>770</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="C328" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D328" t="s">
-        <v>716</v>
+        <v>446</v>
       </c>
       <c r="E328" s="2">
-        <v>43222.383333333331</v>
+        <v>43222.37222222222</v>
       </c>
       <c r="F328" s="2"/>
     </row>
@@ -9655,16 +9966,16 @@
         <v>770</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C329" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="D329" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E329" s="2">
-        <v>43222.400000000001</v>
+        <v>43222.379166666666</v>
       </c>
       <c r="F329" s="2"/>
     </row>
@@ -9673,16 +9984,16 @@
         <v>770</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C330" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D330" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="E330" s="2">
-        <v>43222.402083333334</v>
+        <v>43222.383333333331</v>
       </c>
       <c r="F330" s="2"/>
     </row>
@@ -9691,86 +10002,86 @@
         <v>770</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="C331" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="D331" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="E331" s="2">
-        <v>43222.40625</v>
-      </c>
+        <v>43222.400000000001</v>
+      </c>
+      <c r="F331" s="2"/>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>770</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="C332" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="D332" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="E332" s="2">
-        <v>43222.408333333333</v>
-      </c>
+        <v>43222.402083333334</v>
+      </c>
+      <c r="F332" s="2"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>770</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="C333" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="D333" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="E333" s="2">
-        <v>43222.410416666666</v>
-      </c>
-      <c r="F333" s="2"/>
+        <v>43222.40625</v>
+      </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>770</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C334" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D334" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="E334" s="2">
-        <v>43222.412499999999</v>
-      </c>
-      <c r="F334" s="2"/>
+        <v>43222.408333333333</v>
+      </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>770</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="C335" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D335" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="E335" s="2">
-        <v>43222.425000000003</v>
+        <v>43222.410416666666</v>
       </c>
       <c r="F335" s="2"/>
     </row>
@@ -9779,16 +10090,16 @@
         <v>770</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="C336" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D336" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="E336" s="2">
-        <v>43222.431944444441</v>
+        <v>43222.412499999999</v>
       </c>
       <c r="F336" s="2"/>
     </row>
@@ -9797,16 +10108,16 @@
         <v>770</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="C337" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="D337" t="s">
-        <v>436</v>
+        <v>730</v>
       </c>
       <c r="E337" s="2">
-        <v>43222.435416666667</v>
+        <v>43222.425000000003</v>
       </c>
       <c r="F337" s="2"/>
     </row>
@@ -9815,16 +10126,16 @@
         <v>770</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C338" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D338" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E338" s="2">
-        <v>43222.436805555553</v>
+        <v>43222.431944444441</v>
       </c>
       <c r="F338" s="2"/>
     </row>
@@ -9833,16 +10144,16 @@
         <v>770</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>391</v>
+        <v>178</v>
       </c>
       <c r="C339" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D339" t="s">
-        <v>737</v>
+        <v>436</v>
       </c>
       <c r="E339" s="2">
-        <v>43222.439583333333</v>
+        <v>43222.435416666667</v>
       </c>
       <c r="F339" s="2"/>
     </row>
@@ -9851,16 +10162,16 @@
         <v>770</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="C340" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D340" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="E340" s="2">
-        <v>43222.44027777778</v>
+        <v>43222.436805555553</v>
       </c>
       <c r="F340" s="2"/>
     </row>
@@ -9869,16 +10180,16 @@
         <v>770</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>108</v>
+        <v>391</v>
       </c>
       <c r="C341" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D341" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="E341" s="2">
-        <v>43222.448611111111</v>
+        <v>43222.439583333333</v>
       </c>
       <c r="F341" s="2"/>
     </row>
@@ -9887,16 +10198,16 @@
         <v>770</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C342" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D342" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="E342" s="2">
-        <v>43222.450694444444</v>
+        <v>43222.44027777778</v>
       </c>
       <c r="F342" s="2"/>
     </row>
@@ -9905,16 +10216,16 @@
         <v>770</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="C343" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D343" t="s">
-        <v>459</v>
+        <v>741</v>
       </c>
       <c r="E343" s="2">
-        <v>43222.45208333333</v>
+        <v>43222.448611111111</v>
       </c>
       <c r="F343" s="2"/>
     </row>
@@ -9923,16 +10234,16 @@
         <v>770</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>195</v>
+        <v>112</v>
       </c>
       <c r="C344" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D344" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E344" s="2">
-        <v>43222.455555555556</v>
+        <v>43222.450694444444</v>
       </c>
       <c r="F344" s="2"/>
     </row>
@@ -9941,16 +10252,16 @@
         <v>770</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="C345" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D345" t="s">
-        <v>162</v>
+        <v>459</v>
       </c>
       <c r="E345" s="2">
-        <v>43222.494444444441</v>
+        <v>43222.45208333333</v>
       </c>
       <c r="F345" s="2"/>
     </row>
@@ -9959,16 +10270,16 @@
         <v>770</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C346" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D346" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E346" s="2">
-        <v>43222.50277777778</v>
+        <v>43222.455555555556</v>
       </c>
       <c r="F346" s="2"/>
     </row>
@@ -9977,16 +10288,16 @@
         <v>770</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>50</v>
+        <v>224</v>
       </c>
       <c r="C347" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D347" t="s">
-        <v>751</v>
+        <v>162</v>
       </c>
       <c r="E347" s="2">
-        <v>43222.522222222222</v>
+        <v>43222.494444444441</v>
       </c>
       <c r="F347" s="2"/>
     </row>
@@ -9995,16 +10306,16 @@
         <v>770</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="C348" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D348" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="E348" s="2">
-        <v>43222.524305555555</v>
+        <v>43222.50277777778</v>
       </c>
       <c r="F348" s="2"/>
     </row>
@@ -10013,16 +10324,16 @@
         <v>770</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>754</v>
+        <v>50</v>
       </c>
       <c r="C349" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="D349" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="E349" s="2">
-        <v>43222.599305555559</v>
+        <v>43222.522222222222</v>
       </c>
       <c r="F349" s="2"/>
     </row>
@@ -10031,16 +10342,16 @@
         <v>770</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>265</v>
+        <v>128</v>
       </c>
       <c r="C350" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="D350" t="s">
-        <v>707</v>
+        <v>753</v>
       </c>
       <c r="E350" s="2">
-        <v>43222.618055555555</v>
+        <v>43222.524305555555</v>
       </c>
       <c r="F350" s="2"/>
     </row>
@@ -10049,16 +10360,16 @@
         <v>770</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>267</v>
+        <v>754</v>
       </c>
       <c r="C351" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D351" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E351" s="2">
-        <v>43222.620138888888</v>
+        <v>43222.599305555559</v>
       </c>
       <c r="F351" s="2"/>
     </row>
@@ -10067,16 +10378,16 @@
         <v>770</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C352" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D352" t="s">
-        <v>761</v>
+        <v>707</v>
       </c>
       <c r="E352" s="2">
-        <v>43222.621527777781</v>
+        <v>43222.618055555555</v>
       </c>
       <c r="F352" s="2"/>
     </row>
@@ -10085,16 +10396,16 @@
         <v>770</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C353" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D353" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E353" s="2">
-        <v>43222.623611111114</v>
+        <v>43222.620138888888</v>
       </c>
       <c r="F353" s="2"/>
     </row>
@@ -10103,16 +10414,16 @@
         <v>770</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>131</v>
+        <v>270</v>
       </c>
       <c r="C354" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="D354" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="E354" s="2">
-        <v>43222.625694444447</v>
+        <v>43222.621527777781</v>
       </c>
       <c r="F354" s="2"/>
     </row>
@@ -10121,16 +10432,16 @@
         <v>770</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>99</v>
+        <v>275</v>
       </c>
       <c r="C355" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D355" t="s">
-        <v>34</v>
+        <v>763</v>
       </c>
       <c r="E355" s="2">
-        <v>43222.638888888891</v>
+        <v>43222.623611111114</v>
       </c>
       <c r="F355" s="2"/>
     </row>
@@ -10139,13 +10450,16 @@
         <v>770</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="C356" t="s">
-        <v>767</v>
+        <v>764</v>
+      </c>
+      <c r="D356" t="s">
+        <v>765</v>
       </c>
       <c r="E356" s="2">
-        <v>43222.640277777777</v>
+        <v>43222.625694444447</v>
       </c>
       <c r="F356" s="2"/>
     </row>
@@ -10154,23 +10468,50 @@
         <v>770</v>
       </c>
       <c r="B357" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C357" t="s">
+        <v>766</v>
+      </c>
+      <c r="D357" t="s">
+        <v>34</v>
+      </c>
+      <c r="E357" s="2">
+        <v>43222.638888888891</v>
+      </c>
+      <c r="F357" s="2"/>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>770</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C358" t="s">
+        <v>767</v>
+      </c>
+      <c r="E358" s="2">
+        <v>43222.640277777777</v>
+      </c>
+      <c r="F358" s="2"/>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>770</v>
+      </c>
+      <c r="B359" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C357" t="s">
+      <c r="C359" t="s">
         <v>768</v>
       </c>
-      <c r="D357" t="s">
+      <c r="D359" t="s">
         <v>769</v>
       </c>
-      <c r="E357" s="2">
+      <c r="E359" s="2">
         <v>43222.640972222223</v>
       </c>
-      <c r="F357" s="2"/>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F358" s="2"/>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F359" s="2"/>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
@@ -10213,46 +10554,52 @@
       <c r="F372" s="2"/>
     </row>
     <row r="373" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A373" t="s">
+      <c r="F373" s="2"/>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F374" s="2"/>
+    </row>
+    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
         <v>120</v>
       </c>
-      <c r="B373" t="s">
+      <c r="B375" t="s">
         <v>120</v>
       </c>
-      <c r="C373" t="s">
+      <c r="C375" t="s">
         <v>120</v>
       </c>
-      <c r="D373" t="s">
+      <c r="D375" t="s">
         <v>120</v>
       </c>
-      <c r="E373" t="s">
+      <c r="E375" t="s">
         <v>120</v>
       </c>
-      <c r="F373" t="s">
+      <c r="F375" t="s">
         <v>120</v>
       </c>
-      <c r="G373" t="s">
+      <c r="G375" t="s">
         <v>120</v>
       </c>
-      <c r="H373" t="s">
+      <c r="H375" t="s">
         <v>120</v>
       </c>
-      <c r="I373" t="s">
+      <c r="I375" t="s">
         <v>120</v>
       </c>
-      <c r="J373" t="s">
+      <c r="J375" t="s">
         <v>120</v>
       </c>
-      <c r="L373" t="s">
+      <c r="L375" t="s">
         <v>120</v>
       </c>
-      <c r="M373" t="s">
+      <c r="M375" t="s">
         <v>120</v>
       </c>
-      <c r="N373" t="s">
+      <c r="N375" t="s">
         <v>120</v>
       </c>
-      <c r="O373" t="s">
+      <c r="O375" t="s">
         <v>120</v>
       </c>
     </row>

--- a/Rawdata/riptransekter helags 2018.xlsx
+++ b/Rawdata/riptransekter helags 2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1380" windowWidth="25600" windowHeight="14120" xr2:uid="{731D7839-4CAB-374B-BEA5-3406519CB6C1}"/>
+    <workbookView xWindow="1580" yWindow="920" windowWidth="25600" windowHeight="14120" xr2:uid="{731D7839-4CAB-374B-BEA5-3406519CB6C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="805">
   <si>
     <t>vinkel</t>
   </si>
@@ -2403,6 +2403,42 @@
   </si>
   <si>
     <t>vindstilla</t>
+  </si>
+  <si>
+    <t>några ljusa korvar och en färsk lös hög</t>
+  </si>
+  <si>
+    <t>antagligen sätt fåglarna innan</t>
+  </si>
+  <si>
+    <t>mörka i snö</t>
+  </si>
+  <si>
+    <t>sol, varmt</t>
+  </si>
+  <si>
+    <t>Hona? Lät pjäu pjäu</t>
+  </si>
+  <si>
+    <t>Hona? Lät pjäu pjäu eller ää ää</t>
+  </si>
+  <si>
+    <t>mycket löst, oformligt</t>
+  </si>
+  <si>
+    <t>fattas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en </t>
+  </si>
+  <si>
+    <t>punkt</t>
+  </si>
+  <si>
+    <t>här.</t>
+  </si>
+  <si>
+    <t>R(3)</t>
   </si>
 </sst>
 </file>
@@ -2756,11 +2792,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9831C9-A413-654D-876F-A809696709AE}">
-  <dimension ref="A1:O375"/>
+  <dimension ref="A1:O380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F93" sqref="F93"/>
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5651,7 +5687,15 @@
       <c r="E93" s="2">
         <v>43210.338888888888</v>
       </c>
-      <c r="F93" s="2"/>
+      <c r="F93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J93" t="s">
+        <v>16</v>
+      </c>
+      <c r="L93">
+        <v>2</v>
+      </c>
       <c r="O93" t="s">
         <v>21</v>
       </c>
@@ -5672,7 +5716,24 @@
       <c r="E94" s="2">
         <v>43210.34375</v>
       </c>
-      <c r="F94" s="2"/>
+      <c r="F94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94">
+        <v>117</v>
+      </c>
+      <c r="H94">
+        <v>82</v>
+      </c>
+      <c r="I94" t="s">
+        <v>772</v>
+      </c>
+      <c r="J94" t="s">
+        <v>15</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
       <c r="O94" t="s">
         <v>21</v>
       </c>
@@ -5682,18 +5743,32 @@
         <v>290</v>
       </c>
       <c r="B95" t="s">
-        <v>224</v>
+        <v>136</v>
       </c>
       <c r="C95" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D95" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E95" s="2">
-        <v>43210.351388888892</v>
-      </c>
-      <c r="F95" s="2"/>
+        <v>43210.34375</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95">
+        <v>112</v>
+      </c>
+      <c r="H95">
+        <v>288</v>
+      </c>
+      <c r="I95" t="s">
+        <v>774</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
       <c r="O95" t="s">
         <v>21</v>
       </c>
@@ -5703,18 +5778,35 @@
         <v>290</v>
       </c>
       <c r="B96" t="s">
-        <v>78</v>
+        <v>224</v>
       </c>
       <c r="C96" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D96" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E96" s="2">
-        <v>43210.355555555558</v>
-      </c>
-      <c r="F96" s="2"/>
+        <v>43210.351388888892</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96">
+        <v>18</v>
+      </c>
+      <c r="H96">
+        <v>268</v>
+      </c>
+      <c r="I96" t="s">
+        <v>772</v>
+      </c>
+      <c r="J96" t="s">
+        <v>15</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
       <c r="O96" t="s">
         <v>21</v>
       </c>
@@ -5724,18 +5816,35 @@
         <v>290</v>
       </c>
       <c r="B97" t="s">
-        <v>229</v>
+        <v>78</v>
       </c>
       <c r="C97" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D97" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E97" s="2">
-        <v>43210.359027777777</v>
-      </c>
-      <c r="F97" s="2"/>
+        <v>43210.355555555558</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97">
+        <v>0.76</v>
+      </c>
+      <c r="H97">
+        <v>90</v>
+      </c>
+      <c r="J97" t="s">
+        <v>16</v>
+      </c>
+      <c r="K97">
+        <v>4</v>
+      </c>
+      <c r="L97">
+        <v>35</v>
+      </c>
       <c r="O97" t="s">
         <v>21</v>
       </c>
@@ -5745,18 +5854,20 @@
         <v>290</v>
       </c>
       <c r="B98" t="s">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="C98" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D98" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E98" s="2">
-        <v>43210.365972222222</v>
-      </c>
-      <c r="F98" s="2"/>
+        <v>43210.359027777777</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="O98" t="s">
         <v>21</v>
       </c>
@@ -5766,18 +5877,32 @@
         <v>290</v>
       </c>
       <c r="B99" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="C99" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D99" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E99" s="2">
-        <v>43210.367361111108</v>
-      </c>
-      <c r="F99" s="2"/>
+        <v>43210.365972222222</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99">
+        <v>3.12</v>
+      </c>
+      <c r="H99">
+        <v>90</v>
+      </c>
+      <c r="J99" t="s">
+        <v>16</v>
+      </c>
+      <c r="L99">
+        <v>27</v>
+      </c>
       <c r="O99" t="s">
         <v>21</v>
       </c>
@@ -5787,18 +5912,20 @@
         <v>290</v>
       </c>
       <c r="B100" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="C100" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D100" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="E100" s="2">
-        <v>43210.386805555558</v>
-      </c>
-      <c r="F100" s="2"/>
+        <v>43210.367361111108</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>779</v>
+      </c>
       <c r="O100" t="s">
         <v>21</v>
       </c>
@@ -5808,18 +5935,35 @@
         <v>290</v>
       </c>
       <c r="B101" t="s">
-        <v>50</v>
+        <v>236</v>
       </c>
       <c r="C101" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D101" t="s">
-        <v>71</v>
+        <v>221</v>
       </c>
       <c r="E101" s="2">
-        <v>43210.40625</v>
-      </c>
-      <c r="F101" s="2"/>
+        <v>43210.386805555558</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G101">
+        <v>57</v>
+      </c>
+      <c r="H101">
+        <v>282</v>
+      </c>
+      <c r="I101" t="s">
+        <v>771</v>
+      </c>
+      <c r="J101" t="s">
+        <v>10</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
       <c r="O101" t="s">
         <v>21</v>
       </c>
@@ -5829,18 +5973,35 @@
         <v>290</v>
       </c>
       <c r="B102" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="C102" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D102" t="s">
+        <v>71</v>
+      </c>
+      <c r="E102" s="2">
+        <v>43210.40625</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102">
         <v>111</v>
       </c>
-      <c r="E102" s="2">
-        <v>43210.422222222223</v>
-      </c>
-      <c r="F102" s="2"/>
+      <c r="H102">
+        <v>266</v>
+      </c>
+      <c r="I102" t="s">
+        <v>771</v>
+      </c>
+      <c r="J102" t="s">
+        <v>10</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
       <c r="O102" t="s">
         <v>21</v>
       </c>
@@ -5850,18 +6011,35 @@
         <v>290</v>
       </c>
       <c r="B103" t="s">
-        <v>240</v>
+        <v>84</v>
       </c>
       <c r="C103" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D103" t="s">
-        <v>242</v>
+        <v>111</v>
       </c>
       <c r="E103" s="2">
-        <v>43210.436111111114</v>
-      </c>
-      <c r="F103" s="2"/>
+        <v>43210.422222222223</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103">
+        <v>2.08</v>
+      </c>
+      <c r="H103">
+        <v>90</v>
+      </c>
+      <c r="J103" t="s">
+        <v>10</v>
+      </c>
+      <c r="L103">
+        <v>8</v>
+      </c>
+      <c r="M103" t="s">
+        <v>784</v>
+      </c>
       <c r="O103" t="s">
         <v>21</v>
       </c>
@@ -5871,18 +6049,35 @@
         <v>290</v>
       </c>
       <c r="B104" t="s">
-        <v>87</v>
+        <v>240</v>
       </c>
       <c r="C104" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D104" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E104" s="2">
-        <v>43210.443749999999</v>
-      </c>
-      <c r="F104" s="2"/>
+        <v>43210.436111111114</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G104">
+        <v>80</v>
+      </c>
+      <c r="H104">
+        <v>282</v>
+      </c>
+      <c r="I104" t="s">
+        <v>771</v>
+      </c>
+      <c r="J104" t="s">
+        <v>10</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
       <c r="O104" t="s">
         <v>21</v>
       </c>
@@ -5892,18 +6087,35 @@
         <v>290</v>
       </c>
       <c r="B105" t="s">
-        <v>164</v>
+        <v>240</v>
       </c>
       <c r="C105" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D105" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E105" s="2">
-        <v>43210.450694444444</v>
-      </c>
-      <c r="F105" s="2"/>
+        <v>43210.436111111114</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105">
+        <v>131</v>
+      </c>
+      <c r="H105">
+        <v>328</v>
+      </c>
+      <c r="I105" t="s">
+        <v>772</v>
+      </c>
+      <c r="J105" t="s">
+        <v>10</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
       <c r="O105" t="s">
         <v>21</v>
       </c>
@@ -5913,18 +6125,29 @@
         <v>290</v>
       </c>
       <c r="B106" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C106" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D106" t="s">
-        <v>110</v>
+        <v>244</v>
       </c>
       <c r="E106" s="2">
-        <v>43210.454861111109</v>
-      </c>
-      <c r="F106" s="2"/>
+        <v>43210.443749999999</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J106" t="s">
+        <v>10</v>
+      </c>
+      <c r="L106">
+        <v>17</v>
+      </c>
+      <c r="M106" t="s">
+        <v>793</v>
+      </c>
       <c r="O106" t="s">
         <v>21</v>
       </c>
@@ -5934,18 +6157,23 @@
         <v>290</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="C107" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D107" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E107" s="2">
-        <v>43210.456944444442</v>
-      </c>
-      <c r="F107" s="2"/>
+        <v>43210.450694444444</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="M107" t="s">
+        <v>794</v>
+      </c>
       <c r="O107" t="s">
         <v>21</v>
       </c>
@@ -5955,18 +6183,35 @@
         <v>290</v>
       </c>
       <c r="B108" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C108" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D108" t="s">
-        <v>252</v>
+        <v>110</v>
       </c>
       <c r="E108" s="2">
-        <v>43210.474999999999</v>
-      </c>
-      <c r="F108" s="2"/>
+        <v>43210.454861111109</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108">
+        <v>5.42</v>
+      </c>
+      <c r="H108">
+        <v>270</v>
+      </c>
+      <c r="J108" t="s">
+        <v>16</v>
+      </c>
+      <c r="L108">
+        <v>32</v>
+      </c>
+      <c r="M108" t="s">
+        <v>795</v>
+      </c>
       <c r="O108" t="s">
         <v>21</v>
       </c>
@@ -5976,18 +6221,38 @@
         <v>290</v>
       </c>
       <c r="B109" t="s">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="C109" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D109" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E109" s="2">
-        <v>43210.478472222225</v>
-      </c>
-      <c r="F109" s="2"/>
+        <v>43210.456944444442</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109">
+        <v>0.41</v>
+      </c>
+      <c r="H109">
+        <v>270</v>
+      </c>
+      <c r="J109" t="s">
+        <v>16</v>
+      </c>
+      <c r="L109">
+        <v>23</v>
+      </c>
+      <c r="M109" t="s">
+        <v>791</v>
+      </c>
+      <c r="N109" t="s">
+        <v>796</v>
+      </c>
       <c r="O109" t="s">
         <v>21</v>
       </c>
@@ -5997,18 +6262,35 @@
         <v>290</v>
       </c>
       <c r="B110" t="s">
-        <v>195</v>
+        <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D110" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E110" s="2">
-        <v>43210.479861111111</v>
-      </c>
-      <c r="F110" s="2"/>
+        <v>43210.474999999999</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110">
+        <v>5.22</v>
+      </c>
+      <c r="H110">
+        <v>270</v>
+      </c>
+      <c r="J110" t="s">
+        <v>16</v>
+      </c>
+      <c r="K110">
+        <v>3</v>
+      </c>
+      <c r="L110">
+        <v>37</v>
+      </c>
       <c r="O110" t="s">
         <v>21</v>
       </c>
@@ -6018,18 +6300,32 @@
         <v>290</v>
       </c>
       <c r="B111" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D111" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E111" s="2">
-        <v>43210.481249999997</v>
-      </c>
-      <c r="F111" s="2"/>
+        <v>43210.474999999999</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111">
+        <v>153</v>
+      </c>
+      <c r="H111">
+        <v>334</v>
+      </c>
+      <c r="I111" t="s">
+        <v>774</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
       <c r="O111" t="s">
         <v>21</v>
       </c>
@@ -6039,18 +6335,35 @@
         <v>290</v>
       </c>
       <c r="B112" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C112" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D112" t="s">
-        <v>65</v>
+        <v>252</v>
       </c>
       <c r="E112" s="2">
-        <v>43210.48541666667</v>
-      </c>
-      <c r="F112" s="2"/>
+        <v>43210.478472222225</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G112">
+        <v>4.42</v>
+      </c>
+      <c r="H112">
+        <v>90</v>
+      </c>
+      <c r="J112" t="s">
+        <v>16</v>
+      </c>
+      <c r="K112">
+        <v>3</v>
+      </c>
+      <c r="L112">
+        <v>20</v>
+      </c>
       <c r="O112" t="s">
         <v>21</v>
       </c>
@@ -6060,18 +6373,35 @@
         <v>290</v>
       </c>
       <c r="B113" t="s">
-        <v>258</v>
+        <v>195</v>
       </c>
       <c r="C113" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D113" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E113" s="2">
-        <v>43210.51666666667</v>
-      </c>
-      <c r="F113" s="2"/>
+        <v>43210.479861111111</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H113">
+        <v>90</v>
+      </c>
+      <c r="J113" t="s">
+        <v>16</v>
+      </c>
+      <c r="K113">
+        <v>2</v>
+      </c>
+      <c r="L113">
+        <v>12</v>
+      </c>
       <c r="O113" t="s">
         <v>21</v>
       </c>
@@ -6084,15 +6414,32 @@
         <v>128</v>
       </c>
       <c r="C114" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D114" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E114" s="2">
-        <v>43210.525000000001</v>
-      </c>
-      <c r="F114" s="2"/>
+        <v>43210.481249999997</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G114">
+        <v>17.55</v>
+      </c>
+      <c r="H114">
+        <v>90</v>
+      </c>
+      <c r="J114" t="s">
+        <v>16</v>
+      </c>
+      <c r="K114">
+        <v>3</v>
+      </c>
+      <c r="L114">
+        <v>38</v>
+      </c>
       <c r="O114" t="s">
         <v>21</v>
       </c>
@@ -6102,18 +6449,20 @@
         <v>290</v>
       </c>
       <c r="B115" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="C115" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D115" t="s">
-        <v>264</v>
+        <v>65</v>
       </c>
       <c r="E115" s="2">
-        <v>43210.536805555559</v>
-      </c>
-      <c r="F115" s="2"/>
+        <v>43210.48541666667</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>779</v>
+      </c>
       <c r="O115" t="s">
         <v>21</v>
       </c>
@@ -6123,18 +6472,38 @@
         <v>290</v>
       </c>
       <c r="B116" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C116" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D116" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E116" s="2">
-        <v>43210.537499999999</v>
-      </c>
-      <c r="F116" s="2"/>
+        <v>43210.51666666667</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116">
+        <v>140</v>
+      </c>
+      <c r="H116">
+        <v>72</v>
+      </c>
+      <c r="I116" t="s">
+        <v>772</v>
+      </c>
+      <c r="J116" t="s">
+        <v>10</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116" t="s">
+        <v>797</v>
+      </c>
       <c r="O116" t="s">
         <v>21</v>
       </c>
@@ -6144,18 +6513,38 @@
         <v>290</v>
       </c>
       <c r="B117" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C117" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D117" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="E117" s="2">
-        <v>43210.541666666664</v>
-      </c>
-      <c r="F117" s="2"/>
+        <v>43210.51666666667</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G117">
+        <v>34</v>
+      </c>
+      <c r="H117">
+        <v>288</v>
+      </c>
+      <c r="I117" t="s">
+        <v>772</v>
+      </c>
+      <c r="J117" t="s">
+        <v>15</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117" t="s">
+        <v>798</v>
+      </c>
       <c r="O117" t="s">
         <v>21</v>
       </c>
@@ -6165,41 +6554,57 @@
         <v>290</v>
       </c>
       <c r="B118" t="s">
+        <v>128</v>
+      </c>
+      <c r="C118" t="s">
+        <v>261</v>
+      </c>
+      <c r="D118" t="s">
+        <v>262</v>
+      </c>
+      <c r="E118" s="2">
+        <v>43210.525000000001</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118">
+        <v>1.45</v>
+      </c>
+      <c r="H118">
         <v>270</v>
       </c>
-      <c r="C118" t="s">
-        <v>271</v>
-      </c>
-      <c r="D118" t="s">
-        <v>272</v>
-      </c>
-      <c r="E118" s="2">
-        <v>43210.543055555558</v>
-      </c>
-      <c r="F118" s="2"/>
+      <c r="J118" t="s">
+        <v>16</v>
+      </c>
+      <c r="K118">
+        <v>3</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118" t="s">
+        <v>799</v>
+      </c>
       <c r="O118" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>290</v>
-      </c>
-      <c r="B119" t="s">
-        <v>270</v>
+        <v>800</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>801</v>
       </c>
       <c r="C119" t="s">
-        <v>273</v>
+        <v>802</v>
       </c>
       <c r="D119" t="s">
-        <v>274</v>
-      </c>
-      <c r="E119" s="2">
-        <v>43210.548611111109</v>
-      </c>
-      <c r="F119" s="2"/>
-      <c r="O119" t="s">
-        <v>21</v>
+        <v>803</v>
+      </c>
+      <c r="E119" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.2">
@@ -6207,18 +6612,20 @@
         <v>290</v>
       </c>
       <c r="B120" t="s">
-        <v>275</v>
+        <v>99</v>
       </c>
       <c r="C120" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="D120" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E120" s="2">
-        <v>43210.556250000001</v>
-      </c>
-      <c r="F120" s="2"/>
+        <v>43210.536805555559</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="O120" t="s">
         <v>21</v>
       </c>
@@ -6228,16 +6635,16 @@
         <v>290</v>
       </c>
       <c r="B121" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C121" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="D121" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="E121" s="2">
-        <v>43210.645138888889</v>
+        <v>43210.537499999999</v>
       </c>
       <c r="F121" s="2"/>
       <c r="O121" t="s">
@@ -6249,16 +6656,16 @@
         <v>290</v>
       </c>
       <c r="B122" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="C122" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D122" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="E122" s="2">
-        <v>43210.647916666669</v>
+        <v>43210.541666666664</v>
       </c>
       <c r="F122" s="2"/>
       <c r="O122" t="s">
@@ -6270,16 +6677,16 @@
         <v>290</v>
       </c>
       <c r="B123" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C123" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="D123" t="s">
-        <v>158</v>
+        <v>272</v>
       </c>
       <c r="E123" s="2">
-        <v>43210.658333333333</v>
+        <v>43210.543055555558</v>
       </c>
       <c r="F123" s="2"/>
       <c r="O123" t="s">
@@ -6291,16 +6698,16 @@
         <v>290</v>
       </c>
       <c r="B124" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="C124" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="D124" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="E124" s="2">
-        <v>43210.668749999997</v>
+        <v>43210.548611111109</v>
       </c>
       <c r="F124" s="2"/>
       <c r="O124" t="s">
@@ -6309,483 +6716,500 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>4</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
+      </c>
+      <c r="B125" t="s">
+        <v>275</v>
       </c>
       <c r="C125" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D125" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="E125" s="2">
-        <v>43212.502083333333</v>
+        <v>43210.556250000001</v>
       </c>
       <c r="F125" s="2"/>
+      <c r="O125" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>4</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>146</v>
+        <v>290</v>
+      </c>
+      <c r="B126" t="s">
+        <v>278</v>
       </c>
       <c r="C126" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="D126" t="s">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="E126" s="2">
-        <v>43212.527777777781</v>
+        <v>43210.645138888889</v>
       </c>
       <c r="F126" s="2"/>
+      <c r="O126" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>4</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>164</v>
+        <v>290</v>
+      </c>
+      <c r="B127" t="s">
+        <v>281</v>
       </c>
       <c r="C127" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D127" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="E127" s="2">
-        <v>43212.532638888886</v>
+        <v>43210.647916666669</v>
+      </c>
+      <c r="F127" s="2"/>
+      <c r="O127" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>4</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>33</v>
+        <v>290</v>
+      </c>
+      <c r="B128" t="s">
+        <v>284</v>
       </c>
       <c r="C128" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="D128" t="s">
-        <v>300</v>
+        <v>158</v>
       </c>
       <c r="E128" s="2">
-        <v>43212.552083333336</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+        <v>43210.658333333333</v>
+      </c>
+      <c r="F128" s="2"/>
+      <c r="O128" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>4</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>236</v>
+        <v>290</v>
+      </c>
+      <c r="B129" t="s">
+        <v>286</v>
       </c>
       <c r="C129" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="D129" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="E129" s="2">
-        <v>43212.578472222223</v>
+        <v>43210.668749999997</v>
       </c>
       <c r="F129" s="2"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O129" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>4</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>169</v>
+        <v>291</v>
       </c>
       <c r="C130" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D130" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="E130" s="2">
-        <v>43212.597916666666</v>
+        <v>43212.502083333333</v>
       </c>
       <c r="F130" s="2"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>4</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="C131" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D131" t="s">
-        <v>306</v>
+        <v>160</v>
       </c>
       <c r="E131" s="2">
-        <v>43212.602083333331</v>
+        <v>43212.527777777781</v>
       </c>
       <c r="F131" s="2"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>4</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C132" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D132" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="E132" s="2">
-        <v>43212.603472222225</v>
-      </c>
-      <c r="F132" s="2"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+        <v>43212.532638888886</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>4</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="C133" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D133" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="E133" s="2">
-        <v>43212.605555555558</v>
-      </c>
-      <c r="F133" s="2"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+        <v>43212.552083333336</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>4</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>38</v>
+        <v>236</v>
       </c>
       <c r="C134" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="D134" t="s">
-        <v>313</v>
+        <v>255</v>
       </c>
       <c r="E134" s="2">
-        <v>43212.60833333333</v>
+        <v>43212.578472222223</v>
       </c>
       <c r="F134" s="2"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>4</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C135" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="D135" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="E135" s="2">
-        <v>43212.612500000003</v>
+        <v>43212.597916666666</v>
       </c>
       <c r="F135" s="2"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>4</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C136" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="D136" t="s">
-        <v>92</v>
+        <v>306</v>
       </c>
       <c r="E136" s="2">
-        <v>43212.630555555559</v>
+        <v>43212.602083333331</v>
       </c>
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>4</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="C137" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="D137" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="E137" s="2">
-        <v>43212.633333333331</v>
+        <v>43212.603472222225</v>
       </c>
       <c r="F137" s="2"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>4</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="C138" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D138" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="E138" s="2">
-        <v>43212.638194444444</v>
+        <v>43212.605555555558</v>
       </c>
       <c r="F138" s="2"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>4</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C139" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="D139" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="E139" s="2">
-        <v>43212.65625</v>
+        <v>43212.60833333333</v>
       </c>
       <c r="F139" s="2"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>4</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="C140" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="D140" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E140" s="2">
-        <v>43212.658333333333</v>
+        <v>43212.612500000003</v>
       </c>
       <c r="F140" s="2"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>4</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>178</v>
+        <v>44</v>
       </c>
       <c r="C141" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="D141" t="s">
-        <v>326</v>
+        <v>92</v>
       </c>
       <c r="E141" s="2">
-        <v>43212.684027777781</v>
+        <v>43212.630555555559</v>
       </c>
       <c r="F141" s="2"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>4</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C142" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D142" t="s">
-        <v>77</v>
+        <v>318</v>
       </c>
       <c r="E142" s="2">
-        <v>43212.69027777778</v>
+        <v>43212.633333333331</v>
       </c>
       <c r="F142" s="2"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>4</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>184</v>
+        <v>69</v>
       </c>
       <c r="C143" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D143" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="E143" s="2">
-        <v>43212.693055555559</v>
+        <v>43212.638194444444</v>
       </c>
       <c r="F143" s="2"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>4</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C144" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D144" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="E144" s="2">
-        <v>43212.711111111108</v>
+        <v>43212.65625</v>
       </c>
       <c r="F144" s="2"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>434</v>
+        <v>4</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>332</v>
+        <v>78</v>
       </c>
       <c r="C145" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="D145" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="E145" s="2">
-        <v>43214.329861111109</v>
+        <v>43212.658333333333</v>
       </c>
       <c r="F145" s="2"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>434</v>
+        <v>4</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c r="C146" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D146" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E146" s="2">
-        <v>43214.337500000001</v>
+        <v>43212.684027777781</v>
       </c>
       <c r="F146" s="2"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>434</v>
+        <v>4</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="C147" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="D147" t="s">
-        <v>339</v>
+        <v>77</v>
       </c>
       <c r="E147" s="2">
-        <v>43214.368750000001</v>
+        <v>43212.69027777778</v>
       </c>
       <c r="F147" s="2"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>434</v>
+        <v>4</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="C148" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="D148" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="E148" s="2">
-        <v>43214.370138888888</v>
+        <v>43212.693055555559</v>
       </c>
       <c r="F148" s="2"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>434</v>
+        <v>4</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="C149" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="D149" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="E149" s="2">
-        <v>43214.384722222225</v>
-      </c>
+        <v>43212.711111111108</v>
+      </c>
+      <c r="F149" s="2"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>434</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>44</v>
+        <v>332</v>
       </c>
       <c r="C150" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="D150" t="s">
-        <v>272</v>
+        <v>334</v>
       </c>
       <c r="E150" s="2">
-        <v>43214.393055555556</v>
-      </c>
+        <v>43214.329861111109</v>
+      </c>
+      <c r="F150" s="2"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>434</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C151" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D151" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="E151" s="2">
-        <v>43214.396527777775</v>
+        <v>43214.337500000001</v>
       </c>
       <c r="F151" s="2"/>
     </row>
@@ -6794,16 +7218,16 @@
         <v>434</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="C152" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="D152" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E152" s="2">
-        <v>43214.397916666669</v>
+        <v>43214.368750000001</v>
       </c>
       <c r="F152" s="2"/>
     </row>
@@ -6812,16 +7236,16 @@
         <v>434</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="C153" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D153" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E153" s="2">
-        <v>43214.402083333334</v>
+        <v>43214.370138888888</v>
       </c>
       <c r="F153" s="2"/>
     </row>
@@ -6830,52 +7254,50 @@
         <v>434</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="C154" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D154" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E154" s="2">
-        <v>43214.40347222222</v>
-      </c>
-      <c r="F154" s="2"/>
+        <v>43214.384722222225</v>
+      </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>434</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="C155" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D155" t="s">
-        <v>354</v>
+        <v>272</v>
       </c>
       <c r="E155" s="2">
-        <v>43214.40625</v>
-      </c>
-      <c r="F155" s="2"/>
+        <v>43214.393055555556</v>
+      </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>434</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C156" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D156" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="E156" s="2">
-        <v>43214.407638888886</v>
+        <v>43214.396527777775</v>
       </c>
       <c r="F156" s="2"/>
     </row>
@@ -6884,16 +7306,16 @@
         <v>434</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C157" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D157" t="s">
-        <v>217</v>
+        <v>342</v>
       </c>
       <c r="E157" s="2">
-        <v>43214.409722222219</v>
+        <v>43214.397916666669</v>
       </c>
       <c r="F157" s="2"/>
     </row>
@@ -6902,16 +7324,16 @@
         <v>434</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C158" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D158" t="s">
-        <v>288</v>
+        <v>350</v>
       </c>
       <c r="E158" s="2">
-        <v>43214.411805555559</v>
+        <v>43214.402083333334</v>
       </c>
       <c r="F158" s="2"/>
     </row>
@@ -6920,16 +7342,16 @@
         <v>434</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C159" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D159" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="E159" s="2">
-        <v>43214.413888888892</v>
+        <v>43214.40347222222</v>
       </c>
       <c r="F159" s="2"/>
     </row>
@@ -6938,16 +7360,16 @@
         <v>434</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="C160" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D160" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E160" s="2">
-        <v>43214.417361111111</v>
+        <v>43214.40625</v>
       </c>
       <c r="F160" s="2"/>
     </row>
@@ -6956,16 +7378,16 @@
         <v>434</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="C161" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D161" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E161" s="2">
-        <v>43214.420138888891</v>
+        <v>43214.407638888886</v>
       </c>
       <c r="F161" s="2"/>
     </row>
@@ -6974,16 +7396,16 @@
         <v>434</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="C162" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D162" t="s">
-        <v>367</v>
+        <v>217</v>
       </c>
       <c r="E162" s="2">
-        <v>43214.425694444442</v>
+        <v>43214.409722222219</v>
       </c>
       <c r="F162" s="2"/>
     </row>
@@ -6992,16 +7414,16 @@
         <v>434</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="C163" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D163" t="s">
-        <v>369</v>
+        <v>288</v>
       </c>
       <c r="E163" s="2">
-        <v>43214.429166666669</v>
+        <v>43214.411805555559</v>
       </c>
       <c r="F163" s="2"/>
     </row>
@@ -7010,16 +7432,16 @@
         <v>434</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C164" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="D164" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="E164" s="2">
-        <v>43214.433333333334</v>
+        <v>43214.413888888892</v>
       </c>
       <c r="F164" s="2"/>
     </row>
@@ -7028,16 +7450,16 @@
         <v>434</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="C165" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="D165" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="E165" s="2">
-        <v>43214.436111111114</v>
+        <v>43214.417361111111</v>
       </c>
       <c r="F165" s="2"/>
     </row>
@@ -7046,16 +7468,16 @@
         <v>434</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="C166" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="D166" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="E166" s="2">
-        <v>43214.440972222219</v>
+        <v>43214.420138888891</v>
       </c>
       <c r="F166" s="2"/>
     </row>
@@ -7064,16 +7486,16 @@
         <v>434</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D167" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="E167" s="2">
-        <v>43214.443055555559</v>
+        <v>43214.425694444442</v>
       </c>
       <c r="F167" s="2"/>
     </row>
@@ -7082,16 +7504,16 @@
         <v>434</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>265</v>
+        <v>171</v>
       </c>
       <c r="C168" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D168" t="s">
-        <v>304</v>
+        <v>369</v>
       </c>
       <c r="E168" s="2">
-        <v>43214.445138888892</v>
+        <v>43214.429166666669</v>
       </c>
       <c r="F168" s="2"/>
     </row>
@@ -7100,16 +7522,16 @@
         <v>434</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>267</v>
+        <v>112</v>
       </c>
       <c r="C169" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D169" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="E169" s="2">
-        <v>43214.447916666664</v>
+        <v>43214.433333333334</v>
       </c>
       <c r="F169" s="2"/>
     </row>
@@ -7118,16 +7540,16 @@
         <v>434</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="C170" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="D170" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="E170" s="2">
-        <v>43214.451388888891</v>
+        <v>43214.436111111114</v>
       </c>
       <c r="F170" s="2"/>
     </row>
@@ -7136,16 +7558,16 @@
         <v>434</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>270</v>
+        <v>195</v>
       </c>
       <c r="C171" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="D171" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="E171" s="2">
-        <v>43214.453472222223</v>
+        <v>43214.440972222219</v>
       </c>
       <c r="F171" s="2"/>
     </row>
@@ -7154,16 +7576,16 @@
         <v>434</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>275</v>
+        <v>128</v>
       </c>
       <c r="C172" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D172" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="E172" s="2">
-        <v>43214.454861111109</v>
+        <v>43214.443055555559</v>
       </c>
       <c r="F172" s="2"/>
     </row>
@@ -7172,16 +7594,16 @@
         <v>434</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="C173" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="D173" t="s">
-        <v>388</v>
+        <v>304</v>
       </c>
       <c r="E173" s="2">
-        <v>43214.459722222222</v>
+        <v>43214.445138888892</v>
       </c>
       <c r="F173" s="2"/>
     </row>
@@ -7190,16 +7612,16 @@
         <v>434</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>181</v>
+        <v>267</v>
       </c>
       <c r="C174" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D174" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="E174" s="2">
-        <v>43214.461805555555</v>
+        <v>43214.447916666664</v>
       </c>
       <c r="F174" s="2"/>
     </row>
@@ -7208,16 +7630,16 @@
         <v>434</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>391</v>
+        <v>175</v>
       </c>
       <c r="C175" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="D175" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="E175" s="2">
-        <v>43214.463194444441</v>
+        <v>43214.451388888891</v>
       </c>
       <c r="F175" s="2"/>
     </row>
@@ -7226,16 +7648,16 @@
         <v>434</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>131</v>
+        <v>270</v>
       </c>
       <c r="C176" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="D176" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="E176" s="2">
-        <v>43214.570833333331</v>
+        <v>43214.453472222223</v>
       </c>
       <c r="F176" s="2"/>
     </row>
@@ -7244,16 +7666,16 @@
         <v>434</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>396</v>
+        <v>275</v>
       </c>
       <c r="C177" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="D177" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E177" s="2">
-        <v>43214.572222222225</v>
+        <v>43214.454861111109</v>
       </c>
       <c r="F177" s="2"/>
     </row>
@@ -7262,16 +7684,16 @@
         <v>434</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="C178" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="D178" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="E178" s="2">
-        <v>43214.574999999997</v>
+        <v>43214.459722222222</v>
       </c>
       <c r="F178" s="2"/>
     </row>
@@ -7280,16 +7702,16 @@
         <v>434</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>311</v>
+        <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="D179" t="s">
-        <v>188</v>
+        <v>390</v>
       </c>
       <c r="E179" s="2">
-        <v>43214.576388888891</v>
+        <v>43214.461805555555</v>
       </c>
       <c r="F179" s="2"/>
     </row>
@@ -7298,16 +7720,16 @@
         <v>434</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="C180" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="D180" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="E180" s="2">
-        <v>43214.586805555555</v>
+        <v>43214.463194444441</v>
       </c>
       <c r="F180" s="2"/>
     </row>
@@ -7316,16 +7738,16 @@
         <v>434</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>405</v>
+        <v>131</v>
       </c>
       <c r="C181" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="D181" t="s">
-        <v>233</v>
+        <v>395</v>
       </c>
       <c r="E181" s="2">
-        <v>43214.598611111112</v>
+        <v>43214.570833333331</v>
       </c>
       <c r="F181" s="2"/>
     </row>
@@ -7334,16 +7756,16 @@
         <v>434</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>184</v>
+        <v>396</v>
       </c>
       <c r="C182" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D182" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="E182" s="2">
-        <v>43214.61041666667</v>
+        <v>43214.572222222225</v>
       </c>
       <c r="F182" s="2"/>
     </row>
@@ -7352,16 +7774,16 @@
         <v>434</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>409</v>
+        <v>207</v>
       </c>
       <c r="C183" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D183" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="E183" s="2">
-        <v>43214.611111111109</v>
+        <v>43214.574999999997</v>
       </c>
       <c r="F183" s="2"/>
     </row>
@@ -7370,16 +7792,16 @@
         <v>434</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>412</v>
+        <v>311</v>
       </c>
       <c r="C184" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="D184" t="s">
-        <v>414</v>
+        <v>188</v>
       </c>
       <c r="E184" s="2">
-        <v>43214.615277777775</v>
+        <v>43214.576388888891</v>
       </c>
       <c r="F184" s="2"/>
     </row>
@@ -7388,16 +7810,16 @@
         <v>434</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>136</v>
+        <v>402</v>
       </c>
       <c r="C185" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="D185" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="E185" s="2">
-        <v>43214.620833333334</v>
+        <v>43214.586805555555</v>
       </c>
       <c r="F185" s="2"/>
     </row>
@@ -7406,16 +7828,16 @@
         <v>434</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="C186" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="D186" t="s">
-        <v>419</v>
+        <v>233</v>
       </c>
       <c r="E186" s="2">
-        <v>43214.624305555553</v>
+        <v>43214.598611111112</v>
       </c>
       <c r="F186" s="2"/>
     </row>
@@ -7424,16 +7846,16 @@
         <v>434</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>420</v>
+        <v>184</v>
       </c>
       <c r="C187" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="D187" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E187" s="2">
-        <v>43214.631249999999</v>
+        <v>43214.61041666667</v>
       </c>
       <c r="F187" s="2"/>
     </row>
@@ -7442,16 +7864,16 @@
         <v>434</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>224</v>
+        <v>409</v>
       </c>
       <c r="C188" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="D188" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="E188" s="2">
-        <v>43214.65</v>
+        <v>43214.611111111109</v>
       </c>
       <c r="F188" s="2"/>
     </row>
@@ -7460,16 +7882,16 @@
         <v>434</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="C189" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="D189" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E189" s="2">
-        <v>43214.65625</v>
+        <v>43214.615277777775</v>
       </c>
       <c r="F189" s="2"/>
     </row>
@@ -7478,16 +7900,16 @@
         <v>434</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>428</v>
+        <v>136</v>
       </c>
       <c r="C190" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="D190" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="E190" s="2">
-        <v>43214.661111111112</v>
+        <v>43214.620833333334</v>
       </c>
       <c r="F190" s="2"/>
     </row>
@@ -7496,106 +7918,106 @@
         <v>434</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="C191" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="D191" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="E191" s="2">
-        <v>43214.67083333333</v>
+        <v>43214.624305555553</v>
       </c>
       <c r="F191" s="2"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>482</v>
+        <v>434</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="C192" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="D192" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="E192" s="2">
-        <v>43216.280555555553</v>
+        <v>43214.631249999999</v>
       </c>
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>482</v>
+        <v>434</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>437</v>
+        <v>224</v>
       </c>
       <c r="C193" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="D193" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="E193" s="2">
-        <v>43216.380555555559</v>
+        <v>43214.65</v>
       </c>
       <c r="F193" s="2"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>482</v>
+        <v>434</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>33</v>
+        <v>425</v>
       </c>
       <c r="C194" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="D194" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="E194" s="2">
-        <v>43216.390972222223</v>
+        <v>43214.65625</v>
       </c>
       <c r="F194" s="2"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>482</v>
+        <v>434</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>35</v>
+        <v>428</v>
       </c>
       <c r="C195" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="D195" t="s">
-        <v>318</v>
+        <v>430</v>
       </c>
       <c r="E195" s="2">
-        <v>43216.40625</v>
+        <v>43214.661111111112</v>
       </c>
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>482</v>
+        <v>434</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>38</v>
+        <v>431</v>
       </c>
       <c r="C196" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="D196" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="E196" s="2">
-        <v>43216.413888888892</v>
+        <v>43214.67083333333</v>
       </c>
       <c r="F196" s="2"/>
     </row>
@@ -7604,16 +8026,16 @@
         <v>482</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>44</v>
+        <v>431</v>
       </c>
       <c r="C197" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="D197" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="E197" s="2">
-        <v>43216.42291666667</v>
+        <v>43216.280555555553</v>
       </c>
       <c r="F197" s="2"/>
     </row>
@@ -7622,50 +8044,52 @@
         <v>482</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>146</v>
+        <v>437</v>
       </c>
       <c r="C198" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="D198" t="s">
-        <v>260</v>
+        <v>439</v>
       </c>
       <c r="E198" s="2">
-        <v>43216.426388888889</v>
-      </c>
+        <v>43216.380555555559</v>
+      </c>
+      <c r="F198" s="2"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>482</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C199" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="D199" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="E199" s="2">
-        <v>43216.430555555555</v>
-      </c>
+        <v>43216.390972222223</v>
+      </c>
+      <c r="F199" s="2"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>482</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="C200" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="D200" t="s">
-        <v>452</v>
+        <v>318</v>
       </c>
       <c r="E200" s="2">
-        <v>43216.431944444441</v>
+        <v>43216.40625</v>
       </c>
       <c r="F200" s="2"/>
     </row>
@@ -7674,16 +8098,16 @@
         <v>482</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="C201" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="D201" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="E201" s="2">
-        <v>43216.442361111112</v>
+        <v>43216.413888888892</v>
       </c>
       <c r="F201" s="2"/>
     </row>
@@ -7692,16 +8116,16 @@
         <v>482</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="C202" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="D202" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="E202" s="2">
-        <v>43216.448611111111</v>
+        <v>43216.42291666667</v>
       </c>
       <c r="F202" s="2"/>
     </row>
@@ -7710,49 +8134,50 @@
         <v>482</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="C203" t="s">
-        <v>457</v>
+        <v>448</v>
+      </c>
+      <c r="D203" t="s">
+        <v>260</v>
       </c>
       <c r="E203" s="2">
-        <v>43216.490277777775</v>
-      </c>
-      <c r="F203" s="2"/>
+        <v>43216.426388888889</v>
+      </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>482</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>258</v>
+        <v>53</v>
       </c>
       <c r="C204" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D204" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E204" s="2">
-        <v>43216.490277777775</v>
-      </c>
-      <c r="F204" s="2"/>
+        <v>43216.430555555555</v>
+      </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>482</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="C205" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="D205" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E205" s="2">
-        <v>43216.509027777778</v>
+        <v>43216.431944444441</v>
       </c>
       <c r="F205" s="2"/>
     </row>
@@ -7761,16 +8186,16 @@
         <v>482</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="C206" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="D206" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="E206" s="2">
-        <v>43216.606249999997</v>
+        <v>43216.442361111112</v>
       </c>
       <c r="F206" s="2"/>
     </row>
@@ -7779,16 +8204,16 @@
         <v>482</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>281</v>
+        <v>224</v>
       </c>
       <c r="C207" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="D207" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="E207" s="2">
-        <v>43216.615277777775</v>
+        <v>43216.448611111111</v>
       </c>
       <c r="F207" s="2"/>
     </row>
@@ -7797,16 +8222,13 @@
         <v>482</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="C208" t="s">
-        <v>466</v>
-      </c>
-      <c r="D208" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="E208" s="2">
-        <v>43216.620138888888</v>
+        <v>43216.490277777775</v>
       </c>
       <c r="F208" s="2"/>
     </row>
@@ -7815,16 +8237,16 @@
         <v>482</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>72</v>
+        <v>258</v>
       </c>
       <c r="C209" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="D209" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="E209" s="2">
-        <v>43216.622916666667</v>
+        <v>43216.490277777775</v>
       </c>
       <c r="F209" s="2"/>
     </row>
@@ -7833,16 +8255,16 @@
         <v>482</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>236</v>
+        <v>184</v>
       </c>
       <c r="C210" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="D210" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="E210" s="2">
-        <v>43216.62777777778</v>
+        <v>43216.509027777778</v>
       </c>
       <c r="F210" s="2"/>
     </row>
@@ -7851,16 +8273,16 @@
         <v>482</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>284</v>
+        <v>69</v>
       </c>
       <c r="C211" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="D211" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="E211" s="2">
-        <v>43216.634722222225</v>
+        <v>43216.606249999997</v>
       </c>
       <c r="F211" s="2"/>
     </row>
@@ -7869,16 +8291,16 @@
         <v>482</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C212" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="D212" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="E212" s="2">
-        <v>43216.640972222223</v>
+        <v>43216.615277777775</v>
       </c>
       <c r="F212" s="2"/>
     </row>
@@ -7890,13 +8312,13 @@
         <v>99</v>
       </c>
       <c r="C213" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="D213" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="E213" s="2">
-        <v>43216.645138888889</v>
+        <v>43216.620138888888</v>
       </c>
       <c r="F213" s="2"/>
     </row>
@@ -7905,16 +8327,16 @@
         <v>482</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>477</v>
+        <v>72</v>
       </c>
       <c r="C214" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="D214" t="s">
-        <v>479</v>
+        <v>444</v>
       </c>
       <c r="E214" s="2">
-        <v>43216.650694444441</v>
+        <v>43216.622916666667</v>
       </c>
       <c r="F214" s="2"/>
     </row>
@@ -7923,106 +8345,106 @@
         <v>482</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>78</v>
+        <v>236</v>
       </c>
       <c r="C215" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="D215" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="E215" s="2">
-        <v>43216.677083333336</v>
+        <v>43216.62777777778</v>
       </c>
       <c r="F215" s="2"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>526</v>
+        <v>482</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>431</v>
+        <v>284</v>
       </c>
       <c r="C216" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="D216" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="E216" s="2">
-        <v>43217.268750000003</v>
+        <v>43216.634722222225</v>
       </c>
       <c r="F216" s="2"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>526</v>
+        <v>482</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>485</v>
+        <v>286</v>
       </c>
       <c r="C217" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="D217" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="E217" s="2">
-        <v>43217.288194444445</v>
+        <v>43216.640972222223</v>
       </c>
       <c r="F217" s="2"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>526</v>
+        <v>482</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="C218" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="D218" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="E218" s="2">
-        <v>43217.292361111111</v>
+        <v>43216.645138888889</v>
       </c>
       <c r="F218" s="2"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>526</v>
+        <v>482</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>431</v>
+        <v>477</v>
       </c>
       <c r="C219" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="D219" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="E219" s="2">
-        <v>43217.294444444444</v>
+        <v>43216.650694444441</v>
       </c>
       <c r="F219" s="2"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>526</v>
+        <v>482</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C220" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="D220" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="E220" s="2">
-        <v>43217.296527777777</v>
+        <v>43216.677083333336</v>
       </c>
       <c r="F220" s="2"/>
     </row>
@@ -8031,16 +8453,16 @@
         <v>526</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>33</v>
+        <v>431</v>
       </c>
       <c r="C221" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="D221" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="E221" s="2">
-        <v>43217.298611111109</v>
+        <v>43217.268750000003</v>
       </c>
       <c r="F221" s="2"/>
     </row>
@@ -8049,16 +8471,16 @@
         <v>526</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>99</v>
+        <v>485</v>
       </c>
       <c r="C222" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="D222" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="E222" s="2">
-        <v>43217.3</v>
+        <v>43217.288194444445</v>
       </c>
       <c r="F222" s="2"/>
     </row>
@@ -8067,16 +8489,16 @@
         <v>526</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="C223" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="D223" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="E223" s="2">
-        <v>43217.305555555555</v>
+        <v>43217.292361111111</v>
       </c>
       <c r="F223" s="2"/>
     </row>
@@ -8088,47 +8510,49 @@
         <v>431</v>
       </c>
       <c r="C224" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="D224" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="E224" s="2">
-        <v>43217.30972222222</v>
-      </c>
+        <v>43217.294444444444</v>
+      </c>
+      <c r="F224" s="2"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>526</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>224</v>
+        <v>99</v>
       </c>
       <c r="C225" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="D225" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="E225" s="2">
-        <v>43217.379861111112</v>
-      </c>
+        <v>43217.296527777777</v>
+      </c>
+      <c r="F225" s="2"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>526</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C226" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="D226" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="E226" s="2">
-        <v>43217.384027777778</v>
+        <v>43217.298611111109</v>
       </c>
       <c r="F226" s="2"/>
     </row>
@@ -8137,16 +8561,16 @@
         <v>526</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>236</v>
+        <v>99</v>
       </c>
       <c r="C227" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="D227" t="s">
-        <v>228</v>
+        <v>498</v>
       </c>
       <c r="E227" s="2">
-        <v>43217.388888888891</v>
+        <v>43217.3</v>
       </c>
       <c r="F227" s="2"/>
     </row>
@@ -8155,16 +8579,16 @@
         <v>526</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>258</v>
+        <v>99</v>
       </c>
       <c r="C228" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D228" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="E228" s="2">
-        <v>43217.392361111109</v>
+        <v>43217.305555555555</v>
       </c>
       <c r="F228" s="2"/>
     </row>
@@ -8173,52 +8597,50 @@
         <v>526</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>99</v>
+        <v>431</v>
       </c>
       <c r="C229" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="D229" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="E229" s="2">
-        <v>43217.4</v>
-      </c>
-      <c r="F229" s="2"/>
+        <v>43217.30972222222</v>
+      </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>526</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>151</v>
+        <v>224</v>
       </c>
       <c r="C230" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="D230" t="s">
-        <v>144</v>
+        <v>504</v>
       </c>
       <c r="E230" s="2">
-        <v>43217.407638888886</v>
-      </c>
-      <c r="F230" s="2"/>
+        <v>43217.379861111112</v>
+      </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>526</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>281</v>
+        <v>50</v>
       </c>
       <c r="C231" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="D231" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="E231" s="2">
-        <v>43217.45208333333</v>
+        <v>43217.384027777778</v>
       </c>
       <c r="F231" s="2"/>
     </row>
@@ -8227,16 +8649,16 @@
         <v>526</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="C232" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D232" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="E232" s="2">
-        <v>43217.461805555555</v>
+        <v>43217.388888888891</v>
       </c>
       <c r="F232" s="2"/>
     </row>
@@ -8245,16 +8667,16 @@
         <v>526</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="C233" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="D233" t="s">
-        <v>32</v>
+        <v>509</v>
       </c>
       <c r="E233" s="2">
-        <v>43217.465277777781</v>
+        <v>43217.392361111109</v>
       </c>
       <c r="F233" s="2"/>
     </row>
@@ -8263,16 +8685,16 @@
         <v>526</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>477</v>
+        <v>99</v>
       </c>
       <c r="C234" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="D234" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="E234" s="2">
-        <v>43217.475694444445</v>
+        <v>43217.4</v>
       </c>
       <c r="F234" s="2"/>
     </row>
@@ -8281,16 +8703,16 @@
         <v>526</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="C235" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="D235" t="s">
-        <v>520</v>
+        <v>144</v>
       </c>
       <c r="E235" s="2">
-        <v>43217.490972222222</v>
+        <v>43217.407638888886</v>
       </c>
       <c r="F235" s="2"/>
     </row>
@@ -8299,16 +8721,16 @@
         <v>526</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>521</v>
+        <v>281</v>
       </c>
       <c r="C236" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="D236" t="s">
-        <v>342</v>
+        <v>514</v>
       </c>
       <c r="E236" s="2">
-        <v>43217.513194444444</v>
+        <v>43217.45208333333</v>
       </c>
       <c r="F236" s="2"/>
     </row>
@@ -8317,16 +8739,16 @@
         <v>526</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>35</v>
+        <v>284</v>
       </c>
       <c r="C237" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D237" t="s">
-        <v>384</v>
+        <v>110</v>
       </c>
       <c r="E237" s="2">
-        <v>43217.520138888889</v>
+        <v>43217.461805555555</v>
       </c>
       <c r="F237" s="2"/>
     </row>
@@ -8335,103 +8757,106 @@
         <v>526</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>38</v>
+        <v>286</v>
       </c>
       <c r="C238" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="D238" t="s">
-        <v>525</v>
+        <v>32</v>
       </c>
       <c r="E238" s="2">
-        <v>43217.554166666669</v>
+        <v>43217.465277777781</v>
       </c>
       <c r="F238" s="2"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>636</v>
+        <v>526</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>527</v>
+        <v>477</v>
       </c>
       <c r="C239" t="s">
-        <v>528</v>
+        <v>517</v>
+      </c>
+      <c r="D239" t="s">
+        <v>518</v>
       </c>
       <c r="E239" s="2">
-        <v>43220.375</v>
+        <v>43217.475694444445</v>
       </c>
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>636</v>
+        <v>526</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="C240" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D240" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E240" s="2">
-        <v>43220.384027777778</v>
+        <v>43217.490972222222</v>
       </c>
       <c r="F240" s="2"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>636</v>
+        <v>526</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>431</v>
+        <v>521</v>
       </c>
       <c r="C241" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="D241" t="s">
-        <v>532</v>
+        <v>342</v>
       </c>
       <c r="E241" s="2">
-        <v>43220.38958333333</v>
+        <v>43217.513194444444</v>
       </c>
       <c r="F241" s="2"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>636</v>
+        <v>526</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="C242" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="D242" t="s">
-        <v>534</v>
+        <v>384</v>
       </c>
       <c r="E242" s="2">
-        <v>43220.393055555556</v>
+        <v>43217.520138888889</v>
       </c>
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>636</v>
+        <v>526</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="C243" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="D243" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="E243" s="2">
-        <v>43220.415277777778</v>
+        <v>43217.554166666669</v>
       </c>
       <c r="F243" s="2"/>
     </row>
@@ -8440,16 +8865,13 @@
         <v>636</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>171</v>
+        <v>527</v>
       </c>
       <c r="C244" t="s">
-        <v>537</v>
-      </c>
-      <c r="D244" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="E244" s="2">
-        <v>43220.418055555558</v>
+        <v>43220.375</v>
       </c>
       <c r="F244" s="2"/>
     </row>
@@ -8458,16 +8880,16 @@
         <v>636</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="C245" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="D245" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="E245" s="2">
-        <v>43220.422222222223</v>
+        <v>43220.384027777778</v>
       </c>
       <c r="F245" s="2"/>
     </row>
@@ -8476,16 +8898,16 @@
         <v>636</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>178</v>
+        <v>431</v>
       </c>
       <c r="C246" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="D246" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="E246" s="2">
-        <v>43220.424305555556</v>
+        <v>43220.38958333333</v>
       </c>
       <c r="F246" s="2"/>
     </row>
@@ -8494,16 +8916,16 @@
         <v>636</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="C247" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="D247" t="s">
-        <v>177</v>
+        <v>534</v>
       </c>
       <c r="E247" s="2">
-        <v>43220.425694444442</v>
+        <v>43220.393055555556</v>
       </c>
       <c r="F247" s="2"/>
     </row>
@@ -8512,16 +8934,16 @@
         <v>636</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>391</v>
+        <v>169</v>
       </c>
       <c r="C248" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="D248" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="E248" s="2">
-        <v>43220.427777777775</v>
+        <v>43220.415277777778</v>
       </c>
       <c r="F248" s="2"/>
     </row>
@@ -8530,50 +8952,52 @@
         <v>636</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="C249" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="D249" t="s">
-        <v>388</v>
+        <v>538</v>
       </c>
       <c r="E249" s="2">
-        <v>43220.432638888888</v>
-      </c>
+        <v>43220.418055555558</v>
+      </c>
+      <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>636</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>396</v>
+        <v>175</v>
       </c>
       <c r="C250" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="D250" t="s">
-        <v>153</v>
+        <v>540</v>
       </c>
       <c r="E250" s="2">
-        <v>43220.43472222222</v>
-      </c>
+        <v>43220.422222222223</v>
+      </c>
+      <c r="F250" s="2"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>636</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>548</v>
+        <v>178</v>
       </c>
       <c r="C251" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="D251" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="E251" s="2">
-        <v>43220.4375</v>
+        <v>43220.424305555556</v>
       </c>
       <c r="F251" s="2"/>
     </row>
@@ -8582,16 +9006,16 @@
         <v>636</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="C252" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="D252" t="s">
-        <v>552</v>
+        <v>177</v>
       </c>
       <c r="E252" s="2">
-        <v>43220.441666666666</v>
+        <v>43220.425694444442</v>
       </c>
       <c r="F252" s="2"/>
     </row>
@@ -8600,16 +9024,16 @@
         <v>636</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>204</v>
+        <v>391</v>
       </c>
       <c r="C253" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="D253" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="E253" s="2">
-        <v>43220.443055555559</v>
+        <v>43220.427777777775</v>
       </c>
       <c r="F253" s="2"/>
     </row>
@@ -8618,52 +9042,50 @@
         <v>636</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>294</v>
+        <v>35</v>
       </c>
       <c r="C254" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="D254" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="E254" s="2">
-        <v>43220.445138888892</v>
-      </c>
-      <c r="F254" s="2"/>
+        <v>43220.432638888888</v>
+      </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>636</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>337</v>
+        <v>396</v>
       </c>
       <c r="C255" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="D255" t="s">
-        <v>506</v>
+        <v>153</v>
       </c>
       <c r="E255" s="2">
-        <v>43220.448611111111</v>
-      </c>
-      <c r="F255" s="2"/>
+        <v>43220.43472222222</v>
+      </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>636</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>447</v>
+        <v>548</v>
       </c>
       <c r="C256" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="D256" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E256" s="2">
-        <v>43220.45208333333</v>
+        <v>43220.4375</v>
       </c>
       <c r="F256" s="2"/>
     </row>
@@ -8672,16 +9094,16 @@
         <v>636</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>488</v>
+        <v>64</v>
       </c>
       <c r="C257" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="D257" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="E257" s="2">
-        <v>43220.45416666667</v>
+        <v>43220.441666666666</v>
       </c>
       <c r="F257" s="2"/>
     </row>
@@ -8690,16 +9112,16 @@
         <v>636</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="C258" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="D258" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="E258" s="2">
-        <v>43220.455555555556</v>
+        <v>43220.443055555559</v>
       </c>
       <c r="F258" s="2"/>
     </row>
@@ -8708,16 +9130,16 @@
         <v>636</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>562</v>
+        <v>294</v>
       </c>
       <c r="C259" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="D259" t="s">
-        <v>564</v>
+        <v>369</v>
       </c>
       <c r="E259" s="2">
-        <v>43220.482638888891</v>
+        <v>43220.445138888892</v>
       </c>
       <c r="F259" s="2"/>
     </row>
@@ -8726,16 +9148,16 @@
         <v>636</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>565</v>
+        <v>337</v>
       </c>
       <c r="C260" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="D260" t="s">
-        <v>567</v>
+        <v>506</v>
       </c>
       <c r="E260" s="2">
-        <v>43220.486805555556</v>
+        <v>43220.448611111111</v>
       </c>
       <c r="F260" s="2"/>
     </row>
@@ -8744,16 +9166,16 @@
         <v>636</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>568</v>
+        <v>447</v>
       </c>
       <c r="C261" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="D261" t="s">
-        <v>492</v>
+        <v>552</v>
       </c>
       <c r="E261" s="2">
-        <v>43220.488888888889</v>
+        <v>43220.45208333333</v>
       </c>
       <c r="F261" s="2"/>
     </row>
@@ -8762,16 +9184,16 @@
         <v>636</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>570</v>
+        <v>488</v>
       </c>
       <c r="C262" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="D262" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="E262" s="2">
-        <v>43220.490277777775</v>
+        <v>43220.45416666667</v>
       </c>
       <c r="F262" s="2"/>
     </row>
@@ -8780,16 +9202,16 @@
         <v>636</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>573</v>
+        <v>151</v>
       </c>
       <c r="C263" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="D263" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="E263" s="2">
-        <v>43220.493055555555</v>
+        <v>43220.455555555556</v>
       </c>
       <c r="F263" s="2"/>
     </row>
@@ -8798,16 +9220,16 @@
         <v>636</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>245</v>
+        <v>562</v>
       </c>
       <c r="C264" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="D264" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="E264" s="2">
-        <v>43220.49722222222</v>
+        <v>43220.482638888891</v>
       </c>
       <c r="F264" s="2"/>
     </row>
@@ -8816,16 +9238,16 @@
         <v>636</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>296</v>
+        <v>565</v>
       </c>
       <c r="C265" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="D265" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="E265" s="2">
-        <v>43220.503472222219</v>
+        <v>43220.486805555556</v>
       </c>
       <c r="F265" s="2"/>
     </row>
@@ -8834,16 +9256,16 @@
         <v>636</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>99</v>
+        <v>568</v>
       </c>
       <c r="C266" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="D266" t="s">
-        <v>581</v>
+        <v>492</v>
       </c>
       <c r="E266" s="2">
-        <v>43220.506249999999</v>
+        <v>43220.488888888889</v>
       </c>
       <c r="F266" s="2"/>
     </row>
@@ -8852,16 +9274,16 @@
         <v>636</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>99</v>
+        <v>570</v>
       </c>
       <c r="C267" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="D267" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="E267" s="2">
-        <v>43220.508333333331</v>
+        <v>43220.490277777775</v>
       </c>
       <c r="F267" s="2"/>
     </row>
@@ -8870,16 +9292,16 @@
         <v>636</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>99</v>
+        <v>573</v>
       </c>
       <c r="C268" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="D268" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="E268" s="2">
-        <v>43220.509722222225</v>
+        <v>43220.493055555555</v>
       </c>
       <c r="F268" s="2"/>
     </row>
@@ -8888,16 +9310,16 @@
         <v>636</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>340</v>
+        <v>245</v>
       </c>
       <c r="C269" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="D269" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="E269" s="2">
-        <v>43220.513194444444</v>
+        <v>43220.49722222222</v>
       </c>
       <c r="F269" s="2"/>
     </row>
@@ -8906,16 +9328,16 @@
         <v>636</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>588</v>
+        <v>296</v>
       </c>
       <c r="C270" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="D270" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="E270" s="2">
-        <v>43220.515277777777</v>
+        <v>43220.503472222219</v>
       </c>
       <c r="F270" s="2"/>
     </row>
@@ -8924,16 +9346,16 @@
         <v>636</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>591</v>
+        <v>99</v>
       </c>
       <c r="C271" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="D271" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="E271" s="2">
-        <v>43220.525694444441</v>
+        <v>43220.506249999999</v>
       </c>
       <c r="F271" s="2"/>
     </row>
@@ -8942,16 +9364,16 @@
         <v>636</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C272" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="D272" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="E272" s="2">
-        <v>43220.52847222222</v>
+        <v>43220.508333333331</v>
       </c>
       <c r="F272" s="2"/>
     </row>
@@ -8960,16 +9382,16 @@
         <v>636</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>595</v>
+        <v>99</v>
       </c>
       <c r="C273" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="D273" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="E273" s="2">
-        <v>43220.53125</v>
+        <v>43220.509722222225</v>
       </c>
       <c r="F273" s="2"/>
     </row>
@@ -8978,16 +9400,16 @@
         <v>636</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>598</v>
+        <v>340</v>
       </c>
       <c r="C274" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="D274" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="E274" s="2">
-        <v>43220.536111111112</v>
+        <v>43220.513194444444</v>
       </c>
       <c r="F274" s="2"/>
     </row>
@@ -8996,16 +9418,16 @@
         <v>636</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="C275" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="D275" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="E275" s="2">
-        <v>43220.539583333331</v>
+        <v>43220.515277777777</v>
       </c>
       <c r="F275" s="2"/>
     </row>
@@ -9014,16 +9436,16 @@
         <v>636</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>38</v>
+        <v>591</v>
       </c>
       <c r="C276" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="D276" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="E276" s="2">
-        <v>43220.542361111111</v>
+        <v>43220.525694444441</v>
       </c>
       <c r="F276" s="2"/>
     </row>
@@ -9032,16 +9454,16 @@
         <v>636</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C277" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="D277" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="E277" s="2">
-        <v>43220.544444444444</v>
+        <v>43220.52847222222</v>
       </c>
       <c r="F277" s="2"/>
     </row>
@@ -9050,16 +9472,16 @@
         <v>636</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="C278" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="D278" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="E278" s="2">
-        <v>43220.55</v>
+        <v>43220.53125</v>
       </c>
       <c r="F278" s="2"/>
     </row>
@@ -9068,16 +9490,16 @@
         <v>636</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>184</v>
+        <v>598</v>
       </c>
       <c r="C279" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="D279" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="E279" s="2">
-        <v>43220.552777777775</v>
+        <v>43220.536111111112</v>
       </c>
       <c r="F279" s="2"/>
     </row>
@@ -9086,16 +9508,16 @@
         <v>636</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="C280" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="D280" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="E280" s="2">
-        <v>43220.55972222222</v>
+        <v>43220.539583333331</v>
       </c>
       <c r="F280" s="2"/>
     </row>
@@ -9104,16 +9526,16 @@
         <v>636</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="C281" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="D281" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="E281" s="2">
-        <v>43220.577777777777</v>
+        <v>43220.542361111111</v>
       </c>
       <c r="F281" s="2"/>
     </row>
@@ -9122,16 +9544,16 @@
         <v>636</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="C282" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="D282" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="E282" s="2">
-        <v>43220.580555555556</v>
+        <v>43220.544444444444</v>
       </c>
       <c r="F282" s="2"/>
     </row>
@@ -9140,16 +9562,16 @@
         <v>636</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>365</v>
+        <v>608</v>
       </c>
       <c r="C283" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="D283" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="E283" s="2">
-        <v>43220.63958333333</v>
+        <v>43220.55</v>
       </c>
       <c r="F283" s="2"/>
     </row>
@@ -9158,16 +9580,16 @@
         <v>636</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>622</v>
+        <v>184</v>
       </c>
       <c r="C284" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="D284" t="s">
-        <v>487</v>
+        <v>612</v>
       </c>
       <c r="E284" s="2">
-        <v>43220.64166666667</v>
+        <v>43220.552777777775</v>
       </c>
       <c r="F284" s="2"/>
     </row>
@@ -9176,16 +9598,16 @@
         <v>636</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="C285" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="D285" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="E285" s="2">
-        <v>43220.643750000003</v>
+        <v>43220.55972222222</v>
       </c>
       <c r="F285" s="2"/>
     </row>
@@ -9194,16 +9616,16 @@
         <v>636</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>627</v>
+        <v>236</v>
       </c>
       <c r="C286" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="D286" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="E286" s="2">
-        <v>43220.648611111108</v>
+        <v>43220.577777777777</v>
       </c>
       <c r="F286" s="2"/>
     </row>
@@ -9212,16 +9634,16 @@
         <v>636</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>630</v>
+        <v>302</v>
       </c>
       <c r="C287" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="D287" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="E287" s="2">
-        <v>43220.650694444441</v>
+        <v>43220.580555555556</v>
       </c>
       <c r="F287" s="2"/>
     </row>
@@ -9230,106 +9652,106 @@
         <v>636</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>633</v>
+        <v>365</v>
       </c>
       <c r="C288" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="D288" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="E288" s="2">
-        <v>43220.654861111114</v>
+        <v>43220.63958333333</v>
       </c>
       <c r="F288" s="2"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>695</v>
+        <v>636</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="C289" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="D289" t="s">
-        <v>639</v>
+        <v>487</v>
       </c>
       <c r="E289" s="2">
-        <v>43221.29583333333</v>
+        <v>43220.64166666667</v>
       </c>
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>695</v>
+        <v>636</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>35</v>
+        <v>624</v>
       </c>
       <c r="C290" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="D290" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="E290" s="2">
-        <v>43221.315972222219</v>
+        <v>43220.643750000003</v>
       </c>
       <c r="F290" s="2"/>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>695</v>
+        <v>636</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>38</v>
+        <v>627</v>
       </c>
       <c r="C291" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="D291" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="E291" s="2">
-        <v>43221.322222222225</v>
+        <v>43220.648611111108</v>
       </c>
       <c r="F291" s="2"/>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>695</v>
+        <v>636</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>146</v>
+        <v>630</v>
       </c>
       <c r="C292" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="D292" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="E292" s="2">
-        <v>43221.325694444444</v>
+        <v>43220.650694444441</v>
       </c>
       <c r="F292" s="2"/>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>695</v>
+        <v>636</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>44</v>
+        <v>633</v>
       </c>
       <c r="C293" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="D293" t="s">
-        <v>534</v>
+        <v>635</v>
       </c>
       <c r="E293" s="2">
-        <v>43221.329861111109</v>
+        <v>43220.654861111114</v>
       </c>
       <c r="F293" s="2"/>
     </row>
@@ -9338,16 +9760,16 @@
         <v>695</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>164</v>
+        <v>637</v>
       </c>
       <c r="C294" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="D294" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="E294" s="2">
-        <v>43221.34375</v>
+        <v>43221.29583333333</v>
       </c>
       <c r="F294" s="2"/>
     </row>
@@ -9356,16 +9778,16 @@
         <v>695</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C295" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="D295" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="E295" s="2">
-        <v>43221.348611111112</v>
+        <v>43221.315972222219</v>
       </c>
       <c r="F295" s="2"/>
     </row>
@@ -9374,16 +9796,16 @@
         <v>695</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="C296" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="D296" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E296" s="2">
-        <v>43221.351388888892</v>
+        <v>43221.322222222225</v>
       </c>
       <c r="F296" s="2"/>
     </row>
@@ -9392,16 +9814,16 @@
         <v>695</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="C297" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="D297" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E297" s="2">
-        <v>43221.354166666664</v>
+        <v>43221.325694444444</v>
       </c>
       <c r="F297" s="2"/>
     </row>
@@ -9410,16 +9832,16 @@
         <v>695</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="C298" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="D298" t="s">
-        <v>656</v>
+        <v>534</v>
       </c>
       <c r="E298" s="2">
-        <v>43221.375694444447</v>
+        <v>43221.329861111109</v>
       </c>
       <c r="F298" s="2"/>
     </row>
@@ -9428,16 +9850,16 @@
         <v>695</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="C299" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="D299" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="E299" s="2">
-        <v>43221.38958333333</v>
+        <v>43221.34375</v>
       </c>
       <c r="F299" s="2"/>
     </row>
@@ -9446,16 +9868,16 @@
         <v>695</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="C300" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="D300" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="E300" s="2">
-        <v>43221.397916666669</v>
+        <v>43221.348611111112</v>
       </c>
       <c r="F300" s="2"/>
     </row>
@@ -9464,50 +9886,52 @@
         <v>695</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>72</v>
+        <v>236</v>
       </c>
       <c r="C301" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="D301" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="E301" s="2">
-        <v>43221.4</v>
-      </c>
+        <v>43221.351388888892</v>
+      </c>
+      <c r="F301" s="2"/>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>695</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>64</v>
+        <v>240</v>
       </c>
       <c r="C302" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="D302" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="E302" s="2">
-        <v>43221.404166666667</v>
-      </c>
+        <v>43221.354166666664</v>
+      </c>
+      <c r="F302" s="2"/>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>695</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="C303" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="D303" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="E303" s="2">
-        <v>43221.426388888889</v>
+        <v>43221.375694444447</v>
       </c>
       <c r="F303" s="2"/>
     </row>
@@ -9516,16 +9940,16 @@
         <v>695</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C304" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="D304" t="s">
-        <v>581</v>
+        <v>658</v>
       </c>
       <c r="E304" s="2">
-        <v>43221.431944444441</v>
+        <v>43221.38958333333</v>
       </c>
       <c r="F304" s="2"/>
     </row>
@@ -9534,16 +9958,16 @@
         <v>695</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="C305" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="D305" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="E305" s="2">
-        <v>43221.433333333334</v>
+        <v>43221.397916666669</v>
       </c>
       <c r="F305" s="2"/>
     </row>
@@ -9552,52 +9976,50 @@
         <v>695</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>171</v>
+        <v>72</v>
       </c>
       <c r="C306" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="D306" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="E306" s="2">
-        <v>43221.438888888886</v>
-      </c>
-      <c r="F306" s="2"/>
+        <v>43221.4</v>
+      </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>695</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>672</v>
+        <v>64</v>
       </c>
       <c r="C307" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="D307" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="E307" s="2">
-        <v>43221.440972222219</v>
-      </c>
-      <c r="F307" s="2"/>
+        <v>43221.404166666667</v>
+      </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>695</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="C308" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="D308" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="E308" s="2">
-        <v>43221.445833333331</v>
+        <v>43221.426388888889</v>
       </c>
       <c r="F308" s="2"/>
     </row>
@@ -9606,16 +10028,16 @@
         <v>695</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="C309" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="D309" t="s">
-        <v>677</v>
+        <v>581</v>
       </c>
       <c r="E309" s="2">
-        <v>43221.448611111111</v>
+        <v>43221.431944444441</v>
       </c>
       <c r="F309" s="2"/>
     </row>
@@ -9624,16 +10046,16 @@
         <v>695</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="C310" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="D310" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="E310" s="2">
-        <v>43221.45208333333</v>
+        <v>43221.433333333334</v>
       </c>
       <c r="F310" s="2"/>
     </row>
@@ -9642,16 +10064,16 @@
         <v>695</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="C311" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="D311" t="s">
-        <v>235</v>
+        <v>671</v>
       </c>
       <c r="E311" s="2">
-        <v>43221.455555555556</v>
+        <v>43221.438888888886</v>
       </c>
       <c r="F311" s="2"/>
     </row>
@@ -9660,16 +10082,16 @@
         <v>695</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>33</v>
+        <v>672</v>
       </c>
       <c r="C312" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="D312" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="E312" s="2">
-        <v>43221.461111111108</v>
+        <v>43221.440972222219</v>
       </c>
       <c r="F312" s="2"/>
     </row>
@@ -9678,16 +10100,16 @@
         <v>695</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C313" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="D313" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="E313" s="2">
-        <v>43221.468055555553</v>
+        <v>43221.445833333331</v>
       </c>
       <c r="F313" s="2"/>
     </row>
@@ -9696,16 +10118,16 @@
         <v>695</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="C314" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="D314" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="E314" s="2">
-        <v>43221.475694444445</v>
+        <v>43221.448611111111</v>
       </c>
       <c r="F314" s="2"/>
     </row>
@@ -9714,16 +10136,16 @@
         <v>695</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>278</v>
+        <v>181</v>
       </c>
       <c r="C315" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="D315" t="s">
-        <v>454</v>
+        <v>679</v>
       </c>
       <c r="E315" s="2">
-        <v>43221.529166666667</v>
+        <v>43221.45208333333</v>
       </c>
       <c r="F315" s="2"/>
     </row>
@@ -9732,16 +10154,16 @@
         <v>695</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C316" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="D316" t="s">
-        <v>689</v>
+        <v>235</v>
       </c>
       <c r="E316" s="2">
-        <v>43221.532638888886</v>
+        <v>43221.455555555556</v>
       </c>
       <c r="F316" s="2"/>
     </row>
@@ -9750,16 +10172,16 @@
         <v>695</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="C317" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="D317" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="E317" s="2">
-        <v>43221.535416666666</v>
+        <v>43221.461111111108</v>
       </c>
       <c r="F317" s="2"/>
     </row>
@@ -9768,106 +10190,106 @@
         <v>695</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>692</v>
+        <v>184</v>
       </c>
       <c r="C318" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="D318" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="E318" s="2">
-        <v>43221.547222222223</v>
+        <v>43221.468055555553</v>
       </c>
       <c r="F318" s="2"/>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>770</v>
+        <v>695</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>696</v>
+        <v>87</v>
       </c>
       <c r="C319" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="D319" t="s">
-        <v>111</v>
+        <v>686</v>
       </c>
       <c r="E319" s="2">
-        <v>43222.325694444444</v>
+        <v>43221.475694444445</v>
       </c>
       <c r="F319" s="2"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>770</v>
+        <v>695</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>35</v>
+        <v>278</v>
       </c>
       <c r="C320" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="D320" t="s">
-        <v>699</v>
+        <v>454</v>
       </c>
       <c r="E320" s="2">
-        <v>43222.329861111109</v>
+        <v>43221.529166666667</v>
       </c>
       <c r="F320" s="2"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>770</v>
+        <v>695</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="C321" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="D321" t="s">
-        <v>250</v>
+        <v>689</v>
       </c>
       <c r="E321" s="2">
-        <v>43222.334027777775</v>
+        <v>43221.532638888886</v>
       </c>
       <c r="F321" s="2"/>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>770</v>
+        <v>695</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="C322" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="D322" t="s">
-        <v>168</v>
+        <v>691</v>
       </c>
       <c r="E322" s="2">
-        <v>43222.335416666669</v>
+        <v>43221.535416666666</v>
       </c>
       <c r="F322" s="2"/>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>770</v>
+        <v>695</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>53</v>
+        <v>692</v>
       </c>
       <c r="C323" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="D323" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="E323" s="2">
-        <v>43222.336805555555</v>
+        <v>43221.547222222223</v>
       </c>
       <c r="F323" s="2"/>
     </row>
@@ -9876,16 +10298,16 @@
         <v>770</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>69</v>
+        <v>696</v>
       </c>
       <c r="C324" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="D324" t="s">
-        <v>705</v>
+        <v>111</v>
       </c>
       <c r="E324" s="2">
-        <v>43222.348611111112</v>
+        <v>43222.325694444444</v>
       </c>
       <c r="F324" s="2"/>
     </row>
@@ -9894,16 +10316,16 @@
         <v>770</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C325" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="D325" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="E325" s="2">
-        <v>43222.351388888892</v>
+        <v>43222.329861111109</v>
       </c>
       <c r="F325" s="2"/>
     </row>
@@ -9912,16 +10334,16 @@
         <v>770</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="C326" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="D326" t="s">
-        <v>709</v>
+        <v>250</v>
       </c>
       <c r="E326" s="2">
-        <v>43222.363888888889</v>
+        <v>43222.334027777775</v>
       </c>
       <c r="F326" s="2"/>
     </row>
@@ -9930,16 +10352,16 @@
         <v>770</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C327" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="D327" t="s">
-        <v>711</v>
+        <v>168</v>
       </c>
       <c r="E327" s="2">
-        <v>43222.366666666669</v>
+        <v>43222.335416666669</v>
       </c>
       <c r="F327" s="2"/>
     </row>
@@ -9948,16 +10370,16 @@
         <v>770</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="C328" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="D328" t="s">
-        <v>446</v>
+        <v>703</v>
       </c>
       <c r="E328" s="2">
-        <v>43222.37222222222</v>
+        <v>43222.336805555555</v>
       </c>
       <c r="F328" s="2"/>
     </row>
@@ -9966,16 +10388,16 @@
         <v>770</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C329" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D329" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="E329" s="2">
-        <v>43222.379166666666</v>
+        <v>43222.348611111112</v>
       </c>
       <c r="F329" s="2"/>
     </row>
@@ -9984,16 +10406,16 @@
         <v>770</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C330" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="D330" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="E330" s="2">
-        <v>43222.383333333331</v>
+        <v>43222.351388888892</v>
       </c>
       <c r="F330" s="2"/>
     </row>
@@ -10002,16 +10424,16 @@
         <v>770</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C331" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="D331" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="E331" s="2">
-        <v>43222.400000000001</v>
+        <v>43222.363888888889</v>
       </c>
       <c r="F331" s="2"/>
     </row>
@@ -10020,16 +10442,16 @@
         <v>770</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="C332" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="D332" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="E332" s="2">
-        <v>43222.402083333334</v>
+        <v>43222.366666666669</v>
       </c>
       <c r="F332" s="2"/>
     </row>
@@ -10038,50 +10460,52 @@
         <v>770</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C333" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="D333" t="s">
-        <v>722</v>
+        <v>446</v>
       </c>
       <c r="E333" s="2">
-        <v>43222.40625</v>
-      </c>
+        <v>43222.37222222222</v>
+      </c>
+      <c r="F333" s="2"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>770</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="C334" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="D334" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="E334" s="2">
-        <v>43222.408333333333</v>
-      </c>
+        <v>43222.379166666666</v>
+      </c>
+      <c r="F334" s="2"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>770</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="C335" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="D335" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="E335" s="2">
-        <v>43222.410416666666</v>
+        <v>43222.383333333331</v>
       </c>
       <c r="F335" s="2"/>
     </row>
@@ -10090,16 +10514,16 @@
         <v>770</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="C336" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="D336" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="E336" s="2">
-        <v>43222.412499999999</v>
+        <v>43222.400000000001</v>
       </c>
       <c r="F336" s="2"/>
     </row>
@@ -10108,16 +10532,16 @@
         <v>770</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C337" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="D337" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="E337" s="2">
-        <v>43222.425000000003</v>
+        <v>43222.402083333334</v>
       </c>
       <c r="F337" s="2"/>
     </row>
@@ -10126,52 +10550,50 @@
         <v>770</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="C338" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="D338" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="E338" s="2">
-        <v>43222.431944444441</v>
-      </c>
-      <c r="F338" s="2"/>
+        <v>43222.40625</v>
+      </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>770</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C339" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="D339" t="s">
-        <v>436</v>
+        <v>724</v>
       </c>
       <c r="E339" s="2">
-        <v>43222.435416666667</v>
-      </c>
-      <c r="F339" s="2"/>
+        <v>43222.408333333333</v>
+      </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>770</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C340" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="D340" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="E340" s="2">
-        <v>43222.436805555553</v>
+        <v>43222.410416666666</v>
       </c>
       <c r="F340" s="2"/>
     </row>
@@ -10180,16 +10602,16 @@
         <v>770</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>391</v>
+        <v>151</v>
       </c>
       <c r="C341" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="D341" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="E341" s="2">
-        <v>43222.439583333333</v>
+        <v>43222.412499999999</v>
       </c>
       <c r="F341" s="2"/>
     </row>
@@ -10198,16 +10620,16 @@
         <v>770</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C342" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="D342" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="E342" s="2">
-        <v>43222.44027777778</v>
+        <v>43222.425000000003</v>
       </c>
       <c r="F342" s="2"/>
     </row>
@@ -10216,16 +10638,16 @@
         <v>770</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="C343" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="D343" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="E343" s="2">
-        <v>43222.448611111111</v>
+        <v>43222.431944444441</v>
       </c>
       <c r="F343" s="2"/>
     </row>
@@ -10234,16 +10656,16 @@
         <v>770</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="C344" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="D344" t="s">
-        <v>743</v>
+        <v>436</v>
       </c>
       <c r="E344" s="2">
-        <v>43222.450694444444</v>
+        <v>43222.435416666667</v>
       </c>
       <c r="F344" s="2"/>
     </row>
@@ -10252,16 +10674,16 @@
         <v>770</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C345" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="D345" t="s">
-        <v>459</v>
+        <v>735</v>
       </c>
       <c r="E345" s="2">
-        <v>43222.45208333333</v>
+        <v>43222.436805555553</v>
       </c>
       <c r="F345" s="2"/>
     </row>
@@ -10270,16 +10692,16 @@
         <v>770</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>195</v>
+        <v>391</v>
       </c>
       <c r="C346" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="D346" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="E346" s="2">
-        <v>43222.455555555556</v>
+        <v>43222.439583333333</v>
       </c>
       <c r="F346" s="2"/>
     </row>
@@ -10288,16 +10710,16 @@
         <v>770</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>224</v>
+        <v>96</v>
       </c>
       <c r="C347" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="D347" t="s">
-        <v>162</v>
+        <v>739</v>
       </c>
       <c r="E347" s="2">
-        <v>43222.494444444441</v>
+        <v>43222.44027777778</v>
       </c>
       <c r="F347" s="2"/>
     </row>
@@ -10306,16 +10728,16 @@
         <v>770</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="C348" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="D348" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="E348" s="2">
-        <v>43222.50277777778</v>
+        <v>43222.448611111111</v>
       </c>
       <c r="F348" s="2"/>
     </row>
@@ -10324,16 +10746,16 @@
         <v>770</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="C349" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="D349" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="E349" s="2">
-        <v>43222.522222222222</v>
+        <v>43222.450694444444</v>
       </c>
       <c r="F349" s="2"/>
     </row>
@@ -10342,16 +10764,16 @@
         <v>770</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="C350" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="D350" t="s">
-        <v>753</v>
+        <v>459</v>
       </c>
       <c r="E350" s="2">
-        <v>43222.524305555555</v>
+        <v>43222.45208333333</v>
       </c>
       <c r="F350" s="2"/>
     </row>
@@ -10360,16 +10782,16 @@
         <v>770</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>754</v>
+        <v>195</v>
       </c>
       <c r="C351" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="D351" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="E351" s="2">
-        <v>43222.599305555559</v>
+        <v>43222.455555555556</v>
       </c>
       <c r="F351" s="2"/>
     </row>
@@ -10378,16 +10800,16 @@
         <v>770</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="C352" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="D352" t="s">
-        <v>707</v>
+        <v>162</v>
       </c>
       <c r="E352" s="2">
-        <v>43222.618055555555</v>
+        <v>43222.494444444441</v>
       </c>
       <c r="F352" s="2"/>
     </row>
@@ -10396,16 +10818,16 @@
         <v>770</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>267</v>
+        <v>184</v>
       </c>
       <c r="C353" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="D353" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="E353" s="2">
-        <v>43222.620138888888</v>
+        <v>43222.50277777778</v>
       </c>
       <c r="F353" s="2"/>
     </row>
@@ -10414,16 +10836,16 @@
         <v>770</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>270</v>
+        <v>50</v>
       </c>
       <c r="C354" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="D354" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="E354" s="2">
-        <v>43222.621527777781</v>
+        <v>43222.522222222222</v>
       </c>
       <c r="F354" s="2"/>
     </row>
@@ -10432,16 +10854,16 @@
         <v>770</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>275</v>
+        <v>128</v>
       </c>
       <c r="C355" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="D355" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="E355" s="2">
-        <v>43222.623611111114</v>
+        <v>43222.524305555555</v>
       </c>
       <c r="F355" s="2"/>
     </row>
@@ -10450,16 +10872,16 @@
         <v>770</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>131</v>
+        <v>754</v>
       </c>
       <c r="C356" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="D356" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="E356" s="2">
-        <v>43222.625694444447</v>
+        <v>43222.599305555559</v>
       </c>
       <c r="F356" s="2"/>
     </row>
@@ -10468,16 +10890,16 @@
         <v>770</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>99</v>
+        <v>265</v>
       </c>
       <c r="C357" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="D357" t="s">
-        <v>34</v>
+        <v>707</v>
       </c>
       <c r="E357" s="2">
-        <v>43222.638888888891</v>
+        <v>43222.618055555555</v>
       </c>
       <c r="F357" s="2"/>
     </row>
@@ -10486,13 +10908,16 @@
         <v>770</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>99</v>
+        <v>267</v>
       </c>
       <c r="C358" t="s">
-        <v>767</v>
+        <v>758</v>
+      </c>
+      <c r="D358" t="s">
+        <v>759</v>
       </c>
       <c r="E358" s="2">
-        <v>43222.640277777777</v>
+        <v>43222.620138888888</v>
       </c>
       <c r="F358" s="2"/>
     </row>
@@ -10501,32 +10926,104 @@
         <v>770</v>
       </c>
       <c r="B359" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C359" t="s">
+        <v>760</v>
+      </c>
+      <c r="D359" t="s">
+        <v>761</v>
+      </c>
+      <c r="E359" s="2">
+        <v>43222.621527777781</v>
+      </c>
+      <c r="F359" s="2"/>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>770</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C360" t="s">
+        <v>762</v>
+      </c>
+      <c r="D360" t="s">
+        <v>763</v>
+      </c>
+      <c r="E360" s="2">
+        <v>43222.623611111114</v>
+      </c>
+      <c r="F360" s="2"/>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>770</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C361" t="s">
+        <v>764</v>
+      </c>
+      <c r="D361" t="s">
+        <v>765</v>
+      </c>
+      <c r="E361" s="2">
+        <v>43222.625694444447</v>
+      </c>
+      <c r="F361" s="2"/>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>770</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C362" t="s">
+        <v>766</v>
+      </c>
+      <c r="D362" t="s">
+        <v>34</v>
+      </c>
+      <c r="E362" s="2">
+        <v>43222.638888888891</v>
+      </c>
+      <c r="F362" s="2"/>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>770</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C363" t="s">
+        <v>767</v>
+      </c>
+      <c r="E363" s="2">
+        <v>43222.640277777777</v>
+      </c>
+      <c r="F363" s="2"/>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>770</v>
+      </c>
+      <c r="B364" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C359" t="s">
+      <c r="C364" t="s">
         <v>768</v>
       </c>
-      <c r="D359" t="s">
+      <c r="D364" t="s">
         <v>769</v>
       </c>
-      <c r="E359" s="2">
+      <c r="E364" s="2">
         <v>43222.640972222223</v>
       </c>
-      <c r="F359" s="2"/>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F360" s="2"/>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F361" s="2"/>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F362" s="2"/>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F363" s="2"/>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F364" s="2"/>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
@@ -10560,46 +11057,61 @@
       <c r="F374" s="2"/>
     </row>
     <row r="375" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A375" t="s">
+      <c r="F375" s="2"/>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F376" s="2"/>
+    </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F377" s="2"/>
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F378" s="2"/>
+    </row>
+    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F379" s="2"/>
+    </row>
+    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
         <v>120</v>
       </c>
-      <c r="B375" t="s">
+      <c r="B380" t="s">
         <v>120</v>
       </c>
-      <c r="C375" t="s">
+      <c r="C380" t="s">
         <v>120</v>
       </c>
-      <c r="D375" t="s">
+      <c r="D380" t="s">
         <v>120</v>
       </c>
-      <c r="E375" t="s">
+      <c r="E380" t="s">
         <v>120</v>
       </c>
-      <c r="F375" t="s">
+      <c r="F380" t="s">
         <v>120</v>
       </c>
-      <c r="G375" t="s">
+      <c r="G380" t="s">
         <v>120</v>
       </c>
-      <c r="H375" t="s">
+      <c r="H380" t="s">
         <v>120</v>
       </c>
-      <c r="I375" t="s">
+      <c r="I380" t="s">
         <v>120</v>
       </c>
-      <c r="J375" t="s">
+      <c r="J380" t="s">
         <v>120</v>
       </c>
-      <c r="L375" t="s">
+      <c r="L380" t="s">
         <v>120</v>
       </c>
-      <c r="M375" t="s">
+      <c r="M380" t="s">
         <v>120</v>
       </c>
-      <c r="N375" t="s">
+      <c r="N380" t="s">
         <v>120</v>
       </c>
-      <c r="O375" t="s">
+      <c r="O380" t="s">
         <v>120</v>
       </c>
     </row>

--- a/Rawdata/riptransekter helags 2018.xlsx
+++ b/Rawdata/riptransekter helags 2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="5580" windowWidth="25600" windowHeight="14120" xr2:uid="{731D7839-4CAB-374B-BEA5-3406519CB6C1}"/>
+    <workbookView xWindow="1520" yWindow="2360" windowWidth="25600" windowHeight="14120" xr2:uid="{731D7839-4CAB-374B-BEA5-3406519CB6C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="374">
   <si>
     <t>vinkel</t>
   </si>
@@ -1140,6 +1140,12 @@
   </si>
   <si>
     <t>1076 m</t>
+  </si>
+  <si>
+    <t>cecum</t>
+  </si>
+  <si>
+    <t>860 m</t>
   </si>
 </sst>
 </file>
@@ -1497,8 +1503,8 @@
   <dimension ref="A1:Z438"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T445" sqref="T445"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G252" sqref="G252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5605,8 +5611,26 @@
       <c r="D119" t="s">
         <v>252</v>
       </c>
+      <c r="E119" s="2">
+        <v>43210.530555555553</v>
+      </c>
       <c r="F119" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="G119">
+        <v>130</v>
+      </c>
+      <c r="H119">
+        <v>22</v>
+      </c>
+      <c r="I119" t="s">
+        <v>155</v>
+      </c>
+      <c r="J119" t="s">
+        <v>16</v>
+      </c>
+      <c r="L119">
+        <v>2</v>
       </c>
       <c r="M119" t="s">
         <v>253</v>
@@ -5619,23 +5643,38 @@
       <c r="A120" t="s">
         <v>97</v>
       </c>
-      <c r="B120" t="s">
-        <v>51</v>
+      <c r="B120" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="C120" s="3">
-        <v>6970642371775</v>
+        <v>6970394371838</v>
       </c>
       <c r="D120" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E120" s="2">
-        <v>43210.536805555559</v>
+        <v>43210.530555555553</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O120" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="G120">
+        <v>98</v>
+      </c>
+      <c r="H120">
+        <v>102</v>
+      </c>
+      <c r="I120" t="s">
+        <v>155</v>
+      </c>
+      <c r="J120" t="s">
+        <v>10</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120" t="s">
+        <v>253</v>
       </c>
       <c r="V120" s="3"/>
       <c r="X120" s="2"/>
@@ -5646,18 +5685,20 @@
         <v>97</v>
       </c>
       <c r="B121" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C121" s="3">
-        <v>6970640371775</v>
+        <v>6970642371775</v>
       </c>
       <c r="D121" t="s">
         <v>247</v>
       </c>
       <c r="E121" s="2">
-        <v>43210.537499999999</v>
-      </c>
-      <c r="F121" s="2"/>
+        <v>43210.536805555559</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="O121" t="s">
         <v>21</v>
       </c>
@@ -5670,18 +5711,32 @@
         <v>97</v>
       </c>
       <c r="B122" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C122" s="3">
-        <v>6970764371804</v>
+        <v>6970640371775</v>
       </c>
       <c r="D122" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="E122" s="2">
-        <v>43210.541666666664</v>
-      </c>
-      <c r="F122" s="2"/>
+        <v>43210.537499999999</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122">
+        <v>0.53</v>
+      </c>
+      <c r="H122">
+        <v>270</v>
+      </c>
+      <c r="J122" t="s">
+        <v>16</v>
+      </c>
+      <c r="L122">
+        <v>26</v>
+      </c>
       <c r="O122" t="s">
         <v>21</v>
       </c>
@@ -5694,18 +5749,32 @@
         <v>97</v>
       </c>
       <c r="B123" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C123" s="3">
-        <v>6970791371813</v>
+        <v>6970764371804</v>
       </c>
       <c r="D123" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="E123" s="2">
-        <v>43210.543055555558</v>
-      </c>
-      <c r="F123" s="2"/>
+        <v>43210.541666666664</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G123">
+        <v>0.22</v>
+      </c>
+      <c r="H123">
+        <v>270</v>
+      </c>
+      <c r="J123" t="s">
+        <v>15</v>
+      </c>
+      <c r="M123" t="s">
+        <v>372</v>
+      </c>
       <c r="O123" t="s">
         <v>21</v>
       </c>
@@ -5721,15 +5790,29 @@
         <v>90</v>
       </c>
       <c r="C124" s="3">
-        <v>6971145371962</v>
+        <v>6970791371813</v>
       </c>
       <c r="D124" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E124" s="2">
-        <v>43210.548611111109</v>
-      </c>
-      <c r="F124" s="2"/>
+        <v>43210.543055555558</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G124">
+        <v>1.47</v>
+      </c>
+      <c r="H124">
+        <v>270</v>
+      </c>
+      <c r="J124" t="s">
+        <v>16</v>
+      </c>
+      <c r="M124" t="s">
+        <v>372</v>
+      </c>
       <c r="O124" t="s">
         <v>21</v>
       </c>
@@ -5739,18 +5822,32 @@
         <v>97</v>
       </c>
       <c r="B125" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C125" s="3">
-        <v>6971661372156</v>
+        <v>6970791371813</v>
       </c>
       <c r="D125" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E125" s="2">
-        <v>43210.556250000001</v>
-      </c>
-      <c r="F125" s="2"/>
+        <v>43210.543055555558</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G125">
+        <v>118</v>
+      </c>
+      <c r="H125">
+        <v>212</v>
+      </c>
+      <c r="I125" t="s">
+        <v>157</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
       <c r="O125" t="s">
         <v>21</v>
       </c>
@@ -5760,18 +5857,26 @@
         <v>97</v>
       </c>
       <c r="B126" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C126" s="3">
-        <v>6972171372279</v>
+        <v>6971145371962</v>
       </c>
       <c r="D126" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="E126" s="2">
-        <v>43210.645138888889</v>
-      </c>
-      <c r="F126" s="2"/>
+        <v>43210.548611111109</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J126" t="s">
+        <v>16</v>
+      </c>
+      <c r="L126">
+        <v>12</v>
+      </c>
       <c r="O126" t="s">
         <v>21</v>
       </c>
@@ -5781,18 +5886,32 @@
         <v>97</v>
       </c>
       <c r="B127" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C127" s="3">
-        <v>6972288372320</v>
+        <v>6971661372156</v>
       </c>
       <c r="D127" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="E127" s="2">
-        <v>43210.647916666669</v>
-      </c>
-      <c r="F127" s="2"/>
+        <v>43210.556250000001</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G127">
+        <v>0.15</v>
+      </c>
+      <c r="H127">
+        <v>270</v>
+      </c>
+      <c r="J127" t="s">
+        <v>15</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
       <c r="O127" t="s">
         <v>21</v>
       </c>
@@ -5802,18 +5921,35 @@
         <v>97</v>
       </c>
       <c r="B128" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C128" s="3">
-        <v>6972769372463</v>
+        <v>6972171372279</v>
       </c>
       <c r="D128" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="E128" s="2">
-        <v>43210.658333333333</v>
-      </c>
-      <c r="F128" s="2"/>
+        <v>43210.645138888889</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G128">
+        <v>31</v>
+      </c>
+      <c r="H128">
+        <v>42</v>
+      </c>
+      <c r="I128" t="s">
+        <v>154</v>
+      </c>
+      <c r="J128" t="s">
+        <v>10</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
       <c r="O128" t="s">
         <v>21</v>
       </c>
@@ -5823,125 +5959,166 @@
         <v>97</v>
       </c>
       <c r="B129" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C129" s="3">
-        <v>6973526372602</v>
+        <v>6972171372279</v>
       </c>
       <c r="D129" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="E129" s="2">
-        <v>43210.668749999997</v>
-      </c>
-      <c r="F129" s="2"/>
+        <v>43210.645138888889</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G129">
+        <v>122</v>
+      </c>
+      <c r="H129">
+        <v>47</v>
+      </c>
+      <c r="I129" t="s">
+        <v>157</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
       <c r="O129" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
+      <c r="A130" t="s">
+        <v>97</v>
+      </c>
+      <c r="B130" t="s">
+        <v>93</v>
+      </c>
+      <c r="C130" s="3">
+        <v>6972288372320</v>
+      </c>
+      <c r="D130" t="s">
+        <v>219</v>
+      </c>
+      <c r="E130" s="2">
+        <v>43210.647916666669</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G130">
+        <v>31</v>
+      </c>
+      <c r="H130">
+        <v>358</v>
+      </c>
+      <c r="I130" t="s">
+        <v>154</v>
+      </c>
+      <c r="J130" t="s">
+        <v>15</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="O130" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="131" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>4</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="B131" t="s">
+        <v>94</v>
       </c>
       <c r="C131" s="3">
-        <v>6987664372345</v>
+        <v>6972769372463</v>
       </c>
       <c r="D131" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="E131" s="2">
-        <v>43212.502083333333</v>
-      </c>
-      <c r="F131" s="2"/>
+        <v>43210.658333333333</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G131">
+        <v>39</v>
+      </c>
+      <c r="H131">
+        <v>342</v>
+      </c>
+      <c r="I131" t="s">
+        <v>155</v>
+      </c>
+      <c r="J131" t="s">
+        <v>10</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="O131" t="s">
+        <v>21</v>
+      </c>
       <c r="V131" s="3"/>
       <c r="X131" s="2"/>
       <c r="Y131" s="2"/>
     </row>
     <row r="132" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>4</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>67</v>
+        <v>97</v>
+      </c>
+      <c r="B132" t="s">
+        <v>95</v>
       </c>
       <c r="C132" s="3">
-        <v>6988488373470</v>
+        <v>6973526372602</v>
       </c>
       <c r="D132" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E132" s="2">
-        <v>43212.527777777781</v>
+        <v>43210.668749999997</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G132">
+        <v>168</v>
+      </c>
+      <c r="H132">
+        <v>161</v>
+      </c>
+      <c r="I132" t="s">
+        <v>157</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="O132" t="s">
+        <v>21</v>
       </c>
       <c r="V132" s="3"/>
       <c r="X132" s="2"/>
       <c r="Y132" s="2"/>
     </row>
     <row r="133" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>4</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C133" s="3">
-        <v>6988559373572</v>
-      </c>
-      <c r="D133" t="s">
-        <v>235</v>
-      </c>
-      <c r="E133" s="2">
-        <v>43212.532638888886</v>
-      </c>
+      <c r="F133" s="2"/>
       <c r="V133" s="3"/>
       <c r="X133" s="2"/>
       <c r="Y133" s="2"/>
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>4</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C134" s="3">
-        <v>6988978374272</v>
-      </c>
-      <c r="D134" t="s">
-        <v>255</v>
-      </c>
-      <c r="E134" s="2">
-        <v>43212.552083333336</v>
-      </c>
       <c r="F134" s="2"/>
       <c r="V134" s="3"/>
       <c r="X134" s="2"/>
       <c r="Y134" s="2"/>
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>4</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C135" s="3">
-        <v>6989908375198</v>
-      </c>
-      <c r="D135" t="s">
-        <v>203</v>
-      </c>
-      <c r="E135" s="2">
-        <v>43212.578472222223</v>
-      </c>
-      <c r="F135" s="2"/>
       <c r="V135" s="3"/>
       <c r="X135" s="2"/>
       <c r="Y135" s="2"/>
@@ -5951,18 +6128,17 @@
         <v>4</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="C136" s="3">
-        <v>6990153375340</v>
+        <v>6987664372345</v>
       </c>
       <c r="D136" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E136" s="2">
-        <v>43212.597916666666</v>
-      </c>
-      <c r="F136" s="2"/>
+        <v>43212.502083333333</v>
+      </c>
       <c r="V136" s="3"/>
       <c r="X136" s="2"/>
       <c r="Y136" s="2"/>
@@ -5972,16 +6148,16 @@
         <v>4</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="C137" s="3">
-        <v>6990170375364</v>
+        <v>6988488373470</v>
       </c>
       <c r="D137" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E137" s="2">
-        <v>43212.602083333331</v>
+        <v>43212.527777777781</v>
       </c>
       <c r="F137" s="2"/>
       <c r="V137" s="3"/>
@@ -5993,16 +6169,16 @@
         <v>4</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C138" s="3">
-        <v>6990191375385</v>
+        <v>6988559373572</v>
       </c>
       <c r="D138" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="E138" s="2">
-        <v>43212.603472222225</v>
+        <v>43212.532638888886</v>
       </c>
       <c r="F138" s="2"/>
       <c r="V138" s="3"/>
@@ -6014,16 +6190,16 @@
         <v>4</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="C139" s="3">
-        <v>6990210375427</v>
+        <v>6988978374272</v>
       </c>
       <c r="D139" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E139" s="2">
-        <v>43212.605555555558</v>
+        <v>43212.552083333336</v>
       </c>
       <c r="F139" s="2"/>
       <c r="V139" s="3"/>
@@ -6035,16 +6211,16 @@
         <v>4</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C140" s="3">
-        <v>6990230375384</v>
+        <v>6989908375198</v>
       </c>
       <c r="D140" t="s">
-        <v>259</v>
+        <v>203</v>
       </c>
       <c r="E140" s="2">
-        <v>43212.60833333333</v>
+        <v>43212.578472222223</v>
       </c>
       <c r="F140" s="2"/>
       <c r="V140" s="3"/>
@@ -6056,16 +6232,16 @@
         <v>4</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C141" s="3">
-        <v>6990289375215</v>
+        <v>6990153375340</v>
       </c>
       <c r="D141" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E141" s="2">
-        <v>43212.612500000003</v>
+        <v>43212.597916666666</v>
       </c>
       <c r="F141" s="2"/>
       <c r="V141" s="3"/>
@@ -6077,16 +6253,16 @@
         <v>4</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C142" s="3">
-        <v>6990628374577</v>
+        <v>6990170375364</v>
       </c>
       <c r="D142" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="E142" s="2">
-        <v>43212.630555555559</v>
+        <v>43212.602083333331</v>
       </c>
       <c r="F142" s="2"/>
       <c r="V142" s="3"/>
@@ -6098,16 +6274,16 @@
         <v>4</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="C143" s="3">
-        <v>6990629374568</v>
+        <v>6990191375385</v>
       </c>
       <c r="D143" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E143" s="2">
-        <v>43212.633333333331</v>
+        <v>43212.603472222225</v>
       </c>
       <c r="F143" s="2"/>
       <c r="V143" s="3"/>
@@ -6119,16 +6295,16 @@
         <v>4</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C144" s="3">
-        <v>6990677374405</v>
+        <v>6990210375427</v>
       </c>
       <c r="D144" t="s">
-        <v>184</v>
+        <v>258</v>
       </c>
       <c r="E144" s="2">
-        <v>43212.638194444444</v>
+        <v>43212.605555555558</v>
       </c>
       <c r="F144" s="2"/>
       <c r="V144" s="3"/>
@@ -6140,16 +6316,16 @@
         <v>4</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C145" s="3">
-        <v>6990844373780</v>
+        <v>6990230375384</v>
       </c>
       <c r="D145" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E145" s="2">
-        <v>43212.65625</v>
+        <v>43212.60833333333</v>
       </c>
       <c r="F145" s="2"/>
       <c r="V145" s="3"/>
@@ -6161,16 +6337,16 @@
         <v>4</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C146" s="3">
-        <v>6990844373768</v>
+        <v>6990289375215</v>
       </c>
       <c r="D146" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E146" s="2">
-        <v>43212.658333333333</v>
+        <v>43212.612500000003</v>
       </c>
       <c r="F146" s="2"/>
       <c r="V146" s="3"/>
@@ -6182,16 +6358,16 @@
         <v>4</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="C147" s="3">
-        <v>6991443371820</v>
+        <v>6990628374577</v>
       </c>
       <c r="D147" t="s">
-        <v>263</v>
+        <v>195</v>
       </c>
       <c r="E147" s="2">
-        <v>43212.684027777781</v>
+        <v>43212.630555555559</v>
       </c>
       <c r="F147" s="2"/>
       <c r="V147" s="3"/>
@@ -6203,16 +6379,16 @@
         <v>4</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C148" s="3">
-        <v>6991494371660</v>
+        <v>6990629374568</v>
       </c>
       <c r="D148" t="s">
-        <v>194</v>
+        <v>261</v>
       </c>
       <c r="E148" s="2">
-        <v>43212.69027777778</v>
+        <v>43212.633333333331</v>
       </c>
       <c r="F148" s="2"/>
       <c r="V148" s="3"/>
@@ -6224,16 +6400,16 @@
         <v>4</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C149" s="3">
-        <v>6991515371569</v>
+        <v>6990677374405</v>
       </c>
       <c r="D149" t="s">
-        <v>264</v>
+        <v>184</v>
       </c>
       <c r="E149" s="2">
-        <v>43212.693055555559</v>
+        <v>43212.638194444444</v>
       </c>
       <c r="F149" s="2"/>
       <c r="V149" s="3"/>
@@ -6245,16 +6421,16 @@
         <v>4</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C150" s="3">
-        <v>6990805371562</v>
+        <v>6990844373780</v>
       </c>
       <c r="D150" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E150" s="2">
-        <v>43212.711111111108</v>
+        <v>43212.65625</v>
       </c>
       <c r="F150" s="2"/>
       <c r="V150" s="3"/>
@@ -6262,51 +6438,325 @@
       <c r="Y150" s="2"/>
     </row>
     <row r="151" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C151" s="3">
+        <v>6990844373768</v>
+      </c>
+      <c r="D151" t="s">
+        <v>262</v>
+      </c>
+      <c r="E151" s="2">
+        <v>43212.658333333333</v>
+      </c>
       <c r="F151" s="2"/>
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C152" s="3">
+        <v>6991443371820</v>
+      </c>
+      <c r="D152" t="s">
+        <v>263</v>
+      </c>
+      <c r="E152" s="2">
+        <v>43212.684027777781</v>
+      </c>
       <c r="F152" s="2"/>
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C153" s="3">
+        <v>6991494371660</v>
+      </c>
+      <c r="D153" t="s">
+        <v>194</v>
+      </c>
+      <c r="E153" s="2">
+        <v>43212.69027777778</v>
+      </c>
       <c r="F153" s="2"/>
     </row>
+    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C154" s="3">
+        <v>6991515371569</v>
+      </c>
+      <c r="D154" t="s">
+        <v>264</v>
+      </c>
+      <c r="E154" s="2">
+        <v>43212.693055555559</v>
+      </c>
+      <c r="F154" s="2"/>
+    </row>
+    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C155" s="3">
+        <v>6990805371562</v>
+      </c>
+      <c r="D155" t="s">
+        <v>265</v>
+      </c>
+      <c r="E155" s="2">
+        <v>43212.711111111108</v>
+      </c>
+      <c r="F155" s="2"/>
+    </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>118</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C156" s="3">
+        <v>6986351371839</v>
+      </c>
+      <c r="D156" t="s">
+        <v>260</v>
+      </c>
+      <c r="E156" s="2">
+        <v>43214.329861111109</v>
+      </c>
       <c r="F156" s="2"/>
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="F157" s="2"/>
+      <c r="A157" t="s">
+        <v>118</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C157" s="3">
+        <v>6986386371687</v>
+      </c>
+      <c r="D157" t="s">
+        <v>266</v>
+      </c>
+      <c r="E157" s="2">
+        <v>43214.337500000001</v>
+      </c>
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="F158" s="2"/>
+      <c r="A158" t="s">
+        <v>118</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C158" s="3">
+        <v>6987014369871</v>
+      </c>
+      <c r="D158" t="s">
+        <v>215</v>
+      </c>
+      <c r="E158" s="2">
+        <v>43214.368750000001</v>
+      </c>
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>118</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C159" s="3">
+        <v>6987020369854</v>
+      </c>
+      <c r="D159" t="s">
+        <v>267</v>
+      </c>
+      <c r="E159" s="2">
+        <v>43214.370138888888</v>
+      </c>
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>118</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C160" s="3">
+        <v>6987269369101</v>
+      </c>
+      <c r="D160" t="s">
+        <v>268</v>
+      </c>
+      <c r="E160" s="2">
+        <v>43214.384722222225</v>
+      </c>
       <c r="F160" s="2"/>
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>118</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C161" s="3">
+        <v>6987410368637</v>
+      </c>
+      <c r="D161" t="s">
+        <v>248</v>
+      </c>
+      <c r="E161" s="2">
+        <v>43214.393055555556</v>
+      </c>
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>118</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C162" s="3">
+        <v>6987421368599</v>
+      </c>
+      <c r="D162" t="s">
+        <v>204</v>
+      </c>
+      <c r="E162" s="2">
+        <v>43214.396527777775</v>
+      </c>
       <c r="F162" s="2"/>
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>118</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C163" s="3">
+        <v>6987429368563</v>
+      </c>
+      <c r="D163" t="s">
+        <v>267</v>
+      </c>
+      <c r="E163" s="2">
+        <v>43214.397916666669</v>
+      </c>
       <c r="F163" s="2"/>
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>118</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C164" s="3">
+        <v>6987443368443</v>
+      </c>
+      <c r="D164" t="s">
+        <v>261</v>
+      </c>
+      <c r="E164" s="2">
+        <v>43214.402083333334</v>
+      </c>
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>118</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C165" s="3">
+        <v>6987441368434</v>
+      </c>
+      <c r="D165" t="s">
+        <v>195</v>
+      </c>
+      <c r="E165" s="2">
+        <v>43214.40347222222</v>
+      </c>
       <c r="F165" s="2"/>
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>118</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C166" s="3">
+        <v>6987455368331</v>
+      </c>
+      <c r="D166" t="s">
+        <v>269</v>
+      </c>
+      <c r="E166" s="2">
+        <v>43214.40625</v>
+      </c>
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>118</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C167" s="3">
+        <v>6987459368315</v>
+      </c>
+      <c r="D167" t="s">
+        <v>269</v>
+      </c>
+      <c r="E167" s="2">
+        <v>43214.407638888886</v>
+      </c>
       <c r="F167" s="2"/>
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>118</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C168" s="3">
+        <v>6987466368296</v>
+      </c>
+      <c r="D168" t="s">
+        <v>234</v>
+      </c>
+      <c r="E168" s="2">
+        <v>43214.409722222219</v>
+      </c>
       <c r="F168" s="2"/>
       <c r="W168" s="3"/>
       <c r="Y168" s="2"/>
@@ -6317,16 +6767,16 @@
         <v>118</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="C169" s="3">
-        <v>6986351371839</v>
+        <v>6987485368260</v>
       </c>
       <c r="D169" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="E169" s="2">
-        <v>43214.329861111109</v>
+        <v>43214.411805555559</v>
       </c>
       <c r="F169" s="2"/>
       <c r="W169" s="3"/>
@@ -6338,16 +6788,16 @@
         <v>118</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C170" s="3">
-        <v>6986386371687</v>
+        <v>6987524368208</v>
       </c>
       <c r="D170" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E170" s="2">
-        <v>43214.337500000001</v>
+        <v>43214.413888888892</v>
       </c>
       <c r="F170" s="2"/>
       <c r="W170" s="3"/>
@@ -6359,16 +6809,16 @@
         <v>118</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C171" s="3">
-        <v>6987014369871</v>
+        <v>6987590368091</v>
       </c>
       <c r="D171" t="s">
-        <v>215</v>
+        <v>271</v>
       </c>
       <c r="E171" s="2">
-        <v>43214.368750000001</v>
+        <v>43214.417361111111</v>
       </c>
       <c r="F171" s="2"/>
       <c r="W171" s="3"/>
@@ -6380,16 +6830,16 @@
         <v>118</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C172" s="3">
-        <v>6987020369854</v>
+        <v>6987650367997</v>
       </c>
       <c r="D172" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E172" s="2">
-        <v>43214.370138888888</v>
+        <v>43214.420138888891</v>
       </c>
       <c r="F172" s="2"/>
       <c r="W172" s="3"/>
@@ -6401,16 +6851,16 @@
         <v>118</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C173" s="3">
-        <v>6987269369101</v>
+        <v>6987613368001</v>
       </c>
       <c r="D173" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E173" s="2">
-        <v>43214.384722222225</v>
+        <v>43214.425694444442</v>
       </c>
       <c r="F173" s="2"/>
       <c r="W173" s="3"/>
@@ -6422,16 +6872,16 @@
         <v>118</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="C174" s="3">
-        <v>6987410368637</v>
+        <v>6987501367992</v>
       </c>
       <c r="D174" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="E174" s="2">
-        <v>43214.393055555556</v>
+        <v>43214.429166666669</v>
       </c>
       <c r="F174" s="2"/>
       <c r="W174" s="3"/>
@@ -6443,16 +6893,16 @@
         <v>118</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C175" s="3">
-        <v>6987421368599</v>
+        <v>6987322367996</v>
       </c>
       <c r="D175" t="s">
-        <v>204</v>
+        <v>275</v>
       </c>
       <c r="E175" s="2">
-        <v>43214.396527777775</v>
+        <v>43214.433333333334</v>
       </c>
       <c r="F175" s="2"/>
       <c r="W175" s="3"/>
@@ -6464,16 +6914,16 @@
         <v>118</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="C176" s="3">
-        <v>6987429368563</v>
+        <v>6987190368003</v>
       </c>
       <c r="D176" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="E176" s="2">
-        <v>43214.397916666669</v>
+        <v>43214.436111111114</v>
       </c>
       <c r="F176" s="2"/>
       <c r="W176" s="3"/>
@@ -6485,16 +6935,16 @@
         <v>118</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="C177" s="3">
-        <v>6987443368443</v>
+        <v>6987126368006</v>
       </c>
       <c r="D177" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="E177" s="2">
-        <v>43214.402083333334</v>
+        <v>43214.440972222219</v>
       </c>
       <c r="F177" s="2"/>
       <c r="W177" s="3"/>
@@ -6506,16 +6956,16 @@
         <v>118</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C178" s="3">
-        <v>6987441368434</v>
+        <v>6987106368011</v>
       </c>
       <c r="D178" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="E178" s="2">
-        <v>43214.40347222222</v>
+        <v>43214.443055555559</v>
       </c>
       <c r="F178" s="2"/>
       <c r="W178" s="3"/>
@@ -6527,16 +6977,16 @@
         <v>118</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="C179" s="3">
-        <v>6987455368331</v>
+        <v>6987008368003</v>
       </c>
       <c r="D179" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="E179" s="2">
-        <v>43214.40625</v>
+        <v>43214.445138888892</v>
       </c>
       <c r="F179" s="2"/>
       <c r="W179" s="3"/>
@@ -6548,16 +6998,16 @@
         <v>118</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="C180" s="3">
-        <v>6987459368315</v>
+        <v>6986836368006</v>
       </c>
       <c r="D180" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="E180" s="2">
-        <v>43214.407638888886</v>
+        <v>43214.447916666664</v>
       </c>
       <c r="F180" s="2"/>
       <c r="W180" s="3"/>
@@ -6569,16 +7019,16 @@
         <v>118</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="C181" s="3">
-        <v>6987466368296</v>
+        <v>6986753368006</v>
       </c>
       <c r="D181" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="E181" s="2">
-        <v>43214.409722222219</v>
+        <v>43214.451388888891</v>
       </c>
       <c r="F181" s="2"/>
       <c r="W181" s="3"/>
@@ -6590,16 +7040,16 @@
         <v>118</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="C182" s="3">
-        <v>6987485368260</v>
+        <v>6986718368012</v>
       </c>
       <c r="D182" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="E182" s="2">
-        <v>43214.411805555559</v>
+        <v>43214.453472222223</v>
       </c>
       <c r="F182" s="2"/>
       <c r="W182" s="3"/>
@@ -6611,16 +7061,16 @@
         <v>118</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C183" s="3">
-        <v>6987524368208</v>
+        <v>6986702368013</v>
       </c>
       <c r="D183" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E183" s="2">
-        <v>43214.413888888892</v>
+        <v>43214.454861111109</v>
       </c>
       <c r="F183" s="2"/>
       <c r="W183" s="3"/>
@@ -6632,16 +7082,16 @@
         <v>118</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C184" s="3">
-        <v>6987590368091</v>
+        <v>6986418368015</v>
       </c>
       <c r="D184" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="E184" s="2">
-        <v>43214.417361111111</v>
+        <v>43214.459722222222</v>
       </c>
       <c r="F184" s="2"/>
       <c r="W184" s="3"/>
@@ -6653,16 +7103,16 @@
         <v>118</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C185" s="3">
-        <v>6987650367997</v>
+        <v>6986368368024</v>
       </c>
       <c r="D185" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E185" s="2">
-        <v>43214.420138888891</v>
+        <v>43214.461805555555</v>
       </c>
       <c r="F185" s="2"/>
       <c r="W185" s="3"/>
@@ -6674,16 +7124,16 @@
         <v>118</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="C186" s="3">
-        <v>6987613368001</v>
+        <v>6986346368029</v>
       </c>
       <c r="D186" t="s">
-        <v>273</v>
+        <v>191</v>
       </c>
       <c r="E186" s="2">
-        <v>43214.425694444442</v>
+        <v>43214.463194444441</v>
       </c>
       <c r="F186" s="2"/>
       <c r="W186" s="3"/>
@@ -6695,16 +7145,16 @@
         <v>118</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C187" s="3">
-        <v>6987501367992</v>
+        <v>6985502368274</v>
       </c>
       <c r="D187" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="E187" s="2">
-        <v>43214.429166666669</v>
+        <v>43214.570833333331</v>
       </c>
       <c r="F187" s="2"/>
       <c r="W187" s="3"/>
@@ -6716,16 +7166,16 @@
         <v>118</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="C188" s="3">
-        <v>6987322367996</v>
+        <v>6985429368261</v>
       </c>
       <c r="D188" t="s">
-        <v>275</v>
+        <v>191</v>
       </c>
       <c r="E188" s="2">
-        <v>43214.433333333334</v>
+        <v>43214.572222222225</v>
       </c>
       <c r="F188" s="2"/>
       <c r="W188" s="3"/>
@@ -6737,16 +7187,16 @@
         <v>118</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C189" s="3">
-        <v>6987190368003</v>
+        <v>6985378368258</v>
       </c>
       <c r="D189" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="E189" s="2">
-        <v>43214.436111111114</v>
+        <v>43214.574999999997</v>
       </c>
       <c r="F189" s="2"/>
       <c r="W189" s="3"/>
@@ -6758,16 +7208,16 @@
         <v>118</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C190" s="3">
-        <v>6987126368006</v>
+        <v>6985334368256</v>
       </c>
       <c r="D190" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="E190" s="2">
-        <v>43214.440972222219</v>
+        <v>43214.576388888891</v>
       </c>
       <c r="F190" s="2"/>
       <c r="W190" s="3"/>
@@ -6779,16 +7229,16 @@
         <v>118</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="C191" s="3">
-        <v>6987106368011</v>
+        <v>6984661368326</v>
       </c>
       <c r="D191" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="E191" s="2">
-        <v>43214.443055555559</v>
+        <v>43214.586805555555</v>
       </c>
       <c r="F191" s="2"/>
       <c r="W191" s="3"/>
@@ -6800,16 +7250,16 @@
         <v>118</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C192" s="3">
-        <v>6987008368003</v>
+        <v>6984343368423</v>
       </c>
       <c r="D192" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="E192" s="2">
-        <v>43214.445138888892</v>
+        <v>43214.598611111112</v>
       </c>
       <c r="F192" s="2"/>
       <c r="W192" s="3"/>
@@ -6821,16 +7271,16 @@
         <v>118</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C193" s="3">
-        <v>6986836368006</v>
+        <v>6983885368701</v>
       </c>
       <c r="D193" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="E193" s="2">
-        <v>43214.447916666664</v>
+        <v>43214.61041666667</v>
       </c>
       <c r="F193" s="2"/>
       <c r="W193" s="3"/>
@@ -6842,16 +7292,16 @@
         <v>118</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C194" s="3">
-        <v>6986753368006</v>
+        <v>6983886368704</v>
       </c>
       <c r="D194" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="E194" s="2">
-        <v>43214.451388888891</v>
+        <v>43214.611111111109</v>
       </c>
       <c r="F194" s="2"/>
       <c r="W194" s="3"/>
@@ -6863,16 +7313,16 @@
         <v>118</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C195" s="3">
-        <v>6986718368012</v>
+        <v>6983932368876</v>
       </c>
       <c r="D195" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E195" s="2">
-        <v>43214.453472222223</v>
+        <v>43214.615277777775</v>
       </c>
       <c r="F195" s="2"/>
       <c r="W195" s="3"/>
@@ -6884,16 +7334,16 @@
         <v>118</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C196" s="3">
-        <v>6986702368013</v>
+        <v>6984040369029</v>
       </c>
       <c r="D196" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="E196" s="2">
-        <v>43214.454861111109</v>
+        <v>43214.620833333334</v>
       </c>
       <c r="F196" s="2"/>
       <c r="W196" s="3"/>
@@ -6905,16 +7355,16 @@
         <v>118</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="C197" s="3">
-        <v>6986418368015</v>
+        <v>6984113369166</v>
       </c>
       <c r="D197" t="s">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="E197" s="2">
-        <v>43214.459722222222</v>
+        <v>43214.624305555553</v>
       </c>
       <c r="F197" s="2"/>
       <c r="W197" s="3"/>
@@ -6926,16 +7376,16 @@
         <v>118</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="C198" s="3">
-        <v>6986368368024</v>
+        <v>6984182369282</v>
       </c>
       <c r="D198" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="E198" s="2">
-        <v>43214.461805555555</v>
+        <v>43214.631249999999</v>
       </c>
       <c r="F198" s="2"/>
       <c r="W198" s="3"/>
@@ -6947,16 +7397,16 @@
         <v>118</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C199" s="3">
-        <v>6986346368029</v>
+        <v>6984622369926</v>
       </c>
       <c r="D199" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="E199" s="2">
-        <v>43214.463194444441</v>
+        <v>43214.65</v>
       </c>
       <c r="F199" s="2"/>
       <c r="W199" s="3"/>
@@ -6968,16 +7418,16 @@
         <v>118</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="C200" s="3">
-        <v>6985502368274</v>
+        <v>6984813370226</v>
       </c>
       <c r="D200" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="E200" s="2">
-        <v>43214.570833333331</v>
+        <v>43214.65625</v>
       </c>
       <c r="F200" s="2"/>
       <c r="W200" s="3"/>
@@ -6989,16 +7439,16 @@
         <v>118</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C201" s="3">
-        <v>6985429368261</v>
+        <v>6984903370347</v>
       </c>
       <c r="D201" t="s">
-        <v>191</v>
+        <v>287</v>
       </c>
       <c r="E201" s="2">
-        <v>43214.572222222225</v>
+        <v>43214.661111111112</v>
       </c>
       <c r="F201" s="2"/>
       <c r="W201" s="3"/>
@@ -7010,16 +7460,16 @@
         <v>118</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="C202" s="3">
-        <v>6985378368258</v>
+        <v>6985340370905</v>
       </c>
       <c r="D202" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E202" s="2">
-        <v>43214.574999999997</v>
+        <v>43214.67083333333</v>
       </c>
       <c r="F202" s="2"/>
       <c r="W202" s="3"/>
@@ -7028,59 +7478,61 @@
     </row>
     <row r="203" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C203" s="3">
-        <v>6985334368256</v>
+        <v>6978330345945</v>
       </c>
       <c r="D203" t="s">
-        <v>229</v>
+        <v>289</v>
       </c>
       <c r="E203" s="2">
-        <v>43214.576388888891</v>
-      </c>
+        <v>43216.280555555553</v>
+      </c>
+      <c r="F203" s="2"/>
       <c r="W203" s="3"/>
       <c r="Y203" s="2"/>
       <c r="Z203" s="2"/>
     </row>
     <row r="204" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C204" s="3">
-        <v>6984661368326</v>
+        <v>6978333351234</v>
       </c>
       <c r="D204" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="E204" s="2">
-        <v>43214.586805555555</v>
-      </c>
+        <v>43216.380555555559</v>
+      </c>
+      <c r="F204" s="2"/>
       <c r="W204" s="3"/>
       <c r="Y204" s="2"/>
       <c r="Z204" s="2"/>
     </row>
     <row r="205" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="C205" s="3">
-        <v>6984343368423</v>
+        <v>6978221351667</v>
       </c>
       <c r="D205" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="E205" s="2">
-        <v>43214.598611111112</v>
+        <v>43216.390972222223</v>
       </c>
       <c r="F205" s="2"/>
       <c r="W205" s="3"/>
@@ -7089,61 +7541,59 @@
     </row>
     <row r="206" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C206" s="3">
-        <v>6983885368701</v>
+        <v>6977654353487</v>
       </c>
       <c r="D206" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="E206" s="2">
-        <v>43214.61041666667</v>
-      </c>
-      <c r="F206" s="2"/>
+        <v>43216.40625</v>
+      </c>
       <c r="W206" s="3"/>
       <c r="Y206" s="2"/>
       <c r="Z206" s="2"/>
     </row>
     <row r="207" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="C207" s="3">
-        <v>6983886368704</v>
+        <v>6977528353996</v>
       </c>
       <c r="D207" t="s">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="E207" s="2">
-        <v>43214.611111111109</v>
-      </c>
-      <c r="F207" s="2"/>
+        <v>43216.413888888892</v>
+      </c>
       <c r="W207" s="3"/>
       <c r="Y207" s="2"/>
       <c r="Z207" s="2"/>
     </row>
     <row r="208" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="C208" s="3">
-        <v>6983932368876</v>
+        <v>6977484354587</v>
       </c>
       <c r="D208" t="s">
-        <v>283</v>
+        <v>209</v>
       </c>
       <c r="E208" s="2">
-        <v>43214.615277777775</v>
+        <v>43216.42291666667</v>
       </c>
       <c r="F208" s="2"/>
       <c r="W208" s="3"/>
@@ -7152,19 +7602,19 @@
     </row>
     <row r="209" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C209" s="3">
-        <v>6984040369029</v>
+        <v>6977493354708</v>
       </c>
       <c r="D209" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E209" s="2">
-        <v>43214.620833333334</v>
+        <v>43216.426388888889</v>
       </c>
       <c r="F209" s="2"/>
       <c r="W209" s="3"/>
@@ -7173,19 +7623,19 @@
     </row>
     <row r="210" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="C210" s="3">
-        <v>6984113369166</v>
+        <v>6977510354981</v>
       </c>
       <c r="D210" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="E210" s="2">
-        <v>43214.624305555553</v>
+        <v>43216.430555555555</v>
       </c>
       <c r="F210" s="2"/>
       <c r="W210" s="3"/>
@@ -7194,19 +7644,19 @@
     </row>
     <row r="211" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="C211" s="3">
-        <v>6984182369282</v>
+        <v>6977503355128</v>
       </c>
       <c r="D211" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="E211" s="2">
-        <v>43214.631249999999</v>
+        <v>43216.431944444441</v>
       </c>
       <c r="F211" s="2"/>
       <c r="W211" s="3"/>
@@ -7215,19 +7665,19 @@
     </row>
     <row r="212" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C212" s="3">
-        <v>6984622369926</v>
+        <v>6977550355108</v>
       </c>
       <c r="D212" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="E212" s="2">
-        <v>43214.65</v>
+        <v>43216.442361111112</v>
       </c>
       <c r="F212" s="2"/>
       <c r="W212" s="3"/>
@@ -7236,19 +7686,19 @@
     </row>
     <row r="213" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="C213" s="3">
-        <v>6984813370226</v>
+        <v>6977799355071</v>
       </c>
       <c r="D213" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="E213" s="2">
-        <v>43214.65625</v>
+        <v>43216.448611111111</v>
       </c>
       <c r="F213" s="2"/>
       <c r="W213" s="3"/>
@@ -7257,19 +7707,19 @@
     </row>
     <row r="214" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="C214" s="3">
-        <v>6984903370347</v>
+        <v>6978993354678</v>
       </c>
       <c r="D214" t="s">
-        <v>287</v>
+        <v>373</v>
       </c>
       <c r="E214" s="2">
-        <v>43214.661111111112</v>
+        <v>43216.490277777775</v>
       </c>
       <c r="F214" s="2"/>
       <c r="W214" s="3"/>
@@ -7278,118 +7728,377 @@
     </row>
     <row r="215" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C215" s="3">
+        <v>6980084354118</v>
+      </c>
+      <c r="D215" t="s">
+        <v>282</v>
+      </c>
+      <c r="E215" s="2">
+        <v>43216.490277777775</v>
+      </c>
+      <c r="F215" s="2"/>
+    </row>
+    <row r="216" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>122</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C216" s="3">
+        <v>6981270353841</v>
+      </c>
+      <c r="D216" t="s">
+        <v>272</v>
+      </c>
+      <c r="E216" s="2">
+        <v>43216.509027777778</v>
+      </c>
+      <c r="F216" s="2"/>
+    </row>
+    <row r="217" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>122</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C217" s="3">
+        <v>6980911353777</v>
+      </c>
+      <c r="D217" t="s">
+        <v>261</v>
+      </c>
+      <c r="E217" s="2">
+        <v>43216.606249999997</v>
+      </c>
+      <c r="F217" s="2"/>
+    </row>
+    <row r="218" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>122</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C218" s="3">
+        <v>6980531353694</v>
+      </c>
+      <c r="D218" t="s">
+        <v>219</v>
+      </c>
+      <c r="E218" s="2">
+        <v>43216.615277777775</v>
+      </c>
+      <c r="F218" s="2"/>
+    </row>
+    <row r="219" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>122</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C219" s="3">
+        <v>6980411353676</v>
+      </c>
+      <c r="D219" t="s">
+        <v>294</v>
+      </c>
+      <c r="E219" s="2">
+        <v>43216.620138888888</v>
+      </c>
+      <c r="F219" s="2"/>
+    </row>
+    <row r="220" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>122</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C220" s="3">
+        <v>6980373353646</v>
+      </c>
+      <c r="D220" t="s">
+        <v>291</v>
+      </c>
+      <c r="E220" s="2">
+        <v>43216.622916666667</v>
+      </c>
+      <c r="F220" s="2"/>
+    </row>
+    <row r="221" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>122</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C221" s="3">
+        <v>6980103353507</v>
+      </c>
+      <c r="D221" t="s">
+        <v>183</v>
+      </c>
+      <c r="E221" s="2">
+        <v>43216.62777777778</v>
+      </c>
+      <c r="F221" s="2"/>
+    </row>
+    <row r="222" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>122</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C222" s="3">
+        <v>6979753353371</v>
+      </c>
+      <c r="D222" t="s">
+        <v>295</v>
+      </c>
+      <c r="E222" s="2">
+        <v>43216.634722222225</v>
+      </c>
+      <c r="F222" s="2"/>
+    </row>
+    <row r="223" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>122</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C223" s="3">
+        <v>6979459353143</v>
+      </c>
+      <c r="D223" t="s">
+        <v>296</v>
+      </c>
+      <c r="E223" s="2">
+        <v>43216.640972222223</v>
+      </c>
+      <c r="F223" s="2"/>
+    </row>
+    <row r="224" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>122</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C224" s="3">
+        <v>6979305353040</v>
+      </c>
+      <c r="D224" t="s">
+        <v>297</v>
+      </c>
+      <c r="E224" s="2">
+        <v>43216.645138888889</v>
+      </c>
+      <c r="F224" s="2"/>
+    </row>
+    <row r="225" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>122</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C225" s="3">
+        <v>6979202352873</v>
+      </c>
+      <c r="D225" t="s">
+        <v>298</v>
+      </c>
+      <c r="E225" s="2">
+        <v>43216.650694444441</v>
+      </c>
+      <c r="F225" s="2"/>
+    </row>
+    <row r="226" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>122</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C226" s="3">
+        <v>6978426351327</v>
+      </c>
+      <c r="D226" t="s">
+        <v>299</v>
+      </c>
+      <c r="E226" s="2">
+        <v>43216.677083333336</v>
+      </c>
+      <c r="F226" s="2"/>
+    </row>
+    <row r="227" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>126</v>
+      </c>
+      <c r="B227" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C215" s="3">
-        <v>6985340370905</v>
-      </c>
-      <c r="D215" t="s">
-        <v>288</v>
-      </c>
-      <c r="E215" s="2">
-        <v>43214.67083333333</v>
-      </c>
-      <c r="F215" s="2"/>
-    </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="F216" s="2"/>
-    </row>
-    <row r="217" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="F217" s="2"/>
-    </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="F218" s="2"/>
-    </row>
-    <row r="219" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="F219" s="2"/>
-    </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="F220" s="2"/>
-    </row>
-    <row r="221" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="F221" s="2"/>
-    </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="F222" s="2"/>
-    </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="F223" s="2"/>
-    </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="F224" s="2"/>
-    </row>
-    <row r="225" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="F225" s="2"/>
-    </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="F226" s="2"/>
-    </row>
-    <row r="227" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C227" s="3">
+        <v>6982302355715</v>
+      </c>
+      <c r="D227" t="s">
+        <v>300</v>
+      </c>
+      <c r="E227" s="2">
+        <v>43217.268750000003</v>
+      </c>
       <c r="F227" s="2"/>
     </row>
     <row r="228" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>126</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C228" s="3">
+        <v>6983090356519</v>
+      </c>
+      <c r="D228" t="s">
+        <v>301</v>
+      </c>
+      <c r="E228" s="2">
+        <v>43217.288194444445</v>
+      </c>
       <c r="F228" s="2"/>
     </row>
+    <row r="229" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>126</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C229" s="3">
+        <v>6983032356674</v>
+      </c>
+      <c r="D229" t="s">
+        <v>302</v>
+      </c>
+      <c r="E229" s="2">
+        <v>43217.292361111111</v>
+      </c>
+      <c r="F229" s="2"/>
+    </row>
+    <row r="230" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>126</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C230" s="3">
+        <v>6982991356782</v>
+      </c>
+      <c r="D230" t="s">
+        <v>303</v>
+      </c>
+      <c r="E230" s="2">
+        <v>43217.294444444444</v>
+      </c>
+      <c r="F230" s="2"/>
+    </row>
     <row r="231" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>126</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C231" s="3">
+        <v>6982916356948</v>
+      </c>
+      <c r="D231" t="s">
+        <v>292</v>
+      </c>
+      <c r="E231" s="2">
+        <v>43217.296527777777</v>
+      </c>
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="F232" s="2"/>
+      <c r="A232" t="s">
+        <v>126</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C232" s="3">
+        <v>6982928357079</v>
+      </c>
+      <c r="D232" t="s">
+        <v>304</v>
+      </c>
+      <c r="E232" s="2">
+        <v>43217.298611111109</v>
+      </c>
     </row>
     <row r="233" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="C233" s="3">
-        <v>6978330345945</v>
+        <v>6982958357172</v>
       </c>
       <c r="D233" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="E233" s="2">
-        <v>43216.280555555553</v>
-      </c>
-      <c r="F233" s="2"/>
+        <v>43217.3</v>
+      </c>
     </row>
     <row r="234" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="C234" s="3">
-        <v>6978333351234</v>
+        <v>6982732357448</v>
       </c>
       <c r="D234" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="E234" s="2">
-        <v>43216.380555555559</v>
+        <v>43217.305555555555</v>
       </c>
       <c r="F234" s="2"/>
     </row>
     <row r="235" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="C235" s="3">
-        <v>6978221351667</v>
+        <v>6982630357699</v>
       </c>
       <c r="D235" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E235" s="2">
-        <v>43216.390972222223</v>
+        <v>43217.30972222222</v>
       </c>
       <c r="F235" s="2"/>
       <c r="W235" s="3"/>
@@ -7398,19 +8107,19 @@
     </row>
     <row r="236" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="C236" s="3">
-        <v>6977654353487</v>
+        <v>6982183358919</v>
       </c>
       <c r="D236" t="s">
-        <v>261</v>
+        <v>307</v>
       </c>
       <c r="E236" s="2">
-        <v>43216.40625</v>
+        <v>43217.379861111112</v>
       </c>
       <c r="F236" s="2"/>
       <c r="W236" s="3"/>
@@ -7419,19 +8128,19 @@
     </row>
     <row r="237" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C237" s="3">
-        <v>6977528353996</v>
+        <v>6982114359058</v>
       </c>
       <c r="D237" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="E237" s="2">
-        <v>43216.413888888892</v>
+        <v>43217.384027777778</v>
       </c>
       <c r="F237" s="2"/>
       <c r="W237" s="3"/>
@@ -7440,19 +8149,19 @@
     </row>
     <row r="238" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="C238" s="3">
-        <v>6977484354587</v>
+        <v>6982006359291</v>
       </c>
       <c r="D238" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="E238" s="2">
-        <v>43216.42291666667</v>
+        <v>43217.388888888891</v>
       </c>
       <c r="F238" s="2"/>
       <c r="W238" s="3"/>
@@ -7461,19 +8170,19 @@
     </row>
     <row r="239" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C239" s="3">
-        <v>6977493354708</v>
+        <v>6981940359461</v>
       </c>
       <c r="D239" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E239" s="2">
-        <v>43216.426388888889</v>
+        <v>43217.392361111109</v>
       </c>
       <c r="F239" s="2"/>
       <c r="W239" s="3"/>
@@ -7482,19 +8191,19 @@
     </row>
     <row r="240" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C240" s="3">
-        <v>6977510354981</v>
+        <v>6981870359749</v>
       </c>
       <c r="D240" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="E240" s="2">
-        <v>43216.430555555555</v>
+        <v>43217.4</v>
       </c>
       <c r="F240" s="2"/>
       <c r="W240" s="3"/>
@@ -7503,19 +8212,19 @@
     </row>
     <row r="241" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C241" s="3">
-        <v>6977503355128</v>
+        <v>6981921360308</v>
       </c>
       <c r="D241" t="s">
-        <v>292</v>
+        <v>215</v>
       </c>
       <c r="E241" s="2">
-        <v>43216.431944444441</v>
+        <v>43217.407638888886</v>
       </c>
       <c r="F241" s="2"/>
       <c r="W241" s="3"/>
@@ -7524,19 +8233,19 @@
     </row>
     <row r="242" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C242" s="3">
-        <v>6977550355108</v>
+        <v>6983945359739</v>
       </c>
       <c r="D242" t="s">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="E242" s="2">
-        <v>43216.442361111112</v>
+        <v>43217.45208333333</v>
       </c>
       <c r="F242" s="2"/>
       <c r="W242" s="3"/>
@@ -7545,19 +8254,19 @@
     </row>
     <row r="243" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C243" s="3">
-        <v>6977799355071</v>
+        <v>6984478359678</v>
       </c>
       <c r="D243" t="s">
-        <v>293</v>
+        <v>200</v>
       </c>
       <c r="E243" s="2">
-        <v>43216.448611111111</v>
+        <v>43217.461805555555</v>
       </c>
       <c r="F243" s="2"/>
       <c r="W243" s="3"/>
@@ -7566,16 +8275,19 @@
     </row>
     <row r="244" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="C244" s="3">
-        <v>6978993354678</v>
+        <v>6984553359647</v>
+      </c>
+      <c r="D244" t="s">
+        <v>200</v>
       </c>
       <c r="E244" s="2">
-        <v>43216.490277777775</v>
+        <v>43217.465277777781</v>
       </c>
       <c r="F244" s="2"/>
       <c r="W244" s="3"/>
@@ -7584,19 +8296,19 @@
     </row>
     <row r="245" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="C245" s="3">
-        <v>6980084354118</v>
+        <v>6985096359518</v>
       </c>
       <c r="D245" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="E245" s="2">
-        <v>43216.490277777775</v>
+        <v>43217.475694444445</v>
       </c>
       <c r="F245" s="2"/>
       <c r="W245" s="3"/>
@@ -7605,19 +8317,19 @@
     </row>
     <row r="246" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C246" s="3">
-        <v>6981270353841</v>
+        <v>6985863359293</v>
       </c>
       <c r="D246" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="E246" s="2">
-        <v>43216.509027777778</v>
+        <v>43217.490972222222</v>
       </c>
       <c r="F246" s="2"/>
       <c r="W246" s="3"/>
@@ -7626,19 +8338,19 @@
     </row>
     <row r="247" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="C247" s="3">
-        <v>6980911353777</v>
+        <v>6985409358759</v>
       </c>
       <c r="D247" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E247" s="2">
-        <v>43216.606249999997</v>
+        <v>43217.513194444444</v>
       </c>
       <c r="F247" s="2"/>
       <c r="W247" s="3"/>
@@ -7647,19 +8359,19 @@
     </row>
     <row r="248" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="C248" s="3">
-        <v>6980531353694</v>
+        <v>6985041358323</v>
       </c>
       <c r="D248" t="s">
-        <v>219</v>
+        <v>279</v>
       </c>
       <c r="E248" s="2">
-        <v>43216.615277777775</v>
+        <v>43217.520138888889</v>
       </c>
       <c r="F248" s="2"/>
       <c r="W248" s="3"/>
@@ -7668,19 +8380,19 @@
     </row>
     <row r="249" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C249" s="3">
-        <v>6980411353676</v>
+        <v>6983184356513</v>
       </c>
       <c r="D249" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="E249" s="2">
-        <v>43216.620138888888</v>
+        <v>43217.554166666669</v>
       </c>
       <c r="F249" s="2"/>
       <c r="W249" s="3"/>
@@ -7689,19 +8401,19 @@
     </row>
     <row r="250" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="C250" s="3">
-        <v>6980373353646</v>
+        <v>7005963362616</v>
       </c>
       <c r="D250" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="E250" s="2">
-        <v>43216.622916666667</v>
+        <v>43220.375</v>
       </c>
       <c r="F250" s="2"/>
       <c r="W250" s="3"/>
@@ -7710,19 +8422,19 @@
     </row>
     <row r="251" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C251" s="3">
-        <v>6980103353507</v>
+        <v>7005930362243</v>
       </c>
       <c r="D251" t="s">
-        <v>183</v>
+        <v>312</v>
       </c>
       <c r="E251" s="2">
-        <v>43216.62777777778</v>
+        <v>43220.384027777778</v>
       </c>
       <c r="F251" s="2"/>
       <c r="W251" s="3"/>
@@ -7731,19 +8443,19 @@
     </row>
     <row r="252" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="C252" s="3">
-        <v>6979753353371</v>
+        <v>7005887361616</v>
       </c>
       <c r="D252" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="E252" s="2">
-        <v>43216.634722222225</v>
+        <v>43220.38958333333</v>
       </c>
       <c r="F252" s="2"/>
       <c r="W252" s="3"/>
@@ -7752,19 +8464,19 @@
     </row>
     <row r="253" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="C253" s="3">
-        <v>6979459353143</v>
+        <v>7005948361408</v>
       </c>
       <c r="D253" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="E253" s="2">
-        <v>43216.640972222223</v>
+        <v>43220.393055555556</v>
       </c>
       <c r="F253" s="2"/>
       <c r="W253" s="3"/>
@@ -7773,59 +8485,61 @@
     </row>
     <row r="254" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C254" s="3">
-        <v>6979305353040</v>
+        <v>7006091360439</v>
       </c>
       <c r="D254" t="s">
-        <v>297</v>
+        <v>220</v>
       </c>
       <c r="E254" s="2">
-        <v>43216.645138888889</v>
-      </c>
+        <v>43220.415277777778</v>
+      </c>
+      <c r="F254" s="2"/>
       <c r="W254" s="3"/>
       <c r="Y254" s="2"/>
       <c r="Z254" s="2"/>
     </row>
     <row r="255" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="C255" s="3">
-        <v>6979202352873</v>
+        <v>7006105360299</v>
       </c>
       <c r="D255" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="E255" s="2">
-        <v>43216.650694444441</v>
-      </c>
+        <v>43220.418055555558</v>
+      </c>
+      <c r="F255" s="2"/>
       <c r="W255" s="3"/>
       <c r="Y255" s="2"/>
       <c r="Z255" s="2"/>
     </row>
     <row r="256" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C256" s="3">
-        <v>6978426351327</v>
+        <v>7006130360148</v>
       </c>
       <c r="D256" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="E256" s="2">
-        <v>43216.677083333336</v>
+        <v>43220.422222222223</v>
       </c>
       <c r="F256" s="2"/>
       <c r="W256" s="3"/>
@@ -7833,140 +8547,282 @@
       <c r="Z256" s="2"/>
     </row>
     <row r="257" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="F257" s="2"/>
+      <c r="A257" t="s">
+        <v>146</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C257" s="3">
+        <v>7006133360128</v>
+      </c>
+      <c r="D257" t="s">
+        <v>254</v>
+      </c>
+      <c r="E257" s="2">
+        <v>43220.424305555556</v>
+      </c>
       <c r="W257" s="3"/>
       <c r="Y257" s="2"/>
       <c r="Z257" s="2"/>
     </row>
     <row r="258" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="F258" s="2"/>
+      <c r="A258" t="s">
+        <v>146</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C258" s="3">
+        <v>7006146360075</v>
+      </c>
+      <c r="D258" t="s">
+        <v>226</v>
+      </c>
+      <c r="E258" s="2">
+        <v>43220.425694444442</v>
+      </c>
       <c r="W258" s="3"/>
       <c r="Y258" s="2"/>
       <c r="Z258" s="2"/>
     </row>
     <row r="259" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>146</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C259" s="3">
+        <v>7006171360032</v>
+      </c>
+      <c r="D259" t="s">
+        <v>295</v>
+      </c>
+      <c r="E259" s="2">
+        <v>43220.427777777775</v>
+      </c>
       <c r="F259" s="2"/>
       <c r="W259" s="3"/>
       <c r="Y259" s="2"/>
       <c r="Z259" s="2"/>
     </row>
     <row r="260" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>146</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C260" s="3">
+        <v>7006203359711</v>
+      </c>
+      <c r="D260" t="s">
+        <v>234</v>
+      </c>
+      <c r="E260" s="2">
+        <v>43220.432638888888</v>
+      </c>
       <c r="F260" s="2"/>
       <c r="W260" s="3"/>
       <c r="Y260" s="2"/>
       <c r="Z260" s="2"/>
     </row>
     <row r="261" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>146</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C261" s="3">
+        <v>7006211359605</v>
+      </c>
+      <c r="D261" t="s">
+        <v>218</v>
+      </c>
+      <c r="E261" s="2">
+        <v>43220.43472222222</v>
+      </c>
       <c r="F261" s="2"/>
     </row>
     <row r="262" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>146</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C262" s="3">
+        <v>7006143359330</v>
+      </c>
+      <c r="D262" t="s">
+        <v>315</v>
+      </c>
+      <c r="E262" s="2">
+        <v>43220.4375</v>
+      </c>
       <c r="F262" s="2"/>
     </row>
     <row r="263" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>146</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C263" s="3">
+        <v>7006114359146</v>
+      </c>
+      <c r="D263" t="s">
+        <v>316</v>
+      </c>
+      <c r="E263" s="2">
+        <v>43220.441666666666</v>
+      </c>
       <c r="F263" s="2"/>
     </row>
     <row r="264" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>146</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C264" s="3">
+        <v>7006105359105</v>
+      </c>
+      <c r="D264" t="s">
+        <v>308</v>
+      </c>
+      <c r="E264" s="2">
+        <v>43220.443055555559</v>
+      </c>
       <c r="F264" s="2"/>
     </row>
     <row r="265" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>146</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C265" s="3">
+        <v>7006097359055</v>
+      </c>
+      <c r="D265" t="s">
+        <v>274</v>
+      </c>
+      <c r="E265" s="2">
+        <v>43220.445138888892</v>
+      </c>
       <c r="F265" s="2"/>
     </row>
     <row r="266" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>146</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C266" s="3">
+        <v>7006092358975</v>
+      </c>
+      <c r="D266" t="s">
+        <v>308</v>
+      </c>
+      <c r="E266" s="2">
+        <v>43220.448611111111</v>
+      </c>
       <c r="F266" s="2"/>
     </row>
     <row r="267" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C267" s="3">
-        <v>6982302355715</v>
+        <v>7006069358719</v>
       </c>
       <c r="D267" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="E267" s="2">
-        <v>43217.268750000003</v>
+        <v>43220.45208333333</v>
       </c>
       <c r="F267" s="2"/>
     </row>
     <row r="268" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C268" s="3">
-        <v>6983090356519</v>
+        <v>7006070358639</v>
       </c>
       <c r="D268" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="E268" s="2">
-        <v>43217.288194444445</v>
+        <v>43220.45416666667</v>
       </c>
       <c r="F268" s="2"/>
-      <c r="N268" s="2"/>
-      <c r="O268" s="2"/>
     </row>
     <row r="269" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C269" s="3">
-        <v>6983032356674</v>
+        <v>7006048358564</v>
       </c>
       <c r="D269" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="E269" s="2">
-        <v>43217.292361111111</v>
+        <v>43220.455555555556</v>
       </c>
       <c r="F269" s="2"/>
-      <c r="N269" s="2"/>
-      <c r="O269" s="2"/>
     </row>
     <row r="270" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C270" s="3">
-        <v>6982991356782</v>
+        <v>7005966358599</v>
       </c>
       <c r="D270" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="E270" s="2">
-        <v>43217.294444444444</v>
+        <v>43220.482638888891</v>
       </c>
       <c r="F270" s="2"/>
-      <c r="N270" s="2"/>
-      <c r="O270" s="2"/>
     </row>
     <row r="271" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="C271" s="3">
-        <v>6982916356948</v>
+        <v>7005754358715</v>
       </c>
       <c r="D271" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="E271" s="2">
-        <v>43217.296527777777</v>
+        <v>43220.486805555556</v>
       </c>
       <c r="F271" s="2"/>
       <c r="N271" s="2"/>
@@ -7974,19 +8830,19 @@
     </row>
     <row r="272" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="C272" s="3">
-        <v>6982928357079</v>
+        <v>7005614358794</v>
       </c>
       <c r="D272" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E272" s="2">
-        <v>43217.298611111109</v>
+        <v>43220.488888888889</v>
       </c>
       <c r="F272" s="2"/>
       <c r="N272" s="2"/>
@@ -7994,19 +8850,19 @@
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="C273" s="3">
-        <v>6982958357172</v>
+        <v>7005555358825</v>
       </c>
       <c r="D273" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="E273" s="2">
-        <v>43217.3</v>
+        <v>43220.490277777775</v>
       </c>
       <c r="F273" s="2"/>
       <c r="N273" s="2"/>
@@ -8014,19 +8870,19 @@
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="C274" s="3">
-        <v>6982732357448</v>
+        <v>7005172359049</v>
       </c>
       <c r="D274" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="E274" s="2">
-        <v>43217.305555555555</v>
+        <v>43220.493055555555</v>
       </c>
       <c r="F274" s="2"/>
       <c r="N274" s="2"/>
@@ -8034,19 +8890,19 @@
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C275" s="3">
-        <v>6982630357699</v>
+        <v>7004845359228</v>
       </c>
       <c r="D275" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="E275" s="2">
-        <v>43217.30972222222</v>
+        <v>43220.49722222222</v>
       </c>
       <c r="F275" s="2"/>
       <c r="N275" s="2"/>
@@ -8054,19 +8910,19 @@
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C276" s="3">
-        <v>6982183358919</v>
+        <v>7004594359342</v>
       </c>
       <c r="D276" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="E276" s="2">
-        <v>43217.379861111112</v>
+        <v>43220.503472222219</v>
       </c>
       <c r="F276" s="2"/>
       <c r="N276" s="2"/>
@@ -8074,19 +8930,19 @@
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C277" s="3">
-        <v>6982114359058</v>
+        <v>7004462359409</v>
       </c>
       <c r="D277" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="E277" s="2">
-        <v>43217.384027777778</v>
+        <v>43220.506249999999</v>
       </c>
       <c r="F277" s="2"/>
       <c r="N277" s="2"/>
@@ -8094,19 +8950,19 @@
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C278" s="3">
-        <v>6982006359291</v>
+        <v>7004326359594</v>
       </c>
       <c r="D278" t="s">
-        <v>241</v>
+        <v>324</v>
       </c>
       <c r="E278" s="2">
-        <v>43217.388888888891</v>
+        <v>43220.508333333331</v>
       </c>
       <c r="F278" s="2"/>
       <c r="N278" s="2"/>
@@ -8114,19 +8970,19 @@
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="C279" s="3">
-        <v>6981940359461</v>
+        <v>7004265359557</v>
       </c>
       <c r="D279" t="s">
-        <v>240</v>
+        <v>325</v>
       </c>
       <c r="E279" s="2">
-        <v>43217.392361111109</v>
+        <v>43220.509722222225</v>
       </c>
       <c r="F279" s="2"/>
       <c r="N279" s="2"/>
@@ -8134,19 +8990,19 @@
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="C280" s="3">
-        <v>6981870359749</v>
+        <v>7004067359659</v>
       </c>
       <c r="D280" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="E280" s="2">
-        <v>43217.4</v>
+        <v>43220.513194444444</v>
       </c>
       <c r="F280" s="2"/>
       <c r="N280" s="2"/>
@@ -8154,19 +9010,19 @@
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="C281" s="3">
-        <v>6981921360308</v>
+        <v>7004008359687</v>
       </c>
       <c r="D281" t="s">
-        <v>215</v>
+        <v>326</v>
       </c>
       <c r="E281" s="2">
-        <v>43217.407638888886</v>
+        <v>43220.515277777777</v>
       </c>
       <c r="F281" s="2"/>
       <c r="N281" s="2"/>
@@ -8174,19 +9030,19 @@
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="C282" s="3">
-        <v>6983945359739</v>
+        <v>7003441360041</v>
       </c>
       <c r="D282" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
       <c r="E282" s="2">
-        <v>43217.45208333333</v>
+        <v>43220.525694444441</v>
       </c>
       <c r="F282" s="2"/>
       <c r="N282" s="2"/>
@@ -8194,19 +9050,19 @@
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="C283" s="3">
-        <v>6984478359678</v>
+        <v>7003437360048</v>
       </c>
       <c r="D283" t="s">
-        <v>200</v>
+        <v>327</v>
       </c>
       <c r="E283" s="2">
-        <v>43217.461805555555</v>
+        <v>43220.52847222222</v>
       </c>
       <c r="F283" s="2"/>
       <c r="N283" s="2"/>
@@ -8214,19 +9070,19 @@
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="C284" s="3">
-        <v>6984553359647</v>
+        <v>7003383360066</v>
       </c>
       <c r="D284" t="s">
-        <v>200</v>
+        <v>328</v>
       </c>
       <c r="E284" s="2">
-        <v>43217.465277777781</v>
+        <v>43220.53125</v>
       </c>
       <c r="F284" s="2"/>
       <c r="N284" s="2"/>
@@ -8234,19 +9090,19 @@
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C285" s="3">
-        <v>6985096359518</v>
+        <v>7003064360213</v>
       </c>
       <c r="D285" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="E285" s="2">
-        <v>43217.475694444445</v>
+        <v>43220.536111111112</v>
       </c>
       <c r="F285" s="2"/>
       <c r="N285" s="2"/>
@@ -8254,19 +9110,19 @@
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="C286" s="3">
-        <v>6985863359293</v>
+        <v>7002924360280</v>
       </c>
       <c r="D286" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="E286" s="2">
-        <v>43217.490972222222</v>
+        <v>43220.539583333331</v>
       </c>
       <c r="F286" s="2"/>
       <c r="N286" s="2"/>
@@ -8274,19 +9130,19 @@
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="C287" s="3">
-        <v>6985409358759</v>
+        <v>7002846360330</v>
       </c>
       <c r="D287" t="s">
-        <v>267</v>
+        <v>329</v>
       </c>
       <c r="E287" s="2">
-        <v>43217.513194444444</v>
+        <v>43220.542361111111</v>
       </c>
       <c r="F287" s="2"/>
       <c r="N287" s="2"/>
@@ -8294,19 +9150,19 @@
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C288" s="3">
-        <v>6985041358323</v>
+        <v>7002828360337</v>
       </c>
       <c r="D288" t="s">
-        <v>279</v>
+        <v>329</v>
       </c>
       <c r="E288" s="2">
-        <v>43217.520138888889</v>
+        <v>43220.544444444444</v>
       </c>
       <c r="F288" s="2"/>
       <c r="N288" s="2"/>
@@ -8314,86 +9170,248 @@
     </row>
     <row r="289" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="C289" s="3">
-        <v>6983184356513</v>
+        <v>7002573360565</v>
       </c>
       <c r="D289" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="E289" s="2">
-        <v>43217.554166666669</v>
+        <v>43220.55</v>
       </c>
       <c r="F289" s="2"/>
       <c r="N289" s="2"/>
       <c r="O289" s="2"/>
     </row>
     <row r="290" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>146</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C290" s="3">
+        <v>7002551360604</v>
+      </c>
+      <c r="D290" t="s">
+        <v>305</v>
+      </c>
+      <c r="E290" s="2">
+        <v>43220.552777777775</v>
+      </c>
       <c r="F290" s="2"/>
       <c r="N290" s="2"/>
       <c r="O290" s="2"/>
     </row>
     <row r="291" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>146</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C291" s="3">
+        <v>7002731360751</v>
+      </c>
+      <c r="D291" t="s">
+        <v>331</v>
+      </c>
+      <c r="E291" s="2">
+        <v>43220.55972222222</v>
+      </c>
       <c r="F291" s="2"/>
+      <c r="N291" s="2"/>
+      <c r="O291" s="2"/>
     </row>
     <row r="292" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>146</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C292" s="3">
+        <v>7003942361654</v>
+      </c>
+      <c r="D292" t="s">
+        <v>301</v>
+      </c>
+      <c r="E292" s="2">
+        <v>43220.577777777777</v>
+      </c>
       <c r="F292" s="2"/>
+      <c r="N292" s="2"/>
+      <c r="O292" s="2"/>
     </row>
     <row r="293" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>146</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C293" s="3">
+        <v>7004010361690</v>
+      </c>
+      <c r="D293" t="s">
+        <v>301</v>
+      </c>
+      <c r="E293" s="2">
+        <v>43220.580555555556</v>
+      </c>
       <c r="F293" s="2"/>
+      <c r="N293" s="2"/>
+      <c r="O293" s="2"/>
     </row>
     <row r="294" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>146</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C294" s="3">
+        <v>7004478361995</v>
+      </c>
+      <c r="D294" t="s">
+        <v>301</v>
+      </c>
+      <c r="E294" s="2">
+        <v>43220.63958333333</v>
+      </c>
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>146</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C295" s="3">
+        <v>7004518362018</v>
+      </c>
+      <c r="D295" t="s">
+        <v>301</v>
+      </c>
+      <c r="E295" s="2">
+        <v>43220.64166666667</v>
+      </c>
       <c r="F295" s="2"/>
     </row>
     <row r="296" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>146</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C296" s="3">
+        <v>7004641362075</v>
+      </c>
+      <c r="D296" t="s">
+        <v>293</v>
+      </c>
+      <c r="E296" s="2">
+        <v>43220.643750000003</v>
+      </c>
       <c r="F296" s="2"/>
     </row>
     <row r="297" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>146</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C297" s="3">
+        <v>7004976362244</v>
+      </c>
+      <c r="D297" t="s">
+        <v>332</v>
+      </c>
+      <c r="E297" s="2">
+        <v>43220.648611111108</v>
+      </c>
       <c r="F297" s="2"/>
     </row>
     <row r="298" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>146</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C298" s="3">
+        <v>7005036362271</v>
+      </c>
+      <c r="D298" t="s">
+        <v>305</v>
+      </c>
+      <c r="E298" s="2">
+        <v>43220.650694444441</v>
+      </c>
       <c r="F298" s="2"/>
+      <c r="P298" s="2"/>
     </row>
     <row r="299" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>146</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C299" s="3">
+        <v>7005401362460</v>
+      </c>
+      <c r="D299" t="s">
+        <v>333</v>
+      </c>
+      <c r="E299" s="2">
+        <v>43220.654861111114</v>
+      </c>
       <c r="F299" s="2"/>
+      <c r="P299" s="2"/>
     </row>
     <row r="300" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C300" s="3">
-        <v>7005963362616</v>
+        <v>7004400359209</v>
+      </c>
+      <c r="D300" t="s">
+        <v>334</v>
       </c>
       <c r="E300" s="2">
-        <v>43220.375</v>
+        <v>43221.29583333333</v>
       </c>
       <c r="F300" s="2"/>
+      <c r="P300" s="2"/>
     </row>
     <row r="301" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="C301" s="3">
-        <v>7005930362243</v>
+        <v>7003918358291</v>
       </c>
       <c r="D301" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="E301" s="2">
-        <v>43220.384027777778</v>
+        <v>43221.315972222219</v>
       </c>
       <c r="F301" s="2"/>
       <c r="M301" s="3"/>
@@ -8402,19 +9420,19 @@
     </row>
     <row r="302" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="C302" s="3">
-        <v>7005887361616</v>
+        <v>7003782358005</v>
       </c>
       <c r="D302" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="E302" s="2">
-        <v>43220.38958333333</v>
+        <v>43221.322222222225</v>
       </c>
       <c r="F302" s="2"/>
       <c r="M302" s="3"/>
@@ -8423,19 +9441,19 @@
     </row>
     <row r="303" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C303" s="3">
-        <v>7005948361408</v>
+        <v>7003733357829</v>
       </c>
       <c r="D303" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="E303" s="2">
-        <v>43220.393055555556</v>
+        <v>43221.325694444444</v>
       </c>
       <c r="F303" s="2"/>
       <c r="M303" s="3"/>
@@ -8444,19 +9462,19 @@
     </row>
     <row r="304" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="C304" s="3">
-        <v>7006091360439</v>
+        <v>7003632357578</v>
       </c>
       <c r="D304" t="s">
-        <v>220</v>
+        <v>314</v>
       </c>
       <c r="E304" s="2">
-        <v>43220.415277777778</v>
+        <v>43221.329861111109</v>
       </c>
       <c r="F304" s="2"/>
       <c r="M304" s="3"/>
@@ -8465,19 +9483,19 @@
     </row>
     <row r="305" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C305" s="3">
-        <v>7006105360299</v>
+        <v>7002949356265</v>
       </c>
       <c r="D305" t="s">
-        <v>248</v>
+        <v>336</v>
       </c>
       <c r="E305" s="2">
-        <v>43220.418055555558</v>
+        <v>43221.34375</v>
       </c>
       <c r="F305" s="2"/>
       <c r="M305" s="3"/>
@@ -8486,59 +9504,61 @@
     </row>
     <row r="306" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="C306" s="3">
-        <v>7006130360148</v>
+        <v>7002812355949</v>
       </c>
       <c r="D306" t="s">
-        <v>254</v>
+        <v>337</v>
       </c>
       <c r="E306" s="2">
-        <v>43220.422222222223</v>
-      </c>
+        <v>43221.348611111112</v>
+      </c>
+      <c r="F306" s="2"/>
       <c r="M306" s="3"/>
       <c r="O306" s="2"/>
       <c r="P306" s="2"/>
     </row>
     <row r="307" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C307" s="3">
-        <v>7006133360128</v>
+        <v>7002785355789</v>
       </c>
       <c r="D307" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
       <c r="E307" s="2">
-        <v>43220.424305555556</v>
-      </c>
+        <v>43221.351388888892</v>
+      </c>
+      <c r="F307" s="2"/>
       <c r="M307" s="3"/>
       <c r="O307" s="2"/>
       <c r="P307" s="2"/>
     </row>
     <row r="308" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C308" s="3">
-        <v>7006146360075</v>
+        <v>7002775355736</v>
       </c>
       <c r="D308" t="s">
-        <v>226</v>
+        <v>339</v>
       </c>
       <c r="E308" s="2">
-        <v>43220.425694444442</v>
+        <v>43221.354166666664</v>
       </c>
       <c r="F308" s="2"/>
       <c r="M308" s="3"/>
@@ -8547,19 +9567,19 @@
     </row>
     <row r="309" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="C309" s="3">
-        <v>7006171360032</v>
+        <v>7002767355630</v>
       </c>
       <c r="D309" t="s">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="E309" s="2">
-        <v>43220.427777777775</v>
+        <v>43221.375694444447</v>
       </c>
       <c r="F309" s="2"/>
       <c r="M309" s="3"/>
@@ -8568,19 +9588,19 @@
     </row>
     <row r="310" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C310" s="3">
-        <v>7006203359711</v>
+        <v>7003185355743</v>
       </c>
       <c r="D310" t="s">
-        <v>234</v>
+        <v>341</v>
       </c>
       <c r="E310" s="2">
-        <v>43220.432638888888</v>
+        <v>43221.38958333333</v>
       </c>
       <c r="F310" s="2"/>
       <c r="M310" s="3"/>
@@ -8589,19 +9609,19 @@
     </row>
     <row r="311" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="C311" s="3">
-        <v>7006211359605</v>
+        <v>7003537355760</v>
       </c>
       <c r="D311" t="s">
-        <v>218</v>
+        <v>342</v>
       </c>
       <c r="E311" s="2">
-        <v>43220.43472222222</v>
+        <v>43221.397916666669</v>
       </c>
       <c r="F311" s="2"/>
       <c r="M311" s="3"/>
@@ -8610,19 +9630,19 @@
     </row>
     <row r="312" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="C312" s="3">
-        <v>7006143359330</v>
+        <v>7003563355747</v>
       </c>
       <c r="D312" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="E312" s="2">
-        <v>43220.4375</v>
+        <v>43221.4</v>
       </c>
       <c r="F312" s="2"/>
       <c r="M312" s="3"/>
@@ -8631,19 +9651,19 @@
     </row>
     <row r="313" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C313" s="3">
-        <v>7006114359146</v>
+        <v>7003632355750</v>
       </c>
       <c r="D313" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="E313" s="2">
-        <v>43220.441666666666</v>
+        <v>43221.404166666667</v>
       </c>
       <c r="F313" s="2"/>
       <c r="M313" s="3"/>
@@ -8652,19 +9672,19 @@
     </row>
     <row r="314" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C314" s="3">
-        <v>7006105359105</v>
+        <v>7005429356236</v>
       </c>
       <c r="D314" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="E314" s="2">
-        <v>43220.443055555559</v>
+        <v>43221.426388888889</v>
       </c>
       <c r="F314" s="2"/>
       <c r="M314" s="3"/>
@@ -8673,19 +9693,19 @@
     </row>
     <row r="315" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="C315" s="3">
-        <v>7006097359055</v>
+        <v>7005578356227</v>
       </c>
       <c r="D315" t="s">
-        <v>274</v>
+        <v>323</v>
       </c>
       <c r="E315" s="2">
-        <v>43220.445138888892</v>
+        <v>43221.431944444441</v>
       </c>
       <c r="F315" s="2"/>
       <c r="M315" s="3"/>
@@ -8694,19 +9714,19 @@
     </row>
     <row r="316" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="C316" s="3">
-        <v>7006092358975</v>
+        <v>7005615356234</v>
       </c>
       <c r="D316" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="E316" s="2">
-        <v>43220.448611111111</v>
+        <v>43221.433333333334</v>
       </c>
       <c r="F316" s="2"/>
       <c r="M316" s="3"/>
@@ -8715,19 +9735,19 @@
     </row>
     <row r="317" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="C317" s="3">
-        <v>7006069358719</v>
+        <v>7005818356285</v>
       </c>
       <c r="D317" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="E317" s="2">
-        <v>43220.45208333333</v>
+        <v>43221.438888888886</v>
       </c>
       <c r="F317" s="2"/>
       <c r="M317" s="3"/>
@@ -8736,19 +9756,19 @@
     </row>
     <row r="318" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="C318" s="3">
-        <v>7006070358639</v>
+        <v>7005889356297</v>
       </c>
       <c r="D318" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="E318" s="2">
-        <v>43220.45416666667</v>
+        <v>43221.440972222219</v>
       </c>
       <c r="F318" s="2"/>
       <c r="M318" s="3"/>
@@ -8757,2125 +9777,1036 @@
     </row>
     <row r="319" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C319" s="3">
-        <v>7006048358564</v>
+        <v>7005982356291</v>
       </c>
       <c r="D319" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="E319" s="2">
-        <v>43220.455555555556</v>
-      </c>
-      <c r="F319" s="2"/>
+        <v>43221.445833333331</v>
+      </c>
       <c r="M319" s="3"/>
       <c r="O319" s="2"/>
       <c r="P319" s="2"/>
     </row>
     <row r="320" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="C320" s="3">
-        <v>7005966358599</v>
+        <v>7006067356287</v>
       </c>
       <c r="D320" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="E320" s="2">
-        <v>43220.482638888891</v>
-      </c>
-      <c r="F320" s="2"/>
+        <v>43221.448611111111</v>
+      </c>
       <c r="M320" s="3"/>
       <c r="O320" s="2"/>
       <c r="P320" s="2"/>
     </row>
     <row r="321" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="C321" s="3">
-        <v>7005754358715</v>
+        <v>7006110356278</v>
       </c>
       <c r="D321" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="E321" s="2">
-        <v>43220.486805555556</v>
-      </c>
-      <c r="F321" s="2"/>
+        <v>43221.45208333333</v>
+      </c>
       <c r="M321" s="3"/>
       <c r="O321" s="2"/>
       <c r="P321" s="2"/>
     </row>
     <row r="322" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="C322" s="3">
-        <v>7005614358794</v>
+        <v>7006178356268</v>
       </c>
       <c r="D322" t="s">
-        <v>303</v>
+        <v>242</v>
       </c>
       <c r="E322" s="2">
-        <v>43220.488888888889</v>
-      </c>
-      <c r="F322" s="2"/>
+        <v>43221.455555555556</v>
+      </c>
       <c r="M322" s="3"/>
       <c r="O322" s="2"/>
       <c r="P322" s="2"/>
     </row>
     <row r="323" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="C323" s="3">
-        <v>7005555358825</v>
+        <v>7006451356272</v>
       </c>
       <c r="D323" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="E323" s="2">
-        <v>43220.490277777775</v>
-      </c>
-      <c r="F323" s="2"/>
+        <v>43221.461111111108</v>
+      </c>
       <c r="M323" s="3"/>
       <c r="O323" s="2"/>
       <c r="P323" s="2"/>
     </row>
     <row r="324" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="C324" s="3">
-        <v>7005172359049</v>
+        <v>7006803356301</v>
       </c>
       <c r="D324" t="s">
-        <v>320</v>
+        <v>246</v>
       </c>
       <c r="E324" s="2">
-        <v>43220.493055555555</v>
-      </c>
-      <c r="F324" s="2"/>
+        <v>43221.468055555553</v>
+      </c>
       <c r="M324" s="3"/>
       <c r="O324" s="2"/>
       <c r="P324" s="2"/>
     </row>
     <row r="325" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="C325" s="3">
-        <v>7004845359228</v>
+        <v>7006600356476</v>
       </c>
       <c r="D325" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="E325" s="2">
-        <v>43220.49722222222</v>
-      </c>
-      <c r="F325" s="2"/>
+        <v>43221.475694444445</v>
+      </c>
       <c r="M325" s="3"/>
       <c r="O325" s="2"/>
       <c r="P325" s="2"/>
     </row>
     <row r="326" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C326" s="3">
-        <v>7004594359342</v>
+        <v>7005428357911</v>
       </c>
       <c r="D326" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="E326" s="2">
-        <v>43220.503472222219</v>
-      </c>
-      <c r="F326" s="2"/>
+        <v>43221.529166666667</v>
+      </c>
       <c r="M326" s="3"/>
       <c r="O326" s="2"/>
       <c r="P326" s="2"/>
     </row>
     <row r="327" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C327" s="3">
-        <v>7004462359409</v>
+        <v>7005274358127</v>
       </c>
       <c r="D327" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="E327" s="2">
-        <v>43220.506249999999</v>
-      </c>
-      <c r="F327" s="2"/>
+        <v>43221.532638888886</v>
+      </c>
       <c r="M327" s="3"/>
       <c r="O327" s="2"/>
       <c r="P327" s="2"/>
     </row>
     <row r="328" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C328" s="3">
-        <v>7004326359594</v>
+        <v>7005214358195</v>
       </c>
       <c r="D328" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="E328" s="2">
-        <v>43220.508333333331</v>
-      </c>
-      <c r="F328" s="2"/>
+        <v>43221.535416666666</v>
+      </c>
       <c r="M328" s="3"/>
       <c r="O328" s="2"/>
-      <c r="P328" s="2"/>
     </row>
     <row r="329" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="C329" s="3">
-        <v>7004265359557</v>
+        <v>7004453359147</v>
       </c>
       <c r="D329" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="E329" s="2">
-        <v>43220.509722222225</v>
-      </c>
-      <c r="F329" s="2"/>
+        <v>43221.547222222223</v>
+      </c>
       <c r="M329" s="3"/>
       <c r="O329" s="2"/>
-      <c r="P329" s="2"/>
     </row>
     <row r="330" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="C330" s="3">
-        <v>7004067359659</v>
+        <v>7008546366649</v>
       </c>
       <c r="D330" t="s">
-        <v>289</v>
+        <v>209</v>
       </c>
       <c r="E330" s="2">
-        <v>43220.513194444444</v>
-      </c>
-      <c r="F330" s="2"/>
+        <v>43222.325694444444</v>
+      </c>
       <c r="M330" s="3"/>
       <c r="O330" s="2"/>
-      <c r="P330" s="2"/>
     </row>
     <row r="331" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="C331" s="3">
-        <v>7004008359687</v>
+        <v>7008527366619</v>
       </c>
       <c r="D331" t="s">
-        <v>326</v>
+        <v>236</v>
       </c>
       <c r="E331" s="2">
-        <v>43220.515277777777</v>
-      </c>
-      <c r="F331" s="2"/>
-      <c r="M331" s="3"/>
-      <c r="O331" s="2"/>
-      <c r="P331" s="2"/>
+        <v>43222.329861111109</v>
+      </c>
     </row>
     <row r="332" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="C332" s="3">
-        <v>7003441360041</v>
+        <v>7008489366555</v>
       </c>
       <c r="D332" t="s">
-        <v>327</v>
+        <v>197</v>
       </c>
       <c r="E332" s="2">
-        <v>43220.525694444441</v>
-      </c>
-      <c r="F332" s="2"/>
-      <c r="M332" s="3"/>
-      <c r="O332" s="2"/>
-      <c r="P332" s="2"/>
+        <v>43222.334027777775</v>
+      </c>
     </row>
     <row r="333" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C333" s="3">
-        <v>7003437360048</v>
+        <v>7008481366542</v>
       </c>
       <c r="D333" t="s">
-        <v>327</v>
+        <v>224</v>
       </c>
       <c r="E333" s="2">
-        <v>43220.52847222222</v>
-      </c>
-      <c r="F333" s="2"/>
-      <c r="M333" s="3"/>
-      <c r="O333" s="2"/>
-      <c r="P333" s="2"/>
+        <v>43222.335416666669</v>
+      </c>
     </row>
     <row r="334" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="C334" s="3">
-        <v>7003383360066</v>
+        <v>7008469366500</v>
       </c>
       <c r="D334" t="s">
-        <v>328</v>
+        <v>214</v>
       </c>
       <c r="E334" s="2">
-        <v>43220.53125</v>
-      </c>
-      <c r="F334" s="2"/>
-      <c r="M334" s="3"/>
-      <c r="O334" s="2"/>
-      <c r="P334" s="2"/>
+        <v>43222.336805555555</v>
+      </c>
     </row>
     <row r="335" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="C335" s="3">
-        <v>7003064360213</v>
+        <v>7008230366123</v>
       </c>
       <c r="D335" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="E335" s="2">
-        <v>43220.536111111112</v>
-      </c>
-      <c r="F335" s="2"/>
-      <c r="M335" s="3"/>
-      <c r="O335" s="2"/>
-      <c r="P335" s="2"/>
+        <v>43222.348611111112</v>
+      </c>
     </row>
     <row r="336" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="C336" s="3">
-        <v>7002924360280</v>
+        <v>7008184366055</v>
       </c>
       <c r="D336" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="E336" s="2">
-        <v>43220.539583333331</v>
-      </c>
-      <c r="F336" s="2"/>
-      <c r="M336" s="3"/>
-      <c r="O336" s="2"/>
-      <c r="P336" s="2"/>
-    </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.2">
+        <v>43222.351388888892</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C337" s="3">
-        <v>7002846360330</v>
+        <v>7007756365256</v>
       </c>
       <c r="D337" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="E337" s="2">
-        <v>43220.542361111111</v>
-      </c>
-      <c r="F337" s="2"/>
-      <c r="M337" s="3"/>
+        <v>43222.363888888889</v>
+      </c>
+      <c r="L337" s="3"/>
+      <c r="N337" s="2"/>
       <c r="O337" s="2"/>
-      <c r="P337" s="2"/>
-    </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C338" s="3">
-        <v>7002828360337</v>
+        <v>7007701365129</v>
       </c>
       <c r="D338" t="s">
-        <v>329</v>
+        <v>189</v>
       </c>
       <c r="E338" s="2">
-        <v>43220.544444444444</v>
-      </c>
-      <c r="M338" s="3"/>
+        <v>43222.366666666669</v>
+      </c>
+      <c r="L338" s="3"/>
+      <c r="N338" s="2"/>
       <c r="O338" s="2"/>
-      <c r="P338" s="2"/>
-    </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="C339" s="3">
-        <v>7002573360565</v>
+        <v>7007599364865</v>
       </c>
       <c r="D339" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="E339" s="2">
-        <v>43220.55</v>
-      </c>
-      <c r="M339" s="3"/>
+        <v>43222.37222222222</v>
+      </c>
+      <c r="L339" s="3"/>
+      <c r="N339" s="2"/>
       <c r="O339" s="2"/>
-      <c r="P339" s="2"/>
-    </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B340" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C340" s="3">
+        <v>7007353364176</v>
+      </c>
+      <c r="D340" t="s">
+        <v>274</v>
+      </c>
+      <c r="E340" s="2">
+        <v>43222.379166666666</v>
+      </c>
+      <c r="L340" s="3"/>
+      <c r="N340" s="2"/>
+      <c r="O340" s="2"/>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>153</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C341" s="3">
+        <v>7007224363897</v>
+      </c>
+      <c r="D341" t="s">
+        <v>304</v>
+      </c>
+      <c r="E341" s="2">
+        <v>43222.383333333331</v>
+      </c>
+      <c r="L341" s="3"/>
+      <c r="N341" s="2"/>
+      <c r="O341" s="2"/>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>153</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C342" s="3">
+        <v>7006864363345</v>
+      </c>
+      <c r="D342" t="s">
+        <v>358</v>
+      </c>
+      <c r="E342" s="2">
+        <v>43222.400000000001</v>
+      </c>
+      <c r="L342" s="3"/>
+      <c r="N342" s="2"/>
+      <c r="O342" s="2"/>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>153</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C343" s="3">
+        <v>7006855363327</v>
+      </c>
+      <c r="D343" t="s">
+        <v>320</v>
+      </c>
+      <c r="E343" s="2">
+        <v>43222.402083333334</v>
+      </c>
+      <c r="L343" s="3"/>
+      <c r="N343" s="2"/>
+      <c r="O343" s="2"/>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>153</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C344" s="3">
+        <v>7006741363193</v>
+      </c>
+      <c r="D344" t="s">
+        <v>359</v>
+      </c>
+      <c r="E344" s="2">
+        <v>43222.40625</v>
+      </c>
+      <c r="L344" s="3"/>
+      <c r="N344" s="2"/>
+      <c r="O344" s="2"/>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>153</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C345" s="3">
+        <v>7006705363181</v>
+      </c>
+      <c r="D345" t="s">
+        <v>313</v>
+      </c>
+      <c r="E345" s="2">
+        <v>43222.408333333333</v>
+      </c>
+      <c r="L345" s="3"/>
+      <c r="N345" s="2"/>
+      <c r="O345" s="2"/>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>153</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C346" s="3">
+        <v>7006635363106</v>
+      </c>
+      <c r="D346" t="s">
+        <v>359</v>
+      </c>
+      <c r="E346" s="2">
+        <v>43222.410416666666</v>
+      </c>
+      <c r="L346" s="3"/>
+      <c r="N346" s="2"/>
+      <c r="O346" s="2"/>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>153</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C347" s="3">
+        <v>7006632363092</v>
+      </c>
+      <c r="D347" t="s">
+        <v>359</v>
+      </c>
+      <c r="E347" s="2">
+        <v>43222.412499999999</v>
+      </c>
+      <c r="L347" s="3"/>
+      <c r="N347" s="2"/>
+      <c r="O347" s="2"/>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>153</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C348" s="3">
+        <v>7006656363084</v>
+      </c>
+      <c r="D348" t="s">
+        <v>360</v>
+      </c>
+      <c r="E348" s="2">
+        <v>43222.425000000003</v>
+      </c>
+      <c r="L348" s="3"/>
+      <c r="N348" s="2"/>
+      <c r="O348" s="2"/>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>153</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C349" s="3">
+        <v>7006704363076</v>
+      </c>
+      <c r="D349" t="s">
+        <v>360</v>
+      </c>
+      <c r="E349" s="2">
+        <v>43222.431944444441</v>
+      </c>
+      <c r="L349" s="3"/>
+      <c r="N349" s="2"/>
+      <c r="O349" s="2"/>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>153</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C350" s="3">
+        <v>7006759363054</v>
+      </c>
+      <c r="D350" t="s">
+        <v>289</v>
+      </c>
+      <c r="E350" s="2">
+        <v>43222.435416666667</v>
+      </c>
+      <c r="L350" s="3"/>
+      <c r="N350" s="2"/>
+      <c r="O350" s="2"/>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>153</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C351" s="3">
+        <v>7006796363052</v>
+      </c>
+      <c r="D351" t="s">
+        <v>361</v>
+      </c>
+      <c r="E351" s="2">
+        <v>43222.436805555553</v>
+      </c>
+      <c r="L351" s="3"/>
+      <c r="N351" s="2"/>
+      <c r="O351" s="2"/>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>153</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C352" s="3">
+        <v>7006864363034</v>
+      </c>
+      <c r="D352" t="s">
+        <v>314</v>
+      </c>
+      <c r="E352" s="2">
+        <v>43222.439583333333</v>
+      </c>
+      <c r="L352" s="3"/>
+      <c r="N352" s="2"/>
+      <c r="O352" s="2"/>
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>153</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C353" s="3">
+        <v>7006882363032</v>
+      </c>
+      <c r="D353" t="s">
+        <v>362</v>
+      </c>
+      <c r="E353" s="2">
+        <v>43222.44027777778</v>
+      </c>
+      <c r="L353" s="3"/>
+      <c r="N353" s="2"/>
+      <c r="O353" s="2"/>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>153</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C354" s="3">
+        <v>7007268362982</v>
+      </c>
+      <c r="D354" t="s">
+        <v>363</v>
+      </c>
+      <c r="E354" s="2">
+        <v>43222.448611111111</v>
+      </c>
+      <c r="L354" s="3"/>
+      <c r="N354" s="2"/>
+      <c r="O354" s="2"/>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>153</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C355" s="3">
+        <v>7007286362985</v>
+      </c>
+      <c r="D355" t="s">
+        <v>283</v>
+      </c>
+      <c r="E355" s="2">
+        <v>43222.450694444444</v>
+      </c>
+      <c r="L355" s="3"/>
+      <c r="N355" s="2"/>
+      <c r="O355" s="2"/>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>153</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C356" s="3">
+        <v>7007299362986</v>
+      </c>
+      <c r="D356" t="s">
+        <v>282</v>
+      </c>
+      <c r="E356" s="2">
+        <v>43222.45208333333</v>
+      </c>
+      <c r="L356" s="3"/>
+      <c r="N356" s="2"/>
+      <c r="O356" s="2"/>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>153</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C357" s="3">
+        <v>7007413362958</v>
+      </c>
+      <c r="D357" t="s">
+        <v>364</v>
+      </c>
+      <c r="E357" s="2">
+        <v>43222.455555555556</v>
+      </c>
+      <c r="L357" s="3"/>
+      <c r="N357" s="2"/>
+      <c r="O357" s="2"/>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>153</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C358" s="3">
+        <v>7009681362779</v>
+      </c>
+      <c r="D358" t="s">
+        <v>244</v>
+      </c>
+      <c r="E358" s="2">
+        <v>43222.494444444441</v>
+      </c>
+      <c r="L358" s="3"/>
+      <c r="N358" s="2"/>
+      <c r="O358" s="2"/>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>153</v>
+      </c>
+      <c r="B359" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C340" s="3">
-        <v>7002551360604</v>
-      </c>
-      <c r="D340" t="s">
-        <v>305</v>
-      </c>
-      <c r="E340" s="2">
-        <v>43220.552777777775</v>
-      </c>
-      <c r="F340" s="2"/>
-      <c r="M340" s="3"/>
-      <c r="O340" s="2"/>
-      <c r="P340" s="2"/>
-    </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A341" t="s">
-        <v>146</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C341" s="3">
-        <v>7002731360751</v>
-      </c>
-      <c r="D341" t="s">
-        <v>331</v>
-      </c>
-      <c r="E341" s="2">
-        <v>43220.55972222222</v>
-      </c>
-      <c r="F341" s="2"/>
-      <c r="M341" s="3"/>
-      <c r="O341" s="2"/>
-      <c r="P341" s="2"/>
-    </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A342" t="s">
-        <v>146</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C342" s="3">
-        <v>7003942361654</v>
-      </c>
-      <c r="D342" t="s">
-        <v>301</v>
-      </c>
-      <c r="E342" s="2">
-        <v>43220.577777777777</v>
-      </c>
-      <c r="F342" s="2"/>
-      <c r="M342" s="3"/>
-      <c r="O342" s="2"/>
-      <c r="P342" s="2"/>
-    </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A343" t="s">
-        <v>146</v>
-      </c>
-      <c r="B343" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C343" s="3">
-        <v>7004010361690</v>
-      </c>
-      <c r="D343" t="s">
-        <v>301</v>
-      </c>
-      <c r="E343" s="2">
-        <v>43220.580555555556</v>
-      </c>
-      <c r="F343" s="2"/>
-      <c r="M343" s="3"/>
-      <c r="O343" s="2"/>
-      <c r="P343" s="2"/>
-    </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A344" t="s">
-        <v>146</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C344" s="3">
-        <v>7004478361995</v>
-      </c>
-      <c r="D344" t="s">
-        <v>301</v>
-      </c>
-      <c r="E344" s="2">
-        <v>43220.63958333333</v>
-      </c>
-      <c r="F344" s="2"/>
-      <c r="M344" s="3"/>
-      <c r="O344" s="2"/>
-      <c r="P344" s="2"/>
-    </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A345" t="s">
-        <v>146</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C345" s="3">
-        <v>7004518362018</v>
-      </c>
-      <c r="D345" t="s">
-        <v>301</v>
-      </c>
-      <c r="E345" s="2">
-        <v>43220.64166666667</v>
-      </c>
-      <c r="F345" s="2"/>
-      <c r="M345" s="3"/>
-      <c r="O345" s="2"/>
-      <c r="P345" s="2"/>
-    </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A346" t="s">
-        <v>146</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C346" s="3">
-        <v>7004641362075</v>
-      </c>
-      <c r="D346" t="s">
-        <v>293</v>
-      </c>
-      <c r="E346" s="2">
-        <v>43220.643750000003</v>
-      </c>
-      <c r="F346" s="2"/>
-      <c r="M346" s="3"/>
-      <c r="O346" s="2"/>
-      <c r="P346" s="2"/>
-    </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A347" t="s">
-        <v>146</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C347" s="3">
-        <v>7004976362244</v>
-      </c>
-      <c r="D347" t="s">
-        <v>332</v>
-      </c>
-      <c r="E347" s="2">
-        <v>43220.648611111108</v>
-      </c>
-      <c r="F347" s="2"/>
-      <c r="M347" s="3"/>
-      <c r="O347" s="2"/>
-      <c r="P347" s="2"/>
-    </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A348" t="s">
-        <v>146</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C348" s="3">
-        <v>7005036362271</v>
-      </c>
-      <c r="D348" t="s">
-        <v>305</v>
-      </c>
-      <c r="E348" s="2">
-        <v>43220.650694444441</v>
-      </c>
-      <c r="F348" s="2"/>
-      <c r="M348" s="3"/>
-      <c r="O348" s="2"/>
-      <c r="P348" s="2"/>
-    </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A349" t="s">
-        <v>146</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C349" s="3">
-        <v>7005401362460</v>
-      </c>
-      <c r="D349" t="s">
-        <v>333</v>
-      </c>
-      <c r="E349" s="2">
-        <v>43220.654861111114</v>
-      </c>
-      <c r="F349" s="2"/>
-      <c r="M349" s="3"/>
-      <c r="O349" s="2"/>
-      <c r="P349" s="2"/>
-    </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F350" s="2"/>
-      <c r="M350" s="3"/>
-      <c r="O350" s="2"/>
-      <c r="P350" s="2"/>
-    </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F351" s="2"/>
-    </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F352" s="2"/>
-    </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F353" s="2"/>
-    </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F354" s="2"/>
-    </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F355" s="2"/>
-    </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F356" s="2"/>
-    </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F357" s="2"/>
-    </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F358" s="2"/>
-    </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A359" t="s">
-        <v>150</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="C359" s="3">
-        <v>7004400359209</v>
+        <v>7010638362876</v>
       </c>
       <c r="D359" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="E359" s="2">
-        <v>43221.29583333333</v>
-      </c>
-      <c r="F359" s="2"/>
-    </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.2">
+        <v>43222.50277777778</v>
+      </c>
+      <c r="L359" s="3"/>
+      <c r="N359" s="2"/>
+      <c r="O359" s="2"/>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C360" s="3">
-        <v>7003918358291</v>
+        <v>7010614362913</v>
       </c>
       <c r="D360" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="E360" s="2">
-        <v>43221.315972222219</v>
-      </c>
-      <c r="F360" s="2"/>
-    </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.2">
+        <v>43222.522222222222</v>
+      </c>
+      <c r="L360" s="3"/>
+      <c r="N360" s="2"/>
+      <c r="O360" s="2"/>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C361" s="3">
-        <v>7003782358005</v>
+        <v>7010584362972</v>
       </c>
       <c r="D361" t="s">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="E361" s="2">
-        <v>43221.322222222225</v>
-      </c>
-      <c r="F361" s="2"/>
-    </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.2">
+        <v>43222.524305555555</v>
+      </c>
+      <c r="L361" s="3"/>
+      <c r="N361" s="2"/>
+      <c r="O361" s="2"/>
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="C362" s="3">
-        <v>7003733357829</v>
+        <v>7009698364284</v>
       </c>
       <c r="D362" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="E362" s="2">
-        <v>43221.325694444444</v>
-      </c>
-      <c r="F362" s="2"/>
-      <c r="M362" s="3"/>
+        <v>43222.599305555559</v>
+      </c>
+      <c r="L362" s="3"/>
+      <c r="N362" s="2"/>
       <c r="O362" s="2"/>
-      <c r="P362" s="2"/>
-    </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="C363" s="3">
-        <v>7003632357578</v>
+        <v>7009212365539</v>
       </c>
       <c r="D363" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="E363" s="2">
-        <v>43221.329861111109</v>
-      </c>
-      <c r="F363" s="2"/>
-      <c r="M363" s="3"/>
+        <v>43222.618055555555</v>
+      </c>
+      <c r="L363" s="3"/>
+      <c r="N363" s="2"/>
       <c r="O363" s="2"/>
-      <c r="P363" s="2"/>
-    </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C364" s="3">
-        <v>7002949356265</v>
+        <v>7009208365577</v>
       </c>
       <c r="D364" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="E364" s="2">
-        <v>43221.34375</v>
-      </c>
-      <c r="F364" s="2"/>
-      <c r="M364" s="3"/>
+        <v>43222.620138888888</v>
+      </c>
+      <c r="L364" s="3"/>
+      <c r="N364" s="2"/>
       <c r="O364" s="2"/>
-      <c r="P364" s="2"/>
-    </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="C365" s="3">
-        <v>7002812355949</v>
+        <v>7009208365588</v>
       </c>
       <c r="D365" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="E365" s="2">
-        <v>43221.348611111112</v>
-      </c>
-      <c r="F365" s="2"/>
-      <c r="M365" s="3"/>
+        <v>43222.621527777781</v>
+      </c>
+      <c r="L365" s="3"/>
+      <c r="N365" s="2"/>
       <c r="O365" s="2"/>
-      <c r="P365" s="2"/>
-    </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C366" s="3">
-        <v>7002785355789</v>
+        <v>7009199365638</v>
       </c>
       <c r="D366" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="E366" s="2">
-        <v>43221.351388888892</v>
-      </c>
-      <c r="F366" s="2"/>
-      <c r="M366" s="3"/>
+        <v>43222.623611111114</v>
+      </c>
+      <c r="L366" s="3"/>
+      <c r="N366" s="2"/>
       <c r="O366" s="2"/>
-      <c r="P366" s="2"/>
-    </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C367" s="3">
-        <v>7002775355736</v>
+        <v>7009186365662</v>
       </c>
       <c r="D367" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="E367" s="2">
-        <v>43221.354166666664</v>
-      </c>
-      <c r="F367" s="2"/>
-      <c r="M367" s="3"/>
+        <v>43222.625694444447</v>
+      </c>
+      <c r="L367" s="3"/>
+      <c r="N367" s="2"/>
       <c r="O367" s="2"/>
-      <c r="P367" s="2"/>
-    </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C368" s="3">
-        <v>7002767355630</v>
+        <v>7008623366228</v>
       </c>
       <c r="D368" t="s">
-        <v>340</v>
+        <v>185</v>
       </c>
       <c r="E368" s="2">
-        <v>43221.375694444447</v>
-      </c>
-      <c r="F368" s="2"/>
-      <c r="M368" s="3"/>
+        <v>43222.638888888891</v>
+      </c>
+      <c r="L368" s="3"/>
+      <c r="N368" s="2"/>
       <c r="O368" s="2"/>
-      <c r="P368" s="2"/>
-    </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C369" s="3">
-        <v>7003185355743</v>
-      </c>
-      <c r="D369" t="s">
-        <v>341</v>
+        <v>7009183365670</v>
       </c>
       <c r="E369" s="2">
-        <v>43221.38958333333</v>
-      </c>
-      <c r="F369" s="2"/>
-      <c r="M369" s="3"/>
+        <v>43222.640277777777</v>
+      </c>
+      <c r="L369" s="3"/>
+      <c r="N369" s="2"/>
       <c r="O369" s="2"/>
-      <c r="P369" s="2"/>
-    </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C370" s="3">
-        <v>7003537355760</v>
+        <v>7008631366281</v>
       </c>
       <c r="D370" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="E370" s="2">
-        <v>43221.397916666669</v>
-      </c>
-      <c r="F370" s="2"/>
-      <c r="M370" s="3"/>
+        <v>43222.640972222223</v>
+      </c>
+      <c r="L370" s="3"/>
+      <c r="N370" s="2"/>
       <c r="O370" s="2"/>
-      <c r="P370" s="2"/>
-    </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A371" t="s">
-        <v>150</v>
-      </c>
-      <c r="B371" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C371" s="3">
-        <v>7003563355747</v>
-      </c>
-      <c r="D371" t="s">
-        <v>343</v>
-      </c>
-      <c r="E371" s="2">
-        <v>43221.4</v>
-      </c>
-      <c r="F371" s="2"/>
-      <c r="M371" s="3"/>
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L371" s="3"/>
+      <c r="N371" s="2"/>
       <c r="O371" s="2"/>
-      <c r="P371" s="2"/>
-    </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A372" t="s">
-        <v>150</v>
-      </c>
-      <c r="B372" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C372" s="3">
-        <v>7003632355750</v>
-      </c>
-      <c r="D372" t="s">
-        <v>344</v>
-      </c>
-      <c r="E372" s="2">
-        <v>43221.404166666667</v>
-      </c>
-      <c r="F372" s="2"/>
-      <c r="M372" s="3"/>
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L372" s="3"/>
+      <c r="N372" s="2"/>
       <c r="O372" s="2"/>
-      <c r="P372" s="2"/>
-    </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A373" t="s">
-        <v>150</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C373" s="3">
-        <v>7005429356236</v>
-      </c>
-      <c r="D373" t="s">
-        <v>345</v>
-      </c>
-      <c r="E373" s="2">
-        <v>43221.426388888889</v>
-      </c>
-      <c r="F373" s="2"/>
-      <c r="M373" s="3"/>
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L373" s="3"/>
+      <c r="N373" s="2"/>
       <c r="O373" s="2"/>
-      <c r="P373" s="2"/>
-    </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A374" t="s">
-        <v>150</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C374" s="3">
-        <v>7005578356227</v>
-      </c>
-      <c r="D374" t="s">
-        <v>323</v>
-      </c>
-      <c r="E374" s="2">
-        <v>43221.431944444441</v>
-      </c>
-      <c r="F374" s="2"/>
-      <c r="M374" s="3"/>
-      <c r="O374" s="2"/>
-      <c r="P374" s="2"/>
-    </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A375" t="s">
-        <v>150</v>
-      </c>
-      <c r="B375" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C375" s="3">
-        <v>7005615356234</v>
-      </c>
-      <c r="D375" t="s">
-        <v>322</v>
-      </c>
-      <c r="E375" s="2">
-        <v>43221.433333333334</v>
-      </c>
-      <c r="F375" s="2"/>
-      <c r="M375" s="3"/>
-      <c r="O375" s="2"/>
-      <c r="P375" s="2"/>
-    </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A376" t="s">
-        <v>150</v>
-      </c>
-      <c r="B376" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C376" s="3">
-        <v>7005818356285</v>
-      </c>
-      <c r="D376" t="s">
-        <v>346</v>
-      </c>
-      <c r="E376" s="2">
-        <v>43221.438888888886</v>
-      </c>
-      <c r="F376" s="2"/>
-      <c r="M376" s="3"/>
-      <c r="O376" s="2"/>
-      <c r="P376" s="2"/>
-    </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A377" t="s">
-        <v>150</v>
-      </c>
-      <c r="B377" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C377" s="3">
-        <v>7005889356297</v>
-      </c>
-      <c r="D377" t="s">
-        <v>347</v>
-      </c>
-      <c r="E377" s="2">
-        <v>43221.440972222219</v>
-      </c>
-      <c r="F377" s="2"/>
-      <c r="M377" s="3"/>
-      <c r="O377" s="2"/>
-      <c r="P377" s="2"/>
-    </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A378" t="s">
-        <v>150</v>
-      </c>
-      <c r="B378" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C378" s="3">
-        <v>7005982356291</v>
-      </c>
-      <c r="D378" t="s">
-        <v>347</v>
-      </c>
-      <c r="E378" s="2">
-        <v>43221.445833333331</v>
-      </c>
-      <c r="F378" s="2"/>
-      <c r="M378" s="3"/>
-      <c r="O378" s="2"/>
-      <c r="P378" s="2"/>
-    </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A379" t="s">
-        <v>150</v>
-      </c>
-      <c r="B379" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C379" s="3">
-        <v>7006067356287</v>
-      </c>
-      <c r="D379" t="s">
-        <v>348</v>
-      </c>
-      <c r="E379" s="2">
-        <v>43221.448611111111</v>
-      </c>
-      <c r="F379" s="2"/>
-      <c r="M379" s="3"/>
-      <c r="O379" s="2"/>
-      <c r="P379" s="2"/>
-    </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A380" t="s">
-        <v>150</v>
-      </c>
-      <c r="B380" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C380" s="3">
-        <v>7006110356278</v>
-      </c>
-      <c r="D380" t="s">
-        <v>349</v>
-      </c>
-      <c r="E380" s="2">
-        <v>43221.45208333333</v>
-      </c>
-      <c r="M380" s="3"/>
-      <c r="O380" s="2"/>
-      <c r="P380" s="2"/>
-    </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A381" t="s">
-        <v>150</v>
-      </c>
-      <c r="B381" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C381" s="3">
-        <v>7006178356268</v>
-      </c>
-      <c r="D381" t="s">
-        <v>242</v>
-      </c>
-      <c r="E381" s="2">
-        <v>43221.455555555556</v>
-      </c>
-      <c r="M381" s="3"/>
-      <c r="O381" s="2"/>
-      <c r="P381" s="2"/>
-    </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A382" t="s">
-        <v>150</v>
-      </c>
-      <c r="B382" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C382" s="3">
-        <v>7006451356272</v>
-      </c>
-      <c r="D382" t="s">
-        <v>350</v>
-      </c>
-      <c r="E382" s="2">
-        <v>43221.461111111108</v>
-      </c>
-      <c r="M382" s="3"/>
-      <c r="O382" s="2"/>
-      <c r="P382" s="2"/>
-    </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A383" t="s">
-        <v>150</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C383" s="3">
-        <v>7006803356301</v>
-      </c>
-      <c r="D383" t="s">
-        <v>246</v>
-      </c>
-      <c r="E383" s="2">
-        <v>43221.468055555553</v>
-      </c>
-      <c r="M383" s="3"/>
-      <c r="O383" s="2"/>
-      <c r="P383" s="2"/>
-    </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A384" t="s">
-        <v>150</v>
-      </c>
-      <c r="B384" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C384" s="3">
-        <v>7006600356476</v>
-      </c>
-      <c r="D384" t="s">
-        <v>291</v>
-      </c>
-      <c r="E384" s="2">
-        <v>43221.475694444445</v>
-      </c>
-      <c r="M384" s="3"/>
-      <c r="O384" s="2"/>
-      <c r="P384" s="2"/>
-    </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A385" t="s">
-        <v>150</v>
-      </c>
-      <c r="B385" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C385" s="3">
-        <v>7005428357911</v>
-      </c>
-      <c r="D385" t="s">
-        <v>351</v>
-      </c>
-      <c r="E385" s="2">
-        <v>43221.529166666667</v>
-      </c>
-      <c r="M385" s="3"/>
-      <c r="O385" s="2"/>
-      <c r="P385" s="2"/>
-    </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A386" t="s">
-        <v>150</v>
-      </c>
-      <c r="B386" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C386" s="3">
-        <v>7005274358127</v>
-      </c>
-      <c r="D386" t="s">
-        <v>292</v>
-      </c>
-      <c r="E386" s="2">
-        <v>43221.532638888886</v>
-      </c>
-      <c r="M386" s="3"/>
-      <c r="O386" s="2"/>
-      <c r="P386" s="2"/>
-    </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A387" t="s">
-        <v>150</v>
-      </c>
-      <c r="B387" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C387" s="3">
-        <v>7005214358195</v>
-      </c>
-      <c r="D387" t="s">
-        <v>352</v>
-      </c>
-      <c r="E387" s="2">
-        <v>43221.535416666666</v>
-      </c>
-      <c r="M387" s="3"/>
-      <c r="O387" s="2"/>
-      <c r="P387" s="2"/>
-    </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A388" t="s">
-        <v>150</v>
-      </c>
-      <c r="B388" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C388" s="3">
-        <v>7004453359147</v>
-      </c>
-      <c r="D388" t="s">
-        <v>353</v>
-      </c>
-      <c r="E388" s="2">
-        <v>43221.547222222223</v>
-      </c>
-      <c r="M388" s="3"/>
-      <c r="O388" s="2"/>
-      <c r="P388" s="2"/>
-    </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="M389" s="3"/>
-      <c r="O389" s="2"/>
-      <c r="P389" s="2"/>
-    </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="M390" s="3"/>
-      <c r="O390" s="2"/>
-      <c r="P390" s="2"/>
-    </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="M391" s="3"/>
-      <c r="O391" s="2"/>
-      <c r="P391" s="2"/>
-    </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A397" t="s">
-        <v>153</v>
-      </c>
-      <c r="B397" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C397" s="3">
-        <v>7008546366649</v>
-      </c>
-      <c r="D397" t="s">
-        <v>209</v>
-      </c>
-      <c r="E397" s="2">
-        <v>43222.325694444444</v>
-      </c>
-    </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A398" t="s">
-        <v>153</v>
-      </c>
-      <c r="B398" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C398" s="3">
-        <v>7008527366619</v>
-      </c>
-      <c r="D398" t="s">
-        <v>236</v>
-      </c>
-      <c r="E398" s="2">
-        <v>43222.329861111109</v>
-      </c>
-      <c r="L398" s="3"/>
-      <c r="N398" s="2"/>
-      <c r="O398" s="2"/>
-    </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A399" t="s">
-        <v>153</v>
-      </c>
-      <c r="B399" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C399" s="3">
-        <v>7008489366555</v>
-      </c>
-      <c r="D399" t="s">
-        <v>197</v>
-      </c>
-      <c r="E399" s="2">
-        <v>43222.334027777775</v>
-      </c>
-      <c r="L399" s="3"/>
-      <c r="N399" s="2"/>
-      <c r="O399" s="2"/>
-    </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A400" t="s">
-        <v>153</v>
-      </c>
-      <c r="B400" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C400" s="3">
-        <v>7008481366542</v>
-      </c>
-      <c r="D400" t="s">
-        <v>224</v>
-      </c>
-      <c r="E400" s="2">
-        <v>43222.335416666669</v>
-      </c>
-      <c r="L400" s="3"/>
-      <c r="N400" s="2"/>
-      <c r="O400" s="2"/>
-    </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A401" t="s">
-        <v>153</v>
-      </c>
-      <c r="B401" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C401" s="3">
-        <v>7008469366500</v>
-      </c>
-      <c r="D401" t="s">
-        <v>214</v>
-      </c>
-      <c r="E401" s="2">
-        <v>43222.336805555555</v>
-      </c>
-      <c r="L401" s="3"/>
-      <c r="N401" s="2"/>
-      <c r="O401" s="2"/>
-    </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A402" t="s">
-        <v>153</v>
-      </c>
-      <c r="B402" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C402" s="3">
-        <v>7008230366123</v>
-      </c>
-      <c r="D402" t="s">
-        <v>354</v>
-      </c>
-      <c r="E402" s="2">
-        <v>43222.348611111112</v>
-      </c>
-      <c r="L402" s="3"/>
-      <c r="N402" s="2"/>
-      <c r="O402" s="2"/>
-    </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A403" t="s">
-        <v>153</v>
-      </c>
-      <c r="B403" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C403" s="3">
-        <v>7008184366055</v>
-      </c>
-      <c r="D403" t="s">
-        <v>355</v>
-      </c>
-      <c r="E403" s="2">
-        <v>43222.351388888892</v>
-      </c>
-      <c r="L403" s="3"/>
-      <c r="N403" s="2"/>
-      <c r="O403" s="2"/>
-    </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A404" t="s">
-        <v>153</v>
-      </c>
-      <c r="B404" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C404" s="3">
-        <v>7007756365256</v>
-      </c>
-      <c r="D404" t="s">
-        <v>356</v>
-      </c>
-      <c r="E404" s="2">
-        <v>43222.363888888889</v>
-      </c>
-      <c r="L404" s="3"/>
-      <c r="N404" s="2"/>
-      <c r="O404" s="2"/>
-    </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A405" t="s">
-        <v>153</v>
-      </c>
-      <c r="B405" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C405" s="3">
-        <v>7007701365129</v>
-      </c>
-      <c r="D405" t="s">
-        <v>189</v>
-      </c>
-      <c r="E405" s="2">
-        <v>43222.366666666669</v>
-      </c>
-      <c r="L405" s="3"/>
-      <c r="N405" s="2"/>
-      <c r="O405" s="2"/>
-    </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A406" t="s">
-        <v>153</v>
-      </c>
-      <c r="B406" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C406" s="3">
-        <v>7007599364865</v>
-      </c>
-      <c r="D406" t="s">
-        <v>357</v>
-      </c>
-      <c r="E406" s="2">
-        <v>43222.37222222222</v>
-      </c>
-      <c r="L406" s="3"/>
-      <c r="N406" s="2"/>
-      <c r="O406" s="2"/>
-    </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A407" t="s">
-        <v>153</v>
-      </c>
-      <c r="B407" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C407" s="3">
-        <v>7007353364176</v>
-      </c>
-      <c r="D407" t="s">
-        <v>274</v>
-      </c>
-      <c r="E407" s="2">
-        <v>43222.379166666666</v>
-      </c>
-      <c r="L407" s="3"/>
-      <c r="N407" s="2"/>
-      <c r="O407" s="2"/>
-    </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A408" t="s">
-        <v>153</v>
-      </c>
-      <c r="B408" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C408" s="3">
-        <v>7007224363897</v>
-      </c>
-      <c r="D408" t="s">
-        <v>304</v>
-      </c>
-      <c r="E408" s="2">
-        <v>43222.383333333331</v>
-      </c>
-      <c r="L408" s="3"/>
-      <c r="N408" s="2"/>
-      <c r="O408" s="2"/>
-    </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A409" t="s">
-        <v>153</v>
-      </c>
-      <c r="B409" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C409" s="3">
-        <v>7006864363345</v>
-      </c>
-      <c r="D409" t="s">
-        <v>358</v>
-      </c>
-      <c r="E409" s="2">
-        <v>43222.400000000001</v>
-      </c>
-      <c r="L409" s="3"/>
-      <c r="N409" s="2"/>
-      <c r="O409" s="2"/>
-    </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A410" t="s">
-        <v>153</v>
-      </c>
-      <c r="B410" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C410" s="3">
-        <v>7006855363327</v>
-      </c>
-      <c r="D410" t="s">
-        <v>320</v>
-      </c>
-      <c r="E410" s="2">
-        <v>43222.402083333334</v>
-      </c>
-      <c r="L410" s="3"/>
-      <c r="N410" s="2"/>
-      <c r="O410" s="2"/>
-    </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A411" t="s">
-        <v>153</v>
-      </c>
-      <c r="B411" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C411" s="3">
-        <v>7006741363193</v>
-      </c>
-      <c r="D411" t="s">
-        <v>359</v>
-      </c>
-      <c r="E411" s="2">
-        <v>43222.40625</v>
-      </c>
-      <c r="L411" s="3"/>
-      <c r="N411" s="2"/>
-      <c r="O411" s="2"/>
-    </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A412" t="s">
-        <v>153</v>
-      </c>
-      <c r="B412" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C412" s="3">
-        <v>7006705363181</v>
-      </c>
-      <c r="D412" t="s">
-        <v>313</v>
-      </c>
-      <c r="E412" s="2">
-        <v>43222.408333333333</v>
-      </c>
-      <c r="L412" s="3"/>
-      <c r="N412" s="2"/>
-      <c r="O412" s="2"/>
-    </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A413" t="s">
-        <v>153</v>
-      </c>
-      <c r="B413" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C413" s="3">
-        <v>7006635363106</v>
-      </c>
-      <c r="D413" t="s">
-        <v>359</v>
-      </c>
-      <c r="E413" s="2">
-        <v>43222.410416666666</v>
-      </c>
-      <c r="L413" s="3"/>
-      <c r="N413" s="2"/>
-      <c r="O413" s="2"/>
-    </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A414" t="s">
-        <v>153</v>
-      </c>
-      <c r="B414" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C414" s="3">
-        <v>7006632363092</v>
-      </c>
-      <c r="D414" t="s">
-        <v>359</v>
-      </c>
-      <c r="E414" s="2">
-        <v>43222.412499999999</v>
-      </c>
-      <c r="L414" s="3"/>
-      <c r="N414" s="2"/>
-      <c r="O414" s="2"/>
-    </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A415" t="s">
-        <v>153</v>
-      </c>
-      <c r="B415" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C415" s="3">
-        <v>7006656363084</v>
-      </c>
-      <c r="D415" t="s">
-        <v>360</v>
-      </c>
-      <c r="E415" s="2">
-        <v>43222.425000000003</v>
-      </c>
-      <c r="L415" s="3"/>
-      <c r="N415" s="2"/>
-      <c r="O415" s="2"/>
-    </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A416" t="s">
-        <v>153</v>
-      </c>
-      <c r="B416" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C416" s="3">
-        <v>7006704363076</v>
-      </c>
-      <c r="D416" t="s">
-        <v>360</v>
-      </c>
-      <c r="E416" s="2">
-        <v>43222.431944444441</v>
-      </c>
-      <c r="L416" s="3"/>
-      <c r="N416" s="2"/>
-      <c r="O416" s="2"/>
-    </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A417" t="s">
-        <v>153</v>
-      </c>
-      <c r="B417" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C417" s="3">
-        <v>7006759363054</v>
-      </c>
-      <c r="D417" t="s">
-        <v>289</v>
-      </c>
-      <c r="E417" s="2">
-        <v>43222.435416666667</v>
-      </c>
-      <c r="L417" s="3"/>
-      <c r="N417" s="2"/>
-      <c r="O417" s="2"/>
-    </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A418" t="s">
-        <v>153</v>
-      </c>
-      <c r="B418" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C418" s="3">
-        <v>7006796363052</v>
-      </c>
-      <c r="D418" t="s">
-        <v>361</v>
-      </c>
-      <c r="E418" s="2">
-        <v>43222.436805555553</v>
-      </c>
-      <c r="L418" s="3"/>
-      <c r="N418" s="2"/>
-      <c r="O418" s="2"/>
-    </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A419" t="s">
-        <v>153</v>
-      </c>
-      <c r="B419" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C419" s="3">
-        <v>7006864363034</v>
-      </c>
-      <c r="D419" t="s">
-        <v>314</v>
-      </c>
-      <c r="E419" s="2">
-        <v>43222.439583333333</v>
-      </c>
-      <c r="L419" s="3"/>
-      <c r="N419" s="2"/>
-      <c r="O419" s="2"/>
-    </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A420" t="s">
-        <v>153</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C420" s="3">
-        <v>7006882363032</v>
-      </c>
-      <c r="D420" t="s">
-        <v>362</v>
-      </c>
-      <c r="E420" s="2">
-        <v>43222.44027777778</v>
-      </c>
-      <c r="L420" s="3"/>
-      <c r="N420" s="2"/>
-      <c r="O420" s="2"/>
-    </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A421" t="s">
-        <v>153</v>
-      </c>
-      <c r="B421" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C421" s="3">
-        <v>7007268362982</v>
-      </c>
-      <c r="D421" t="s">
-        <v>363</v>
-      </c>
-      <c r="E421" s="2">
-        <v>43222.448611111111</v>
-      </c>
-      <c r="L421" s="3"/>
-      <c r="N421" s="2"/>
-      <c r="O421" s="2"/>
-    </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A422" t="s">
-        <v>153</v>
-      </c>
-      <c r="B422" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C422" s="3">
-        <v>7007286362985</v>
-      </c>
-      <c r="D422" t="s">
-        <v>283</v>
-      </c>
-      <c r="E422" s="2">
-        <v>43222.450694444444</v>
-      </c>
-      <c r="L422" s="3"/>
-      <c r="N422" s="2"/>
-      <c r="O422" s="2"/>
-    </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A423" t="s">
-        <v>153</v>
-      </c>
-      <c r="B423" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C423" s="3">
-        <v>7007299362986</v>
-      </c>
-      <c r="D423" t="s">
-        <v>282</v>
-      </c>
-      <c r="E423" s="2">
-        <v>43222.45208333333</v>
-      </c>
-      <c r="L423" s="3"/>
-      <c r="N423" s="2"/>
-      <c r="O423" s="2"/>
-    </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A424" t="s">
-        <v>153</v>
-      </c>
-      <c r="B424" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C424" s="3">
-        <v>7007413362958</v>
-      </c>
-      <c r="D424" t="s">
-        <v>364</v>
-      </c>
-      <c r="E424" s="2">
-        <v>43222.455555555556</v>
-      </c>
-      <c r="L424" s="3"/>
-      <c r="N424" s="2"/>
-      <c r="O424" s="2"/>
-    </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A425" t="s">
-        <v>153</v>
-      </c>
-      <c r="B425" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C425" s="3">
-        <v>7009681362779</v>
-      </c>
-      <c r="D425" t="s">
-        <v>244</v>
-      </c>
-      <c r="E425" s="2">
-        <v>43222.494444444441</v>
-      </c>
-      <c r="L425" s="3"/>
-      <c r="N425" s="2"/>
-      <c r="O425" s="2"/>
-    </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A426" t="s">
-        <v>153</v>
-      </c>
-      <c r="B426" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C426" s="3">
-        <v>7010638362876</v>
-      </c>
-      <c r="D426" t="s">
-        <v>365</v>
-      </c>
-      <c r="E426" s="2">
-        <v>43222.50277777778</v>
-      </c>
-      <c r="L426" s="3"/>
-      <c r="N426" s="2"/>
-      <c r="O426" s="2"/>
-    </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A427" t="s">
-        <v>153</v>
-      </c>
-      <c r="B427" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C427" s="3">
-        <v>7010614362913</v>
-      </c>
-      <c r="D427" t="s">
-        <v>365</v>
-      </c>
-      <c r="E427" s="2">
-        <v>43222.522222222222</v>
-      </c>
-      <c r="L427" s="3"/>
-      <c r="N427" s="2"/>
-      <c r="O427" s="2"/>
-    </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A428" t="s">
-        <v>153</v>
-      </c>
-      <c r="B428" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C428" s="3">
-        <v>7010584362972</v>
-      </c>
-      <c r="D428" t="s">
-        <v>279</v>
-      </c>
-      <c r="E428" s="2">
-        <v>43222.524305555555</v>
-      </c>
-      <c r="L428" s="3"/>
-      <c r="N428" s="2"/>
-      <c r="O428" s="2"/>
-    </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A429" t="s">
-        <v>153</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C429" s="3">
-        <v>7009698364284</v>
-      </c>
-      <c r="D429" t="s">
-        <v>366</v>
-      </c>
-      <c r="E429" s="2">
-        <v>43222.599305555559</v>
-      </c>
-      <c r="L429" s="3"/>
-      <c r="N429" s="2"/>
-      <c r="O429" s="2"/>
-    </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A430" t="s">
-        <v>153</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C430" s="3">
-        <v>7009212365539</v>
-      </c>
-      <c r="D430" t="s">
-        <v>355</v>
-      </c>
-      <c r="E430" s="2">
-        <v>43222.618055555555</v>
-      </c>
-      <c r="L430" s="3"/>
-      <c r="N430" s="2"/>
-      <c r="O430" s="2"/>
-    </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A431" t="s">
-        <v>153</v>
-      </c>
-      <c r="B431" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C431" s="3">
-        <v>7009208365577</v>
-      </c>
-      <c r="D431" t="s">
-        <v>367</v>
-      </c>
-      <c r="E431" s="2">
-        <v>43222.620138888888</v>
-      </c>
-      <c r="L431" s="3"/>
-      <c r="N431" s="2"/>
-      <c r="O431" s="2"/>
-    </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A432" t="s">
-        <v>153</v>
-      </c>
-      <c r="B432" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C432" s="3">
-        <v>7009208365588</v>
-      </c>
-      <c r="D432" t="s">
-        <v>368</v>
-      </c>
-      <c r="E432" s="2">
-        <v>43222.621527777781</v>
-      </c>
-      <c r="L432" s="3"/>
-      <c r="N432" s="2"/>
-      <c r="O432" s="2"/>
-    </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A433" t="s">
-        <v>153</v>
-      </c>
-      <c r="B433" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C433" s="3">
-        <v>7009199365638</v>
-      </c>
-      <c r="D433" t="s">
-        <v>369</v>
-      </c>
-      <c r="E433" s="2">
-        <v>43222.623611111114</v>
-      </c>
-      <c r="L433" s="3"/>
-      <c r="N433" s="2"/>
-      <c r="O433" s="2"/>
-    </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A434" t="s">
-        <v>153</v>
-      </c>
-      <c r="B434" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C434" s="3">
-        <v>7009186365662</v>
-      </c>
-      <c r="D434" t="s">
-        <v>370</v>
-      </c>
-      <c r="E434" s="2">
-        <v>43222.625694444447</v>
-      </c>
-      <c r="L434" s="3"/>
-      <c r="N434" s="2"/>
-      <c r="O434" s="2"/>
-    </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A435" t="s">
-        <v>153</v>
-      </c>
-      <c r="B435" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C435" s="3">
-        <v>7008623366228</v>
-      </c>
-      <c r="D435" t="s">
-        <v>185</v>
-      </c>
-      <c r="E435" s="2">
-        <v>43222.638888888891</v>
-      </c>
-      <c r="L435" s="3"/>
-      <c r="N435" s="2"/>
-      <c r="O435" s="2"/>
-    </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A436" t="s">
-        <v>153</v>
-      </c>
-      <c r="B436" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C436" s="3">
-        <v>7009183365670</v>
-      </c>
-      <c r="E436" s="2">
-        <v>43222.640277777777</v>
-      </c>
-      <c r="L436" s="3"/>
-      <c r="N436" s="2"/>
-      <c r="O436" s="2"/>
-    </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A437" t="s">
-        <v>153</v>
-      </c>
-      <c r="B437" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C437" s="3">
-        <v>7008631366281</v>
-      </c>
-      <c r="D437" t="s">
-        <v>371</v>
-      </c>
-      <c r="E437" s="2">
-        <v>43222.640972222223</v>
-      </c>
-      <c r="L437" s="3"/>
-      <c r="N437" s="2"/>
-      <c r="O437" s="2"/>
-    </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="438" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L438" s="3"/>
       <c r="N438" s="2"/>
       <c r="O438" s="2"/>

--- a/Rawdata/riptransekter helags 2018.xlsx
+++ b/Rawdata/riptransekter helags 2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="2360" windowWidth="25600" windowHeight="14120" xr2:uid="{731D7839-4CAB-374B-BEA5-3406519CB6C1}"/>
+    <workbookView xWindow="-320" yWindow="1060" windowWidth="25600" windowHeight="14120" xr2:uid="{731D7839-4CAB-374B-BEA5-3406519CB6C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="387">
   <si>
     <t>vinkel</t>
   </si>
@@ -1146,6 +1146,45 @@
   </si>
   <si>
     <t>860 m</t>
+  </si>
+  <si>
+    <t>lätt drevsnö från stormen igår</t>
+  </si>
+  <si>
+    <t>sol, vindstilla</t>
+  </si>
+  <si>
+    <t>rätt otydliga men snirklar sig</t>
+  </si>
+  <si>
+    <t>går ej se om det är samma ind.</t>
+  </si>
+  <si>
+    <t>färska korvar</t>
+  </si>
+  <si>
+    <t>svårt att se men stegen är ihoplänkade</t>
+  </si>
+  <si>
+    <t>stora fibrer, färska korvar</t>
+  </si>
+  <si>
+    <t>ljusa men ser färska ut</t>
+  </si>
+  <si>
+    <t>ljusmörka ser färska ut</t>
+  </si>
+  <si>
+    <t>0-gradigt, lätt vind</t>
+  </si>
+  <si>
+    <t>ljusa</t>
+  </si>
+  <si>
+    <t>ljusbruna, färska</t>
+  </si>
+  <si>
+    <t>ljusbrun, torr</t>
   </si>
 </sst>
 </file>
@@ -1503,8 +1542,8 @@
   <dimension ref="A1:Z438"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G252" sqref="G252"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H160" sqref="H160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4211,6 +4250,9 @@
       <c r="F82" t="s">
         <v>24</v>
       </c>
+      <c r="N82" t="s">
+        <v>172</v>
+      </c>
       <c r="O82" t="s">
         <v>21</v>
       </c>
@@ -4252,6 +4294,9 @@
       <c r="L83">
         <v>2</v>
       </c>
+      <c r="N83" t="s">
+        <v>172</v>
+      </c>
       <c r="O83" t="s">
         <v>21</v>
       </c>
@@ -4290,6 +4335,9 @@
       <c r="L84">
         <v>1</v>
       </c>
+      <c r="N84" t="s">
+        <v>172</v>
+      </c>
       <c r="O84" t="s">
         <v>21</v>
       </c>
@@ -4322,6 +4370,9 @@
       <c r="M85" t="s">
         <v>173</v>
       </c>
+      <c r="N85" t="s">
+        <v>172</v>
+      </c>
       <c r="O85" t="s">
         <v>21</v>
       </c>
@@ -4357,6 +4408,9 @@
       <c r="L86">
         <v>25</v>
       </c>
+      <c r="N86" t="s">
+        <v>172</v>
+      </c>
       <c r="O86" t="s">
         <v>21</v>
       </c>
@@ -4392,6 +4446,9 @@
       <c r="L87">
         <v>24</v>
       </c>
+      <c r="N87" t="s">
+        <v>172</v>
+      </c>
       <c r="O87" t="s">
         <v>21</v>
       </c>
@@ -4433,6 +4490,9 @@
       <c r="L88">
         <v>1</v>
       </c>
+      <c r="N88" t="s">
+        <v>172</v>
+      </c>
       <c r="O88" t="s">
         <v>21</v>
       </c>
@@ -4471,6 +4531,9 @@
       <c r="M89" t="s">
         <v>174</v>
       </c>
+      <c r="N89" t="s">
+        <v>172</v>
+      </c>
       <c r="O89" t="s">
         <v>21</v>
       </c>
@@ -4509,6 +4572,9 @@
       <c r="M90" t="s">
         <v>23</v>
       </c>
+      <c r="N90" t="s">
+        <v>172</v>
+      </c>
       <c r="O90" t="s">
         <v>21</v>
       </c>
@@ -4626,6 +4692,9 @@
       <c r="L93">
         <v>2</v>
       </c>
+      <c r="N93" t="s">
+        <v>175</v>
+      </c>
       <c r="O93" t="s">
         <v>21</v>
       </c>
@@ -4667,6 +4736,9 @@
       <c r="L94">
         <v>1</v>
       </c>
+      <c r="N94" t="s">
+        <v>175</v>
+      </c>
       <c r="O94" t="s">
         <v>21</v>
       </c>
@@ -4705,6 +4777,9 @@
       <c r="L95">
         <v>1</v>
       </c>
+      <c r="N95" t="s">
+        <v>175</v>
+      </c>
       <c r="O95" t="s">
         <v>21</v>
       </c>
@@ -4746,6 +4821,9 @@
       <c r="L96">
         <v>1</v>
       </c>
+      <c r="N96" t="s">
+        <v>175</v>
+      </c>
       <c r="O96" t="s">
         <v>21</v>
       </c>
@@ -4787,6 +4865,9 @@
       <c r="L97">
         <v>35</v>
       </c>
+      <c r="N97" t="s">
+        <v>175</v>
+      </c>
       <c r="O97" t="s">
         <v>21</v>
       </c>
@@ -4813,6 +4894,9 @@
       <c r="F98" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="N98" t="s">
+        <v>175</v>
+      </c>
       <c r="O98" t="s">
         <v>21</v>
       </c>
@@ -4851,6 +4935,9 @@
       <c r="L99">
         <v>27</v>
       </c>
+      <c r="N99" t="s">
+        <v>175</v>
+      </c>
       <c r="O99" t="s">
         <v>21</v>
       </c>
@@ -4877,6 +4964,9 @@
       <c r="F100" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="N100" t="s">
+        <v>175</v>
+      </c>
       <c r="O100" t="s">
         <v>21</v>
       </c>
@@ -4918,6 +5008,9 @@
       <c r="L101">
         <v>1</v>
       </c>
+      <c r="N101" t="s">
+        <v>175</v>
+      </c>
       <c r="O101" t="s">
         <v>21</v>
       </c>
@@ -4959,6 +5052,9 @@
       <c r="L102">
         <v>1</v>
       </c>
+      <c r="N102" t="s">
+        <v>175</v>
+      </c>
       <c r="O102" t="s">
         <v>21</v>
       </c>
@@ -5000,6 +5096,9 @@
       <c r="M103" t="s">
         <v>167</v>
       </c>
+      <c r="N103" t="s">
+        <v>175</v>
+      </c>
       <c r="O103" t="s">
         <v>21</v>
       </c>
@@ -5041,6 +5140,9 @@
       <c r="L104">
         <v>1</v>
       </c>
+      <c r="N104" t="s">
+        <v>175</v>
+      </c>
       <c r="O104" t="s">
         <v>21</v>
       </c>
@@ -5082,6 +5184,9 @@
       <c r="L105">
         <v>1</v>
       </c>
+      <c r="N105" t="s">
+        <v>175</v>
+      </c>
       <c r="O105" t="s">
         <v>21</v>
       </c>
@@ -5117,6 +5222,9 @@
       <c r="M106" t="s">
         <v>176</v>
       </c>
+      <c r="N106" t="s">
+        <v>175</v>
+      </c>
       <c r="O106" t="s">
         <v>21</v>
       </c>
@@ -5146,6 +5254,9 @@
       <c r="M107" t="s">
         <v>177</v>
       </c>
+      <c r="N107" t="s">
+        <v>175</v>
+      </c>
       <c r="O107" t="s">
         <v>21</v>
       </c>
@@ -5187,6 +5298,9 @@
       <c r="M108" t="s">
         <v>178</v>
       </c>
+      <c r="N108" t="s">
+        <v>175</v>
+      </c>
       <c r="O108" t="s">
         <v>21</v>
       </c>
@@ -5272,6 +5386,9 @@
       <c r="L110">
         <v>37</v>
       </c>
+      <c r="N110" t="s">
+        <v>179</v>
+      </c>
       <c r="O110" t="s">
         <v>21</v>
       </c>
@@ -5310,6 +5427,9 @@
       <c r="L111">
         <v>1</v>
       </c>
+      <c r="N111" t="s">
+        <v>179</v>
+      </c>
       <c r="O111" t="s">
         <v>21</v>
       </c>
@@ -5351,6 +5471,9 @@
       <c r="L112">
         <v>20</v>
       </c>
+      <c r="N112" t="s">
+        <v>179</v>
+      </c>
       <c r="O112" t="s">
         <v>21</v>
       </c>
@@ -5392,6 +5515,9 @@
       <c r="L113">
         <v>12</v>
       </c>
+      <c r="N113" t="s">
+        <v>179</v>
+      </c>
       <c r="O113" t="s">
         <v>21</v>
       </c>
@@ -5433,6 +5559,9 @@
       <c r="L114">
         <v>38</v>
       </c>
+      <c r="N114" t="s">
+        <v>179</v>
+      </c>
       <c r="O114" t="s">
         <v>21</v>
       </c>
@@ -5459,6 +5588,9 @@
       <c r="F115" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="N115" t="s">
+        <v>179</v>
+      </c>
       <c r="O115" t="s">
         <v>21</v>
       </c>
@@ -5503,6 +5635,9 @@
       <c r="M116" t="s">
         <v>180</v>
       </c>
+      <c r="N116" t="s">
+        <v>179</v>
+      </c>
       <c r="O116" t="s">
         <v>21</v>
       </c>
@@ -5547,6 +5682,9 @@
       <c r="M117" t="s">
         <v>181</v>
       </c>
+      <c r="N117" t="s">
+        <v>179</v>
+      </c>
       <c r="O117" t="s">
         <v>21</v>
       </c>
@@ -5591,6 +5729,9 @@
       <c r="M118" t="s">
         <v>182</v>
       </c>
+      <c r="N118" t="s">
+        <v>179</v>
+      </c>
       <c r="O118" t="s">
         <v>21</v>
       </c>
@@ -5635,6 +5776,12 @@
       <c r="M119" t="s">
         <v>253</v>
       </c>
+      <c r="N119" t="s">
+        <v>179</v>
+      </c>
+      <c r="O119" t="s">
+        <v>21</v>
+      </c>
       <c r="V119" s="3"/>
       <c r="X119" s="2"/>
       <c r="Y119" s="2"/>
@@ -5676,6 +5823,12 @@
       <c r="M120" t="s">
         <v>253</v>
       </c>
+      <c r="N120" t="s">
+        <v>179</v>
+      </c>
+      <c r="O120" t="s">
+        <v>21</v>
+      </c>
       <c r="V120" s="3"/>
       <c r="X120" s="2"/>
       <c r="Y120" s="2"/>
@@ -5699,6 +5852,9 @@
       <c r="F121" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="N121" t="s">
+        <v>179</v>
+      </c>
       <c r="O121" t="s">
         <v>21</v>
       </c>
@@ -5737,6 +5893,9 @@
       <c r="L122">
         <v>26</v>
       </c>
+      <c r="N122" t="s">
+        <v>179</v>
+      </c>
       <c r="O122" t="s">
         <v>21</v>
       </c>
@@ -5775,6 +5934,9 @@
       <c r="M123" t="s">
         <v>372</v>
       </c>
+      <c r="N123" t="s">
+        <v>179</v>
+      </c>
       <c r="O123" t="s">
         <v>21</v>
       </c>
@@ -5813,6 +5975,9 @@
       <c r="M124" t="s">
         <v>372</v>
       </c>
+      <c r="N124" t="s">
+        <v>179</v>
+      </c>
       <c r="O124" t="s">
         <v>21</v>
       </c>
@@ -5848,6 +6013,9 @@
       <c r="L125">
         <v>1</v>
       </c>
+      <c r="N125" t="s">
+        <v>179</v>
+      </c>
       <c r="O125" t="s">
         <v>21</v>
       </c>
@@ -5877,6 +6045,9 @@
       <c r="L126">
         <v>12</v>
       </c>
+      <c r="N126" t="s">
+        <v>179</v>
+      </c>
       <c r="O126" t="s">
         <v>21</v>
       </c>
@@ -5912,6 +6083,9 @@
       <c r="L127">
         <v>2</v>
       </c>
+      <c r="N127" t="s">
+        <v>179</v>
+      </c>
       <c r="O127" t="s">
         <v>21</v>
       </c>
@@ -5950,6 +6124,9 @@
       <c r="L128">
         <v>1</v>
       </c>
+      <c r="N128" t="s">
+        <v>179</v>
+      </c>
       <c r="O128" t="s">
         <v>21</v>
       </c>
@@ -5985,6 +6162,9 @@
       <c r="L129">
         <v>1</v>
       </c>
+      <c r="N129" t="s">
+        <v>179</v>
+      </c>
       <c r="O129" t="s">
         <v>21</v>
       </c>
@@ -6023,6 +6203,9 @@
       <c r="L130">
         <v>1</v>
       </c>
+      <c r="N130" t="s">
+        <v>179</v>
+      </c>
       <c r="O130" t="s">
         <v>21</v>
       </c>
@@ -6061,6 +6244,9 @@
       <c r="L131">
         <v>1</v>
       </c>
+      <c r="N131" t="s">
+        <v>179</v>
+      </c>
       <c r="O131" t="s">
         <v>21</v>
       </c>
@@ -6098,6 +6284,9 @@
       </c>
       <c r="L132">
         <v>1</v>
+      </c>
+      <c r="N132" t="s">
+        <v>179</v>
       </c>
       <c r="O132" t="s">
         <v>21</v>
@@ -6139,6 +6328,15 @@
       <c r="E136" s="2">
         <v>43212.502083333333</v>
       </c>
+      <c r="F136" t="s">
+        <v>24</v>
+      </c>
+      <c r="N136" t="s">
+        <v>375</v>
+      </c>
+      <c r="O136" t="s">
+        <v>374</v>
+      </c>
       <c r="V136" s="3"/>
       <c r="X136" s="2"/>
       <c r="Y136" s="2"/>
@@ -6159,7 +6357,21 @@
       <c r="E137" s="2">
         <v>43212.527777777781</v>
       </c>
-      <c r="F137" s="2"/>
+      <c r="F137" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J137" t="s">
+        <v>15</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="N137" t="s">
+        <v>375</v>
+      </c>
+      <c r="O137" t="s">
+        <v>374</v>
+      </c>
       <c r="V137" s="3"/>
       <c r="X137" s="2"/>
       <c r="Y137" s="2"/>
@@ -6180,7 +6392,24 @@
       <c r="E138" s="2">
         <v>43212.532638888886</v>
       </c>
-      <c r="F138" s="2"/>
+      <c r="F138" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J138" t="s">
+        <v>16</v>
+      </c>
+      <c r="L138">
+        <v>2</v>
+      </c>
+      <c r="M138" t="s">
+        <v>376</v>
+      </c>
+      <c r="N138" t="s">
+        <v>375</v>
+      </c>
+      <c r="O138" t="s">
+        <v>374</v>
+      </c>
       <c r="V138" s="3"/>
       <c r="X138" s="2"/>
       <c r="Y138" s="2"/>
@@ -6201,7 +6430,30 @@
       <c r="E139" s="2">
         <v>43212.552083333336</v>
       </c>
-      <c r="F139" s="2"/>
+      <c r="F139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G139">
+        <v>38</v>
+      </c>
+      <c r="H139">
+        <v>62</v>
+      </c>
+      <c r="I139" t="s">
+        <v>154</v>
+      </c>
+      <c r="J139" t="s">
+        <v>10</v>
+      </c>
+      <c r="L139">
+        <v>2</v>
+      </c>
+      <c r="N139" t="s">
+        <v>375</v>
+      </c>
+      <c r="O139" t="s">
+        <v>374</v>
+      </c>
       <c r="V139" s="3"/>
       <c r="X139" s="2"/>
       <c r="Y139" s="2"/>
@@ -6222,7 +6474,30 @@
       <c r="E140" s="2">
         <v>43212.578472222223</v>
       </c>
-      <c r="F140" s="2"/>
+      <c r="F140" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G140">
+        <v>96</v>
+      </c>
+      <c r="H140">
+        <v>38</v>
+      </c>
+      <c r="I140" t="s">
+        <v>154</v>
+      </c>
+      <c r="J140" t="s">
+        <v>10</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="N140" t="s">
+        <v>375</v>
+      </c>
+      <c r="O140" t="s">
+        <v>374</v>
+      </c>
       <c r="V140" s="3"/>
       <c r="X140" s="2"/>
       <c r="Y140" s="2"/>
@@ -6243,7 +6518,21 @@
       <c r="E141" s="2">
         <v>43212.597916666666</v>
       </c>
-      <c r="F141" s="2"/>
+      <c r="F141" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L141">
+        <v>2</v>
+      </c>
+      <c r="M141" t="s">
+        <v>377</v>
+      </c>
+      <c r="N141" t="s">
+        <v>375</v>
+      </c>
+      <c r="O141" t="s">
+        <v>374</v>
+      </c>
       <c r="V141" s="3"/>
       <c r="X141" s="2"/>
       <c r="Y141" s="2"/>
@@ -6264,7 +6553,30 @@
       <c r="E142" s="2">
         <v>43212.602083333331</v>
       </c>
-      <c r="F142" s="2"/>
+      <c r="F142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G142">
+        <v>21</v>
+      </c>
+      <c r="H142">
+        <v>270</v>
+      </c>
+      <c r="J142" t="s">
+        <v>16</v>
+      </c>
+      <c r="L142">
+        <v>5</v>
+      </c>
+      <c r="M142" t="s">
+        <v>378</v>
+      </c>
+      <c r="N142" t="s">
+        <v>375</v>
+      </c>
+      <c r="O142" t="s">
+        <v>374</v>
+      </c>
       <c r="V142" s="3"/>
       <c r="X142" s="2"/>
       <c r="Y142" s="2"/>
@@ -6274,18 +6586,41 @@
         <v>4</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="C143" s="3">
-        <v>6990191375385</v>
+        <v>6990170375364</v>
       </c>
       <c r="D143" t="s">
         <v>257</v>
       </c>
       <c r="E143" s="2">
-        <v>43212.603472222225</v>
-      </c>
-      <c r="F143" s="2"/>
+        <v>43212.602083333331</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G143">
+        <v>21</v>
+      </c>
+      <c r="H143">
+        <v>270</v>
+      </c>
+      <c r="J143" t="s">
+        <v>16</v>
+      </c>
+      <c r="L143">
+        <v>5</v>
+      </c>
+      <c r="M143" t="s">
+        <v>378</v>
+      </c>
+      <c r="N143" t="s">
+        <v>375</v>
+      </c>
+      <c r="O143" t="s">
+        <v>374</v>
+      </c>
       <c r="V143" s="3"/>
       <c r="X143" s="2"/>
       <c r="Y143" s="2"/>
@@ -6295,18 +6630,32 @@
         <v>4</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C144" s="3">
-        <v>6990210375427</v>
+        <v>6990191375385</v>
       </c>
       <c r="D144" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E144" s="2">
-        <v>43212.605555555558</v>
-      </c>
-      <c r="F144" s="2"/>
+        <v>43212.603472222225</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L144">
+        <v>2</v>
+      </c>
+      <c r="M144" t="s">
+        <v>379</v>
+      </c>
+      <c r="N144" t="s">
+        <v>375</v>
+      </c>
+      <c r="O144" t="s">
+        <v>374</v>
+      </c>
       <c r="V144" s="3"/>
       <c r="X144" s="2"/>
       <c r="Y144" s="2"/>
@@ -6316,18 +6665,26 @@
         <v>4</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C145" s="3">
-        <v>6990230375384</v>
+        <v>6990210375427</v>
       </c>
       <c r="D145" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E145" s="2">
-        <v>43212.60833333333</v>
-      </c>
-      <c r="F145" s="2"/>
+        <v>43212.605555555558</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N145" t="s">
+        <v>375</v>
+      </c>
+      <c r="O145" t="s">
+        <v>374</v>
+      </c>
       <c r="V145" s="3"/>
       <c r="X145" s="2"/>
       <c r="Y145" s="2"/>
@@ -6337,18 +6694,38 @@
         <v>4</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="C146" s="3">
-        <v>6990289375215</v>
+        <v>6990230375384</v>
       </c>
       <c r="D146" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E146" s="2">
-        <v>43212.612500000003</v>
-      </c>
-      <c r="F146" s="2"/>
+        <v>43212.60833333333</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G146">
+        <v>0.33</v>
+      </c>
+      <c r="H146">
+        <v>90</v>
+      </c>
+      <c r="L146">
+        <v>3</v>
+      </c>
+      <c r="M146" t="s">
+        <v>380</v>
+      </c>
+      <c r="N146" t="s">
+        <v>375</v>
+      </c>
+      <c r="O146" t="s">
+        <v>374</v>
+      </c>
       <c r="V146" s="3"/>
       <c r="X146" s="2"/>
       <c r="Y146" s="2"/>
@@ -6358,18 +6735,29 @@
         <v>4</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C147" s="3">
-        <v>6990628374577</v>
+        <v>6990230375384</v>
       </c>
       <c r="D147" t="s">
-        <v>195</v>
+        <v>259</v>
       </c>
       <c r="E147" s="2">
-        <v>43212.630555555559</v>
-      </c>
-      <c r="F147" s="2"/>
+        <v>43212.60833333333</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L147">
+        <v>2</v>
+      </c>
+      <c r="N147" t="s">
+        <v>375</v>
+      </c>
+      <c r="O147" t="s">
+        <v>374</v>
+      </c>
       <c r="V147" s="3"/>
       <c r="X147" s="2"/>
       <c r="Y147" s="2"/>
@@ -6379,18 +6767,29 @@
         <v>4</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C148" s="3">
-        <v>6990629374568</v>
+        <v>6990289375215</v>
       </c>
       <c r="D148" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E148" s="2">
-        <v>43212.633333333331</v>
-      </c>
-      <c r="F148" s="2"/>
+        <v>43212.612500000003</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="N148" t="s">
+        <v>375</v>
+      </c>
+      <c r="O148" t="s">
+        <v>374</v>
+      </c>
       <c r="V148" s="3"/>
       <c r="X148" s="2"/>
       <c r="Y148" s="2"/>
@@ -6400,18 +6799,35 @@
         <v>4</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C149" s="3">
-        <v>6990677374405</v>
+        <v>6990628374577</v>
       </c>
       <c r="D149" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E149" s="2">
-        <v>43212.638194444444</v>
-      </c>
-      <c r="F149" s="2"/>
+        <v>43212.630555555559</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J149" t="s">
+        <v>10</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="M149" t="s">
+        <v>381</v>
+      </c>
+      <c r="N149" t="s">
+        <v>375</v>
+      </c>
+      <c r="O149" t="s">
+        <v>374</v>
+      </c>
       <c r="V149" s="3"/>
       <c r="X149" s="2"/>
       <c r="Y149" s="2"/>
@@ -6421,18 +6837,32 @@
         <v>4</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C150" s="3">
-        <v>6990844373780</v>
+        <v>6990629374568</v>
       </c>
       <c r="D150" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E150" s="2">
-        <v>43212.65625</v>
-      </c>
-      <c r="F150" s="2"/>
+        <v>43212.633333333331</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150" t="s">
+        <v>382</v>
+      </c>
+      <c r="N150" t="s">
+        <v>375</v>
+      </c>
+      <c r="O150" t="s">
+        <v>374</v>
+      </c>
       <c r="V150" s="3"/>
       <c r="X150" s="2"/>
       <c r="Y150" s="2"/>
@@ -6442,213 +6872,238 @@
         <v>4</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C151" s="3">
-        <v>6990844373768</v>
+        <v>6990677374405</v>
       </c>
       <c r="D151" t="s">
-        <v>262</v>
+        <v>184</v>
       </c>
       <c r="E151" s="2">
-        <v>43212.658333333333</v>
-      </c>
-      <c r="F151" s="2"/>
+        <v>43212.638194444444</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L151">
+        <v>3</v>
+      </c>
+      <c r="M151" t="s">
+        <v>384</v>
+      </c>
+      <c r="N151" t="s">
+        <v>383</v>
+      </c>
+      <c r="O151" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>4</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C152" s="3">
-        <v>6991443371820</v>
+        <v>6990844373780</v>
       </c>
       <c r="D152" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E152" s="2">
-        <v>43212.684027777781</v>
-      </c>
-      <c r="F152" s="2"/>
+        <v>43212.65625</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L152">
+        <v>3</v>
+      </c>
+      <c r="M152" t="s">
+        <v>384</v>
+      </c>
+      <c r="N152" t="s">
+        <v>383</v>
+      </c>
+      <c r="O152" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>4</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C153" s="3">
-        <v>6991494371660</v>
+        <v>6990844373768</v>
       </c>
       <c r="D153" t="s">
-        <v>194</v>
+        <v>262</v>
       </c>
       <c r="E153" s="2">
-        <v>43212.69027777778</v>
-      </c>
-      <c r="F153" s="2"/>
+        <v>43212.658333333333</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L153">
+        <v>5</v>
+      </c>
+      <c r="M153" t="s">
+        <v>385</v>
+      </c>
+      <c r="N153" t="s">
+        <v>383</v>
+      </c>
+      <c r="O153" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>4</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C154" s="3">
-        <v>6991515371569</v>
+        <v>6991443371820</v>
       </c>
       <c r="D154" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E154" s="2">
-        <v>43212.693055555559</v>
-      </c>
-      <c r="F154" s="2"/>
+        <v>43212.684027777781</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L154">
+        <v>2</v>
+      </c>
+      <c r="N154" t="s">
+        <v>383</v>
+      </c>
+      <c r="O154" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>4</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C155" s="3">
-        <v>6990805371562</v>
+        <v>6991494371660</v>
       </c>
       <c r="D155" t="s">
-        <v>265</v>
+        <v>194</v>
       </c>
       <c r="E155" s="2">
-        <v>43212.711111111108</v>
-      </c>
-      <c r="F155" s="2"/>
+        <v>43212.69027777778</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G155">
+        <v>1.47</v>
+      </c>
+      <c r="H155">
+        <v>90</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155" t="s">
+        <v>385</v>
+      </c>
+      <c r="N155" t="s">
+        <v>383</v>
+      </c>
+      <c r="O155" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>118</v>
+        <v>4</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C156" s="3">
-        <v>6986351371839</v>
+        <v>6991515371569</v>
       </c>
       <c r="D156" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E156" s="2">
-        <v>43214.329861111109</v>
-      </c>
-      <c r="F156" s="2"/>
+        <v>43212.693055555559</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N156" t="s">
+        <v>383</v>
+      </c>
+      <c r="O156" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>118</v>
+        <v>4</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C157" s="3">
-        <v>6986386371687</v>
+        <v>6990805371562</v>
       </c>
       <c r="D157" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E157" s="2">
-        <v>43214.337500000001</v>
-      </c>
-    </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>118</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C158" s="3">
-        <v>6987014369871</v>
-      </c>
-      <c r="D158" t="s">
-        <v>215</v>
-      </c>
-      <c r="E158" s="2">
-        <v>43214.368750000001</v>
+        <v>43212.711111111108</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G157">
+        <v>3.24</v>
+      </c>
+      <c r="H157">
+        <v>270</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157" t="s">
+        <v>386</v>
+      </c>
+      <c r="N157" t="s">
+        <v>383</v>
+      </c>
+      <c r="O157" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>118</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C159" s="3">
-        <v>6987020369854</v>
-      </c>
-      <c r="D159" t="s">
-        <v>267</v>
-      </c>
-      <c r="E159" s="2">
-        <v>43214.370138888888</v>
-      </c>
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>118</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C160" s="3">
-        <v>6987269369101</v>
-      </c>
-      <c r="D160" t="s">
-        <v>268</v>
-      </c>
-      <c r="E160" s="2">
-        <v>43214.384722222225</v>
-      </c>
       <c r="F160" s="2"/>
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>118</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C161" s="3">
-        <v>6987410368637</v>
-      </c>
-      <c r="D161" t="s">
-        <v>248</v>
-      </c>
-      <c r="E161" s="2">
-        <v>43214.393055555556</v>
-      </c>
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>118</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C162" s="3">
-        <v>6987421368599</v>
-      </c>
-      <c r="D162" t="s">
-        <v>204</v>
-      </c>
-      <c r="E162" s="2">
-        <v>43214.396527777775</v>
-      </c>
       <c r="F162" s="2"/>
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.2">
@@ -6656,16 +7111,16 @@
         <v>118</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="C163" s="3">
-        <v>6987429368563</v>
+        <v>6986351371839</v>
       </c>
       <c r="D163" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E163" s="2">
-        <v>43214.397916666669</v>
+        <v>43214.329861111109</v>
       </c>
       <c r="F163" s="2"/>
     </row>
@@ -6674,16 +7129,16 @@
         <v>118</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C164" s="3">
-        <v>6987443368443</v>
+        <v>6986386371687</v>
       </c>
       <c r="D164" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E164" s="2">
-        <v>43214.402083333334</v>
+        <v>43214.337500000001</v>
       </c>
       <c r="F164" s="2"/>
     </row>
@@ -6692,16 +7147,16 @@
         <v>118</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C165" s="3">
-        <v>6987441368434</v>
+        <v>6987014369871</v>
       </c>
       <c r="D165" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="E165" s="2">
-        <v>43214.40347222222</v>
+        <v>43214.368750000001</v>
       </c>
       <c r="F165" s="2"/>
     </row>
@@ -6710,16 +7165,16 @@
         <v>118</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C166" s="3">
-        <v>6987455368331</v>
+        <v>6987020369854</v>
       </c>
       <c r="D166" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E166" s="2">
-        <v>43214.40625</v>
+        <v>43214.370138888888</v>
       </c>
       <c r="F166" s="2"/>
     </row>
@@ -6728,16 +7183,16 @@
         <v>118</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C167" s="3">
-        <v>6987459368315</v>
+        <v>6987269369101</v>
       </c>
       <c r="D167" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E167" s="2">
-        <v>43214.407638888886</v>
+        <v>43214.384722222225</v>
       </c>
       <c r="F167" s="2"/>
     </row>
@@ -6746,16 +7201,16 @@
         <v>118</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C168" s="3">
-        <v>6987466368296</v>
+        <v>6987410368637</v>
       </c>
       <c r="D168" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="E168" s="2">
-        <v>43214.409722222219</v>
+        <v>43214.393055555556</v>
       </c>
       <c r="F168" s="2"/>
       <c r="W168" s="3"/>
@@ -6767,16 +7222,16 @@
         <v>118</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C169" s="3">
-        <v>6987485368260</v>
+        <v>6987421368599</v>
       </c>
       <c r="D169" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="E169" s="2">
-        <v>43214.411805555559</v>
+        <v>43214.396527777775</v>
       </c>
       <c r="F169" s="2"/>
       <c r="W169" s="3"/>
@@ -6788,16 +7243,16 @@
         <v>118</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C170" s="3">
-        <v>6987524368208</v>
+        <v>6987429368563</v>
       </c>
       <c r="D170" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E170" s="2">
-        <v>43214.413888888892</v>
+        <v>43214.397916666669</v>
       </c>
       <c r="F170" s="2"/>
       <c r="W170" s="3"/>
@@ -6809,16 +7264,16 @@
         <v>118</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C171" s="3">
-        <v>6987590368091</v>
+        <v>6987443368443</v>
       </c>
       <c r="D171" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E171" s="2">
-        <v>43214.417361111111</v>
+        <v>43214.402083333334</v>
       </c>
       <c r="F171" s="2"/>
       <c r="W171" s="3"/>
@@ -6830,16 +7285,16 @@
         <v>118</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C172" s="3">
-        <v>6987650367997</v>
+        <v>6987441368434</v>
       </c>
       <c r="D172" t="s">
-        <v>272</v>
+        <v>195</v>
       </c>
       <c r="E172" s="2">
-        <v>43214.420138888891</v>
+        <v>43214.40347222222</v>
       </c>
       <c r="F172" s="2"/>
       <c r="W172" s="3"/>
@@ -6851,16 +7306,16 @@
         <v>118</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C173" s="3">
-        <v>6987613368001</v>
+        <v>6987455368331</v>
       </c>
       <c r="D173" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E173" s="2">
-        <v>43214.425694444442</v>
+        <v>43214.40625</v>
       </c>
       <c r="F173" s="2"/>
       <c r="W173" s="3"/>
@@ -6872,16 +7327,16 @@
         <v>118</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C174" s="3">
-        <v>6987501367992</v>
+        <v>6987459368315</v>
       </c>
       <c r="D174" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E174" s="2">
-        <v>43214.429166666669</v>
+        <v>43214.407638888886</v>
       </c>
       <c r="F174" s="2"/>
       <c r="W174" s="3"/>
@@ -6893,16 +7348,16 @@
         <v>118</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C175" s="3">
-        <v>6987322367996</v>
+        <v>6987466368296</v>
       </c>
       <c r="D175" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="E175" s="2">
-        <v>43214.433333333334</v>
+        <v>43214.409722222219</v>
       </c>
       <c r="F175" s="2"/>
       <c r="W175" s="3"/>
@@ -6914,16 +7369,16 @@
         <v>118</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="C176" s="3">
-        <v>6987190368003</v>
+        <v>6987485368260</v>
       </c>
       <c r="D176" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="E176" s="2">
-        <v>43214.436111111114</v>
+        <v>43214.411805555559</v>
       </c>
       <c r="F176" s="2"/>
       <c r="W176" s="3"/>
@@ -6935,16 +7390,16 @@
         <v>118</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C177" s="3">
-        <v>6987126368006</v>
+        <v>6987524368208</v>
       </c>
       <c r="D177" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E177" s="2">
-        <v>43214.440972222219</v>
+        <v>43214.413888888892</v>
       </c>
       <c r="F177" s="2"/>
       <c r="W177" s="3"/>
@@ -6956,16 +7411,16 @@
         <v>118</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C178" s="3">
-        <v>6987106368011</v>
+        <v>6987590368091</v>
       </c>
       <c r="D178" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="E178" s="2">
-        <v>43214.443055555559</v>
+        <v>43214.417361111111</v>
       </c>
       <c r="F178" s="2"/>
       <c r="W178" s="3"/>
@@ -6977,16 +7432,16 @@
         <v>118</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C179" s="3">
-        <v>6987008368003</v>
+        <v>6987650367997</v>
       </c>
       <c r="D179" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="E179" s="2">
-        <v>43214.445138888892</v>
+        <v>43214.420138888891</v>
       </c>
       <c r="F179" s="2"/>
       <c r="W179" s="3"/>
@@ -6998,16 +7453,16 @@
         <v>118</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C180" s="3">
-        <v>6986836368006</v>
+        <v>6987613368001</v>
       </c>
       <c r="D180" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E180" s="2">
-        <v>43214.447916666664</v>
+        <v>43214.425694444442</v>
       </c>
       <c r="F180" s="2"/>
       <c r="W180" s="3"/>
@@ -7019,16 +7474,16 @@
         <v>118</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C181" s="3">
-        <v>6986753368006</v>
+        <v>6987501367992</v>
       </c>
       <c r="D181" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E181" s="2">
-        <v>43214.451388888891</v>
+        <v>43214.429166666669</v>
       </c>
       <c r="F181" s="2"/>
       <c r="W181" s="3"/>
@@ -7040,16 +7495,16 @@
         <v>118</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="C182" s="3">
-        <v>6986718368012</v>
+        <v>6987322367996</v>
       </c>
       <c r="D182" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E182" s="2">
-        <v>43214.453472222223</v>
+        <v>43214.433333333334</v>
       </c>
       <c r="F182" s="2"/>
       <c r="W182" s="3"/>
@@ -7061,16 +7516,16 @@
         <v>118</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C183" s="3">
-        <v>6986702368013</v>
+        <v>6987190368003</v>
       </c>
       <c r="D183" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="E183" s="2">
-        <v>43214.454861111109</v>
+        <v>43214.436111111114</v>
       </c>
       <c r="F183" s="2"/>
       <c r="W183" s="3"/>
@@ -7082,16 +7537,16 @@
         <v>118</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C184" s="3">
-        <v>6986418368015</v>
+        <v>6987126368006</v>
       </c>
       <c r="D184" t="s">
-        <v>234</v>
+        <v>276</v>
       </c>
       <c r="E184" s="2">
-        <v>43214.459722222222</v>
+        <v>43214.440972222219</v>
       </c>
       <c r="F184" s="2"/>
       <c r="W184" s="3"/>
@@ -7103,16 +7558,16 @@
         <v>118</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C185" s="3">
-        <v>6986368368024</v>
+        <v>6987106368011</v>
       </c>
       <c r="D185" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="E185" s="2">
-        <v>43214.461805555555</v>
+        <v>43214.443055555559</v>
       </c>
       <c r="F185" s="2"/>
       <c r="W185" s="3"/>
@@ -7124,16 +7579,16 @@
         <v>118</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C186" s="3">
-        <v>6986346368029</v>
+        <v>6987008368003</v>
       </c>
       <c r="D186" t="s">
-        <v>191</v>
+        <v>256</v>
       </c>
       <c r="E186" s="2">
-        <v>43214.463194444441</v>
+        <v>43214.445138888892</v>
       </c>
       <c r="F186" s="2"/>
       <c r="W186" s="3"/>
@@ -7145,16 +7600,16 @@
         <v>118</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C187" s="3">
-        <v>6985502368274</v>
+        <v>6986836368006</v>
       </c>
       <c r="D187" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="E187" s="2">
-        <v>43214.570833333331</v>
+        <v>43214.447916666664</v>
       </c>
       <c r="F187" s="2"/>
       <c r="W187" s="3"/>
@@ -7166,16 +7621,16 @@
         <v>118</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="C188" s="3">
-        <v>6985429368261</v>
+        <v>6986753368006</v>
       </c>
       <c r="D188" t="s">
-        <v>191</v>
+        <v>278</v>
       </c>
       <c r="E188" s="2">
-        <v>43214.572222222225</v>
+        <v>43214.451388888891</v>
       </c>
       <c r="F188" s="2"/>
       <c r="W188" s="3"/>
@@ -7187,16 +7642,16 @@
         <v>118</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C189" s="3">
-        <v>6985378368258</v>
+        <v>6986718368012</v>
       </c>
       <c r="D189" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E189" s="2">
-        <v>43214.574999999997</v>
+        <v>43214.453472222223</v>
       </c>
       <c r="F189" s="2"/>
       <c r="W189" s="3"/>
@@ -7208,16 +7663,16 @@
         <v>118</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C190" s="3">
-        <v>6985334368256</v>
+        <v>6986702368013</v>
       </c>
       <c r="D190" t="s">
-        <v>229</v>
+        <v>280</v>
       </c>
       <c r="E190" s="2">
-        <v>43214.576388888891</v>
+        <v>43214.454861111109</v>
       </c>
       <c r="F190" s="2"/>
       <c r="W190" s="3"/>
@@ -7229,16 +7684,16 @@
         <v>118</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="C191" s="3">
-        <v>6984661368326</v>
+        <v>6986418368015</v>
       </c>
       <c r="D191" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="E191" s="2">
-        <v>43214.586805555555</v>
+        <v>43214.459722222222</v>
       </c>
       <c r="F191" s="2"/>
       <c r="W191" s="3"/>
@@ -7250,16 +7705,16 @@
         <v>118</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="C192" s="3">
-        <v>6984343368423</v>
+        <v>6986368368024</v>
       </c>
       <c r="D192" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="E192" s="2">
-        <v>43214.598611111112</v>
+        <v>43214.461805555555</v>
       </c>
       <c r="F192" s="2"/>
       <c r="W192" s="3"/>
@@ -7271,16 +7726,16 @@
         <v>118</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="C193" s="3">
-        <v>6983885368701</v>
+        <v>6986346368029</v>
       </c>
       <c r="D193" t="s">
-        <v>282</v>
+        <v>191</v>
       </c>
       <c r="E193" s="2">
-        <v>43214.61041666667</v>
+        <v>43214.463194444441</v>
       </c>
       <c r="F193" s="2"/>
       <c r="W193" s="3"/>
@@ -7292,16 +7747,16 @@
         <v>118</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="C194" s="3">
-        <v>6983886368704</v>
+        <v>6985502368274</v>
       </c>
       <c r="D194" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="E194" s="2">
-        <v>43214.611111111109</v>
+        <v>43214.570833333331</v>
       </c>
       <c r="F194" s="2"/>
       <c r="W194" s="3"/>
@@ -7313,16 +7768,16 @@
         <v>118</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C195" s="3">
-        <v>6983932368876</v>
+        <v>6985429368261</v>
       </c>
       <c r="D195" t="s">
-        <v>283</v>
+        <v>191</v>
       </c>
       <c r="E195" s="2">
-        <v>43214.615277777775</v>
+        <v>43214.572222222225</v>
       </c>
       <c r="F195" s="2"/>
       <c r="W195" s="3"/>
@@ -7334,16 +7789,16 @@
         <v>118</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C196" s="3">
-        <v>6984040369029</v>
+        <v>6985378368258</v>
       </c>
       <c r="D196" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="E196" s="2">
-        <v>43214.620833333334</v>
+        <v>43214.574999999997</v>
       </c>
       <c r="F196" s="2"/>
       <c r="W196" s="3"/>
@@ -7355,16 +7810,16 @@
         <v>118</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C197" s="3">
-        <v>6984113369166</v>
+        <v>6985334368256</v>
       </c>
       <c r="D197" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
       <c r="E197" s="2">
-        <v>43214.624305555553</v>
+        <v>43214.576388888891</v>
       </c>
       <c r="F197" s="2"/>
       <c r="W197" s="3"/>
@@ -7376,16 +7831,16 @@
         <v>118</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C198" s="3">
-        <v>6984182369282</v>
+        <v>6984661368326</v>
       </c>
       <c r="D198" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="E198" s="2">
-        <v>43214.631249999999</v>
+        <v>43214.586805555555</v>
       </c>
       <c r="F198" s="2"/>
       <c r="W198" s="3"/>
@@ -7397,16 +7852,16 @@
         <v>118</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="C199" s="3">
-        <v>6984622369926</v>
+        <v>6984343368423</v>
       </c>
       <c r="D199" t="s">
-        <v>285</v>
+        <v>243</v>
       </c>
       <c r="E199" s="2">
-        <v>43214.65</v>
+        <v>43214.598611111112</v>
       </c>
       <c r="F199" s="2"/>
       <c r="W199" s="3"/>
@@ -7418,16 +7873,16 @@
         <v>118</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="C200" s="3">
-        <v>6984813370226</v>
+        <v>6983885368701</v>
       </c>
       <c r="D200" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E200" s="2">
-        <v>43214.65625</v>
+        <v>43214.61041666667</v>
       </c>
       <c r="F200" s="2"/>
       <c r="W200" s="3"/>
@@ -7439,16 +7894,16 @@
         <v>118</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C201" s="3">
-        <v>6984903370347</v>
+        <v>6983886368704</v>
       </c>
       <c r="D201" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="E201" s="2">
-        <v>43214.661111111112</v>
+        <v>43214.611111111109</v>
       </c>
       <c r="F201" s="2"/>
       <c r="W201" s="3"/>
@@ -7460,16 +7915,16 @@
         <v>118</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C202" s="3">
-        <v>6985340370905</v>
+        <v>6983932368876</v>
       </c>
       <c r="D202" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E202" s="2">
-        <v>43214.67083333333</v>
+        <v>43214.615277777775</v>
       </c>
       <c r="F202" s="2"/>
       <c r="W202" s="3"/>
@@ -7478,19 +7933,19 @@
     </row>
     <row r="203" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="C203" s="3">
-        <v>6978330345945</v>
+        <v>6984040369029</v>
       </c>
       <c r="D203" t="s">
-        <v>289</v>
+        <v>238</v>
       </c>
       <c r="E203" s="2">
-        <v>43216.280555555553</v>
+        <v>43214.620833333334</v>
       </c>
       <c r="F203" s="2"/>
       <c r="W203" s="3"/>
@@ -7499,19 +7954,19 @@
     </row>
     <row r="204" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C204" s="3">
-        <v>6978333351234</v>
+        <v>6984113369166</v>
       </c>
       <c r="D204" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E204" s="2">
-        <v>43216.380555555559</v>
+        <v>43214.624305555553</v>
       </c>
       <c r="F204" s="2"/>
       <c r="W204" s="3"/>
@@ -7520,19 +7975,19 @@
     </row>
     <row r="205" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="C205" s="3">
-        <v>6978221351667</v>
+        <v>6984182369282</v>
       </c>
       <c r="D205" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="E205" s="2">
-        <v>43216.390972222223</v>
+        <v>43214.631249999999</v>
       </c>
       <c r="F205" s="2"/>
       <c r="W205" s="3"/>
@@ -7541,19 +7996,19 @@
     </row>
     <row r="206" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="C206" s="3">
-        <v>6977654353487</v>
+        <v>6984622369926</v>
       </c>
       <c r="D206" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="E206" s="2">
-        <v>43216.40625</v>
+        <v>43214.65</v>
       </c>
       <c r="W206" s="3"/>
       <c r="Y206" s="2"/>
@@ -7561,19 +8016,19 @@
     </row>
     <row r="207" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="C207" s="3">
-        <v>6977528353996</v>
+        <v>6984813370226</v>
       </c>
       <c r="D207" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E207" s="2">
-        <v>43216.413888888892</v>
+        <v>43214.65625</v>
       </c>
       <c r="W207" s="3"/>
       <c r="Y207" s="2"/>
@@ -7581,19 +8036,19 @@
     </row>
     <row r="208" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="C208" s="3">
-        <v>6977484354587</v>
+        <v>6984903370347</v>
       </c>
       <c r="D208" t="s">
-        <v>209</v>
+        <v>287</v>
       </c>
       <c r="E208" s="2">
-        <v>43216.42291666667</v>
+        <v>43214.661111111112</v>
       </c>
       <c r="F208" s="2"/>
       <c r="W208" s="3"/>
@@ -7602,19 +8057,19 @@
     </row>
     <row r="209" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="C209" s="3">
-        <v>6977493354708</v>
+        <v>6985340370905</v>
       </c>
       <c r="D209" t="s">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c r="E209" s="2">
-        <v>43216.426388888889</v>
+        <v>43214.67083333333</v>
       </c>
       <c r="F209" s="2"/>
       <c r="W209" s="3"/>
@@ -7626,16 +8081,16 @@
         <v>122</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="C210" s="3">
-        <v>6977510354981</v>
+        <v>6978330345945</v>
       </c>
       <c r="D210" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="E210" s="2">
-        <v>43216.430555555555</v>
+        <v>43216.280555555553</v>
       </c>
       <c r="F210" s="2"/>
       <c r="W210" s="3"/>
@@ -7647,16 +8102,16 @@
         <v>122</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="C211" s="3">
-        <v>6977503355128</v>
+        <v>6978333351234</v>
       </c>
       <c r="D211" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E211" s="2">
-        <v>43216.431944444441</v>
+        <v>43216.380555555559</v>
       </c>
       <c r="F211" s="2"/>
       <c r="W211" s="3"/>
@@ -7668,16 +8123,16 @@
         <v>122</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C212" s="3">
-        <v>6977550355108</v>
+        <v>6978221351667</v>
       </c>
       <c r="D212" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E212" s="2">
-        <v>43216.442361111112</v>
+        <v>43216.390972222223</v>
       </c>
       <c r="F212" s="2"/>
       <c r="W212" s="3"/>
@@ -7689,16 +8144,16 @@
         <v>122</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="C213" s="3">
-        <v>6977799355071</v>
+        <v>6977654353487</v>
       </c>
       <c r="D213" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="E213" s="2">
-        <v>43216.448611111111</v>
+        <v>43216.40625</v>
       </c>
       <c r="F213" s="2"/>
       <c r="W213" s="3"/>
@@ -7710,16 +8165,16 @@
         <v>122</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C214" s="3">
-        <v>6978993354678</v>
+        <v>6977528353996</v>
       </c>
       <c r="D214" t="s">
-        <v>373</v>
+        <v>291</v>
       </c>
       <c r="E214" s="2">
-        <v>43216.490277777775</v>
+        <v>43216.413888888892</v>
       </c>
       <c r="F214" s="2"/>
       <c r="W214" s="3"/>
@@ -7731,16 +8186,16 @@
         <v>122</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="C215" s="3">
-        <v>6980084354118</v>
+        <v>6977484354587</v>
       </c>
       <c r="D215" t="s">
-        <v>282</v>
+        <v>209</v>
       </c>
       <c r="E215" s="2">
-        <v>43216.490277777775</v>
+        <v>43216.42291666667</v>
       </c>
       <c r="F215" s="2"/>
     </row>
@@ -7749,16 +8204,16 @@
         <v>122</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C216" s="3">
-        <v>6981270353841</v>
+        <v>6977493354708</v>
       </c>
       <c r="D216" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="E216" s="2">
-        <v>43216.509027777778</v>
+        <v>43216.426388888889</v>
       </c>
       <c r="F216" s="2"/>
     </row>
@@ -7767,16 +8222,16 @@
         <v>122</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C217" s="3">
-        <v>6980911353777</v>
+        <v>6977510354981</v>
       </c>
       <c r="D217" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="E217" s="2">
-        <v>43216.606249999997</v>
+        <v>43216.430555555555</v>
       </c>
       <c r="F217" s="2"/>
     </row>
@@ -7785,16 +8240,16 @@
         <v>122</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C218" s="3">
-        <v>6980531353694</v>
+        <v>6977503355128</v>
       </c>
       <c r="D218" t="s">
-        <v>219</v>
+        <v>292</v>
       </c>
       <c r="E218" s="2">
-        <v>43216.615277777775</v>
+        <v>43216.431944444441</v>
       </c>
       <c r="F218" s="2"/>
     </row>
@@ -7803,16 +8258,16 @@
         <v>122</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C219" s="3">
-        <v>6980411353676</v>
+        <v>6977550355108</v>
       </c>
       <c r="D219" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E219" s="2">
-        <v>43216.620138888888</v>
+        <v>43216.442361111112</v>
       </c>
       <c r="F219" s="2"/>
     </row>
@@ -7821,16 +8276,16 @@
         <v>122</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="C220" s="3">
-        <v>6980373353646</v>
+        <v>6977799355071</v>
       </c>
       <c r="D220" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E220" s="2">
-        <v>43216.622916666667</v>
+        <v>43216.448611111111</v>
       </c>
       <c r="F220" s="2"/>
     </row>
@@ -7839,16 +8294,16 @@
         <v>122</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="C221" s="3">
-        <v>6980103353507</v>
+        <v>6978993354678</v>
       </c>
       <c r="D221" t="s">
-        <v>183</v>
+        <v>373</v>
       </c>
       <c r="E221" s="2">
-        <v>43216.62777777778</v>
+        <v>43216.490277777775</v>
       </c>
       <c r="F221" s="2"/>
     </row>
@@ -7857,16 +8312,16 @@
         <v>122</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C222" s="3">
-        <v>6979753353371</v>
+        <v>6980084354118</v>
       </c>
       <c r="D222" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="E222" s="2">
-        <v>43216.634722222225</v>
+        <v>43216.490277777775</v>
       </c>
       <c r="F222" s="2"/>
     </row>
@@ -7875,16 +8330,16 @@
         <v>122</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C223" s="3">
-        <v>6979459353143</v>
+        <v>6981270353841</v>
       </c>
       <c r="D223" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="E223" s="2">
-        <v>43216.640972222223</v>
+        <v>43216.509027777778</v>
       </c>
       <c r="F223" s="2"/>
     </row>
@@ -7893,16 +8348,16 @@
         <v>122</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C224" s="3">
-        <v>6979305353040</v>
+        <v>6980911353777</v>
       </c>
       <c r="D224" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="E224" s="2">
-        <v>43216.645138888889</v>
+        <v>43216.606249999997</v>
       </c>
       <c r="F224" s="2"/>
     </row>
@@ -7911,16 +8366,16 @@
         <v>122</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="C225" s="3">
-        <v>6979202352873</v>
+        <v>6980531353694</v>
       </c>
       <c r="D225" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="E225" s="2">
-        <v>43216.650694444441</v>
+        <v>43216.615277777775</v>
       </c>
       <c r="F225" s="2"/>
     </row>
@@ -7929,141 +8384,141 @@
         <v>122</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C226" s="3">
-        <v>6978426351327</v>
+        <v>6980411353676</v>
       </c>
       <c r="D226" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E226" s="2">
-        <v>43216.677083333336</v>
+        <v>43216.620138888888</v>
       </c>
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="C227" s="3">
-        <v>6982302355715</v>
+        <v>6980373353646</v>
       </c>
       <c r="D227" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E227" s="2">
-        <v>43217.268750000003</v>
+        <v>43216.622916666667</v>
       </c>
       <c r="F227" s="2"/>
     </row>
     <row r="228" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="C228" s="3">
-        <v>6983090356519</v>
+        <v>6980103353507</v>
       </c>
       <c r="D228" t="s">
-        <v>301</v>
+        <v>183</v>
       </c>
       <c r="E228" s="2">
-        <v>43217.288194444445</v>
+        <v>43216.62777777778</v>
       </c>
       <c r="F228" s="2"/>
     </row>
     <row r="229" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C229" s="3">
-        <v>6983032356674</v>
+        <v>6979753353371</v>
       </c>
       <c r="D229" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E229" s="2">
-        <v>43217.292361111111</v>
+        <v>43216.634722222225</v>
       </c>
       <c r="F229" s="2"/>
     </row>
     <row r="230" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C230" s="3">
-        <v>6982991356782</v>
+        <v>6979459353143</v>
       </c>
       <c r="D230" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E230" s="2">
-        <v>43217.294444444444</v>
+        <v>43216.640972222223</v>
       </c>
       <c r="F230" s="2"/>
     </row>
     <row r="231" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C231" s="3">
-        <v>6982916356948</v>
+        <v>6979305353040</v>
       </c>
       <c r="D231" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E231" s="2">
-        <v>43217.296527777777</v>
+        <v>43216.645138888889</v>
       </c>
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="C232" s="3">
-        <v>6982928357079</v>
+        <v>6979202352873</v>
       </c>
       <c r="D232" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E232" s="2">
-        <v>43217.298611111109</v>
+        <v>43216.650694444441</v>
       </c>
     </row>
     <row r="233" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C233" s="3">
-        <v>6982958357172</v>
+        <v>6978426351327</v>
       </c>
       <c r="D233" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E233" s="2">
-        <v>43217.3</v>
+        <v>43216.677083333336</v>
       </c>
     </row>
     <row r="234" spans="1:26" x14ac:dyDescent="0.2">
@@ -8071,16 +8526,16 @@
         <v>126</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="C234" s="3">
-        <v>6982732357448</v>
+        <v>6982302355715</v>
       </c>
       <c r="D234" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E234" s="2">
-        <v>43217.305555555555</v>
+        <v>43217.268750000003</v>
       </c>
       <c r="F234" s="2"/>
     </row>
@@ -8089,16 +8544,16 @@
         <v>126</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C235" s="3">
-        <v>6982630357699</v>
+        <v>6983090356519</v>
       </c>
       <c r="D235" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E235" s="2">
-        <v>43217.30972222222</v>
+        <v>43217.288194444445</v>
       </c>
       <c r="F235" s="2"/>
       <c r="W235" s="3"/>
@@ -8110,16 +8565,16 @@
         <v>126</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C236" s="3">
-        <v>6982183358919</v>
+        <v>6983032356674</v>
       </c>
       <c r="D236" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E236" s="2">
-        <v>43217.379861111112</v>
+        <v>43217.292361111111</v>
       </c>
       <c r="F236" s="2"/>
       <c r="W236" s="3"/>
@@ -8131,16 +8586,16 @@
         <v>126</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="C237" s="3">
-        <v>6982114359058</v>
+        <v>6982991356782</v>
       </c>
       <c r="D237" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E237" s="2">
-        <v>43217.384027777778</v>
+        <v>43217.294444444444</v>
       </c>
       <c r="F237" s="2"/>
       <c r="W237" s="3"/>
@@ -8152,16 +8607,16 @@
         <v>126</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C238" s="3">
-        <v>6982006359291</v>
+        <v>6982916356948</v>
       </c>
       <c r="D238" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="E238" s="2">
-        <v>43217.388888888891</v>
+        <v>43217.296527777777</v>
       </c>
       <c r="F238" s="2"/>
       <c r="W238" s="3"/>
@@ -8173,16 +8628,16 @@
         <v>126</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="C239" s="3">
-        <v>6981940359461</v>
+        <v>6982928357079</v>
       </c>
       <c r="D239" t="s">
-        <v>240</v>
+        <v>304</v>
       </c>
       <c r="E239" s="2">
-        <v>43217.392361111109</v>
+        <v>43217.298611111109</v>
       </c>
       <c r="F239" s="2"/>
       <c r="W239" s="3"/>
@@ -8197,13 +8652,13 @@
         <v>51</v>
       </c>
       <c r="C240" s="3">
-        <v>6981870359749</v>
+        <v>6982958357172</v>
       </c>
       <c r="D240" t="s">
-        <v>256</v>
+        <v>305</v>
       </c>
       <c r="E240" s="2">
-        <v>43217.4</v>
+        <v>43217.3</v>
       </c>
       <c r="F240" s="2"/>
       <c r="W240" s="3"/>
@@ -8215,16 +8670,16 @@
         <v>126</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C241" s="3">
-        <v>6981921360308</v>
+        <v>6982732357448</v>
       </c>
       <c r="D241" t="s">
-        <v>215</v>
+        <v>306</v>
       </c>
       <c r="E241" s="2">
-        <v>43217.407638888886</v>
+        <v>43217.305555555555</v>
       </c>
       <c r="F241" s="2"/>
       <c r="W241" s="3"/>
@@ -8236,16 +8691,16 @@
         <v>126</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C242" s="3">
-        <v>6983945359739</v>
+        <v>6982630357699</v>
       </c>
       <c r="D242" t="s">
-        <v>222</v>
+        <v>293</v>
       </c>
       <c r="E242" s="2">
-        <v>43217.45208333333</v>
+        <v>43217.30972222222</v>
       </c>
       <c r="F242" s="2"/>
       <c r="W242" s="3"/>
@@ -8257,16 +8712,16 @@
         <v>126</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C243" s="3">
-        <v>6984478359678</v>
+        <v>6982183358919</v>
       </c>
       <c r="D243" t="s">
-        <v>200</v>
+        <v>307</v>
       </c>
       <c r="E243" s="2">
-        <v>43217.461805555555</v>
+        <v>43217.379861111112</v>
       </c>
       <c r="F243" s="2"/>
       <c r="W243" s="3"/>
@@ -8278,16 +8733,16 @@
         <v>126</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="C244" s="3">
-        <v>6984553359647</v>
+        <v>6982114359058</v>
       </c>
       <c r="D244" t="s">
-        <v>200</v>
+        <v>308</v>
       </c>
       <c r="E244" s="2">
-        <v>43217.465277777781</v>
+        <v>43217.384027777778</v>
       </c>
       <c r="F244" s="2"/>
       <c r="W244" s="3"/>
@@ -8299,16 +8754,16 @@
         <v>126</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="C245" s="3">
-        <v>6985096359518</v>
+        <v>6982006359291</v>
       </c>
       <c r="D245" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="E245" s="2">
-        <v>43217.475694444445</v>
+        <v>43217.388888888891</v>
       </c>
       <c r="F245" s="2"/>
       <c r="W245" s="3"/>
@@ -8320,16 +8775,16 @@
         <v>126</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C246" s="3">
-        <v>6985863359293</v>
+        <v>6981940359461</v>
       </c>
       <c r="D246" t="s">
-        <v>310</v>
+        <v>240</v>
       </c>
       <c r="E246" s="2">
-        <v>43217.490972222222</v>
+        <v>43217.392361111109</v>
       </c>
       <c r="F246" s="2"/>
       <c r="W246" s="3"/>
@@ -8341,16 +8796,16 @@
         <v>126</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="C247" s="3">
-        <v>6985409358759</v>
+        <v>6981870359749</v>
       </c>
       <c r="D247" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="E247" s="2">
-        <v>43217.513194444444</v>
+        <v>43217.4</v>
       </c>
       <c r="F247" s="2"/>
       <c r="W247" s="3"/>
@@ -8362,16 +8817,16 @@
         <v>126</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="C248" s="3">
-        <v>6985041358323</v>
+        <v>6981921360308</v>
       </c>
       <c r="D248" t="s">
-        <v>279</v>
+        <v>215</v>
       </c>
       <c r="E248" s="2">
-        <v>43217.520138888889</v>
+        <v>43217.407638888886</v>
       </c>
       <c r="F248" s="2"/>
       <c r="W248" s="3"/>
@@ -8383,16 +8838,16 @@
         <v>126</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="C249" s="3">
-        <v>6983184356513</v>
+        <v>6983945359739</v>
       </c>
       <c r="D249" t="s">
-        <v>311</v>
+        <v>222</v>
       </c>
       <c r="E249" s="2">
-        <v>43217.554166666669</v>
+        <v>43217.45208333333</v>
       </c>
       <c r="F249" s="2"/>
       <c r="W249" s="3"/>
@@ -8401,19 +8856,19 @@
     </row>
     <row r="250" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C250" s="3">
-        <v>7005963362616</v>
+        <v>6984478359678</v>
       </c>
       <c r="D250" t="s">
-        <v>324</v>
+        <v>200</v>
       </c>
       <c r="E250" s="2">
-        <v>43220.375</v>
+        <v>43217.461805555555</v>
       </c>
       <c r="F250" s="2"/>
       <c r="W250" s="3"/>
@@ -8422,19 +8877,19 @@
     </row>
     <row r="251" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C251" s="3">
-        <v>7005930362243</v>
+        <v>6984553359647</v>
       </c>
       <c r="D251" t="s">
-        <v>312</v>
+        <v>200</v>
       </c>
       <c r="E251" s="2">
-        <v>43220.384027777778</v>
+        <v>43217.465277777781</v>
       </c>
       <c r="F251" s="2"/>
       <c r="W251" s="3"/>
@@ -8443,19 +8898,19 @@
     </row>
     <row r="252" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C252" s="3">
-        <v>7005887361616</v>
+        <v>6985096359518</v>
       </c>
       <c r="D252" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E252" s="2">
-        <v>43220.38958333333</v>
+        <v>43217.475694444445</v>
       </c>
       <c r="F252" s="2"/>
       <c r="W252" s="3"/>
@@ -8464,19 +8919,19 @@
     </row>
     <row r="253" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C253" s="3">
-        <v>7005948361408</v>
+        <v>6985863359293</v>
       </c>
       <c r="D253" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E253" s="2">
-        <v>43220.393055555556</v>
+        <v>43217.490972222222</v>
       </c>
       <c r="F253" s="2"/>
       <c r="W253" s="3"/>
@@ -8485,19 +8940,19 @@
     </row>
     <row r="254" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="C254" s="3">
-        <v>7006091360439</v>
+        <v>6985409358759</v>
       </c>
       <c r="D254" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="E254" s="2">
-        <v>43220.415277777778</v>
+        <v>43217.513194444444</v>
       </c>
       <c r="F254" s="2"/>
       <c r="W254" s="3"/>
@@ -8506,19 +8961,19 @@
     </row>
     <row r="255" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="C255" s="3">
-        <v>7006105360299</v>
+        <v>6985041358323</v>
       </c>
       <c r="D255" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="E255" s="2">
-        <v>43220.418055555558</v>
+        <v>43217.520138888889</v>
       </c>
       <c r="F255" s="2"/>
       <c r="W255" s="3"/>
@@ -8527,19 +8982,19 @@
     </row>
     <row r="256" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="C256" s="3">
-        <v>7006130360148</v>
+        <v>6983184356513</v>
       </c>
       <c r="D256" t="s">
-        <v>254</v>
+        <v>311</v>
       </c>
       <c r="E256" s="2">
-        <v>43220.422222222223</v>
+        <v>43217.554166666669</v>
       </c>
       <c r="F256" s="2"/>
       <c r="W256" s="3"/>
@@ -8551,16 +9006,16 @@
         <v>146</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="C257" s="3">
-        <v>7006133360128</v>
+        <v>7005963362616</v>
       </c>
       <c r="D257" t="s">
-        <v>254</v>
+        <v>324</v>
       </c>
       <c r="E257" s="2">
-        <v>43220.424305555556</v>
+        <v>43220.375</v>
       </c>
       <c r="W257" s="3"/>
       <c r="Y257" s="2"/>
@@ -8571,16 +9026,16 @@
         <v>146</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C258" s="3">
-        <v>7006146360075</v>
+        <v>7005930362243</v>
       </c>
       <c r="D258" t="s">
-        <v>226</v>
+        <v>312</v>
       </c>
       <c r="E258" s="2">
-        <v>43220.425694444442</v>
+        <v>43220.384027777778</v>
       </c>
       <c r="W258" s="3"/>
       <c r="Y258" s="2"/>
@@ -8591,16 +9046,16 @@
         <v>146</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C259" s="3">
-        <v>7006171360032</v>
+        <v>7005887361616</v>
       </c>
       <c r="D259" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="E259" s="2">
-        <v>43220.427777777775</v>
+        <v>43220.38958333333</v>
       </c>
       <c r="F259" s="2"/>
       <c r="W259" s="3"/>
@@ -8612,16 +9067,16 @@
         <v>146</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C260" s="3">
-        <v>7006203359711</v>
+        <v>7005948361408</v>
       </c>
       <c r="D260" t="s">
-        <v>234</v>
+        <v>314</v>
       </c>
       <c r="E260" s="2">
-        <v>43220.432638888888</v>
+        <v>43220.393055555556</v>
       </c>
       <c r="F260" s="2"/>
       <c r="W260" s="3"/>
@@ -8633,16 +9088,16 @@
         <v>146</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="C261" s="3">
-        <v>7006211359605</v>
+        <v>7006091360439</v>
       </c>
       <c r="D261" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E261" s="2">
-        <v>43220.43472222222</v>
+        <v>43220.415277777778</v>
       </c>
       <c r="F261" s="2"/>
     </row>
@@ -8651,16 +9106,16 @@
         <v>146</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="C262" s="3">
-        <v>7006143359330</v>
+        <v>7006105360299</v>
       </c>
       <c r="D262" t="s">
-        <v>315</v>
+        <v>248</v>
       </c>
       <c r="E262" s="2">
-        <v>43220.4375</v>
+        <v>43220.418055555558</v>
       </c>
       <c r="F262" s="2"/>
     </row>
@@ -8669,16 +9124,16 @@
         <v>146</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="C263" s="3">
-        <v>7006114359146</v>
+        <v>7006130360148</v>
       </c>
       <c r="D263" t="s">
-        <v>316</v>
+        <v>254</v>
       </c>
       <c r="E263" s="2">
-        <v>43220.441666666666</v>
+        <v>43220.422222222223</v>
       </c>
       <c r="F263" s="2"/>
     </row>
@@ -8687,16 +9142,16 @@
         <v>146</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C264" s="3">
-        <v>7006105359105</v>
+        <v>7006133360128</v>
       </c>
       <c r="D264" t="s">
-        <v>308</v>
+        <v>254</v>
       </c>
       <c r="E264" s="2">
-        <v>43220.443055555559</v>
+        <v>43220.424305555556</v>
       </c>
       <c r="F264" s="2"/>
     </row>
@@ -8705,16 +9160,16 @@
         <v>146</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C265" s="3">
-        <v>7006097359055</v>
+        <v>7006146360075</v>
       </c>
       <c r="D265" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="E265" s="2">
-        <v>43220.445138888892</v>
+        <v>43220.425694444442</v>
       </c>
       <c r="F265" s="2"/>
     </row>
@@ -8723,16 +9178,16 @@
         <v>146</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C266" s="3">
-        <v>7006092358975</v>
+        <v>7006171360032</v>
       </c>
       <c r="D266" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="E266" s="2">
-        <v>43220.448611111111</v>
+        <v>43220.427777777775</v>
       </c>
       <c r="F266" s="2"/>
     </row>
@@ -8741,16 +9196,16 @@
         <v>146</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="C267" s="3">
-        <v>7006069358719</v>
+        <v>7006203359711</v>
       </c>
       <c r="D267" t="s">
-        <v>316</v>
+        <v>234</v>
       </c>
       <c r="E267" s="2">
-        <v>43220.45208333333</v>
+        <v>43220.432638888888</v>
       </c>
       <c r="F267" s="2"/>
     </row>
@@ -8759,16 +9214,16 @@
         <v>146</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C268" s="3">
-        <v>7006070358639</v>
+        <v>7006211359605</v>
       </c>
       <c r="D268" t="s">
-        <v>311</v>
+        <v>218</v>
       </c>
       <c r="E268" s="2">
-        <v>43220.45416666667</v>
+        <v>43220.43472222222</v>
       </c>
       <c r="F268" s="2"/>
     </row>
@@ -8777,16 +9232,16 @@
         <v>146</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="C269" s="3">
-        <v>7006048358564</v>
+        <v>7006143359330</v>
       </c>
       <c r="D269" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="E269" s="2">
-        <v>43220.455555555556</v>
+        <v>43220.4375</v>
       </c>
       <c r="F269" s="2"/>
     </row>
@@ -8795,16 +9250,16 @@
         <v>146</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="C270" s="3">
-        <v>7005966358599</v>
+        <v>7006114359146</v>
       </c>
       <c r="D270" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E270" s="2">
-        <v>43220.482638888891</v>
+        <v>43220.441666666666</v>
       </c>
       <c r="F270" s="2"/>
     </row>
@@ -8813,16 +9268,16 @@
         <v>146</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="C271" s="3">
-        <v>7005754358715</v>
+        <v>7006105359105</v>
       </c>
       <c r="D271" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="E271" s="2">
-        <v>43220.486805555556</v>
+        <v>43220.443055555559</v>
       </c>
       <c r="F271" s="2"/>
       <c r="N271" s="2"/>
@@ -8833,16 +9288,16 @@
         <v>146</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C272" s="3">
-        <v>7005614358794</v>
+        <v>7006097359055</v>
       </c>
       <c r="D272" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="E272" s="2">
-        <v>43220.488888888889</v>
+        <v>43220.445138888892</v>
       </c>
       <c r="F272" s="2"/>
       <c r="N272" s="2"/>
@@ -8853,16 +9308,16 @@
         <v>146</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="C273" s="3">
-        <v>7005555358825</v>
+        <v>7006092358975</v>
       </c>
       <c r="D273" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E273" s="2">
-        <v>43220.490277777775</v>
+        <v>43220.448611111111</v>
       </c>
       <c r="F273" s="2"/>
       <c r="N273" s="2"/>
@@ -8873,16 +9328,16 @@
         <v>146</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C274" s="3">
-        <v>7005172359049</v>
+        <v>7006069358719</v>
       </c>
       <c r="D274" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E274" s="2">
-        <v>43220.493055555555</v>
+        <v>43220.45208333333</v>
       </c>
       <c r="F274" s="2"/>
       <c r="N274" s="2"/>
@@ -8893,16 +9348,16 @@
         <v>146</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="C275" s="3">
-        <v>7004845359228</v>
+        <v>7006070358639</v>
       </c>
       <c r="D275" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E275" s="2">
-        <v>43220.49722222222</v>
+        <v>43220.45416666667</v>
       </c>
       <c r="F275" s="2"/>
       <c r="N275" s="2"/>
@@ -8913,16 +9368,16 @@
         <v>146</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="C276" s="3">
-        <v>7004594359342</v>
+        <v>7006048358564</v>
       </c>
       <c r="D276" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="E276" s="2">
-        <v>43220.503472222219</v>
+        <v>43220.455555555556</v>
       </c>
       <c r="F276" s="2"/>
       <c r="N276" s="2"/>
@@ -8933,16 +9388,16 @@
         <v>146</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="C277" s="3">
-        <v>7004462359409</v>
+        <v>7005966358599</v>
       </c>
       <c r="D277" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E277" s="2">
-        <v>43220.506249999999</v>
+        <v>43220.482638888891</v>
       </c>
       <c r="F277" s="2"/>
       <c r="N277" s="2"/>
@@ -8953,16 +9408,16 @@
         <v>146</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="C278" s="3">
-        <v>7004326359594</v>
+        <v>7005754358715</v>
       </c>
       <c r="D278" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E278" s="2">
-        <v>43220.508333333331</v>
+        <v>43220.486805555556</v>
       </c>
       <c r="F278" s="2"/>
       <c r="N278" s="2"/>
@@ -8973,16 +9428,16 @@
         <v>146</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="C279" s="3">
-        <v>7004265359557</v>
+        <v>7005614358794</v>
       </c>
       <c r="D279" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="E279" s="2">
-        <v>43220.509722222225</v>
+        <v>43220.488888888889</v>
       </c>
       <c r="F279" s="2"/>
       <c r="N279" s="2"/>
@@ -8993,16 +9448,16 @@
         <v>146</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C280" s="3">
-        <v>7004067359659</v>
+        <v>7005555358825</v>
       </c>
       <c r="D280" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="E280" s="2">
-        <v>43220.513194444444</v>
+        <v>43220.490277777775</v>
       </c>
       <c r="F280" s="2"/>
       <c r="N280" s="2"/>
@@ -9013,16 +9468,16 @@
         <v>146</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C281" s="3">
-        <v>7004008359687</v>
+        <v>7005172359049</v>
       </c>
       <c r="D281" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E281" s="2">
-        <v>43220.515277777777</v>
+        <v>43220.493055555555</v>
       </c>
       <c r="F281" s="2"/>
       <c r="N281" s="2"/>
@@ -9033,16 +9488,16 @@
         <v>146</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="C282" s="3">
-        <v>7003441360041</v>
+        <v>7004845359228</v>
       </c>
       <c r="D282" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E282" s="2">
-        <v>43220.525694444441</v>
+        <v>43220.49722222222</v>
       </c>
       <c r="F282" s="2"/>
       <c r="N282" s="2"/>
@@ -9053,16 +9508,16 @@
         <v>146</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="C283" s="3">
-        <v>7003437360048</v>
+        <v>7004594359342</v>
       </c>
       <c r="D283" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E283" s="2">
-        <v>43220.52847222222</v>
+        <v>43220.503472222219</v>
       </c>
       <c r="F283" s="2"/>
       <c r="N283" s="2"/>
@@ -9073,16 +9528,16 @@
         <v>146</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="C284" s="3">
-        <v>7003383360066</v>
+        <v>7004462359409</v>
       </c>
       <c r="D284" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E284" s="2">
-        <v>43220.53125</v>
+        <v>43220.506249999999</v>
       </c>
       <c r="F284" s="2"/>
       <c r="N284" s="2"/>
@@ -9093,16 +9548,16 @@
         <v>146</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="C285" s="3">
-        <v>7003064360213</v>
+        <v>7004326359594</v>
       </c>
       <c r="D285" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E285" s="2">
-        <v>43220.536111111112</v>
+        <v>43220.508333333331</v>
       </c>
       <c r="F285" s="2"/>
       <c r="N285" s="2"/>
@@ -9113,16 +9568,16 @@
         <v>146</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="C286" s="3">
-        <v>7002924360280</v>
+        <v>7004265359557</v>
       </c>
       <c r="D286" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E286" s="2">
-        <v>43220.539583333331</v>
+        <v>43220.509722222225</v>
       </c>
       <c r="F286" s="2"/>
       <c r="N286" s="2"/>
@@ -9133,16 +9588,16 @@
         <v>146</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="C287" s="3">
-        <v>7002846360330</v>
+        <v>7004067359659</v>
       </c>
       <c r="D287" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="E287" s="2">
-        <v>43220.542361111111</v>
+        <v>43220.513194444444</v>
       </c>
       <c r="F287" s="2"/>
       <c r="N287" s="2"/>
@@ -9153,16 +9608,16 @@
         <v>146</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="C288" s="3">
-        <v>7002828360337</v>
+        <v>7004008359687</v>
       </c>
       <c r="D288" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E288" s="2">
-        <v>43220.544444444444</v>
+        <v>43220.515277777777</v>
       </c>
       <c r="F288" s="2"/>
       <c r="N288" s="2"/>
@@ -9173,16 +9628,16 @@
         <v>146</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C289" s="3">
-        <v>7002573360565</v>
+        <v>7003441360041</v>
       </c>
       <c r="D289" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E289" s="2">
-        <v>43220.55</v>
+        <v>43220.525694444441</v>
       </c>
       <c r="F289" s="2"/>
       <c r="N289" s="2"/>
@@ -9193,16 +9648,16 @@
         <v>146</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C290" s="3">
-        <v>7002551360604</v>
+        <v>7003437360048</v>
       </c>
       <c r="D290" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="E290" s="2">
-        <v>43220.552777777775</v>
+        <v>43220.52847222222</v>
       </c>
       <c r="F290" s="2"/>
       <c r="N290" s="2"/>
@@ -9213,16 +9668,16 @@
         <v>146</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C291" s="3">
-        <v>7002731360751</v>
+        <v>7003383360066</v>
       </c>
       <c r="D291" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E291" s="2">
-        <v>43220.55972222222</v>
+        <v>43220.53125</v>
       </c>
       <c r="F291" s="2"/>
       <c r="N291" s="2"/>
@@ -9233,16 +9688,16 @@
         <v>146</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="C292" s="3">
-        <v>7003942361654</v>
+        <v>7003064360213</v>
       </c>
       <c r="D292" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="E292" s="2">
-        <v>43220.577777777777</v>
+        <v>43220.536111111112</v>
       </c>
       <c r="F292" s="2"/>
       <c r="N292" s="2"/>
@@ -9253,16 +9708,16 @@
         <v>146</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="C293" s="3">
-        <v>7004010361690</v>
+        <v>7002924360280</v>
       </c>
       <c r="D293" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="E293" s="2">
-        <v>43220.580555555556</v>
+        <v>43220.539583333331</v>
       </c>
       <c r="F293" s="2"/>
       <c r="N293" s="2"/>
@@ -9273,16 +9728,16 @@
         <v>146</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="C294" s="3">
-        <v>7004478361995</v>
+        <v>7002846360330</v>
       </c>
       <c r="D294" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="E294" s="2">
-        <v>43220.63958333333</v>
+        <v>43220.542361111111</v>
       </c>
       <c r="F294" s="2"/>
     </row>
@@ -9291,16 +9746,16 @@
         <v>146</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="C295" s="3">
-        <v>7004518362018</v>
+        <v>7002828360337</v>
       </c>
       <c r="D295" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="E295" s="2">
-        <v>43220.64166666667</v>
+        <v>43220.544444444444</v>
       </c>
       <c r="F295" s="2"/>
     </row>
@@ -9309,16 +9764,16 @@
         <v>146</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C296" s="3">
-        <v>7004641362075</v>
+        <v>7002573360565</v>
       </c>
       <c r="D296" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="E296" s="2">
-        <v>43220.643750000003</v>
+        <v>43220.55</v>
       </c>
       <c r="F296" s="2"/>
     </row>
@@ -9327,16 +9782,16 @@
         <v>146</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="C297" s="3">
-        <v>7004976362244</v>
+        <v>7002551360604</v>
       </c>
       <c r="D297" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="E297" s="2">
-        <v>43220.648611111108</v>
+        <v>43220.552777777775</v>
       </c>
       <c r="F297" s="2"/>
     </row>
@@ -9345,16 +9800,16 @@
         <v>146</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C298" s="3">
-        <v>7005036362271</v>
+        <v>7002731360751</v>
       </c>
       <c r="D298" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="E298" s="2">
-        <v>43220.650694444441</v>
+        <v>43220.55972222222</v>
       </c>
       <c r="F298" s="2"/>
       <c r="P298" s="2"/>
@@ -9364,54 +9819,54 @@
         <v>146</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="C299" s="3">
-        <v>7005401362460</v>
+        <v>7003942361654</v>
       </c>
       <c r="D299" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="E299" s="2">
-        <v>43220.654861111114</v>
+        <v>43220.577777777777</v>
       </c>
       <c r="F299" s="2"/>
       <c r="P299" s="2"/>
     </row>
     <row r="300" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="C300" s="3">
-        <v>7004400359209</v>
+        <v>7004010361690</v>
       </c>
       <c r="D300" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="E300" s="2">
-        <v>43221.29583333333</v>
+        <v>43220.580555555556</v>
       </c>
       <c r="F300" s="2"/>
       <c r="P300" s="2"/>
     </row>
     <row r="301" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="C301" s="3">
-        <v>7003918358291</v>
+        <v>7004478361995</v>
       </c>
       <c r="D301" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E301" s="2">
-        <v>43221.315972222219</v>
+        <v>43220.63958333333</v>
       </c>
       <c r="F301" s="2"/>
       <c r="M301" s="3"/>
@@ -9420,19 +9875,19 @@
     </row>
     <row r="302" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="C302" s="3">
-        <v>7003782358005</v>
+        <v>7004518362018</v>
       </c>
       <c r="D302" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="E302" s="2">
-        <v>43221.322222222225</v>
+        <v>43220.64166666667</v>
       </c>
       <c r="F302" s="2"/>
       <c r="M302" s="3"/>
@@ -9441,19 +9896,19 @@
     </row>
     <row r="303" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="C303" s="3">
-        <v>7003733357829</v>
+        <v>7004641362075</v>
       </c>
       <c r="D303" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="E303" s="2">
-        <v>43221.325694444444</v>
+        <v>43220.643750000003</v>
       </c>
       <c r="F303" s="2"/>
       <c r="M303" s="3"/>
@@ -9462,19 +9917,19 @@
     </row>
     <row r="304" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="C304" s="3">
-        <v>7003632357578</v>
+        <v>7004976362244</v>
       </c>
       <c r="D304" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="E304" s="2">
-        <v>43221.329861111109</v>
+        <v>43220.648611111108</v>
       </c>
       <c r="F304" s="2"/>
       <c r="M304" s="3"/>
@@ -9483,19 +9938,19 @@
     </row>
     <row r="305" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="C305" s="3">
-        <v>7002949356265</v>
+        <v>7005036362271</v>
       </c>
       <c r="D305" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="E305" s="2">
-        <v>43221.34375</v>
+        <v>43220.650694444441</v>
       </c>
       <c r="F305" s="2"/>
       <c r="M305" s="3"/>
@@ -9504,19 +9959,19 @@
     </row>
     <row r="306" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="C306" s="3">
-        <v>7002812355949</v>
+        <v>7005401362460</v>
       </c>
       <c r="D306" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E306" s="2">
-        <v>43221.348611111112</v>
+        <v>43220.654861111114</v>
       </c>
       <c r="F306" s="2"/>
       <c r="M306" s="3"/>
@@ -9528,16 +9983,16 @@
         <v>150</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="C307" s="3">
-        <v>7002785355789</v>
+        <v>7004400359209</v>
       </c>
       <c r="D307" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E307" s="2">
-        <v>43221.351388888892</v>
+        <v>43221.29583333333</v>
       </c>
       <c r="F307" s="2"/>
       <c r="M307" s="3"/>
@@ -9549,16 +10004,16 @@
         <v>150</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C308" s="3">
-        <v>7002775355736</v>
+        <v>7003918358291</v>
       </c>
       <c r="D308" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="E308" s="2">
-        <v>43221.354166666664</v>
+        <v>43221.315972222219</v>
       </c>
       <c r="F308" s="2"/>
       <c r="M308" s="3"/>
@@ -9570,16 +10025,16 @@
         <v>150</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C309" s="3">
-        <v>7002767355630</v>
+        <v>7003782358005</v>
       </c>
       <c r="D309" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="E309" s="2">
-        <v>43221.375694444447</v>
+        <v>43221.322222222225</v>
       </c>
       <c r="F309" s="2"/>
       <c r="M309" s="3"/>
@@ -9591,16 +10046,16 @@
         <v>150</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C310" s="3">
-        <v>7003185355743</v>
+        <v>7003733357829</v>
       </c>
       <c r="D310" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E310" s="2">
-        <v>43221.38958333333</v>
+        <v>43221.325694444444</v>
       </c>
       <c r="F310" s="2"/>
       <c r="M310" s="3"/>
@@ -9612,16 +10067,16 @@
         <v>150</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="C311" s="3">
-        <v>7003537355760</v>
+        <v>7003632357578</v>
       </c>
       <c r="D311" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="E311" s="2">
-        <v>43221.397916666669</v>
+        <v>43221.329861111109</v>
       </c>
       <c r="F311" s="2"/>
       <c r="M311" s="3"/>
@@ -9633,16 +10088,16 @@
         <v>150</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="C312" s="3">
-        <v>7003563355747</v>
+        <v>7002949356265</v>
       </c>
       <c r="D312" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E312" s="2">
-        <v>43221.4</v>
+        <v>43221.34375</v>
       </c>
       <c r="F312" s="2"/>
       <c r="M312" s="3"/>
@@ -9654,16 +10109,16 @@
         <v>150</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C313" s="3">
-        <v>7003632355750</v>
+        <v>7002812355949</v>
       </c>
       <c r="D313" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E313" s="2">
-        <v>43221.404166666667</v>
+        <v>43221.348611111112</v>
       </c>
       <c r="F313" s="2"/>
       <c r="M313" s="3"/>
@@ -9675,16 +10130,16 @@
         <v>150</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C314" s="3">
-        <v>7005429356236</v>
+        <v>7002785355789</v>
       </c>
       <c r="D314" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="E314" s="2">
-        <v>43221.426388888889</v>
+        <v>43221.351388888892</v>
       </c>
       <c r="F314" s="2"/>
       <c r="M314" s="3"/>
@@ -9696,16 +10151,16 @@
         <v>150</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="C315" s="3">
-        <v>7005578356227</v>
+        <v>7002775355736</v>
       </c>
       <c r="D315" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="E315" s="2">
-        <v>43221.431944444441</v>
+        <v>43221.354166666664</v>
       </c>
       <c r="F315" s="2"/>
       <c r="M315" s="3"/>
@@ -9717,16 +10172,16 @@
         <v>150</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C316" s="3">
-        <v>7005615356234</v>
+        <v>7002767355630</v>
       </c>
       <c r="D316" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="E316" s="2">
-        <v>43221.433333333334</v>
+        <v>43221.375694444447</v>
       </c>
       <c r="F316" s="2"/>
       <c r="M316" s="3"/>
@@ -9738,16 +10193,16 @@
         <v>150</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="C317" s="3">
-        <v>7005818356285</v>
+        <v>7003185355743</v>
       </c>
       <c r="D317" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E317" s="2">
-        <v>43221.438888888886</v>
+        <v>43221.38958333333</v>
       </c>
       <c r="F317" s="2"/>
       <c r="M317" s="3"/>
@@ -9759,16 +10214,16 @@
         <v>150</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="C318" s="3">
-        <v>7005889356297</v>
+        <v>7003537355760</v>
       </c>
       <c r="D318" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E318" s="2">
-        <v>43221.440972222219</v>
+        <v>43221.397916666669</v>
       </c>
       <c r="F318" s="2"/>
       <c r="M318" s="3"/>
@@ -9780,16 +10235,16 @@
         <v>150</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C319" s="3">
-        <v>7005982356291</v>
+        <v>7003563355747</v>
       </c>
       <c r="D319" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E319" s="2">
-        <v>43221.445833333331</v>
+        <v>43221.4</v>
       </c>
       <c r="M319" s="3"/>
       <c r="O319" s="2"/>
@@ -9800,16 +10255,16 @@
         <v>150</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C320" s="3">
-        <v>7006067356287</v>
+        <v>7003632355750</v>
       </c>
       <c r="D320" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E320" s="2">
-        <v>43221.448611111111</v>
+        <v>43221.404166666667</v>
       </c>
       <c r="M320" s="3"/>
       <c r="O320" s="2"/>
@@ -9820,16 +10275,16 @@
         <v>150</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C321" s="3">
-        <v>7006110356278</v>
+        <v>7005429356236</v>
       </c>
       <c r="D321" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E321" s="2">
-        <v>43221.45208333333</v>
+        <v>43221.426388888889</v>
       </c>
       <c r="M321" s="3"/>
       <c r="O321" s="2"/>
@@ -9840,16 +10295,16 @@
         <v>150</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C322" s="3">
-        <v>7006178356268</v>
+        <v>7005578356227</v>
       </c>
       <c r="D322" t="s">
-        <v>242</v>
+        <v>323</v>
       </c>
       <c r="E322" s="2">
-        <v>43221.455555555556</v>
+        <v>43221.431944444441</v>
       </c>
       <c r="M322" s="3"/>
       <c r="O322" s="2"/>
@@ -9860,16 +10315,16 @@
         <v>150</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C323" s="3">
-        <v>7006451356272</v>
+        <v>7005615356234</v>
       </c>
       <c r="D323" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="E323" s="2">
-        <v>43221.461111111108</v>
+        <v>43221.433333333334</v>
       </c>
       <c r="M323" s="3"/>
       <c r="O323" s="2"/>
@@ -9880,16 +10335,16 @@
         <v>150</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C324" s="3">
-        <v>7006803356301</v>
+        <v>7005818356285</v>
       </c>
       <c r="D324" t="s">
-        <v>246</v>
+        <v>346</v>
       </c>
       <c r="E324" s="2">
-        <v>43221.468055555553</v>
+        <v>43221.438888888886</v>
       </c>
       <c r="M324" s="3"/>
       <c r="O324" s="2"/>
@@ -9900,16 +10355,16 @@
         <v>150</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="C325" s="3">
-        <v>7006600356476</v>
+        <v>7005889356297</v>
       </c>
       <c r="D325" t="s">
-        <v>291</v>
+        <v>347</v>
       </c>
       <c r="E325" s="2">
-        <v>43221.475694444445</v>
+        <v>43221.440972222219</v>
       </c>
       <c r="M325" s="3"/>
       <c r="O325" s="2"/>
@@ -9920,16 +10375,16 @@
         <v>150</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C326" s="3">
-        <v>7005428357911</v>
+        <v>7005982356291</v>
       </c>
       <c r="D326" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E326" s="2">
-        <v>43221.529166666667</v>
+        <v>43221.445833333331</v>
       </c>
       <c r="M326" s="3"/>
       <c r="O326" s="2"/>
@@ -9940,16 +10395,16 @@
         <v>150</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="C327" s="3">
-        <v>7005274358127</v>
+        <v>7006067356287</v>
       </c>
       <c r="D327" t="s">
-        <v>292</v>
+        <v>348</v>
       </c>
       <c r="E327" s="2">
-        <v>43221.532638888886</v>
+        <v>43221.448611111111</v>
       </c>
       <c r="M327" s="3"/>
       <c r="O327" s="2"/>
@@ -9960,16 +10415,16 @@
         <v>150</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C328" s="3">
-        <v>7005214358195</v>
+        <v>7006110356278</v>
       </c>
       <c r="D328" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E328" s="2">
-        <v>43221.535416666666</v>
+        <v>43221.45208333333</v>
       </c>
       <c r="M328" s="3"/>
       <c r="O328" s="2"/>
@@ -9979,139 +10434,139 @@
         <v>150</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="C329" s="3">
-        <v>7004453359147</v>
+        <v>7006178356268</v>
       </c>
       <c r="D329" t="s">
-        <v>353</v>
+        <v>242</v>
       </c>
       <c r="E329" s="2">
-        <v>43221.547222222223</v>
+        <v>43221.455555555556</v>
       </c>
       <c r="M329" s="3"/>
       <c r="O329" s="2"/>
     </row>
     <row r="330" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="C330" s="3">
-        <v>7008546366649</v>
+        <v>7006451356272</v>
       </c>
       <c r="D330" t="s">
-        <v>209</v>
+        <v>350</v>
       </c>
       <c r="E330" s="2">
-        <v>43222.325694444444</v>
+        <v>43221.461111111108</v>
       </c>
       <c r="M330" s="3"/>
       <c r="O330" s="2"/>
     </row>
     <row r="331" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C331" s="3">
-        <v>7008527366619</v>
+        <v>7006803356301</v>
       </c>
       <c r="D331" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="E331" s="2">
-        <v>43222.329861111109</v>
+        <v>43221.468055555553</v>
       </c>
     </row>
     <row r="332" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C332" s="3">
-        <v>7008489366555</v>
+        <v>7006600356476</v>
       </c>
       <c r="D332" t="s">
-        <v>197</v>
+        <v>291</v>
       </c>
       <c r="E332" s="2">
-        <v>43222.334027777775</v>
+        <v>43221.475694444445</v>
       </c>
     </row>
     <row r="333" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="C333" s="3">
-        <v>7008481366542</v>
+        <v>7005428357911</v>
       </c>
       <c r="D333" t="s">
-        <v>224</v>
+        <v>351</v>
       </c>
       <c r="E333" s="2">
-        <v>43222.335416666669</v>
+        <v>43221.529166666667</v>
       </c>
     </row>
     <row r="334" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C334" s="3">
-        <v>7008469366500</v>
+        <v>7005274358127</v>
       </c>
       <c r="D334" t="s">
-        <v>214</v>
+        <v>292</v>
       </c>
       <c r="E334" s="2">
-        <v>43222.336805555555</v>
+        <v>43221.532638888886</v>
       </c>
     </row>
     <row r="335" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C335" s="3">
-        <v>7008230366123</v>
+        <v>7005214358195</v>
       </c>
       <c r="D335" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E335" s="2">
-        <v>43222.348611111112</v>
+        <v>43221.535416666666</v>
       </c>
     </row>
     <row r="336" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="C336" s="3">
-        <v>7008184366055</v>
+        <v>7004453359147</v>
       </c>
       <c r="D336" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E336" s="2">
-        <v>43222.351388888892</v>
+        <v>43221.547222222223</v>
       </c>
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.2">
@@ -10119,16 +10574,16 @@
         <v>153</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="C337" s="3">
-        <v>7007756365256</v>
+        <v>7008546366649</v>
       </c>
       <c r="D337" t="s">
-        <v>356</v>
+        <v>209</v>
       </c>
       <c r="E337" s="2">
-        <v>43222.363888888889</v>
+        <v>43222.325694444444</v>
       </c>
       <c r="L337" s="3"/>
       <c r="N337" s="2"/>
@@ -10139,16 +10594,16 @@
         <v>153</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C338" s="3">
-        <v>7007701365129</v>
+        <v>7008527366619</v>
       </c>
       <c r="D338" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="E338" s="2">
-        <v>43222.366666666669</v>
+        <v>43222.329861111109</v>
       </c>
       <c r="L338" s="3"/>
       <c r="N338" s="2"/>
@@ -10159,16 +10614,16 @@
         <v>153</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="C339" s="3">
-        <v>7007599364865</v>
+        <v>7008489366555</v>
       </c>
       <c r="D339" t="s">
-        <v>357</v>
+        <v>197</v>
       </c>
       <c r="E339" s="2">
-        <v>43222.37222222222</v>
+        <v>43222.334027777775</v>
       </c>
       <c r="L339" s="3"/>
       <c r="N339" s="2"/>
@@ -10179,16 +10634,16 @@
         <v>153</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C340" s="3">
-        <v>7007353364176</v>
+        <v>7008481366542</v>
       </c>
       <c r="D340" t="s">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c r="E340" s="2">
-        <v>43222.379166666666</v>
+        <v>43222.335416666669</v>
       </c>
       <c r="L340" s="3"/>
       <c r="N340" s="2"/>
@@ -10199,16 +10654,16 @@
         <v>153</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C341" s="3">
-        <v>7007224363897</v>
+        <v>7008469366500</v>
       </c>
       <c r="D341" t="s">
-        <v>304</v>
+        <v>214</v>
       </c>
       <c r="E341" s="2">
-        <v>43222.383333333331</v>
+        <v>43222.336805555555</v>
       </c>
       <c r="L341" s="3"/>
       <c r="N341" s="2"/>
@@ -10219,16 +10674,16 @@
         <v>153</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C342" s="3">
-        <v>7006864363345</v>
+        <v>7008230366123</v>
       </c>
       <c r="D342" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E342" s="2">
-        <v>43222.400000000001</v>
+        <v>43222.348611111112</v>
       </c>
       <c r="L342" s="3"/>
       <c r="N342" s="2"/>
@@ -10239,16 +10694,16 @@
         <v>153</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C343" s="3">
-        <v>7006855363327</v>
+        <v>7008184366055</v>
       </c>
       <c r="D343" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="E343" s="2">
-        <v>43222.402083333334</v>
+        <v>43222.351388888892</v>
       </c>
       <c r="L343" s="3"/>
       <c r="N343" s="2"/>
@@ -10259,16 +10714,16 @@
         <v>153</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C344" s="3">
-        <v>7006741363193</v>
+        <v>7007756365256</v>
       </c>
       <c r="D344" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E344" s="2">
-        <v>43222.40625</v>
+        <v>43222.363888888889</v>
       </c>
       <c r="L344" s="3"/>
       <c r="N344" s="2"/>
@@ -10279,16 +10734,16 @@
         <v>153</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="C345" s="3">
-        <v>7006705363181</v>
+        <v>7007701365129</v>
       </c>
       <c r="D345" t="s">
-        <v>313</v>
+        <v>189</v>
       </c>
       <c r="E345" s="2">
-        <v>43222.408333333333</v>
+        <v>43222.366666666669</v>
       </c>
       <c r="L345" s="3"/>
       <c r="N345" s="2"/>
@@ -10299,16 +10754,16 @@
         <v>153</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C346" s="3">
-        <v>7006635363106</v>
+        <v>7007599364865</v>
       </c>
       <c r="D346" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E346" s="2">
-        <v>43222.410416666666</v>
+        <v>43222.37222222222</v>
       </c>
       <c r="L346" s="3"/>
       <c r="N346" s="2"/>
@@ -10319,16 +10774,16 @@
         <v>153</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C347" s="3">
-        <v>7006632363092</v>
+        <v>7007353364176</v>
       </c>
       <c r="D347" t="s">
-        <v>359</v>
+        <v>274</v>
       </c>
       <c r="E347" s="2">
-        <v>43222.412499999999</v>
+        <v>43222.379166666666</v>
       </c>
       <c r="L347" s="3"/>
       <c r="N347" s="2"/>
@@ -10339,16 +10794,16 @@
         <v>153</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C348" s="3">
-        <v>7006656363084</v>
+        <v>7007224363897</v>
       </c>
       <c r="D348" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="E348" s="2">
-        <v>43222.425000000003</v>
+        <v>43222.383333333331</v>
       </c>
       <c r="L348" s="3"/>
       <c r="N348" s="2"/>
@@ -10359,16 +10814,16 @@
         <v>153</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C349" s="3">
-        <v>7006704363076</v>
+        <v>7006864363345</v>
       </c>
       <c r="D349" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E349" s="2">
-        <v>43222.431944444441</v>
+        <v>43222.400000000001</v>
       </c>
       <c r="L349" s="3"/>
       <c r="N349" s="2"/>
@@ -10379,16 +10834,16 @@
         <v>153</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C350" s="3">
-        <v>7006759363054</v>
+        <v>7006855363327</v>
       </c>
       <c r="D350" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="E350" s="2">
-        <v>43222.435416666667</v>
+        <v>43222.402083333334</v>
       </c>
       <c r="L350" s="3"/>
       <c r="N350" s="2"/>
@@ -10399,16 +10854,16 @@
         <v>153</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C351" s="3">
-        <v>7006796363052</v>
+        <v>7006741363193</v>
       </c>
       <c r="D351" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E351" s="2">
-        <v>43222.436805555553</v>
+        <v>43222.40625</v>
       </c>
       <c r="L351" s="3"/>
       <c r="N351" s="2"/>
@@ -10419,16 +10874,16 @@
         <v>153</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="C352" s="3">
-        <v>7006864363034</v>
+        <v>7006705363181</v>
       </c>
       <c r="D352" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E352" s="2">
-        <v>43222.439583333333</v>
+        <v>43222.408333333333</v>
       </c>
       <c r="L352" s="3"/>
       <c r="N352" s="2"/>
@@ -10439,16 +10894,16 @@
         <v>153</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C353" s="3">
-        <v>7006882363032</v>
+        <v>7006635363106</v>
       </c>
       <c r="D353" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E353" s="2">
-        <v>43222.44027777778</v>
+        <v>43222.410416666666</v>
       </c>
       <c r="L353" s="3"/>
       <c r="N353" s="2"/>
@@ -10459,16 +10914,16 @@
         <v>153</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C354" s="3">
-        <v>7007268362982</v>
+        <v>7006632363092</v>
       </c>
       <c r="D354" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E354" s="2">
-        <v>43222.448611111111</v>
+        <v>43222.412499999999</v>
       </c>
       <c r="L354" s="3"/>
       <c r="N354" s="2"/>
@@ -10479,16 +10934,16 @@
         <v>153</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C355" s="3">
-        <v>7007286362985</v>
+        <v>7006656363084</v>
       </c>
       <c r="D355" t="s">
-        <v>283</v>
+        <v>360</v>
       </c>
       <c r="E355" s="2">
-        <v>43222.450694444444</v>
+        <v>43222.425000000003</v>
       </c>
       <c r="L355" s="3"/>
       <c r="N355" s="2"/>
@@ -10499,16 +10954,16 @@
         <v>153</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C356" s="3">
-        <v>7007299362986</v>
+        <v>7006704363076</v>
       </c>
       <c r="D356" t="s">
-        <v>282</v>
+        <v>360</v>
       </c>
       <c r="E356" s="2">
-        <v>43222.45208333333</v>
+        <v>43222.431944444441</v>
       </c>
       <c r="L356" s="3"/>
       <c r="N356" s="2"/>
@@ -10519,16 +10974,16 @@
         <v>153</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C357" s="3">
-        <v>7007413362958</v>
+        <v>7006759363054</v>
       </c>
       <c r="D357" t="s">
-        <v>364</v>
+        <v>289</v>
       </c>
       <c r="E357" s="2">
-        <v>43222.455555555556</v>
+        <v>43222.435416666667</v>
       </c>
       <c r="L357" s="3"/>
       <c r="N357" s="2"/>
@@ -10539,16 +10994,16 @@
         <v>153</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C358" s="3">
-        <v>7009681362779</v>
+        <v>7006796363052</v>
       </c>
       <c r="D358" t="s">
-        <v>244</v>
+        <v>361</v>
       </c>
       <c r="E358" s="2">
-        <v>43222.494444444441</v>
+        <v>43222.436805555553</v>
       </c>
       <c r="L358" s="3"/>
       <c r="N358" s="2"/>
@@ -10559,16 +11014,16 @@
         <v>153</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="C359" s="3">
-        <v>7010638362876</v>
+        <v>7006864363034</v>
       </c>
       <c r="D359" t="s">
-        <v>365</v>
+        <v>314</v>
       </c>
       <c r="E359" s="2">
-        <v>43222.50277777778</v>
+        <v>43222.439583333333</v>
       </c>
       <c r="L359" s="3"/>
       <c r="N359" s="2"/>
@@ -10579,16 +11034,16 @@
         <v>153</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C360" s="3">
-        <v>7010614362913</v>
+        <v>7006882363032</v>
       </c>
       <c r="D360" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E360" s="2">
-        <v>43222.522222222222</v>
+        <v>43222.44027777778</v>
       </c>
       <c r="L360" s="3"/>
       <c r="N360" s="2"/>
@@ -10599,16 +11054,16 @@
         <v>153</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C361" s="3">
-        <v>7010584362972</v>
+        <v>7007268362982</v>
       </c>
       <c r="D361" t="s">
-        <v>279</v>
+        <v>363</v>
       </c>
       <c r="E361" s="2">
-        <v>43222.524305555555</v>
+        <v>43222.448611111111</v>
       </c>
       <c r="L361" s="3"/>
       <c r="N361" s="2"/>
@@ -10619,16 +11074,16 @@
         <v>153</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="C362" s="3">
-        <v>7009698364284</v>
+        <v>7007286362985</v>
       </c>
       <c r="D362" t="s">
-        <v>366</v>
+        <v>283</v>
       </c>
       <c r="E362" s="2">
-        <v>43222.599305555559</v>
+        <v>43222.450694444444</v>
       </c>
       <c r="L362" s="3"/>
       <c r="N362" s="2"/>
@@ -10639,16 +11094,16 @@
         <v>153</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C363" s="3">
-        <v>7009212365539</v>
+        <v>7007299362986</v>
       </c>
       <c r="D363" t="s">
-        <v>355</v>
+        <v>282</v>
       </c>
       <c r="E363" s="2">
-        <v>43222.618055555555</v>
+        <v>43222.45208333333</v>
       </c>
       <c r="L363" s="3"/>
       <c r="N363" s="2"/>
@@ -10659,16 +11114,16 @@
         <v>153</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C364" s="3">
-        <v>7009208365577</v>
+        <v>7007413362958</v>
       </c>
       <c r="D364" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E364" s="2">
-        <v>43222.620138888888</v>
+        <v>43222.455555555556</v>
       </c>
       <c r="L364" s="3"/>
       <c r="N364" s="2"/>
@@ -10679,16 +11134,16 @@
         <v>153</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C365" s="3">
-        <v>7009208365588</v>
+        <v>7009681362779</v>
       </c>
       <c r="D365" t="s">
-        <v>368</v>
+        <v>244</v>
       </c>
       <c r="E365" s="2">
-        <v>43222.621527777781</v>
+        <v>43222.494444444441</v>
       </c>
       <c r="L365" s="3"/>
       <c r="N365" s="2"/>
@@ -10699,16 +11154,16 @@
         <v>153</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C366" s="3">
-        <v>7009199365638</v>
+        <v>7010638362876</v>
       </c>
       <c r="D366" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E366" s="2">
-        <v>43222.623611111114</v>
+        <v>43222.50277777778</v>
       </c>
       <c r="L366" s="3"/>
       <c r="N366" s="2"/>
@@ -10719,16 +11174,16 @@
         <v>153</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C367" s="3">
-        <v>7009186365662</v>
+        <v>7010614362913</v>
       </c>
       <c r="D367" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E367" s="2">
-        <v>43222.625694444447</v>
+        <v>43222.522222222222</v>
       </c>
       <c r="L367" s="3"/>
       <c r="N367" s="2"/>
@@ -10739,16 +11194,16 @@
         <v>153</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C368" s="3">
-        <v>7008623366228</v>
+        <v>7010584362972</v>
       </c>
       <c r="D368" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="E368" s="2">
-        <v>43222.638888888891</v>
+        <v>43222.524305555555</v>
       </c>
       <c r="L368" s="3"/>
       <c r="N368" s="2"/>
@@ -10759,13 +11214,16 @@
         <v>153</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="C369" s="3">
-        <v>7009183365670</v>
+        <v>7009698364284</v>
+      </c>
+      <c r="D369" t="s">
+        <v>366</v>
       </c>
       <c r="E369" s="2">
-        <v>43222.640277777777</v>
+        <v>43222.599305555559</v>
       </c>
       <c r="L369" s="3"/>
       <c r="N369" s="2"/>
@@ -10776,35 +11234,145 @@
         <v>153</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C370" s="3">
-        <v>7008631366281</v>
+        <v>7009212365539</v>
       </c>
       <c r="D370" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="E370" s="2">
-        <v>43222.640972222223</v>
+        <v>43222.618055555555</v>
       </c>
       <c r="L370" s="3"/>
       <c r="N370" s="2"/>
       <c r="O370" s="2"/>
     </row>
     <row r="371" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>153</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C371" s="3">
+        <v>7009208365577</v>
+      </c>
+      <c r="D371" t="s">
+        <v>367</v>
+      </c>
+      <c r="E371" s="2">
+        <v>43222.620138888888</v>
+      </c>
       <c r="L371" s="3"/>
       <c r="N371" s="2"/>
       <c r="O371" s="2"/>
     </row>
     <row r="372" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>153</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C372" s="3">
+        <v>7009208365588</v>
+      </c>
+      <c r="D372" t="s">
+        <v>368</v>
+      </c>
+      <c r="E372" s="2">
+        <v>43222.621527777781</v>
+      </c>
       <c r="L372" s="3"/>
       <c r="N372" s="2"/>
       <c r="O372" s="2"/>
     </row>
     <row r="373" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>153</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C373" s="3">
+        <v>7009199365638</v>
+      </c>
+      <c r="D373" t="s">
+        <v>369</v>
+      </c>
+      <c r="E373" s="2">
+        <v>43222.623611111114</v>
+      </c>
       <c r="L373" s="3"/>
       <c r="N373" s="2"/>
       <c r="O373" s="2"/>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>153</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C374" s="3">
+        <v>7009186365662</v>
+      </c>
+      <c r="D374" t="s">
+        <v>370</v>
+      </c>
+      <c r="E374" s="2">
+        <v>43222.625694444447</v>
+      </c>
+    </row>
+    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>153</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C375" s="3">
+        <v>7008623366228</v>
+      </c>
+      <c r="D375" t="s">
+        <v>185</v>
+      </c>
+      <c r="E375" s="2">
+        <v>43222.638888888891</v>
+      </c>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>153</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C376" s="3">
+        <v>7009183365670</v>
+      </c>
+      <c r="E376" s="2">
+        <v>43222.640277777777</v>
+      </c>
+    </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>153</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C377" s="3">
+        <v>7008631366281</v>
+      </c>
+      <c r="D377" t="s">
+        <v>371</v>
+      </c>
+      <c r="E377" s="2">
+        <v>43222.640972222223</v>
+      </c>
     </row>
     <row r="438" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L438" s="3"/>

--- a/Rawdata/riptransekter helags 2018.xlsx
+++ b/Rawdata/riptransekter helags 2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="460" windowWidth="25600" windowHeight="14120" xr2:uid="{731D7839-4CAB-374B-BEA5-3406519CB6C1}"/>
+    <workbookView xWindow="7420" yWindow="460" windowWidth="25600" windowHeight="14120" xr2:uid="{731D7839-4CAB-374B-BEA5-3406519CB6C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="417">
   <si>
     <t>vinkel</t>
   </si>
@@ -1257,6 +1257,24 @@
   </si>
   <si>
     <t>ljusbrin, oformlig</t>
+  </si>
+  <si>
+    <t>skare + 1 cm nysnö + 2 cm nysnö under dagen</t>
+  </si>
+  <si>
+    <t>mulet, vind 3 m/s, 0 till -2 grader</t>
+  </si>
+  <si>
+    <t>C till fast, färsk</t>
+  </si>
+  <si>
+    <t>ljusbrun, mjuk</t>
+  </si>
+  <si>
+    <t>blandat färskt och gammalt</t>
+  </si>
+  <si>
+    <t>relatiivt mycket snö och lite barmark på sträcka 1. Få buskar och lite ljung.</t>
   </si>
 </sst>
 </file>
@@ -1614,8 +1632,8 @@
   <dimension ref="A1:Z438"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N166" sqref="N166:N167"/>
+      <pane ySplit="1" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A250" sqref="A250:F250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9439,7 +9457,15 @@
       <c r="E232" s="2">
         <v>43216.280555555553</v>
       </c>
-      <c r="F232" s="2"/>
+      <c r="F232" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N232" t="s">
+        <v>412</v>
+      </c>
+      <c r="O232" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="233" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
@@ -9457,97 +9483,163 @@
       <c r="E233" s="2">
         <v>43216.380555555559</v>
       </c>
-      <c r="F233" s="2"/>
+      <c r="F233" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="234" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>121</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="C234" s="3">
-        <v>6978221351667</v>
+        <v>6978333351234</v>
       </c>
       <c r="D234" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E234" s="2">
-        <v>43216.390972222223</v>
-      </c>
-      <c r="F234" s="2"/>
+        <v>43216.380555555559</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G234">
+        <v>156</v>
+      </c>
+      <c r="H234">
+        <v>102</v>
+      </c>
+      <c r="I234" t="s">
+        <v>156</v>
+      </c>
+      <c r="L234">
+        <v>1</v>
+      </c>
     </row>
     <row r="235" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>121</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="C235" s="3">
-        <v>6977654353487</v>
+        <v>6978333351234</v>
       </c>
       <c r="D235" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="E235" s="2">
-        <v>43216.40625</v>
-      </c>
-      <c r="F235" s="2"/>
+        <v>43216.380555555559</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G235">
+        <v>102</v>
+      </c>
+      <c r="H235">
+        <v>275</v>
+      </c>
+      <c r="I235" t="s">
+        <v>156</v>
+      </c>
+      <c r="L235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>121</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C236" s="3">
-        <v>6977528353996</v>
+        <v>6978221351667</v>
       </c>
       <c r="D236" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E236" s="2">
-        <v>43216.413888888892</v>
-      </c>
-      <c r="F236" s="2"/>
+        <v>43216.390972222223</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G236">
+        <v>167</v>
+      </c>
+      <c r="H236">
+        <v>283</v>
+      </c>
+      <c r="I236" t="s">
+        <v>156</v>
+      </c>
+      <c r="L236">
+        <v>1</v>
+      </c>
     </row>
     <row r="237" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>121</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C237" s="3">
-        <v>6977484354587</v>
+        <v>6977654353487</v>
       </c>
       <c r="D237" t="s">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="E237" s="2">
-        <v>43216.42291666667</v>
-      </c>
-      <c r="F237" s="2"/>
+        <v>43216.40625</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J237" t="s">
+        <v>15</v>
+      </c>
+      <c r="L237">
+        <v>1</v>
+      </c>
+      <c r="M237" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="238" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>121</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="C238" s="3">
-        <v>6977493354708</v>
+        <v>6977528353996</v>
       </c>
       <c r="D238" t="s">
-        <v>245</v>
+        <v>290</v>
       </c>
       <c r="E238" s="2">
-        <v>43216.426388888889</v>
-      </c>
-      <c r="F238" s="2"/>
+        <v>43216.413888888892</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J238" t="s">
+        <v>10</v>
+      </c>
+      <c r="L238">
+        <v>1</v>
+      </c>
+      <c r="M238" t="s">
+        <v>414</v>
+      </c>
       <c r="W238" s="3"/>
       <c r="Y238" s="2"/>
       <c r="Z238" s="2"/>
@@ -9557,16 +9649,28 @@
         <v>121</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C239" s="3">
-        <v>6977510354981</v>
+        <v>6977484354587</v>
       </c>
       <c r="D239" t="s">
-        <v>272</v>
+        <v>208</v>
       </c>
       <c r="E239" s="2">
-        <v>43216.430555555555</v>
+        <v>43216.42291666667</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J239" t="s">
+        <v>10</v>
+      </c>
+      <c r="L239">
+        <v>1</v>
+      </c>
+      <c r="M239" t="s">
+        <v>166</v>
       </c>
       <c r="W239" s="3"/>
       <c r="Y239" s="2"/>
@@ -9577,16 +9681,25 @@
         <v>121</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C240" s="3">
-        <v>6977503355128</v>
+        <v>6977493354708</v>
       </c>
       <c r="D240" t="s">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="E240" s="2">
-        <v>43216.431944444441</v>
+        <v>43216.426388888889</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J240" t="s">
+        <v>15</v>
+      </c>
+      <c r="L240">
+        <v>1</v>
       </c>
       <c r="W240" s="3"/>
       <c r="Y240" s="2"/>
@@ -9597,18 +9710,35 @@
         <v>121</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C241" s="3">
-        <v>6977550355108</v>
+        <v>6977510354981</v>
       </c>
       <c r="D241" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="E241" s="2">
-        <v>43216.442361111112</v>
-      </c>
-      <c r="F241" s="2"/>
+        <v>43216.430555555555</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G241">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H241">
+        <v>270</v>
+      </c>
+      <c r="J241" t="s">
+        <v>15</v>
+      </c>
+      <c r="L241">
+        <v>20</v>
+      </c>
+      <c r="M241" t="s">
+        <v>415</v>
+      </c>
       <c r="W241" s="3"/>
       <c r="Y241" s="2"/>
       <c r="Z241" s="2"/>
@@ -9618,18 +9748,23 @@
         <v>121</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C242" s="3">
-        <v>6977799355071</v>
+        <v>6977503355128</v>
       </c>
       <c r="D242" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E242" s="2">
-        <v>43216.448611111111</v>
-      </c>
-      <c r="F242" s="2"/>
+        <v>43216.431944444441</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M242" t="s">
+        <v>416</v>
+      </c>
       <c r="W242" s="3"/>
       <c r="Y242" s="2"/>
       <c r="Z242" s="2"/>
@@ -9639,18 +9774,32 @@
         <v>121</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C243" s="3">
-        <v>6978993354678</v>
+        <v>6977550355108</v>
       </c>
       <c r="D243" t="s">
-        <v>372</v>
+        <v>292</v>
       </c>
       <c r="E243" s="2">
-        <v>43216.490277777775</v>
-      </c>
-      <c r="F243" s="2"/>
+        <v>43216.442361111112</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G243">
+        <v>230</v>
+      </c>
+      <c r="H243">
+        <v>276</v>
+      </c>
+      <c r="I243" t="s">
+        <v>156</v>
+      </c>
+      <c r="L243">
+        <v>1</v>
+      </c>
       <c r="W243" s="3"/>
       <c r="Y243" s="2"/>
       <c r="Z243" s="2"/>
@@ -9660,18 +9809,32 @@
         <v>121</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C244" s="3">
-        <v>6980084354118</v>
+        <v>6977550355108</v>
       </c>
       <c r="D244" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="E244" s="2">
-        <v>43216.490277777775</v>
-      </c>
-      <c r="F244" s="2"/>
+        <v>43216.442361111112</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G244">
+        <v>247</v>
+      </c>
+      <c r="H244">
+        <v>189</v>
+      </c>
+      <c r="I244" t="s">
+        <v>156</v>
+      </c>
+      <c r="L244">
+        <v>1</v>
+      </c>
       <c r="W244" s="3"/>
       <c r="Y244" s="2"/>
       <c r="Z244" s="2"/>
@@ -9681,18 +9844,35 @@
         <v>121</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C245" s="3">
-        <v>6981270353841</v>
+        <v>6977799355071</v>
       </c>
       <c r="D245" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="E245" s="2">
-        <v>43216.509027777778</v>
-      </c>
-      <c r="F245" s="2"/>
+        <v>43216.448611111111</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G245">
+        <v>164</v>
+      </c>
+      <c r="H245">
+        <v>20</v>
+      </c>
+      <c r="I245" t="s">
+        <v>154</v>
+      </c>
+      <c r="J245" t="s">
+        <v>15</v>
+      </c>
+      <c r="L245">
+        <v>1</v>
+      </c>
       <c r="W245" s="3"/>
       <c r="Y245" s="2"/>
       <c r="Z245" s="2"/>
@@ -9702,18 +9882,35 @@
         <v>121</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C246" s="3">
-        <v>6980911353777</v>
+        <v>6978993354678</v>
       </c>
       <c r="D246" t="s">
-        <v>260</v>
+        <v>372</v>
       </c>
       <c r="E246" s="2">
-        <v>43216.606249999997</v>
-      </c>
-      <c r="F246" s="2"/>
+        <v>43216.490277777775</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G246">
+        <v>63</v>
+      </c>
+      <c r="H246">
+        <v>284</v>
+      </c>
+      <c r="I246" t="s">
+        <v>154</v>
+      </c>
+      <c r="J246" t="s">
+        <v>10</v>
+      </c>
+      <c r="L246">
+        <v>2</v>
+      </c>
       <c r="W246" s="3"/>
       <c r="Y246" s="2"/>
       <c r="Z246" s="2"/>
@@ -9723,18 +9920,32 @@
         <v>121</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="C247" s="3">
-        <v>6980531353694</v>
+        <v>6978993354678</v>
       </c>
       <c r="D247" t="s">
-        <v>218</v>
+        <v>372</v>
       </c>
       <c r="E247" s="2">
-        <v>43216.615277777775</v>
-      </c>
-      <c r="F247" s="2"/>
+        <v>43216.490277777775</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G247">
+        <v>134</v>
+      </c>
+      <c r="H247">
+        <v>195</v>
+      </c>
+      <c r="I247" t="s">
+        <v>156</v>
+      </c>
+      <c r="L247">
+        <v>1</v>
+      </c>
       <c r="W247" s="3"/>
       <c r="Y247" s="2"/>
       <c r="Z247" s="2"/>
@@ -9744,18 +9955,35 @@
         <v>121</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C248" s="3">
-        <v>6980411353676</v>
+        <v>6980084354118</v>
       </c>
       <c r="D248" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="E248" s="2">
-        <v>43216.620138888888</v>
-      </c>
-      <c r="F248" s="2"/>
+        <v>43216.490277777775</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G248">
+        <v>112</v>
+      </c>
+      <c r="H248">
+        <v>18</v>
+      </c>
+      <c r="I248" t="s">
+        <v>153</v>
+      </c>
+      <c r="J248" t="s">
+        <v>10</v>
+      </c>
+      <c r="L248">
+        <v>1</v>
+      </c>
       <c r="W248" s="3"/>
       <c r="Y248" s="2"/>
       <c r="Z248" s="2"/>
@@ -9765,18 +9993,20 @@
         <v>121</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="C249" s="3">
-        <v>6980373353646</v>
+        <v>6980084354118</v>
       </c>
       <c r="D249" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="E249" s="2">
-        <v>43216.622916666667</v>
-      </c>
-      <c r="F249" s="2"/>
+        <v>43216.490277777775</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="W249" s="3"/>
       <c r="Y249" s="2"/>
       <c r="Z249" s="2"/>
@@ -9786,18 +10016,20 @@
         <v>121</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C250" s="3">
-        <v>6980103353507</v>
+        <v>6980084354118</v>
       </c>
       <c r="D250" t="s">
-        <v>182</v>
+        <v>281</v>
       </c>
       <c r="E250" s="2">
-        <v>43216.62777777778</v>
-      </c>
-      <c r="F250" s="2"/>
+        <v>43216.490277777775</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="W250" s="3"/>
       <c r="Y250" s="2"/>
       <c r="Z250" s="2"/>
@@ -9807,16 +10039,16 @@
         <v>121</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C251" s="3">
-        <v>6979753353371</v>
+        <v>6981270353841</v>
       </c>
       <c r="D251" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="E251" s="2">
-        <v>43216.634722222225</v>
+        <v>43216.509027777778</v>
       </c>
       <c r="F251" s="2"/>
       <c r="W251" s="3"/>
@@ -9828,16 +10060,16 @@
         <v>121</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="C252" s="3">
-        <v>6979459353143</v>
+        <v>6980911353777</v>
       </c>
       <c r="D252" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="E252" s="2">
-        <v>43216.640972222223</v>
+        <v>43216.606249999997</v>
       </c>
       <c r="F252" s="2"/>
       <c r="W252" s="3"/>
@@ -9849,16 +10081,16 @@
         <v>121</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C253" s="3">
-        <v>6979305353040</v>
+        <v>6980531353694</v>
       </c>
       <c r="D253" t="s">
-        <v>296</v>
+        <v>218</v>
       </c>
       <c r="E253" s="2">
-        <v>43216.645138888889</v>
+        <v>43216.615277777775</v>
       </c>
       <c r="F253" s="2"/>
       <c r="W253" s="3"/>
@@ -9870,16 +10102,16 @@
         <v>121</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="C254" s="3">
-        <v>6979202352873</v>
+        <v>6980411353676</v>
       </c>
       <c r="D254" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E254" s="2">
-        <v>43216.650694444441</v>
+        <v>43216.620138888888</v>
       </c>
       <c r="F254" s="2"/>
       <c r="W254" s="3"/>
@@ -9891,16 +10123,16 @@
         <v>121</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C255" s="3">
-        <v>6978426351327</v>
+        <v>6980373353646</v>
       </c>
       <c r="D255" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="E255" s="2">
-        <v>43216.677083333336</v>
+        <v>43216.622916666667</v>
       </c>
       <c r="F255" s="2"/>
       <c r="W255" s="3"/>
@@ -9909,19 +10141,19 @@
     </row>
     <row r="256" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="C256" s="3">
-        <v>6982302355715</v>
+        <v>6980103353507</v>
       </c>
       <c r="D256" t="s">
-        <v>299</v>
+        <v>182</v>
       </c>
       <c r="E256" s="2">
-        <v>43217.268750000003</v>
+        <v>43216.62777777778</v>
       </c>
       <c r="F256" s="2"/>
       <c r="W256" s="3"/>
@@ -9930,19 +10162,19 @@
     </row>
     <row r="257" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C257" s="3">
-        <v>6983090356519</v>
+        <v>6979753353371</v>
       </c>
       <c r="D257" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E257" s="2">
-        <v>43217.288194444445</v>
+        <v>43216.634722222225</v>
       </c>
       <c r="F257" s="2"/>
       <c r="W257" s="3"/>
@@ -9951,19 +10183,19 @@
     </row>
     <row r="258" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C258" s="3">
-        <v>6983032356674</v>
+        <v>6979459353143</v>
       </c>
       <c r="D258" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E258" s="2">
-        <v>43217.292361111111</v>
+        <v>43216.640972222223</v>
       </c>
       <c r="F258" s="2"/>
       <c r="W258" s="3"/>
@@ -9972,19 +10204,19 @@
     </row>
     <row r="259" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="C259" s="3">
-        <v>6982991356782</v>
+        <v>6979305353040</v>
       </c>
       <c r="D259" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E259" s="2">
-        <v>43217.294444444444</v>
+        <v>43216.645138888889</v>
       </c>
       <c r="F259" s="2"/>
       <c r="W259" s="3"/>
@@ -9993,19 +10225,19 @@
     </row>
     <row r="260" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="C260" s="3">
-        <v>6982916356948</v>
+        <v>6979202352873</v>
       </c>
       <c r="D260" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E260" s="2">
-        <v>43217.296527777777</v>
+        <v>43216.650694444441</v>
       </c>
       <c r="F260" s="2"/>
       <c r="W260" s="3"/>
@@ -10014,19 +10246,19 @@
     </row>
     <row r="261" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C261" s="3">
-        <v>6982928357079</v>
+        <v>6978426351327</v>
       </c>
       <c r="D261" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E261" s="2">
-        <v>43217.298611111109</v>
+        <v>43216.677083333336</v>
       </c>
       <c r="F261" s="2"/>
       <c r="W261" s="3"/>
@@ -10038,16 +10270,16 @@
         <v>125</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="C262" s="3">
-        <v>6982958357172</v>
+        <v>6982302355715</v>
       </c>
       <c r="D262" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E262" s="2">
-        <v>43217.3</v>
+        <v>43217.268750000003</v>
       </c>
       <c r="F262" s="2"/>
       <c r="W262" s="3"/>
@@ -10059,16 +10291,16 @@
         <v>125</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="C263" s="3">
-        <v>6982732357448</v>
+        <v>6983090356519</v>
       </c>
       <c r="D263" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E263" s="2">
-        <v>43217.305555555555</v>
+        <v>43217.288194444445</v>
       </c>
       <c r="F263" s="2"/>
       <c r="W263" s="3"/>
@@ -10080,16 +10312,16 @@
         <v>125</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="C264" s="3">
-        <v>6982630357699</v>
+        <v>6983032356674</v>
       </c>
       <c r="D264" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="E264" s="2">
-        <v>43217.30972222222</v>
+        <v>43217.292361111111</v>
       </c>
     </row>
     <row r="265" spans="1:26" x14ac:dyDescent="0.2">
@@ -10097,16 +10329,16 @@
         <v>125</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="C265" s="3">
-        <v>6982183358919</v>
+        <v>6982991356782</v>
       </c>
       <c r="D265" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E265" s="2">
-        <v>43217.379861111112</v>
+        <v>43217.294444444444</v>
       </c>
     </row>
     <row r="266" spans="1:26" x14ac:dyDescent="0.2">
@@ -10114,16 +10346,16 @@
         <v>125</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C266" s="3">
-        <v>6982114359058</v>
+        <v>6982916356948</v>
       </c>
       <c r="D266" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="E266" s="2">
-        <v>43217.384027777778</v>
+        <v>43217.296527777777</v>
       </c>
       <c r="F266" s="2"/>
     </row>
@@ -10132,16 +10364,16 @@
         <v>125</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="C267" s="3">
-        <v>6982006359291</v>
+        <v>6982928357079</v>
       </c>
       <c r="D267" t="s">
-        <v>240</v>
+        <v>303</v>
       </c>
       <c r="E267" s="2">
-        <v>43217.388888888891</v>
+        <v>43217.298611111109</v>
       </c>
       <c r="F267" s="2"/>
     </row>
@@ -10150,16 +10382,16 @@
         <v>125</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="C268" s="3">
-        <v>6981940359461</v>
+        <v>6982958357172</v>
       </c>
       <c r="D268" t="s">
-        <v>239</v>
+        <v>304</v>
       </c>
       <c r="E268" s="2">
-        <v>43217.392361111109</v>
+        <v>43217.3</v>
       </c>
       <c r="F268" s="2"/>
     </row>
@@ -10171,13 +10403,13 @@
         <v>51</v>
       </c>
       <c r="C269" s="3">
-        <v>6981870359749</v>
+        <v>6982732357448</v>
       </c>
       <c r="D269" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
       <c r="E269" s="2">
-        <v>43217.4</v>
+        <v>43217.305555555555</v>
       </c>
       <c r="F269" s="2"/>
     </row>
@@ -10186,16 +10418,16 @@
         <v>125</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="C270" s="3">
-        <v>6981921360308</v>
+        <v>6982630357699</v>
       </c>
       <c r="D270" t="s">
-        <v>214</v>
+        <v>292</v>
       </c>
       <c r="E270" s="2">
-        <v>43217.407638888886</v>
+        <v>43217.30972222222</v>
       </c>
       <c r="F270" s="2"/>
     </row>
@@ -10204,16 +10436,16 @@
         <v>125</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C271" s="3">
-        <v>6983945359739</v>
+        <v>6982183358919</v>
       </c>
       <c r="D271" t="s">
-        <v>221</v>
+        <v>306</v>
       </c>
       <c r="E271" s="2">
-        <v>43217.45208333333</v>
+        <v>43217.379861111112</v>
       </c>
       <c r="F271" s="2"/>
     </row>
@@ -10222,16 +10454,16 @@
         <v>125</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="C272" s="3">
-        <v>6984478359678</v>
+        <v>6982114359058</v>
       </c>
       <c r="D272" t="s">
-        <v>199</v>
+        <v>307</v>
       </c>
       <c r="E272" s="2">
-        <v>43217.461805555555</v>
+        <v>43217.384027777778</v>
       </c>
       <c r="F272" s="2"/>
     </row>
@@ -10240,16 +10472,16 @@
         <v>125</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C273" s="3">
-        <v>6984553359647</v>
+        <v>6982006359291</v>
       </c>
       <c r="D273" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="E273" s="2">
-        <v>43217.465277777781</v>
+        <v>43217.388888888891</v>
       </c>
       <c r="F273" s="2"/>
     </row>
@@ -10258,16 +10490,16 @@
         <v>125</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="C274" s="3">
-        <v>6985096359518</v>
+        <v>6981940359461</v>
       </c>
       <c r="D274" t="s">
-        <v>308</v>
+        <v>239</v>
       </c>
       <c r="E274" s="2">
-        <v>43217.475694444445</v>
+        <v>43217.392361111109</v>
       </c>
       <c r="F274" s="2"/>
       <c r="O274" s="2"/>
@@ -10277,16 +10509,16 @@
         <v>125</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C275" s="3">
-        <v>6985863359293</v>
+        <v>6981870359749</v>
       </c>
       <c r="D275" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="E275" s="2">
-        <v>43217.490972222222</v>
+        <v>43217.4</v>
       </c>
       <c r="F275" s="2"/>
       <c r="O275" s="2"/>
@@ -10296,16 +10528,16 @@
         <v>125</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="C276" s="3">
-        <v>6985409358759</v>
+        <v>6981921360308</v>
       </c>
       <c r="D276" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="E276" s="2">
-        <v>43217.513194444444</v>
+        <v>43217.407638888886</v>
       </c>
       <c r="F276" s="2"/>
       <c r="O276" s="2"/>
@@ -10315,16 +10547,16 @@
         <v>125</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="C277" s="3">
-        <v>6985041358323</v>
+        <v>6983945359739</v>
       </c>
       <c r="D277" t="s">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="E277" s="2">
-        <v>43217.520138888889</v>
+        <v>43217.45208333333</v>
       </c>
       <c r="F277" s="2"/>
       <c r="O277" s="2"/>
@@ -10334,16 +10566,16 @@
         <v>125</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="C278" s="3">
-        <v>6983184356513</v>
+        <v>6984478359678</v>
       </c>
       <c r="D278" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="E278" s="2">
-        <v>43217.554166666669</v>
+        <v>43217.461805555555</v>
       </c>
       <c r="F278" s="2"/>
       <c r="N278" s="2"/>
@@ -10351,19 +10583,19 @@
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C279" s="3">
-        <v>7005963362616</v>
+        <v>6984553359647</v>
       </c>
       <c r="D279" t="s">
-        <v>323</v>
+        <v>199</v>
       </c>
       <c r="E279" s="2">
-        <v>43220.375</v>
+        <v>43217.465277777781</v>
       </c>
       <c r="F279" s="2"/>
       <c r="N279" s="2"/>
@@ -10371,19 +10603,19 @@
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="C280" s="3">
-        <v>7005930362243</v>
+        <v>6985096359518</v>
       </c>
       <c r="D280" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E280" s="2">
-        <v>43220.384027777778</v>
+        <v>43217.475694444445</v>
       </c>
       <c r="F280" s="2"/>
       <c r="N280" s="2"/>
@@ -10391,19 +10623,19 @@
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="C281" s="3">
-        <v>7005887361616</v>
+        <v>6985863359293</v>
       </c>
       <c r="D281" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E281" s="2">
-        <v>43220.38958333333</v>
+        <v>43217.490972222222</v>
       </c>
       <c r="F281" s="2"/>
       <c r="N281" s="2"/>
@@ -10411,19 +10643,19 @@
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="C282" s="3">
-        <v>7005948361408</v>
+        <v>6985409358759</v>
       </c>
       <c r="D282" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="E282" s="2">
-        <v>43220.393055555556</v>
+        <v>43217.513194444444</v>
       </c>
       <c r="F282" s="2"/>
       <c r="N282" s="2"/>
@@ -10431,19 +10663,19 @@
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C283" s="3">
-        <v>7006091360439</v>
+        <v>6985041358323</v>
       </c>
       <c r="D283" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="E283" s="2">
-        <v>43220.415277777778</v>
+        <v>43217.520138888889</v>
       </c>
       <c r="F283" s="2"/>
       <c r="N283" s="2"/>
@@ -10451,19 +10683,19 @@
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="C284" s="3">
-        <v>7006105360299</v>
+        <v>6983184356513</v>
       </c>
       <c r="D284" t="s">
-        <v>247</v>
+        <v>310</v>
       </c>
       <c r="E284" s="2">
-        <v>43220.418055555558</v>
+        <v>43217.554166666669</v>
       </c>
       <c r="F284" s="2"/>
       <c r="N284" s="2"/>
@@ -10474,16 +10706,16 @@
         <v>145</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="C285" s="3">
-        <v>7006130360148</v>
+        <v>7005963362616</v>
       </c>
       <c r="D285" t="s">
-        <v>253</v>
+        <v>323</v>
       </c>
       <c r="E285" s="2">
-        <v>43220.422222222223</v>
+        <v>43220.375</v>
       </c>
       <c r="F285" s="2"/>
       <c r="N285" s="2"/>
@@ -10494,16 +10726,16 @@
         <v>145</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C286" s="3">
-        <v>7006133360128</v>
+        <v>7005930362243</v>
       </c>
       <c r="D286" t="s">
-        <v>253</v>
+        <v>311</v>
       </c>
       <c r="E286" s="2">
-        <v>43220.424305555556</v>
+        <v>43220.384027777778</v>
       </c>
       <c r="F286" s="2"/>
       <c r="N286" s="2"/>
@@ -10514,16 +10746,16 @@
         <v>145</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="C287" s="3">
-        <v>7006146360075</v>
+        <v>7005887361616</v>
       </c>
       <c r="D287" t="s">
-        <v>225</v>
+        <v>312</v>
       </c>
       <c r="E287" s="2">
-        <v>43220.425694444442</v>
+        <v>43220.38958333333</v>
       </c>
       <c r="F287" s="2"/>
       <c r="N287" s="2"/>
@@ -10534,16 +10766,16 @@
         <v>145</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="C288" s="3">
-        <v>7006171360032</v>
+        <v>7005948361408</v>
       </c>
       <c r="D288" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="E288" s="2">
-        <v>43220.427777777775</v>
+        <v>43220.393055555556</v>
       </c>
       <c r="F288" s="2"/>
       <c r="N288" s="2"/>
@@ -10554,16 +10786,16 @@
         <v>145</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C289" s="3">
-        <v>7006203359711</v>
+        <v>7006091360439</v>
       </c>
       <c r="D289" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="E289" s="2">
-        <v>43220.432638888888</v>
+        <v>43220.415277777778</v>
       </c>
       <c r="F289" s="2"/>
       <c r="N289" s="2"/>
@@ -10574,16 +10806,16 @@
         <v>145</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="C290" s="3">
-        <v>7006211359605</v>
+        <v>7006105360299</v>
       </c>
       <c r="D290" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="E290" s="2">
-        <v>43220.43472222222</v>
+        <v>43220.418055555558</v>
       </c>
       <c r="F290" s="2"/>
       <c r="N290" s="2"/>
@@ -10594,16 +10826,16 @@
         <v>145</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="C291" s="3">
-        <v>7006143359330</v>
+        <v>7006130360148</v>
       </c>
       <c r="D291" t="s">
-        <v>314</v>
+        <v>253</v>
       </c>
       <c r="E291" s="2">
-        <v>43220.4375</v>
+        <v>43220.422222222223</v>
       </c>
       <c r="F291" s="2"/>
       <c r="N291" s="2"/>
@@ -10614,16 +10846,16 @@
         <v>145</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C292" s="3">
-        <v>7006114359146</v>
+        <v>7006133360128</v>
       </c>
       <c r="D292" t="s">
-        <v>315</v>
+        <v>253</v>
       </c>
       <c r="E292" s="2">
-        <v>43220.441666666666</v>
+        <v>43220.424305555556</v>
       </c>
       <c r="F292" s="2"/>
       <c r="N292" s="2"/>
@@ -10634,16 +10866,16 @@
         <v>145</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C293" s="3">
-        <v>7006105359105</v>
+        <v>7006146360075</v>
       </c>
       <c r="D293" t="s">
-        <v>307</v>
+        <v>225</v>
       </c>
       <c r="E293" s="2">
-        <v>43220.443055555559</v>
+        <v>43220.425694444442</v>
       </c>
       <c r="F293" s="2"/>
       <c r="N293" s="2"/>
@@ -10654,16 +10886,16 @@
         <v>145</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C294" s="3">
-        <v>7006097359055</v>
+        <v>7006171360032</v>
       </c>
       <c r="D294" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="E294" s="2">
-        <v>43220.445138888892</v>
+        <v>43220.427777777775</v>
       </c>
       <c r="F294" s="2"/>
       <c r="N294" s="2"/>
@@ -10674,16 +10906,16 @@
         <v>145</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="C295" s="3">
-        <v>7006092358975</v>
+        <v>7006203359711</v>
       </c>
       <c r="D295" t="s">
-        <v>307</v>
+        <v>233</v>
       </c>
       <c r="E295" s="2">
-        <v>43220.448611111111</v>
+        <v>43220.432638888888</v>
       </c>
       <c r="F295" s="2"/>
       <c r="N295" s="2"/>
@@ -10694,16 +10926,16 @@
         <v>145</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C296" s="3">
-        <v>7006069358719</v>
+        <v>7006211359605</v>
       </c>
       <c r="D296" t="s">
-        <v>315</v>
+        <v>217</v>
       </c>
       <c r="E296" s="2">
-        <v>43220.45208333333</v>
+        <v>43220.43472222222</v>
       </c>
       <c r="F296" s="2"/>
       <c r="N296" s="2"/>
@@ -10714,16 +10946,16 @@
         <v>145</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C297" s="3">
-        <v>7006070358639</v>
+        <v>7006143359330</v>
       </c>
       <c r="D297" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E297" s="2">
-        <v>43220.45416666667</v>
+        <v>43220.4375</v>
       </c>
       <c r="F297" s="2"/>
       <c r="N297" s="2"/>
@@ -10733,16 +10965,16 @@
         <v>145</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C298" s="3">
-        <v>7006048358564</v>
+        <v>7006114359146</v>
       </c>
       <c r="D298" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="E298" s="2">
-        <v>43220.455555555556</v>
+        <v>43220.441666666666</v>
       </c>
       <c r="F298" s="2"/>
       <c r="N298" s="2"/>
@@ -10752,16 +10984,16 @@
         <v>145</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="C299" s="3">
-        <v>7005966358599</v>
+        <v>7006105359105</v>
       </c>
       <c r="D299" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E299" s="2">
-        <v>43220.482638888891</v>
+        <v>43220.443055555559</v>
       </c>
       <c r="F299" s="2"/>
       <c r="N299" s="2"/>
@@ -10771,16 +11003,16 @@
         <v>145</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C300" s="3">
-        <v>7005754358715</v>
+        <v>7006097359055</v>
       </c>
       <c r="D300" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="E300" s="2">
-        <v>43220.486805555556</v>
+        <v>43220.445138888892</v>
       </c>
       <c r="F300" s="2"/>
       <c r="N300" s="2"/>
@@ -10790,16 +11022,16 @@
         <v>145</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="C301" s="3">
-        <v>7005614358794</v>
+        <v>7006092358975</v>
       </c>
       <c r="D301" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="E301" s="2">
-        <v>43220.488888888889</v>
+        <v>43220.448611111111</v>
       </c>
       <c r="F301" s="2"/>
       <c r="P301" s="2"/>
@@ -10809,16 +11041,16 @@
         <v>145</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C302" s="3">
-        <v>7005555358825</v>
+        <v>7006069358719</v>
       </c>
       <c r="D302" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E302" s="2">
-        <v>43220.490277777775</v>
+        <v>43220.45208333333</v>
       </c>
       <c r="F302" s="2"/>
       <c r="P302" s="2"/>
@@ -10828,16 +11060,16 @@
         <v>145</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C303" s="3">
-        <v>7005172359049</v>
+        <v>7006070358639</v>
       </c>
       <c r="D303" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="E303" s="2">
-        <v>43220.493055555555</v>
+        <v>43220.45416666667</v>
       </c>
       <c r="F303" s="2"/>
       <c r="P303" s="2"/>
@@ -10847,16 +11079,16 @@
         <v>145</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C304" s="3">
-        <v>7004845359228</v>
+        <v>7006048358564</v>
       </c>
       <c r="D304" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="E304" s="2">
-        <v>43220.49722222222</v>
+        <v>43220.455555555556</v>
       </c>
       <c r="F304" s="2"/>
       <c r="O304" s="2"/>
@@ -10867,16 +11099,16 @@
         <v>145</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="C305" s="3">
-        <v>7004594359342</v>
+        <v>7005966358599</v>
       </c>
       <c r="D305" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E305" s="2">
-        <v>43220.503472222219</v>
+        <v>43220.482638888891</v>
       </c>
       <c r="F305" s="2"/>
       <c r="O305" s="2"/>
@@ -10887,16 +11119,16 @@
         <v>145</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="C306" s="3">
-        <v>7004462359409</v>
+        <v>7005754358715</v>
       </c>
       <c r="D306" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E306" s="2">
-        <v>43220.506249999999</v>
+        <v>43220.486805555556</v>
       </c>
       <c r="F306" s="2"/>
       <c r="O306" s="2"/>
@@ -10907,16 +11139,16 @@
         <v>145</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="C307" s="3">
-        <v>7004326359594</v>
+        <v>7005614358794</v>
       </c>
       <c r="D307" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="E307" s="2">
-        <v>43220.508333333331</v>
+        <v>43220.488888888889</v>
       </c>
       <c r="F307" s="2"/>
       <c r="O307" s="2"/>
@@ -10927,16 +11159,16 @@
         <v>145</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="C308" s="3">
-        <v>7004265359557</v>
+        <v>7005555358825</v>
       </c>
       <c r="D308" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E308" s="2">
-        <v>43220.509722222225</v>
+        <v>43220.490277777775</v>
       </c>
       <c r="F308" s="2"/>
       <c r="M308" s="3"/>
@@ -10948,16 +11180,16 @@
         <v>145</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C309" s="3">
-        <v>7004067359659</v>
+        <v>7005172359049</v>
       </c>
       <c r="D309" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="E309" s="2">
-        <v>43220.513194444444</v>
+        <v>43220.493055555555</v>
       </c>
       <c r="F309" s="2"/>
       <c r="M309" s="3"/>
@@ -10969,16 +11201,16 @@
         <v>145</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="C310" s="3">
-        <v>7004008359687</v>
+        <v>7004845359228</v>
       </c>
       <c r="D310" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E310" s="2">
-        <v>43220.515277777777</v>
+        <v>43220.49722222222</v>
       </c>
       <c r="F310" s="2"/>
       <c r="M310" s="3"/>
@@ -10990,16 +11222,16 @@
         <v>145</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C311" s="3">
-        <v>7003441360041</v>
+        <v>7004594359342</v>
       </c>
       <c r="D311" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E311" s="2">
-        <v>43220.525694444441</v>
+        <v>43220.503472222219</v>
       </c>
       <c r="F311" s="2"/>
       <c r="M311" s="3"/>
@@ -11011,16 +11243,16 @@
         <v>145</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C312" s="3">
-        <v>7003437360048</v>
+        <v>7004462359409</v>
       </c>
       <c r="D312" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E312" s="2">
-        <v>43220.52847222222</v>
+        <v>43220.506249999999</v>
       </c>
       <c r="F312" s="2"/>
       <c r="M312" s="3"/>
@@ -11032,16 +11264,16 @@
         <v>145</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="C313" s="3">
-        <v>7003383360066</v>
+        <v>7004326359594</v>
       </c>
       <c r="D313" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E313" s="2">
-        <v>43220.53125</v>
+        <v>43220.508333333331</v>
       </c>
       <c r="F313" s="2"/>
       <c r="M313" s="3"/>
@@ -11053,16 +11285,16 @@
         <v>145</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="C314" s="3">
-        <v>7003064360213</v>
+        <v>7004265359557</v>
       </c>
       <c r="D314" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E314" s="2">
-        <v>43220.536111111112</v>
+        <v>43220.509722222225</v>
       </c>
       <c r="F314" s="2"/>
       <c r="M314" s="3"/>
@@ -11074,16 +11306,16 @@
         <v>145</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="C315" s="3">
-        <v>7002924360280</v>
+        <v>7004067359659</v>
       </c>
       <c r="D315" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="E315" s="2">
-        <v>43220.539583333331</v>
+        <v>43220.513194444444</v>
       </c>
       <c r="F315" s="2"/>
       <c r="M315" s="3"/>
@@ -11095,16 +11327,16 @@
         <v>145</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="C316" s="3">
-        <v>7002846360330</v>
+        <v>7004008359687</v>
       </c>
       <c r="D316" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E316" s="2">
-        <v>43220.542361111111</v>
+        <v>43220.515277777777</v>
       </c>
       <c r="F316" s="2"/>
       <c r="M316" s="3"/>
@@ -11116,16 +11348,16 @@
         <v>145</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="C317" s="3">
-        <v>7002828360337</v>
+        <v>7003441360041</v>
       </c>
       <c r="D317" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E317" s="2">
-        <v>43220.544444444444</v>
+        <v>43220.525694444441</v>
       </c>
       <c r="F317" s="2"/>
       <c r="M317" s="3"/>
@@ -11137,16 +11369,16 @@
         <v>145</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="C318" s="3">
-        <v>7002573360565</v>
+        <v>7003437360048</v>
       </c>
       <c r="D318" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E318" s="2">
-        <v>43220.55</v>
+        <v>43220.52847222222</v>
       </c>
       <c r="F318" s="2"/>
       <c r="M318" s="3"/>
@@ -11158,16 +11390,16 @@
         <v>145</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="C319" s="3">
-        <v>7002551360604</v>
+        <v>7003383360066</v>
       </c>
       <c r="D319" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="E319" s="2">
-        <v>43220.552777777775</v>
+        <v>43220.53125</v>
       </c>
       <c r="F319" s="2"/>
       <c r="M319" s="3"/>
@@ -11179,16 +11411,16 @@
         <v>145</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C320" s="3">
-        <v>7002731360751</v>
+        <v>7003064360213</v>
       </c>
       <c r="D320" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E320" s="2">
-        <v>43220.55972222222</v>
+        <v>43220.536111111112</v>
       </c>
       <c r="F320" s="2"/>
       <c r="M320" s="3"/>
@@ -11200,16 +11432,16 @@
         <v>145</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="C321" s="3">
-        <v>7003942361654</v>
+        <v>7002924360280</v>
       </c>
       <c r="D321" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="E321" s="2">
-        <v>43220.577777777777</v>
+        <v>43220.539583333331</v>
       </c>
       <c r="F321" s="2"/>
       <c r="M321" s="3"/>
@@ -11221,16 +11453,16 @@
         <v>145</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="C322" s="3">
-        <v>7004010361690</v>
+        <v>7002846360330</v>
       </c>
       <c r="D322" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="E322" s="2">
-        <v>43220.580555555556</v>
+        <v>43220.542361111111</v>
       </c>
       <c r="F322" s="2"/>
       <c r="M322" s="3"/>
@@ -11242,16 +11474,16 @@
         <v>145</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="C323" s="3">
-        <v>7004478361995</v>
+        <v>7002828360337</v>
       </c>
       <c r="D323" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="E323" s="2">
-        <v>43220.63958333333</v>
+        <v>43220.544444444444</v>
       </c>
       <c r="F323" s="2"/>
       <c r="M323" s="3"/>
@@ -11263,16 +11495,16 @@
         <v>145</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C324" s="3">
-        <v>7004518362018</v>
+        <v>7002573360565</v>
       </c>
       <c r="D324" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="E324" s="2">
-        <v>43220.64166666667</v>
+        <v>43220.55</v>
       </c>
       <c r="F324" s="2"/>
       <c r="M324" s="3"/>
@@ -11284,16 +11516,16 @@
         <v>145</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="C325" s="3">
-        <v>7004641362075</v>
+        <v>7002551360604</v>
       </c>
       <c r="D325" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="E325" s="2">
-        <v>43220.643750000003</v>
+        <v>43220.552777777775</v>
       </c>
       <c r="F325" s="2"/>
       <c r="M325" s="3"/>
@@ -11305,16 +11537,16 @@
         <v>145</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C326" s="3">
-        <v>7004976362244</v>
+        <v>7002731360751</v>
       </c>
       <c r="D326" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E326" s="2">
-        <v>43220.648611111108</v>
+        <v>43220.55972222222</v>
       </c>
       <c r="M326" s="3"/>
       <c r="O326" s="2"/>
@@ -11325,16 +11557,16 @@
         <v>145</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="C327" s="3">
-        <v>7005036362271</v>
+        <v>7003942361654</v>
       </c>
       <c r="D327" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E327" s="2">
-        <v>43220.650694444441</v>
+        <v>43220.577777777777</v>
       </c>
       <c r="M327" s="3"/>
       <c r="O327" s="2"/>
@@ -11345,16 +11577,16 @@
         <v>145</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="C328" s="3">
-        <v>7005401362460</v>
+        <v>7004010361690</v>
       </c>
       <c r="D328" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="E328" s="2">
-        <v>43220.654861111114</v>
+        <v>43220.580555555556</v>
       </c>
       <c r="M328" s="3"/>
       <c r="O328" s="2"/>
@@ -11362,19 +11594,19 @@
     </row>
     <row r="329" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="C329" s="3">
-        <v>7004400359209</v>
+        <v>7004478361995</v>
       </c>
       <c r="D329" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="E329" s="2">
-        <v>43221.29583333333</v>
+        <v>43220.63958333333</v>
       </c>
       <c r="M329" s="3"/>
       <c r="O329" s="2"/>
@@ -11382,19 +11614,19 @@
     </row>
     <row r="330" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="C330" s="3">
-        <v>7003918358291</v>
+        <v>7004518362018</v>
       </c>
       <c r="D330" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="E330" s="2">
-        <v>43221.315972222219</v>
+        <v>43220.64166666667</v>
       </c>
       <c r="M330" s="3"/>
       <c r="O330" s="2"/>
@@ -11402,76 +11634,76 @@
     </row>
     <row r="331" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="C331" s="3">
-        <v>7003782358005</v>
+        <v>7004641362075</v>
       </c>
       <c r="D331" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="E331" s="2">
-        <v>43221.322222222225</v>
+        <v>43220.643750000003</v>
       </c>
       <c r="M331" s="3"/>
       <c r="O331" s="2"/>
     </row>
     <row r="332" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="C332" s="3">
-        <v>7003733357829</v>
+        <v>7004976362244</v>
       </c>
       <c r="D332" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E332" s="2">
-        <v>43221.325694444444</v>
+        <v>43220.648611111108</v>
       </c>
       <c r="M332" s="3"/>
       <c r="O332" s="2"/>
     </row>
     <row r="333" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="C333" s="3">
-        <v>7003632357578</v>
+        <v>7005036362271</v>
       </c>
       <c r="D333" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="E333" s="2">
-        <v>43221.329861111109</v>
+        <v>43220.650694444441</v>
       </c>
       <c r="M333" s="3"/>
       <c r="O333" s="2"/>
     </row>
     <row r="334" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="C334" s="3">
-        <v>7002949356265</v>
+        <v>7005401362460</v>
       </c>
       <c r="D334" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E334" s="2">
-        <v>43221.34375</v>
+        <v>43220.654861111114</v>
       </c>
       <c r="M334" s="3"/>
     </row>
@@ -11480,16 +11712,16 @@
         <v>149</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="C335" s="3">
-        <v>7002812355949</v>
+        <v>7004400359209</v>
       </c>
       <c r="D335" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E335" s="2">
-        <v>43221.348611111112</v>
+        <v>43221.29583333333</v>
       </c>
       <c r="M335" s="3"/>
     </row>
@@ -11498,16 +11730,16 @@
         <v>149</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="C336" s="3">
-        <v>7002785355789</v>
+        <v>7003918358291</v>
       </c>
       <c r="D336" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="E336" s="2">
-        <v>43221.351388888892</v>
+        <v>43221.315972222219</v>
       </c>
       <c r="M336" s="3"/>
     </row>
@@ -11516,16 +11748,16 @@
         <v>149</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="C337" s="3">
-        <v>7002775355736</v>
+        <v>7003782358005</v>
       </c>
       <c r="D337" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="E337" s="2">
-        <v>43221.354166666664</v>
+        <v>43221.322222222225</v>
       </c>
       <c r="M337" s="3"/>
     </row>
@@ -11534,16 +11766,16 @@
         <v>149</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C338" s="3">
-        <v>7002767355630</v>
+        <v>7003733357829</v>
       </c>
       <c r="D338" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E338" s="2">
-        <v>43221.375694444447</v>
+        <v>43221.325694444444</v>
       </c>
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.2">
@@ -11551,16 +11783,16 @@
         <v>149</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C339" s="3">
-        <v>7003185355743</v>
+        <v>7003632357578</v>
       </c>
       <c r="D339" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="E339" s="2">
-        <v>43221.38958333333</v>
+        <v>43221.329861111109</v>
       </c>
     </row>
     <row r="340" spans="1:15" x14ac:dyDescent="0.2">
@@ -11568,16 +11800,16 @@
         <v>149</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C340" s="3">
-        <v>7003537355760</v>
+        <v>7002949356265</v>
       </c>
       <c r="D340" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E340" s="2">
-        <v>43221.397916666669</v>
+        <v>43221.34375</v>
       </c>
       <c r="O340" s="2"/>
     </row>
@@ -11586,16 +11818,16 @@
         <v>149</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C341" s="3">
-        <v>7003563355747</v>
+        <v>7002812355949</v>
       </c>
       <c r="D341" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E341" s="2">
-        <v>43221.4</v>
+        <v>43221.348611111112</v>
       </c>
       <c r="O341" s="2"/>
     </row>
@@ -11604,16 +11836,16 @@
         <v>149</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="C342" s="3">
-        <v>7003632355750</v>
+        <v>7002785355789</v>
       </c>
       <c r="D342" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E342" s="2">
-        <v>43221.404166666667</v>
+        <v>43221.351388888892</v>
       </c>
       <c r="O342" s="2"/>
     </row>
@@ -11622,16 +11854,16 @@
         <v>149</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C343" s="3">
-        <v>7005429356236</v>
+        <v>7002775355736</v>
       </c>
       <c r="D343" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E343" s="2">
-        <v>43221.426388888889</v>
+        <v>43221.354166666664</v>
       </c>
       <c r="O343" s="2"/>
     </row>
@@ -11640,16 +11872,16 @@
         <v>149</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C344" s="3">
-        <v>7005578356227</v>
+        <v>7002767355630</v>
       </c>
       <c r="D344" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="E344" s="2">
-        <v>43221.431944444441</v>
+        <v>43221.375694444447</v>
       </c>
       <c r="L344" s="3"/>
       <c r="N344" s="2"/>
@@ -11660,16 +11892,16 @@
         <v>149</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C345" s="3">
-        <v>7005615356234</v>
+        <v>7003185355743</v>
       </c>
       <c r="D345" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="E345" s="2">
-        <v>43221.433333333334</v>
+        <v>43221.38958333333</v>
       </c>
       <c r="L345" s="3"/>
       <c r="N345" s="2"/>
@@ -11680,16 +11912,16 @@
         <v>149</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C346" s="3">
-        <v>7005818356285</v>
+        <v>7003537355760</v>
       </c>
       <c r="D346" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E346" s="2">
-        <v>43221.438888888886</v>
+        <v>43221.397916666669</v>
       </c>
       <c r="L346" s="3"/>
       <c r="N346" s="2"/>
@@ -11700,16 +11932,16 @@
         <v>149</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="C347" s="3">
-        <v>7005889356297</v>
+        <v>7003563355747</v>
       </c>
       <c r="D347" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E347" s="2">
-        <v>43221.440972222219</v>
+        <v>43221.4</v>
       </c>
       <c r="L347" s="3"/>
       <c r="N347" s="2"/>
@@ -11720,16 +11952,16 @@
         <v>149</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="C348" s="3">
-        <v>7005982356291</v>
+        <v>7003632355750</v>
       </c>
       <c r="D348" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E348" s="2">
-        <v>43221.445833333331</v>
+        <v>43221.404166666667</v>
       </c>
       <c r="L348" s="3"/>
       <c r="N348" s="2"/>
@@ -11740,16 +11972,16 @@
         <v>149</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C349" s="3">
-        <v>7006067356287</v>
+        <v>7005429356236</v>
       </c>
       <c r="D349" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E349" s="2">
-        <v>43221.448611111111</v>
+        <v>43221.426388888889</v>
       </c>
       <c r="L349" s="3"/>
       <c r="N349" s="2"/>
@@ -11760,16 +11992,16 @@
         <v>149</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="C350" s="3">
-        <v>7006110356278</v>
+        <v>7005578356227</v>
       </c>
       <c r="D350" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="E350" s="2">
-        <v>43221.45208333333</v>
+        <v>43221.431944444441</v>
       </c>
       <c r="L350" s="3"/>
       <c r="N350" s="2"/>
@@ -11780,16 +12012,16 @@
         <v>149</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C351" s="3">
-        <v>7006178356268</v>
+        <v>7005615356234</v>
       </c>
       <c r="D351" t="s">
-        <v>241</v>
+        <v>321</v>
       </c>
       <c r="E351" s="2">
-        <v>43221.455555555556</v>
+        <v>43221.433333333334</v>
       </c>
       <c r="L351" s="3"/>
       <c r="N351" s="2"/>
@@ -11800,16 +12032,16 @@
         <v>149</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="C352" s="3">
-        <v>7006451356272</v>
+        <v>7005818356285</v>
       </c>
       <c r="D352" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E352" s="2">
-        <v>43221.461111111108</v>
+        <v>43221.438888888886</v>
       </c>
       <c r="L352" s="3"/>
       <c r="N352" s="2"/>
@@ -11820,16 +12052,16 @@
         <v>149</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="C353" s="3">
-        <v>7006803356301</v>
+        <v>7005889356297</v>
       </c>
       <c r="D353" t="s">
-        <v>245</v>
+        <v>346</v>
       </c>
       <c r="E353" s="2">
-        <v>43221.468055555553</v>
+        <v>43221.440972222219</v>
       </c>
       <c r="L353" s="3"/>
       <c r="N353" s="2"/>
@@ -11840,16 +12072,16 @@
         <v>149</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="C354" s="3">
-        <v>7006600356476</v>
+        <v>7005982356291</v>
       </c>
       <c r="D354" t="s">
-        <v>290</v>
+        <v>346</v>
       </c>
       <c r="E354" s="2">
-        <v>43221.475694444445</v>
+        <v>43221.445833333331</v>
       </c>
       <c r="L354" s="3"/>
       <c r="N354" s="2"/>
@@ -11860,16 +12092,16 @@
         <v>149</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C355" s="3">
-        <v>7005428357911</v>
+        <v>7006067356287</v>
       </c>
       <c r="D355" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E355" s="2">
-        <v>43221.529166666667</v>
+        <v>43221.448611111111</v>
       </c>
       <c r="L355" s="3"/>
       <c r="N355" s="2"/>
@@ -11880,16 +12112,16 @@
         <v>149</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C356" s="3">
-        <v>7005274358127</v>
+        <v>7006110356278</v>
       </c>
       <c r="D356" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="E356" s="2">
-        <v>43221.532638888886</v>
+        <v>43221.45208333333</v>
       </c>
       <c r="L356" s="3"/>
       <c r="N356" s="2"/>
@@ -11900,16 +12132,16 @@
         <v>149</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C357" s="3">
-        <v>7005214358195</v>
+        <v>7006178356268</v>
       </c>
       <c r="D357" t="s">
-        <v>351</v>
+        <v>241</v>
       </c>
       <c r="E357" s="2">
-        <v>43221.535416666666</v>
+        <v>43221.455555555556</v>
       </c>
       <c r="L357" s="3"/>
       <c r="N357" s="2"/>
@@ -11920,16 +12152,16 @@
         <v>149</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="C358" s="3">
-        <v>7004453359147</v>
+        <v>7006451356272</v>
       </c>
       <c r="D358" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E358" s="2">
-        <v>43221.547222222223</v>
+        <v>43221.461111111108</v>
       </c>
       <c r="L358" s="3"/>
       <c r="N358" s="2"/>
@@ -11937,19 +12169,19 @@
     </row>
     <row r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="C359" s="3">
-        <v>7008546366649</v>
+        <v>7006803356301</v>
       </c>
       <c r="D359" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="E359" s="2">
-        <v>43222.325694444444</v>
+        <v>43221.468055555553</v>
       </c>
       <c r="L359" s="3"/>
       <c r="N359" s="2"/>
@@ -11957,19 +12189,19 @@
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C360" s="3">
-        <v>7008527366619</v>
+        <v>7006600356476</v>
       </c>
       <c r="D360" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="E360" s="2">
-        <v>43222.329861111109</v>
+        <v>43221.475694444445</v>
       </c>
       <c r="L360" s="3"/>
       <c r="N360" s="2"/>
@@ -11977,19 +12209,19 @@
     </row>
     <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="C361" s="3">
-        <v>7008489366555</v>
+        <v>7005428357911</v>
       </c>
       <c r="D361" t="s">
-        <v>196</v>
+        <v>350</v>
       </c>
       <c r="E361" s="2">
-        <v>43222.334027777775</v>
+        <v>43221.529166666667</v>
       </c>
       <c r="L361" s="3"/>
       <c r="N361" s="2"/>
@@ -11997,19 +12229,19 @@
     </row>
     <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C362" s="3">
-        <v>7008481366542</v>
+        <v>7005274358127</v>
       </c>
       <c r="D362" t="s">
-        <v>223</v>
+        <v>291</v>
       </c>
       <c r="E362" s="2">
-        <v>43222.335416666669</v>
+        <v>43221.532638888886</v>
       </c>
       <c r="L362" s="3"/>
       <c r="N362" s="2"/>
@@ -12017,19 +12249,19 @@
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C363" s="3">
-        <v>7008469366500</v>
+        <v>7005214358195</v>
       </c>
       <c r="D363" t="s">
-        <v>213</v>
+        <v>351</v>
       </c>
       <c r="E363" s="2">
-        <v>43222.336805555555</v>
+        <v>43221.535416666666</v>
       </c>
       <c r="L363" s="3"/>
       <c r="N363" s="2"/>
@@ -12037,19 +12269,19 @@
     </row>
     <row r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="C364" s="3">
-        <v>7008230366123</v>
+        <v>7004453359147</v>
       </c>
       <c r="D364" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E364" s="2">
-        <v>43222.348611111112</v>
+        <v>43221.547222222223</v>
       </c>
       <c r="L364" s="3"/>
       <c r="N364" s="2"/>
@@ -12060,16 +12292,16 @@
         <v>152</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="C365" s="3">
-        <v>7008184366055</v>
+        <v>7008546366649</v>
       </c>
       <c r="D365" t="s">
-        <v>354</v>
+        <v>208</v>
       </c>
       <c r="E365" s="2">
-        <v>43222.351388888892</v>
+        <v>43222.325694444444</v>
       </c>
       <c r="L365" s="3"/>
       <c r="N365" s="2"/>
@@ -12080,16 +12312,16 @@
         <v>152</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C366" s="3">
-        <v>7007756365256</v>
+        <v>7008527366619</v>
       </c>
       <c r="D366" t="s">
-        <v>355</v>
+        <v>235</v>
       </c>
       <c r="E366" s="2">
-        <v>43222.363888888889</v>
+        <v>43222.329861111109</v>
       </c>
       <c r="L366" s="3"/>
       <c r="N366" s="2"/>
@@ -12100,16 +12332,16 @@
         <v>152</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C367" s="3">
-        <v>7007701365129</v>
+        <v>7008489366555</v>
       </c>
       <c r="D367" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E367" s="2">
-        <v>43222.366666666669</v>
+        <v>43222.334027777775</v>
       </c>
       <c r="L367" s="3"/>
       <c r="N367" s="2"/>
@@ -12120,16 +12352,16 @@
         <v>152</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C368" s="3">
-        <v>7007599364865</v>
+        <v>7008481366542</v>
       </c>
       <c r="D368" t="s">
-        <v>356</v>
+        <v>223</v>
       </c>
       <c r="E368" s="2">
-        <v>43222.37222222222</v>
+        <v>43222.335416666669</v>
       </c>
       <c r="L368" s="3"/>
       <c r="N368" s="2"/>
@@ -12140,16 +12372,16 @@
         <v>152</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C369" s="3">
-        <v>7007353364176</v>
+        <v>7008469366500</v>
       </c>
       <c r="D369" t="s">
-        <v>273</v>
+        <v>213</v>
       </c>
       <c r="E369" s="2">
-        <v>43222.379166666666</v>
+        <v>43222.336805555555</v>
       </c>
       <c r="L369" s="3"/>
       <c r="N369" s="2"/>
@@ -12160,16 +12392,16 @@
         <v>152</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C370" s="3">
-        <v>7007224363897</v>
+        <v>7008230366123</v>
       </c>
       <c r="D370" t="s">
-        <v>303</v>
+        <v>353</v>
       </c>
       <c r="E370" s="2">
-        <v>43222.383333333331</v>
+        <v>43222.348611111112</v>
       </c>
       <c r="L370" s="3"/>
       <c r="N370" s="2"/>
@@ -12180,16 +12412,16 @@
         <v>152</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C371" s="3">
-        <v>7006864363345</v>
+        <v>7008184366055</v>
       </c>
       <c r="D371" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E371" s="2">
-        <v>43222.400000000001</v>
+        <v>43222.351388888892</v>
       </c>
       <c r="L371" s="3"/>
       <c r="N371" s="2"/>
@@ -12200,16 +12432,16 @@
         <v>152</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C372" s="3">
-        <v>7006855363327</v>
+        <v>7007756365256</v>
       </c>
       <c r="D372" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="E372" s="2">
-        <v>43222.402083333334</v>
+        <v>43222.363888888889</v>
       </c>
       <c r="L372" s="3"/>
       <c r="N372" s="2"/>
@@ -12220,16 +12452,16 @@
         <v>152</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="C373" s="3">
-        <v>7006741363193</v>
+        <v>7007701365129</v>
       </c>
       <c r="D373" t="s">
-        <v>358</v>
+        <v>188</v>
       </c>
       <c r="E373" s="2">
-        <v>43222.40625</v>
+        <v>43222.366666666669</v>
       </c>
       <c r="L373" s="3"/>
       <c r="N373" s="2"/>
@@ -12240,16 +12472,16 @@
         <v>152</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C374" s="3">
-        <v>7006705363181</v>
+        <v>7007599364865</v>
       </c>
       <c r="D374" t="s">
-        <v>312</v>
+        <v>356</v>
       </c>
       <c r="E374" s="2">
-        <v>43222.408333333333</v>
+        <v>43222.37222222222</v>
       </c>
       <c r="L374" s="3"/>
       <c r="N374" s="2"/>
@@ -12260,16 +12492,16 @@
         <v>152</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C375" s="3">
-        <v>7006635363106</v>
+        <v>7007353364176</v>
       </c>
       <c r="D375" t="s">
-        <v>358</v>
+        <v>273</v>
       </c>
       <c r="E375" s="2">
-        <v>43222.410416666666</v>
+        <v>43222.379166666666</v>
       </c>
       <c r="L375" s="3"/>
       <c r="N375" s="2"/>
@@ -12280,16 +12512,16 @@
         <v>152</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C376" s="3">
-        <v>7006632363092</v>
+        <v>7007224363897</v>
       </c>
       <c r="D376" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="E376" s="2">
-        <v>43222.412499999999</v>
+        <v>43222.383333333331</v>
       </c>
       <c r="L376" s="3"/>
       <c r="N376" s="2"/>
@@ -12300,16 +12532,16 @@
         <v>152</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C377" s="3">
-        <v>7006656363084</v>
+        <v>7006864363345</v>
       </c>
       <c r="D377" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E377" s="2">
-        <v>43222.425000000003</v>
+        <v>43222.400000000001</v>
       </c>
       <c r="L377" s="3"/>
       <c r="N377" s="2"/>
@@ -12319,16 +12551,16 @@
         <v>152</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C378" s="3">
-        <v>7006704363076</v>
+        <v>7006855363327</v>
       </c>
       <c r="D378" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="E378" s="2">
-        <v>43222.431944444441</v>
+        <v>43222.402083333334</v>
       </c>
       <c r="L378" s="3"/>
       <c r="N378" s="2"/>
@@ -12338,16 +12570,16 @@
         <v>152</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C379" s="3">
-        <v>7006759363054</v>
+        <v>7006741363193</v>
       </c>
       <c r="D379" t="s">
-        <v>288</v>
+        <v>358</v>
       </c>
       <c r="E379" s="2">
-        <v>43222.435416666667</v>
+        <v>43222.40625</v>
       </c>
       <c r="L379" s="3"/>
       <c r="N379" s="2"/>
@@ -12357,16 +12589,16 @@
         <v>152</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C380" s="3">
-        <v>7006796363052</v>
+        <v>7006705363181</v>
       </c>
       <c r="D380" t="s">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="E380" s="2">
-        <v>43222.436805555553</v>
+        <v>43222.408333333333</v>
       </c>
       <c r="L380" s="3"/>
       <c r="N380" s="2"/>
@@ -12376,16 +12608,16 @@
         <v>152</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="C381" s="3">
-        <v>7006864363034</v>
+        <v>7006635363106</v>
       </c>
       <c r="D381" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="E381" s="2">
-        <v>43222.439583333333</v>
+        <v>43222.410416666666</v>
       </c>
     </row>
     <row r="382" spans="1:15" x14ac:dyDescent="0.2">
@@ -12393,16 +12625,16 @@
         <v>152</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C382" s="3">
-        <v>7006882363032</v>
+        <v>7006632363092</v>
       </c>
       <c r="D382" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E382" s="2">
-        <v>43222.44027777778</v>
+        <v>43222.412499999999</v>
       </c>
     </row>
     <row r="383" spans="1:15" x14ac:dyDescent="0.2">
@@ -12410,16 +12642,16 @@
         <v>152</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C383" s="3">
-        <v>7007268362982</v>
+        <v>7006656363084</v>
       </c>
       <c r="D383" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E383" s="2">
-        <v>43222.448611111111</v>
+        <v>43222.425000000003</v>
       </c>
     </row>
     <row r="384" spans="1:15" x14ac:dyDescent="0.2">
@@ -12427,16 +12659,16 @@
         <v>152</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C384" s="3">
-        <v>7007286362985</v>
+        <v>7006704363076</v>
       </c>
       <c r="D384" t="s">
-        <v>282</v>
+        <v>359</v>
       </c>
       <c r="E384" s="2">
-        <v>43222.450694444444</v>
+        <v>43222.431944444441</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
@@ -12444,16 +12676,16 @@
         <v>152</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C385" s="3">
-        <v>7007299362986</v>
+        <v>7006759363054</v>
       </c>
       <c r="D385" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E385" s="2">
-        <v>43222.45208333333</v>
+        <v>43222.435416666667</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
@@ -12461,16 +12693,16 @@
         <v>152</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C386" s="3">
-        <v>7007413362958</v>
+        <v>7006796363052</v>
       </c>
       <c r="D386" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E386" s="2">
-        <v>43222.455555555556</v>
+        <v>43222.436805555553</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
@@ -12478,16 +12710,16 @@
         <v>152</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="C387" s="3">
-        <v>7009681362779</v>
+        <v>7006864363034</v>
       </c>
       <c r="D387" t="s">
-        <v>243</v>
+        <v>313</v>
       </c>
       <c r="E387" s="2">
-        <v>43222.494444444441</v>
+        <v>43222.439583333333</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
@@ -12495,16 +12727,16 @@
         <v>152</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C388" s="3">
-        <v>7010638362876</v>
+        <v>7006882363032</v>
       </c>
       <c r="D388" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E388" s="2">
-        <v>43222.50277777778</v>
+        <v>43222.44027777778</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
@@ -12512,16 +12744,16 @@
         <v>152</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C389" s="3">
-        <v>7010614362913</v>
+        <v>7007268362982</v>
       </c>
       <c r="D389" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E389" s="2">
-        <v>43222.522222222222</v>
+        <v>43222.448611111111</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
@@ -12529,16 +12761,16 @@
         <v>152</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C390" s="3">
-        <v>7010584362972</v>
+        <v>7007286362985</v>
       </c>
       <c r="D390" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E390" s="2">
-        <v>43222.524305555555</v>
+        <v>43222.450694444444</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
@@ -12546,16 +12778,16 @@
         <v>152</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="C391" s="3">
-        <v>7009698364284</v>
+        <v>7007299362986</v>
       </c>
       <c r="D391" t="s">
-        <v>365</v>
+        <v>281</v>
       </c>
       <c r="E391" s="2">
-        <v>43222.599305555559</v>
+        <v>43222.45208333333</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
@@ -12563,16 +12795,16 @@
         <v>152</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C392" s="3">
-        <v>7009212365539</v>
+        <v>7007413362958</v>
       </c>
       <c r="D392" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="E392" s="2">
-        <v>43222.618055555555</v>
+        <v>43222.455555555556</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
@@ -12580,16 +12812,16 @@
         <v>152</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C393" s="3">
-        <v>7009208365577</v>
+        <v>7009681362779</v>
       </c>
       <c r="D393" t="s">
-        <v>366</v>
+        <v>243</v>
       </c>
       <c r="E393" s="2">
-        <v>43222.620138888888</v>
+        <v>43222.494444444441</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
@@ -12597,16 +12829,16 @@
         <v>152</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C394" s="3">
-        <v>7009208365588</v>
+        <v>7010638362876</v>
       </c>
       <c r="D394" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E394" s="2">
-        <v>43222.621527777781</v>
+        <v>43222.50277777778</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
@@ -12614,16 +12846,16 @@
         <v>152</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="C395" s="3">
-        <v>7009199365638</v>
+        <v>7010614362913</v>
       </c>
       <c r="D395" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E395" s="2">
-        <v>43222.623611111114</v>
+        <v>43222.522222222222</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
@@ -12631,16 +12863,16 @@
         <v>152</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C396" s="3">
-        <v>7009186365662</v>
+        <v>7010584362972</v>
       </c>
       <c r="D396" t="s">
-        <v>369</v>
+        <v>278</v>
       </c>
       <c r="E396" s="2">
-        <v>43222.625694444447</v>
+        <v>43222.524305555555</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
@@ -12648,16 +12880,16 @@
         <v>152</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="C397" s="3">
-        <v>7008623366228</v>
+        <v>7009698364284</v>
       </c>
       <c r="D397" t="s">
-        <v>184</v>
+        <v>365</v>
       </c>
       <c r="E397" s="2">
-        <v>43222.638888888891</v>
+        <v>43222.599305555559</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
@@ -12665,13 +12897,16 @@
         <v>152</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="C398" s="3">
-        <v>7009183365670</v>
+        <v>7009212365539</v>
+      </c>
+      <c r="D398" t="s">
+        <v>354</v>
       </c>
       <c r="E398" s="2">
-        <v>43222.640277777777</v>
+        <v>43222.618055555555</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
@@ -12679,15 +12914,114 @@
         <v>152</v>
       </c>
       <c r="B399" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C399" s="3">
+        <v>7009208365577</v>
+      </c>
+      <c r="D399" t="s">
+        <v>366</v>
+      </c>
+      <c r="E399" s="2">
+        <v>43222.620138888888</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>152</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C400" s="3">
+        <v>7009208365588</v>
+      </c>
+      <c r="D400" t="s">
+        <v>367</v>
+      </c>
+      <c r="E400" s="2">
+        <v>43222.621527777781</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>152</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C401" s="3">
+        <v>7009199365638</v>
+      </c>
+      <c r="D401" t="s">
+        <v>368</v>
+      </c>
+      <c r="E401" s="2">
+        <v>43222.623611111114</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>152</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C402" s="3">
+        <v>7009186365662</v>
+      </c>
+      <c r="D402" t="s">
+        <v>369</v>
+      </c>
+      <c r="E402" s="2">
+        <v>43222.625694444447</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>152</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C403" s="3">
+        <v>7008623366228</v>
+      </c>
+      <c r="D403" t="s">
+        <v>184</v>
+      </c>
+      <c r="E403" s="2">
+        <v>43222.638888888891</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>152</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C404" s="3">
+        <v>7009183365670</v>
+      </c>
+      <c r="E404" s="2">
+        <v>43222.640277777777</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>152</v>
+      </c>
+      <c r="B405" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C399" s="3">
+      <c r="C405" s="3">
         <v>7008631366281</v>
       </c>
-      <c r="D399" t="s">
+      <c r="D405" t="s">
         <v>370</v>
       </c>
-      <c r="E399" s="2">
+      <c r="E405" s="2">
         <v>43222.640972222223</v>
       </c>
     </row>

--- a/Rawdata/riptransekter helags 2018.xlsx
+++ b/Rawdata/riptransekter helags 2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7420" yWindow="460" windowWidth="25600" windowHeight="14120" xr2:uid="{731D7839-4CAB-374B-BEA5-3406519CB6C1}"/>
+    <workbookView xWindow="11120" yWindow="460" windowWidth="25600" windowHeight="14120" xr2:uid="{731D7839-4CAB-374B-BEA5-3406519CB6C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="422">
   <si>
     <t>vinkel</t>
   </si>
@@ -1275,6 +1275,21 @@
   </si>
   <si>
     <t>relatiivt mycket snö och lite barmark på sträcka 1. Få buskar och lite ljung.</t>
+  </si>
+  <si>
+    <t>ljusbrun, blöt</t>
+  </si>
+  <si>
+    <t>snö, begränsad sikt, +2 grader</t>
+  </si>
+  <si>
+    <t>sol</t>
+  </si>
+  <si>
+    <t>ljusbrun</t>
+  </si>
+  <si>
+    <t>snö</t>
   </si>
 </sst>
 </file>
@@ -1631,9 +1646,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9831C9-A413-654D-876F-A809696709AE}">
   <dimension ref="A1:Z438"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A250" sqref="A250:F250"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O232" sqref="O232:O265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9486,6 +9501,12 @@
       <c r="F233" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="N233" t="s">
+        <v>412</v>
+      </c>
+      <c r="O233" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="234" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
@@ -9518,6 +9539,12 @@
       <c r="L234">
         <v>1</v>
       </c>
+      <c r="N234" t="s">
+        <v>412</v>
+      </c>
+      <c r="O234" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="235" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
@@ -9550,6 +9577,12 @@
       <c r="L235">
         <v>1</v>
       </c>
+      <c r="N235" t="s">
+        <v>412</v>
+      </c>
+      <c r="O235" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="236" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
@@ -9582,6 +9615,12 @@
       <c r="L236">
         <v>1</v>
       </c>
+      <c r="N236" t="s">
+        <v>412</v>
+      </c>
+      <c r="O236" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="237" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
@@ -9611,6 +9650,12 @@
       <c r="M237" t="s">
         <v>413</v>
       </c>
+      <c r="N237" t="s">
+        <v>412</v>
+      </c>
+      <c r="O237" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="238" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
@@ -9640,6 +9685,12 @@
       <c r="M238" t="s">
         <v>414</v>
       </c>
+      <c r="N238" t="s">
+        <v>412</v>
+      </c>
+      <c r="O238" t="s">
+        <v>411</v>
+      </c>
       <c r="W238" s="3"/>
       <c r="Y238" s="2"/>
       <c r="Z238" s="2"/>
@@ -9672,6 +9723,12 @@
       <c r="M239" t="s">
         <v>166</v>
       </c>
+      <c r="N239" t="s">
+        <v>412</v>
+      </c>
+      <c r="O239" t="s">
+        <v>411</v>
+      </c>
       <c r="W239" s="3"/>
       <c r="Y239" s="2"/>
       <c r="Z239" s="2"/>
@@ -9701,6 +9758,12 @@
       <c r="L240">
         <v>1</v>
       </c>
+      <c r="N240" t="s">
+        <v>412</v>
+      </c>
+      <c r="O240" t="s">
+        <v>411</v>
+      </c>
       <c r="W240" s="3"/>
       <c r="Y240" s="2"/>
       <c r="Z240" s="2"/>
@@ -9739,6 +9802,12 @@
       <c r="M241" t="s">
         <v>415</v>
       </c>
+      <c r="N241" t="s">
+        <v>412</v>
+      </c>
+      <c r="O241" t="s">
+        <v>411</v>
+      </c>
       <c r="W241" s="3"/>
       <c r="Y241" s="2"/>
       <c r="Z241" s="2"/>
@@ -9765,6 +9834,12 @@
       <c r="M242" t="s">
         <v>416</v>
       </c>
+      <c r="N242" t="s">
+        <v>412</v>
+      </c>
+      <c r="O242" t="s">
+        <v>411</v>
+      </c>
       <c r="W242" s="3"/>
       <c r="Y242" s="2"/>
       <c r="Z242" s="2"/>
@@ -9800,6 +9875,12 @@
       <c r="L243">
         <v>1</v>
       </c>
+      <c r="N243" t="s">
+        <v>412</v>
+      </c>
+      <c r="O243" t="s">
+        <v>411</v>
+      </c>
       <c r="W243" s="3"/>
       <c r="Y243" s="2"/>
       <c r="Z243" s="2"/>
@@ -9835,6 +9916,12 @@
       <c r="L244">
         <v>1</v>
       </c>
+      <c r="N244" t="s">
+        <v>412</v>
+      </c>
+      <c r="O244" t="s">
+        <v>411</v>
+      </c>
       <c r="W244" s="3"/>
       <c r="Y244" s="2"/>
       <c r="Z244" s="2"/>
@@ -9873,6 +9960,12 @@
       <c r="L245">
         <v>1</v>
       </c>
+      <c r="N245" t="s">
+        <v>412</v>
+      </c>
+      <c r="O245" t="s">
+        <v>411</v>
+      </c>
       <c r="W245" s="3"/>
       <c r="Y245" s="2"/>
       <c r="Z245" s="2"/>
@@ -9911,6 +10004,12 @@
       <c r="L246">
         <v>2</v>
       </c>
+      <c r="N246" t="s">
+        <v>412</v>
+      </c>
+      <c r="O246" t="s">
+        <v>411</v>
+      </c>
       <c r="W246" s="3"/>
       <c r="Y246" s="2"/>
       <c r="Z246" s="2"/>
@@ -9946,6 +10045,12 @@
       <c r="L247">
         <v>1</v>
       </c>
+      <c r="N247" t="s">
+        <v>412</v>
+      </c>
+      <c r="O247" t="s">
+        <v>411</v>
+      </c>
       <c r="W247" s="3"/>
       <c r="Y247" s="2"/>
       <c r="Z247" s="2"/>
@@ -9984,6 +10089,12 @@
       <c r="L248">
         <v>1</v>
       </c>
+      <c r="N248" t="s">
+        <v>412</v>
+      </c>
+      <c r="O248" t="s">
+        <v>411</v>
+      </c>
       <c r="W248" s="3"/>
       <c r="Y248" s="2"/>
       <c r="Z248" s="2"/>
@@ -10007,6 +10118,24 @@
       <c r="F249" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="G249">
+        <v>171</v>
+      </c>
+      <c r="H249">
+        <v>285</v>
+      </c>
+      <c r="I249" t="s">
+        <v>156</v>
+      </c>
+      <c r="L249">
+        <v>1</v>
+      </c>
+      <c r="N249" t="s">
+        <v>412</v>
+      </c>
+      <c r="O249" t="s">
+        <v>411</v>
+      </c>
       <c r="W249" s="3"/>
       <c r="Y249" s="2"/>
       <c r="Z249" s="2"/>
@@ -10030,6 +10159,24 @@
       <c r="F250" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="G250">
+        <v>163</v>
+      </c>
+      <c r="H250">
+        <v>200</v>
+      </c>
+      <c r="I250" t="s">
+        <v>156</v>
+      </c>
+      <c r="L250">
+        <v>1</v>
+      </c>
+      <c r="N250" t="s">
+        <v>412</v>
+      </c>
+      <c r="O250" t="s">
+        <v>411</v>
+      </c>
       <c r="W250" s="3"/>
       <c r="Y250" s="2"/>
       <c r="Z250" s="2"/>
@@ -10050,7 +10197,15 @@
       <c r="E251" s="2">
         <v>43216.509027777778</v>
       </c>
-      <c r="F251" s="2"/>
+      <c r="F251" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="N251" t="s">
+        <v>418</v>
+      </c>
+      <c r="O251" t="s">
+        <v>411</v>
+      </c>
       <c r="W251" s="3"/>
       <c r="Y251" s="2"/>
       <c r="Z251" s="2"/>
@@ -10071,7 +10226,24 @@
       <c r="E252" s="2">
         <v>43216.606249999997</v>
       </c>
-      <c r="F252" s="2"/>
+      <c r="F252" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J252" t="s">
+        <v>10</v>
+      </c>
+      <c r="L252">
+        <v>2</v>
+      </c>
+      <c r="M252" t="s">
+        <v>417</v>
+      </c>
+      <c r="N252" t="s">
+        <v>418</v>
+      </c>
+      <c r="O252" t="s">
+        <v>411</v>
+      </c>
       <c r="W252" s="3"/>
       <c r="Y252" s="2"/>
       <c r="Z252" s="2"/>
@@ -10081,18 +10253,41 @@
         <v>121</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="C253" s="3">
-        <v>6980531353694</v>
+        <v>6980911353777</v>
       </c>
       <c r="D253" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="E253" s="2">
-        <v>43216.615277777775</v>
-      </c>
-      <c r="F253" s="2"/>
+        <v>43216.606249999997</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G253">
+        <v>127</v>
+      </c>
+      <c r="H253">
+        <v>68</v>
+      </c>
+      <c r="I253" t="s">
+        <v>154</v>
+      </c>
+      <c r="J253" t="s">
+        <v>16</v>
+      </c>
+      <c r="L253">
+        <v>1</v>
+      </c>
+      <c r="N253" t="s">
+        <v>418</v>
+      </c>
+      <c r="O253" t="s">
+        <v>411</v>
+      </c>
       <c r="W253" s="3"/>
       <c r="Y253" s="2"/>
       <c r="Z253" s="2"/>
@@ -10102,18 +10297,41 @@
         <v>121</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C254" s="3">
-        <v>6980411353676</v>
+        <v>6980531353694</v>
       </c>
       <c r="D254" t="s">
-        <v>293</v>
+        <v>218</v>
       </c>
       <c r="E254" s="2">
-        <v>43216.620138888888</v>
-      </c>
-      <c r="F254" s="2"/>
+        <v>43216.615277777775</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G254">
+        <v>105</v>
+      </c>
+      <c r="H254">
+        <v>4</v>
+      </c>
+      <c r="I254" t="s">
+        <v>153</v>
+      </c>
+      <c r="J254" t="s">
+        <v>10</v>
+      </c>
+      <c r="L254">
+        <v>1</v>
+      </c>
+      <c r="N254" t="s">
+        <v>418</v>
+      </c>
+      <c r="O254" t="s">
+        <v>411</v>
+      </c>
       <c r="W254" s="3"/>
       <c r="Y254" s="2"/>
       <c r="Z254" s="2"/>
@@ -10123,18 +10341,38 @@
         <v>121</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="C255" s="3">
-        <v>6980373353646</v>
+        <v>6980531353694</v>
       </c>
       <c r="D255" t="s">
-        <v>290</v>
+        <v>218</v>
       </c>
       <c r="E255" s="2">
-        <v>43216.622916666667</v>
-      </c>
-      <c r="F255" s="2"/>
+        <v>43216.615277777775</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G255">
+        <v>146</v>
+      </c>
+      <c r="H255">
+        <v>105</v>
+      </c>
+      <c r="I255" t="s">
+        <v>156</v>
+      </c>
+      <c r="L255">
+        <v>1</v>
+      </c>
+      <c r="N255" t="s">
+        <v>418</v>
+      </c>
+      <c r="O255" t="s">
+        <v>411</v>
+      </c>
       <c r="W255" s="3"/>
       <c r="Y255" s="2"/>
       <c r="Z255" s="2"/>
@@ -10144,18 +10382,38 @@
         <v>121</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C256" s="3">
-        <v>6980103353507</v>
+        <v>6980531353694</v>
       </c>
       <c r="D256" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="E256" s="2">
-        <v>43216.62777777778</v>
-      </c>
-      <c r="F256" s="2"/>
+        <v>43216.615277777775</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G256">
+        <v>129</v>
+      </c>
+      <c r="H256">
+        <v>283</v>
+      </c>
+      <c r="I256" t="s">
+        <v>156</v>
+      </c>
+      <c r="L256">
+        <v>1</v>
+      </c>
+      <c r="N256" t="s">
+        <v>418</v>
+      </c>
+      <c r="O256" t="s">
+        <v>411</v>
+      </c>
       <c r="W256" s="3"/>
       <c r="Y256" s="2"/>
       <c r="Z256" s="2"/>
@@ -10165,18 +10423,26 @@
         <v>121</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="C257" s="3">
-        <v>6979753353371</v>
+        <v>6980411353676</v>
       </c>
       <c r="D257" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E257" s="2">
-        <v>43216.634722222225</v>
-      </c>
-      <c r="F257" s="2"/>
+        <v>43216.620138888888</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N257" t="s">
+        <v>419</v>
+      </c>
+      <c r="O257" t="s">
+        <v>411</v>
+      </c>
       <c r="W257" s="3"/>
       <c r="Y257" s="2"/>
       <c r="Z257" s="2"/>
@@ -10186,18 +10452,35 @@
         <v>121</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="C258" s="3">
-        <v>6979459353143</v>
+        <v>6980411353676</v>
       </c>
       <c r="D258" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E258" s="2">
-        <v>43216.640972222223</v>
-      </c>
-      <c r="F258" s="2"/>
+        <v>43216.620138888888</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J258" t="s">
+        <v>10</v>
+      </c>
+      <c r="L258">
+        <v>2</v>
+      </c>
+      <c r="M258" t="s">
+        <v>420</v>
+      </c>
+      <c r="N258" t="s">
+        <v>419</v>
+      </c>
+      <c r="O258" t="s">
+        <v>411</v>
+      </c>
       <c r="W258" s="3"/>
       <c r="Y258" s="2"/>
       <c r="Z258" s="2"/>
@@ -10207,18 +10490,35 @@
         <v>121</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C259" s="3">
-        <v>6979305353040</v>
+        <v>6980373353646</v>
       </c>
       <c r="D259" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E259" s="2">
-        <v>43216.645138888889</v>
-      </c>
-      <c r="F259" s="2"/>
+        <v>43216.622916666667</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J259" t="s">
+        <v>10</v>
+      </c>
+      <c r="L259">
+        <v>2</v>
+      </c>
+      <c r="M259" t="s">
+        <v>420</v>
+      </c>
+      <c r="N259" t="s">
+        <v>419</v>
+      </c>
+      <c r="O259" t="s">
+        <v>411</v>
+      </c>
       <c r="W259" s="3"/>
       <c r="Y259" s="2"/>
       <c r="Z259" s="2"/>
@@ -10228,18 +10528,41 @@
         <v>121</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="C260" s="3">
-        <v>6979202352873</v>
+        <v>6980103353507</v>
       </c>
       <c r="D260" t="s">
-        <v>297</v>
+        <v>182</v>
       </c>
       <c r="E260" s="2">
-        <v>43216.650694444441</v>
-      </c>
-      <c r="F260" s="2"/>
+        <v>43216.62777777778</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G260">
+        <v>197</v>
+      </c>
+      <c r="H260">
+        <v>351</v>
+      </c>
+      <c r="I260" t="s">
+        <v>153</v>
+      </c>
+      <c r="J260" t="s">
+        <v>16</v>
+      </c>
+      <c r="L260">
+        <v>1</v>
+      </c>
+      <c r="N260" t="s">
+        <v>419</v>
+      </c>
+      <c r="O260" t="s">
+        <v>411</v>
+      </c>
       <c r="W260" s="3"/>
       <c r="Y260" s="2"/>
       <c r="Z260" s="2"/>
@@ -10249,334 +10572,235 @@
         <v>121</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="C261" s="3">
-        <v>6978426351327</v>
+        <v>6979753353371</v>
       </c>
       <c r="D261" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E261" s="2">
-        <v>43216.677083333336</v>
-      </c>
-      <c r="F261" s="2"/>
+        <v>43216.634722222225</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G261">
+        <v>155</v>
+      </c>
+      <c r="H261">
+        <v>288</v>
+      </c>
+      <c r="I261" t="s">
+        <v>154</v>
+      </c>
+      <c r="J261" t="s">
+        <v>10</v>
+      </c>
+      <c r="L261">
+        <v>3</v>
+      </c>
+      <c r="N261" t="s">
+        <v>419</v>
+      </c>
+      <c r="O261" t="s">
+        <v>411</v>
+      </c>
       <c r="W261" s="3"/>
       <c r="Y261" s="2"/>
       <c r="Z261" s="2"/>
     </row>
     <row r="262" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C262" s="3">
-        <v>6982302355715</v>
+        <v>6979459353143</v>
       </c>
       <c r="D262" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E262" s="2">
-        <v>43217.268750000003</v>
-      </c>
-      <c r="F262" s="2"/>
+        <v>43216.640972222223</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G262">
+        <v>111</v>
+      </c>
+      <c r="H262">
+        <v>4</v>
+      </c>
+      <c r="I262" t="s">
+        <v>154</v>
+      </c>
+      <c r="J262" t="s">
+        <v>15</v>
+      </c>
+      <c r="L262">
+        <v>2</v>
+      </c>
+      <c r="N262" t="s">
+        <v>421</v>
+      </c>
+      <c r="O262" t="s">
+        <v>411</v>
+      </c>
       <c r="W262" s="3"/>
       <c r="Y262" s="2"/>
       <c r="Z262" s="2"/>
     </row>
     <row r="263" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="C263" s="3">
-        <v>6983090356519</v>
+        <v>6979305353040</v>
       </c>
       <c r="D263" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E263" s="2">
-        <v>43217.288194444445</v>
-      </c>
-      <c r="F263" s="2"/>
+        <v>43216.645138888889</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N263" t="s">
+        <v>419</v>
+      </c>
+      <c r="O263" t="s">
+        <v>411</v>
+      </c>
       <c r="W263" s="3"/>
       <c r="Y263" s="2"/>
       <c r="Z263" s="2"/>
     </row>
     <row r="264" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="C264" s="3">
-        <v>6983032356674</v>
+        <v>6979202352873</v>
       </c>
       <c r="D264" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E264" s="2">
-        <v>43217.292361111111</v>
+        <v>43216.650694444441</v>
+      </c>
+      <c r="F264" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G264">
+        <v>70</v>
+      </c>
+      <c r="H264">
+        <v>306</v>
+      </c>
+      <c r="I264" t="s">
+        <v>153</v>
+      </c>
+      <c r="J264" t="s">
+        <v>16</v>
+      </c>
+      <c r="L264">
+        <v>2</v>
+      </c>
+      <c r="N264" t="s">
+        <v>419</v>
+      </c>
+      <c r="O264" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="265" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="C265" s="3">
-        <v>6982991356782</v>
+        <v>6978426351327</v>
       </c>
       <c r="D265" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E265" s="2">
-        <v>43217.294444444444</v>
-      </c>
-    </row>
-    <row r="266" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>125</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C266" s="3">
-        <v>6982916356948</v>
-      </c>
-      <c r="D266" t="s">
-        <v>291</v>
-      </c>
-      <c r="E266" s="2">
-        <v>43217.296527777777</v>
-      </c>
-      <c r="F266" s="2"/>
-    </row>
-    <row r="267" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
-        <v>125</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C267" s="3">
-        <v>6982928357079</v>
-      </c>
-      <c r="D267" t="s">
-        <v>303</v>
-      </c>
-      <c r="E267" s="2">
-        <v>43217.298611111109</v>
-      </c>
-      <c r="F267" s="2"/>
+        <v>43216.677083333336</v>
+      </c>
+      <c r="F265" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G265">
+        <v>0.7</v>
+      </c>
+      <c r="H265">
+        <v>90</v>
+      </c>
+      <c r="J265" t="s">
+        <v>10</v>
+      </c>
+      <c r="L265">
+        <v>1</v>
+      </c>
+      <c r="M265" t="s">
+        <v>166</v>
+      </c>
+      <c r="N265" t="s">
+        <v>419</v>
+      </c>
+      <c r="O265" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="268" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
-        <v>125</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C268" s="3">
-        <v>6982958357172</v>
-      </c>
-      <c r="D268" t="s">
-        <v>304</v>
-      </c>
-      <c r="E268" s="2">
-        <v>43217.3</v>
-      </c>
       <c r="F268" s="2"/>
     </row>
     <row r="269" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
-        <v>125</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C269" s="3">
-        <v>6982732357448</v>
-      </c>
-      <c r="D269" t="s">
-        <v>305</v>
-      </c>
-      <c r="E269" s="2">
-        <v>43217.305555555555</v>
-      </c>
       <c r="F269" s="2"/>
     </row>
     <row r="270" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
-        <v>125</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C270" s="3">
-        <v>6982630357699</v>
-      </c>
-      <c r="D270" t="s">
-        <v>292</v>
-      </c>
-      <c r="E270" s="2">
-        <v>43217.30972222222</v>
-      </c>
       <c r="F270" s="2"/>
     </row>
     <row r="271" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
-        <v>125</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C271" s="3">
-        <v>6982183358919</v>
-      </c>
-      <c r="D271" t="s">
-        <v>306</v>
-      </c>
-      <c r="E271" s="2">
-        <v>43217.379861111112</v>
-      </c>
       <c r="F271" s="2"/>
     </row>
     <row r="272" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
-        <v>125</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C272" s="3">
-        <v>6982114359058</v>
-      </c>
-      <c r="D272" t="s">
-        <v>307</v>
-      </c>
-      <c r="E272" s="2">
-        <v>43217.384027777778</v>
-      </c>
       <c r="F272" s="2"/>
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
-        <v>125</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C273" s="3">
-        <v>6982006359291</v>
-      </c>
-      <c r="D273" t="s">
-        <v>240</v>
-      </c>
-      <c r="E273" s="2">
-        <v>43217.388888888891</v>
-      </c>
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
-        <v>125</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C274" s="3">
-        <v>6981940359461</v>
-      </c>
-      <c r="D274" t="s">
-        <v>239</v>
-      </c>
-      <c r="E274" s="2">
-        <v>43217.392361111109</v>
-      </c>
       <c r="F274" s="2"/>
       <c r="O274" s="2"/>
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
-        <v>125</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C275" s="3">
-        <v>6981870359749</v>
-      </c>
-      <c r="D275" t="s">
-        <v>255</v>
-      </c>
-      <c r="E275" s="2">
-        <v>43217.4</v>
-      </c>
       <c r="F275" s="2"/>
       <c r="O275" s="2"/>
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
-        <v>125</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C276" s="3">
-        <v>6981921360308</v>
-      </c>
-      <c r="D276" t="s">
-        <v>214</v>
-      </c>
-      <c r="E276" s="2">
-        <v>43217.407638888886</v>
-      </c>
       <c r="F276" s="2"/>
       <c r="O276" s="2"/>
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
-        <v>125</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C277" s="3">
-        <v>6983945359739</v>
-      </c>
-      <c r="D277" t="s">
-        <v>221</v>
-      </c>
-      <c r="E277" s="2">
-        <v>43217.45208333333</v>
-      </c>
       <c r="F277" s="2"/>
       <c r="O277" s="2"/>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
-        <v>125</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C278" s="3">
-        <v>6984478359678</v>
-      </c>
-      <c r="D278" t="s">
-        <v>199</v>
-      </c>
-      <c r="E278" s="2">
-        <v>43217.461805555555</v>
-      </c>
       <c r="F278" s="2"/>
       <c r="N278" s="2"/>
       <c r="O278" s="2"/>
@@ -10586,16 +10810,16 @@
         <v>125</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="C279" s="3">
-        <v>6984553359647</v>
+        <v>6982302355715</v>
       </c>
       <c r="D279" t="s">
-        <v>199</v>
+        <v>299</v>
       </c>
       <c r="E279" s="2">
-        <v>43217.465277777781</v>
+        <v>43217.268750000003</v>
       </c>
       <c r="F279" s="2"/>
       <c r="N279" s="2"/>
@@ -10606,16 +10830,16 @@
         <v>125</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C280" s="3">
-        <v>6985096359518</v>
+        <v>6983090356519</v>
       </c>
       <c r="D280" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E280" s="2">
-        <v>43217.475694444445</v>
+        <v>43217.288194444445</v>
       </c>
       <c r="F280" s="2"/>
       <c r="N280" s="2"/>
@@ -10626,16 +10850,16 @@
         <v>125</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C281" s="3">
-        <v>6985863359293</v>
+        <v>6983032356674</v>
       </c>
       <c r="D281" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="E281" s="2">
-        <v>43217.490972222222</v>
+        <v>43217.292361111111</v>
       </c>
       <c r="F281" s="2"/>
       <c r="N281" s="2"/>
@@ -10646,16 +10870,16 @@
         <v>125</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C282" s="3">
-        <v>6985409358759</v>
+        <v>6982991356782</v>
       </c>
       <c r="D282" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="E282" s="2">
-        <v>43217.513194444444</v>
+        <v>43217.294444444444</v>
       </c>
       <c r="F282" s="2"/>
       <c r="N282" s="2"/>
@@ -10666,16 +10890,16 @@
         <v>125</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C283" s="3">
-        <v>6985041358323</v>
+        <v>6982916356948</v>
       </c>
       <c r="D283" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="E283" s="2">
-        <v>43217.520138888889</v>
+        <v>43217.296527777777</v>
       </c>
       <c r="F283" s="2"/>
       <c r="N283" s="2"/>
@@ -10686,16 +10910,16 @@
         <v>125</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C284" s="3">
-        <v>6983184356513</v>
+        <v>6982928357079</v>
       </c>
       <c r="D284" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E284" s="2">
-        <v>43217.554166666669</v>
+        <v>43217.298611111109</v>
       </c>
       <c r="F284" s="2"/>
       <c r="N284" s="2"/>
@@ -10703,19 +10927,19 @@
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="C285" s="3">
-        <v>7005963362616</v>
+        <v>6982958357172</v>
       </c>
       <c r="D285" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="E285" s="2">
-        <v>43220.375</v>
+        <v>43217.3</v>
       </c>
       <c r="F285" s="2"/>
       <c r="N285" s="2"/>
@@ -10723,19 +10947,19 @@
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C286" s="3">
-        <v>7005930362243</v>
+        <v>6982732357448</v>
       </c>
       <c r="D286" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E286" s="2">
-        <v>43220.384027777778</v>
+        <v>43217.305555555555</v>
       </c>
       <c r="F286" s="2"/>
       <c r="N286" s="2"/>
@@ -10743,19 +10967,19 @@
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C287" s="3">
-        <v>7005887361616</v>
+        <v>6982630357699</v>
       </c>
       <c r="D287" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="E287" s="2">
-        <v>43220.38958333333</v>
+        <v>43217.30972222222</v>
       </c>
       <c r="F287" s="2"/>
       <c r="N287" s="2"/>
@@ -10763,19 +10987,19 @@
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C288" s="3">
-        <v>7005948361408</v>
+        <v>6982183358919</v>
       </c>
       <c r="D288" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E288" s="2">
-        <v>43220.393055555556</v>
+        <v>43217.379861111112</v>
       </c>
       <c r="F288" s="2"/>
       <c r="N288" s="2"/>
@@ -10783,19 +11007,19 @@
     </row>
     <row r="289" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C289" s="3">
-        <v>7006091360439</v>
+        <v>6982114359058</v>
       </c>
       <c r="D289" t="s">
-        <v>219</v>
+        <v>307</v>
       </c>
       <c r="E289" s="2">
-        <v>43220.415277777778</v>
+        <v>43217.384027777778</v>
       </c>
       <c r="F289" s="2"/>
       <c r="N289" s="2"/>
@@ -10803,19 +11027,19 @@
     </row>
     <row r="290" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C290" s="3">
-        <v>7006105360299</v>
+        <v>6982006359291</v>
       </c>
       <c r="D290" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E290" s="2">
-        <v>43220.418055555558</v>
+        <v>43217.388888888891</v>
       </c>
       <c r="F290" s="2"/>
       <c r="N290" s="2"/>
@@ -10823,19 +11047,19 @@
     </row>
     <row r="291" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C291" s="3">
-        <v>7006130360148</v>
+        <v>6981940359461</v>
       </c>
       <c r="D291" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="E291" s="2">
-        <v>43220.422222222223</v>
+        <v>43217.392361111109</v>
       </c>
       <c r="F291" s="2"/>
       <c r="N291" s="2"/>
@@ -10843,19 +11067,19 @@
     </row>
     <row r="292" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C292" s="3">
-        <v>7006133360128</v>
+        <v>6981870359749</v>
       </c>
       <c r="D292" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E292" s="2">
-        <v>43220.424305555556</v>
+        <v>43217.4</v>
       </c>
       <c r="F292" s="2"/>
       <c r="N292" s="2"/>
@@ -10863,19 +11087,19 @@
     </row>
     <row r="293" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C293" s="3">
-        <v>7006146360075</v>
+        <v>6981921360308</v>
       </c>
       <c r="D293" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="E293" s="2">
-        <v>43220.425694444442</v>
+        <v>43217.407638888886</v>
       </c>
       <c r="F293" s="2"/>
       <c r="N293" s="2"/>
@@ -10883,19 +11107,19 @@
     </row>
     <row r="294" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C294" s="3">
-        <v>7006171360032</v>
+        <v>6983945359739</v>
       </c>
       <c r="D294" t="s">
-        <v>294</v>
+        <v>221</v>
       </c>
       <c r="E294" s="2">
-        <v>43220.427777777775</v>
+        <v>43217.45208333333</v>
       </c>
       <c r="F294" s="2"/>
       <c r="N294" s="2"/>
@@ -10903,19 +11127,19 @@
     </row>
     <row r="295" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="C295" s="3">
-        <v>7006203359711</v>
+        <v>6984478359678</v>
       </c>
       <c r="D295" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="E295" s="2">
-        <v>43220.432638888888</v>
+        <v>43217.461805555555</v>
       </c>
       <c r="F295" s="2"/>
       <c r="N295" s="2"/>
@@ -10923,19 +11147,19 @@
     </row>
     <row r="296" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C296" s="3">
-        <v>7006211359605</v>
+        <v>6984553359647</v>
       </c>
       <c r="D296" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="E296" s="2">
-        <v>43220.43472222222</v>
+        <v>43217.465277777781</v>
       </c>
       <c r="F296" s="2"/>
       <c r="N296" s="2"/>
@@ -10943,95 +11167,95 @@
     </row>
     <row r="297" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C297" s="3">
-        <v>7006143359330</v>
+        <v>6985096359518</v>
       </c>
       <c r="D297" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E297" s="2">
-        <v>43220.4375</v>
+        <v>43217.475694444445</v>
       </c>
       <c r="F297" s="2"/>
       <c r="N297" s="2"/>
     </row>
     <row r="298" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C298" s="3">
-        <v>7006114359146</v>
+        <v>6985863359293</v>
       </c>
       <c r="D298" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E298" s="2">
-        <v>43220.441666666666</v>
+        <v>43217.490972222222</v>
       </c>
       <c r="F298" s="2"/>
       <c r="N298" s="2"/>
     </row>
     <row r="299" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="C299" s="3">
-        <v>7006105359105</v>
+        <v>6985409358759</v>
       </c>
       <c r="D299" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="E299" s="2">
-        <v>43220.443055555559</v>
+        <v>43217.513194444444</v>
       </c>
       <c r="F299" s="2"/>
       <c r="N299" s="2"/>
     </row>
     <row r="300" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="C300" s="3">
-        <v>7006097359055</v>
+        <v>6985041358323</v>
       </c>
       <c r="D300" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E300" s="2">
-        <v>43220.445138888892</v>
+        <v>43217.520138888889</v>
       </c>
       <c r="F300" s="2"/>
       <c r="N300" s="2"/>
     </row>
     <row r="301" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="C301" s="3">
-        <v>7006092358975</v>
+        <v>6983184356513</v>
       </c>
       <c r="D301" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E301" s="2">
-        <v>43220.448611111111</v>
+        <v>43217.554166666669</v>
       </c>
       <c r="F301" s="2"/>
       <c r="P301" s="2"/>
@@ -11041,16 +11265,16 @@
         <v>145</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C302" s="3">
-        <v>7006069358719</v>
+        <v>7005963362616</v>
       </c>
       <c r="D302" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="E302" s="2">
-        <v>43220.45208333333</v>
+        <v>43220.375</v>
       </c>
       <c r="F302" s="2"/>
       <c r="P302" s="2"/>
@@ -11060,16 +11284,16 @@
         <v>145</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="C303" s="3">
-        <v>7006070358639</v>
+        <v>7005930362243</v>
       </c>
       <c r="D303" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E303" s="2">
-        <v>43220.45416666667</v>
+        <v>43220.384027777778</v>
       </c>
       <c r="F303" s="2"/>
       <c r="P303" s="2"/>
@@ -11079,16 +11303,16 @@
         <v>145</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="C304" s="3">
-        <v>7006048358564</v>
+        <v>7005887361616</v>
       </c>
       <c r="D304" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E304" s="2">
-        <v>43220.455555555556</v>
+        <v>43220.38958333333</v>
       </c>
       <c r="F304" s="2"/>
       <c r="O304" s="2"/>
@@ -11099,16 +11323,16 @@
         <v>145</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="C305" s="3">
-        <v>7005966358599</v>
+        <v>7005948361408</v>
       </c>
       <c r="D305" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E305" s="2">
-        <v>43220.482638888891</v>
+        <v>43220.393055555556</v>
       </c>
       <c r="F305" s="2"/>
       <c r="O305" s="2"/>
@@ -11119,16 +11343,16 @@
         <v>145</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="C306" s="3">
-        <v>7005754358715</v>
+        <v>7006091360439</v>
       </c>
       <c r="D306" t="s">
-        <v>317</v>
+        <v>219</v>
       </c>
       <c r="E306" s="2">
-        <v>43220.486805555556</v>
+        <v>43220.415277777778</v>
       </c>
       <c r="F306" s="2"/>
       <c r="O306" s="2"/>
@@ -11139,16 +11363,16 @@
         <v>145</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="C307" s="3">
-        <v>7005614358794</v>
+        <v>7006105360299</v>
       </c>
       <c r="D307" t="s">
-        <v>302</v>
+        <v>247</v>
       </c>
       <c r="E307" s="2">
-        <v>43220.488888888889</v>
+        <v>43220.418055555558</v>
       </c>
       <c r="F307" s="2"/>
       <c r="O307" s="2"/>
@@ -11159,16 +11383,16 @@
         <v>145</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="C308" s="3">
-        <v>7005555358825</v>
+        <v>7006130360148</v>
       </c>
       <c r="D308" t="s">
-        <v>318</v>
+        <v>253</v>
       </c>
       <c r="E308" s="2">
-        <v>43220.490277777775</v>
+        <v>43220.422222222223</v>
       </c>
       <c r="F308" s="2"/>
       <c r="M308" s="3"/>
@@ -11180,16 +11404,16 @@
         <v>145</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="C309" s="3">
-        <v>7005172359049</v>
+        <v>7006133360128</v>
       </c>
       <c r="D309" t="s">
-        <v>319</v>
+        <v>253</v>
       </c>
       <c r="E309" s="2">
-        <v>43220.493055555555</v>
+        <v>43220.424305555556</v>
       </c>
       <c r="F309" s="2"/>
       <c r="M309" s="3"/>
@@ -11201,16 +11425,16 @@
         <v>145</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C310" s="3">
-        <v>7004845359228</v>
+        <v>7006146360075</v>
       </c>
       <c r="D310" t="s">
-        <v>320</v>
+        <v>225</v>
       </c>
       <c r="E310" s="2">
-        <v>43220.49722222222</v>
+        <v>43220.425694444442</v>
       </c>
       <c r="F310" s="2"/>
       <c r="M310" s="3"/>
@@ -11222,16 +11446,16 @@
         <v>145</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C311" s="3">
-        <v>7004594359342</v>
+        <v>7006171360032</v>
       </c>
       <c r="D311" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="E311" s="2">
-        <v>43220.503472222219</v>
+        <v>43220.427777777775</v>
       </c>
       <c r="F311" s="2"/>
       <c r="M311" s="3"/>
@@ -11243,16 +11467,16 @@
         <v>145</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C312" s="3">
-        <v>7004462359409</v>
+        <v>7006203359711</v>
       </c>
       <c r="D312" t="s">
-        <v>322</v>
+        <v>233</v>
       </c>
       <c r="E312" s="2">
-        <v>43220.506249999999</v>
+        <v>43220.432638888888</v>
       </c>
       <c r="F312" s="2"/>
       <c r="M312" s="3"/>
@@ -11264,16 +11488,16 @@
         <v>145</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="C313" s="3">
-        <v>7004326359594</v>
+        <v>7006211359605</v>
       </c>
       <c r="D313" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="E313" s="2">
-        <v>43220.508333333331</v>
+        <v>43220.43472222222</v>
       </c>
       <c r="F313" s="2"/>
       <c r="M313" s="3"/>
@@ -11285,16 +11509,16 @@
         <v>145</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="C314" s="3">
-        <v>7004265359557</v>
+        <v>7006143359330</v>
       </c>
       <c r="D314" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="E314" s="2">
-        <v>43220.509722222225</v>
+        <v>43220.4375</v>
       </c>
       <c r="F314" s="2"/>
       <c r="M314" s="3"/>
@@ -11306,16 +11530,16 @@
         <v>145</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="C315" s="3">
-        <v>7004067359659</v>
+        <v>7006114359146</v>
       </c>
       <c r="D315" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="E315" s="2">
-        <v>43220.513194444444</v>
+        <v>43220.441666666666</v>
       </c>
       <c r="F315" s="2"/>
       <c r="M315" s="3"/>
@@ -11327,16 +11551,16 @@
         <v>145</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="C316" s="3">
-        <v>7004008359687</v>
+        <v>7006105359105</v>
       </c>
       <c r="D316" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="E316" s="2">
-        <v>43220.515277777777</v>
+        <v>43220.443055555559</v>
       </c>
       <c r="F316" s="2"/>
       <c r="M316" s="3"/>
@@ -11348,16 +11572,16 @@
         <v>145</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C317" s="3">
-        <v>7003441360041</v>
+        <v>7006097359055</v>
       </c>
       <c r="D317" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="E317" s="2">
-        <v>43220.525694444441</v>
+        <v>43220.445138888892</v>
       </c>
       <c r="F317" s="2"/>
       <c r="M317" s="3"/>
@@ -11369,16 +11593,16 @@
         <v>145</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="C318" s="3">
-        <v>7003437360048</v>
+        <v>7006092358975</v>
       </c>
       <c r="D318" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="E318" s="2">
-        <v>43220.52847222222</v>
+        <v>43220.448611111111</v>
       </c>
       <c r="F318" s="2"/>
       <c r="M318" s="3"/>
@@ -11390,16 +11614,16 @@
         <v>145</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C319" s="3">
-        <v>7003383360066</v>
+        <v>7006069358719</v>
       </c>
       <c r="D319" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="E319" s="2">
-        <v>43220.53125</v>
+        <v>43220.45208333333</v>
       </c>
       <c r="F319" s="2"/>
       <c r="M319" s="3"/>
@@ -11411,16 +11635,16 @@
         <v>145</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C320" s="3">
-        <v>7003064360213</v>
+        <v>7006070358639</v>
       </c>
       <c r="D320" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="E320" s="2">
-        <v>43220.536111111112</v>
+        <v>43220.45416666667</v>
       </c>
       <c r="F320" s="2"/>
       <c r="M320" s="3"/>
@@ -11432,16 +11656,16 @@
         <v>145</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="C321" s="3">
-        <v>7002924360280</v>
+        <v>7006048358564</v>
       </c>
       <c r="D321" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="E321" s="2">
-        <v>43220.539583333331</v>
+        <v>43220.455555555556</v>
       </c>
       <c r="F321" s="2"/>
       <c r="M321" s="3"/>
@@ -11453,16 +11677,16 @@
         <v>145</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="C322" s="3">
-        <v>7002846360330</v>
+        <v>7005966358599</v>
       </c>
       <c r="D322" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E322" s="2">
-        <v>43220.542361111111</v>
+        <v>43220.482638888891</v>
       </c>
       <c r="F322" s="2"/>
       <c r="M322" s="3"/>
@@ -11474,16 +11698,16 @@
         <v>145</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="C323" s="3">
-        <v>7002828360337</v>
+        <v>7005754358715</v>
       </c>
       <c r="D323" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="E323" s="2">
-        <v>43220.544444444444</v>
+        <v>43220.486805555556</v>
       </c>
       <c r="F323" s="2"/>
       <c r="M323" s="3"/>
@@ -11495,16 +11719,16 @@
         <v>145</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C324" s="3">
-        <v>7002573360565</v>
+        <v>7005614358794</v>
       </c>
       <c r="D324" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="E324" s="2">
-        <v>43220.55</v>
+        <v>43220.488888888889</v>
       </c>
       <c r="F324" s="2"/>
       <c r="M324" s="3"/>
@@ -11516,16 +11740,16 @@
         <v>145</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="C325" s="3">
-        <v>7002551360604</v>
+        <v>7005555358825</v>
       </c>
       <c r="D325" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="E325" s="2">
-        <v>43220.552777777775</v>
+        <v>43220.490277777775</v>
       </c>
       <c r="F325" s="2"/>
       <c r="M325" s="3"/>
@@ -11537,17 +11761,18 @@
         <v>145</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C326" s="3">
-        <v>7002731360751</v>
+        <v>7005172359049</v>
       </c>
       <c r="D326" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="E326" s="2">
-        <v>43220.55972222222</v>
-      </c>
+        <v>43220.493055555555</v>
+      </c>
+      <c r="F326" s="2"/>
       <c r="M326" s="3"/>
       <c r="O326" s="2"/>
       <c r="P326" s="2"/>
@@ -11557,17 +11782,18 @@
         <v>145</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C327" s="3">
-        <v>7003942361654</v>
+        <v>7004845359228</v>
       </c>
       <c r="D327" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="E327" s="2">
-        <v>43220.577777777777</v>
-      </c>
+        <v>43220.49722222222</v>
+      </c>
+      <c r="F327" s="2"/>
       <c r="M327" s="3"/>
       <c r="O327" s="2"/>
       <c r="P327" s="2"/>
@@ -11577,16 +11803,16 @@
         <v>145</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C328" s="3">
-        <v>7004010361690</v>
+        <v>7004594359342</v>
       </c>
       <c r="D328" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="E328" s="2">
-        <v>43220.580555555556</v>
+        <v>43220.503472222219</v>
       </c>
       <c r="M328" s="3"/>
       <c r="O328" s="2"/>
@@ -11597,16 +11823,16 @@
         <v>145</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="C329" s="3">
-        <v>7004478361995</v>
+        <v>7004462359409</v>
       </c>
       <c r="D329" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="E329" s="2">
-        <v>43220.63958333333</v>
+        <v>43220.506249999999</v>
       </c>
       <c r="M329" s="3"/>
       <c r="O329" s="2"/>
@@ -11617,16 +11843,16 @@
         <v>145</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="C330" s="3">
-        <v>7004518362018</v>
+        <v>7004326359594</v>
       </c>
       <c r="D330" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="E330" s="2">
-        <v>43220.64166666667</v>
+        <v>43220.508333333331</v>
       </c>
       <c r="M330" s="3"/>
       <c r="O330" s="2"/>
@@ -11637,16 +11863,16 @@
         <v>145</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="C331" s="3">
-        <v>7004641362075</v>
+        <v>7004265359557</v>
       </c>
       <c r="D331" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="E331" s="2">
-        <v>43220.643750000003</v>
+        <v>43220.509722222225</v>
       </c>
       <c r="M331" s="3"/>
       <c r="O331" s="2"/>
@@ -11656,16 +11882,16 @@
         <v>145</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="C332" s="3">
-        <v>7004976362244</v>
+        <v>7004067359659</v>
       </c>
       <c r="D332" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="E332" s="2">
-        <v>43220.648611111108</v>
+        <v>43220.513194444444</v>
       </c>
       <c r="M332" s="3"/>
       <c r="O332" s="2"/>
@@ -11675,16 +11901,16 @@
         <v>145</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C333" s="3">
-        <v>7005036362271</v>
+        <v>7004008359687</v>
       </c>
       <c r="D333" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="E333" s="2">
-        <v>43220.650694444441</v>
+        <v>43220.515277777777</v>
       </c>
       <c r="M333" s="3"/>
       <c r="O333" s="2"/>
@@ -11694,194 +11920,194 @@
         <v>145</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C334" s="3">
-        <v>7005401362460</v>
+        <v>7003441360041</v>
       </c>
       <c r="D334" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E334" s="2">
-        <v>43220.654861111114</v>
+        <v>43220.525694444441</v>
       </c>
       <c r="M334" s="3"/>
     </row>
     <row r="335" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="C335" s="3">
-        <v>7004400359209</v>
+        <v>7003437360048</v>
       </c>
       <c r="D335" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E335" s="2">
-        <v>43221.29583333333</v>
+        <v>43220.52847222222</v>
       </c>
       <c r="M335" s="3"/>
     </row>
     <row r="336" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="C336" s="3">
-        <v>7003918358291</v>
+        <v>7003383360066</v>
       </c>
       <c r="D336" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="E336" s="2">
-        <v>43221.315972222219</v>
+        <v>43220.53125</v>
       </c>
       <c r="M336" s="3"/>
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="C337" s="3">
-        <v>7003782358005</v>
+        <v>7003064360213</v>
       </c>
       <c r="D337" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E337" s="2">
-        <v>43221.322222222225</v>
+        <v>43220.536111111112</v>
       </c>
       <c r="M337" s="3"/>
     </row>
     <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="C338" s="3">
-        <v>7003733357829</v>
+        <v>7002924360280</v>
       </c>
       <c r="D338" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E338" s="2">
-        <v>43221.325694444444</v>
+        <v>43220.539583333331</v>
       </c>
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C339" s="3">
-        <v>7003632357578</v>
+        <v>7002846360330</v>
       </c>
       <c r="D339" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="E339" s="2">
-        <v>43221.329861111109</v>
+        <v>43220.542361111111</v>
       </c>
     </row>
     <row r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C340" s="3">
-        <v>7002949356265</v>
+        <v>7002828360337</v>
       </c>
       <c r="D340" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E340" s="2">
-        <v>43221.34375</v>
+        <v>43220.544444444444</v>
       </c>
       <c r="O340" s="2"/>
     </row>
     <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="C341" s="3">
-        <v>7002812355949</v>
+        <v>7002573360565</v>
       </c>
       <c r="D341" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E341" s="2">
-        <v>43221.348611111112</v>
+        <v>43220.55</v>
       </c>
       <c r="O341" s="2"/>
     </row>
     <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C342" s="3">
-        <v>7002785355789</v>
+        <v>7002551360604</v>
       </c>
       <c r="D342" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="E342" s="2">
-        <v>43221.351388888892</v>
+        <v>43220.552777777775</v>
       </c>
       <c r="O342" s="2"/>
     </row>
     <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="C343" s="3">
-        <v>7002775355736</v>
+        <v>7002731360751</v>
       </c>
       <c r="D343" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E343" s="2">
-        <v>43221.354166666664</v>
+        <v>43220.55972222222</v>
       </c>
       <c r="O343" s="2"/>
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C344" s="3">
-        <v>7002767355630</v>
+        <v>7003942361654</v>
       </c>
       <c r="D344" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="E344" s="2">
-        <v>43221.375694444447</v>
+        <v>43220.577777777777</v>
       </c>
       <c r="L344" s="3"/>
       <c r="N344" s="2"/>
@@ -11889,19 +12115,19 @@
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="C345" s="3">
-        <v>7003185355743</v>
+        <v>7004010361690</v>
       </c>
       <c r="D345" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="E345" s="2">
-        <v>43221.38958333333</v>
+        <v>43220.580555555556</v>
       </c>
       <c r="L345" s="3"/>
       <c r="N345" s="2"/>
@@ -11909,19 +12135,19 @@
     </row>
     <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C346" s="3">
-        <v>7003537355760</v>
+        <v>7004478361995</v>
       </c>
       <c r="D346" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="E346" s="2">
-        <v>43221.397916666669</v>
+        <v>43220.63958333333</v>
       </c>
       <c r="L346" s="3"/>
       <c r="N346" s="2"/>
@@ -11929,19 +12155,19 @@
     </row>
     <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="C347" s="3">
-        <v>7003563355747</v>
+        <v>7004518362018</v>
       </c>
       <c r="D347" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="E347" s="2">
-        <v>43221.4</v>
+        <v>43220.64166666667</v>
       </c>
       <c r="L347" s="3"/>
       <c r="N347" s="2"/>
@@ -11949,19 +12175,19 @@
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="C348" s="3">
-        <v>7003632355750</v>
+        <v>7004641362075</v>
       </c>
       <c r="D348" t="s">
-        <v>343</v>
+        <v>292</v>
       </c>
       <c r="E348" s="2">
-        <v>43221.404166666667</v>
+        <v>43220.643750000003</v>
       </c>
       <c r="L348" s="3"/>
       <c r="N348" s="2"/>
@@ -11969,19 +12195,19 @@
     </row>
     <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="C349" s="3">
-        <v>7005429356236</v>
+        <v>7004976362244</v>
       </c>
       <c r="D349" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="E349" s="2">
-        <v>43221.426388888889</v>
+        <v>43220.648611111108</v>
       </c>
       <c r="L349" s="3"/>
       <c r="N349" s="2"/>
@@ -11989,19 +12215,19 @@
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="C350" s="3">
-        <v>7005578356227</v>
+        <v>7005036362271</v>
       </c>
       <c r="D350" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="E350" s="2">
-        <v>43221.431944444441</v>
+        <v>43220.650694444441</v>
       </c>
       <c r="L350" s="3"/>
       <c r="N350" s="2"/>
@@ -12009,19 +12235,19 @@
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="C351" s="3">
-        <v>7005615356234</v>
+        <v>7005401362460</v>
       </c>
       <c r="D351" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="E351" s="2">
-        <v>43221.433333333334</v>
+        <v>43220.654861111114</v>
       </c>
       <c r="L351" s="3"/>
       <c r="N351" s="2"/>
@@ -12032,16 +12258,16 @@
         <v>149</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="C352" s="3">
-        <v>7005818356285</v>
+        <v>7004400359209</v>
       </c>
       <c r="D352" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="E352" s="2">
-        <v>43221.438888888886</v>
+        <v>43221.29583333333</v>
       </c>
       <c r="L352" s="3"/>
       <c r="N352" s="2"/>
@@ -12052,16 +12278,16 @@
         <v>149</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="C353" s="3">
-        <v>7005889356297</v>
+        <v>7003918358291</v>
       </c>
       <c r="D353" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="E353" s="2">
-        <v>43221.440972222219</v>
+        <v>43221.315972222219</v>
       </c>
       <c r="L353" s="3"/>
       <c r="N353" s="2"/>
@@ -12072,16 +12298,16 @@
         <v>149</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="C354" s="3">
-        <v>7005982356291</v>
+        <v>7003782358005</v>
       </c>
       <c r="D354" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="E354" s="2">
-        <v>43221.445833333331</v>
+        <v>43221.322222222225</v>
       </c>
       <c r="L354" s="3"/>
       <c r="N354" s="2"/>
@@ -12092,16 +12318,16 @@
         <v>149</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C355" s="3">
-        <v>7006067356287</v>
+        <v>7003733357829</v>
       </c>
       <c r="D355" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="E355" s="2">
-        <v>43221.448611111111</v>
+        <v>43221.325694444444</v>
       </c>
       <c r="L355" s="3"/>
       <c r="N355" s="2"/>
@@ -12112,16 +12338,16 @@
         <v>149</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="C356" s="3">
-        <v>7006110356278</v>
+        <v>7003632357578</v>
       </c>
       <c r="D356" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="E356" s="2">
-        <v>43221.45208333333</v>
+        <v>43221.329861111109</v>
       </c>
       <c r="L356" s="3"/>
       <c r="N356" s="2"/>
@@ -12132,16 +12358,16 @@
         <v>149</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C357" s="3">
-        <v>7006178356268</v>
+        <v>7002949356265</v>
       </c>
       <c r="D357" t="s">
-        <v>241</v>
+        <v>335</v>
       </c>
       <c r="E357" s="2">
-        <v>43221.455555555556</v>
+        <v>43221.34375</v>
       </c>
       <c r="L357" s="3"/>
       <c r="N357" s="2"/>
@@ -12152,16 +12378,16 @@
         <v>149</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C358" s="3">
-        <v>7006451356272</v>
+        <v>7002812355949</v>
       </c>
       <c r="D358" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="E358" s="2">
-        <v>43221.461111111108</v>
+        <v>43221.348611111112</v>
       </c>
       <c r="L358" s="3"/>
       <c r="N358" s="2"/>
@@ -12172,16 +12398,16 @@
         <v>149</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C359" s="3">
-        <v>7006803356301</v>
+        <v>7002785355789</v>
       </c>
       <c r="D359" t="s">
-        <v>245</v>
+        <v>337</v>
       </c>
       <c r="E359" s="2">
-        <v>43221.468055555553</v>
+        <v>43221.351388888892</v>
       </c>
       <c r="L359" s="3"/>
       <c r="N359" s="2"/>
@@ -12192,16 +12418,16 @@
         <v>149</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="C360" s="3">
-        <v>7006600356476</v>
+        <v>7002775355736</v>
       </c>
       <c r="D360" t="s">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="E360" s="2">
-        <v>43221.475694444445</v>
+        <v>43221.354166666664</v>
       </c>
       <c r="L360" s="3"/>
       <c r="N360" s="2"/>
@@ -12212,16 +12438,16 @@
         <v>149</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C361" s="3">
-        <v>7005428357911</v>
+        <v>7002767355630</v>
       </c>
       <c r="D361" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E361" s="2">
-        <v>43221.529166666667</v>
+        <v>43221.375694444447</v>
       </c>
       <c r="L361" s="3"/>
       <c r="N361" s="2"/>
@@ -12232,16 +12458,16 @@
         <v>149</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C362" s="3">
-        <v>7005274358127</v>
+        <v>7003185355743</v>
       </c>
       <c r="D362" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="E362" s="2">
-        <v>43221.532638888886</v>
+        <v>43221.38958333333</v>
       </c>
       <c r="L362" s="3"/>
       <c r="N362" s="2"/>
@@ -12252,16 +12478,16 @@
         <v>149</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C363" s="3">
-        <v>7005214358195</v>
+        <v>7003537355760</v>
       </c>
       <c r="D363" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="E363" s="2">
-        <v>43221.535416666666</v>
+        <v>43221.397916666669</v>
       </c>
       <c r="L363" s="3"/>
       <c r="N363" s="2"/>
@@ -12272,16 +12498,16 @@
         <v>149</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="C364" s="3">
-        <v>7004453359147</v>
+        <v>7003563355747</v>
       </c>
       <c r="D364" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="E364" s="2">
-        <v>43221.547222222223</v>
+        <v>43221.4</v>
       </c>
       <c r="L364" s="3"/>
       <c r="N364" s="2"/>
@@ -12289,19 +12515,19 @@
     </row>
     <row r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="C365" s="3">
-        <v>7008546366649</v>
+        <v>7003632355750</v>
       </c>
       <c r="D365" t="s">
-        <v>208</v>
+        <v>343</v>
       </c>
       <c r="E365" s="2">
-        <v>43222.325694444444</v>
+        <v>43221.404166666667</v>
       </c>
       <c r="L365" s="3"/>
       <c r="N365" s="2"/>
@@ -12309,19 +12535,19 @@
     </row>
     <row r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C366" s="3">
-        <v>7008527366619</v>
+        <v>7005429356236</v>
       </c>
       <c r="D366" t="s">
-        <v>235</v>
+        <v>344</v>
       </c>
       <c r="E366" s="2">
-        <v>43222.329861111109</v>
+        <v>43221.426388888889</v>
       </c>
       <c r="L366" s="3"/>
       <c r="N366" s="2"/>
@@ -12329,19 +12555,19 @@
     </row>
     <row r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C367" s="3">
-        <v>7008489366555</v>
+        <v>7005578356227</v>
       </c>
       <c r="D367" t="s">
-        <v>196</v>
+        <v>322</v>
       </c>
       <c r="E367" s="2">
-        <v>43222.334027777775</v>
+        <v>43221.431944444441</v>
       </c>
       <c r="L367" s="3"/>
       <c r="N367" s="2"/>
@@ -12349,19 +12575,19 @@
     </row>
     <row r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C368" s="3">
-        <v>7008481366542</v>
+        <v>7005615356234</v>
       </c>
       <c r="D368" t="s">
-        <v>223</v>
+        <v>321</v>
       </c>
       <c r="E368" s="2">
-        <v>43222.335416666669</v>
+        <v>43221.433333333334</v>
       </c>
       <c r="L368" s="3"/>
       <c r="N368" s="2"/>
@@ -12369,19 +12595,19 @@
     </row>
     <row r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="C369" s="3">
-        <v>7008469366500</v>
+        <v>7005818356285</v>
       </c>
       <c r="D369" t="s">
-        <v>213</v>
+        <v>345</v>
       </c>
       <c r="E369" s="2">
-        <v>43222.336805555555</v>
+        <v>43221.438888888886</v>
       </c>
       <c r="L369" s="3"/>
       <c r="N369" s="2"/>
@@ -12389,19 +12615,19 @@
     </row>
     <row r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="C370" s="3">
-        <v>7008230366123</v>
+        <v>7005889356297</v>
       </c>
       <c r="D370" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E370" s="2">
-        <v>43222.348611111112</v>
+        <v>43221.440972222219</v>
       </c>
       <c r="L370" s="3"/>
       <c r="N370" s="2"/>
@@ -12409,19 +12635,19 @@
     </row>
     <row r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C371" s="3">
-        <v>7008184366055</v>
+        <v>7005982356291</v>
       </c>
       <c r="D371" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E371" s="2">
-        <v>43222.351388888892</v>
+        <v>43221.445833333331</v>
       </c>
       <c r="L371" s="3"/>
       <c r="N371" s="2"/>
@@ -12429,19 +12655,19 @@
     </row>
     <row r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C372" s="3">
-        <v>7007756365256</v>
+        <v>7006067356287</v>
       </c>
       <c r="D372" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="E372" s="2">
-        <v>43222.363888888889</v>
+        <v>43221.448611111111</v>
       </c>
       <c r="L372" s="3"/>
       <c r="N372" s="2"/>
@@ -12449,19 +12675,19 @@
     </row>
     <row r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="C373" s="3">
-        <v>7007701365129</v>
+        <v>7006110356278</v>
       </c>
       <c r="D373" t="s">
-        <v>188</v>
+        <v>348</v>
       </c>
       <c r="E373" s="2">
-        <v>43222.366666666669</v>
+        <v>43221.45208333333</v>
       </c>
       <c r="L373" s="3"/>
       <c r="N373" s="2"/>
@@ -12469,19 +12695,19 @@
     </row>
     <row r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C374" s="3">
-        <v>7007599364865</v>
+        <v>7006178356268</v>
       </c>
       <c r="D374" t="s">
-        <v>356</v>
+        <v>241</v>
       </c>
       <c r="E374" s="2">
-        <v>43222.37222222222</v>
+        <v>43221.455555555556</v>
       </c>
       <c r="L374" s="3"/>
       <c r="N374" s="2"/>
@@ -12489,19 +12715,19 @@
     </row>
     <row r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C375" s="3">
-        <v>7007353364176</v>
+        <v>7006451356272</v>
       </c>
       <c r="D375" t="s">
-        <v>273</v>
+        <v>349</v>
       </c>
       <c r="E375" s="2">
-        <v>43222.379166666666</v>
+        <v>43221.461111111108</v>
       </c>
       <c r="L375" s="3"/>
       <c r="N375" s="2"/>
@@ -12509,19 +12735,19 @@
     </row>
     <row r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C376" s="3">
-        <v>7007224363897</v>
+        <v>7006803356301</v>
       </c>
       <c r="D376" t="s">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c r="E376" s="2">
-        <v>43222.383333333331</v>
+        <v>43221.468055555553</v>
       </c>
       <c r="L376" s="3"/>
       <c r="N376" s="2"/>
@@ -12529,95 +12755,95 @@
     </row>
     <row r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C377" s="3">
-        <v>7006864363345</v>
+        <v>7006600356476</v>
       </c>
       <c r="D377" t="s">
-        <v>357</v>
+        <v>290</v>
       </c>
       <c r="E377" s="2">
-        <v>43222.400000000001</v>
+        <v>43221.475694444445</v>
       </c>
       <c r="L377" s="3"/>
       <c r="N377" s="2"/>
     </row>
     <row r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="C378" s="3">
-        <v>7006855363327</v>
+        <v>7005428357911</v>
       </c>
       <c r="D378" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="E378" s="2">
-        <v>43222.402083333334</v>
+        <v>43221.529166666667</v>
       </c>
       <c r="L378" s="3"/>
       <c r="N378" s="2"/>
     </row>
     <row r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C379" s="3">
-        <v>7006741363193</v>
+        <v>7005274358127</v>
       </c>
       <c r="D379" t="s">
-        <v>358</v>
+        <v>291</v>
       </c>
       <c r="E379" s="2">
-        <v>43222.40625</v>
+        <v>43221.532638888886</v>
       </c>
       <c r="L379" s="3"/>
       <c r="N379" s="2"/>
     </row>
     <row r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C380" s="3">
-        <v>7006705363181</v>
+        <v>7005214358195</v>
       </c>
       <c r="D380" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="E380" s="2">
-        <v>43222.408333333333</v>
+        <v>43221.535416666666</v>
       </c>
       <c r="L380" s="3"/>
       <c r="N380" s="2"/>
     </row>
     <row r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="C381" s="3">
-        <v>7006635363106</v>
+        <v>7004453359147</v>
       </c>
       <c r="D381" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E381" s="2">
-        <v>43222.410416666666</v>
+        <v>43221.547222222223</v>
       </c>
     </row>
     <row r="382" spans="1:15" x14ac:dyDescent="0.2">
@@ -12625,16 +12851,16 @@
         <v>152</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="C382" s="3">
-        <v>7006632363092</v>
+        <v>7008546366649</v>
       </c>
       <c r="D382" t="s">
-        <v>358</v>
+        <v>208</v>
       </c>
       <c r="E382" s="2">
-        <v>43222.412499999999</v>
+        <v>43222.325694444444</v>
       </c>
     </row>
     <row r="383" spans="1:15" x14ac:dyDescent="0.2">
@@ -12642,16 +12868,16 @@
         <v>152</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C383" s="3">
-        <v>7006656363084</v>
+        <v>7008527366619</v>
       </c>
       <c r="D383" t="s">
-        <v>359</v>
+        <v>235</v>
       </c>
       <c r="E383" s="2">
-        <v>43222.425000000003</v>
+        <v>43222.329861111109</v>
       </c>
     </row>
     <row r="384" spans="1:15" x14ac:dyDescent="0.2">
@@ -12659,16 +12885,16 @@
         <v>152</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="C384" s="3">
-        <v>7006704363076</v>
+        <v>7008489366555</v>
       </c>
       <c r="D384" t="s">
-        <v>359</v>
+        <v>196</v>
       </c>
       <c r="E384" s="2">
-        <v>43222.431944444441</v>
+        <v>43222.334027777775</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
@@ -12676,16 +12902,16 @@
         <v>152</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="C385" s="3">
-        <v>7006759363054</v>
+        <v>7008481366542</v>
       </c>
       <c r="D385" t="s">
-        <v>288</v>
+        <v>223</v>
       </c>
       <c r="E385" s="2">
-        <v>43222.435416666667</v>
+        <v>43222.335416666669</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
@@ -12693,16 +12919,16 @@
         <v>152</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="C386" s="3">
-        <v>7006796363052</v>
+        <v>7008469366500</v>
       </c>
       <c r="D386" t="s">
-        <v>360</v>
+        <v>213</v>
       </c>
       <c r="E386" s="2">
-        <v>43222.436805555553</v>
+        <v>43222.336805555555</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
@@ -12710,16 +12936,16 @@
         <v>152</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="C387" s="3">
-        <v>7006864363034</v>
+        <v>7008230366123</v>
       </c>
       <c r="D387" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="E387" s="2">
-        <v>43222.439583333333</v>
+        <v>43222.348611111112</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
@@ -12727,16 +12953,16 @@
         <v>152</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C388" s="3">
-        <v>7006882363032</v>
+        <v>7008184366055</v>
       </c>
       <c r="D388" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E388" s="2">
-        <v>43222.44027777778</v>
+        <v>43222.351388888892</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
@@ -12744,16 +12970,16 @@
         <v>152</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C389" s="3">
-        <v>7007268362982</v>
+        <v>7007756365256</v>
       </c>
       <c r="D389" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E389" s="2">
-        <v>43222.448611111111</v>
+        <v>43222.363888888889</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
@@ -12761,16 +12987,16 @@
         <v>152</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C390" s="3">
-        <v>7007286362985</v>
+        <v>7007701365129</v>
       </c>
       <c r="D390" t="s">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="E390" s="2">
-        <v>43222.450694444444</v>
+        <v>43222.366666666669</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
@@ -12778,16 +13004,16 @@
         <v>152</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C391" s="3">
-        <v>7007299362986</v>
+        <v>7007599364865</v>
       </c>
       <c r="D391" t="s">
-        <v>281</v>
+        <v>356</v>
       </c>
       <c r="E391" s="2">
-        <v>43222.45208333333</v>
+        <v>43222.37222222222</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
@@ -12795,16 +13021,16 @@
         <v>152</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="C392" s="3">
-        <v>7007413362958</v>
+        <v>7007353364176</v>
       </c>
       <c r="D392" t="s">
-        <v>363</v>
+        <v>273</v>
       </c>
       <c r="E392" s="2">
-        <v>43222.455555555556</v>
+        <v>43222.379166666666</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
@@ -12812,16 +13038,16 @@
         <v>152</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="C393" s="3">
-        <v>7009681362779</v>
+        <v>7007224363897</v>
       </c>
       <c r="D393" t="s">
-        <v>243</v>
+        <v>303</v>
       </c>
       <c r="E393" s="2">
-        <v>43222.494444444441</v>
+        <v>43222.383333333331</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
@@ -12829,16 +13055,16 @@
         <v>152</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C394" s="3">
-        <v>7010638362876</v>
+        <v>7006864363345</v>
       </c>
       <c r="D394" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E394" s="2">
-        <v>43222.50277777778</v>
+        <v>43222.400000000001</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
@@ -12846,16 +13072,16 @@
         <v>152</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C395" s="3">
-        <v>7010614362913</v>
+        <v>7006855363327</v>
       </c>
       <c r="D395" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="E395" s="2">
-        <v>43222.522222222222</v>
+        <v>43222.402083333334</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
@@ -12863,16 +13089,16 @@
         <v>152</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C396" s="3">
-        <v>7010584362972</v>
+        <v>7006741363193</v>
       </c>
       <c r="D396" t="s">
-        <v>278</v>
+        <v>358</v>
       </c>
       <c r="E396" s="2">
-        <v>43222.524305555555</v>
+        <v>43222.40625</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
@@ -12880,16 +13106,16 @@
         <v>152</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="C397" s="3">
-        <v>7009698364284</v>
+        <v>7006705363181</v>
       </c>
       <c r="D397" t="s">
-        <v>365</v>
+        <v>312</v>
       </c>
       <c r="E397" s="2">
-        <v>43222.599305555559</v>
+        <v>43222.408333333333</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
@@ -12897,16 +13123,16 @@
         <v>152</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C398" s="3">
-        <v>7009212365539</v>
+        <v>7006635363106</v>
       </c>
       <c r="D398" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E398" s="2">
-        <v>43222.618055555555</v>
+        <v>43222.410416666666</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
@@ -12914,16 +13140,16 @@
         <v>152</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C399" s="3">
-        <v>7009208365577</v>
+        <v>7006632363092</v>
       </c>
       <c r="D399" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="E399" s="2">
-        <v>43222.620138888888</v>
+        <v>43222.412499999999</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
@@ -12931,16 +13157,16 @@
         <v>152</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="C400" s="3">
-        <v>7009208365588</v>
+        <v>7006656363084</v>
       </c>
       <c r="D400" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E400" s="2">
-        <v>43222.621527777781</v>
+        <v>43222.425000000003</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
@@ -12948,16 +13174,16 @@
         <v>152</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C401" s="3">
-        <v>7009199365638</v>
+        <v>7006704363076</v>
       </c>
       <c r="D401" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="E401" s="2">
-        <v>43222.623611111114</v>
+        <v>43222.431944444441</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
@@ -12965,16 +13191,16 @@
         <v>152</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C402" s="3">
-        <v>7009186365662</v>
+        <v>7006759363054</v>
       </c>
       <c r="D402" t="s">
-        <v>369</v>
+        <v>288</v>
       </c>
       <c r="E402" s="2">
-        <v>43222.625694444447</v>
+        <v>43222.435416666667</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
@@ -12982,16 +13208,16 @@
         <v>152</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C403" s="3">
-        <v>7008623366228</v>
+        <v>7006796363052</v>
       </c>
       <c r="D403" t="s">
-        <v>184</v>
+        <v>360</v>
       </c>
       <c r="E403" s="2">
-        <v>43222.638888888891</v>
+        <v>43222.436805555553</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
@@ -12999,13 +13225,16 @@
         <v>152</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="C404" s="3">
-        <v>7009183365670</v>
+        <v>7006864363034</v>
+      </c>
+      <c r="D404" t="s">
+        <v>313</v>
       </c>
       <c r="E404" s="2">
-        <v>43222.640277777777</v>
+        <v>43222.439583333333</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
@@ -13013,15 +13242,301 @@
         <v>152</v>
       </c>
       <c r="B405" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C405" s="3">
+        <v>7006882363032</v>
+      </c>
+      <c r="D405" t="s">
+        <v>361</v>
+      </c>
+      <c r="E405" s="2">
+        <v>43222.44027777778</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>152</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C406" s="3">
+        <v>7007268362982</v>
+      </c>
+      <c r="D406" t="s">
+        <v>362</v>
+      </c>
+      <c r="E406" s="2">
+        <v>43222.448611111111</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>152</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C407" s="3">
+        <v>7007286362985</v>
+      </c>
+      <c r="D407" t="s">
+        <v>282</v>
+      </c>
+      <c r="E407" s="2">
+        <v>43222.450694444444</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>152</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C408" s="3">
+        <v>7007299362986</v>
+      </c>
+      <c r="D408" t="s">
+        <v>281</v>
+      </c>
+      <c r="E408" s="2">
+        <v>43222.45208333333</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>152</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C409" s="3">
+        <v>7007413362958</v>
+      </c>
+      <c r="D409" t="s">
+        <v>363</v>
+      </c>
+      <c r="E409" s="2">
+        <v>43222.455555555556</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>152</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C410" s="3">
+        <v>7009681362779</v>
+      </c>
+      <c r="D410" t="s">
+        <v>243</v>
+      </c>
+      <c r="E410" s="2">
+        <v>43222.494444444441</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>152</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C411" s="3">
+        <v>7010638362876</v>
+      </c>
+      <c r="D411" t="s">
+        <v>364</v>
+      </c>
+      <c r="E411" s="2">
+        <v>43222.50277777778</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>152</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C412" s="3">
+        <v>7010614362913</v>
+      </c>
+      <c r="D412" t="s">
+        <v>364</v>
+      </c>
+      <c r="E412" s="2">
+        <v>43222.522222222222</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>152</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C413" s="3">
+        <v>7010584362972</v>
+      </c>
+      <c r="D413" t="s">
+        <v>278</v>
+      </c>
+      <c r="E413" s="2">
+        <v>43222.524305555555</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>152</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C414" s="3">
+        <v>7009698364284</v>
+      </c>
+      <c r="D414" t="s">
+        <v>365</v>
+      </c>
+      <c r="E414" s="2">
+        <v>43222.599305555559</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>152</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C415" s="3">
+        <v>7009212365539</v>
+      </c>
+      <c r="D415" t="s">
+        <v>354</v>
+      </c>
+      <c r="E415" s="2">
+        <v>43222.618055555555</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>152</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C416" s="3">
+        <v>7009208365577</v>
+      </c>
+      <c r="D416" t="s">
+        <v>366</v>
+      </c>
+      <c r="E416" s="2">
+        <v>43222.620138888888</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>152</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C417" s="3">
+        <v>7009208365588</v>
+      </c>
+      <c r="D417" t="s">
+        <v>367</v>
+      </c>
+      <c r="E417" s="2">
+        <v>43222.621527777781</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>152</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C418" s="3">
+        <v>7009199365638</v>
+      </c>
+      <c r="D418" t="s">
+        <v>368</v>
+      </c>
+      <c r="E418" s="2">
+        <v>43222.623611111114</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>152</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C419" s="3">
+        <v>7009186365662</v>
+      </c>
+      <c r="D419" t="s">
+        <v>369</v>
+      </c>
+      <c r="E419" s="2">
+        <v>43222.625694444447</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>152</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C420" s="3">
+        <v>7008623366228</v>
+      </c>
+      <c r="D420" t="s">
+        <v>184</v>
+      </c>
+      <c r="E420" s="2">
+        <v>43222.638888888891</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>152</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C421" s="3">
+        <v>7009183365670</v>
+      </c>
+      <c r="E421" s="2">
+        <v>43222.640277777777</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>152</v>
+      </c>
+      <c r="B422" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C405" s="3">
+      <c r="C422" s="3">
         <v>7008631366281</v>
       </c>
-      <c r="D405" t="s">
+      <c r="D422" t="s">
         <v>370</v>
       </c>
-      <c r="E405" s="2">
+      <c r="E422" s="2">
         <v>43222.640972222223</v>
       </c>
     </row>

--- a/Rawdata/riptransekter helags 2018.xlsx
+++ b/Rawdata/riptransekter helags 2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11120" yWindow="460" windowWidth="25600" windowHeight="14120" xr2:uid="{731D7839-4CAB-374B-BEA5-3406519CB6C1}"/>
+    <workbookView xWindow="5320" yWindow="460" windowWidth="25600" windowHeight="14120" xr2:uid="{731D7839-4CAB-374B-BEA5-3406519CB6C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="436">
   <si>
     <t>vinkel</t>
   </si>
@@ -1290,6 +1290,48 @@
   </si>
   <si>
     <t>snö</t>
+  </si>
+  <si>
+    <t>växlande molnighet, 0 till -1</t>
+  </si>
+  <si>
+    <t>skare + 2 mm nysnö</t>
+  </si>
+  <si>
+    <t>snö, lätt vind</t>
+  </si>
+  <si>
+    <t>saknar</t>
+  </si>
+  <si>
+    <t>sol, lite snöfall</t>
+  </si>
+  <si>
+    <t>sol, varmt, 15 grader</t>
+  </si>
+  <si>
+    <t>kan vara dubbelrknad. De jag såg innan flög dock åt andra hållet</t>
+  </si>
+  <si>
+    <t>mycket snö och få barfläckar på transekt</t>
+  </si>
+  <si>
+    <t>molningt, lätt snöfall, kallare</t>
+  </si>
+  <si>
+    <t>kraftigt snöfall</t>
+  </si>
+  <si>
+    <t>någon ljusbrun, någon gammal</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>930 m</t>
+  </si>
+  <si>
+    <t>gps saknades. Lade till i efterhand. Höjd är en gissning.</t>
   </si>
 </sst>
 </file>
@@ -1646,9 +1688,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9831C9-A413-654D-876F-A809696709AE}">
   <dimension ref="A1:Z438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O232" sqref="O232:O265"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F315" sqref="F315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1795,6 +1837,9 @@
       <c r="J4" t="s">
         <v>10</v>
       </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
       <c r="L4">
         <v>7</v>
       </c>
@@ -1865,6 +1910,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
       <c r="L6">
         <v>1</v>
       </c>
@@ -1929,6 +1977,9 @@
       <c r="J8" t="s">
         <v>10</v>
       </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
       <c r="L8">
         <v>15</v>
       </c>
@@ -2037,6 +2088,9 @@
       <c r="J11" t="s">
         <v>16</v>
       </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
       <c r="L11">
         <v>1</v>
       </c>
@@ -2323,6 +2377,9 @@
       <c r="J19" t="s">
         <v>10</v>
       </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
       <c r="L19">
         <v>3</v>
       </c>
@@ -2358,6 +2415,9 @@
       <c r="J20" t="s">
         <v>10</v>
       </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
       <c r="L20">
         <v>1</v>
       </c>
@@ -2425,6 +2485,9 @@
       <c r="J22" t="s">
         <v>16</v>
       </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
       <c r="L22">
         <v>25</v>
       </c>
@@ -2460,6 +2523,9 @@
       <c r="J23" t="s">
         <v>10</v>
       </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
       <c r="L23">
         <v>5</v>
       </c>
@@ -2498,6 +2564,9 @@
       <c r="J24" t="s">
         <v>10</v>
       </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
       <c r="L24">
         <v>1</v>
       </c>
@@ -2536,6 +2605,9 @@
       <c r="J25" t="s">
         <v>15</v>
       </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
       <c r="L25">
         <v>20</v>
       </c>
@@ -2638,6 +2710,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
       <c r="L28">
         <v>12</v>
       </c>
@@ -2756,6 +2831,9 @@
       </c>
       <c r="F32" t="s">
         <v>11</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -2961,6 +3039,9 @@
       <c r="J42" t="s">
         <v>16</v>
       </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
       <c r="L42">
         <v>22</v>
       </c>
@@ -2996,6 +3077,9 @@
       <c r="J43" t="s">
         <v>10</v>
       </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
       <c r="L43">
         <v>6</v>
       </c>
@@ -3166,6 +3250,9 @@
       <c r="J47" t="s">
         <v>16</v>
       </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
       <c r="L47">
         <v>40</v>
       </c>
@@ -3248,6 +3335,9 @@
       <c r="J49" t="s">
         <v>16</v>
       </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
       <c r="L49">
         <v>19</v>
       </c>
@@ -3453,6 +3543,9 @@
       <c r="J54" t="s">
         <v>16</v>
       </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
       <c r="L54">
         <v>13</v>
       </c>
@@ -3520,6 +3613,9 @@
       <c r="J56" t="s">
         <v>16</v>
       </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
       <c r="L56">
         <v>35</v>
       </c>
@@ -3584,6 +3680,9 @@
       <c r="J58" t="s">
         <v>10</v>
       </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
       <c r="L58">
         <v>1</v>
       </c>
@@ -3622,6 +3721,9 @@
       <c r="J59" t="s">
         <v>10</v>
       </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
       <c r="L59">
         <v>10</v>
       </c>
@@ -3754,6 +3856,9 @@
       <c r="J62" t="s">
         <v>10</v>
       </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
       <c r="L62">
         <v>9</v>
       </c>
@@ -3798,6 +3903,9 @@
       <c r="J63" t="s">
         <v>16</v>
       </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
       <c r="L63">
         <v>28</v>
       </c>
@@ -3915,6 +4023,9 @@
       <c r="J66" t="s">
         <v>15</v>
       </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
       <c r="L66">
         <v>1</v>
       </c>
@@ -4026,6 +4137,9 @@
       <c r="J69" t="s">
         <v>10</v>
       </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
       <c r="L69">
         <v>16</v>
       </c>
@@ -4177,6 +4291,9 @@
       <c r="F74" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
       <c r="L74">
         <v>1</v>
       </c>
@@ -4794,6 +4911,9 @@
       <c r="J93" t="s">
         <v>16</v>
       </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
       <c r="L93">
         <v>2</v>
       </c>
@@ -4965,7 +5085,7 @@
         <v>16</v>
       </c>
       <c r="K97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L97">
         <v>35</v>
@@ -5037,6 +5157,9 @@
       <c r="J99" t="s">
         <v>16</v>
       </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
       <c r="L99">
         <v>27</v>
       </c>
@@ -5195,6 +5318,9 @@
       <c r="J103" t="s">
         <v>10</v>
       </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
       <c r="L103">
         <v>8</v>
       </c>
@@ -5321,6 +5447,9 @@
       <c r="J106" t="s">
         <v>10</v>
       </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
       <c r="L106">
         <v>17</v>
       </c>
@@ -5397,6 +5526,9 @@
       <c r="J108" t="s">
         <v>16</v>
       </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
       <c r="L108">
         <v>32</v>
       </c>
@@ -5441,6 +5573,9 @@
       <c r="J109" t="s">
         <v>16</v>
       </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
       <c r="L109">
         <v>23</v>
       </c>
@@ -5995,6 +6130,9 @@
       <c r="J122" t="s">
         <v>16</v>
       </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
       <c r="L122">
         <v>26</v>
       </c>
@@ -6036,6 +6174,9 @@
       <c r="J123" t="s">
         <v>15</v>
       </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
       <c r="M123" t="s">
         <v>371</v>
       </c>
@@ -6077,6 +6218,9 @@
       <c r="J124" t="s">
         <v>16</v>
       </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
       <c r="M124" t="s">
         <v>371</v>
       </c>
@@ -6147,6 +6291,9 @@
       <c r="J126" t="s">
         <v>16</v>
       </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
       <c r="L126">
         <v>12</v>
       </c>
@@ -6184,6 +6331,9 @@
       </c>
       <c r="J127" t="s">
         <v>15</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
       </c>
       <c r="L127">
         <v>2</v>
@@ -6670,6 +6820,9 @@
       <c r="J142" t="s">
         <v>16</v>
       </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
       <c r="L142">
         <v>5</v>
       </c>
@@ -6819,6 +6972,9 @@
       <c r="H146">
         <v>90</v>
       </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
       <c r="L146">
         <v>3</v>
       </c>
@@ -6921,6 +7077,9 @@
       <c r="J149" t="s">
         <v>10</v>
       </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
       <c r="L149">
         <v>2</v>
       </c>
@@ -6956,6 +7115,9 @@
       <c r="F150" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
       <c r="L150">
         <v>2</v>
       </c>
@@ -6991,6 +7153,9 @@
       <c r="F151" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
       <c r="L151">
         <v>3</v>
       </c>
@@ -7023,6 +7188,9 @@
       <c r="F152" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
       <c r="L152">
         <v>3</v>
       </c>
@@ -7055,6 +7223,9 @@
       <c r="F153" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
       <c r="L153">
         <v>5</v>
       </c>
@@ -7122,6 +7293,9 @@
       <c r="H155">
         <v>90</v>
       </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
       <c r="L155">
         <v>1</v>
       </c>
@@ -7186,6 +7360,9 @@
       <c r="H157">
         <v>270</v>
       </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
       <c r="L157">
         <v>1</v>
       </c>
@@ -7335,6 +7512,9 @@
       <c r="J166" t="s">
         <v>10</v>
       </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
       <c r="L166">
         <v>8</v>
       </c>
@@ -7493,6 +7673,9 @@
       <c r="J170" t="s">
         <v>10</v>
       </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
       <c r="L170">
         <v>2</v>
       </c>
@@ -7534,6 +7717,9 @@
       <c r="J171" t="s">
         <v>10</v>
       </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
       <c r="L171">
         <v>1</v>
       </c>
@@ -7654,6 +7840,9 @@
       <c r="J174" t="s">
         <v>10</v>
       </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
       <c r="L174">
         <v>2</v>
       </c>
@@ -7698,6 +7887,9 @@
       <c r="J175" t="s">
         <v>10</v>
       </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
       <c r="L175">
         <v>14</v>
       </c>
@@ -7742,6 +7934,9 @@
       <c r="J176" t="s">
         <v>10</v>
       </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
       <c r="L176">
         <v>2</v>
       </c>
@@ -7783,6 +7978,9 @@
       <c r="J177" t="s">
         <v>10</v>
       </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
       <c r="L177">
         <v>2</v>
       </c>
@@ -7827,6 +8025,9 @@
       <c r="J178" t="s">
         <v>10</v>
       </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
       <c r="L178">
         <v>3</v>
       </c>
@@ -7871,6 +8072,9 @@
       <c r="J179" t="s">
         <v>10</v>
       </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
       <c r="L179">
         <v>2</v>
       </c>
@@ -7916,7 +8120,7 @@
         <v>10</v>
       </c>
       <c r="K180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L180">
         <v>20</v>
@@ -7962,6 +8166,9 @@
       <c r="J181" t="s">
         <v>10</v>
       </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
       <c r="L181">
         <v>22</v>
       </c>
@@ -8041,6 +8248,9 @@
       <c r="J183" t="s">
         <v>10</v>
       </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
       <c r="L183">
         <v>17</v>
       </c>
@@ -8085,6 +8295,9 @@
       <c r="J184" t="s">
         <v>10</v>
       </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
       <c r="L184">
         <v>12</v>
       </c>
@@ -8222,6 +8435,9 @@
       <c r="J188" t="s">
         <v>10</v>
       </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
       <c r="L188">
         <v>17</v>
       </c>
@@ -8307,6 +8523,9 @@
       <c r="J190" t="s">
         <v>10</v>
       </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
       <c r="L190">
         <v>4</v>
       </c>
@@ -8392,6 +8611,9 @@
       <c r="J192" t="s">
         <v>10</v>
       </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
       <c r="L192">
         <v>12</v>
       </c>
@@ -8433,6 +8655,9 @@
       <c r="H193">
         <v>270</v>
       </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
       <c r="M193" t="s">
         <v>398</v>
       </c>
@@ -8474,6 +8699,9 @@
       <c r="J194" t="s">
         <v>16</v>
       </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
       <c r="L194">
         <v>40</v>
       </c>
@@ -8518,6 +8746,9 @@
       <c r="J195" t="s">
         <v>16</v>
       </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
       <c r="L195">
         <v>20</v>
       </c>
@@ -8597,6 +8828,9 @@
       <c r="J197" t="s">
         <v>16</v>
       </c>
+      <c r="K197">
+        <v>1</v>
+      </c>
       <c r="L197">
         <v>15</v>
       </c>
@@ -8641,6 +8875,9 @@
       <c r="J198" t="s">
         <v>15</v>
       </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
       <c r="L198">
         <v>15</v>
       </c>
@@ -8790,6 +9027,9 @@
       <c r="J202" t="s">
         <v>10</v>
       </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
       <c r="L202">
         <v>20</v>
       </c>
@@ -8875,6 +9115,9 @@
       <c r="J204" t="s">
         <v>10</v>
       </c>
+      <c r="K204">
+        <v>1</v>
+      </c>
       <c r="L204">
         <v>3</v>
       </c>
@@ -8913,6 +9156,9 @@
       <c r="J205" t="s">
         <v>10</v>
       </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
       <c r="L205">
         <v>4</v>
       </c>
@@ -8957,6 +9203,9 @@
       <c r="J206" t="s">
         <v>16</v>
       </c>
+      <c r="K206">
+        <v>1</v>
+      </c>
       <c r="L206">
         <v>35</v>
       </c>
@@ -8995,6 +9244,9 @@
       <c r="J207" t="s">
         <v>10</v>
       </c>
+      <c r="K207">
+        <v>1</v>
+      </c>
       <c r="L207">
         <v>1</v>
       </c>
@@ -9106,6 +9358,9 @@
       <c r="F210" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="K210">
+        <v>1</v>
+      </c>
       <c r="L210">
         <v>4</v>
       </c>
@@ -9188,6 +9443,9 @@
       <c r="J212" t="s">
         <v>10</v>
       </c>
+      <c r="K212">
+        <v>1</v>
+      </c>
       <c r="L212">
         <v>3</v>
       </c>
@@ -9223,6 +9481,9 @@
       <c r="F213" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
       <c r="L213">
         <v>15</v>
       </c>
@@ -9305,6 +9566,9 @@
       <c r="J215" t="s">
         <v>15</v>
       </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
       <c r="L215">
         <v>1</v>
       </c>
@@ -9372,6 +9636,9 @@
       <c r="F217" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
       <c r="L217">
         <v>6</v>
       </c>
@@ -9644,6 +9911,9 @@
       <c r="J237" t="s">
         <v>15</v>
       </c>
+      <c r="K237">
+        <v>1</v>
+      </c>
       <c r="L237">
         <v>1</v>
       </c>
@@ -9679,6 +9949,9 @@
       <c r="J238" t="s">
         <v>10</v>
       </c>
+      <c r="K238">
+        <v>1</v>
+      </c>
       <c r="L238">
         <v>1</v>
       </c>
@@ -9717,6 +9990,9 @@
       <c r="J239" t="s">
         <v>10</v>
       </c>
+      <c r="K239">
+        <v>1</v>
+      </c>
       <c r="L239">
         <v>1</v>
       </c>
@@ -9796,6 +10072,9 @@
       <c r="J241" t="s">
         <v>15</v>
       </c>
+      <c r="K241">
+        <v>1</v>
+      </c>
       <c r="L241">
         <v>20</v>
       </c>
@@ -10232,6 +10511,9 @@
       <c r="J252" t="s">
         <v>10</v>
       </c>
+      <c r="K252">
+        <v>1</v>
+      </c>
       <c r="L252">
         <v>2</v>
       </c>
@@ -10469,6 +10751,9 @@
       <c r="J258" t="s">
         <v>10</v>
       </c>
+      <c r="K258">
+        <v>1</v>
+      </c>
       <c r="L258">
         <v>2</v>
       </c>
@@ -10507,6 +10792,9 @@
       <c r="J259" t="s">
         <v>10</v>
       </c>
+      <c r="K259">
+        <v>1</v>
+      </c>
       <c r="L259">
         <v>2</v>
       </c>
@@ -10752,6 +11040,9 @@
       </c>
       <c r="J265" t="s">
         <v>10</v>
+      </c>
+      <c r="K265">
+        <v>1</v>
       </c>
       <c r="L265">
         <v>1</v>
@@ -10821,7 +11112,9 @@
       <c r="E279" s="2">
         <v>43217.268750000003</v>
       </c>
-      <c r="F279" s="2"/>
+      <c r="F279" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="N279" s="2"/>
       <c r="O279" s="2"/>
     </row>
@@ -10841,27 +11134,47 @@
       <c r="E280" s="2">
         <v>43217.288194444445</v>
       </c>
-      <c r="F280" s="2"/>
-      <c r="N280" s="2"/>
-      <c r="O280" s="2"/>
+      <c r="F280" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N280" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="O280" s="2" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>125</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="C281" s="3">
-        <v>6983032356674</v>
+        <v>6983090356519</v>
       </c>
       <c r="D281" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E281" s="2">
-        <v>43217.292361111111</v>
-      </c>
-      <c r="F281" s="2"/>
+        <v>43217.288194444445</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G281">
+        <v>210</v>
+      </c>
+      <c r="H281">
+        <v>125</v>
+      </c>
+      <c r="I281" t="s">
+        <v>156</v>
+      </c>
+      <c r="L281">
+        <v>1</v>
+      </c>
       <c r="N281" s="2"/>
       <c r="O281" s="2"/>
     </row>
@@ -10870,18 +11183,32 @@
         <v>125</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="C282" s="3">
-        <v>6982991356782</v>
+        <v>6983032356674</v>
       </c>
       <c r="D282" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E282" s="2">
-        <v>43217.294444444444</v>
-      </c>
-      <c r="F282" s="2"/>
+        <v>43217.292361111111</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G282">
+        <v>15</v>
+      </c>
+      <c r="H282">
+        <v>90</v>
+      </c>
+      <c r="J282" t="s">
+        <v>16</v>
+      </c>
+      <c r="L282">
+        <v>1</v>
+      </c>
       <c r="N282" s="2"/>
       <c r="O282" s="2"/>
     </row>
@@ -10890,18 +11217,32 @@
         <v>125</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C283" s="3">
-        <v>6982916356948</v>
+        <v>6983032356674</v>
       </c>
       <c r="D283" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="E283" s="2">
-        <v>43217.296527777777</v>
-      </c>
-      <c r="F283" s="2"/>
+        <v>43217.292361111111</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G283">
+        <v>198</v>
+      </c>
+      <c r="H283">
+        <v>15</v>
+      </c>
+      <c r="I283" t="s">
+        <v>156</v>
+      </c>
+      <c r="L283">
+        <v>1</v>
+      </c>
       <c r="N283" s="2"/>
       <c r="O283" s="2"/>
     </row>
@@ -10910,18 +11251,20 @@
         <v>125</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="C284" s="3">
-        <v>6982928357079</v>
+        <v>6982991356782</v>
       </c>
       <c r="D284" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E284" s="2">
-        <v>43217.298611111109</v>
-      </c>
-      <c r="F284" s="2"/>
+        <v>43217.294444444444</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="N284" s="2"/>
       <c r="O284" s="2"/>
     </row>
@@ -10933,15 +11276,17 @@
         <v>51</v>
       </c>
       <c r="C285" s="3">
-        <v>6982958357172</v>
+        <v>6982916356948</v>
       </c>
       <c r="D285" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="E285" s="2">
-        <v>43217.3</v>
-      </c>
-      <c r="F285" s="2"/>
+        <v>43217.296527777777</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="N285" s="2"/>
       <c r="O285" s="2"/>
     </row>
@@ -10950,18 +11295,32 @@
         <v>125</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C286" s="3">
-        <v>6982732357448</v>
+        <v>6982928357079</v>
       </c>
       <c r="D286" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E286" s="2">
-        <v>43217.305555555555</v>
-      </c>
-      <c r="F286" s="2"/>
+        <v>43217.298611111109</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G286">
+        <v>27</v>
+      </c>
+      <c r="H286">
+        <v>280</v>
+      </c>
+      <c r="I286" t="s">
+        <v>154</v>
+      </c>
+      <c r="L286">
+        <v>1</v>
+      </c>
       <c r="N286" s="2"/>
       <c r="O286" s="2"/>
     </row>
@@ -10970,18 +11329,20 @@
         <v>125</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="C287" s="3">
-        <v>6982630357699</v>
+        <v>6982958357172</v>
       </c>
       <c r="D287" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="E287" s="2">
-        <v>43217.30972222222</v>
-      </c>
-      <c r="F287" s="2"/>
+        <v>43217.3</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="N287" s="2"/>
       <c r="O287" s="2"/>
     </row>
@@ -10990,18 +11351,20 @@
         <v>125</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C288" s="3">
-        <v>6982183358919</v>
+        <v>6982732357448</v>
       </c>
       <c r="D288" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E288" s="2">
-        <v>43217.379861111112</v>
-      </c>
-      <c r="F288" s="2"/>
+        <v>43217.305555555555</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="N288" s="2"/>
       <c r="O288" s="2"/>
     </row>
@@ -11010,38 +11373,59 @@
         <v>125</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="C289" s="3">
-        <v>6982114359058</v>
+        <v>6982630357699</v>
       </c>
       <c r="D289" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="E289" s="2">
-        <v>43217.384027777778</v>
-      </c>
-      <c r="F289" s="2"/>
-      <c r="N289" s="2"/>
+        <v>43217.30972222222</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N289" s="2" t="s">
+        <v>424</v>
+      </c>
       <c r="O289" s="2"/>
     </row>
     <row r="290" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>125</v>
+        <v>425</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C290" s="3">
-        <v>6982006359291</v>
+        <v>6982348358299</v>
       </c>
       <c r="D290" t="s">
-        <v>240</v>
+        <v>316</v>
       </c>
       <c r="E290" s="2">
-        <v>43217.388888888891</v>
-      </c>
-      <c r="F290" s="2"/>
+        <v>43217.333333333336</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G290">
+        <v>117</v>
+      </c>
+      <c r="H290">
+        <v>26</v>
+      </c>
+      <c r="I290" t="s">
+        <v>153</v>
+      </c>
+      <c r="J290" t="s">
+        <v>10</v>
+      </c>
+      <c r="L290">
+        <v>1</v>
+      </c>
       <c r="N290" s="2"/>
       <c r="O290" s="2"/>
     </row>
@@ -11050,18 +11434,35 @@
         <v>125</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C291" s="3">
-        <v>6981940359461</v>
+        <v>6982183358919</v>
       </c>
       <c r="D291" t="s">
-        <v>239</v>
+        <v>306</v>
       </c>
       <c r="E291" s="2">
-        <v>43217.392361111109</v>
-      </c>
-      <c r="F291" s="2"/>
+        <v>43217.379861111112</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G291">
+        <v>119</v>
+      </c>
+      <c r="H291">
+        <v>330</v>
+      </c>
+      <c r="I291" t="s">
+        <v>153</v>
+      </c>
+      <c r="J291" t="s">
+        <v>15</v>
+      </c>
+      <c r="L291">
+        <v>1</v>
+      </c>
       <c r="N291" s="2"/>
       <c r="O291" s="2"/>
     </row>
@@ -11070,19 +11471,35 @@
         <v>125</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="C292" s="3">
-        <v>6981870359749</v>
+        <v>6982183358919</v>
       </c>
       <c r="D292" t="s">
-        <v>255</v>
+        <v>306</v>
       </c>
       <c r="E292" s="2">
-        <v>43217.4</v>
-      </c>
-      <c r="F292" s="2"/>
-      <c r="N292" s="2"/>
+        <v>43217.379861111112</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G292">
+        <v>222</v>
+      </c>
+      <c r="H292">
+        <v>112</v>
+      </c>
+      <c r="I292" t="s">
+        <v>156</v>
+      </c>
+      <c r="L292">
+        <v>1</v>
+      </c>
+      <c r="N292" s="2" t="s">
+        <v>426</v>
+      </c>
       <c r="O292" s="2"/>
     </row>
     <row r="293" spans="1:16" x14ac:dyDescent="0.2">
@@ -11090,18 +11507,35 @@
         <v>125</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C293" s="3">
-        <v>6981921360308</v>
+        <v>6982114359058</v>
       </c>
       <c r="D293" t="s">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="E293" s="2">
-        <v>43217.407638888886</v>
-      </c>
-      <c r="F293" s="2"/>
+        <v>43217.384027777778</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G293">
+        <v>63</v>
+      </c>
+      <c r="H293">
+        <v>302</v>
+      </c>
+      <c r="I293" t="s">
+        <v>153</v>
+      </c>
+      <c r="J293" t="s">
+        <v>10</v>
+      </c>
+      <c r="L293">
+        <v>2</v>
+      </c>
       <c r="N293" s="2"/>
       <c r="O293" s="2"/>
     </row>
@@ -11110,18 +11544,35 @@
         <v>125</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C294" s="3">
-        <v>6983945359739</v>
+        <v>6982006359291</v>
       </c>
       <c r="D294" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="E294" s="2">
-        <v>43217.45208333333</v>
-      </c>
-      <c r="F294" s="2"/>
+        <v>43217.388888888891</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G294">
+        <v>257</v>
+      </c>
+      <c r="H294">
+        <v>326</v>
+      </c>
+      <c r="I294" t="s">
+        <v>153</v>
+      </c>
+      <c r="J294" t="s">
+        <v>16</v>
+      </c>
+      <c r="L294">
+        <v>3</v>
+      </c>
       <c r="N294" s="2"/>
       <c r="O294" s="2"/>
     </row>
@@ -11130,18 +11581,35 @@
         <v>125</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C295" s="3">
-        <v>6984478359678</v>
+        <v>6981940359461</v>
       </c>
       <c r="D295" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="E295" s="2">
-        <v>43217.461805555555</v>
-      </c>
-      <c r="F295" s="2"/>
+        <v>43217.392361111109</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G295">
+        <v>132</v>
+      </c>
+      <c r="H295">
+        <v>86</v>
+      </c>
+      <c r="I295" t="s">
+        <v>153</v>
+      </c>
+      <c r="J295" t="s">
+        <v>10</v>
+      </c>
+      <c r="L295">
+        <v>1</v>
+      </c>
       <c r="N295" s="2"/>
       <c r="O295" s="2"/>
     </row>
@@ -11150,18 +11618,20 @@
         <v>125</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="C296" s="3">
-        <v>6984553359647</v>
+        <v>6981870359749</v>
       </c>
       <c r="D296" t="s">
-        <v>199</v>
+        <v>255</v>
       </c>
       <c r="E296" s="2">
-        <v>43217.465277777781</v>
-      </c>
-      <c r="F296" s="2"/>
+        <v>43217.4</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="N296" s="2"/>
       <c r="O296" s="2"/>
     </row>
@@ -11170,18 +11640,20 @@
         <v>125</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="C297" s="3">
-        <v>6985096359518</v>
+        <v>6981921360308</v>
       </c>
       <c r="D297" t="s">
-        <v>308</v>
+        <v>214</v>
       </c>
       <c r="E297" s="2">
-        <v>43217.475694444445</v>
-      </c>
-      <c r="F297" s="2"/>
+        <v>43217.407638888886</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="N297" s="2"/>
     </row>
     <row r="298" spans="1:16" x14ac:dyDescent="0.2">
@@ -11189,18 +11661,32 @@
         <v>125</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C298" s="3">
-        <v>6985863359293</v>
+        <v>6981921360308</v>
       </c>
       <c r="D298" t="s">
-        <v>309</v>
+        <v>214</v>
       </c>
       <c r="E298" s="2">
-        <v>43217.490972222222</v>
-      </c>
-      <c r="F298" s="2"/>
+        <v>43217.407638888886</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G298">
+        <v>234</v>
+      </c>
+      <c r="H298">
+        <v>76</v>
+      </c>
+      <c r="I298" t="s">
+        <v>156</v>
+      </c>
+      <c r="L298">
+        <v>1</v>
+      </c>
       <c r="N298" s="2"/>
     </row>
     <row r="299" spans="1:16" x14ac:dyDescent="0.2">
@@ -11208,37 +11694,73 @@
         <v>125</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C299" s="3">
-        <v>6985409358759</v>
+        <v>6983945359739</v>
       </c>
       <c r="D299" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="E299" s="2">
-        <v>43217.513194444444</v>
-      </c>
-      <c r="F299" s="2"/>
-      <c r="N299" s="2"/>
+        <v>43217.45208333333</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G299">
+        <v>16</v>
+      </c>
+      <c r="H299">
+        <v>274</v>
+      </c>
+      <c r="I299" t="s">
+        <v>153</v>
+      </c>
+      <c r="J299" t="s">
+        <v>10</v>
+      </c>
+      <c r="L299">
+        <v>1</v>
+      </c>
+      <c r="N299" s="2" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="300" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>125</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="C300" s="3">
-        <v>6985041358323</v>
+        <v>6984478359678</v>
       </c>
       <c r="D300" t="s">
-        <v>278</v>
+        <v>199</v>
       </c>
       <c r="E300" s="2">
-        <v>43217.520138888889</v>
-      </c>
-      <c r="F300" s="2"/>
+        <v>43217.461805555555</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G300">
+        <v>78</v>
+      </c>
+      <c r="H300">
+        <v>16</v>
+      </c>
+      <c r="I300" t="s">
+        <v>153</v>
+      </c>
+      <c r="J300" t="s">
+        <v>10</v>
+      </c>
+      <c r="L300">
+        <v>1</v>
+      </c>
       <c r="N300" s="2"/>
     </row>
     <row r="301" spans="1:16" x14ac:dyDescent="0.2">
@@ -11246,259 +11768,341 @@
         <v>125</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="C301" s="3">
-        <v>6983184356513</v>
+        <v>6984553359647</v>
       </c>
       <c r="D301" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="E301" s="2">
-        <v>43217.554166666669</v>
-      </c>
-      <c r="F301" s="2"/>
+        <v>43217.465277777781</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G301">
+        <v>71</v>
+      </c>
+      <c r="H301">
+        <v>20</v>
+      </c>
+      <c r="I301" t="s">
+        <v>153</v>
+      </c>
+      <c r="J301" t="s">
+        <v>10</v>
+      </c>
+      <c r="L301">
+        <v>3</v>
+      </c>
       <c r="P301" s="2"/>
     </row>
     <row r="302" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C302" s="3">
-        <v>7005963362616</v>
+        <v>6985096359518</v>
       </c>
       <c r="D302" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="E302" s="2">
-        <v>43220.375</v>
-      </c>
-      <c r="F302" s="2"/>
+        <v>43217.475694444445</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G302">
+        <v>303</v>
+      </c>
+      <c r="H302">
+        <v>96</v>
+      </c>
+      <c r="I302" t="s">
+        <v>154</v>
+      </c>
+      <c r="J302" t="s">
+        <v>10</v>
+      </c>
+      <c r="L302">
+        <v>1</v>
+      </c>
+      <c r="M302" t="s">
+        <v>428</v>
+      </c>
       <c r="P302" s="2"/>
     </row>
     <row r="303" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="C303" s="3">
-        <v>7005930362243</v>
+        <v>6985096359518</v>
       </c>
       <c r="D303" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E303" s="2">
-        <v>43220.384027777778</v>
-      </c>
-      <c r="F303" s="2"/>
+        <v>43217.475694444445</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G303">
+        <v>282</v>
+      </c>
+      <c r="H303">
+        <v>118</v>
+      </c>
+      <c r="I303" t="s">
+        <v>154</v>
+      </c>
+      <c r="J303" t="s">
+        <v>10</v>
+      </c>
+      <c r="L303">
+        <v>1</v>
+      </c>
       <c r="P303" s="2"/>
     </row>
     <row r="304" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="C304" s="3">
-        <v>7005887361616</v>
+        <v>6985863359293</v>
       </c>
       <c r="D304" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E304" s="2">
-        <v>43220.38958333333</v>
-      </c>
-      <c r="F304" s="2"/>
+        <v>43217.490972222222</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M304" t="s">
+        <v>429</v>
+      </c>
+      <c r="N304" t="s">
+        <v>430</v>
+      </c>
       <c r="O304" s="2"/>
       <c r="P304" s="2"/>
     </row>
     <row r="305" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="C305" s="3">
-        <v>7005948361408</v>
+        <v>6985409358759</v>
       </c>
       <c r="D305" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="E305" s="2">
-        <v>43220.393055555556</v>
-      </c>
-      <c r="F305" s="2"/>
+        <v>43217.513194444444</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G305">
+        <v>84</v>
+      </c>
+      <c r="H305">
+        <v>32</v>
+      </c>
+      <c r="I305" t="s">
+        <v>153</v>
+      </c>
+      <c r="J305" t="s">
+        <v>15</v>
+      </c>
+      <c r="L305">
+        <v>2</v>
+      </c>
+      <c r="M305" t="s">
+        <v>431</v>
+      </c>
       <c r="O305" s="2"/>
       <c r="P305" s="2"/>
     </row>
     <row r="306" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C306" s="3">
-        <v>7006091360439</v>
+        <v>6985041358323</v>
       </c>
       <c r="D306" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="E306" s="2">
-        <v>43220.415277777778</v>
-      </c>
-      <c r="F306" s="2"/>
+        <v>43217.520138888889</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G306">
+        <v>0.98</v>
+      </c>
+      <c r="H306">
+        <v>270</v>
+      </c>
+      <c r="J306" t="s">
+        <v>15</v>
+      </c>
+      <c r="K306">
+        <v>1</v>
+      </c>
+      <c r="L306">
+        <v>15</v>
+      </c>
       <c r="O306" s="2"/>
       <c r="P306" s="2"/>
     </row>
     <row r="307" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="C307" s="3">
-        <v>7006105360299</v>
+        <v>6985041358323</v>
       </c>
       <c r="D307" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="E307" s="2">
-        <v>43220.418055555558</v>
-      </c>
-      <c r="F307" s="2"/>
+        <v>43217.520138888889</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G307">
+        <v>95</v>
+      </c>
+      <c r="H307">
+        <v>108</v>
+      </c>
+      <c r="I307" t="s">
+        <v>156</v>
+      </c>
+      <c r="L307">
+        <v>1</v>
+      </c>
       <c r="O307" s="2"/>
       <c r="P307" s="2"/>
     </row>
     <row r="308" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>72</v>
+        <v>433</v>
       </c>
       <c r="C308" s="3">
-        <v>7006130360148</v>
+        <v>6984145357456</v>
       </c>
       <c r="D308" t="s">
-        <v>253</v>
+        <v>434</v>
       </c>
       <c r="E308" s="2">
-        <v>43220.422222222223</v>
-      </c>
-      <c r="F308" s="2"/>
-      <c r="M308" s="3"/>
+        <v>43217.541666666664</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G308">
+        <v>17</v>
+      </c>
+      <c r="H308">
+        <v>20</v>
+      </c>
+      <c r="I308" t="s">
+        <v>154</v>
+      </c>
+      <c r="J308" t="s">
+        <v>10</v>
+      </c>
+      <c r="L308">
+        <v>2</v>
+      </c>
+      <c r="M308" s="3" t="s">
+        <v>435</v>
+      </c>
       <c r="O308" s="2"/>
       <c r="P308" s="2"/>
     </row>
     <row r="309" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="C309" s="3">
-        <v>7006133360128</v>
+        <v>6983184356513</v>
       </c>
       <c r="D309" t="s">
-        <v>253</v>
+        <v>310</v>
       </c>
       <c r="E309" s="2">
-        <v>43220.424305555556</v>
-      </c>
-      <c r="F309" s="2"/>
-      <c r="M309" s="3"/>
+        <v>43217.554166666669</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309">
+        <v>1</v>
+      </c>
+      <c r="L309">
+        <v>4</v>
+      </c>
+      <c r="M309" s="3" t="s">
+        <v>432</v>
+      </c>
       <c r="O309" s="2"/>
       <c r="P309" s="2"/>
     </row>
     <row r="310" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A310" t="s">
-        <v>145</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C310" s="3">
-        <v>7006146360075</v>
-      </c>
-      <c r="D310" t="s">
-        <v>225</v>
-      </c>
-      <c r="E310" s="2">
-        <v>43220.425694444442</v>
-      </c>
       <c r="F310" s="2"/>
       <c r="M310" s="3"/>
       <c r="O310" s="2"/>
       <c r="P310" s="2"/>
     </row>
     <row r="311" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A311" t="s">
-        <v>145</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C311" s="3">
-        <v>7006171360032</v>
-      </c>
-      <c r="D311" t="s">
-        <v>294</v>
-      </c>
-      <c r="E311" s="2">
-        <v>43220.427777777775</v>
-      </c>
       <c r="F311" s="2"/>
       <c r="M311" s="3"/>
       <c r="O311" s="2"/>
       <c r="P311" s="2"/>
     </row>
     <row r="312" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A312" t="s">
-        <v>145</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C312" s="3">
-        <v>7006203359711</v>
-      </c>
-      <c r="D312" t="s">
-        <v>233</v>
-      </c>
-      <c r="E312" s="2">
-        <v>43220.432638888888</v>
-      </c>
       <c r="F312" s="2"/>
       <c r="M312" s="3"/>
       <c r="O312" s="2"/>
       <c r="P312" s="2"/>
     </row>
     <row r="313" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A313" t="s">
-        <v>145</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C313" s="3">
-        <v>7006211359605</v>
-      </c>
-      <c r="D313" t="s">
-        <v>217</v>
-      </c>
-      <c r="E313" s="2">
-        <v>43220.43472222222</v>
-      </c>
       <c r="F313" s="2"/>
       <c r="M313" s="3"/>
       <c r="O313" s="2"/>
@@ -11509,18 +12113,20 @@
         <v>145</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C314" s="3">
-        <v>7006143359330</v>
+        <v>7005963362616</v>
       </c>
       <c r="D314" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="E314" s="2">
-        <v>43220.4375</v>
-      </c>
-      <c r="F314" s="2"/>
+        <v>43220.375</v>
+      </c>
+      <c r="F314" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="M314" s="3"/>
       <c r="O314" s="2"/>
       <c r="P314" s="2"/>
@@ -11530,16 +12136,16 @@
         <v>145</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C315" s="3">
-        <v>7006114359146</v>
+        <v>7005930362243</v>
       </c>
       <c r="D315" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E315" s="2">
-        <v>43220.441666666666</v>
+        <v>43220.384027777778</v>
       </c>
       <c r="F315" s="2"/>
       <c r="M315" s="3"/>
@@ -11551,16 +12157,16 @@
         <v>145</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="C316" s="3">
-        <v>7006105359105</v>
+        <v>7005887361616</v>
       </c>
       <c r="D316" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E316" s="2">
-        <v>43220.443055555559</v>
+        <v>43220.38958333333</v>
       </c>
       <c r="F316" s="2"/>
       <c r="M316" s="3"/>
@@ -11572,16 +12178,16 @@
         <v>145</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C317" s="3">
-        <v>7006097359055</v>
+        <v>7005948361408</v>
       </c>
       <c r="D317" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="E317" s="2">
-        <v>43220.445138888892</v>
+        <v>43220.393055555556</v>
       </c>
       <c r="F317" s="2"/>
       <c r="M317" s="3"/>
@@ -11593,16 +12199,16 @@
         <v>145</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="C318" s="3">
-        <v>7006092358975</v>
+        <v>7006091360439</v>
       </c>
       <c r="D318" t="s">
-        <v>307</v>
+        <v>219</v>
       </c>
       <c r="E318" s="2">
-        <v>43220.448611111111</v>
+        <v>43220.415277777778</v>
       </c>
       <c r="F318" s="2"/>
       <c r="M318" s="3"/>
@@ -11614,16 +12220,16 @@
         <v>145</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="C319" s="3">
-        <v>7006069358719</v>
+        <v>7006105360299</v>
       </c>
       <c r="D319" t="s">
-        <v>315</v>
+        <v>247</v>
       </c>
       <c r="E319" s="2">
-        <v>43220.45208333333</v>
+        <v>43220.418055555558</v>
       </c>
       <c r="F319" s="2"/>
       <c r="M319" s="3"/>
@@ -11635,16 +12241,16 @@
         <v>145</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="C320" s="3">
-        <v>7006070358639</v>
+        <v>7006130360148</v>
       </c>
       <c r="D320" t="s">
-        <v>310</v>
+        <v>253</v>
       </c>
       <c r="E320" s="2">
-        <v>43220.45416666667</v>
+        <v>43220.422222222223</v>
       </c>
       <c r="F320" s="2"/>
       <c r="M320" s="3"/>
@@ -11656,16 +12262,16 @@
         <v>145</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C321" s="3">
-        <v>7006048358564</v>
+        <v>7006133360128</v>
       </c>
       <c r="D321" t="s">
-        <v>306</v>
+        <v>253</v>
       </c>
       <c r="E321" s="2">
-        <v>43220.455555555556</v>
+        <v>43220.424305555556</v>
       </c>
       <c r="F321" s="2"/>
       <c r="M321" s="3"/>
@@ -11677,16 +12283,16 @@
         <v>145</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="C322" s="3">
-        <v>7005966358599</v>
+        <v>7006146360075</v>
       </c>
       <c r="D322" t="s">
-        <v>316</v>
+        <v>225</v>
       </c>
       <c r="E322" s="2">
-        <v>43220.482638888891</v>
+        <v>43220.425694444442</v>
       </c>
       <c r="F322" s="2"/>
       <c r="M322" s="3"/>
@@ -11698,16 +12304,16 @@
         <v>145</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C323" s="3">
-        <v>7005754358715</v>
+        <v>7006171360032</v>
       </c>
       <c r="D323" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="E323" s="2">
-        <v>43220.486805555556</v>
+        <v>43220.427777777775</v>
       </c>
       <c r="F323" s="2"/>
       <c r="M323" s="3"/>
@@ -11719,16 +12325,16 @@
         <v>145</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="C324" s="3">
-        <v>7005614358794</v>
+        <v>7006203359711</v>
       </c>
       <c r="D324" t="s">
-        <v>302</v>
+        <v>233</v>
       </c>
       <c r="E324" s="2">
-        <v>43220.488888888889</v>
+        <v>43220.432638888888</v>
       </c>
       <c r="F324" s="2"/>
       <c r="M324" s="3"/>
@@ -11740,16 +12346,16 @@
         <v>145</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="C325" s="3">
-        <v>7005555358825</v>
+        <v>7006211359605</v>
       </c>
       <c r="D325" t="s">
-        <v>318</v>
+        <v>217</v>
       </c>
       <c r="E325" s="2">
-        <v>43220.490277777775</v>
+        <v>43220.43472222222</v>
       </c>
       <c r="F325" s="2"/>
       <c r="M325" s="3"/>
@@ -11761,16 +12367,16 @@
         <v>145</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C326" s="3">
-        <v>7005172359049</v>
+        <v>7006143359330</v>
       </c>
       <c r="D326" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E326" s="2">
-        <v>43220.493055555555</v>
+        <v>43220.4375</v>
       </c>
       <c r="F326" s="2"/>
       <c r="M326" s="3"/>
@@ -11782,16 +12388,16 @@
         <v>145</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C327" s="3">
-        <v>7004845359228</v>
+        <v>7006114359146</v>
       </c>
       <c r="D327" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E327" s="2">
-        <v>43220.49722222222</v>
+        <v>43220.441666666666</v>
       </c>
       <c r="F327" s="2"/>
       <c r="M327" s="3"/>
@@ -11803,17 +12409,18 @@
         <v>145</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C328" s="3">
-        <v>7004594359342</v>
+        <v>7006105359105</v>
       </c>
       <c r="D328" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="E328" s="2">
-        <v>43220.503472222219</v>
-      </c>
+        <v>43220.443055555559</v>
+      </c>
+      <c r="F328" s="2"/>
       <c r="M328" s="3"/>
       <c r="O328" s="2"/>
       <c r="P328" s="2"/>
@@ -11823,16 +12430,16 @@
         <v>145</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="C329" s="3">
-        <v>7004462359409</v>
+        <v>7006097359055</v>
       </c>
       <c r="D329" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="E329" s="2">
-        <v>43220.506249999999</v>
+        <v>43220.445138888892</v>
       </c>
       <c r="M329" s="3"/>
       <c r="O329" s="2"/>
@@ -11843,16 +12450,16 @@
         <v>145</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="C330" s="3">
-        <v>7004326359594</v>
+        <v>7006092358975</v>
       </c>
       <c r="D330" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="E330" s="2">
-        <v>43220.508333333331</v>
+        <v>43220.448611111111</v>
       </c>
       <c r="M330" s="3"/>
       <c r="O330" s="2"/>
@@ -11863,16 +12470,16 @@
         <v>145</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="C331" s="3">
-        <v>7004265359557</v>
+        <v>7006069358719</v>
       </c>
       <c r="D331" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E331" s="2">
-        <v>43220.509722222225</v>
+        <v>43220.45208333333</v>
       </c>
       <c r="M331" s="3"/>
       <c r="O331" s="2"/>
@@ -11882,16 +12489,16 @@
         <v>145</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="C332" s="3">
-        <v>7004067359659</v>
+        <v>7006070358639</v>
       </c>
       <c r="D332" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="E332" s="2">
-        <v>43220.513194444444</v>
+        <v>43220.45416666667</v>
       </c>
       <c r="M332" s="3"/>
       <c r="O332" s="2"/>
@@ -11901,16 +12508,16 @@
         <v>145</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="C333" s="3">
-        <v>7004008359687</v>
+        <v>7006048358564</v>
       </c>
       <c r="D333" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="E333" s="2">
-        <v>43220.515277777777</v>
+        <v>43220.455555555556</v>
       </c>
       <c r="M333" s="3"/>
       <c r="O333" s="2"/>
@@ -11920,16 +12527,16 @@
         <v>145</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C334" s="3">
-        <v>7003441360041</v>
+        <v>7005966358599</v>
       </c>
       <c r="D334" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E334" s="2">
-        <v>43220.525694444441</v>
+        <v>43220.482638888891</v>
       </c>
       <c r="M334" s="3"/>
     </row>
@@ -11938,16 +12545,16 @@
         <v>145</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="C335" s="3">
-        <v>7003437360048</v>
+        <v>7005754358715</v>
       </c>
       <c r="D335" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="E335" s="2">
-        <v>43220.52847222222</v>
+        <v>43220.486805555556</v>
       </c>
       <c r="M335" s="3"/>
     </row>
@@ -11956,16 +12563,16 @@
         <v>145</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C336" s="3">
-        <v>7003383360066</v>
+        <v>7005614358794</v>
       </c>
       <c r="D336" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="E336" s="2">
-        <v>43220.53125</v>
+        <v>43220.488888888889</v>
       </c>
       <c r="M336" s="3"/>
     </row>
@@ -11974,16 +12581,16 @@
         <v>145</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C337" s="3">
-        <v>7003064360213</v>
+        <v>7005555358825</v>
       </c>
       <c r="D337" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E337" s="2">
-        <v>43220.536111111112</v>
+        <v>43220.490277777775</v>
       </c>
       <c r="M337" s="3"/>
     </row>
@@ -11992,16 +12599,16 @@
         <v>145</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C338" s="3">
-        <v>7002924360280</v>
+        <v>7005172359049</v>
       </c>
       <c r="D338" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E338" s="2">
-        <v>43220.539583333331</v>
+        <v>43220.493055555555</v>
       </c>
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.2">
@@ -12009,16 +12616,16 @@
         <v>145</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="C339" s="3">
-        <v>7002846360330</v>
+        <v>7004845359228</v>
       </c>
       <c r="D339" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="E339" s="2">
-        <v>43220.542361111111</v>
+        <v>43220.49722222222</v>
       </c>
     </row>
     <row r="340" spans="1:15" x14ac:dyDescent="0.2">
@@ -12026,16 +12633,16 @@
         <v>145</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="C340" s="3">
-        <v>7002828360337</v>
+        <v>7004594359342</v>
       </c>
       <c r="D340" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E340" s="2">
-        <v>43220.544444444444</v>
+        <v>43220.503472222219</v>
       </c>
       <c r="O340" s="2"/>
     </row>
@@ -12044,16 +12651,16 @@
         <v>145</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="C341" s="3">
-        <v>7002573360565</v>
+        <v>7004462359409</v>
       </c>
       <c r="D341" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E341" s="2">
-        <v>43220.55</v>
+        <v>43220.506249999999</v>
       </c>
       <c r="O341" s="2"/>
     </row>
@@ -12062,16 +12669,16 @@
         <v>145</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C342" s="3">
-        <v>7002551360604</v>
+        <v>7004326359594</v>
       </c>
       <c r="D342" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="E342" s="2">
-        <v>43220.552777777775</v>
+        <v>43220.508333333331</v>
       </c>
       <c r="O342" s="2"/>
     </row>
@@ -12080,16 +12687,16 @@
         <v>145</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="C343" s="3">
-        <v>7002731360751</v>
+        <v>7004265359557</v>
       </c>
       <c r="D343" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E343" s="2">
-        <v>43220.55972222222</v>
+        <v>43220.509722222225</v>
       </c>
       <c r="O343" s="2"/>
     </row>
@@ -12098,16 +12705,16 @@
         <v>145</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C344" s="3">
-        <v>7003942361654</v>
+        <v>7004067359659</v>
       </c>
       <c r="D344" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="E344" s="2">
-        <v>43220.577777777777</v>
+        <v>43220.513194444444</v>
       </c>
       <c r="L344" s="3"/>
       <c r="N344" s="2"/>
@@ -12118,16 +12725,16 @@
         <v>145</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="C345" s="3">
-        <v>7004010361690</v>
+        <v>7004008359687</v>
       </c>
       <c r="D345" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="E345" s="2">
-        <v>43220.580555555556</v>
+        <v>43220.515277777777</v>
       </c>
       <c r="L345" s="3"/>
       <c r="N345" s="2"/>
@@ -12138,16 +12745,16 @@
         <v>145</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="C346" s="3">
-        <v>7004478361995</v>
+        <v>7003441360041</v>
       </c>
       <c r="D346" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="E346" s="2">
-        <v>43220.63958333333</v>
+        <v>43220.525694444441</v>
       </c>
       <c r="L346" s="3"/>
       <c r="N346" s="2"/>
@@ -12158,16 +12765,16 @@
         <v>145</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="C347" s="3">
-        <v>7004518362018</v>
+        <v>7003437360048</v>
       </c>
       <c r="D347" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="E347" s="2">
-        <v>43220.64166666667</v>
+        <v>43220.52847222222</v>
       </c>
       <c r="L347" s="3"/>
       <c r="N347" s="2"/>
@@ -12178,16 +12785,16 @@
         <v>145</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C348" s="3">
-        <v>7004641362075</v>
+        <v>7003383360066</v>
       </c>
       <c r="D348" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="E348" s="2">
-        <v>43220.643750000003</v>
+        <v>43220.53125</v>
       </c>
       <c r="L348" s="3"/>
       <c r="N348" s="2"/>
@@ -12198,16 +12805,16 @@
         <v>145</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C349" s="3">
-        <v>7004976362244</v>
+        <v>7003064360213</v>
       </c>
       <c r="D349" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E349" s="2">
-        <v>43220.648611111108</v>
+        <v>43220.536111111112</v>
       </c>
       <c r="L349" s="3"/>
       <c r="N349" s="2"/>
@@ -12218,16 +12825,16 @@
         <v>145</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C350" s="3">
-        <v>7005036362271</v>
+        <v>7002924360280</v>
       </c>
       <c r="D350" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="E350" s="2">
-        <v>43220.650694444441</v>
+        <v>43220.539583333331</v>
       </c>
       <c r="L350" s="3"/>
       <c r="N350" s="2"/>
@@ -12238,16 +12845,16 @@
         <v>145</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="C351" s="3">
-        <v>7005401362460</v>
+        <v>7002846360330</v>
       </c>
       <c r="D351" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E351" s="2">
-        <v>43220.654861111114</v>
+        <v>43220.542361111111</v>
       </c>
       <c r="L351" s="3"/>
       <c r="N351" s="2"/>
@@ -12255,19 +12862,19 @@
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="C352" s="3">
-        <v>7004400359209</v>
+        <v>7002828360337</v>
       </c>
       <c r="D352" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E352" s="2">
-        <v>43221.29583333333</v>
+        <v>43220.544444444444</v>
       </c>
       <c r="L352" s="3"/>
       <c r="N352" s="2"/>
@@ -12275,19 +12882,19 @@
     </row>
     <row r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="C353" s="3">
-        <v>7003918358291</v>
+        <v>7002573360565</v>
       </c>
       <c r="D353" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="E353" s="2">
-        <v>43221.315972222219</v>
+        <v>43220.55</v>
       </c>
       <c r="L353" s="3"/>
       <c r="N353" s="2"/>
@@ -12295,19 +12902,19 @@
     </row>
     <row r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="C354" s="3">
-        <v>7003782358005</v>
+        <v>7002551360604</v>
       </c>
       <c r="D354" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="E354" s="2">
-        <v>43221.322222222225</v>
+        <v>43220.552777777775</v>
       </c>
       <c r="L354" s="3"/>
       <c r="N354" s="2"/>
@@ -12315,19 +12922,19 @@
     </row>
     <row r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="C355" s="3">
-        <v>7003733357829</v>
+        <v>7002731360751</v>
       </c>
       <c r="D355" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E355" s="2">
-        <v>43221.325694444444</v>
+        <v>43220.55972222222</v>
       </c>
       <c r="L355" s="3"/>
       <c r="N355" s="2"/>
@@ -12335,19 +12942,19 @@
     </row>
     <row r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="C356" s="3">
-        <v>7003632357578</v>
+        <v>7003942361654</v>
       </c>
       <c r="D356" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="E356" s="2">
-        <v>43221.329861111109</v>
+        <v>43220.577777777777</v>
       </c>
       <c r="L356" s="3"/>
       <c r="N356" s="2"/>
@@ -12355,19 +12962,19 @@
     </row>
     <row r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="C357" s="3">
-        <v>7002949356265</v>
+        <v>7004010361690</v>
       </c>
       <c r="D357" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="E357" s="2">
-        <v>43221.34375</v>
+        <v>43220.580555555556</v>
       </c>
       <c r="L357" s="3"/>
       <c r="N357" s="2"/>
@@ -12375,19 +12982,19 @@
     </row>
     <row r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="C358" s="3">
-        <v>7002812355949</v>
+        <v>7004478361995</v>
       </c>
       <c r="D358" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="E358" s="2">
-        <v>43221.348611111112</v>
+        <v>43220.63958333333</v>
       </c>
       <c r="L358" s="3"/>
       <c r="N358" s="2"/>
@@ -12395,19 +13002,19 @@
     </row>
     <row r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="C359" s="3">
-        <v>7002785355789</v>
+        <v>7004518362018</v>
       </c>
       <c r="D359" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="E359" s="2">
-        <v>43221.351388888892</v>
+        <v>43220.64166666667</v>
       </c>
       <c r="L359" s="3"/>
       <c r="N359" s="2"/>
@@ -12415,19 +13022,19 @@
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="C360" s="3">
-        <v>7002775355736</v>
+        <v>7004641362075</v>
       </c>
       <c r="D360" t="s">
-        <v>338</v>
+        <v>292</v>
       </c>
       <c r="E360" s="2">
-        <v>43221.354166666664</v>
+        <v>43220.643750000003</v>
       </c>
       <c r="L360" s="3"/>
       <c r="N360" s="2"/>
@@ -12435,19 +13042,19 @@
     </row>
     <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="C361" s="3">
-        <v>7002767355630</v>
+        <v>7004976362244</v>
       </c>
       <c r="D361" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E361" s="2">
-        <v>43221.375694444447</v>
+        <v>43220.648611111108</v>
       </c>
       <c r="L361" s="3"/>
       <c r="N361" s="2"/>
@@ -12455,19 +13062,19 @@
     </row>
     <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="C362" s="3">
-        <v>7003185355743</v>
+        <v>7005036362271</v>
       </c>
       <c r="D362" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="E362" s="2">
-        <v>43221.38958333333</v>
+        <v>43220.650694444441</v>
       </c>
       <c r="L362" s="3"/>
       <c r="N362" s="2"/>
@@ -12475,19 +13082,19 @@
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="C363" s="3">
-        <v>7003537355760</v>
+        <v>7005401362460</v>
       </c>
       <c r="D363" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="E363" s="2">
-        <v>43221.397916666669</v>
+        <v>43220.654861111114</v>
       </c>
       <c r="L363" s="3"/>
       <c r="N363" s="2"/>
@@ -12498,16 +13105,16 @@
         <v>149</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="C364" s="3">
-        <v>7003563355747</v>
+        <v>7004400359209</v>
       </c>
       <c r="D364" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="E364" s="2">
-        <v>43221.4</v>
+        <v>43221.29583333333</v>
       </c>
       <c r="L364" s="3"/>
       <c r="N364" s="2"/>
@@ -12518,16 +13125,16 @@
         <v>149</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C365" s="3">
-        <v>7003632355750</v>
+        <v>7003918358291</v>
       </c>
       <c r="D365" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="E365" s="2">
-        <v>43221.404166666667</v>
+        <v>43221.315972222219</v>
       </c>
       <c r="L365" s="3"/>
       <c r="N365" s="2"/>
@@ -12538,16 +13145,16 @@
         <v>149</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C366" s="3">
-        <v>7005429356236</v>
+        <v>7003782358005</v>
       </c>
       <c r="D366" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="E366" s="2">
-        <v>43221.426388888889</v>
+        <v>43221.322222222225</v>
       </c>
       <c r="L366" s="3"/>
       <c r="N366" s="2"/>
@@ -12558,16 +13165,16 @@
         <v>149</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C367" s="3">
-        <v>7005578356227</v>
+        <v>7003733357829</v>
       </c>
       <c r="D367" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="E367" s="2">
-        <v>43221.431944444441</v>
+        <v>43221.325694444444</v>
       </c>
       <c r="L367" s="3"/>
       <c r="N367" s="2"/>
@@ -12578,16 +13185,16 @@
         <v>149</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C368" s="3">
-        <v>7005615356234</v>
+        <v>7003632357578</v>
       </c>
       <c r="D368" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E368" s="2">
-        <v>43221.433333333334</v>
+        <v>43221.329861111109</v>
       </c>
       <c r="L368" s="3"/>
       <c r="N368" s="2"/>
@@ -12598,16 +13205,16 @@
         <v>149</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C369" s="3">
-        <v>7005818356285</v>
+        <v>7002949356265</v>
       </c>
       <c r="D369" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="E369" s="2">
-        <v>43221.438888888886</v>
+        <v>43221.34375</v>
       </c>
       <c r="L369" s="3"/>
       <c r="N369" s="2"/>
@@ -12618,16 +13225,16 @@
         <v>149</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="C370" s="3">
-        <v>7005889356297</v>
+        <v>7002812355949</v>
       </c>
       <c r="D370" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="E370" s="2">
-        <v>43221.440972222219</v>
+        <v>43221.348611111112</v>
       </c>
       <c r="L370" s="3"/>
       <c r="N370" s="2"/>
@@ -12638,16 +13245,16 @@
         <v>149</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C371" s="3">
-        <v>7005982356291</v>
+        <v>7002785355789</v>
       </c>
       <c r="D371" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="E371" s="2">
-        <v>43221.445833333331</v>
+        <v>43221.351388888892</v>
       </c>
       <c r="L371" s="3"/>
       <c r="N371" s="2"/>
@@ -12658,16 +13265,16 @@
         <v>149</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C372" s="3">
-        <v>7006067356287</v>
+        <v>7002775355736</v>
       </c>
       <c r="D372" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E372" s="2">
-        <v>43221.448611111111</v>
+        <v>43221.354166666664</v>
       </c>
       <c r="L372" s="3"/>
       <c r="N372" s="2"/>
@@ -12678,16 +13285,16 @@
         <v>149</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C373" s="3">
-        <v>7006110356278</v>
+        <v>7002767355630</v>
       </c>
       <c r="D373" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="E373" s="2">
-        <v>43221.45208333333</v>
+        <v>43221.375694444447</v>
       </c>
       <c r="L373" s="3"/>
       <c r="N373" s="2"/>
@@ -12698,16 +13305,16 @@
         <v>149</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C374" s="3">
-        <v>7006178356268</v>
+        <v>7003185355743</v>
       </c>
       <c r="D374" t="s">
-        <v>241</v>
+        <v>340</v>
       </c>
       <c r="E374" s="2">
-        <v>43221.455555555556</v>
+        <v>43221.38958333333</v>
       </c>
       <c r="L374" s="3"/>
       <c r="N374" s="2"/>
@@ -12718,16 +13325,16 @@
         <v>149</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C375" s="3">
-        <v>7006451356272</v>
+        <v>7003537355760</v>
       </c>
       <c r="D375" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E375" s="2">
-        <v>43221.461111111108</v>
+        <v>43221.397916666669</v>
       </c>
       <c r="L375" s="3"/>
       <c r="N375" s="2"/>
@@ -12738,16 +13345,16 @@
         <v>149</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="C376" s="3">
-        <v>7006803356301</v>
+        <v>7003563355747</v>
       </c>
       <c r="D376" t="s">
-        <v>245</v>
+        <v>342</v>
       </c>
       <c r="E376" s="2">
-        <v>43221.468055555553</v>
+        <v>43221.4</v>
       </c>
       <c r="L376" s="3"/>
       <c r="N376" s="2"/>
@@ -12758,16 +13365,16 @@
         <v>149</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C377" s="3">
-        <v>7006600356476</v>
+        <v>7003632355750</v>
       </c>
       <c r="D377" t="s">
-        <v>290</v>
+        <v>343</v>
       </c>
       <c r="E377" s="2">
-        <v>43221.475694444445</v>
+        <v>43221.404166666667</v>
       </c>
       <c r="L377" s="3"/>
       <c r="N377" s="2"/>
@@ -12777,16 +13384,16 @@
         <v>149</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="C378" s="3">
-        <v>7005428357911</v>
+        <v>7005429356236</v>
       </c>
       <c r="D378" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E378" s="2">
-        <v>43221.529166666667</v>
+        <v>43221.426388888889</v>
       </c>
       <c r="L378" s="3"/>
       <c r="N378" s="2"/>
@@ -12796,16 +13403,16 @@
         <v>149</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C379" s="3">
-        <v>7005274358127</v>
+        <v>7005578356227</v>
       </c>
       <c r="D379" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="E379" s="2">
-        <v>43221.532638888886</v>
+        <v>43221.431944444441</v>
       </c>
       <c r="L379" s="3"/>
       <c r="N379" s="2"/>
@@ -12815,16 +13422,16 @@
         <v>149</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C380" s="3">
-        <v>7005214358195</v>
+        <v>7005615356234</v>
       </c>
       <c r="D380" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="E380" s="2">
-        <v>43221.535416666666</v>
+        <v>43221.433333333334</v>
       </c>
       <c r="L380" s="3"/>
       <c r="N380" s="2"/>
@@ -12834,220 +13441,220 @@
         <v>149</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="C381" s="3">
-        <v>7004453359147</v>
+        <v>7005818356285</v>
       </c>
       <c r="D381" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E381" s="2">
-        <v>43221.547222222223</v>
+        <v>43221.438888888886</v>
       </c>
     </row>
     <row r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C382" s="3">
-        <v>7008546366649</v>
+        <v>7005889356297</v>
       </c>
       <c r="D382" t="s">
-        <v>208</v>
+        <v>346</v>
       </c>
       <c r="E382" s="2">
-        <v>43222.325694444444</v>
+        <v>43221.440972222219</v>
       </c>
     </row>
     <row r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="C383" s="3">
-        <v>7008527366619</v>
+        <v>7005982356291</v>
       </c>
       <c r="D383" t="s">
-        <v>235</v>
+        <v>346</v>
       </c>
       <c r="E383" s="2">
-        <v>43222.329861111109</v>
+        <v>43221.445833333331</v>
       </c>
     </row>
     <row r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="C384" s="3">
-        <v>7008489366555</v>
+        <v>7006067356287</v>
       </c>
       <c r="D384" t="s">
-        <v>196</v>
+        <v>347</v>
       </c>
       <c r="E384" s="2">
-        <v>43222.334027777775</v>
+        <v>43221.448611111111</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="C385" s="3">
-        <v>7008481366542</v>
+        <v>7006110356278</v>
       </c>
       <c r="D385" t="s">
-        <v>223</v>
+        <v>348</v>
       </c>
       <c r="E385" s="2">
-        <v>43222.335416666669</v>
+        <v>43221.45208333333</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C386" s="3">
-        <v>7008469366500</v>
+        <v>7006178356268</v>
       </c>
       <c r="D386" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="E386" s="2">
-        <v>43222.336805555555</v>
+        <v>43221.455555555556</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C387" s="3">
-        <v>7008230366123</v>
+        <v>7006451356272</v>
       </c>
       <c r="D387" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E387" s="2">
-        <v>43222.348611111112</v>
+        <v>43221.461111111108</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C388" s="3">
-        <v>7008184366055</v>
+        <v>7006803356301</v>
       </c>
       <c r="D388" t="s">
-        <v>354</v>
+        <v>245</v>
       </c>
       <c r="E388" s="2">
-        <v>43222.351388888892</v>
+        <v>43221.468055555553</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C389" s="3">
-        <v>7007756365256</v>
+        <v>7006600356476</v>
       </c>
       <c r="D389" t="s">
-        <v>355</v>
+        <v>290</v>
       </c>
       <c r="E389" s="2">
-        <v>43222.363888888889</v>
+        <v>43221.475694444445</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="C390" s="3">
-        <v>7007701365129</v>
+        <v>7005428357911</v>
       </c>
       <c r="D390" t="s">
-        <v>188</v>
+        <v>350</v>
       </c>
       <c r="E390" s="2">
-        <v>43222.366666666669</v>
+        <v>43221.529166666667</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C391" s="3">
-        <v>7007599364865</v>
+        <v>7005274358127</v>
       </c>
       <c r="D391" t="s">
-        <v>356</v>
+        <v>291</v>
       </c>
       <c r="E391" s="2">
-        <v>43222.37222222222</v>
+        <v>43221.532638888886</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C392" s="3">
-        <v>7007353364176</v>
+        <v>7005214358195</v>
       </c>
       <c r="D392" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="E392" s="2">
-        <v>43222.379166666666</v>
+        <v>43221.535416666666</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="C393" s="3">
-        <v>7007224363897</v>
+        <v>7004453359147</v>
       </c>
       <c r="D393" t="s">
-        <v>303</v>
+        <v>352</v>
       </c>
       <c r="E393" s="2">
-        <v>43222.383333333331</v>
+        <v>43221.547222222223</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
@@ -13055,16 +13662,16 @@
         <v>152</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="C394" s="3">
-        <v>7006864363345</v>
+        <v>7008546366649</v>
       </c>
       <c r="D394" t="s">
-        <v>357</v>
+        <v>208</v>
       </c>
       <c r="E394" s="2">
-        <v>43222.400000000001</v>
+        <v>43222.325694444444</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
@@ -13072,16 +13679,16 @@
         <v>152</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C395" s="3">
-        <v>7006855363327</v>
+        <v>7008527366619</v>
       </c>
       <c r="D395" t="s">
-        <v>319</v>
+        <v>235</v>
       </c>
       <c r="E395" s="2">
-        <v>43222.402083333334</v>
+        <v>43222.329861111109</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
@@ -13089,16 +13696,16 @@
         <v>152</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="C396" s="3">
-        <v>7006741363193</v>
+        <v>7008489366555</v>
       </c>
       <c r="D396" t="s">
-        <v>358</v>
+        <v>196</v>
       </c>
       <c r="E396" s="2">
-        <v>43222.40625</v>
+        <v>43222.334027777775</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
@@ -13106,16 +13713,16 @@
         <v>152</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C397" s="3">
-        <v>7006705363181</v>
+        <v>7008481366542</v>
       </c>
       <c r="D397" t="s">
-        <v>312</v>
+        <v>223</v>
       </c>
       <c r="E397" s="2">
-        <v>43222.408333333333</v>
+        <v>43222.335416666669</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
@@ -13123,16 +13730,16 @@
         <v>152</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="C398" s="3">
-        <v>7006635363106</v>
+        <v>7008469366500</v>
       </c>
       <c r="D398" t="s">
-        <v>358</v>
+        <v>213</v>
       </c>
       <c r="E398" s="2">
-        <v>43222.410416666666</v>
+        <v>43222.336805555555</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
@@ -13140,16 +13747,16 @@
         <v>152</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C399" s="3">
-        <v>7006632363092</v>
+        <v>7008230366123</v>
       </c>
       <c r="D399" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E399" s="2">
-        <v>43222.412499999999</v>
+        <v>43222.348611111112</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
@@ -13157,16 +13764,16 @@
         <v>152</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C400" s="3">
-        <v>7006656363084</v>
+        <v>7008184366055</v>
       </c>
       <c r="D400" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E400" s="2">
-        <v>43222.425000000003</v>
+        <v>43222.351388888892</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
@@ -13174,16 +13781,16 @@
         <v>152</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="C401" s="3">
-        <v>7006704363076</v>
+        <v>7007756365256</v>
       </c>
       <c r="D401" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E401" s="2">
-        <v>43222.431944444441</v>
+        <v>43222.363888888889</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
@@ -13191,16 +13798,16 @@
         <v>152</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="C402" s="3">
-        <v>7006759363054</v>
+        <v>7007701365129</v>
       </c>
       <c r="D402" t="s">
-        <v>288</v>
+        <v>188</v>
       </c>
       <c r="E402" s="2">
-        <v>43222.435416666667</v>
+        <v>43222.366666666669</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
@@ -13208,16 +13815,16 @@
         <v>152</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C403" s="3">
-        <v>7006796363052</v>
+        <v>7007599364865</v>
       </c>
       <c r="D403" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E403" s="2">
-        <v>43222.436805555553</v>
+        <v>43222.37222222222</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
@@ -13225,16 +13832,16 @@
         <v>152</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="C404" s="3">
-        <v>7006864363034</v>
+        <v>7007353364176</v>
       </c>
       <c r="D404" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="E404" s="2">
-        <v>43222.439583333333</v>
+        <v>43222.379166666666</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
@@ -13242,16 +13849,16 @@
         <v>152</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C405" s="3">
-        <v>7006882363032</v>
+        <v>7007224363897</v>
       </c>
       <c r="D405" t="s">
-        <v>361</v>
+        <v>303</v>
       </c>
       <c r="E405" s="2">
-        <v>43222.44027777778</v>
+        <v>43222.383333333331</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
@@ -13259,16 +13866,16 @@
         <v>152</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C406" s="3">
-        <v>7007268362982</v>
+        <v>7006864363345</v>
       </c>
       <c r="D406" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E406" s="2">
-        <v>43222.448611111111</v>
+        <v>43222.400000000001</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
@@ -13276,16 +13883,16 @@
         <v>152</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C407" s="3">
-        <v>7007286362985</v>
+        <v>7006855363327</v>
       </c>
       <c r="D407" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="E407" s="2">
-        <v>43222.450694444444</v>
+        <v>43222.402083333334</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
@@ -13293,16 +13900,16 @@
         <v>152</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C408" s="3">
-        <v>7007299362986</v>
+        <v>7006741363193</v>
       </c>
       <c r="D408" t="s">
-        <v>281</v>
+        <v>358</v>
       </c>
       <c r="E408" s="2">
-        <v>43222.45208333333</v>
+        <v>43222.40625</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
@@ -13310,16 +13917,16 @@
         <v>152</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C409" s="3">
-        <v>7007413362958</v>
+        <v>7006705363181</v>
       </c>
       <c r="D409" t="s">
-        <v>363</v>
+        <v>312</v>
       </c>
       <c r="E409" s="2">
-        <v>43222.455555555556</v>
+        <v>43222.408333333333</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
@@ -13327,16 +13934,16 @@
         <v>152</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C410" s="3">
-        <v>7009681362779</v>
+        <v>7006635363106</v>
       </c>
       <c r="D410" t="s">
-        <v>243</v>
+        <v>358</v>
       </c>
       <c r="E410" s="2">
-        <v>43222.494444444441</v>
+        <v>43222.410416666666</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
@@ -13344,16 +13951,16 @@
         <v>152</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C411" s="3">
-        <v>7010638362876</v>
+        <v>7006632363092</v>
       </c>
       <c r="D411" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E411" s="2">
-        <v>43222.50277777778</v>
+        <v>43222.412499999999</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
@@ -13361,16 +13968,16 @@
         <v>152</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C412" s="3">
-        <v>7010614362913</v>
+        <v>7006656363084</v>
       </c>
       <c r="D412" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E412" s="2">
-        <v>43222.522222222222</v>
+        <v>43222.425000000003</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
@@ -13378,16 +13985,16 @@
         <v>152</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C413" s="3">
-        <v>7010584362972</v>
+        <v>7006704363076</v>
       </c>
       <c r="D413" t="s">
-        <v>278</v>
+        <v>359</v>
       </c>
       <c r="E413" s="2">
-        <v>43222.524305555555</v>
+        <v>43222.431944444441</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
@@ -13395,16 +14002,16 @@
         <v>152</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="C414" s="3">
-        <v>7009698364284</v>
+        <v>7006759363054</v>
       </c>
       <c r="D414" t="s">
-        <v>365</v>
+        <v>288</v>
       </c>
       <c r="E414" s="2">
-        <v>43222.599305555559</v>
+        <v>43222.435416666667</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
@@ -13412,16 +14019,16 @@
         <v>152</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C415" s="3">
-        <v>7009212365539</v>
+        <v>7006796363052</v>
       </c>
       <c r="D415" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="E415" s="2">
-        <v>43222.618055555555</v>
+        <v>43222.436805555553</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
@@ -13429,16 +14036,16 @@
         <v>152</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C416" s="3">
-        <v>7009208365577</v>
+        <v>7006864363034</v>
       </c>
       <c r="D416" t="s">
-        <v>366</v>
+        <v>313</v>
       </c>
       <c r="E416" s="2">
-        <v>43222.620138888888</v>
+        <v>43222.439583333333</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.2">
@@ -13446,16 +14053,16 @@
         <v>152</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C417" s="3">
-        <v>7009208365588</v>
+        <v>7006882363032</v>
       </c>
       <c r="D417" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E417" s="2">
-        <v>43222.621527777781</v>
+        <v>43222.44027777778</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.2">
@@ -13463,16 +14070,16 @@
         <v>152</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C418" s="3">
-        <v>7009199365638</v>
+        <v>7007268362982</v>
       </c>
       <c r="D418" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E418" s="2">
-        <v>43222.623611111114</v>
+        <v>43222.448611111111</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.2">
@@ -13480,16 +14087,16 @@
         <v>152</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C419" s="3">
-        <v>7009186365662</v>
+        <v>7007286362985</v>
       </c>
       <c r="D419" t="s">
-        <v>369</v>
+        <v>282</v>
       </c>
       <c r="E419" s="2">
-        <v>43222.625694444447</v>
+        <v>43222.450694444444</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.2">
@@ -13497,16 +14104,16 @@
         <v>152</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C420" s="3">
-        <v>7008623366228</v>
+        <v>7007299362986</v>
       </c>
       <c r="D420" t="s">
-        <v>184</v>
+        <v>281</v>
       </c>
       <c r="E420" s="2">
-        <v>43222.638888888891</v>
+        <v>43222.45208333333</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.2">
@@ -13514,13 +14121,16 @@
         <v>152</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C421" s="3">
-        <v>7009183365670</v>
+        <v>7007413362958</v>
+      </c>
+      <c r="D421" t="s">
+        <v>363</v>
       </c>
       <c r="E421" s="2">
-        <v>43222.640277777777</v>
+        <v>43222.455555555556</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
@@ -13528,19 +14138,220 @@
         <v>152</v>
       </c>
       <c r="B422" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C422" s="3">
+        <v>7009681362779</v>
+      </c>
+      <c r="D422" t="s">
+        <v>243</v>
+      </c>
+      <c r="E422" s="2">
+        <v>43222.494444444441</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>152</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C423" s="3">
+        <v>7010638362876</v>
+      </c>
+      <c r="D423" t="s">
+        <v>364</v>
+      </c>
+      <c r="E423" s="2">
+        <v>43222.50277777778</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>152</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C424" s="3">
+        <v>7010614362913</v>
+      </c>
+      <c r="D424" t="s">
+        <v>364</v>
+      </c>
+      <c r="E424" s="2">
+        <v>43222.522222222222</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>152</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C425" s="3">
+        <v>7010584362972</v>
+      </c>
+      <c r="D425" t="s">
+        <v>278</v>
+      </c>
+      <c r="E425" s="2">
+        <v>43222.524305555555</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>152</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C426" s="3">
+        <v>7009698364284</v>
+      </c>
+      <c r="D426" t="s">
+        <v>365</v>
+      </c>
+      <c r="E426" s="2">
+        <v>43222.599305555559</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>152</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C427" s="3">
+        <v>7009212365539</v>
+      </c>
+      <c r="D427" t="s">
+        <v>354</v>
+      </c>
+      <c r="E427" s="2">
+        <v>43222.618055555555</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>152</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C428" s="3">
+        <v>7009208365577</v>
+      </c>
+      <c r="D428" t="s">
+        <v>366</v>
+      </c>
+      <c r="E428" s="2">
+        <v>43222.620138888888</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>152</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C429" s="3">
+        <v>7009208365588</v>
+      </c>
+      <c r="D429" t="s">
+        <v>367</v>
+      </c>
+      <c r="E429" s="2">
+        <v>43222.621527777781</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>152</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C430" s="3">
+        <v>7009199365638</v>
+      </c>
+      <c r="D430" t="s">
+        <v>368</v>
+      </c>
+      <c r="E430" s="2">
+        <v>43222.623611111114</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>152</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C431" s="3">
+        <v>7009186365662</v>
+      </c>
+      <c r="D431" t="s">
+        <v>369</v>
+      </c>
+      <c r="E431" s="2">
+        <v>43222.625694444447</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>152</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C432" s="3">
+        <v>7008623366228</v>
+      </c>
+      <c r="D432" t="s">
+        <v>184</v>
+      </c>
+      <c r="E432" s="2">
+        <v>43222.638888888891</v>
+      </c>
+    </row>
+    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>152</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C433" s="3">
+        <v>7009183365670</v>
+      </c>
+      <c r="E433" s="2">
+        <v>43222.640277777777</v>
+      </c>
+    </row>
+    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>152</v>
+      </c>
+      <c r="B434" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C422" s="3">
+      <c r="C434" s="3">
         <v>7008631366281</v>
       </c>
-      <c r="D422" t="s">
+      <c r="D434" t="s">
         <v>370</v>
       </c>
-      <c r="E422" s="2">
+      <c r="E434" s="2">
         <v>43222.640972222223</v>
       </c>
     </row>
-    <row r="438" spans="12:15" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L438" s="3"/>
       <c r="N438" s="2"/>
       <c r="O438" s="2"/>

--- a/Rawdata/riptransekter helags 2018.xlsx
+++ b/Rawdata/riptransekter helags 2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="460" windowWidth="25600" windowHeight="14120" xr2:uid="{731D7839-4CAB-374B-BEA5-3406519CB6C1}"/>
+    <workbookView xWindow="9680" yWindow="460" windowWidth="25600" windowHeight="14120" xr2:uid="{731D7839-4CAB-374B-BEA5-3406519CB6C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2588" uniqueCount="457">
   <si>
     <t>vinkel</t>
   </si>
@@ -1136,9 +1136,6 @@
     <t>1128 m</t>
   </si>
   <si>
-    <t>1076 m</t>
-  </si>
-  <si>
     <t>cecum</t>
   </si>
   <si>
@@ -1295,9 +1292,6 @@
     <t>växlande molnighet, 0 till -1</t>
   </si>
   <si>
-    <t>skare + 2 mm nysnö</t>
-  </si>
-  <si>
     <t>snö, lätt vind</t>
   </si>
   <si>
@@ -1332,6 +1326,75 @@
   </si>
   <si>
     <t>gps saknades. Lade till i efterhand. Höjd är en gissning.</t>
+  </si>
+  <si>
+    <t>soligt, varmt</t>
+  </si>
+  <si>
+    <t>skare + 2 mm nysnö + mer snö under dagen</t>
+  </si>
+  <si>
+    <t>växlande molninghet</t>
+  </si>
+  <si>
+    <t>bruna stora, grova fibrer</t>
+  </si>
+  <si>
+    <t>även många små spår. Gnagare?</t>
+  </si>
+  <si>
+    <t>även RVSP</t>
+  </si>
+  <si>
+    <t>säkert D2</t>
+  </si>
+  <si>
+    <t>varmt, plusgrader</t>
+  </si>
+  <si>
+    <t>skare + 2 mm nysnö i jämn yta. Mycket bra spårsnö</t>
+  </si>
+  <si>
+    <t>mulet, vind 5-6 m/s, -1 grader</t>
+  </si>
+  <si>
+    <t>skare</t>
+  </si>
+  <si>
+    <t>vind 7-8 m/s</t>
+  </si>
+  <si>
+    <t>Flög högt, uppskattat avstånd</t>
+  </si>
+  <si>
+    <t>lätt snöfall, vind 7-8 m/s</t>
+  </si>
+  <si>
+    <t>flera otydliga spår under den här sträckan. Antagligen ripa.</t>
+  </si>
+  <si>
+    <t>mörk</t>
+  </si>
+  <si>
+    <t>vind 9 m/s</t>
+  </si>
+  <si>
+    <t>5 tydliga, flera otydliga</t>
+  </si>
+  <si>
+    <t>vind 10 + m/s</t>
+  </si>
+  <si>
+    <t>ljusbuna, stora fibrer</t>
+  </si>
+  <si>
+    <t>vind c:a 15 m/s</t>
+  </si>
+  <si>
+    <t>vind 8-9 m/s</t>
+  </si>
+  <si>
+    <t>stora grova, stora fibrer</t>
   </si>
 </sst>
 </file>
@@ -1686,11 +1749,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9831C9-A413-654D-876F-A809696709AE}">
-  <dimension ref="A1:Z438"/>
+  <dimension ref="A1:Z445"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F315" sqref="F315"/>
+      <pane ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C403" sqref="C403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6178,7 +6241,7 @@
         <v>1</v>
       </c>
       <c r="M123" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N123" t="s">
         <v>178</v>
@@ -6222,7 +6285,7 @@
         <v>1</v>
       </c>
       <c r="M124" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N124" t="s">
         <v>178</v>
@@ -6587,10 +6650,10 @@
         <v>24</v>
       </c>
       <c r="N136" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O136" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="V136" s="3"/>
       <c r="X136" s="2"/>
@@ -6622,10 +6685,10 @@
         <v>1</v>
       </c>
       <c r="N137" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O137" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="V137" s="3"/>
       <c r="X137" s="2"/>
@@ -6657,13 +6720,13 @@
         <v>2</v>
       </c>
       <c r="M138" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N138" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O138" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="V138" s="3"/>
       <c r="X138" s="2"/>
@@ -6704,10 +6767,10 @@
         <v>2</v>
       </c>
       <c r="N139" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O139" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="V139" s="3"/>
       <c r="X139" s="2"/>
@@ -6748,10 +6811,10 @@
         <v>1</v>
       </c>
       <c r="N140" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O140" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="V140" s="3"/>
       <c r="X140" s="2"/>
@@ -6780,13 +6843,13 @@
         <v>2</v>
       </c>
       <c r="M141" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N141" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O141" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="V141" s="3"/>
       <c r="X141" s="2"/>
@@ -6827,13 +6890,13 @@
         <v>5</v>
       </c>
       <c r="M142" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N142" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O142" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="V142" s="3"/>
       <c r="X142" s="2"/>
@@ -6871,13 +6934,13 @@
         <v>5</v>
       </c>
       <c r="M143" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N143" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O143" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="V143" s="3"/>
       <c r="X143" s="2"/>
@@ -6906,13 +6969,13 @@
         <v>2</v>
       </c>
       <c r="M144" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N144" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O144" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="V144" s="3"/>
       <c r="X144" s="2"/>
@@ -6938,10 +7001,10 @@
         <v>161</v>
       </c>
       <c r="N145" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O145" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="V145" s="3"/>
       <c r="X145" s="2"/>
@@ -6979,13 +7042,13 @@
         <v>3</v>
       </c>
       <c r="M146" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N146" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O146" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="V146" s="3"/>
       <c r="X146" s="2"/>
@@ -7014,10 +7077,10 @@
         <v>2</v>
       </c>
       <c r="N147" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O147" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="V147" s="3"/>
       <c r="X147" s="2"/>
@@ -7046,10 +7109,10 @@
         <v>1</v>
       </c>
       <c r="N148" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O148" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="V148" s="3"/>
       <c r="X148" s="2"/>
@@ -7084,13 +7147,13 @@
         <v>2</v>
       </c>
       <c r="M149" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N149" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O149" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="V149" s="3"/>
       <c r="X149" s="2"/>
@@ -7122,13 +7185,13 @@
         <v>2</v>
       </c>
       <c r="M150" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N150" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O150" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="V150" s="3"/>
       <c r="X150" s="2"/>
@@ -7160,13 +7223,13 @@
         <v>3</v>
       </c>
       <c r="M151" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N151" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O151" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.2">
@@ -7195,13 +7258,13 @@
         <v>3</v>
       </c>
       <c r="M152" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N152" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O152" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.2">
@@ -7230,13 +7293,13 @@
         <v>5</v>
       </c>
       <c r="M153" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N153" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O153" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.2">
@@ -7262,10 +7325,10 @@
         <v>2</v>
       </c>
       <c r="N154" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O154" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.2">
@@ -7300,13 +7363,13 @@
         <v>1</v>
       </c>
       <c r="M155" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N155" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O155" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.2">
@@ -7329,10 +7392,10 @@
         <v>161</v>
       </c>
       <c r="N156" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O156" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.2">
@@ -7367,13 +7430,13 @@
         <v>1</v>
       </c>
       <c r="M157" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N157" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O157" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.2">
@@ -7440,10 +7503,10 @@
         <v>1</v>
       </c>
       <c r="N164" t="s">
+        <v>386</v>
+      </c>
+      <c r="O164" t="s">
         <v>387</v>
-      </c>
-      <c r="O164" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.2">
@@ -7478,10 +7541,10 @@
         <v>1</v>
       </c>
       <c r="N165" t="s">
+        <v>386</v>
+      </c>
+      <c r="O165" t="s">
         <v>387</v>
-      </c>
-      <c r="O165" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.2">
@@ -7519,13 +7582,13 @@
         <v>8</v>
       </c>
       <c r="M166" t="s">
+        <v>385</v>
+      </c>
+      <c r="N166" t="s">
         <v>386</v>
       </c>
-      <c r="N166" t="s">
+      <c r="O166" t="s">
         <v>387</v>
-      </c>
-      <c r="O166" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.2">
@@ -7560,10 +7623,10 @@
         <v>1</v>
       </c>
       <c r="N167" t="s">
+        <v>386</v>
+      </c>
+      <c r="O167" t="s">
         <v>387</v>
-      </c>
-      <c r="O167" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.2">
@@ -7598,13 +7661,13 @@
         <v>5</v>
       </c>
       <c r="M168" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N168" t="s">
+        <v>386</v>
+      </c>
+      <c r="O168" t="s">
         <v>387</v>
-      </c>
-      <c r="O168" t="s">
-        <v>388</v>
       </c>
       <c r="W168" s="3"/>
       <c r="Y168" s="2"/>
@@ -7636,10 +7699,10 @@
         <v>1</v>
       </c>
       <c r="N169" t="s">
+        <v>386</v>
+      </c>
+      <c r="O169" t="s">
         <v>387</v>
-      </c>
-      <c r="O169" t="s">
-        <v>388</v>
       </c>
       <c r="W169" s="3"/>
       <c r="Y169" s="2"/>
@@ -7680,10 +7743,10 @@
         <v>2</v>
       </c>
       <c r="N170" t="s">
+        <v>386</v>
+      </c>
+      <c r="O170" t="s">
         <v>387</v>
-      </c>
-      <c r="O170" t="s">
-        <v>388</v>
       </c>
       <c r="W170" s="3"/>
       <c r="Y170" s="2"/>
@@ -7724,13 +7787,13 @@
         <v>1</v>
       </c>
       <c r="M171" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N171" t="s">
+        <v>386</v>
+      </c>
+      <c r="O171" t="s">
         <v>387</v>
-      </c>
-      <c r="O171" t="s">
-        <v>388</v>
       </c>
       <c r="W171" s="3"/>
       <c r="Y171" s="2"/>
@@ -7768,10 +7831,10 @@
         <v>1</v>
       </c>
       <c r="N172" t="s">
+        <v>386</v>
+      </c>
+      <c r="O172" t="s">
         <v>387</v>
-      </c>
-      <c r="O172" t="s">
-        <v>388</v>
       </c>
       <c r="W172" s="3"/>
       <c r="Y172" s="2"/>
@@ -7809,10 +7872,10 @@
         <v>1</v>
       </c>
       <c r="N173" t="s">
+        <v>386</v>
+      </c>
+      <c r="O173" t="s">
         <v>387</v>
-      </c>
-      <c r="O173" t="s">
-        <v>388</v>
       </c>
       <c r="W173" s="3"/>
       <c r="Y173" s="2"/>
@@ -7847,13 +7910,13 @@
         <v>2</v>
       </c>
       <c r="M174" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N174" t="s">
+        <v>386</v>
+      </c>
+      <c r="O174" t="s">
         <v>387</v>
-      </c>
-      <c r="O174" t="s">
-        <v>388</v>
       </c>
       <c r="W174" s="3"/>
       <c r="Y174" s="2"/>
@@ -7894,13 +7957,13 @@
         <v>14</v>
       </c>
       <c r="M175" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N175" t="s">
+        <v>386</v>
+      </c>
+      <c r="O175" t="s">
         <v>387</v>
-      </c>
-      <c r="O175" t="s">
-        <v>388</v>
       </c>
       <c r="W175" s="3"/>
       <c r="Y175" s="2"/>
@@ -7941,13 +8004,13 @@
         <v>2</v>
       </c>
       <c r="M176" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N176" t="s">
+        <v>386</v>
+      </c>
+      <c r="O176" t="s">
         <v>387</v>
-      </c>
-      <c r="O176" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.2">
@@ -7985,13 +8048,13 @@
         <v>2</v>
       </c>
       <c r="M177" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N177" t="s">
+        <v>386</v>
+      </c>
+      <c r="O177" t="s">
         <v>387</v>
-      </c>
-      <c r="O177" t="s">
-        <v>388</v>
       </c>
       <c r="W177" s="3"/>
       <c r="Y177" s="2"/>
@@ -8032,13 +8095,13 @@
         <v>3</v>
       </c>
       <c r="M178" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N178" t="s">
+        <v>386</v>
+      </c>
+      <c r="O178" t="s">
         <v>387</v>
-      </c>
-      <c r="O178" t="s">
-        <v>388</v>
       </c>
       <c r="W178" s="3"/>
       <c r="Y178" s="2"/>
@@ -8079,13 +8142,13 @@
         <v>2</v>
       </c>
       <c r="M179" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N179" t="s">
+        <v>386</v>
+      </c>
+      <c r="O179" t="s">
         <v>387</v>
-      </c>
-      <c r="O179" t="s">
-        <v>388</v>
       </c>
       <c r="W179" s="3"/>
       <c r="Y179" s="2"/>
@@ -8126,13 +8189,13 @@
         <v>20</v>
       </c>
       <c r="M180" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N180" t="s">
+        <v>386</v>
+      </c>
+      <c r="O180" t="s">
         <v>387</v>
-      </c>
-      <c r="O180" t="s">
-        <v>388</v>
       </c>
       <c r="W180" s="3"/>
       <c r="Y180" s="2"/>
@@ -8173,13 +8236,13 @@
         <v>22</v>
       </c>
       <c r="M181" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N181" t="s">
+        <v>386</v>
+      </c>
+      <c r="O181" t="s">
         <v>387</v>
-      </c>
-      <c r="O181" t="s">
-        <v>388</v>
       </c>
       <c r="W181" s="3"/>
       <c r="Y181" s="2"/>
@@ -8217,10 +8280,10 @@
         <v>1</v>
       </c>
       <c r="N182" t="s">
+        <v>386</v>
+      </c>
+      <c r="O182" t="s">
         <v>387</v>
-      </c>
-      <c r="O182" t="s">
-        <v>388</v>
       </c>
       <c r="W182" s="3"/>
       <c r="Y182" s="2"/>
@@ -8255,13 +8318,13 @@
         <v>17</v>
       </c>
       <c r="M183" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N183" t="s">
+        <v>386</v>
+      </c>
+      <c r="O183" t="s">
         <v>387</v>
-      </c>
-      <c r="O183" t="s">
-        <v>388</v>
       </c>
       <c r="W183" s="3"/>
       <c r="Y183" s="2"/>
@@ -8302,13 +8365,13 @@
         <v>12</v>
       </c>
       <c r="M184" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N184" t="s">
+        <v>386</v>
+      </c>
+      <c r="O184" t="s">
         <v>387</v>
-      </c>
-      <c r="O184" t="s">
-        <v>388</v>
       </c>
       <c r="W184" s="3"/>
       <c r="Y184" s="2"/>
@@ -8334,10 +8397,10 @@
         <v>161</v>
       </c>
       <c r="N185" t="s">
+        <v>386</v>
+      </c>
+      <c r="O185" t="s">
         <v>387</v>
-      </c>
-      <c r="O185" t="s">
-        <v>388</v>
       </c>
       <c r="W185" s="3"/>
       <c r="Y185" s="2"/>
@@ -8369,10 +8432,10 @@
         <v>1</v>
       </c>
       <c r="N186" t="s">
+        <v>386</v>
+      </c>
+      <c r="O186" t="s">
         <v>387</v>
-      </c>
-      <c r="O186" t="s">
-        <v>388</v>
       </c>
       <c r="W186" s="3"/>
       <c r="Y186" s="2"/>
@@ -8404,10 +8467,10 @@
         <v>3</v>
       </c>
       <c r="N187" t="s">
+        <v>386</v>
+      </c>
+      <c r="O187" t="s">
         <v>387</v>
-      </c>
-      <c r="O187" t="s">
-        <v>388</v>
       </c>
       <c r="W187" s="3"/>
       <c r="Y187" s="2"/>
@@ -8442,13 +8505,13 @@
         <v>17</v>
       </c>
       <c r="M188" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N188" t="s">
+        <v>386</v>
+      </c>
+      <c r="O188" t="s">
         <v>387</v>
-      </c>
-      <c r="O188" t="s">
-        <v>388</v>
       </c>
       <c r="W188" s="3"/>
       <c r="Y188" s="2"/>
@@ -8489,13 +8552,13 @@
         <v>25</v>
       </c>
       <c r="M189" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N189" t="s">
+        <v>386</v>
+      </c>
+      <c r="O189" t="s">
         <v>387</v>
-      </c>
-      <c r="O189" t="s">
-        <v>388</v>
       </c>
       <c r="W189" s="3"/>
       <c r="Y189" s="2"/>
@@ -8530,13 +8593,13 @@
         <v>4</v>
       </c>
       <c r="M190" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N190" t="s">
+        <v>386</v>
+      </c>
+      <c r="O190" t="s">
         <v>387</v>
-      </c>
-      <c r="O190" t="s">
-        <v>388</v>
       </c>
       <c r="W190" s="3"/>
       <c r="Y190" s="2"/>
@@ -8574,10 +8637,10 @@
         <v>1</v>
       </c>
       <c r="N191" t="s">
+        <v>386</v>
+      </c>
+      <c r="O191" t="s">
         <v>387</v>
-      </c>
-      <c r="O191" t="s">
-        <v>388</v>
       </c>
       <c r="W191" s="3"/>
       <c r="Y191" s="2"/>
@@ -8618,13 +8681,13 @@
         <v>12</v>
       </c>
       <c r="M192" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N192" t="s">
+        <v>386</v>
+      </c>
+      <c r="O192" t="s">
         <v>387</v>
-      </c>
-      <c r="O192" t="s">
-        <v>388</v>
       </c>
       <c r="W192" s="3"/>
       <c r="Y192" s="2"/>
@@ -8659,13 +8722,13 @@
         <v>1</v>
       </c>
       <c r="M193" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N193" t="s">
+        <v>386</v>
+      </c>
+      <c r="O193" t="s">
         <v>387</v>
-      </c>
-      <c r="O193" t="s">
-        <v>388</v>
       </c>
       <c r="W193" s="3"/>
       <c r="Y193" s="2"/>
@@ -8706,13 +8769,13 @@
         <v>40</v>
       </c>
       <c r="M194" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N194" t="s">
+        <v>386</v>
+      </c>
+      <c r="O194" t="s">
         <v>387</v>
-      </c>
-      <c r="O194" t="s">
-        <v>388</v>
       </c>
       <c r="W194" s="3"/>
       <c r="Y194" s="2"/>
@@ -8753,13 +8816,13 @@
         <v>20</v>
       </c>
       <c r="M195" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N195" t="s">
+        <v>386</v>
+      </c>
+      <c r="O195" t="s">
         <v>387</v>
-      </c>
-      <c r="O195" t="s">
-        <v>388</v>
       </c>
       <c r="W195" s="3"/>
       <c r="Y195" s="2"/>
@@ -8791,10 +8854,10 @@
         <v>1</v>
       </c>
       <c r="N196" t="s">
+        <v>386</v>
+      </c>
+      <c r="O196" t="s">
         <v>387</v>
-      </c>
-      <c r="O196" t="s">
-        <v>388</v>
       </c>
       <c r="W196" s="3"/>
       <c r="Y196" s="2"/>
@@ -8835,13 +8898,13 @@
         <v>15</v>
       </c>
       <c r="M197" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N197" t="s">
+        <v>386</v>
+      </c>
+      <c r="O197" t="s">
         <v>387</v>
-      </c>
-      <c r="O197" t="s">
-        <v>388</v>
       </c>
       <c r="W197" s="3"/>
       <c r="Y197" s="2"/>
@@ -8882,13 +8945,13 @@
         <v>15</v>
       </c>
       <c r="M198" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N198" t="s">
+        <v>386</v>
+      </c>
+      <c r="O198" t="s">
         <v>387</v>
-      </c>
-      <c r="O198" t="s">
-        <v>388</v>
       </c>
       <c r="W198" s="3"/>
       <c r="Y198" s="2"/>
@@ -8920,10 +8983,10 @@
         <v>1</v>
       </c>
       <c r="N199" t="s">
+        <v>386</v>
+      </c>
+      <c r="O199" t="s">
         <v>387</v>
-      </c>
-      <c r="O199" t="s">
-        <v>388</v>
       </c>
       <c r="W199" s="3"/>
       <c r="Y199" s="2"/>
@@ -8955,10 +9018,10 @@
         <v>1</v>
       </c>
       <c r="N200" t="s">
+        <v>386</v>
+      </c>
+      <c r="O200" t="s">
         <v>387</v>
-      </c>
-      <c r="O200" t="s">
-        <v>388</v>
       </c>
       <c r="W200" s="3"/>
       <c r="Y200" s="2"/>
@@ -8990,10 +9053,10 @@
         <v>1</v>
       </c>
       <c r="N201" t="s">
+        <v>386</v>
+      </c>
+      <c r="O201" t="s">
         <v>387</v>
-      </c>
-      <c r="O201" t="s">
-        <v>388</v>
       </c>
       <c r="W201" s="3"/>
       <c r="Y201" s="2"/>
@@ -9034,13 +9097,13 @@
         <v>20</v>
       </c>
       <c r="M202" t="s">
+        <v>400</v>
+      </c>
+      <c r="N202" t="s">
         <v>401</v>
       </c>
-      <c r="N202" t="s">
-        <v>402</v>
-      </c>
       <c r="O202" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W202" s="3"/>
       <c r="Y202" s="2"/>
@@ -9078,10 +9141,10 @@
         <v>1</v>
       </c>
       <c r="N203" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O203" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W203" s="3"/>
       <c r="Y203" s="2"/>
@@ -9122,13 +9185,13 @@
         <v>3</v>
       </c>
       <c r="M204" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N204" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O204" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W204" s="3"/>
       <c r="Y204" s="2"/>
@@ -9163,13 +9226,13 @@
         <v>4</v>
       </c>
       <c r="M205" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N205" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O205" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W205" s="3"/>
       <c r="Y205" s="2"/>
@@ -9210,13 +9273,13 @@
         <v>35</v>
       </c>
       <c r="M206" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N206" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O206" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W206" s="3"/>
       <c r="Y206" s="2"/>
@@ -9251,13 +9314,13 @@
         <v>1</v>
       </c>
       <c r="M207" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N207" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O207" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W207" s="3"/>
       <c r="Y207" s="2"/>
@@ -9283,10 +9346,10 @@
         <v>161</v>
       </c>
       <c r="N208" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O208" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W208" s="3"/>
       <c r="Y208" s="2"/>
@@ -9327,13 +9390,13 @@
         <v>15</v>
       </c>
       <c r="M209" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N209" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O209" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W209" s="3"/>
       <c r="Y209" s="2"/>
@@ -9365,13 +9428,13 @@
         <v>4</v>
       </c>
       <c r="M210" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N210" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O210" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W210" s="3"/>
       <c r="Y210" s="2"/>
@@ -9412,10 +9475,10 @@
         <v>1</v>
       </c>
       <c r="N211" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O211" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W211" s="3"/>
       <c r="Y211" s="2"/>
@@ -9450,13 +9513,13 @@
         <v>3</v>
       </c>
       <c r="M212" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N212" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O212" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W212" s="3"/>
       <c r="Y212" s="2"/>
@@ -9488,13 +9551,13 @@
         <v>15</v>
       </c>
       <c r="M213" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N213" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O213" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W213" s="3"/>
       <c r="Y213" s="2"/>
@@ -9535,10 +9598,10 @@
         <v>1</v>
       </c>
       <c r="N214" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O214" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W214" s="3"/>
       <c r="Y214" s="2"/>
@@ -9573,13 +9636,13 @@
         <v>1</v>
       </c>
       <c r="M215" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N215" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O215" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W215" s="3"/>
       <c r="Y215" s="2"/>
@@ -9608,10 +9671,10 @@
         <v>1</v>
       </c>
       <c r="N216" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O216" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W216" s="3"/>
       <c r="Y216" s="2"/>
@@ -9622,7 +9685,7 @@
         <v>117</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C217" s="3">
         <v>6984903370347</v>
@@ -9643,13 +9706,13 @@
         <v>6</v>
       </c>
       <c r="M217" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N217" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O217" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W217" s="3"/>
       <c r="Y217" s="2"/>
@@ -9678,10 +9741,10 @@
         <v>1</v>
       </c>
       <c r="N218" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O218" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="219" spans="1:26" x14ac:dyDescent="0.2">
@@ -9743,10 +9806,10 @@
         <v>116</v>
       </c>
       <c r="N232" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O232" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="233" spans="1:26" x14ac:dyDescent="0.2">
@@ -9769,10 +9832,10 @@
         <v>24</v>
       </c>
       <c r="N233" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O233" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="234" spans="1:26" x14ac:dyDescent="0.2">
@@ -9807,10 +9870,10 @@
         <v>1</v>
       </c>
       <c r="N234" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O234" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="235" spans="1:26" x14ac:dyDescent="0.2">
@@ -9845,10 +9908,10 @@
         <v>1</v>
       </c>
       <c r="N235" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O235" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="236" spans="1:26" x14ac:dyDescent="0.2">
@@ -9883,10 +9946,10 @@
         <v>1</v>
       </c>
       <c r="N236" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O236" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="237" spans="1:26" x14ac:dyDescent="0.2">
@@ -9918,13 +9981,13 @@
         <v>1</v>
       </c>
       <c r="M237" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N237" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O237" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="238" spans="1:26" x14ac:dyDescent="0.2">
@@ -9956,13 +10019,13 @@
         <v>1</v>
       </c>
       <c r="M238" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N238" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O238" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W238" s="3"/>
       <c r="Y238" s="2"/>
@@ -10000,10 +10063,10 @@
         <v>166</v>
       </c>
       <c r="N239" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O239" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W239" s="3"/>
       <c r="Y239" s="2"/>
@@ -10035,10 +10098,10 @@
         <v>1</v>
       </c>
       <c r="N240" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O240" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W240" s="3"/>
       <c r="Y240" s="2"/>
@@ -10079,13 +10142,13 @@
         <v>20</v>
       </c>
       <c r="M241" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="N241" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O241" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W241" s="3"/>
       <c r="Y241" s="2"/>
@@ -10111,13 +10174,13 @@
         <v>161</v>
       </c>
       <c r="M242" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N242" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O242" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W242" s="3"/>
       <c r="Y242" s="2"/>
@@ -10155,10 +10218,10 @@
         <v>1</v>
       </c>
       <c r="N243" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O243" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W243" s="3"/>
       <c r="Y243" s="2"/>
@@ -10196,10 +10259,10 @@
         <v>1</v>
       </c>
       <c r="N244" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O244" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W244" s="3"/>
       <c r="Y244" s="2"/>
@@ -10240,10 +10303,10 @@
         <v>1</v>
       </c>
       <c r="N245" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O245" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W245" s="3"/>
       <c r="Y245" s="2"/>
@@ -10260,7 +10323,7 @@
         <v>6978993354678</v>
       </c>
       <c r="D246" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E246" s="2">
         <v>43216.490277777775</v>
@@ -10284,10 +10347,10 @@
         <v>2</v>
       </c>
       <c r="N246" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O246" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W246" s="3"/>
       <c r="Y246" s="2"/>
@@ -10304,7 +10367,7 @@
         <v>6978993354678</v>
       </c>
       <c r="D247" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E247" s="2">
         <v>43216.490277777775</v>
@@ -10325,10 +10388,10 @@
         <v>1</v>
       </c>
       <c r="N247" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O247" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W247" s="3"/>
       <c r="Y247" s="2"/>
@@ -10369,10 +10432,10 @@
         <v>1</v>
       </c>
       <c r="N248" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O248" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W248" s="3"/>
       <c r="Y248" s="2"/>
@@ -10410,10 +10473,10 @@
         <v>1</v>
       </c>
       <c r="N249" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O249" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W249" s="3"/>
       <c r="Y249" s="2"/>
@@ -10451,10 +10514,10 @@
         <v>1</v>
       </c>
       <c r="N250" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O250" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W250" s="3"/>
       <c r="Y250" s="2"/>
@@ -10480,10 +10543,10 @@
         <v>161</v>
       </c>
       <c r="N251" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O251" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W251" s="3"/>
       <c r="Y251" s="2"/>
@@ -10518,13 +10581,13 @@
         <v>2</v>
       </c>
       <c r="M252" t="s">
+        <v>416</v>
+      </c>
+      <c r="N252" t="s">
         <v>417</v>
       </c>
-      <c r="N252" t="s">
-        <v>418</v>
-      </c>
       <c r="O252" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W252" s="3"/>
       <c r="Y252" s="2"/>
@@ -10565,10 +10628,10 @@
         <v>1</v>
       </c>
       <c r="N253" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O253" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W253" s="3"/>
       <c r="Y253" s="2"/>
@@ -10609,10 +10672,10 @@
         <v>1</v>
       </c>
       <c r="N254" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O254" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W254" s="3"/>
       <c r="Y254" s="2"/>
@@ -10650,10 +10713,10 @@
         <v>1</v>
       </c>
       <c r="N255" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O255" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W255" s="3"/>
       <c r="Y255" s="2"/>
@@ -10691,10 +10754,10 @@
         <v>1</v>
       </c>
       <c r="N256" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O256" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W256" s="3"/>
       <c r="Y256" s="2"/>
@@ -10720,10 +10783,10 @@
         <v>51</v>
       </c>
       <c r="N257" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O257" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W257" s="3"/>
       <c r="Y257" s="2"/>
@@ -10758,13 +10821,13 @@
         <v>2</v>
       </c>
       <c r="M258" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N258" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O258" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W258" s="3"/>
       <c r="Y258" s="2"/>
@@ -10799,13 +10862,13 @@
         <v>2</v>
       </c>
       <c r="M259" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N259" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O259" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W259" s="3"/>
       <c r="Y259" s="2"/>
@@ -10846,10 +10909,10 @@
         <v>1</v>
       </c>
       <c r="N260" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O260" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W260" s="3"/>
       <c r="Y260" s="2"/>
@@ -10890,10 +10953,10 @@
         <v>3</v>
       </c>
       <c r="N261" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O261" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W261" s="3"/>
       <c r="Y261" s="2"/>
@@ -10934,10 +10997,10 @@
         <v>2</v>
       </c>
       <c r="N262" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O262" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W262" s="3"/>
       <c r="Y262" s="2"/>
@@ -10963,10 +11026,10 @@
         <v>51</v>
       </c>
       <c r="N263" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O263" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W263" s="3"/>
       <c r="Y263" s="2"/>
@@ -11007,10 +11070,10 @@
         <v>2</v>
       </c>
       <c r="N264" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O264" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="265" spans="1:26" x14ac:dyDescent="0.2">
@@ -11051,10 +11114,10 @@
         <v>166</v>
       </c>
       <c r="N265" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O265" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="268" spans="1:26" x14ac:dyDescent="0.2">
@@ -11138,10 +11201,10 @@
         <v>24</v>
       </c>
       <c r="N280" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O280" s="2" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.2">
@@ -11175,8 +11238,12 @@
       <c r="L281">
         <v>1</v>
       </c>
-      <c r="N281" s="2"/>
-      <c r="O281" s="2"/>
+      <c r="N281" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="O281" s="2" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
@@ -11209,8 +11276,12 @@
       <c r="L282">
         <v>1</v>
       </c>
-      <c r="N282" s="2"/>
-      <c r="O282" s="2"/>
+      <c r="N282" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="O282" s="2" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
@@ -11243,8 +11314,12 @@
       <c r="L283">
         <v>1</v>
       </c>
-      <c r="N283" s="2"/>
-      <c r="O283" s="2"/>
+      <c r="N283" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="O283" s="2" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
@@ -11265,8 +11340,12 @@
       <c r="F284" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="N284" s="2"/>
-      <c r="O284" s="2"/>
+      <c r="N284" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="O284" s="2" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
@@ -11287,8 +11366,12 @@
       <c r="F285" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N285" s="2"/>
-      <c r="O285" s="2"/>
+      <c r="N285" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="O285" s="2" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
@@ -11321,8 +11404,12 @@
       <c r="L286">
         <v>1</v>
       </c>
-      <c r="N286" s="2"/>
-      <c r="O286" s="2"/>
+      <c r="N286" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="O286" s="2" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
@@ -11343,8 +11430,12 @@
       <c r="F287" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N287" s="2"/>
-      <c r="O287" s="2"/>
+      <c r="N287" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="O287" s="2" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
@@ -11365,8 +11456,12 @@
       <c r="F288" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N288" s="2"/>
-      <c r="O288" s="2"/>
+      <c r="N288" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="O288" s="2" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="289" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
@@ -11388,13 +11483,15 @@
         <v>116</v>
       </c>
       <c r="N289" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="O289" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="O289" s="2" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="290" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>66</v>
@@ -11426,8 +11523,12 @@
       <c r="L290">
         <v>1</v>
       </c>
-      <c r="N290" s="2"/>
-      <c r="O290" s="2"/>
+      <c r="N290" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="O290" s="2" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="291" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
@@ -11463,8 +11564,12 @@
       <c r="L291">
         <v>1</v>
       </c>
-      <c r="N291" s="2"/>
-      <c r="O291" s="2"/>
+      <c r="N291" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="O291" s="2" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="292" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
@@ -11498,9 +11603,11 @@
         <v>1</v>
       </c>
       <c r="N292" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="O292" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="O292" s="2" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="293" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
@@ -11536,8 +11643,12 @@
       <c r="L293">
         <v>2</v>
       </c>
-      <c r="N293" s="2"/>
-      <c r="O293" s="2"/>
+      <c r="N293" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="O293" s="2" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="294" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
@@ -11573,8 +11684,12 @@
       <c r="L294">
         <v>3</v>
       </c>
-      <c r="N294" s="2"/>
-      <c r="O294" s="2"/>
+      <c r="N294" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="O294" s="2" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="295" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
@@ -11610,8 +11725,12 @@
       <c r="L295">
         <v>1</v>
       </c>
-      <c r="N295" s="2"/>
-      <c r="O295" s="2"/>
+      <c r="N295" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="O295" s="2" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="296" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
@@ -11632,8 +11751,12 @@
       <c r="F296" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N296" s="2"/>
-      <c r="O296" s="2"/>
+      <c r="N296" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="O296" s="2" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="297" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
@@ -11654,7 +11777,12 @@
       <c r="F297" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="N297" s="2"/>
+      <c r="N297" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="O297" s="2" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="298" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
@@ -11687,7 +11815,12 @@
       <c r="L298">
         <v>1</v>
       </c>
-      <c r="N298" s="2"/>
+      <c r="N298" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="O298" s="2" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="299" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
@@ -11724,7 +11857,10 @@
         <v>1</v>
       </c>
       <c r="N299" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
+      </c>
+      <c r="O299" s="2" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="300" spans="1:16" x14ac:dyDescent="0.2">
@@ -11761,7 +11897,12 @@
       <c r="L300">
         <v>1</v>
       </c>
-      <c r="N300" s="2"/>
+      <c r="N300" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="O300" s="2" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="301" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
@@ -11797,6 +11938,12 @@
       <c r="L301">
         <v>3</v>
       </c>
+      <c r="N301" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="O301" s="2" t="s">
+        <v>435</v>
+      </c>
       <c r="P301" s="2"/>
     </row>
     <row r="302" spans="1:16" x14ac:dyDescent="0.2">
@@ -11834,7 +11981,13 @@
         <v>1</v>
       </c>
       <c r="M302" t="s">
-        <v>428</v>
+        <v>426</v>
+      </c>
+      <c r="N302" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="O302" s="2" t="s">
+        <v>435</v>
       </c>
       <c r="P302" s="2"/>
     </row>
@@ -11872,6 +12025,12 @@
       <c r="L303">
         <v>1</v>
       </c>
+      <c r="N303" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="O303" s="2" t="s">
+        <v>435</v>
+      </c>
       <c r="P303" s="2"/>
     </row>
     <row r="304" spans="1:16" x14ac:dyDescent="0.2">
@@ -11894,12 +12053,14 @@
         <v>161</v>
       </c>
       <c r="M304" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="N304" t="s">
-        <v>430</v>
-      </c>
-      <c r="O304" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="O304" s="2" t="s">
+        <v>435</v>
+      </c>
       <c r="P304" s="2"/>
     </row>
     <row r="305" spans="1:16" x14ac:dyDescent="0.2">
@@ -11937,9 +12098,14 @@
         <v>2</v>
       </c>
       <c r="M305" t="s">
-        <v>431</v>
-      </c>
-      <c r="O305" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="N305" t="s">
+        <v>428</v>
+      </c>
+      <c r="O305" s="2" t="s">
+        <v>435</v>
+      </c>
       <c r="P305" s="2"/>
     </row>
     <row r="306" spans="1:16" x14ac:dyDescent="0.2">
@@ -11976,7 +12142,12 @@
       <c r="L306">
         <v>15</v>
       </c>
-      <c r="O306" s="2"/>
+      <c r="N306" t="s">
+        <v>428</v>
+      </c>
+      <c r="O306" s="2" t="s">
+        <v>435</v>
+      </c>
       <c r="P306" s="2"/>
     </row>
     <row r="307" spans="1:16" x14ac:dyDescent="0.2">
@@ -12010,7 +12181,12 @@
       <c r="L307">
         <v>1</v>
       </c>
-      <c r="O307" s="2"/>
+      <c r="N307" t="s">
+        <v>428</v>
+      </c>
+      <c r="O307" s="2" t="s">
+        <v>435</v>
+      </c>
       <c r="P307" s="2"/>
     </row>
     <row r="308" spans="1:16" x14ac:dyDescent="0.2">
@@ -12018,13 +12194,13 @@
         <v>125</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C308" s="3">
         <v>6984145357456</v>
       </c>
       <c r="D308" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E308" s="2">
         <v>43217.541666666664</v>
@@ -12048,9 +12224,14 @@
         <v>2</v>
       </c>
       <c r="M308" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="N308" t="s">
+        <v>434</v>
+      </c>
+      <c r="O308" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="O308" s="2"/>
       <c r="P308" s="2"/>
     </row>
     <row r="309" spans="1:16" x14ac:dyDescent="0.2">
@@ -12079,9 +12260,14 @@
         <v>4</v>
       </c>
       <c r="M309" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="O309" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="N309" t="s">
+        <v>434</v>
+      </c>
+      <c r="O309" s="2" t="s">
+        <v>435</v>
+      </c>
       <c r="P309" s="2"/>
     </row>
     <row r="310" spans="1:16" x14ac:dyDescent="0.2">
@@ -12128,7 +12314,12 @@
         <v>24</v>
       </c>
       <c r="M314" s="3"/>
-      <c r="O314" s="2"/>
+      <c r="N314" t="s">
+        <v>436</v>
+      </c>
+      <c r="O314" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="P314" s="2"/>
     </row>
     <row r="315" spans="1:16" x14ac:dyDescent="0.2">
@@ -12147,9 +12338,22 @@
       <c r="E315" s="2">
         <v>43220.384027777778</v>
       </c>
-      <c r="F315" s="2"/>
+      <c r="F315" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J315" t="s">
+        <v>16</v>
+      </c>
+      <c r="L315">
+        <v>1</v>
+      </c>
       <c r="M315" s="3"/>
-      <c r="O315" s="2"/>
+      <c r="N315" t="s">
+        <v>436</v>
+      </c>
+      <c r="O315" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="P315" s="2"/>
     </row>
     <row r="316" spans="1:16" x14ac:dyDescent="0.2">
@@ -12168,9 +12372,16 @@
       <c r="E316" s="2">
         <v>43220.38958333333</v>
       </c>
-      <c r="F316" s="2"/>
+      <c r="F316" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="M316" s="3"/>
-      <c r="O316" s="2"/>
+      <c r="N316" t="s">
+        <v>436</v>
+      </c>
+      <c r="O316" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="P316" s="2"/>
     </row>
     <row r="317" spans="1:16" x14ac:dyDescent="0.2">
@@ -12189,9 +12400,22 @@
       <c r="E317" s="2">
         <v>43220.393055555556</v>
       </c>
-      <c r="F317" s="2"/>
+      <c r="F317" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J317" t="s">
+        <v>16</v>
+      </c>
+      <c r="L317">
+        <v>4</v>
+      </c>
       <c r="M317" s="3"/>
-      <c r="O317" s="2"/>
+      <c r="N317" t="s">
+        <v>441</v>
+      </c>
+      <c r="O317" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="P317" s="2"/>
     </row>
     <row r="318" spans="1:16" x14ac:dyDescent="0.2">
@@ -12210,9 +12434,22 @@
       <c r="E318" s="2">
         <v>43220.415277777778</v>
       </c>
-      <c r="F318" s="2"/>
+      <c r="F318" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J318" t="s">
+        <v>16</v>
+      </c>
+      <c r="L318">
+        <v>1</v>
+      </c>
       <c r="M318" s="3"/>
-      <c r="O318" s="2"/>
+      <c r="N318" t="s">
+        <v>441</v>
+      </c>
+      <c r="O318" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="P318" s="2"/>
     </row>
     <row r="319" spans="1:16" x14ac:dyDescent="0.2">
@@ -12231,9 +12468,28 @@
       <c r="E319" s="2">
         <v>43220.418055555558</v>
       </c>
-      <c r="F319" s="2"/>
+      <c r="F319" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G319">
+        <v>2.78</v>
+      </c>
+      <c r="H319">
+        <v>270</v>
+      </c>
+      <c r="J319" t="s">
+        <v>16</v>
+      </c>
+      <c r="L319">
+        <v>1</v>
+      </c>
       <c r="M319" s="3"/>
-      <c r="O319" s="2"/>
+      <c r="N319" t="s">
+        <v>441</v>
+      </c>
+      <c r="O319" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="P319" s="2"/>
     </row>
     <row r="320" spans="1:16" x14ac:dyDescent="0.2">
@@ -12252,9 +12508,22 @@
       <c r="E320" s="2">
         <v>43220.422222222223</v>
       </c>
-      <c r="F320" s="2"/>
+      <c r="F320" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J320" t="s">
+        <v>16</v>
+      </c>
+      <c r="L320">
+        <v>2</v>
+      </c>
       <c r="M320" s="3"/>
-      <c r="O320" s="2"/>
+      <c r="N320" t="s">
+        <v>441</v>
+      </c>
+      <c r="O320" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="P320" s="2"/>
     </row>
     <row r="321" spans="1:16" x14ac:dyDescent="0.2">
@@ -12273,9 +12542,22 @@
       <c r="E321" s="2">
         <v>43220.424305555556</v>
       </c>
-      <c r="F321" s="2"/>
+      <c r="F321" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J321" t="s">
+        <v>15</v>
+      </c>
+      <c r="L321">
+        <v>3</v>
+      </c>
       <c r="M321" s="3"/>
-      <c r="O321" s="2"/>
+      <c r="N321" t="s">
+        <v>441</v>
+      </c>
+      <c r="O321" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="P321" s="2"/>
     </row>
     <row r="322" spans="1:16" x14ac:dyDescent="0.2">
@@ -12294,9 +12576,22 @@
       <c r="E322" s="2">
         <v>43220.425694444442</v>
       </c>
-      <c r="F322" s="2"/>
+      <c r="F322" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J322" t="s">
+        <v>15</v>
+      </c>
+      <c r="L322">
+        <v>3</v>
+      </c>
       <c r="M322" s="3"/>
-      <c r="O322" s="2"/>
+      <c r="N322" t="s">
+        <v>441</v>
+      </c>
+      <c r="O322" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="P322" s="2"/>
     </row>
     <row r="323" spans="1:16" x14ac:dyDescent="0.2">
@@ -12315,9 +12610,22 @@
       <c r="E323" s="2">
         <v>43220.427777777775</v>
       </c>
-      <c r="F323" s="2"/>
+      <c r="F323" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J323" t="s">
+        <v>15</v>
+      </c>
+      <c r="L323">
+        <v>2</v>
+      </c>
       <c r="M323" s="3"/>
-      <c r="O323" s="2"/>
+      <c r="N323" t="s">
+        <v>441</v>
+      </c>
+      <c r="O323" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="P323" s="2"/>
     </row>
     <row r="324" spans="1:16" x14ac:dyDescent="0.2">
@@ -12336,9 +12644,33 @@
       <c r="E324" s="2">
         <v>43220.432638888888</v>
       </c>
-      <c r="F324" s="2"/>
-      <c r="M324" s="3"/>
-      <c r="O324" s="2"/>
+      <c r="F324" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G324">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H324">
+        <v>90</v>
+      </c>
+      <c r="J324" t="s">
+        <v>10</v>
+      </c>
+      <c r="K324">
+        <v>1</v>
+      </c>
+      <c r="L324">
+        <v>1</v>
+      </c>
+      <c r="M324" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="N324" t="s">
+        <v>441</v>
+      </c>
+      <c r="O324" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="P324" s="2"/>
     </row>
     <row r="325" spans="1:16" x14ac:dyDescent="0.2">
@@ -12357,9 +12689,22 @@
       <c r="E325" s="2">
         <v>43220.43472222222</v>
       </c>
-      <c r="F325" s="2"/>
+      <c r="F325" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J325" t="s">
+        <v>15</v>
+      </c>
+      <c r="L325">
+        <v>1</v>
+      </c>
       <c r="M325" s="3"/>
-      <c r="O325" s="2"/>
+      <c r="N325" t="s">
+        <v>441</v>
+      </c>
+      <c r="O325" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="P325" s="2"/>
     </row>
     <row r="326" spans="1:16" x14ac:dyDescent="0.2">
@@ -12378,9 +12723,22 @@
       <c r="E326" s="2">
         <v>43220.4375</v>
       </c>
-      <c r="F326" s="2"/>
+      <c r="F326" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J326" t="s">
+        <v>16</v>
+      </c>
+      <c r="L326">
+        <v>1</v>
+      </c>
       <c r="M326" s="3"/>
-      <c r="O326" s="2"/>
+      <c r="N326" t="s">
+        <v>441</v>
+      </c>
+      <c r="O326" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="P326" s="2"/>
     </row>
     <row r="327" spans="1:16" x14ac:dyDescent="0.2">
@@ -12399,9 +12757,31 @@
       <c r="E327" s="2">
         <v>43220.441666666666</v>
       </c>
-      <c r="F327" s="2"/>
+      <c r="F327" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G327">
+        <v>110</v>
+      </c>
+      <c r="H327">
+        <v>168</v>
+      </c>
+      <c r="I327" t="s">
+        <v>154</v>
+      </c>
+      <c r="J327" t="s">
+        <v>10</v>
+      </c>
+      <c r="L327">
+        <v>1</v>
+      </c>
       <c r="M327" s="3"/>
-      <c r="O327" s="2"/>
+      <c r="N327" t="s">
+        <v>441</v>
+      </c>
+      <c r="O327" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="P327" s="2"/>
     </row>
     <row r="328" spans="1:16" x14ac:dyDescent="0.2">
@@ -12420,9 +12800,28 @@
       <c r="E328" s="2">
         <v>43220.443055555559</v>
       </c>
-      <c r="F328" s="2"/>
+      <c r="F328" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G328">
+        <v>3.72</v>
+      </c>
+      <c r="H328">
+        <v>270</v>
+      </c>
+      <c r="J328" t="s">
+        <v>15</v>
+      </c>
+      <c r="L328">
+        <v>2</v>
+      </c>
       <c r="M328" s="3"/>
-      <c r="O328" s="2"/>
+      <c r="N328" t="s">
+        <v>441</v>
+      </c>
+      <c r="O328" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="P328" s="2"/>
     </row>
     <row r="329" spans="1:16" x14ac:dyDescent="0.2">
@@ -12441,8 +12840,28 @@
       <c r="E329" s="2">
         <v>43220.445138888892</v>
       </c>
+      <c r="F329" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G329">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="H329">
+        <v>90</v>
+      </c>
+      <c r="J329" t="s">
+        <v>16</v>
+      </c>
+      <c r="L329">
+        <v>1</v>
+      </c>
       <c r="M329" s="3"/>
-      <c r="O329" s="2"/>
+      <c r="N329" t="s">
+        <v>441</v>
+      </c>
+      <c r="O329" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="P329" s="2"/>
     </row>
     <row r="330" spans="1:16" x14ac:dyDescent="0.2">
@@ -12461,8 +12880,22 @@
       <c r="E330" s="2">
         <v>43220.448611111111</v>
       </c>
+      <c r="F330" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J330" t="s">
+        <v>15</v>
+      </c>
+      <c r="L330">
+        <v>5</v>
+      </c>
       <c r="M330" s="3"/>
-      <c r="O330" s="2"/>
+      <c r="N330" t="s">
+        <v>441</v>
+      </c>
+      <c r="O330" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="P330" s="2"/>
     </row>
     <row r="331" spans="1:16" x14ac:dyDescent="0.2">
@@ -12481,8 +12914,22 @@
       <c r="E331" s="2">
         <v>43220.45208333333</v>
       </c>
+      <c r="F331" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J331" t="s">
+        <v>16</v>
+      </c>
+      <c r="L331">
+        <v>2</v>
+      </c>
       <c r="M331" s="3"/>
-      <c r="O331" s="2"/>
+      <c r="N331" t="s">
+        <v>441</v>
+      </c>
+      <c r="O331" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="332" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
@@ -12500,8 +12947,22 @@
       <c r="E332" s="2">
         <v>43220.45416666667</v>
       </c>
+      <c r="F332" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J332" t="s">
+        <v>15</v>
+      </c>
+      <c r="L332">
+        <v>3</v>
+      </c>
       <c r="M332" s="3"/>
-      <c r="O332" s="2"/>
+      <c r="N332" t="s">
+        <v>441</v>
+      </c>
+      <c r="O332" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="333" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
@@ -12519,8 +12980,16 @@
       <c r="E333" s="2">
         <v>43220.455555555556</v>
       </c>
+      <c r="F333" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="M333" s="3"/>
-      <c r="O333" s="2"/>
+      <c r="N333" t="s">
+        <v>441</v>
+      </c>
+      <c r="O333" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="334" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
@@ -12538,7 +13007,22 @@
       <c r="E334" s="2">
         <v>43220.482638888891</v>
       </c>
+      <c r="F334" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J334" t="s">
+        <v>15</v>
+      </c>
+      <c r="L334">
+        <v>3</v>
+      </c>
       <c r="M334" s="3"/>
+      <c r="N334" t="s">
+        <v>441</v>
+      </c>
+      <c r="O334" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="335" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
@@ -12556,7 +13040,24 @@
       <c r="E335" s="2">
         <v>43220.486805555556</v>
       </c>
-      <c r="M335" s="3"/>
+      <c r="F335" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J335" t="s">
+        <v>16</v>
+      </c>
+      <c r="L335">
+        <v>2</v>
+      </c>
+      <c r="M335" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="N335" t="s">
+        <v>441</v>
+      </c>
+      <c r="O335" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="336" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
@@ -12574,7 +13075,22 @@
       <c r="E336" s="2">
         <v>43220.488888888889</v>
       </c>
+      <c r="F336" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J336" t="s">
+        <v>15</v>
+      </c>
+      <c r="L336">
+        <v>2</v>
+      </c>
       <c r="M336" s="3"/>
+      <c r="N336" t="s">
+        <v>441</v>
+      </c>
+      <c r="O336" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
@@ -12592,7 +13108,22 @@
       <c r="E337" s="2">
         <v>43220.490277777775</v>
       </c>
+      <c r="F337" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J337" t="s">
+        <v>16</v>
+      </c>
+      <c r="L337">
+        <v>2</v>
+      </c>
       <c r="M337" s="3"/>
+      <c r="N337" t="s">
+        <v>441</v>
+      </c>
+      <c r="O337" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
@@ -12610,6 +13141,24 @@
       <c r="E338" s="2">
         <v>43220.493055555555</v>
       </c>
+      <c r="F338" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J338" t="s">
+        <v>16</v>
+      </c>
+      <c r="L338">
+        <v>1</v>
+      </c>
+      <c r="M338" t="s">
+        <v>439</v>
+      </c>
+      <c r="N338" t="s">
+        <v>441</v>
+      </c>
+      <c r="O338" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
@@ -12627,6 +13176,21 @@
       <c r="E339" s="2">
         <v>43220.49722222222</v>
       </c>
+      <c r="F339" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J339" t="s">
+        <v>15</v>
+      </c>
+      <c r="L339">
+        <v>1</v>
+      </c>
+      <c r="N339" t="s">
+        <v>441</v>
+      </c>
+      <c r="O339" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
@@ -12644,7 +13208,21 @@
       <c r="E340" s="2">
         <v>43220.503472222219</v>
       </c>
-      <c r="O340" s="2"/>
+      <c r="F340" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J340" t="s">
+        <v>15</v>
+      </c>
+      <c r="L340">
+        <v>1</v>
+      </c>
+      <c r="N340" t="s">
+        <v>441</v>
+      </c>
+      <c r="O340" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
@@ -12662,7 +13240,15 @@
       <c r="E341" s="2">
         <v>43220.506249999999</v>
       </c>
-      <c r="O341" s="2"/>
+      <c r="F341" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N341" t="s">
+        <v>441</v>
+      </c>
+      <c r="O341" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
@@ -12680,7 +13266,15 @@
       <c r="E342" s="2">
         <v>43220.508333333331</v>
       </c>
-      <c r="O342" s="2"/>
+      <c r="F342" t="s">
+        <v>51</v>
+      </c>
+      <c r="N342" t="s">
+        <v>441</v>
+      </c>
+      <c r="O342" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
@@ -12698,7 +13292,15 @@
       <c r="E343" s="2">
         <v>43220.509722222225</v>
       </c>
-      <c r="O343" s="2"/>
+      <c r="F343" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N343" t="s">
+        <v>441</v>
+      </c>
+      <c r="O343" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
@@ -12716,9 +13318,21 @@
       <c r="E344" s="2">
         <v>43220.513194444444</v>
       </c>
-      <c r="L344" s="3"/>
-      <c r="N344" s="2"/>
-      <c r="O344" s="2"/>
+      <c r="F344" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J344" t="s">
+        <v>16</v>
+      </c>
+      <c r="L344" s="3">
+        <v>2</v>
+      </c>
+      <c r="N344" t="s">
+        <v>441</v>
+      </c>
+      <c r="O344" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
@@ -12736,9 +13350,21 @@
       <c r="E345" s="2">
         <v>43220.515277777777</v>
       </c>
-      <c r="L345" s="3"/>
-      <c r="N345" s="2"/>
-      <c r="O345" s="2"/>
+      <c r="F345" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J345" t="s">
+        <v>15</v>
+      </c>
+      <c r="L345" s="3">
+        <v>2</v>
+      </c>
+      <c r="N345" t="s">
+        <v>441</v>
+      </c>
+      <c r="O345" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
@@ -12756,9 +13382,24 @@
       <c r="E346" s="2">
         <v>43220.525694444441</v>
       </c>
-      <c r="L346" s="3"/>
-      <c r="N346" s="2"/>
-      <c r="O346" s="2"/>
+      <c r="F346" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J346" t="s">
+        <v>15</v>
+      </c>
+      <c r="L346" s="3">
+        <v>2</v>
+      </c>
+      <c r="M346" t="s">
+        <v>440</v>
+      </c>
+      <c r="N346" t="s">
+        <v>441</v>
+      </c>
+      <c r="O346" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
@@ -12776,9 +13417,30 @@
       <c r="E347" s="2">
         <v>43220.52847222222</v>
       </c>
-      <c r="L347" s="3"/>
-      <c r="N347" s="2"/>
-      <c r="O347" s="2"/>
+      <c r="F347" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G347">
+        <v>7</v>
+      </c>
+      <c r="H347">
+        <v>20</v>
+      </c>
+      <c r="I347" t="s">
+        <v>153</v>
+      </c>
+      <c r="J347" t="s">
+        <v>10</v>
+      </c>
+      <c r="L347" s="3">
+        <v>2</v>
+      </c>
+      <c r="N347" t="s">
+        <v>441</v>
+      </c>
+      <c r="O347" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
@@ -12796,9 +13458,24 @@
       <c r="E348" s="2">
         <v>43220.53125</v>
       </c>
-      <c r="L348" s="3"/>
-      <c r="N348" s="2"/>
-      <c r="O348" s="2"/>
+      <c r="F348" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J348" t="s">
+        <v>16</v>
+      </c>
+      <c r="L348" s="3">
+        <v>3</v>
+      </c>
+      <c r="M348" t="s">
+        <v>440</v>
+      </c>
+      <c r="N348" t="s">
+        <v>441</v>
+      </c>
+      <c r="O348" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
@@ -12816,9 +13493,24 @@
       <c r="E349" s="2">
         <v>43220.536111111112</v>
       </c>
-      <c r="L349" s="3"/>
-      <c r="N349" s="2"/>
-      <c r="O349" s="2"/>
+      <c r="F349" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G349">
+        <v>1.27</v>
+      </c>
+      <c r="H349">
+        <v>270</v>
+      </c>
+      <c r="L349" s="3">
+        <v>1</v>
+      </c>
+      <c r="N349" t="s">
+        <v>441</v>
+      </c>
+      <c r="O349" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
@@ -12836,9 +13528,21 @@
       <c r="E350" s="2">
         <v>43220.539583333331</v>
       </c>
-      <c r="L350" s="3"/>
-      <c r="N350" s="2"/>
-      <c r="O350" s="2"/>
+      <c r="F350" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J350" t="s">
+        <v>15</v>
+      </c>
+      <c r="L350" s="3">
+        <v>1</v>
+      </c>
+      <c r="N350" t="s">
+        <v>441</v>
+      </c>
+      <c r="O350" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
@@ -12856,9 +13560,27 @@
       <c r="E351" s="2">
         <v>43220.542361111111</v>
       </c>
-      <c r="L351" s="3"/>
-      <c r="N351" s="2"/>
-      <c r="O351" s="2"/>
+      <c r="F351" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J351" t="s">
+        <v>10</v>
+      </c>
+      <c r="K351">
+        <v>1</v>
+      </c>
+      <c r="L351" s="3">
+        <v>3</v>
+      </c>
+      <c r="M351" t="s">
+        <v>23</v>
+      </c>
+      <c r="N351" t="s">
+        <v>441</v>
+      </c>
+      <c r="O351" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
@@ -12876,9 +13598,27 @@
       <c r="E352" s="2">
         <v>43220.544444444444</v>
       </c>
-      <c r="L352" s="3"/>
-      <c r="N352" s="2"/>
-      <c r="O352" s="2"/>
+      <c r="F352" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J352" t="s">
+        <v>10</v>
+      </c>
+      <c r="K352">
+        <v>1</v>
+      </c>
+      <c r="L352" s="3">
+        <v>1</v>
+      </c>
+      <c r="M352" t="s">
+        <v>23</v>
+      </c>
+      <c r="N352" t="s">
+        <v>441</v>
+      </c>
+      <c r="O352" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
@@ -12896,9 +13636,27 @@
       <c r="E353" s="2">
         <v>43220.55</v>
       </c>
-      <c r="L353" s="3"/>
-      <c r="N353" s="2"/>
-      <c r="O353" s="2"/>
+      <c r="F353" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G353">
+        <v>1.68</v>
+      </c>
+      <c r="H353">
+        <v>90</v>
+      </c>
+      <c r="J353" t="s">
+        <v>15</v>
+      </c>
+      <c r="L353" s="3">
+        <v>1</v>
+      </c>
+      <c r="N353" t="s">
+        <v>441</v>
+      </c>
+      <c r="O353" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
@@ -12916,9 +13674,16 @@
       <c r="E354" s="2">
         <v>43220.552777777775</v>
       </c>
+      <c r="F354" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="L354" s="3"/>
-      <c r="N354" s="2"/>
-      <c r="O354" s="2"/>
+      <c r="N354" t="s">
+        <v>441</v>
+      </c>
+      <c r="O354" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
@@ -12936,9 +13701,21 @@
       <c r="E355" s="2">
         <v>43220.55972222222</v>
       </c>
-      <c r="L355" s="3"/>
-      <c r="N355" s="2"/>
-      <c r="O355" s="2"/>
+      <c r="F355" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J355" t="s">
+        <v>15</v>
+      </c>
+      <c r="L355" s="3">
+        <v>2</v>
+      </c>
+      <c r="N355" t="s">
+        <v>441</v>
+      </c>
+      <c r="O355" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
@@ -12956,9 +13733,30 @@
       <c r="E356" s="2">
         <v>43220.577777777777</v>
       </c>
-      <c r="L356" s="3"/>
-      <c r="N356" s="2"/>
-      <c r="O356" s="2"/>
+      <c r="F356" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G356">
+        <v>7</v>
+      </c>
+      <c r="H356">
+        <v>158</v>
+      </c>
+      <c r="I356" t="s">
+        <v>153</v>
+      </c>
+      <c r="J356" t="s">
+        <v>15</v>
+      </c>
+      <c r="L356" s="3">
+        <v>1</v>
+      </c>
+      <c r="N356" t="s">
+        <v>441</v>
+      </c>
+      <c r="O356" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
@@ -12976,9 +13774,21 @@
       <c r="E357" s="2">
         <v>43220.580555555556</v>
       </c>
-      <c r="L357" s="3"/>
-      <c r="N357" s="2"/>
-      <c r="O357" s="2"/>
+      <c r="F357" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J357" t="s">
+        <v>15</v>
+      </c>
+      <c r="L357" s="3">
+        <v>4</v>
+      </c>
+      <c r="N357" t="s">
+        <v>441</v>
+      </c>
+      <c r="O357" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
@@ -12996,9 +13806,21 @@
       <c r="E358" s="2">
         <v>43220.63958333333</v>
       </c>
-      <c r="L358" s="3"/>
-      <c r="N358" s="2"/>
-      <c r="O358" s="2"/>
+      <c r="F358" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J358" t="s">
+        <v>15</v>
+      </c>
+      <c r="L358" s="3">
+        <v>2</v>
+      </c>
+      <c r="N358" t="s">
+        <v>441</v>
+      </c>
+      <c r="O358" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
@@ -13016,9 +13838,21 @@
       <c r="E359" s="2">
         <v>43220.64166666667</v>
       </c>
-      <c r="L359" s="3"/>
-      <c r="N359" s="2"/>
-      <c r="O359" s="2"/>
+      <c r="F359" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J359" t="s">
+        <v>15</v>
+      </c>
+      <c r="L359" s="3">
+        <v>2</v>
+      </c>
+      <c r="N359" t="s">
+        <v>441</v>
+      </c>
+      <c r="O359" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
@@ -13036,9 +13870,21 @@
       <c r="E360" s="2">
         <v>43220.643750000003</v>
       </c>
-      <c r="L360" s="3"/>
-      <c r="N360" s="2"/>
-      <c r="O360" s="2"/>
+      <c r="F360" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J360" t="s">
+        <v>16</v>
+      </c>
+      <c r="L360" s="3">
+        <v>2</v>
+      </c>
+      <c r="N360" t="s">
+        <v>441</v>
+      </c>
+      <c r="O360" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
@@ -13056,9 +13902,21 @@
       <c r="E361" s="2">
         <v>43220.648611111108</v>
       </c>
-      <c r="L361" s="3"/>
-      <c r="N361" s="2"/>
-      <c r="O361" s="2"/>
+      <c r="F361" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J361" t="s">
+        <v>16</v>
+      </c>
+      <c r="L361" s="3">
+        <v>1</v>
+      </c>
+      <c r="N361" t="s">
+        <v>441</v>
+      </c>
+      <c r="O361" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
@@ -13076,9 +13934,21 @@
       <c r="E362" s="2">
         <v>43220.650694444441</v>
       </c>
-      <c r="L362" s="3"/>
-      <c r="N362" s="2"/>
-      <c r="O362" s="2"/>
+      <c r="F362" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J362" t="s">
+        <v>16</v>
+      </c>
+      <c r="L362" s="3">
+        <v>5</v>
+      </c>
+      <c r="N362" t="s">
+        <v>441</v>
+      </c>
+      <c r="O362" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
@@ -13096,166 +13966,58 @@
       <c r="E363" s="2">
         <v>43220.654861111114</v>
       </c>
-      <c r="L363" s="3"/>
-      <c r="N363" s="2"/>
-      <c r="O363" s="2"/>
+      <c r="F363" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J363" t="s">
+        <v>15</v>
+      </c>
+      <c r="L363" s="3">
+        <v>1</v>
+      </c>
+      <c r="N363" t="s">
+        <v>441</v>
+      </c>
+      <c r="O363" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="364" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A364" t="s">
-        <v>149</v>
-      </c>
-      <c r="B364" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C364" s="3">
-        <v>7004400359209</v>
-      </c>
-      <c r="D364" t="s">
-        <v>333</v>
-      </c>
-      <c r="E364" s="2">
-        <v>43221.29583333333</v>
-      </c>
       <c r="L364" s="3"/>
       <c r="N364" s="2"/>
       <c r="O364" s="2"/>
     </row>
     <row r="365" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A365" t="s">
-        <v>149</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C365" s="3">
-        <v>7003918358291</v>
-      </c>
-      <c r="D365" t="s">
-        <v>321</v>
-      </c>
-      <c r="E365" s="2">
-        <v>43221.315972222219</v>
-      </c>
       <c r="L365" s="3"/>
       <c r="N365" s="2"/>
       <c r="O365" s="2"/>
     </row>
     <row r="366" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A366" t="s">
-        <v>149</v>
-      </c>
-      <c r="B366" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C366" s="3">
-        <v>7003782358005</v>
-      </c>
-      <c r="D366" t="s">
-        <v>325</v>
-      </c>
-      <c r="E366" s="2">
-        <v>43221.322222222225</v>
-      </c>
       <c r="L366" s="3"/>
       <c r="N366" s="2"/>
       <c r="O366" s="2"/>
     </row>
     <row r="367" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A367" t="s">
-        <v>149</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C367" s="3">
-        <v>7003733357829</v>
-      </c>
-      <c r="D367" t="s">
-        <v>334</v>
-      </c>
-      <c r="E367" s="2">
-        <v>43221.325694444444</v>
-      </c>
       <c r="L367" s="3"/>
       <c r="N367" s="2"/>
       <c r="O367" s="2"/>
     </row>
     <row r="368" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A368" t="s">
-        <v>149</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C368" s="3">
-        <v>7003632357578</v>
-      </c>
-      <c r="D368" t="s">
-        <v>313</v>
-      </c>
-      <c r="E368" s="2">
-        <v>43221.329861111109</v>
-      </c>
       <c r="L368" s="3"/>
       <c r="N368" s="2"/>
       <c r="O368" s="2"/>
     </row>
     <row r="369" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A369" t="s">
-        <v>149</v>
-      </c>
-      <c r="B369" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C369" s="3">
-        <v>7002949356265</v>
-      </c>
-      <c r="D369" t="s">
-        <v>335</v>
-      </c>
-      <c r="E369" s="2">
-        <v>43221.34375</v>
-      </c>
       <c r="L369" s="3"/>
       <c r="N369" s="2"/>
       <c r="O369" s="2"/>
     </row>
     <row r="370" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A370" t="s">
-        <v>149</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C370" s="3">
-        <v>7002812355949</v>
-      </c>
-      <c r="D370" t="s">
-        <v>336</v>
-      </c>
-      <c r="E370" s="2">
-        <v>43221.348611111112</v>
-      </c>
       <c r="L370" s="3"/>
       <c r="N370" s="2"/>
       <c r="O370" s="2"/>
     </row>
     <row r="371" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A371" t="s">
-        <v>149</v>
-      </c>
-      <c r="B371" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C371" s="3">
-        <v>7002785355789</v>
-      </c>
-      <c r="D371" t="s">
-        <v>337</v>
-      </c>
-      <c r="E371" s="2">
-        <v>43221.351388888892</v>
-      </c>
       <c r="L371" s="3"/>
       <c r="N371" s="2"/>
       <c r="O371" s="2"/>
@@ -13265,38 +14027,59 @@
         <v>149</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="C372" s="3">
-        <v>7002775355736</v>
+        <v>7004400359209</v>
       </c>
       <c r="D372" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E372" s="2">
-        <v>43221.354166666664</v>
+        <v>43221.29583333333</v>
+      </c>
+      <c r="F372" t="s">
+        <v>24</v>
       </c>
       <c r="L372" s="3"/>
-      <c r="N372" s="2"/>
-      <c r="O372" s="2"/>
+      <c r="N372" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="O372" s="2" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>149</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C373" s="3">
-        <v>7002767355630</v>
+        <v>7003918358291</v>
       </c>
       <c r="D373" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="E373" s="2">
-        <v>43221.375694444447</v>
-      </c>
-      <c r="L373" s="3"/>
+        <v>43221.315972222219</v>
+      </c>
+      <c r="F373" t="s">
+        <v>11</v>
+      </c>
+      <c r="J373" t="s">
+        <v>10</v>
+      </c>
+      <c r="K373">
+        <v>1</v>
+      </c>
+      <c r="L373" s="3">
+        <v>12</v>
+      </c>
+      <c r="M373" t="s">
+        <v>393</v>
+      </c>
       <c r="N373" s="2"/>
       <c r="O373" s="2"/>
     </row>
@@ -13305,18 +14088,32 @@
         <v>149</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C374" s="3">
-        <v>7003185355743</v>
+        <v>7003782358005</v>
       </c>
       <c r="D374" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="E374" s="2">
-        <v>43221.38958333333</v>
-      </c>
-      <c r="L374" s="3"/>
+        <v>43221.322222222225</v>
+      </c>
+      <c r="F374" t="s">
+        <v>11</v>
+      </c>
+      <c r="J374" t="s">
+        <v>16</v>
+      </c>
+      <c r="K374">
+        <v>1</v>
+      </c>
+      <c r="L374" s="3">
+        <v>2</v>
+      </c>
+      <c r="M374" t="s">
+        <v>419</v>
+      </c>
       <c r="N374" s="2"/>
       <c r="O374" s="2"/>
     </row>
@@ -13325,18 +14122,26 @@
         <v>149</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C375" s="3">
-        <v>7003537355760</v>
+        <v>7003733357829</v>
       </c>
       <c r="D375" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="E375" s="2">
-        <v>43221.397916666669</v>
-      </c>
-      <c r="L375" s="3"/>
+        <v>43221.325694444444</v>
+      </c>
+      <c r="F375" t="s">
+        <v>160</v>
+      </c>
+      <c r="J375" t="s">
+        <v>16</v>
+      </c>
+      <c r="L375" s="3">
+        <v>1</v>
+      </c>
       <c r="N375" s="2"/>
       <c r="O375" s="2"/>
     </row>
@@ -13345,18 +14150,29 @@
         <v>149</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C376" s="3">
-        <v>7003563355747</v>
+        <v>7003632357578</v>
       </c>
       <c r="D376" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="E376" s="2">
-        <v>43221.4</v>
-      </c>
-      <c r="L376" s="3"/>
+        <v>43221.329861111109</v>
+      </c>
+      <c r="F376" t="s">
+        <v>11</v>
+      </c>
+      <c r="J376" t="s">
+        <v>16</v>
+      </c>
+      <c r="K376">
+        <v>1</v>
+      </c>
+      <c r="L376" s="3">
+        <v>1</v>
+      </c>
       <c r="N376" s="2"/>
       <c r="O376" s="2"/>
     </row>
@@ -13365,18 +14181,26 @@
         <v>149</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="C377" s="3">
-        <v>7003632355750</v>
+        <v>7002949356265</v>
       </c>
       <c r="D377" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="E377" s="2">
-        <v>43221.404166666667</v>
-      </c>
-      <c r="L377" s="3"/>
+        <v>43221.34375</v>
+      </c>
+      <c r="F377" t="s">
+        <v>160</v>
+      </c>
+      <c r="J377" t="s">
+        <v>15</v>
+      </c>
+      <c r="L377" s="3">
+        <v>1</v>
+      </c>
       <c r="N377" s="2"/>
     </row>
     <row r="378" spans="1:15" x14ac:dyDescent="0.2">
@@ -13384,37 +14208,70 @@
         <v>149</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C378" s="3">
-        <v>7005429356236</v>
+        <v>7002812355949</v>
       </c>
       <c r="D378" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E378" s="2">
-        <v>43221.426388888889</v>
-      </c>
-      <c r="L378" s="3"/>
-      <c r="N378" s="2"/>
+        <v>43221.348611111112</v>
+      </c>
+      <c r="F378" t="s">
+        <v>11</v>
+      </c>
+      <c r="J378" t="s">
+        <v>16</v>
+      </c>
+      <c r="K378">
+        <v>2</v>
+      </c>
+      <c r="L378" s="3">
+        <v>30</v>
+      </c>
+      <c r="N378" s="2" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>149</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="C379" s="3">
-        <v>7005578356227</v>
+        <v>7002785355789</v>
       </c>
       <c r="D379" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="E379" s="2">
-        <v>43221.431944444441</v>
-      </c>
-      <c r="L379" s="3"/>
+        <v>43221.351388888892</v>
+      </c>
+      <c r="F379" t="s">
+        <v>18</v>
+      </c>
+      <c r="G379">
+        <v>225</v>
+      </c>
+      <c r="H379">
+        <v>80</v>
+      </c>
+      <c r="I379" t="s">
+        <v>153</v>
+      </c>
+      <c r="J379" t="s">
+        <v>10</v>
+      </c>
+      <c r="L379" s="3">
+        <v>2</v>
+      </c>
+      <c r="M379" t="s">
+        <v>446</v>
+      </c>
       <c r="N379" s="2"/>
     </row>
     <row r="380" spans="1:15" x14ac:dyDescent="0.2">
@@ -13422,18 +14279,35 @@
         <v>149</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C380" s="3">
-        <v>7005615356234</v>
+        <v>7002775355736</v>
       </c>
       <c r="D380" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="E380" s="2">
-        <v>43221.433333333334</v>
-      </c>
-      <c r="L380" s="3"/>
+        <v>43221.354166666664</v>
+      </c>
+      <c r="F380" t="s">
+        <v>18</v>
+      </c>
+      <c r="G380">
+        <v>68</v>
+      </c>
+      <c r="H380">
+        <v>342</v>
+      </c>
+      <c r="I380" t="s">
+        <v>153</v>
+      </c>
+      <c r="J380" t="s">
+        <v>10</v>
+      </c>
+      <c r="L380" s="3">
+        <v>1</v>
+      </c>
       <c r="N380" s="2"/>
     </row>
     <row r="381" spans="1:15" x14ac:dyDescent="0.2">
@@ -13441,16 +14315,22 @@
         <v>149</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C381" s="3">
-        <v>7005818356285</v>
+        <v>7002767355630</v>
       </c>
       <c r="D381" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E381" s="2">
-        <v>43221.438888888886</v>
+        <v>43221.375694444447</v>
+      </c>
+      <c r="F381" t="s">
+        <v>161</v>
+      </c>
+      <c r="N381" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="382" spans="1:15" x14ac:dyDescent="0.2">
@@ -13458,16 +14338,31 @@
         <v>149</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="C382" s="3">
-        <v>7005889356297</v>
+        <v>7003185355743</v>
       </c>
       <c r="D382" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E382" s="2">
-        <v>43221.440972222219</v>
+        <v>43221.38958333333</v>
+      </c>
+      <c r="F382" t="s">
+        <v>11</v>
+      </c>
+      <c r="J382" t="s">
+        <v>16</v>
+      </c>
+      <c r="K382">
+        <v>1</v>
+      </c>
+      <c r="L382" s="3">
+        <v>2</v>
+      </c>
+      <c r="M382" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="383" spans="1:15" x14ac:dyDescent="0.2">
@@ -13475,16 +14370,25 @@
         <v>149</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C383" s="3">
-        <v>7005982356291</v>
+        <v>7003537355760</v>
       </c>
       <c r="D383" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E383" s="2">
-        <v>43221.445833333331</v>
+        <v>43221.397916666669</v>
+      </c>
+      <c r="F383" t="s">
+        <v>160</v>
+      </c>
+      <c r="L383" s="3">
+        <v>1</v>
+      </c>
+      <c r="M383" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="384" spans="1:15" x14ac:dyDescent="0.2">
@@ -13492,560 +14396,758 @@
         <v>149</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C384" s="3">
-        <v>7006067356287</v>
+        <v>7003563355747</v>
       </c>
       <c r="D384" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E384" s="2">
-        <v>43221.448611111111</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43221.4</v>
+      </c>
+      <c r="F384" t="s">
+        <v>11</v>
+      </c>
+      <c r="J384" t="s">
+        <v>16</v>
+      </c>
+      <c r="K384">
+        <v>1</v>
+      </c>
+      <c r="L384" s="3">
+        <v>2</v>
+      </c>
+      <c r="M384" t="s">
+        <v>449</v>
+      </c>
+      <c r="N384" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>149</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="C385" s="3">
-        <v>7006110356278</v>
+        <v>7003563355747</v>
       </c>
       <c r="D385" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E385" s="2">
-        <v>43221.45208333333</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43221.4</v>
+      </c>
+      <c r="F385" t="s">
+        <v>164</v>
+      </c>
+      <c r="G385">
+        <v>56</v>
+      </c>
+      <c r="H385">
+        <v>279</v>
+      </c>
+      <c r="I385" t="s">
+        <v>156</v>
+      </c>
+      <c r="L385" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>149</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C386" s="3">
-        <v>7006178356268</v>
+        <v>7003632355750</v>
       </c>
       <c r="D386" t="s">
-        <v>241</v>
+        <v>343</v>
       </c>
       <c r="E386" s="2">
-        <v>43221.455555555556</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43221.404166666667</v>
+      </c>
+      <c r="F386" t="s">
+        <v>164</v>
+      </c>
+      <c r="G386">
+        <v>53</v>
+      </c>
+      <c r="H386">
+        <v>56</v>
+      </c>
+      <c r="I386" t="s">
+        <v>154</v>
+      </c>
+      <c r="J386" t="s">
+        <v>15</v>
+      </c>
+      <c r="L386" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>149</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C387" s="3">
-        <v>7006451356272</v>
+        <v>7005429356236</v>
       </c>
       <c r="D387" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E387" s="2">
-        <v>43221.461111111108</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43221.426388888889</v>
+      </c>
+      <c r="F387" t="s">
+        <v>164</v>
+      </c>
+      <c r="G387">
+        <v>26</v>
+      </c>
+      <c r="H387">
+        <v>344</v>
+      </c>
+      <c r="I387" t="s">
+        <v>153</v>
+      </c>
+      <c r="J387" t="s">
+        <v>10</v>
+      </c>
+      <c r="L387" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>149</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C388" s="3">
-        <v>7006803356301</v>
+        <v>7005578356227</v>
       </c>
       <c r="D388" t="s">
-        <v>245</v>
+        <v>322</v>
       </c>
       <c r="E388" s="2">
-        <v>43221.468055555553</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43221.431944444441</v>
+      </c>
+      <c r="F388" t="s">
+        <v>11</v>
+      </c>
+      <c r="J388" t="s">
+        <v>16</v>
+      </c>
+      <c r="K388">
+        <v>1</v>
+      </c>
+      <c r="L388" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>149</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C389" s="3">
-        <v>7006600356476</v>
+        <v>7005615356234</v>
       </c>
       <c r="D389" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="E389" s="2">
-        <v>43221.475694444445</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43221.433333333334</v>
+      </c>
+      <c r="F389" t="s">
+        <v>11</v>
+      </c>
+      <c r="J389" t="s">
+        <v>15</v>
+      </c>
+      <c r="K389">
+        <v>3</v>
+      </c>
+      <c r="L389" s="3">
+        <v>25</v>
+      </c>
+      <c r="M389" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>149</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C390" s="3">
-        <v>7005428357911</v>
+        <v>7005818356285</v>
       </c>
       <c r="D390" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E390" s="2">
-        <v>43221.529166666667</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43221.438888888886</v>
+      </c>
+      <c r="F390" t="s">
+        <v>160</v>
+      </c>
+      <c r="J390" t="s">
+        <v>15</v>
+      </c>
+      <c r="L390" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>149</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="C391" s="3">
-        <v>7005274358127</v>
+        <v>7005889356297</v>
       </c>
       <c r="D391" t="s">
-        <v>291</v>
+        <v>346</v>
       </c>
       <c r="E391" s="2">
-        <v>43221.532638888886</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43221.440972222219</v>
+      </c>
+      <c r="F391" t="s">
+        <v>18</v>
+      </c>
+      <c r="G391">
+        <v>30</v>
+      </c>
+      <c r="H391">
+        <v>354</v>
+      </c>
+      <c r="I391" t="s">
+        <v>153</v>
+      </c>
+      <c r="J391" t="s">
+        <v>10</v>
+      </c>
+      <c r="L391" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>149</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C392" s="3">
-        <v>7005214358195</v>
+        <v>7005982356291</v>
       </c>
       <c r="D392" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E392" s="2">
-        <v>43221.535416666666</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43221.445833333331</v>
+      </c>
+      <c r="F392" t="s">
+        <v>160</v>
+      </c>
+      <c r="J392" t="s">
+        <v>15</v>
+      </c>
+      <c r="L392" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>149</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="C393" s="3">
-        <v>7004453359147</v>
+        <v>7006067356287</v>
       </c>
       <c r="D393" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E393" s="2">
-        <v>43221.547222222223</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43221.448611111111</v>
+      </c>
+      <c r="F393" t="s">
+        <v>160</v>
+      </c>
+      <c r="J393" t="s">
+        <v>15</v>
+      </c>
+      <c r="L393" s="3">
+        <v>5</v>
+      </c>
+      <c r="M393" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="C394" s="3">
-        <v>7008546366649</v>
+        <v>7006110356278</v>
       </c>
       <c r="D394" t="s">
-        <v>208</v>
+        <v>348</v>
       </c>
       <c r="E394" s="2">
-        <v>43222.325694444444</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43221.45208333333</v>
+      </c>
+      <c r="F394" t="s">
+        <v>160</v>
+      </c>
+      <c r="J394" t="s">
+        <v>15</v>
+      </c>
+      <c r="L394" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C395" s="3">
-        <v>7008527366619</v>
+        <v>7006178356268</v>
       </c>
       <c r="D395" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E395" s="2">
-        <v>43222.329861111109</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43221.455555555556</v>
+      </c>
+      <c r="F395" t="s">
+        <v>11</v>
+      </c>
+      <c r="J395" t="s">
+        <v>16</v>
+      </c>
+      <c r="K395">
+        <v>1</v>
+      </c>
+      <c r="L395" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C396" s="3">
-        <v>7008489366555</v>
+        <v>7006451356272</v>
       </c>
       <c r="D396" t="s">
-        <v>196</v>
+        <v>349</v>
       </c>
       <c r="E396" s="2">
-        <v>43222.334027777775</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43221.461111111108</v>
+      </c>
+      <c r="F396" t="s">
+        <v>9</v>
+      </c>
+      <c r="G396">
+        <v>24</v>
+      </c>
+      <c r="H396">
+        <v>6</v>
+      </c>
+      <c r="J396" t="s">
+        <v>15</v>
+      </c>
+      <c r="L396" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C397" s="3">
-        <v>7008481366542</v>
+        <v>7006803356301</v>
       </c>
       <c r="D397" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="E397" s="2">
-        <v>43222.335416666669</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43221.468055555553</v>
+      </c>
+      <c r="F397" t="s">
+        <v>161</v>
+      </c>
+      <c r="N397" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C398" s="3">
-        <v>7008469366500</v>
+        <v>7006600356476</v>
       </c>
       <c r="D398" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="E398" s="2">
-        <v>43222.336805555555</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43221.475694444445</v>
+      </c>
+      <c r="F398" t="s">
+        <v>11</v>
+      </c>
+      <c r="K398">
+        <v>1</v>
+      </c>
+      <c r="L398" s="3">
+        <v>15</v>
+      </c>
+      <c r="M398" t="s">
+        <v>453</v>
+      </c>
+      <c r="N398" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="C399" s="3">
-        <v>7008230366123</v>
+        <v>7005428357911</v>
       </c>
       <c r="D399" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E399" s="2">
-        <v>43222.348611111112</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43221.529166666667</v>
+      </c>
+      <c r="F399" t="s">
+        <v>18</v>
+      </c>
+      <c r="G399">
+        <v>47</v>
+      </c>
+      <c r="H399">
+        <v>4</v>
+      </c>
+      <c r="I399" t="s">
+        <v>153</v>
+      </c>
+      <c r="J399" t="s">
+        <v>10</v>
+      </c>
+      <c r="L399" s="3">
+        <v>2</v>
+      </c>
+      <c r="N399" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C400" s="3">
-        <v>7008184366055</v>
+        <v>7005274358127</v>
       </c>
       <c r="D400" t="s">
-        <v>354</v>
+        <v>291</v>
       </c>
       <c r="E400" s="2">
-        <v>43222.351388888892</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43221.532638888886</v>
+      </c>
+      <c r="F400" t="s">
+        <v>11</v>
+      </c>
+      <c r="K400">
+        <v>1</v>
+      </c>
+      <c r="L400" s="3">
+        <v>1</v>
+      </c>
+      <c r="M400" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C401" s="3">
-        <v>7007756365256</v>
+        <v>7005214358195</v>
       </c>
       <c r="D401" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E401" s="2">
-        <v>43222.363888888889</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43221.535416666666</v>
+      </c>
+      <c r="F401" t="s">
+        <v>11</v>
+      </c>
+      <c r="K401">
+        <v>1</v>
+      </c>
+      <c r="L401" s="3">
+        <v>20</v>
+      </c>
+      <c r="M401" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>152</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="C402" s="3">
-        <v>7007701365129</v>
+        <v>7004453359147</v>
       </c>
       <c r="D402" t="s">
-        <v>188</v>
+        <v>352</v>
       </c>
       <c r="E402" s="2">
-        <v>43222.366666666669</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A403" t="s">
-        <v>152</v>
-      </c>
-      <c r="B403" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C403" s="3">
-        <v>7007599364865</v>
-      </c>
-      <c r="D403" t="s">
-        <v>356</v>
-      </c>
-      <c r="E403" s="2">
-        <v>43222.37222222222</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A404" t="s">
-        <v>152</v>
-      </c>
-      <c r="B404" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C404" s="3">
-        <v>7007353364176</v>
-      </c>
-      <c r="D404" t="s">
-        <v>273</v>
-      </c>
-      <c r="E404" s="2">
-        <v>43222.379166666666</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A405" t="s">
-        <v>152</v>
-      </c>
-      <c r="B405" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C405" s="3">
-        <v>7007224363897</v>
-      </c>
-      <c r="D405" t="s">
-        <v>303</v>
-      </c>
-      <c r="E405" s="2">
-        <v>43222.383333333331</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43221.547222222223</v>
+      </c>
+      <c r="F402" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>152</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="C406" s="3">
-        <v>7006864363345</v>
+        <v>7008546366649</v>
       </c>
       <c r="D406" t="s">
-        <v>357</v>
+        <v>208</v>
       </c>
       <c r="E406" s="2">
-        <v>43222.400000000001</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43222.325694444444</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>152</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C407" s="3">
-        <v>7006855363327</v>
+        <v>7008527366619</v>
       </c>
       <c r="D407" t="s">
-        <v>319</v>
+        <v>235</v>
       </c>
       <c r="E407" s="2">
-        <v>43222.402083333334</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43222.329861111109</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>152</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="C408" s="3">
-        <v>7006741363193</v>
+        <v>7008489366555</v>
       </c>
       <c r="D408" t="s">
-        <v>358</v>
+        <v>196</v>
       </c>
       <c r="E408" s="2">
-        <v>43222.40625</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43222.334027777775</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>152</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C409" s="3">
-        <v>7006705363181</v>
+        <v>7008481366542</v>
       </c>
       <c r="D409" t="s">
-        <v>312</v>
+        <v>223</v>
       </c>
       <c r="E409" s="2">
-        <v>43222.408333333333</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43222.335416666669</v>
+      </c>
+    </row>
+    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>152</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="C410" s="3">
-        <v>7006635363106</v>
+        <v>7008469366500</v>
       </c>
       <c r="D410" t="s">
-        <v>358</v>
+        <v>213</v>
       </c>
       <c r="E410" s="2">
-        <v>43222.410416666666</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43222.336805555555</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>152</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C411" s="3">
-        <v>7006632363092</v>
+        <v>7008230366123</v>
       </c>
       <c r="D411" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E411" s="2">
-        <v>43222.412499999999</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43222.348611111112</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>152</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C412" s="3">
-        <v>7006656363084</v>
+        <v>7008184366055</v>
       </c>
       <c r="D412" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E412" s="2">
-        <v>43222.425000000003</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43222.351388888892</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>152</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="C413" s="3">
-        <v>7006704363076</v>
+        <v>7007756365256</v>
       </c>
       <c r="D413" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E413" s="2">
-        <v>43222.431944444441</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43222.363888888889</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>152</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="C414" s="3">
-        <v>7006759363054</v>
+        <v>7007701365129</v>
       </c>
       <c r="D414" t="s">
-        <v>288</v>
+        <v>188</v>
       </c>
       <c r="E414" s="2">
-        <v>43222.435416666667</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43222.366666666669</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>152</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C415" s="3">
-        <v>7006796363052</v>
+        <v>7007599364865</v>
       </c>
       <c r="D415" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E415" s="2">
-        <v>43222.436805555553</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43222.37222222222</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>152</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="C416" s="3">
-        <v>7006864363034</v>
+        <v>7007353364176</v>
       </c>
       <c r="D416" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="E416" s="2">
-        <v>43222.439583333333</v>
+        <v>43222.379166666666</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.2">
@@ -14053,16 +15155,16 @@
         <v>152</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C417" s="3">
-        <v>7006882363032</v>
+        <v>7007224363897</v>
       </c>
       <c r="D417" t="s">
-        <v>361</v>
+        <v>303</v>
       </c>
       <c r="E417" s="2">
-        <v>43222.44027777778</v>
+        <v>43222.383333333331</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.2">
@@ -14070,16 +15172,16 @@
         <v>152</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C418" s="3">
-        <v>7007268362982</v>
+        <v>7006864363345</v>
       </c>
       <c r="D418" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E418" s="2">
-        <v>43222.448611111111</v>
+        <v>43222.400000000001</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.2">
@@ -14087,16 +15189,16 @@
         <v>152</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C419" s="3">
-        <v>7007286362985</v>
+        <v>7006855363327</v>
       </c>
       <c r="D419" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="E419" s="2">
-        <v>43222.450694444444</v>
+        <v>43222.402083333334</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.2">
@@ -14104,16 +15206,16 @@
         <v>152</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C420" s="3">
-        <v>7007299362986</v>
+        <v>7006741363193</v>
       </c>
       <c r="D420" t="s">
-        <v>281</v>
+        <v>358</v>
       </c>
       <c r="E420" s="2">
-        <v>43222.45208333333</v>
+        <v>43222.40625</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.2">
@@ -14121,16 +15223,16 @@
         <v>152</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C421" s="3">
-        <v>7007413362958</v>
+        <v>7006705363181</v>
       </c>
       <c r="D421" t="s">
-        <v>363</v>
+        <v>312</v>
       </c>
       <c r="E421" s="2">
-        <v>43222.455555555556</v>
+        <v>43222.408333333333</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
@@ -14138,16 +15240,16 @@
         <v>152</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C422" s="3">
-        <v>7009681362779</v>
+        <v>7006635363106</v>
       </c>
       <c r="D422" t="s">
-        <v>243</v>
+        <v>358</v>
       </c>
       <c r="E422" s="2">
-        <v>43222.494444444441</v>
+        <v>43222.410416666666</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
@@ -14155,16 +15257,16 @@
         <v>152</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C423" s="3">
-        <v>7010638362876</v>
+        <v>7006632363092</v>
       </c>
       <c r="D423" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E423" s="2">
-        <v>43222.50277777778</v>
+        <v>43222.412499999999</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
@@ -14172,16 +15274,16 @@
         <v>152</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C424" s="3">
-        <v>7010614362913</v>
+        <v>7006656363084</v>
       </c>
       <c r="D424" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E424" s="2">
-        <v>43222.522222222222</v>
+        <v>43222.425000000003</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
@@ -14189,16 +15291,16 @@
         <v>152</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C425" s="3">
-        <v>7010584362972</v>
+        <v>7006704363076</v>
       </c>
       <c r="D425" t="s">
-        <v>278</v>
+        <v>359</v>
       </c>
       <c r="E425" s="2">
-        <v>43222.524305555555</v>
+        <v>43222.431944444441</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.2">
@@ -14206,16 +15308,16 @@
         <v>152</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="C426" s="3">
-        <v>7009698364284</v>
+        <v>7006759363054</v>
       </c>
       <c r="D426" t="s">
-        <v>365</v>
+        <v>288</v>
       </c>
       <c r="E426" s="2">
-        <v>43222.599305555559</v>
+        <v>43222.435416666667</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
@@ -14223,16 +15325,16 @@
         <v>152</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C427" s="3">
-        <v>7009212365539</v>
+        <v>7006796363052</v>
       </c>
       <c r="D427" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="E427" s="2">
-        <v>43222.618055555555</v>
+        <v>43222.436805555553</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
@@ -14240,16 +15342,16 @@
         <v>152</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C428" s="3">
-        <v>7009208365577</v>
+        <v>7006864363034</v>
       </c>
       <c r="D428" t="s">
-        <v>366</v>
+        <v>313</v>
       </c>
       <c r="E428" s="2">
-        <v>43222.620138888888</v>
+        <v>43222.439583333333</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
@@ -14257,16 +15359,16 @@
         <v>152</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C429" s="3">
-        <v>7009208365588</v>
+        <v>7006882363032</v>
       </c>
       <c r="D429" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E429" s="2">
-        <v>43222.621527777781</v>
+        <v>43222.44027777778</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
@@ -14274,16 +15376,16 @@
         <v>152</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C430" s="3">
-        <v>7009199365638</v>
+        <v>7007268362982</v>
       </c>
       <c r="D430" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E430" s="2">
-        <v>43222.623611111114</v>
+        <v>43222.448611111111</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
@@ -14291,16 +15393,16 @@
         <v>152</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C431" s="3">
-        <v>7009186365662</v>
+        <v>7007286362985</v>
       </c>
       <c r="D431" t="s">
-        <v>369</v>
+        <v>282</v>
       </c>
       <c r="E431" s="2">
-        <v>43222.625694444447</v>
+        <v>43222.450694444444</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
@@ -14308,16 +15410,16 @@
         <v>152</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C432" s="3">
-        <v>7008623366228</v>
+        <v>7007299362986</v>
       </c>
       <c r="D432" t="s">
-        <v>184</v>
+        <v>281</v>
       </c>
       <c r="E432" s="2">
-        <v>43222.638888888891</v>
+        <v>43222.45208333333</v>
       </c>
     </row>
     <row r="433" spans="1:15" x14ac:dyDescent="0.2">
@@ -14325,13 +15427,16 @@
         <v>152</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C433" s="3">
-        <v>7009183365670</v>
+        <v>7007413362958</v>
+      </c>
+      <c r="D433" t="s">
+        <v>363</v>
       </c>
       <c r="E433" s="2">
-        <v>43222.640277777777</v>
+        <v>43222.455555555556</v>
       </c>
     </row>
     <row r="434" spans="1:15" x14ac:dyDescent="0.2">
@@ -14339,22 +15444,204 @@
         <v>152</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C434" s="3">
-        <v>7008631366281</v>
+        <v>7009681362779</v>
       </c>
       <c r="D434" t="s">
-        <v>370</v>
+        <v>243</v>
       </c>
       <c r="E434" s="2">
-        <v>43222.640972222223</v>
+        <v>43222.494444444441</v>
+      </c>
+    </row>
+    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>152</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C435" s="3">
+        <v>7010638362876</v>
+      </c>
+      <c r="D435" t="s">
+        <v>364</v>
+      </c>
+      <c r="E435" s="2">
+        <v>43222.50277777778</v>
+      </c>
+    </row>
+    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>152</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C436" s="3">
+        <v>7010614362913</v>
+      </c>
+      <c r="D436" t="s">
+        <v>364</v>
+      </c>
+      <c r="E436" s="2">
+        <v>43222.522222222222</v>
+      </c>
+    </row>
+    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>152</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C437" s="3">
+        <v>7010584362972</v>
+      </c>
+      <c r="D437" t="s">
+        <v>278</v>
+      </c>
+      <c r="E437" s="2">
+        <v>43222.524305555555</v>
       </c>
     </row>
     <row r="438" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>152</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C438" s="3">
+        <v>7009698364284</v>
+      </c>
+      <c r="D438" t="s">
+        <v>365</v>
+      </c>
+      <c r="E438" s="2">
+        <v>43222.599305555559</v>
+      </c>
       <c r="L438" s="3"/>
       <c r="N438" s="2"/>
       <c r="O438" s="2"/>
+    </row>
+    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>152</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C439" s="3">
+        <v>7009212365539</v>
+      </c>
+      <c r="D439" t="s">
+        <v>354</v>
+      </c>
+      <c r="E439" s="2">
+        <v>43222.618055555555</v>
+      </c>
+    </row>
+    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>152</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C440" s="3">
+        <v>7009208365577</v>
+      </c>
+      <c r="D440" t="s">
+        <v>366</v>
+      </c>
+      <c r="E440" s="2">
+        <v>43222.620138888888</v>
+      </c>
+    </row>
+    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>152</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C441" s="3">
+        <v>7009208365588</v>
+      </c>
+      <c r="D441" t="s">
+        <v>367</v>
+      </c>
+      <c r="E441" s="2">
+        <v>43222.621527777781</v>
+      </c>
+    </row>
+    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>152</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C442" s="3">
+        <v>7009199365638</v>
+      </c>
+      <c r="D442" t="s">
+        <v>368</v>
+      </c>
+      <c r="E442" s="2">
+        <v>43222.623611111114</v>
+      </c>
+    </row>
+    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>152</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C443" s="3">
+        <v>7009186365662</v>
+      </c>
+      <c r="D443" t="s">
+        <v>369</v>
+      </c>
+      <c r="E443" s="2">
+        <v>43222.625694444447</v>
+      </c>
+    </row>
+    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>152</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C444" s="3">
+        <v>7008623366228</v>
+      </c>
+      <c r="D444" t="s">
+        <v>184</v>
+      </c>
+      <c r="E444" s="2">
+        <v>43222.638888888891</v>
+      </c>
+    </row>
+    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>152</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C445" s="3">
+        <v>7009183365670</v>
+      </c>
+      <c r="E445" s="2">
+        <v>43222.640277777777</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Rawdata/riptransekter helags 2018.xlsx
+++ b/Rawdata/riptransekter helags 2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9680" yWindow="460" windowWidth="25600" windowHeight="14120" xr2:uid="{731D7839-4CAB-374B-BEA5-3406519CB6C1}"/>
+    <workbookView xWindow="1260" yWindow="460" windowWidth="25600" windowHeight="14120" xr2:uid="{731D7839-4CAB-374B-BEA5-3406519CB6C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2588" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="457">
   <si>
     <t>vinkel</t>
   </si>
@@ -1751,9 +1751,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9831C9-A413-654D-876F-A809696709AE}">
   <dimension ref="A1:Z445"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C403" sqref="C403"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O372" sqref="O372:O401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14080,8 +14080,12 @@
       <c r="M373" t="s">
         <v>393</v>
       </c>
-      <c r="N373" s="2"/>
-      <c r="O373" s="2"/>
+      <c r="N373" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="O373" s="2" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
@@ -14114,8 +14118,12 @@
       <c r="M374" t="s">
         <v>419</v>
       </c>
-      <c r="N374" s="2"/>
-      <c r="O374" s="2"/>
+      <c r="N374" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="O374" s="2" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
@@ -14142,8 +14150,12 @@
       <c r="L375" s="3">
         <v>1</v>
       </c>
-      <c r="N375" s="2"/>
-      <c r="O375" s="2"/>
+      <c r="N375" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="O375" s="2" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
@@ -14173,8 +14185,12 @@
       <c r="L376" s="3">
         <v>1</v>
       </c>
-      <c r="N376" s="2"/>
-      <c r="O376" s="2"/>
+      <c r="N376" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="O376" s="2" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
@@ -14201,7 +14217,12 @@
       <c r="L377" s="3">
         <v>1</v>
       </c>
-      <c r="N377" s="2"/>
+      <c r="N377" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="O377" s="2" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
@@ -14234,6 +14255,9 @@
       <c r="N378" s="2" t="s">
         <v>445</v>
       </c>
+      <c r="O378" s="2" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
@@ -14272,7 +14296,12 @@
       <c r="M379" t="s">
         <v>446</v>
       </c>
-      <c r="N379" s="2"/>
+      <c r="N379" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="O379" s="2" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
@@ -14308,7 +14337,12 @@
       <c r="L380" s="3">
         <v>1</v>
       </c>
-      <c r="N380" s="2"/>
+      <c r="N380" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="O380" s="2" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
@@ -14332,6 +14366,9 @@
       <c r="N381" t="s">
         <v>447</v>
       </c>
+      <c r="O381" s="2" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
@@ -14364,6 +14401,12 @@
       <c r="M382" t="s">
         <v>419</v>
       </c>
+      <c r="N382" t="s">
+        <v>447</v>
+      </c>
+      <c r="O382" s="2" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
@@ -14390,6 +14433,12 @@
       <c r="M383" t="s">
         <v>448</v>
       </c>
+      <c r="N383" t="s">
+        <v>447</v>
+      </c>
+      <c r="O383" s="2" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
@@ -14425,8 +14474,11 @@
       <c r="N384" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O384" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>149</v>
       </c>
@@ -14457,8 +14509,14 @@
       <c r="L385" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N385" t="s">
+        <v>450</v>
+      </c>
+      <c r="O385" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>149</v>
       </c>
@@ -14492,8 +14550,14 @@
       <c r="L386" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N386" t="s">
+        <v>450</v>
+      </c>
+      <c r="O386" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>149</v>
       </c>
@@ -14527,8 +14591,14 @@
       <c r="L387" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N387" t="s">
+        <v>450</v>
+      </c>
+      <c r="O387" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>149</v>
       </c>
@@ -14556,8 +14626,14 @@
       <c r="L388" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N388" t="s">
+        <v>450</v>
+      </c>
+      <c r="O388" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>149</v>
       </c>
@@ -14588,8 +14664,14 @@
       <c r="M389" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N389" t="s">
+        <v>450</v>
+      </c>
+      <c r="O389" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>149</v>
       </c>
@@ -14614,8 +14696,14 @@
       <c r="L390" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N390" t="s">
+        <v>450</v>
+      </c>
+      <c r="O390" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>149</v>
       </c>
@@ -14649,8 +14737,14 @@
       <c r="L391" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N391" t="s">
+        <v>450</v>
+      </c>
+      <c r="O391" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>149</v>
       </c>
@@ -14675,8 +14769,14 @@
       <c r="L392" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N392" t="s">
+        <v>450</v>
+      </c>
+      <c r="O392" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>149</v>
       </c>
@@ -14704,8 +14804,14 @@
       <c r="M393" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N393" t="s">
+        <v>450</v>
+      </c>
+      <c r="O393" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>149</v>
       </c>
@@ -14730,8 +14836,14 @@
       <c r="L394" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N394" t="s">
+        <v>450</v>
+      </c>
+      <c r="O394" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>149</v>
       </c>
@@ -14759,8 +14871,14 @@
       <c r="L395" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N395" t="s">
+        <v>450</v>
+      </c>
+      <c r="O395" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>149</v>
       </c>
@@ -14791,8 +14909,14 @@
       <c r="L396" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N396" t="s">
+        <v>450</v>
+      </c>
+      <c r="O396" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>149</v>
       </c>
@@ -14814,8 +14938,11 @@
       <c r="N397" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O397" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>149</v>
       </c>
@@ -14846,8 +14973,11 @@
       <c r="N398" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O398" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>149</v>
       </c>
@@ -14884,8 +15014,11 @@
       <c r="N399" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O399" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>149</v>
       </c>
@@ -14913,8 +15046,14 @@
       <c r="M400" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N400" t="s">
+        <v>455</v>
+      </c>
+      <c r="O400" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>149</v>
       </c>
@@ -14942,8 +15081,14 @@
       <c r="M401" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N401" t="s">
+        <v>455</v>
+      </c>
+      <c r="O401" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>152</v>
       </c>
@@ -14963,7 +15108,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>152</v>
       </c>
@@ -14980,7 +15125,7 @@
         <v>43222.325694444444</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>152</v>
       </c>
@@ -14997,7 +15142,7 @@
         <v>43222.329861111109</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>152</v>
       </c>
@@ -15014,7 +15159,7 @@
         <v>43222.334027777775</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>152</v>
       </c>
@@ -15031,7 +15176,7 @@
         <v>43222.335416666669</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>152</v>
       </c>
@@ -15048,7 +15193,7 @@
         <v>43222.336805555555</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>152</v>
       </c>
@@ -15065,7 +15210,7 @@
         <v>43222.348611111112</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>152</v>
       </c>
@@ -15082,7 +15227,7 @@
         <v>43222.351388888892</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>152</v>
       </c>
@@ -15099,7 +15244,7 @@
         <v>43222.363888888889</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>152</v>
       </c>
@@ -15116,7 +15261,7 @@
         <v>43222.366666666669</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>152</v>
       </c>
@@ -15133,7 +15278,7 @@
         <v>43222.37222222222</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>152</v>
       </c>

--- a/Rawdata/riptransekter helags 2018.xlsx
+++ b/Rawdata/riptransekter helags 2018.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="460" windowWidth="25600" windowHeight="14120" xr2:uid="{731D7839-4CAB-374B-BEA5-3406519CB6C1}"/>
+    <workbookView xWindow="5160" yWindow="460" windowWidth="25600" windowHeight="14120" xr2:uid="{731D7839-4CAB-374B-BEA5-3406519CB6C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2875" uniqueCount="473">
   <si>
     <t>vinkel</t>
   </si>
@@ -1136,6 +1136,9 @@
     <t>1128 m</t>
   </si>
   <si>
+    <t>1076 m</t>
+  </si>
+  <si>
     <t>cecum</t>
   </si>
   <si>
@@ -1395,6 +1398,51 @@
   </si>
   <si>
     <t>stora grova, stora fibrer</t>
+  </si>
+  <si>
+    <t>färska</t>
+  </si>
+  <si>
+    <t>ljusa stora, stora fibrer</t>
+  </si>
+  <si>
+    <t>mörka, grova fibrer</t>
+  </si>
+  <si>
+    <t>Ett tydligt spår + 7 otydliga, massor med otydliga spår sista 1 km på sträckan (antagligen ripa)</t>
+  </si>
+  <si>
+    <t>samt fler otydliga spår</t>
+  </si>
+  <si>
+    <t>stora färska</t>
+  </si>
+  <si>
+    <t>7 ljusbruna, 13 ljusa, några oformliga</t>
+  </si>
+  <si>
+    <t>ljusa oformliga</t>
+  </si>
+  <si>
+    <t>vind 3-4 m/s</t>
+  </si>
+  <si>
+    <t>2 mörkbruna mjuka, 3 ljusa</t>
+  </si>
+  <si>
+    <t>mörkbrun</t>
+  </si>
+  <si>
+    <t>ljusa, väldigt spridda</t>
+  </si>
+  <si>
+    <t>ljusbruna, väldigt spridda</t>
+  </si>
+  <si>
+    <t>ljusbruna och ljusa, väldigt spridda</t>
+  </si>
+  <si>
+    <t>växlande molnighet, vind 1 m/s, 0 grader</t>
   </si>
 </sst>
 </file>
@@ -1749,11 +1797,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9831C9-A413-654D-876F-A809696709AE}">
-  <dimension ref="A1:Z445"/>
+  <dimension ref="A1:Z453"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O372" sqref="O372:O401"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A388" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A402" sqref="A402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6241,7 +6289,7 @@
         <v>1</v>
       </c>
       <c r="M123" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N123" t="s">
         <v>178</v>
@@ -6285,7 +6333,7 @@
         <v>1</v>
       </c>
       <c r="M124" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N124" t="s">
         <v>178</v>
@@ -6650,10 +6698,10 @@
         <v>24</v>
       </c>
       <c r="N136" t="s">
+        <v>374</v>
+      </c>
+      <c r="O136" t="s">
         <v>373</v>
-      </c>
-      <c r="O136" t="s">
-        <v>372</v>
       </c>
       <c r="V136" s="3"/>
       <c r="X136" s="2"/>
@@ -6685,10 +6733,10 @@
         <v>1</v>
       </c>
       <c r="N137" t="s">
+        <v>374</v>
+      </c>
+      <c r="O137" t="s">
         <v>373</v>
-      </c>
-      <c r="O137" t="s">
-        <v>372</v>
       </c>
       <c r="V137" s="3"/>
       <c r="X137" s="2"/>
@@ -6720,13 +6768,13 @@
         <v>2</v>
       </c>
       <c r="M138" t="s">
+        <v>375</v>
+      </c>
+      <c r="N138" t="s">
         <v>374</v>
       </c>
-      <c r="N138" t="s">
+      <c r="O138" t="s">
         <v>373</v>
-      </c>
-      <c r="O138" t="s">
-        <v>372</v>
       </c>
       <c r="V138" s="3"/>
       <c r="X138" s="2"/>
@@ -6767,10 +6815,10 @@
         <v>2</v>
       </c>
       <c r="N139" t="s">
+        <v>374</v>
+      </c>
+      <c r="O139" t="s">
         <v>373</v>
-      </c>
-      <c r="O139" t="s">
-        <v>372</v>
       </c>
       <c r="V139" s="3"/>
       <c r="X139" s="2"/>
@@ -6811,10 +6859,10 @@
         <v>1</v>
       </c>
       <c r="N140" t="s">
+        <v>374</v>
+      </c>
+      <c r="O140" t="s">
         <v>373</v>
-      </c>
-      <c r="O140" t="s">
-        <v>372</v>
       </c>
       <c r="V140" s="3"/>
       <c r="X140" s="2"/>
@@ -6843,13 +6891,13 @@
         <v>2</v>
       </c>
       <c r="M141" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N141" t="s">
+        <v>374</v>
+      </c>
+      <c r="O141" t="s">
         <v>373</v>
-      </c>
-      <c r="O141" t="s">
-        <v>372</v>
       </c>
       <c r="V141" s="3"/>
       <c r="X141" s="2"/>
@@ -6890,13 +6938,13 @@
         <v>5</v>
       </c>
       <c r="M142" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N142" t="s">
+        <v>374</v>
+      </c>
+      <c r="O142" t="s">
         <v>373</v>
-      </c>
-      <c r="O142" t="s">
-        <v>372</v>
       </c>
       <c r="V142" s="3"/>
       <c r="X142" s="2"/>
@@ -6934,13 +6982,13 @@
         <v>5</v>
       </c>
       <c r="M143" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N143" t="s">
+        <v>374</v>
+      </c>
+      <c r="O143" t="s">
         <v>373</v>
-      </c>
-      <c r="O143" t="s">
-        <v>372</v>
       </c>
       <c r="V143" s="3"/>
       <c r="X143" s="2"/>
@@ -6969,13 +7017,13 @@
         <v>2</v>
       </c>
       <c r="M144" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N144" t="s">
+        <v>374</v>
+      </c>
+      <c r="O144" t="s">
         <v>373</v>
-      </c>
-      <c r="O144" t="s">
-        <v>372</v>
       </c>
       <c r="V144" s="3"/>
       <c r="X144" s="2"/>
@@ -7001,10 +7049,10 @@
         <v>161</v>
       </c>
       <c r="N145" t="s">
+        <v>374</v>
+      </c>
+      <c r="O145" t="s">
         <v>373</v>
-      </c>
-      <c r="O145" t="s">
-        <v>372</v>
       </c>
       <c r="V145" s="3"/>
       <c r="X145" s="2"/>
@@ -7042,13 +7090,13 @@
         <v>3</v>
       </c>
       <c r="M146" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N146" t="s">
+        <v>374</v>
+      </c>
+      <c r="O146" t="s">
         <v>373</v>
-      </c>
-      <c r="O146" t="s">
-        <v>372</v>
       </c>
       <c r="V146" s="3"/>
       <c r="X146" s="2"/>
@@ -7077,10 +7125,10 @@
         <v>2</v>
       </c>
       <c r="N147" t="s">
+        <v>374</v>
+      </c>
+      <c r="O147" t="s">
         <v>373</v>
-      </c>
-      <c r="O147" t="s">
-        <v>372</v>
       </c>
       <c r="V147" s="3"/>
       <c r="X147" s="2"/>
@@ -7109,10 +7157,10 @@
         <v>1</v>
       </c>
       <c r="N148" t="s">
+        <v>374</v>
+      </c>
+      <c r="O148" t="s">
         <v>373</v>
-      </c>
-      <c r="O148" t="s">
-        <v>372</v>
       </c>
       <c r="V148" s="3"/>
       <c r="X148" s="2"/>
@@ -7147,13 +7195,13 @@
         <v>2</v>
       </c>
       <c r="M149" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N149" t="s">
+        <v>374</v>
+      </c>
+      <c r="O149" t="s">
         <v>373</v>
-      </c>
-      <c r="O149" t="s">
-        <v>372</v>
       </c>
       <c r="V149" s="3"/>
       <c r="X149" s="2"/>
@@ -7185,13 +7233,13 @@
         <v>2</v>
       </c>
       <c r="M150" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N150" t="s">
+        <v>374</v>
+      </c>
+      <c r="O150" t="s">
         <v>373</v>
-      </c>
-      <c r="O150" t="s">
-        <v>372</v>
       </c>
       <c r="V150" s="3"/>
       <c r="X150" s="2"/>
@@ -7223,13 +7271,13 @@
         <v>3</v>
       </c>
       <c r="M151" t="s">
+        <v>383</v>
+      </c>
+      <c r="N151" t="s">
         <v>382</v>
       </c>
-      <c r="N151" t="s">
-        <v>381</v>
-      </c>
       <c r="O151" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.2">
@@ -7258,13 +7306,13 @@
         <v>3</v>
       </c>
       <c r="M152" t="s">
+        <v>383</v>
+      </c>
+      <c r="N152" t="s">
         <v>382</v>
       </c>
-      <c r="N152" t="s">
-        <v>381</v>
-      </c>
       <c r="O152" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.2">
@@ -7293,13 +7341,13 @@
         <v>5</v>
       </c>
       <c r="M153" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N153" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O153" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.2">
@@ -7325,10 +7373,10 @@
         <v>2</v>
       </c>
       <c r="N154" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O154" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.2">
@@ -7363,13 +7411,13 @@
         <v>1</v>
       </c>
       <c r="M155" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N155" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O155" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.2">
@@ -7392,10 +7440,10 @@
         <v>161</v>
       </c>
       <c r="N156" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O156" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.2">
@@ -7430,13 +7478,13 @@
         <v>1</v>
       </c>
       <c r="M157" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N157" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O157" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.2">
@@ -7503,10 +7551,10 @@
         <v>1</v>
       </c>
       <c r="N164" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O164" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.2">
@@ -7541,10 +7589,10 @@
         <v>1</v>
       </c>
       <c r="N165" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O165" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.2">
@@ -7582,13 +7630,13 @@
         <v>8</v>
       </c>
       <c r="M166" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N166" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O166" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.2">
@@ -7623,10 +7671,10 @@
         <v>1</v>
       </c>
       <c r="N167" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O167" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.2">
@@ -7661,13 +7709,13 @@
         <v>5</v>
       </c>
       <c r="M168" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N168" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O168" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W168" s="3"/>
       <c r="Y168" s="2"/>
@@ -7699,10 +7747,10 @@
         <v>1</v>
       </c>
       <c r="N169" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O169" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W169" s="3"/>
       <c r="Y169" s="2"/>
@@ -7743,10 +7791,10 @@
         <v>2</v>
       </c>
       <c r="N170" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O170" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W170" s="3"/>
       <c r="Y170" s="2"/>
@@ -7787,13 +7835,13 @@
         <v>1</v>
       </c>
       <c r="M171" t="s">
+        <v>389</v>
+      </c>
+      <c r="N171" t="s">
+        <v>387</v>
+      </c>
+      <c r="O171" t="s">
         <v>388</v>
-      </c>
-      <c r="N171" t="s">
-        <v>386</v>
-      </c>
-      <c r="O171" t="s">
-        <v>387</v>
       </c>
       <c r="W171" s="3"/>
       <c r="Y171" s="2"/>
@@ -7831,10 +7879,10 @@
         <v>1</v>
       </c>
       <c r="N172" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O172" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W172" s="3"/>
       <c r="Y172" s="2"/>
@@ -7872,10 +7920,10 @@
         <v>1</v>
       </c>
       <c r="N173" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O173" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W173" s="3"/>
       <c r="Y173" s="2"/>
@@ -7910,13 +7958,13 @@
         <v>2</v>
       </c>
       <c r="M174" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N174" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O174" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W174" s="3"/>
       <c r="Y174" s="2"/>
@@ -7957,13 +8005,13 @@
         <v>14</v>
       </c>
       <c r="M175" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N175" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O175" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W175" s="3"/>
       <c r="Y175" s="2"/>
@@ -8004,13 +8052,13 @@
         <v>2</v>
       </c>
       <c r="M176" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N176" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O176" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.2">
@@ -8048,13 +8096,13 @@
         <v>2</v>
       </c>
       <c r="M177" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N177" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O177" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W177" s="3"/>
       <c r="Y177" s="2"/>
@@ -8095,13 +8143,13 @@
         <v>3</v>
       </c>
       <c r="M178" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N178" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O178" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W178" s="3"/>
       <c r="Y178" s="2"/>
@@ -8142,13 +8190,13 @@
         <v>2</v>
       </c>
       <c r="M179" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N179" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O179" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W179" s="3"/>
       <c r="Y179" s="2"/>
@@ -8189,13 +8237,13 @@
         <v>20</v>
       </c>
       <c r="M180" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N180" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O180" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W180" s="3"/>
       <c r="Y180" s="2"/>
@@ -8236,13 +8284,13 @@
         <v>22</v>
       </c>
       <c r="M181" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N181" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O181" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W181" s="3"/>
       <c r="Y181" s="2"/>
@@ -8280,10 +8328,10 @@
         <v>1</v>
       </c>
       <c r="N182" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O182" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W182" s="3"/>
       <c r="Y182" s="2"/>
@@ -8318,13 +8366,13 @@
         <v>17</v>
       </c>
       <c r="M183" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N183" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O183" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W183" s="3"/>
       <c r="Y183" s="2"/>
@@ -8365,13 +8413,13 @@
         <v>12</v>
       </c>
       <c r="M184" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N184" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O184" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W184" s="3"/>
       <c r="Y184" s="2"/>
@@ -8397,10 +8445,10 @@
         <v>161</v>
       </c>
       <c r="N185" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O185" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W185" s="3"/>
       <c r="Y185" s="2"/>
@@ -8432,10 +8480,10 @@
         <v>1</v>
       </c>
       <c r="N186" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O186" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W186" s="3"/>
       <c r="Y186" s="2"/>
@@ -8467,10 +8515,10 @@
         <v>3</v>
       </c>
       <c r="N187" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O187" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W187" s="3"/>
       <c r="Y187" s="2"/>
@@ -8505,13 +8553,13 @@
         <v>17</v>
       </c>
       <c r="M188" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N188" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O188" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W188" s="3"/>
       <c r="Y188" s="2"/>
@@ -8552,13 +8600,13 @@
         <v>25</v>
       </c>
       <c r="M189" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N189" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O189" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W189" s="3"/>
       <c r="Y189" s="2"/>
@@ -8593,13 +8641,13 @@
         <v>4</v>
       </c>
       <c r="M190" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N190" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O190" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W190" s="3"/>
       <c r="Y190" s="2"/>
@@ -8637,10 +8685,10 @@
         <v>1</v>
       </c>
       <c r="N191" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O191" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W191" s="3"/>
       <c r="Y191" s="2"/>
@@ -8681,13 +8729,13 @@
         <v>12</v>
       </c>
       <c r="M192" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N192" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O192" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W192" s="3"/>
       <c r="Y192" s="2"/>
@@ -8722,13 +8770,13 @@
         <v>1</v>
       </c>
       <c r="M193" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N193" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O193" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W193" s="3"/>
       <c r="Y193" s="2"/>
@@ -8769,13 +8817,13 @@
         <v>40</v>
       </c>
       <c r="M194" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N194" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O194" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W194" s="3"/>
       <c r="Y194" s="2"/>
@@ -8816,13 +8864,13 @@
         <v>20</v>
       </c>
       <c r="M195" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N195" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O195" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W195" s="3"/>
       <c r="Y195" s="2"/>
@@ -8854,10 +8902,10 @@
         <v>1</v>
       </c>
       <c r="N196" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O196" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W196" s="3"/>
       <c r="Y196" s="2"/>
@@ -8898,13 +8946,13 @@
         <v>15</v>
       </c>
       <c r="M197" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N197" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O197" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W197" s="3"/>
       <c r="Y197" s="2"/>
@@ -8945,13 +8993,13 @@
         <v>15</v>
       </c>
       <c r="M198" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N198" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O198" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W198" s="3"/>
       <c r="Y198" s="2"/>
@@ -8983,10 +9031,10 @@
         <v>1</v>
       </c>
       <c r="N199" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O199" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W199" s="3"/>
       <c r="Y199" s="2"/>
@@ -9018,10 +9066,10 @@
         <v>1</v>
       </c>
       <c r="N200" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O200" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W200" s="3"/>
       <c r="Y200" s="2"/>
@@ -9053,10 +9101,10 @@
         <v>1</v>
       </c>
       <c r="N201" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O201" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W201" s="3"/>
       <c r="Y201" s="2"/>
@@ -9097,13 +9145,13 @@
         <v>20</v>
       </c>
       <c r="M202" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N202" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O202" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W202" s="3"/>
       <c r="Y202" s="2"/>
@@ -9141,10 +9189,10 @@
         <v>1</v>
       </c>
       <c r="N203" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O203" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W203" s="3"/>
       <c r="Y203" s="2"/>
@@ -9185,13 +9233,13 @@
         <v>3</v>
       </c>
       <c r="M204" t="s">
+        <v>403</v>
+      </c>
+      <c r="N204" t="s">
         <v>402</v>
       </c>
-      <c r="N204" t="s">
-        <v>401</v>
-      </c>
       <c r="O204" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W204" s="3"/>
       <c r="Y204" s="2"/>
@@ -9226,13 +9274,13 @@
         <v>4</v>
       </c>
       <c r="M205" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N205" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O205" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W205" s="3"/>
       <c r="Y205" s="2"/>
@@ -9273,13 +9321,13 @@
         <v>35</v>
       </c>
       <c r="M206" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N206" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O206" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W206" s="3"/>
       <c r="Y206" s="2"/>
@@ -9314,13 +9362,13 @@
         <v>1</v>
       </c>
       <c r="M207" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N207" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O207" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W207" s="3"/>
       <c r="Y207" s="2"/>
@@ -9346,10 +9394,10 @@
         <v>161</v>
       </c>
       <c r="N208" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O208" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W208" s="3"/>
       <c r="Y208" s="2"/>
@@ -9390,13 +9438,13 @@
         <v>15</v>
       </c>
       <c r="M209" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N209" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O209" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W209" s="3"/>
       <c r="Y209" s="2"/>
@@ -9428,13 +9476,13 @@
         <v>4</v>
       </c>
       <c r="M210" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N210" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O210" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W210" s="3"/>
       <c r="Y210" s="2"/>
@@ -9475,10 +9523,10 @@
         <v>1</v>
       </c>
       <c r="N211" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O211" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W211" s="3"/>
       <c r="Y211" s="2"/>
@@ -9513,13 +9561,13 @@
         <v>3</v>
       </c>
       <c r="M212" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N212" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O212" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W212" s="3"/>
       <c r="Y212" s="2"/>
@@ -9551,13 +9599,13 @@
         <v>15</v>
       </c>
       <c r="M213" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N213" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O213" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W213" s="3"/>
       <c r="Y213" s="2"/>
@@ -9598,10 +9646,10 @@
         <v>1</v>
       </c>
       <c r="N214" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O214" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W214" s="3"/>
       <c r="Y214" s="2"/>
@@ -9636,13 +9684,13 @@
         <v>1</v>
       </c>
       <c r="M215" t="s">
+        <v>408</v>
+      </c>
+      <c r="N215" t="s">
         <v>407</v>
       </c>
-      <c r="N215" t="s">
-        <v>406</v>
-      </c>
       <c r="O215" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W215" s="3"/>
       <c r="Y215" s="2"/>
@@ -9671,10 +9719,10 @@
         <v>1</v>
       </c>
       <c r="N216" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O216" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W216" s="3"/>
       <c r="Y216" s="2"/>
@@ -9685,7 +9733,7 @@
         <v>117</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C217" s="3">
         <v>6984903370347</v>
@@ -9706,13 +9754,13 @@
         <v>6</v>
       </c>
       <c r="M217" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N217" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O217" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W217" s="3"/>
       <c r="Y217" s="2"/>
@@ -9741,10 +9789,10 @@
         <v>1</v>
       </c>
       <c r="N218" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O218" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="219" spans="1:26" x14ac:dyDescent="0.2">
@@ -9806,10 +9854,10 @@
         <v>116</v>
       </c>
       <c r="N232" t="s">
+        <v>412</v>
+      </c>
+      <c r="O232" t="s">
         <v>411</v>
-      </c>
-      <c r="O232" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="233" spans="1:26" x14ac:dyDescent="0.2">
@@ -9832,10 +9880,10 @@
         <v>24</v>
       </c>
       <c r="N233" t="s">
+        <v>412</v>
+      </c>
+      <c r="O233" t="s">
         <v>411</v>
-      </c>
-      <c r="O233" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="234" spans="1:26" x14ac:dyDescent="0.2">
@@ -9870,10 +9918,10 @@
         <v>1</v>
       </c>
       <c r="N234" t="s">
+        <v>412</v>
+      </c>
+      <c r="O234" t="s">
         <v>411</v>
-      </c>
-      <c r="O234" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="235" spans="1:26" x14ac:dyDescent="0.2">
@@ -9908,10 +9956,10 @@
         <v>1</v>
       </c>
       <c r="N235" t="s">
+        <v>412</v>
+      </c>
+      <c r="O235" t="s">
         <v>411</v>
-      </c>
-      <c r="O235" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="236" spans="1:26" x14ac:dyDescent="0.2">
@@ -9946,10 +9994,10 @@
         <v>1</v>
       </c>
       <c r="N236" t="s">
+        <v>412</v>
+      </c>
+      <c r="O236" t="s">
         <v>411</v>
-      </c>
-      <c r="O236" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="237" spans="1:26" x14ac:dyDescent="0.2">
@@ -9981,13 +10029,13 @@
         <v>1</v>
       </c>
       <c r="M237" t="s">
+        <v>413</v>
+      </c>
+      <c r="N237" t="s">
         <v>412</v>
       </c>
-      <c r="N237" t="s">
+      <c r="O237" t="s">
         <v>411</v>
-      </c>
-      <c r="O237" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="238" spans="1:26" x14ac:dyDescent="0.2">
@@ -10019,13 +10067,13 @@
         <v>1</v>
       </c>
       <c r="M238" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N238" t="s">
+        <v>412</v>
+      </c>
+      <c r="O238" t="s">
         <v>411</v>
-      </c>
-      <c r="O238" t="s">
-        <v>410</v>
       </c>
       <c r="W238" s="3"/>
       <c r="Y238" s="2"/>
@@ -10063,10 +10111,10 @@
         <v>166</v>
       </c>
       <c r="N239" t="s">
+        <v>412</v>
+      </c>
+      <c r="O239" t="s">
         <v>411</v>
-      </c>
-      <c r="O239" t="s">
-        <v>410</v>
       </c>
       <c r="W239" s="3"/>
       <c r="Y239" s="2"/>
@@ -10098,10 +10146,10 @@
         <v>1</v>
       </c>
       <c r="N240" t="s">
+        <v>412</v>
+      </c>
+      <c r="O240" t="s">
         <v>411</v>
-      </c>
-      <c r="O240" t="s">
-        <v>410</v>
       </c>
       <c r="W240" s="3"/>
       <c r="Y240" s="2"/>
@@ -10142,13 +10190,13 @@
         <v>20</v>
       </c>
       <c r="M241" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N241" t="s">
+        <v>412</v>
+      </c>
+      <c r="O241" t="s">
         <v>411</v>
-      </c>
-      <c r="O241" t="s">
-        <v>410</v>
       </c>
       <c r="W241" s="3"/>
       <c r="Y241" s="2"/>
@@ -10174,13 +10222,13 @@
         <v>161</v>
       </c>
       <c r="M242" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N242" t="s">
+        <v>412</v>
+      </c>
+      <c r="O242" t="s">
         <v>411</v>
-      </c>
-      <c r="O242" t="s">
-        <v>410</v>
       </c>
       <c r="W242" s="3"/>
       <c r="Y242" s="2"/>
@@ -10218,10 +10266,10 @@
         <v>1</v>
       </c>
       <c r="N243" t="s">
+        <v>412</v>
+      </c>
+      <c r="O243" t="s">
         <v>411</v>
-      </c>
-      <c r="O243" t="s">
-        <v>410</v>
       </c>
       <c r="W243" s="3"/>
       <c r="Y243" s="2"/>
@@ -10259,10 +10307,10 @@
         <v>1</v>
       </c>
       <c r="N244" t="s">
+        <v>412</v>
+      </c>
+      <c r="O244" t="s">
         <v>411</v>
-      </c>
-      <c r="O244" t="s">
-        <v>410</v>
       </c>
       <c r="W244" s="3"/>
       <c r="Y244" s="2"/>
@@ -10303,10 +10351,10 @@
         <v>1</v>
       </c>
       <c r="N245" t="s">
+        <v>412</v>
+      </c>
+      <c r="O245" t="s">
         <v>411</v>
-      </c>
-      <c r="O245" t="s">
-        <v>410</v>
       </c>
       <c r="W245" s="3"/>
       <c r="Y245" s="2"/>
@@ -10323,7 +10371,7 @@
         <v>6978993354678</v>
       </c>
       <c r="D246" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E246" s="2">
         <v>43216.490277777775</v>
@@ -10347,10 +10395,10 @@
         <v>2</v>
       </c>
       <c r="N246" t="s">
+        <v>412</v>
+      </c>
+      <c r="O246" t="s">
         <v>411</v>
-      </c>
-      <c r="O246" t="s">
-        <v>410</v>
       </c>
       <c r="W246" s="3"/>
       <c r="Y246" s="2"/>
@@ -10367,7 +10415,7 @@
         <v>6978993354678</v>
       </c>
       <c r="D247" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E247" s="2">
         <v>43216.490277777775</v>
@@ -10388,10 +10436,10 @@
         <v>1</v>
       </c>
       <c r="N247" t="s">
+        <v>412</v>
+      </c>
+      <c r="O247" t="s">
         <v>411</v>
-      </c>
-      <c r="O247" t="s">
-        <v>410</v>
       </c>
       <c r="W247" s="3"/>
       <c r="Y247" s="2"/>
@@ -10432,10 +10480,10 @@
         <v>1</v>
       </c>
       <c r="N248" t="s">
+        <v>412</v>
+      </c>
+      <c r="O248" t="s">
         <v>411</v>
-      </c>
-      <c r="O248" t="s">
-        <v>410</v>
       </c>
       <c r="W248" s="3"/>
       <c r="Y248" s="2"/>
@@ -10473,10 +10521,10 @@
         <v>1</v>
       </c>
       <c r="N249" t="s">
+        <v>412</v>
+      </c>
+      <c r="O249" t="s">
         <v>411</v>
-      </c>
-      <c r="O249" t="s">
-        <v>410</v>
       </c>
       <c r="W249" s="3"/>
       <c r="Y249" s="2"/>
@@ -10514,10 +10562,10 @@
         <v>1</v>
       </c>
       <c r="N250" t="s">
+        <v>412</v>
+      </c>
+      <c r="O250" t="s">
         <v>411</v>
-      </c>
-      <c r="O250" t="s">
-        <v>410</v>
       </c>
       <c r="W250" s="3"/>
       <c r="Y250" s="2"/>
@@ -10543,10 +10591,10 @@
         <v>161</v>
       </c>
       <c r="N251" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O251" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="W251" s="3"/>
       <c r="Y251" s="2"/>
@@ -10581,13 +10629,13 @@
         <v>2</v>
       </c>
       <c r="M252" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N252" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O252" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="W252" s="3"/>
       <c r="Y252" s="2"/>
@@ -10628,10 +10676,10 @@
         <v>1</v>
       </c>
       <c r="N253" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O253" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="W253" s="3"/>
       <c r="Y253" s="2"/>
@@ -10672,10 +10720,10 @@
         <v>1</v>
       </c>
       <c r="N254" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O254" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="W254" s="3"/>
       <c r="Y254" s="2"/>
@@ -10713,10 +10761,10 @@
         <v>1</v>
       </c>
       <c r="N255" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O255" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="W255" s="3"/>
       <c r="Y255" s="2"/>
@@ -10754,10 +10802,10 @@
         <v>1</v>
       </c>
       <c r="N256" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O256" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="W256" s="3"/>
       <c r="Y256" s="2"/>
@@ -10783,10 +10831,10 @@
         <v>51</v>
       </c>
       <c r="N257" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O257" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="W257" s="3"/>
       <c r="Y257" s="2"/>
@@ -10821,13 +10869,13 @@
         <v>2</v>
       </c>
       <c r="M258" t="s">
+        <v>420</v>
+      </c>
+      <c r="N258" t="s">
         <v>419</v>
       </c>
-      <c r="N258" t="s">
-        <v>418</v>
-      </c>
       <c r="O258" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="W258" s="3"/>
       <c r="Y258" s="2"/>
@@ -10862,13 +10910,13 @@
         <v>2</v>
       </c>
       <c r="M259" t="s">
+        <v>420</v>
+      </c>
+      <c r="N259" t="s">
         <v>419</v>
       </c>
-      <c r="N259" t="s">
-        <v>418</v>
-      </c>
       <c r="O259" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="W259" s="3"/>
       <c r="Y259" s="2"/>
@@ -10909,10 +10957,10 @@
         <v>1</v>
       </c>
       <c r="N260" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O260" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="W260" s="3"/>
       <c r="Y260" s="2"/>
@@ -10953,10 +11001,10 @@
         <v>3</v>
       </c>
       <c r="N261" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O261" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="W261" s="3"/>
       <c r="Y261" s="2"/>
@@ -10997,10 +11045,10 @@
         <v>2</v>
       </c>
       <c r="N262" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O262" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="W262" s="3"/>
       <c r="Y262" s="2"/>
@@ -11026,10 +11074,10 @@
         <v>51</v>
       </c>
       <c r="N263" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O263" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="W263" s="3"/>
       <c r="Y263" s="2"/>
@@ -11070,10 +11118,10 @@
         <v>2</v>
       </c>
       <c r="N264" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O264" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="265" spans="1:26" x14ac:dyDescent="0.2">
@@ -11114,10 +11162,10 @@
         <v>166</v>
       </c>
       <c r="N265" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O265" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="268" spans="1:26" x14ac:dyDescent="0.2">
@@ -11201,10 +11249,10 @@
         <v>24</v>
       </c>
       <c r="N280" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O280" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.2">
@@ -11239,10 +11287,10 @@
         <v>1</v>
       </c>
       <c r="N281" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O281" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.2">
@@ -11277,10 +11325,10 @@
         <v>1</v>
       </c>
       <c r="N282" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O282" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.2">
@@ -11315,10 +11363,10 @@
         <v>1</v>
       </c>
       <c r="N283" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O283" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.2">
@@ -11341,10 +11389,10 @@
         <v>116</v>
       </c>
       <c r="N284" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O284" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.2">
@@ -11367,10 +11415,10 @@
         <v>51</v>
       </c>
       <c r="N285" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O285" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.2">
@@ -11405,10 +11453,10 @@
         <v>1</v>
       </c>
       <c r="N286" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O286" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.2">
@@ -11431,10 +11479,10 @@
         <v>51</v>
       </c>
       <c r="N287" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O287" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.2">
@@ -11457,10 +11505,10 @@
         <v>51</v>
       </c>
       <c r="N288" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O288" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="289" spans="1:16" x14ac:dyDescent="0.2">
@@ -11483,15 +11531,15 @@
         <v>116</v>
       </c>
       <c r="N289" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O289" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="290" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>66</v>
@@ -11524,10 +11572,10 @@
         <v>1</v>
       </c>
       <c r="N290" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O290" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="291" spans="1:16" x14ac:dyDescent="0.2">
@@ -11565,10 +11613,10 @@
         <v>1</v>
       </c>
       <c r="N291" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O291" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="292" spans="1:16" x14ac:dyDescent="0.2">
@@ -11603,10 +11651,10 @@
         <v>1</v>
       </c>
       <c r="N292" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O292" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="293" spans="1:16" x14ac:dyDescent="0.2">
@@ -11644,10 +11692,10 @@
         <v>2</v>
       </c>
       <c r="N293" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O293" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="294" spans="1:16" x14ac:dyDescent="0.2">
@@ -11685,10 +11733,10 @@
         <v>3</v>
       </c>
       <c r="N294" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O294" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="295" spans="1:16" x14ac:dyDescent="0.2">
@@ -11726,10 +11774,10 @@
         <v>1</v>
       </c>
       <c r="N295" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O295" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="296" spans="1:16" x14ac:dyDescent="0.2">
@@ -11752,10 +11800,10 @@
         <v>51</v>
       </c>
       <c r="N296" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O296" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="297" spans="1:16" x14ac:dyDescent="0.2">
@@ -11778,10 +11826,10 @@
         <v>161</v>
       </c>
       <c r="N297" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O297" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="298" spans="1:16" x14ac:dyDescent="0.2">
@@ -11816,10 +11864,10 @@
         <v>1</v>
       </c>
       <c r="N298" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O298" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="299" spans="1:16" x14ac:dyDescent="0.2">
@@ -11857,10 +11905,10 @@
         <v>1</v>
       </c>
       <c r="N299" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O299" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="300" spans="1:16" x14ac:dyDescent="0.2">
@@ -11898,10 +11946,10 @@
         <v>1</v>
       </c>
       <c r="N300" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O300" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="301" spans="1:16" x14ac:dyDescent="0.2">
@@ -11939,10 +11987,10 @@
         <v>3</v>
       </c>
       <c r="N301" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O301" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P301" s="2"/>
     </row>
@@ -11981,13 +12029,13 @@
         <v>1</v>
       </c>
       <c r="M302" t="s">
+        <v>427</v>
+      </c>
+      <c r="N302" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="N302" s="2" t="s">
-        <v>425</v>
-      </c>
       <c r="O302" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P302" s="2"/>
     </row>
@@ -12026,10 +12074,10 @@
         <v>1</v>
       </c>
       <c r="N303" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O303" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P303" s="2"/>
     </row>
@@ -12053,13 +12101,13 @@
         <v>161</v>
       </c>
       <c r="M304" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N304" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O304" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P304" s="2"/>
     </row>
@@ -12098,13 +12146,13 @@
         <v>2</v>
       </c>
       <c r="M305" t="s">
+        <v>430</v>
+      </c>
+      <c r="N305" t="s">
         <v>429</v>
       </c>
-      <c r="N305" t="s">
-        <v>428</v>
-      </c>
       <c r="O305" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P305" s="2"/>
     </row>
@@ -12143,10 +12191,10 @@
         <v>15</v>
       </c>
       <c r="N306" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O306" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P306" s="2"/>
     </row>
@@ -12182,10 +12230,10 @@
         <v>1</v>
       </c>
       <c r="N307" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O307" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P307" s="2"/>
     </row>
@@ -12194,13 +12242,13 @@
         <v>125</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C308" s="3">
         <v>6984145357456</v>
       </c>
       <c r="D308" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E308" s="2">
         <v>43217.541666666664</v>
@@ -12224,13 +12272,13 @@
         <v>2</v>
       </c>
       <c r="M308" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N308" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O308" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P308" s="2"/>
     </row>
@@ -12260,13 +12308,13 @@
         <v>4</v>
       </c>
       <c r="M309" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N309" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O309" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P309" s="2"/>
     </row>
@@ -12315,10 +12363,10 @@
       </c>
       <c r="M314" s="3"/>
       <c r="N314" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O314" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P314" s="2"/>
     </row>
@@ -12349,10 +12397,10 @@
       </c>
       <c r="M315" s="3"/>
       <c r="N315" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O315" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P315" s="2"/>
     </row>
@@ -12377,10 +12425,10 @@
       </c>
       <c r="M316" s="3"/>
       <c r="N316" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O316" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P316" s="2"/>
     </row>
@@ -12411,10 +12459,10 @@
       </c>
       <c r="M317" s="3"/>
       <c r="N317" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O317" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P317" s="2"/>
     </row>
@@ -12445,10 +12493,10 @@
       </c>
       <c r="M318" s="3"/>
       <c r="N318" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O318" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P318" s="2"/>
     </row>
@@ -12485,10 +12533,10 @@
       </c>
       <c r="M319" s="3"/>
       <c r="N319" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O319" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P319" s="2"/>
     </row>
@@ -12519,10 +12567,10 @@
       </c>
       <c r="M320" s="3"/>
       <c r="N320" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O320" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P320" s="2"/>
     </row>
@@ -12553,10 +12601,10 @@
       </c>
       <c r="M321" s="3"/>
       <c r="N321" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O321" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P321" s="2"/>
     </row>
@@ -12587,10 +12635,10 @@
       </c>
       <c r="M322" s="3"/>
       <c r="N322" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O322" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P322" s="2"/>
     </row>
@@ -12621,10 +12669,10 @@
       </c>
       <c r="M323" s="3"/>
       <c r="N323" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O323" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P323" s="2"/>
     </row>
@@ -12663,13 +12711,13 @@
         <v>1</v>
       </c>
       <c r="M324" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N324" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O324" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P324" s="2"/>
     </row>
@@ -12700,10 +12748,10 @@
       </c>
       <c r="M325" s="3"/>
       <c r="N325" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O325" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P325" s="2"/>
     </row>
@@ -12734,10 +12782,10 @@
       </c>
       <c r="M326" s="3"/>
       <c r="N326" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O326" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P326" s="2"/>
     </row>
@@ -12777,10 +12825,10 @@
       </c>
       <c r="M327" s="3"/>
       <c r="N327" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O327" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P327" s="2"/>
     </row>
@@ -12817,10 +12865,10 @@
       </c>
       <c r="M328" s="3"/>
       <c r="N328" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O328" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P328" s="2"/>
     </row>
@@ -12857,10 +12905,10 @@
       </c>
       <c r="M329" s="3"/>
       <c r="N329" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O329" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P329" s="2"/>
     </row>
@@ -12891,10 +12939,10 @@
       </c>
       <c r="M330" s="3"/>
       <c r="N330" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O330" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P330" s="2"/>
     </row>
@@ -12925,10 +12973,10 @@
       </c>
       <c r="M331" s="3"/>
       <c r="N331" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O331" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="332" spans="1:16" x14ac:dyDescent="0.2">
@@ -12958,10 +13006,10 @@
       </c>
       <c r="M332" s="3"/>
       <c r="N332" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O332" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="333" spans="1:16" x14ac:dyDescent="0.2">
@@ -12985,10 +13033,10 @@
       </c>
       <c r="M333" s="3"/>
       <c r="N333" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O333" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="334" spans="1:16" x14ac:dyDescent="0.2">
@@ -13018,10 +13066,10 @@
       </c>
       <c r="M334" s="3"/>
       <c r="N334" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O334" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="335" spans="1:16" x14ac:dyDescent="0.2">
@@ -13050,13 +13098,13 @@
         <v>2</v>
       </c>
       <c r="M335" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N335" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O335" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="336" spans="1:16" x14ac:dyDescent="0.2">
@@ -13086,10 +13134,10 @@
       </c>
       <c r="M336" s="3"/>
       <c r="N336" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O336" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.2">
@@ -13119,10 +13167,10 @@
       </c>
       <c r="M337" s="3"/>
       <c r="N337" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O337" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="338" spans="1:15" x14ac:dyDescent="0.2">
@@ -13151,13 +13199,13 @@
         <v>1</v>
       </c>
       <c r="M338" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N338" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O338" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.2">
@@ -13186,10 +13234,10 @@
         <v>1</v>
       </c>
       <c r="N339" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O339" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="340" spans="1:15" x14ac:dyDescent="0.2">
@@ -13218,10 +13266,10 @@
         <v>1</v>
       </c>
       <c r="N340" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O340" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="341" spans="1:15" x14ac:dyDescent="0.2">
@@ -13244,10 +13292,10 @@
         <v>51</v>
       </c>
       <c r="N341" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O341" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="342" spans="1:15" x14ac:dyDescent="0.2">
@@ -13270,10 +13318,10 @@
         <v>51</v>
       </c>
       <c r="N342" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O342" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="343" spans="1:15" x14ac:dyDescent="0.2">
@@ -13296,10 +13344,10 @@
         <v>51</v>
       </c>
       <c r="N343" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O343" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.2">
@@ -13328,10 +13376,10 @@
         <v>2</v>
       </c>
       <c r="N344" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O344" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.2">
@@ -13360,10 +13408,10 @@
         <v>2</v>
       </c>
       <c r="N345" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O345" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="346" spans="1:15" x14ac:dyDescent="0.2">
@@ -13392,13 +13440,13 @@
         <v>2</v>
       </c>
       <c r="M346" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N346" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O346" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="347" spans="1:15" x14ac:dyDescent="0.2">
@@ -13436,10 +13484,10 @@
         <v>2</v>
       </c>
       <c r="N347" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O347" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.2">
@@ -13468,13 +13516,13 @@
         <v>3</v>
       </c>
       <c r="M348" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N348" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O348" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="349" spans="1:15" x14ac:dyDescent="0.2">
@@ -13506,10 +13554,10 @@
         <v>1</v>
       </c>
       <c r="N349" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O349" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.2">
@@ -13538,10 +13586,10 @@
         <v>1</v>
       </c>
       <c r="N350" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O350" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.2">
@@ -13576,10 +13624,10 @@
         <v>23</v>
       </c>
       <c r="N351" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O351" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.2">
@@ -13614,10 +13662,10 @@
         <v>23</v>
       </c>
       <c r="N352" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O352" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="353" spans="1:15" x14ac:dyDescent="0.2">
@@ -13652,10 +13700,10 @@
         <v>1</v>
       </c>
       <c r="N353" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O353" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="354" spans="1:15" x14ac:dyDescent="0.2">
@@ -13679,10 +13727,10 @@
       </c>
       <c r="L354" s="3"/>
       <c r="N354" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O354" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="355" spans="1:15" x14ac:dyDescent="0.2">
@@ -13711,10 +13759,10 @@
         <v>2</v>
       </c>
       <c r="N355" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O355" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="356" spans="1:15" x14ac:dyDescent="0.2">
@@ -13752,10 +13800,10 @@
         <v>1</v>
       </c>
       <c r="N356" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O356" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="357" spans="1:15" x14ac:dyDescent="0.2">
@@ -13784,10 +13832,10 @@
         <v>4</v>
       </c>
       <c r="N357" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O357" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="358" spans="1:15" x14ac:dyDescent="0.2">
@@ -13816,10 +13864,10 @@
         <v>2</v>
       </c>
       <c r="N358" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O358" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="359" spans="1:15" x14ac:dyDescent="0.2">
@@ -13848,10 +13896,10 @@
         <v>2</v>
       </c>
       <c r="N359" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O359" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.2">
@@ -13880,10 +13928,10 @@
         <v>2</v>
       </c>
       <c r="N360" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O360" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="361" spans="1:15" x14ac:dyDescent="0.2">
@@ -13912,10 +13960,10 @@
         <v>1</v>
       </c>
       <c r="N361" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O361" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="362" spans="1:15" x14ac:dyDescent="0.2">
@@ -13944,10 +13992,10 @@
         <v>5</v>
       </c>
       <c r="N362" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O362" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.2">
@@ -13976,10 +14024,10 @@
         <v>1</v>
       </c>
       <c r="N363" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O363" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="364" spans="1:15" x14ac:dyDescent="0.2">
@@ -14043,10 +14091,10 @@
       </c>
       <c r="L372" s="3"/>
       <c r="N372" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O372" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="373" spans="1:15" x14ac:dyDescent="0.2">
@@ -14078,13 +14126,13 @@
         <v>12</v>
       </c>
       <c r="M373" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N373" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O373" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="374" spans="1:15" x14ac:dyDescent="0.2">
@@ -14116,13 +14164,13 @@
         <v>2</v>
       </c>
       <c r="M374" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N374" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O374" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="375" spans="1:15" x14ac:dyDescent="0.2">
@@ -14151,10 +14199,10 @@
         <v>1</v>
       </c>
       <c r="N375" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O375" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="376" spans="1:15" x14ac:dyDescent="0.2">
@@ -14186,10 +14234,10 @@
         <v>1</v>
       </c>
       <c r="N376" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O376" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="377" spans="1:15" x14ac:dyDescent="0.2">
@@ -14218,10 +14266,10 @@
         <v>1</v>
       </c>
       <c r="N377" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O377" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="378" spans="1:15" x14ac:dyDescent="0.2">
@@ -14253,10 +14301,10 @@
         <v>30</v>
       </c>
       <c r="N378" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="O378" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="O378" s="2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="379" spans="1:15" x14ac:dyDescent="0.2">
@@ -14294,13 +14342,13 @@
         <v>2</v>
       </c>
       <c r="M379" t="s">
+        <v>447</v>
+      </c>
+      <c r="N379" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="N379" s="2" t="s">
+      <c r="O379" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="O379" s="2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="380" spans="1:15" x14ac:dyDescent="0.2">
@@ -14338,10 +14386,10 @@
         <v>1</v>
       </c>
       <c r="N380" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="O380" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="O380" s="2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="381" spans="1:15" x14ac:dyDescent="0.2">
@@ -14364,10 +14412,10 @@
         <v>161</v>
       </c>
       <c r="N381" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O381" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="382" spans="1:15" x14ac:dyDescent="0.2">
@@ -14399,13 +14447,13 @@
         <v>2</v>
       </c>
       <c r="M382" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N382" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O382" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="383" spans="1:15" x14ac:dyDescent="0.2">
@@ -14431,13 +14479,13 @@
         <v>1</v>
       </c>
       <c r="M383" t="s">
+        <v>449</v>
+      </c>
+      <c r="N383" t="s">
         <v>448</v>
       </c>
-      <c r="N383" t="s">
-        <v>447</v>
-      </c>
       <c r="O383" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="384" spans="1:15" x14ac:dyDescent="0.2">
@@ -14469,13 +14517,13 @@
         <v>2</v>
       </c>
       <c r="M384" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N384" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O384" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="385" spans="1:15" x14ac:dyDescent="0.2">
@@ -14510,10 +14558,10 @@
         <v>1</v>
       </c>
       <c r="N385" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O385" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="386" spans="1:15" x14ac:dyDescent="0.2">
@@ -14551,10 +14599,10 @@
         <v>2</v>
       </c>
       <c r="N386" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O386" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="387" spans="1:15" x14ac:dyDescent="0.2">
@@ -14592,10 +14640,10 @@
         <v>2</v>
       </c>
       <c r="N387" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O387" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="388" spans="1:15" x14ac:dyDescent="0.2">
@@ -14627,10 +14675,10 @@
         <v>2</v>
       </c>
       <c r="N388" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O388" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="389" spans="1:15" x14ac:dyDescent="0.2">
@@ -14662,13 +14710,13 @@
         <v>25</v>
       </c>
       <c r="M389" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N389" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O389" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="390" spans="1:15" x14ac:dyDescent="0.2">
@@ -14697,10 +14745,10 @@
         <v>1</v>
       </c>
       <c r="N390" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O390" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="391" spans="1:15" x14ac:dyDescent="0.2">
@@ -14738,10 +14786,10 @@
         <v>1</v>
       </c>
       <c r="N391" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O391" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="392" spans="1:15" x14ac:dyDescent="0.2">
@@ -14770,10 +14818,10 @@
         <v>1</v>
       </c>
       <c r="N392" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O392" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="393" spans="1:15" x14ac:dyDescent="0.2">
@@ -14802,13 +14850,13 @@
         <v>5</v>
       </c>
       <c r="M393" t="s">
+        <v>452</v>
+      </c>
+      <c r="N393" t="s">
         <v>451</v>
       </c>
-      <c r="N393" t="s">
-        <v>450</v>
-      </c>
       <c r="O393" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="394" spans="1:15" x14ac:dyDescent="0.2">
@@ -14837,10 +14885,10 @@
         <v>1</v>
       </c>
       <c r="N394" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O394" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="395" spans="1:15" x14ac:dyDescent="0.2">
@@ -14872,10 +14920,10 @@
         <v>1</v>
       </c>
       <c r="N395" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O395" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="396" spans="1:15" x14ac:dyDescent="0.2">
@@ -14910,10 +14958,10 @@
         <v>2</v>
       </c>
       <c r="N396" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O396" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="397" spans="1:15" x14ac:dyDescent="0.2">
@@ -14936,10 +14984,10 @@
         <v>161</v>
       </c>
       <c r="N397" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O397" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="398" spans="1:15" x14ac:dyDescent="0.2">
@@ -14968,13 +15016,13 @@
         <v>15</v>
       </c>
       <c r="M398" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N398" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O398" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="399" spans="1:15" x14ac:dyDescent="0.2">
@@ -15012,10 +15060,10 @@
         <v>2</v>
       </c>
       <c r="N399" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O399" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="400" spans="1:15" x14ac:dyDescent="0.2">
@@ -15044,13 +15092,13 @@
         <v>1</v>
       </c>
       <c r="M400" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N400" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O400" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="401" spans="1:15" x14ac:dyDescent="0.2">
@@ -15079,18 +15127,18 @@
         <v>20</v>
       </c>
       <c r="M401" t="s">
+        <v>457</v>
+      </c>
+      <c r="N401" t="s">
         <v>456</v>
       </c>
-      <c r="N401" t="s">
-        <v>455</v>
-      </c>
       <c r="O401" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>148</v>
@@ -15124,22 +15172,46 @@
       <c r="E406" s="2">
         <v>43222.325694444444</v>
       </c>
+      <c r="F406" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>152</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="C407" s="3">
-        <v>7008527366619</v>
+        <v>7008546366649</v>
       </c>
       <c r="D407" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="E407" s="2">
-        <v>43222.329861111109</v>
+        <v>43222.325694444444</v>
+      </c>
+      <c r="F407" t="s">
+        <v>164</v>
+      </c>
+      <c r="G407">
+        <v>215</v>
+      </c>
+      <c r="H407">
+        <v>33</v>
+      </c>
+      <c r="I407" t="s">
+        <v>156</v>
+      </c>
+      <c r="L407">
+        <v>1</v>
+      </c>
+      <c r="N407" t="s">
+        <v>472</v>
+      </c>
+      <c r="O407" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="408" spans="1:15" x14ac:dyDescent="0.2">
@@ -15147,16 +15219,37 @@
         <v>152</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C408" s="3">
-        <v>7008489366555</v>
+        <v>7008527366619</v>
       </c>
       <c r="D408" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="E408" s="2">
-        <v>43222.334027777775</v>
+        <v>43222.329861111109</v>
+      </c>
+      <c r="F408" t="s">
+        <v>11</v>
+      </c>
+      <c r="J408" t="s">
+        <v>15</v>
+      </c>
+      <c r="K408">
+        <v>1</v>
+      </c>
+      <c r="L408">
+        <v>3</v>
+      </c>
+      <c r="M408" t="s">
+        <v>458</v>
+      </c>
+      <c r="N408" t="s">
+        <v>472</v>
+      </c>
+      <c r="O408" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="409" spans="1:15" x14ac:dyDescent="0.2">
@@ -15164,16 +15257,37 @@
         <v>152</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C409" s="3">
-        <v>7008481366542</v>
+        <v>7008489366555</v>
       </c>
       <c r="D409" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="E409" s="2">
-        <v>43222.335416666669</v>
+        <v>43222.334027777775</v>
+      </c>
+      <c r="F409" t="s">
+        <v>11</v>
+      </c>
+      <c r="J409" t="s">
+        <v>10</v>
+      </c>
+      <c r="K409">
+        <v>1</v>
+      </c>
+      <c r="L409">
+        <v>1</v>
+      </c>
+      <c r="M409" t="s">
+        <v>23</v>
+      </c>
+      <c r="N409" t="s">
+        <v>472</v>
+      </c>
+      <c r="O409" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="410" spans="1:15" x14ac:dyDescent="0.2">
@@ -15181,16 +15295,37 @@
         <v>152</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C410" s="3">
-        <v>7008469366500</v>
+        <v>7008481366542</v>
       </c>
       <c r="D410" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="E410" s="2">
-        <v>43222.336805555555</v>
+        <v>43222.335416666669</v>
+      </c>
+      <c r="F410" t="s">
+        <v>11</v>
+      </c>
+      <c r="J410" t="s">
+        <v>10</v>
+      </c>
+      <c r="K410">
+        <v>1</v>
+      </c>
+      <c r="L410">
+        <v>2</v>
+      </c>
+      <c r="M410" t="s">
+        <v>23</v>
+      </c>
+      <c r="N410" t="s">
+        <v>472</v>
+      </c>
+      <c r="O410" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="411" spans="1:15" x14ac:dyDescent="0.2">
@@ -15198,16 +15333,37 @@
         <v>152</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C411" s="3">
-        <v>7008230366123</v>
+        <v>7008469366500</v>
       </c>
       <c r="D411" t="s">
-        <v>353</v>
+        <v>213</v>
       </c>
       <c r="E411" s="2">
-        <v>43222.348611111112</v>
+        <v>43222.336805555555</v>
+      </c>
+      <c r="F411" t="s">
+        <v>11</v>
+      </c>
+      <c r="J411" t="s">
+        <v>10</v>
+      </c>
+      <c r="K411">
+        <v>1</v>
+      </c>
+      <c r="L411">
+        <v>1</v>
+      </c>
+      <c r="M411" t="s">
+        <v>23</v>
+      </c>
+      <c r="N411" t="s">
+        <v>472</v>
+      </c>
+      <c r="O411" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="412" spans="1:15" x14ac:dyDescent="0.2">
@@ -15215,16 +15371,37 @@
         <v>152</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C412" s="3">
-        <v>7008184366055</v>
+        <v>7008230366123</v>
       </c>
       <c r="D412" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E412" s="2">
-        <v>43222.351388888892</v>
+        <v>43222.348611111112</v>
+      </c>
+      <c r="F412" t="s">
+        <v>11</v>
+      </c>
+      <c r="J412" t="s">
+        <v>10</v>
+      </c>
+      <c r="K412">
+        <v>1</v>
+      </c>
+      <c r="L412">
+        <v>30</v>
+      </c>
+      <c r="M412" t="s">
+        <v>23</v>
+      </c>
+      <c r="N412" t="s">
+        <v>472</v>
+      </c>
+      <c r="O412" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="413" spans="1:15" x14ac:dyDescent="0.2">
@@ -15232,16 +15409,37 @@
         <v>152</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C413" s="3">
-        <v>7007756365256</v>
+        <v>7008184366055</v>
       </c>
       <c r="D413" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E413" s="2">
-        <v>43222.363888888889</v>
+        <v>43222.351388888892</v>
+      </c>
+      <c r="F413" t="s">
+        <v>11</v>
+      </c>
+      <c r="J413" t="s">
+        <v>10</v>
+      </c>
+      <c r="K413">
+        <v>1</v>
+      </c>
+      <c r="L413">
+        <v>3</v>
+      </c>
+      <c r="M413" t="s">
+        <v>392</v>
+      </c>
+      <c r="N413" t="s">
+        <v>472</v>
+      </c>
+      <c r="O413" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="414" spans="1:15" x14ac:dyDescent="0.2">
@@ -15249,16 +15447,37 @@
         <v>152</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C414" s="3">
-        <v>7007701365129</v>
+        <v>7007756365256</v>
       </c>
       <c r="D414" t="s">
-        <v>188</v>
+        <v>355</v>
       </c>
       <c r="E414" s="2">
-        <v>43222.366666666669</v>
+        <v>43222.363888888889</v>
+      </c>
+      <c r="F414" t="s">
+        <v>11</v>
+      </c>
+      <c r="J414" t="s">
+        <v>10</v>
+      </c>
+      <c r="K414">
+        <v>1</v>
+      </c>
+      <c r="L414">
+        <v>2</v>
+      </c>
+      <c r="M414" t="s">
+        <v>23</v>
+      </c>
+      <c r="N414" t="s">
+        <v>472</v>
+      </c>
+      <c r="O414" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="415" spans="1:15" x14ac:dyDescent="0.2">
@@ -15266,16 +15485,40 @@
         <v>152</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C415" s="3">
-        <v>7007599364865</v>
+        <v>7007701365129</v>
       </c>
       <c r="D415" t="s">
-        <v>356</v>
+        <v>188</v>
       </c>
       <c r="E415" s="2">
-        <v>43222.37222222222</v>
+        <v>43222.366666666669</v>
+      </c>
+      <c r="F415" t="s">
+        <v>9</v>
+      </c>
+      <c r="G415">
+        <v>79</v>
+      </c>
+      <c r="H415">
+        <v>26</v>
+      </c>
+      <c r="I415" t="s">
+        <v>153</v>
+      </c>
+      <c r="J415" t="s">
+        <v>10</v>
+      </c>
+      <c r="L415">
+        <v>1</v>
+      </c>
+      <c r="N415" t="s">
+        <v>472</v>
+      </c>
+      <c r="O415" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="416" spans="1:15" x14ac:dyDescent="0.2">
@@ -15283,288 +15526,609 @@
         <v>152</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C416" s="3">
-        <v>7007353364176</v>
+        <v>7007701365129</v>
       </c>
       <c r="D416" t="s">
-        <v>273</v>
+        <v>188</v>
       </c>
       <c r="E416" s="2">
-        <v>43222.379166666666</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43222.366666666669</v>
+      </c>
+      <c r="F416" t="s">
+        <v>9</v>
+      </c>
+      <c r="G416">
+        <v>192</v>
+      </c>
+      <c r="H416">
+        <v>97</v>
+      </c>
+      <c r="I416" t="s">
+        <v>156</v>
+      </c>
+      <c r="L416">
+        <v>1</v>
+      </c>
+      <c r="N416" t="s">
+        <v>472</v>
+      </c>
+      <c r="O416" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>152</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C417" s="3">
-        <v>7007224363897</v>
+        <v>7007701365129</v>
       </c>
       <c r="D417" t="s">
-        <v>303</v>
+        <v>188</v>
       </c>
       <c r="E417" s="2">
-        <v>43222.383333333331</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43222.366666666669</v>
+      </c>
+      <c r="F417" t="s">
+        <v>164</v>
+      </c>
+      <c r="G417">
+        <v>421</v>
+      </c>
+      <c r="H417">
+        <v>342</v>
+      </c>
+      <c r="I417" t="s">
+        <v>156</v>
+      </c>
+      <c r="L417">
+        <v>1</v>
+      </c>
+      <c r="N417" t="s">
+        <v>472</v>
+      </c>
+      <c r="O417" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>152</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C418" s="3">
-        <v>7006864363345</v>
+        <v>7007599364865</v>
       </c>
       <c r="D418" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E418" s="2">
-        <v>43222.400000000001</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43222.37222222222</v>
+      </c>
+      <c r="F418" t="s">
+        <v>9</v>
+      </c>
+      <c r="G418">
+        <v>57</v>
+      </c>
+      <c r="H418">
+        <v>90</v>
+      </c>
+      <c r="I418" t="s">
+        <v>153</v>
+      </c>
+      <c r="J418" t="s">
+        <v>15</v>
+      </c>
+      <c r="L418">
+        <v>2</v>
+      </c>
+      <c r="N418" t="s">
+        <v>472</v>
+      </c>
+      <c r="O418" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>152</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C419" s="3">
-        <v>7006855363327</v>
+        <v>7007353364176</v>
       </c>
       <c r="D419" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="E419" s="2">
-        <v>43222.402083333334</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43222.379166666666</v>
+      </c>
+      <c r="F419" t="s">
+        <v>164</v>
+      </c>
+      <c r="G419">
+        <v>371</v>
+      </c>
+      <c r="H419">
+        <v>302</v>
+      </c>
+      <c r="I419" t="s">
+        <v>156</v>
+      </c>
+      <c r="L419">
+        <v>1</v>
+      </c>
+      <c r="N419" t="s">
+        <v>472</v>
+      </c>
+      <c r="O419" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>152</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C420" s="3">
-        <v>7006741363193</v>
+        <v>7007224363897</v>
       </c>
       <c r="D420" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="E420" s="2">
-        <v>43222.40625</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43222.383333333331</v>
+      </c>
+      <c r="F420" t="s">
+        <v>11</v>
+      </c>
+      <c r="K420">
+        <v>1</v>
+      </c>
+      <c r="L420">
+        <v>6</v>
+      </c>
+      <c r="M420" t="s">
+        <v>459</v>
+      </c>
+      <c r="N420" t="s">
+        <v>472</v>
+      </c>
+      <c r="O420" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>152</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C421" s="3">
-        <v>7006705363181</v>
+        <v>7006864363345</v>
       </c>
       <c r="D421" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="E421" s="2">
-        <v>43222.408333333333</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43222.400000000001</v>
+      </c>
+      <c r="F421" t="s">
+        <v>164</v>
+      </c>
+      <c r="G421">
+        <v>143</v>
+      </c>
+      <c r="H421">
+        <v>265</v>
+      </c>
+      <c r="I421" t="s">
+        <v>156</v>
+      </c>
+      <c r="L421">
+        <v>1</v>
+      </c>
+      <c r="N421" t="s">
+        <v>472</v>
+      </c>
+      <c r="O421" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>152</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C422" s="3">
-        <v>7006635363106</v>
+        <v>7006855363327</v>
       </c>
       <c r="D422" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="E422" s="2">
-        <v>43222.410416666666</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43222.402083333334</v>
+      </c>
+      <c r="F422" t="s">
+        <v>11</v>
+      </c>
+      <c r="J422" t="s">
+        <v>16</v>
+      </c>
+      <c r="K422">
+        <v>1</v>
+      </c>
+      <c r="L422">
+        <v>20</v>
+      </c>
+      <c r="M422" t="s">
+        <v>460</v>
+      </c>
+      <c r="N422" t="s">
+        <v>472</v>
+      </c>
+      <c r="O422" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>152</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C423" s="3">
-        <v>7006632363092</v>
+        <v>7006741363193</v>
       </c>
       <c r="D423" t="s">
         <v>358</v>
       </c>
       <c r="E423" s="2">
-        <v>43222.412499999999</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43222.40625</v>
+      </c>
+      <c r="F423" t="s">
+        <v>160</v>
+      </c>
+      <c r="J423" t="s">
+        <v>16</v>
+      </c>
+      <c r="L423">
+        <v>1</v>
+      </c>
+      <c r="M423" t="s">
+        <v>461</v>
+      </c>
+      <c r="N423" t="s">
+        <v>472</v>
+      </c>
+      <c r="O423" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>152</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C424" s="3">
-        <v>7006656363084</v>
+        <v>7006705363181</v>
       </c>
       <c r="D424" t="s">
-        <v>359</v>
+        <v>312</v>
       </c>
       <c r="E424" s="2">
-        <v>43222.425000000003</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43222.408333333333</v>
+      </c>
+      <c r="F424" t="s">
+        <v>160</v>
+      </c>
+      <c r="J424" t="s">
+        <v>16</v>
+      </c>
+      <c r="L424">
+        <v>1</v>
+      </c>
+      <c r="N424" t="s">
+        <v>472</v>
+      </c>
+      <c r="O424" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>152</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C425" s="3">
-        <v>7006704363076</v>
+        <v>7006635363106</v>
       </c>
       <c r="D425" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E425" s="2">
-        <v>43222.431944444441</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43222.410416666666</v>
+      </c>
+      <c r="F425" t="s">
+        <v>160</v>
+      </c>
+      <c r="J425" t="s">
+        <v>16</v>
+      </c>
+      <c r="L425">
+        <v>3</v>
+      </c>
+      <c r="N425" t="s">
+        <v>472</v>
+      </c>
+      <c r="O425" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>152</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C426" s="3">
-        <v>7006759363054</v>
+        <v>7006632363092</v>
       </c>
       <c r="D426" t="s">
-        <v>288</v>
+        <v>358</v>
       </c>
       <c r="E426" s="2">
-        <v>43222.435416666667</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43222.412499999999</v>
+      </c>
+      <c r="F426" t="s">
+        <v>161</v>
+      </c>
+      <c r="N426" t="s">
+        <v>472</v>
+      </c>
+      <c r="O426" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>152</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C427" s="3">
-        <v>7006796363052</v>
+        <v>7006632363092</v>
       </c>
       <c r="D427" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E427" s="2">
-        <v>43222.436805555553</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43222.412499999999</v>
+      </c>
+      <c r="F427" t="s">
+        <v>164</v>
+      </c>
+      <c r="G427">
+        <v>277</v>
+      </c>
+      <c r="H427">
+        <v>56</v>
+      </c>
+      <c r="I427" t="s">
+        <v>154</v>
+      </c>
+      <c r="J427" t="s">
+        <v>10</v>
+      </c>
+      <c r="L427">
+        <v>1</v>
+      </c>
+      <c r="N427" t="s">
+        <v>472</v>
+      </c>
+      <c r="O427" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>152</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="C428" s="3">
-        <v>7006864363034</v>
+        <v>7006656363084</v>
       </c>
       <c r="D428" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="E428" s="2">
-        <v>43222.439583333333</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43222.425000000003</v>
+      </c>
+      <c r="F428" t="s">
+        <v>11</v>
+      </c>
+      <c r="J428" t="s">
+        <v>10</v>
+      </c>
+      <c r="K428">
+        <v>1</v>
+      </c>
+      <c r="L428">
+        <v>30</v>
+      </c>
+      <c r="M428" t="s">
+        <v>438</v>
+      </c>
+      <c r="N428" t="s">
+        <v>472</v>
+      </c>
+      <c r="O428" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>152</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C429" s="3">
-        <v>7006882363032</v>
+        <v>7006704363076</v>
       </c>
       <c r="D429" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E429" s="2">
-        <v>43222.44027777778</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43222.431944444441</v>
+      </c>
+      <c r="F429" t="s">
+        <v>160</v>
+      </c>
+      <c r="J429" t="s">
+        <v>16</v>
+      </c>
+      <c r="L429">
+        <v>8</v>
+      </c>
+      <c r="M429" t="s">
+        <v>462</v>
+      </c>
+      <c r="N429" t="s">
+        <v>472</v>
+      </c>
+      <c r="O429" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>152</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C430" s="3">
-        <v>7007268362982</v>
+        <v>7006759363054</v>
       </c>
       <c r="D430" t="s">
-        <v>362</v>
+        <v>288</v>
       </c>
       <c r="E430" s="2">
-        <v>43222.448611111111</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43222.435416666667</v>
+      </c>
+      <c r="F430" t="s">
+        <v>160</v>
+      </c>
+      <c r="J430" t="s">
+        <v>16</v>
+      </c>
+      <c r="L430">
+        <v>3</v>
+      </c>
+      <c r="M430" t="s">
+        <v>462</v>
+      </c>
+      <c r="N430" t="s">
+        <v>472</v>
+      </c>
+      <c r="O430" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>152</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C431" s="3">
-        <v>7007286362985</v>
+        <v>7006796363052</v>
       </c>
       <c r="D431" t="s">
-        <v>282</v>
+        <v>360</v>
       </c>
       <c r="E431" s="2">
-        <v>43222.450694444444</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43222.436805555553</v>
+      </c>
+      <c r="F431" t="s">
+        <v>160</v>
+      </c>
+      <c r="J431" t="s">
+        <v>16</v>
+      </c>
+      <c r="L431">
+        <v>4</v>
+      </c>
+      <c r="M431" t="s">
+        <v>462</v>
+      </c>
+      <c r="N431" t="s">
+        <v>472</v>
+      </c>
+      <c r="O431" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>152</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C432" s="3">
-        <v>7007299362986</v>
+        <v>7006864363034</v>
       </c>
       <c r="D432" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="E432" s="2">
-        <v>43222.45208333333</v>
+        <v>43222.439583333333</v>
+      </c>
+      <c r="F432" t="s">
+        <v>160</v>
+      </c>
+      <c r="J432" t="s">
+        <v>16</v>
+      </c>
+      <c r="L432">
+        <v>1</v>
+      </c>
+      <c r="M432" t="s">
+        <v>462</v>
+      </c>
+      <c r="N432" t="s">
+        <v>472</v>
+      </c>
+      <c r="O432" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="433" spans="1:15" x14ac:dyDescent="0.2">
@@ -15572,16 +16136,37 @@
         <v>152</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C433" s="3">
-        <v>7007413362958</v>
+        <v>7006882363032</v>
       </c>
       <c r="D433" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E433" s="2">
-        <v>43222.455555555556</v>
+        <v>43222.44027777778</v>
+      </c>
+      <c r="F433" t="s">
+        <v>11</v>
+      </c>
+      <c r="J433" t="s">
+        <v>16</v>
+      </c>
+      <c r="K433">
+        <v>1</v>
+      </c>
+      <c r="L433">
+        <v>4</v>
+      </c>
+      <c r="M433" t="s">
+        <v>463</v>
+      </c>
+      <c r="N433" t="s">
+        <v>472</v>
+      </c>
+      <c r="O433" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="434" spans="1:15" x14ac:dyDescent="0.2">
@@ -15589,16 +16174,37 @@
         <v>152</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C434" s="3">
-        <v>7009681362779</v>
+        <v>7007268362982</v>
       </c>
       <c r="D434" t="s">
-        <v>243</v>
+        <v>362</v>
       </c>
       <c r="E434" s="2">
-        <v>43222.494444444441</v>
+        <v>43222.448611111111</v>
+      </c>
+      <c r="F434" t="s">
+        <v>11</v>
+      </c>
+      <c r="J434" t="s">
+        <v>15</v>
+      </c>
+      <c r="K434">
+        <v>1</v>
+      </c>
+      <c r="L434">
+        <v>20</v>
+      </c>
+      <c r="M434" t="s">
+        <v>464</v>
+      </c>
+      <c r="N434" t="s">
+        <v>472</v>
+      </c>
+      <c r="O434" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="435" spans="1:15" x14ac:dyDescent="0.2">
@@ -15606,16 +16212,37 @@
         <v>152</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C435" s="3">
-        <v>7010638362876</v>
+        <v>7007286362985</v>
       </c>
       <c r="D435" t="s">
-        <v>364</v>
+        <v>282</v>
       </c>
       <c r="E435" s="2">
-        <v>43222.50277777778</v>
+        <v>43222.450694444444</v>
+      </c>
+      <c r="F435" t="s">
+        <v>11</v>
+      </c>
+      <c r="J435" t="s">
+        <v>10</v>
+      </c>
+      <c r="K435">
+        <v>1</v>
+      </c>
+      <c r="L435">
+        <v>13</v>
+      </c>
+      <c r="M435" t="s">
+        <v>23</v>
+      </c>
+      <c r="N435" t="s">
+        <v>472</v>
+      </c>
+      <c r="O435" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="436" spans="1:15" x14ac:dyDescent="0.2">
@@ -15623,16 +16250,37 @@
         <v>152</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="C436" s="3">
-        <v>7010614362913</v>
+        <v>7007299362986</v>
       </c>
       <c r="D436" t="s">
-        <v>364</v>
+        <v>281</v>
       </c>
       <c r="E436" s="2">
-        <v>43222.522222222222</v>
+        <v>43222.45208333333</v>
+      </c>
+      <c r="F436" t="s">
+        <v>11</v>
+      </c>
+      <c r="J436" t="s">
+        <v>10</v>
+      </c>
+      <c r="K436">
+        <v>1</v>
+      </c>
+      <c r="L436">
+        <v>10</v>
+      </c>
+      <c r="M436" t="s">
+        <v>465</v>
+      </c>
+      <c r="N436" t="s">
+        <v>472</v>
+      </c>
+      <c r="O436" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="437" spans="1:15" x14ac:dyDescent="0.2">
@@ -15640,16 +16288,37 @@
         <v>152</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C437" s="3">
-        <v>7010584362972</v>
+        <v>7007413362958</v>
       </c>
       <c r="D437" t="s">
-        <v>278</v>
+        <v>363</v>
       </c>
       <c r="E437" s="2">
-        <v>43222.524305555555</v>
+        <v>43222.455555555556</v>
+      </c>
+      <c r="F437" t="s">
+        <v>11</v>
+      </c>
+      <c r="J437" t="s">
+        <v>15</v>
+      </c>
+      <c r="K437">
+        <v>1</v>
+      </c>
+      <c r="L437">
+        <v>1</v>
+      </c>
+      <c r="M437" t="s">
+        <v>392</v>
+      </c>
+      <c r="N437" t="s">
+        <v>472</v>
+      </c>
+      <c r="O437" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="438" spans="1:15" x14ac:dyDescent="0.2">
@@ -15657,36 +16326,78 @@
         <v>152</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="C438" s="3">
-        <v>7009698364284</v>
+        <v>7009681362779</v>
       </c>
       <c r="D438" t="s">
-        <v>365</v>
+        <v>243</v>
       </c>
       <c r="E438" s="2">
-        <v>43222.599305555559</v>
-      </c>
-      <c r="L438" s="3"/>
-      <c r="N438" s="2"/>
-      <c r="O438" s="2"/>
+        <v>43222.494444444441</v>
+      </c>
+      <c r="F438" t="s">
+        <v>9</v>
+      </c>
+      <c r="G438">
+        <v>41</v>
+      </c>
+      <c r="H438">
+        <v>282</v>
+      </c>
+      <c r="I438" t="s">
+        <v>154</v>
+      </c>
+      <c r="J438" t="s">
+        <v>10</v>
+      </c>
+      <c r="L438">
+        <v>2</v>
+      </c>
+      <c r="N438" t="s">
+        <v>472</v>
+      </c>
+      <c r="O438" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>152</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C439" s="3">
-        <v>7009212365539</v>
+        <v>7009681362779</v>
       </c>
       <c r="D439" t="s">
-        <v>354</v>
+        <v>243</v>
       </c>
       <c r="E439" s="2">
-        <v>43222.618055555555</v>
+        <v>43222.494444444441</v>
+      </c>
+      <c r="F439" t="s">
+        <v>9</v>
+      </c>
+      <c r="G439">
+        <v>136</v>
+      </c>
+      <c r="H439">
+        <v>135</v>
+      </c>
+      <c r="I439" t="s">
+        <v>156</v>
+      </c>
+      <c r="L439" s="3">
+        <v>1</v>
+      </c>
+      <c r="N439" t="s">
+        <v>472</v>
+      </c>
+      <c r="O439" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="440" spans="1:15" x14ac:dyDescent="0.2">
@@ -15694,16 +16405,25 @@
         <v>152</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C440" s="3">
-        <v>7009208365577</v>
+        <v>7010638362876</v>
       </c>
       <c r="D440" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E440" s="2">
-        <v>43222.620138888888</v>
+        <v>43222.50277777778</v>
+      </c>
+      <c r="F440" t="s">
+        <v>161</v>
+      </c>
+      <c r="N440" t="s">
+        <v>472</v>
+      </c>
+      <c r="O440" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="441" spans="1:15" x14ac:dyDescent="0.2">
@@ -15711,16 +16431,40 @@
         <v>152</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="C441" s="3">
-        <v>7009208365588</v>
+        <v>7010614362913</v>
       </c>
       <c r="D441" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E441" s="2">
-        <v>43222.621527777781</v>
+        <v>43222.522222222222</v>
+      </c>
+      <c r="F441" t="s">
+        <v>9</v>
+      </c>
+      <c r="G441">
+        <v>18</v>
+      </c>
+      <c r="H441">
+        <v>318</v>
+      </c>
+      <c r="I441" t="s">
+        <v>153</v>
+      </c>
+      <c r="J441" t="s">
+        <v>15</v>
+      </c>
+      <c r="L441">
+        <v>1</v>
+      </c>
+      <c r="N441" t="s">
+        <v>472</v>
+      </c>
+      <c r="O441" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="442" spans="1:15" x14ac:dyDescent="0.2">
@@ -15728,16 +16472,37 @@
         <v>152</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="C442" s="3">
-        <v>7009199365638</v>
+        <v>7010584362972</v>
       </c>
       <c r="D442" t="s">
-        <v>368</v>
+        <v>278</v>
       </c>
       <c r="E442" s="2">
-        <v>43222.623611111114</v>
+        <v>43222.524305555555</v>
+      </c>
+      <c r="F442" t="s">
+        <v>11</v>
+      </c>
+      <c r="J442" t="s">
+        <v>10</v>
+      </c>
+      <c r="K442">
+        <v>1</v>
+      </c>
+      <c r="L442">
+        <v>1</v>
+      </c>
+      <c r="M442" t="s">
+        <v>23</v>
+      </c>
+      <c r="N442" t="s">
+        <v>466</v>
+      </c>
+      <c r="O442" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="443" spans="1:15" x14ac:dyDescent="0.2">
@@ -15745,16 +16510,25 @@
         <v>152</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="C443" s="3">
-        <v>7009186365662</v>
+        <v>7009698364284</v>
       </c>
       <c r="D443" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E443" s="2">
-        <v>43222.625694444447</v>
+        <v>43222.599305555559</v>
+      </c>
+      <c r="F443" t="s">
+        <v>151</v>
+      </c>
+      <c r="N443" t="s">
+        <v>466</v>
+      </c>
+      <c r="O443" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="444" spans="1:15" x14ac:dyDescent="0.2">
@@ -15762,16 +16536,37 @@
         <v>152</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="C444" s="3">
-        <v>7008623366228</v>
+        <v>7009212365539</v>
       </c>
       <c r="D444" t="s">
-        <v>184</v>
+        <v>354</v>
       </c>
       <c r="E444" s="2">
-        <v>43222.638888888891</v>
+        <v>43222.618055555555</v>
+      </c>
+      <c r="F444" t="s">
+        <v>11</v>
+      </c>
+      <c r="J444" t="s">
+        <v>10</v>
+      </c>
+      <c r="K444">
+        <v>1</v>
+      </c>
+      <c r="L444">
+        <v>5</v>
+      </c>
+      <c r="M444" t="s">
+        <v>467</v>
+      </c>
+      <c r="N444" t="s">
+        <v>466</v>
+      </c>
+      <c r="O444" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="445" spans="1:15" x14ac:dyDescent="0.2">
@@ -15779,13 +16574,302 @@
         <v>152</v>
       </c>
       <c r="B445" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C445" s="3">
+        <v>7009208365577</v>
+      </c>
+      <c r="D445" t="s">
+        <v>366</v>
+      </c>
+      <c r="E445" s="2">
+        <v>43222.620138888888</v>
+      </c>
+      <c r="F445" t="s">
+        <v>11</v>
+      </c>
+      <c r="J445" t="s">
+        <v>10</v>
+      </c>
+      <c r="K445">
+        <v>1</v>
+      </c>
+      <c r="L445">
+        <v>2</v>
+      </c>
+      <c r="M445" t="s">
+        <v>468</v>
+      </c>
+      <c r="N445" t="s">
+        <v>466</v>
+      </c>
+      <c r="O445" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>152</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C446" s="3">
+        <v>7009208365588</v>
+      </c>
+      <c r="D446" t="s">
+        <v>367</v>
+      </c>
+      <c r="E446" s="2">
+        <v>43222.621527777781</v>
+      </c>
+      <c r="F446" t="s">
+        <v>11</v>
+      </c>
+      <c r="J446" t="s">
+        <v>10</v>
+      </c>
+      <c r="K446">
+        <v>1</v>
+      </c>
+      <c r="L446">
+        <v>40</v>
+      </c>
+      <c r="M446" t="s">
+        <v>469</v>
+      </c>
+      <c r="N446" t="s">
+        <v>466</v>
+      </c>
+      <c r="O446" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>152</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C447" s="3">
+        <v>7009199365638</v>
+      </c>
+      <c r="D447" t="s">
+        <v>368</v>
+      </c>
+      <c r="E447" s="2">
+        <v>43222.623611111114</v>
+      </c>
+      <c r="F447" t="s">
+        <v>11</v>
+      </c>
+      <c r="J447" t="s">
+        <v>10</v>
+      </c>
+      <c r="K447">
+        <v>1</v>
+      </c>
+      <c r="L447">
+        <v>20</v>
+      </c>
+      <c r="M447" t="s">
+        <v>470</v>
+      </c>
+      <c r="N447" t="s">
+        <v>466</v>
+      </c>
+      <c r="O447" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>152</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C448" s="3">
+        <v>7009186365662</v>
+      </c>
+      <c r="D448" t="s">
+        <v>369</v>
+      </c>
+      <c r="E448" s="2">
+        <v>43222.625694444447</v>
+      </c>
+      <c r="F448" t="s">
+        <v>11</v>
+      </c>
+      <c r="J448" t="s">
+        <v>10</v>
+      </c>
+      <c r="K448">
+        <v>1</v>
+      </c>
+      <c r="L448">
+        <v>20</v>
+      </c>
+      <c r="M448" t="s">
+        <v>471</v>
+      </c>
+      <c r="N448" t="s">
+        <v>466</v>
+      </c>
+      <c r="O448" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>152</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C449" s="3">
+        <v>7009186365662</v>
+      </c>
+      <c r="D449" t="s">
+        <v>369</v>
+      </c>
+      <c r="E449" s="2">
+        <v>43222.625694444447</v>
+      </c>
+      <c r="F449" t="s">
+        <v>9</v>
+      </c>
+      <c r="G449">
+        <v>123</v>
+      </c>
+      <c r="H449">
+        <v>120</v>
+      </c>
+      <c r="I449" t="s">
+        <v>156</v>
+      </c>
+      <c r="L449">
+        <v>1</v>
+      </c>
+      <c r="N449" t="s">
+        <v>466</v>
+      </c>
+      <c r="O449" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>152</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C450" s="3">
+        <v>7009186365662</v>
+      </c>
+      <c r="D450" t="s">
+        <v>369</v>
+      </c>
+      <c r="E450" s="2">
+        <v>43222.625694444447</v>
+      </c>
+      <c r="F450" t="s">
+        <v>9</v>
+      </c>
+      <c r="G450">
+        <v>145</v>
+      </c>
+      <c r="H450">
+        <v>132</v>
+      </c>
+      <c r="I450" t="s">
+        <v>156</v>
+      </c>
+      <c r="L450">
+        <v>1</v>
+      </c>
+      <c r="N450" t="s">
+        <v>466</v>
+      </c>
+      <c r="O450" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>152</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C451" s="3">
+        <v>7008631366281</v>
+      </c>
+      <c r="D451" t="s">
+        <v>370</v>
+      </c>
+      <c r="E451" s="2">
+        <v>43222.640972222223</v>
+      </c>
+      <c r="F451" t="s">
+        <v>11</v>
+      </c>
+      <c r="J451" t="s">
+        <v>10</v>
+      </c>
+      <c r="K451">
+        <v>1</v>
+      </c>
+      <c r="L451">
+        <v>1</v>
+      </c>
+      <c r="M451" t="s">
+        <v>23</v>
+      </c>
+      <c r="N451" t="s">
+        <v>466</v>
+      </c>
+      <c r="O451" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>152</v>
+      </c>
+      <c r="B452" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C445" s="3">
+      <c r="C452" s="3">
+        <v>7008623366228</v>
+      </c>
+      <c r="D452" t="s">
+        <v>184</v>
+      </c>
+      <c r="E452" s="2">
+        <v>43222.638888888891</v>
+      </c>
+      <c r="F452" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>152</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C453" s="3">
         <v>7009183365670</v>
       </c>
-      <c r="E445" s="2">
+      <c r="E453" s="2">
         <v>43222.640277777777</v>
+      </c>
+      <c r="F453" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Rawdata/riptransekter helags 2018.xlsx
+++ b/Rawdata/riptransekter helags 2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="660" windowWidth="25600" windowHeight="14120" xr2:uid="{731D7839-4CAB-374B-BEA5-3406519CB6C1}"/>
+    <workbookView xWindow="4180" yWindow="1080" windowWidth="25600" windowHeight="14120" xr2:uid="{731D7839-4CAB-374B-BEA5-3406519CB6C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -1800,8 +1800,8 @@
   <dimension ref="A1:Z397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A366" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G371" sqref="G371"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2167,6 +2167,9 @@
       <c r="J10" t="s">
         <v>15</v>
       </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
       <c r="N10" t="s">
         <v>59</v>
       </c>
@@ -3068,6 +3071,9 @@
       <c r="I36" t="s">
         <v>156</v>
       </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
       <c r="N36" t="s">
         <v>158</v>
       </c>
@@ -3105,6 +3111,9 @@
       </c>
       <c r="I37" t="s">
         <v>156</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
       </c>
       <c r="N37" t="s">
         <v>158</v>

--- a/Rawdata/riptransekter helags 2018.xlsx
+++ b/Rawdata/riptransekter helags 2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="1080" windowWidth="25600" windowHeight="14120" xr2:uid="{731D7839-4CAB-374B-BEA5-3406519CB6C1}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14120" xr2:uid="{731D7839-4CAB-374B-BEA5-3406519CB6C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2875" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2875" uniqueCount="472">
   <si>
     <t>vinkel</t>
   </si>
@@ -1296,9 +1296,6 @@
   </si>
   <si>
     <t>snö, lätt vind</t>
-  </si>
-  <si>
-    <t>saknar</t>
   </si>
   <si>
     <t>sol, lite snöfall</t>
@@ -1800,8 +1797,8 @@
   <dimension ref="A1:Z397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L38" sqref="L38"/>
+      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A247" sqref="A247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11148,7 +11145,7 @@
         <v>422</v>
       </c>
       <c r="O239" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="240" spans="1:26" x14ac:dyDescent="0.2">
@@ -11186,7 +11183,7 @@
         <v>422</v>
       </c>
       <c r="O240" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.2">
@@ -11224,7 +11221,7 @@
         <v>422</v>
       </c>
       <c r="O241" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.2">
@@ -11262,7 +11259,7 @@
         <v>422</v>
       </c>
       <c r="O242" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.2">
@@ -11288,7 +11285,7 @@
         <v>422</v>
       </c>
       <c r="O243" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.2">
@@ -11314,7 +11311,7 @@
         <v>422</v>
       </c>
       <c r="O244" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.2">
@@ -11352,7 +11349,7 @@
         <v>422</v>
       </c>
       <c r="O245" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.2">
@@ -11378,7 +11375,7 @@
         <v>422</v>
       </c>
       <c r="O246" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.2">
@@ -11404,7 +11401,7 @@
         <v>422</v>
       </c>
       <c r="O247" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.2">
@@ -11430,12 +11427,12 @@
         <v>423</v>
       </c>
       <c r="O248" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>424</v>
+        <v>125</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>66</v>
@@ -11471,7 +11468,7 @@
         <v>423</v>
       </c>
       <c r="O249" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.2">
@@ -11512,7 +11509,7 @@
         <v>423</v>
       </c>
       <c r="O250" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.2">
@@ -11547,10 +11544,10 @@
         <v>1</v>
       </c>
       <c r="N251" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O251" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.2">
@@ -11588,10 +11585,10 @@
         <v>2</v>
       </c>
       <c r="N252" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O252" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.2">
@@ -11629,10 +11626,10 @@
         <v>3</v>
       </c>
       <c r="N253" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O253" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.2">
@@ -11670,10 +11667,10 @@
         <v>1</v>
       </c>
       <c r="N254" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O254" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.2">
@@ -11696,10 +11693,10 @@
         <v>51</v>
       </c>
       <c r="N255" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O255" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.2">
@@ -11722,10 +11719,10 @@
         <v>161</v>
       </c>
       <c r="N256" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O256" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="257" spans="1:16" x14ac:dyDescent="0.2">
@@ -11760,10 +11757,10 @@
         <v>1</v>
       </c>
       <c r="N257" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O257" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="258" spans="1:16" x14ac:dyDescent="0.2">
@@ -11801,10 +11798,10 @@
         <v>1</v>
       </c>
       <c r="N258" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O258" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="259" spans="1:16" x14ac:dyDescent="0.2">
@@ -11842,10 +11839,10 @@
         <v>1</v>
       </c>
       <c r="N259" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O259" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="260" spans="1:16" x14ac:dyDescent="0.2">
@@ -11883,10 +11880,10 @@
         <v>3</v>
       </c>
       <c r="N260" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O260" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P260" s="2"/>
     </row>
@@ -11925,13 +11922,13 @@
         <v>1</v>
       </c>
       <c r="M261" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N261" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O261" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P261" s="2"/>
     </row>
@@ -11970,10 +11967,10 @@
         <v>1</v>
       </c>
       <c r="N262" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O262" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P262" s="2"/>
     </row>
@@ -11997,13 +11994,13 @@
         <v>161</v>
       </c>
       <c r="M263" t="s">
+        <v>427</v>
+      </c>
+      <c r="N263" t="s">
         <v>428</v>
       </c>
-      <c r="N263" t="s">
-        <v>429</v>
-      </c>
       <c r="O263" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P263" s="2"/>
     </row>
@@ -12042,13 +12039,13 @@
         <v>2</v>
       </c>
       <c r="M264" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N264" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O264" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P264" s="2"/>
     </row>
@@ -12087,10 +12084,10 @@
         <v>15</v>
       </c>
       <c r="N265" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O265" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P265" s="2"/>
     </row>
@@ -12126,10 +12123,10 @@
         <v>1</v>
       </c>
       <c r="N266" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O266" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P266" s="2"/>
     </row>
@@ -12138,13 +12135,13 @@
         <v>125</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C267" s="3">
         <v>6984145357456</v>
       </c>
       <c r="D267" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E267" s="2">
         <v>43217.541666666664</v>
@@ -12168,13 +12165,13 @@
         <v>2</v>
       </c>
       <c r="M267" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="N267" t="s">
         <v>434</v>
       </c>
-      <c r="N267" t="s">
+      <c r="O267" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="O267" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="P267" s="2"/>
     </row>
@@ -12204,13 +12201,13 @@
         <v>4</v>
       </c>
       <c r="M268" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N268" t="s">
+        <v>434</v>
+      </c>
+      <c r="O268" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="O268" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="P268" s="2"/>
     </row>
@@ -12235,10 +12232,10 @@
       </c>
       <c r="M269" s="3"/>
       <c r="N269" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O269" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P269" s="2"/>
     </row>
@@ -12269,10 +12266,10 @@
       </c>
       <c r="M270" s="3"/>
       <c r="N270" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O270" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P270" s="2"/>
     </row>
@@ -12297,10 +12294,10 @@
       </c>
       <c r="M271" s="3"/>
       <c r="N271" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O271" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P271" s="2"/>
     </row>
@@ -12331,10 +12328,10 @@
       </c>
       <c r="M272" s="3"/>
       <c r="N272" t="s">
+        <v>441</v>
+      </c>
+      <c r="O272" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O272" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="P272" s="2"/>
     </row>
@@ -12365,10 +12362,10 @@
       </c>
       <c r="M273" s="3"/>
       <c r="N273" t="s">
+        <v>441</v>
+      </c>
+      <c r="O273" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O273" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="P273" s="2"/>
     </row>
@@ -12405,10 +12402,10 @@
       </c>
       <c r="M274" s="3"/>
       <c r="N274" t="s">
+        <v>441</v>
+      </c>
+      <c r="O274" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O274" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="P274" s="2"/>
     </row>
@@ -12439,10 +12436,10 @@
       </c>
       <c r="M275" s="3"/>
       <c r="N275" t="s">
+        <v>441</v>
+      </c>
+      <c r="O275" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O275" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="P275" s="2"/>
     </row>
@@ -12473,10 +12470,10 @@
       </c>
       <c r="M276" s="3"/>
       <c r="N276" t="s">
+        <v>441</v>
+      </c>
+      <c r="O276" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O276" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="P276" s="2"/>
     </row>
@@ -12507,10 +12504,10 @@
       </c>
       <c r="M277" s="3"/>
       <c r="N277" t="s">
+        <v>441</v>
+      </c>
+      <c r="O277" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O277" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="P277" s="2"/>
     </row>
@@ -12541,10 +12538,10 @@
       </c>
       <c r="M278" s="3"/>
       <c r="N278" t="s">
+        <v>441</v>
+      </c>
+      <c r="O278" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O278" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="P278" s="2"/>
     </row>
@@ -12583,13 +12580,13 @@
         <v>1</v>
       </c>
       <c r="M279" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N279" t="s">
+        <v>441</v>
+      </c>
+      <c r="O279" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O279" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="P279" s="2"/>
     </row>
@@ -12620,10 +12617,10 @@
       </c>
       <c r="M280" s="3"/>
       <c r="N280" t="s">
+        <v>441</v>
+      </c>
+      <c r="O280" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O280" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="P280" s="2"/>
     </row>
@@ -12654,10 +12651,10 @@
       </c>
       <c r="M281" s="3"/>
       <c r="N281" t="s">
+        <v>441</v>
+      </c>
+      <c r="O281" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O281" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="P281" s="2"/>
     </row>
@@ -12697,10 +12694,10 @@
       </c>
       <c r="M282" s="3"/>
       <c r="N282" t="s">
+        <v>441</v>
+      </c>
+      <c r="O282" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O282" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="P282" s="2"/>
     </row>
@@ -12737,10 +12734,10 @@
       </c>
       <c r="M283" s="3"/>
       <c r="N283" t="s">
+        <v>441</v>
+      </c>
+      <c r="O283" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O283" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="P283" s="2"/>
     </row>
@@ -12777,10 +12774,10 @@
       </c>
       <c r="M284" s="3"/>
       <c r="N284" t="s">
+        <v>441</v>
+      </c>
+      <c r="O284" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O284" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="P284" s="2"/>
     </row>
@@ -12811,10 +12808,10 @@
       </c>
       <c r="M285" s="3"/>
       <c r="N285" t="s">
+        <v>441</v>
+      </c>
+      <c r="O285" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O285" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="P285" s="2"/>
     </row>
@@ -12845,10 +12842,10 @@
       </c>
       <c r="M286" s="3"/>
       <c r="N286" t="s">
+        <v>441</v>
+      </c>
+      <c r="O286" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O286" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="287" spans="1:16" x14ac:dyDescent="0.2">
@@ -12878,10 +12875,10 @@
       </c>
       <c r="M287" s="3"/>
       <c r="N287" t="s">
+        <v>441</v>
+      </c>
+      <c r="O287" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O287" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="288" spans="1:16" x14ac:dyDescent="0.2">
@@ -12905,10 +12902,10 @@
       </c>
       <c r="M288" s="3"/>
       <c r="N288" t="s">
+        <v>441</v>
+      </c>
+      <c r="O288" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O288" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.2">
@@ -12938,10 +12935,10 @@
       </c>
       <c r="M289" s="3"/>
       <c r="N289" t="s">
+        <v>441</v>
+      </c>
+      <c r="O289" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O289" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.2">
@@ -12970,13 +12967,13 @@
         <v>2</v>
       </c>
       <c r="M290" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N290" t="s">
+        <v>441</v>
+      </c>
+      <c r="O290" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O290" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.2">
@@ -13006,10 +13003,10 @@
       </c>
       <c r="M291" s="3"/>
       <c r="N291" t="s">
+        <v>441</v>
+      </c>
+      <c r="O291" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O291" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.2">
@@ -13039,10 +13036,10 @@
       </c>
       <c r="M292" s="3"/>
       <c r="N292" t="s">
+        <v>441</v>
+      </c>
+      <c r="O292" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O292" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.2">
@@ -13071,13 +13068,13 @@
         <v>1</v>
       </c>
       <c r="M293" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N293" t="s">
+        <v>441</v>
+      </c>
+      <c r="O293" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O293" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.2">
@@ -13106,10 +13103,10 @@
         <v>1</v>
       </c>
       <c r="N294" t="s">
+        <v>441</v>
+      </c>
+      <c r="O294" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O294" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.2">
@@ -13138,10 +13135,10 @@
         <v>1</v>
       </c>
       <c r="N295" t="s">
+        <v>441</v>
+      </c>
+      <c r="O295" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O295" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.2">
@@ -13164,10 +13161,10 @@
         <v>51</v>
       </c>
       <c r="N296" t="s">
+        <v>441</v>
+      </c>
+      <c r="O296" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O296" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.2">
@@ -13190,10 +13187,10 @@
         <v>51</v>
       </c>
       <c r="N297" t="s">
+        <v>441</v>
+      </c>
+      <c r="O297" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O297" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.2">
@@ -13216,10 +13213,10 @@
         <v>51</v>
       </c>
       <c r="N298" t="s">
+        <v>441</v>
+      </c>
+      <c r="O298" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O298" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.2">
@@ -13248,10 +13245,10 @@
         <v>2</v>
       </c>
       <c r="N299" t="s">
+        <v>441</v>
+      </c>
+      <c r="O299" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O299" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.2">
@@ -13280,10 +13277,10 @@
         <v>2</v>
       </c>
       <c r="N300" t="s">
+        <v>441</v>
+      </c>
+      <c r="O300" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O300" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.2">
@@ -13312,13 +13309,13 @@
         <v>2</v>
       </c>
       <c r="M301" t="s">
+        <v>440</v>
+      </c>
+      <c r="N301" t="s">
         <v>441</v>
       </c>
-      <c r="N301" t="s">
+      <c r="O301" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O301" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.2">
@@ -13356,10 +13353,10 @@
         <v>2</v>
       </c>
       <c r="N302" t="s">
+        <v>441</v>
+      </c>
+      <c r="O302" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O302" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="303" spans="1:15" x14ac:dyDescent="0.2">
@@ -13388,13 +13385,13 @@
         <v>3</v>
       </c>
       <c r="M303" t="s">
+        <v>440</v>
+      </c>
+      <c r="N303" t="s">
         <v>441</v>
       </c>
-      <c r="N303" t="s">
+      <c r="O303" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O303" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="304" spans="1:15" x14ac:dyDescent="0.2">
@@ -13426,10 +13423,10 @@
         <v>1</v>
       </c>
       <c r="N304" t="s">
+        <v>441</v>
+      </c>
+      <c r="O304" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O304" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.2">
@@ -13458,10 +13455,10 @@
         <v>1</v>
       </c>
       <c r="N305" t="s">
+        <v>441</v>
+      </c>
+      <c r="O305" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O305" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.2">
@@ -13496,10 +13493,10 @@
         <v>23</v>
       </c>
       <c r="N306" t="s">
+        <v>441</v>
+      </c>
+      <c r="O306" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O306" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.2">
@@ -13534,10 +13531,10 @@
         <v>23</v>
       </c>
       <c r="N307" t="s">
+        <v>441</v>
+      </c>
+      <c r="O307" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O307" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.2">
@@ -13572,10 +13569,10 @@
         <v>1</v>
       </c>
       <c r="N308" t="s">
+        <v>441</v>
+      </c>
+      <c r="O308" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O308" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.2">
@@ -13599,10 +13596,10 @@
       </c>
       <c r="L309" s="3"/>
       <c r="N309" t="s">
+        <v>441</v>
+      </c>
+      <c r="O309" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O309" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.2">
@@ -13631,10 +13628,10 @@
         <v>2</v>
       </c>
       <c r="N310" t="s">
+        <v>441</v>
+      </c>
+      <c r="O310" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O310" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.2">
@@ -13672,10 +13669,10 @@
         <v>1</v>
       </c>
       <c r="N311" t="s">
+        <v>441</v>
+      </c>
+      <c r="O311" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O311" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.2">
@@ -13704,10 +13701,10 @@
         <v>4</v>
       </c>
       <c r="N312" t="s">
+        <v>441</v>
+      </c>
+      <c r="O312" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O312" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.2">
@@ -13736,10 +13733,10 @@
         <v>2</v>
       </c>
       <c r="N313" t="s">
+        <v>441</v>
+      </c>
+      <c r="O313" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O313" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.2">
@@ -13768,10 +13765,10 @@
         <v>2</v>
       </c>
       <c r="N314" t="s">
+        <v>441</v>
+      </c>
+      <c r="O314" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O314" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.2">
@@ -13800,10 +13797,10 @@
         <v>2</v>
       </c>
       <c r="N315" t="s">
+        <v>441</v>
+      </c>
+      <c r="O315" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O315" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.2">
@@ -13832,10 +13829,10 @@
         <v>1</v>
       </c>
       <c r="N316" t="s">
+        <v>441</v>
+      </c>
+      <c r="O316" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O316" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="317" spans="1:15" x14ac:dyDescent="0.2">
@@ -13864,10 +13861,10 @@
         <v>5</v>
       </c>
       <c r="N317" t="s">
+        <v>441</v>
+      </c>
+      <c r="O317" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O317" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="318" spans="1:15" x14ac:dyDescent="0.2">
@@ -13896,10 +13893,10 @@
         <v>1</v>
       </c>
       <c r="N318" t="s">
+        <v>441</v>
+      </c>
+      <c r="O318" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="O318" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="319" spans="1:15" x14ac:dyDescent="0.2">
@@ -13923,10 +13920,10 @@
       </c>
       <c r="L319" s="3"/>
       <c r="N319" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="O319" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="O319" s="2" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.2">
@@ -13961,10 +13958,10 @@
         <v>394</v>
       </c>
       <c r="N320" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="O320" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="O320" s="2" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="321" spans="1:15" x14ac:dyDescent="0.2">
@@ -13999,10 +13996,10 @@
         <v>420</v>
       </c>
       <c r="N321" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="O321" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="O321" s="2" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="322" spans="1:15" x14ac:dyDescent="0.2">
@@ -14031,10 +14028,10 @@
         <v>1</v>
       </c>
       <c r="N322" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="O322" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="O322" s="2" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="323" spans="1:15" x14ac:dyDescent="0.2">
@@ -14066,10 +14063,10 @@
         <v>1</v>
       </c>
       <c r="N323" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="O323" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="O323" s="2" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="324" spans="1:15" x14ac:dyDescent="0.2">
@@ -14098,10 +14095,10 @@
         <v>1</v>
       </c>
       <c r="N324" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="O324" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="O324" s="2" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.2">
@@ -14133,10 +14130,10 @@
         <v>30</v>
       </c>
       <c r="N325" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O325" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="326" spans="1:15" x14ac:dyDescent="0.2">
@@ -14174,13 +14171,13 @@
         <v>2</v>
       </c>
       <c r="M326" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N326" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O326" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="327" spans="1:15" x14ac:dyDescent="0.2">
@@ -14218,10 +14215,10 @@
         <v>1</v>
       </c>
       <c r="N327" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O327" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="328" spans="1:15" x14ac:dyDescent="0.2">
@@ -14244,10 +14241,10 @@
         <v>161</v>
       </c>
       <c r="N328" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O328" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="329" spans="1:15" x14ac:dyDescent="0.2">
@@ -14282,10 +14279,10 @@
         <v>420</v>
       </c>
       <c r="N329" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O329" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="330" spans="1:15" x14ac:dyDescent="0.2">
@@ -14311,13 +14308,13 @@
         <v>1</v>
       </c>
       <c r="M330" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N330" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O330" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="331" spans="1:15" x14ac:dyDescent="0.2">
@@ -14349,13 +14346,13 @@
         <v>2</v>
       </c>
       <c r="M331" t="s">
+        <v>449</v>
+      </c>
+      <c r="N331" t="s">
         <v>450</v>
       </c>
-      <c r="N331" t="s">
-        <v>451</v>
-      </c>
       <c r="O331" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="332" spans="1:15" x14ac:dyDescent="0.2">
@@ -14390,10 +14387,10 @@
         <v>1</v>
       </c>
       <c r="N332" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O332" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="333" spans="1:15" x14ac:dyDescent="0.2">
@@ -14431,10 +14428,10 @@
         <v>2</v>
       </c>
       <c r="N333" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O333" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="334" spans="1:15" x14ac:dyDescent="0.2">
@@ -14472,10 +14469,10 @@
         <v>2</v>
       </c>
       <c r="N334" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O334" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="335" spans="1:15" x14ac:dyDescent="0.2">
@@ -14507,10 +14504,10 @@
         <v>2</v>
       </c>
       <c r="N335" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O335" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="336" spans="1:15" x14ac:dyDescent="0.2">
@@ -14545,10 +14542,10 @@
         <v>394</v>
       </c>
       <c r="N336" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O336" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.2">
@@ -14577,10 +14574,10 @@
         <v>1</v>
       </c>
       <c r="N337" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O337" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="338" spans="1:15" x14ac:dyDescent="0.2">
@@ -14618,10 +14615,10 @@
         <v>1</v>
       </c>
       <c r="N338" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O338" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.2">
@@ -14650,10 +14647,10 @@
         <v>1</v>
       </c>
       <c r="N339" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O339" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="340" spans="1:15" x14ac:dyDescent="0.2">
@@ -14682,13 +14679,13 @@
         <v>5</v>
       </c>
       <c r="M340" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N340" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O340" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="341" spans="1:15" x14ac:dyDescent="0.2">
@@ -14717,10 +14714,10 @@
         <v>1</v>
       </c>
       <c r="N341" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O341" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="342" spans="1:15" x14ac:dyDescent="0.2">
@@ -14752,10 +14749,10 @@
         <v>1</v>
       </c>
       <c r="N342" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O342" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="343" spans="1:15" x14ac:dyDescent="0.2">
@@ -14790,10 +14787,10 @@
         <v>2</v>
       </c>
       <c r="N343" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O343" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.2">
@@ -14816,10 +14813,10 @@
         <v>161</v>
       </c>
       <c r="N344" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O344" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.2">
@@ -14848,13 +14845,13 @@
         <v>15</v>
       </c>
       <c r="M345" t="s">
+        <v>453</v>
+      </c>
+      <c r="N345" t="s">
         <v>454</v>
       </c>
-      <c r="N345" t="s">
-        <v>455</v>
-      </c>
       <c r="O345" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="346" spans="1:15" x14ac:dyDescent="0.2">
@@ -14892,10 +14889,10 @@
         <v>2</v>
       </c>
       <c r="N346" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O346" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="347" spans="1:15" x14ac:dyDescent="0.2">
@@ -14927,10 +14924,10 @@
         <v>393</v>
       </c>
       <c r="N347" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O347" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.2">
@@ -14959,13 +14956,13 @@
         <v>20</v>
       </c>
       <c r="M348" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N348" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O348" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="349" spans="1:15" x14ac:dyDescent="0.2">
@@ -15040,10 +15037,10 @@
         <v>1</v>
       </c>
       <c r="N351" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O351" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.2">
@@ -15075,13 +15072,13 @@
         <v>3</v>
       </c>
       <c r="M352" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N352" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O352" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="353" spans="1:15" x14ac:dyDescent="0.2">
@@ -15116,10 +15113,10 @@
         <v>23</v>
       </c>
       <c r="N353" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O353" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="354" spans="1:15" x14ac:dyDescent="0.2">
@@ -15154,10 +15151,10 @@
         <v>23</v>
       </c>
       <c r="N354" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O354" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="355" spans="1:15" x14ac:dyDescent="0.2">
@@ -15192,10 +15189,10 @@
         <v>23</v>
       </c>
       <c r="N355" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O355" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="356" spans="1:15" x14ac:dyDescent="0.2">
@@ -15230,10 +15227,10 @@
         <v>23</v>
       </c>
       <c r="N356" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O356" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="357" spans="1:15" x14ac:dyDescent="0.2">
@@ -15268,10 +15265,10 @@
         <v>392</v>
       </c>
       <c r="N357" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O357" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="358" spans="1:15" x14ac:dyDescent="0.2">
@@ -15306,10 +15303,10 @@
         <v>23</v>
       </c>
       <c r="N358" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O358" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="359" spans="1:15" x14ac:dyDescent="0.2">
@@ -15347,10 +15344,10 @@
         <v>1</v>
       </c>
       <c r="N359" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O359" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.2">
@@ -15385,10 +15382,10 @@
         <v>1</v>
       </c>
       <c r="N360" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O360" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="361" spans="1:15" x14ac:dyDescent="0.2">
@@ -15423,10 +15420,10 @@
         <v>1</v>
       </c>
       <c r="N361" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O361" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="362" spans="1:15" x14ac:dyDescent="0.2">
@@ -15464,10 +15461,10 @@
         <v>2</v>
       </c>
       <c r="N362" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O362" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.2">
@@ -15502,10 +15499,10 @@
         <v>1</v>
       </c>
       <c r="N363" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O363" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="364" spans="1:15" x14ac:dyDescent="0.2">
@@ -15534,13 +15531,13 @@
         <v>6</v>
       </c>
       <c r="M364" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N364" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O364" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="365" spans="1:15" x14ac:dyDescent="0.2">
@@ -15575,10 +15572,10 @@
         <v>1</v>
       </c>
       <c r="N365" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O365" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="366" spans="1:15" x14ac:dyDescent="0.2">
@@ -15610,13 +15607,13 @@
         <v>20</v>
       </c>
       <c r="M366" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N366" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O366" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="367" spans="1:15" x14ac:dyDescent="0.2">
@@ -15645,13 +15642,13 @@
         <v>1</v>
       </c>
       <c r="M367" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N367" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O367" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="368" spans="1:15" x14ac:dyDescent="0.2">
@@ -15680,10 +15677,10 @@
         <v>1</v>
       </c>
       <c r="N368" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O368" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="369" spans="1:15" x14ac:dyDescent="0.2">
@@ -15712,10 +15709,10 @@
         <v>3</v>
       </c>
       <c r="N369" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O369" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="370" spans="1:15" x14ac:dyDescent="0.2">
@@ -15738,10 +15735,10 @@
         <v>161</v>
       </c>
       <c r="N370" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O370" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="371" spans="1:15" x14ac:dyDescent="0.2">
@@ -15779,10 +15776,10 @@
         <v>1</v>
       </c>
       <c r="N371" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O371" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="372" spans="1:15" x14ac:dyDescent="0.2">
@@ -15814,13 +15811,13 @@
         <v>30</v>
       </c>
       <c r="M372" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N372" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O372" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="373" spans="1:15" x14ac:dyDescent="0.2">
@@ -15849,13 +15846,13 @@
         <v>8</v>
       </c>
       <c r="M373" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N373" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O373" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="374" spans="1:15" x14ac:dyDescent="0.2">
@@ -15884,13 +15881,13 @@
         <v>3</v>
       </c>
       <c r="M374" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N374" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O374" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="375" spans="1:15" x14ac:dyDescent="0.2">
@@ -15919,13 +15916,13 @@
         <v>4</v>
       </c>
       <c r="M375" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N375" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O375" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="376" spans="1:15" x14ac:dyDescent="0.2">
@@ -15954,13 +15951,13 @@
         <v>1</v>
       </c>
       <c r="M376" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N376" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O376" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="377" spans="1:15" x14ac:dyDescent="0.2">
@@ -15992,13 +15989,13 @@
         <v>4</v>
       </c>
       <c r="M377" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N377" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O377" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="378" spans="1:15" x14ac:dyDescent="0.2">
@@ -16030,13 +16027,13 @@
         <v>20</v>
       </c>
       <c r="M378" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N378" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O378" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="379" spans="1:15" x14ac:dyDescent="0.2">
@@ -16071,10 +16068,10 @@
         <v>23</v>
       </c>
       <c r="N379" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O379" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="380" spans="1:15" x14ac:dyDescent="0.2">
@@ -16106,13 +16103,13 @@
         <v>10</v>
       </c>
       <c r="M380" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N380" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O380" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="381" spans="1:15" x14ac:dyDescent="0.2">
@@ -16147,10 +16144,10 @@
         <v>392</v>
       </c>
       <c r="N381" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O381" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="382" spans="1:15" x14ac:dyDescent="0.2">
@@ -16188,10 +16185,10 @@
         <v>2</v>
       </c>
       <c r="N382" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O382" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="383" spans="1:15" x14ac:dyDescent="0.2">
@@ -16226,10 +16223,10 @@
         <v>1</v>
       </c>
       <c r="N383" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O383" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="384" spans="1:15" x14ac:dyDescent="0.2">
@@ -16252,10 +16249,10 @@
         <v>161</v>
       </c>
       <c r="N384" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O384" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="385" spans="1:15" x14ac:dyDescent="0.2">
@@ -16293,10 +16290,10 @@
         <v>1</v>
       </c>
       <c r="N385" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O385" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="386" spans="1:15" x14ac:dyDescent="0.2">
@@ -16331,10 +16328,10 @@
         <v>23</v>
       </c>
       <c r="N386" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O386" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="387" spans="1:15" x14ac:dyDescent="0.2">
@@ -16357,10 +16354,10 @@
         <v>151</v>
       </c>
       <c r="N387" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O387" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="388" spans="1:15" x14ac:dyDescent="0.2">
@@ -16392,13 +16389,13 @@
         <v>5</v>
       </c>
       <c r="M388" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N388" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O388" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="389" spans="1:15" x14ac:dyDescent="0.2">
@@ -16430,13 +16427,13 @@
         <v>2</v>
       </c>
       <c r="M389" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="N389" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O389" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="390" spans="1:15" x14ac:dyDescent="0.2">
@@ -16468,13 +16465,13 @@
         <v>40</v>
       </c>
       <c r="M390" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="N390" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O390" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="391" spans="1:15" x14ac:dyDescent="0.2">
@@ -16506,13 +16503,13 @@
         <v>20</v>
       </c>
       <c r="M391" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N391" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O391" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="392" spans="1:15" x14ac:dyDescent="0.2">
@@ -16544,13 +16541,13 @@
         <v>20</v>
       </c>
       <c r="M392" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N392" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O392" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="393" spans="1:15" x14ac:dyDescent="0.2">
@@ -16585,10 +16582,10 @@
         <v>1</v>
       </c>
       <c r="N393" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O393" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="394" spans="1:15" x14ac:dyDescent="0.2">
@@ -16623,10 +16620,10 @@
         <v>1</v>
       </c>
       <c r="N394" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O394" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="395" spans="1:15" x14ac:dyDescent="0.2">
@@ -16661,10 +16658,10 @@
         <v>23</v>
       </c>
       <c r="N395" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O395" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="396" spans="1:15" x14ac:dyDescent="0.2">
